--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="282">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -702,6 +702,165 @@
   </si>
   <si>
     <t>Prayer Of Faith</t>
+  </si>
+  <si>
+    <t>Blood Lust</t>
+  </si>
+  <si>
+    <t>Squires Hopes</t>
+  </si>
+  <si>
+    <t>Smiths Blood</t>
+  </si>
+  <si>
+    <t>Archers Bane</t>
+  </si>
+  <si>
+    <t>Litch Scythe</t>
+  </si>
+  <si>
+    <t>The scythe of a list carries the powers of the dead, of death to be more specific. Made of the darkest magics and held together by the sacrifices of the damned, this scythe will cut through both light and shadow.</t>
+  </si>
+  <si>
+    <t>Golden Touch</t>
+  </si>
+  <si>
+    <t>Dagger Of Mystics</t>
+  </si>
+  <si>
+    <t>Theres a dagger that acts like a key. A key to a mystical plane known as the astral plane. How ever, much like this dagger, the mystics also made this dagger.</t>
+  </si>
+  <si>
+    <t>Witches Hooked Broom</t>
+  </si>
+  <si>
+    <t>This hooked broom can let you fly high into the sky, and rip out their cuts with the razor sharp hook on the end of the handle. After wards, you can use the broom to clean up said guts.</t>
+  </si>
+  <si>
+    <t>Dwarven Forged Breast</t>
+  </si>
+  <si>
+    <t>Forged by dwarves in their mountain homes, deep in the pits of the earth when you people like to go and hunt for shiny objects. More like get your selves killed while looking for those "shiny pieces".</t>
+  </si>
+  <si>
+    <t>Witches Flesh Shield</t>
+  </si>
+  <si>
+    <t>Made from the the finest and freshest witch flesh I could find. Skinned her alive I did.</t>
+  </si>
+  <si>
+    <t>Elven Chain</t>
+  </si>
+  <si>
+    <t>Th elves are known for creating some very beautiful art, weapons and most of all armour.</t>
+  </si>
+  <si>
+    <t>Cursed Iron Cap</t>
+  </si>
+  <si>
+    <t>Cursed by some priest in some old village, this cap will fill your head with the voices of the damned.</t>
+  </si>
+  <si>
+    <t>Devils Hand Shake</t>
+  </si>
+  <si>
+    <t>Simple gloves, they are. But imbued with the hand shake of the devil him self. They say theres good luck with in gloves.</t>
+  </si>
+  <si>
+    <t>Angelic Plate Boots</t>
+  </si>
+  <si>
+    <t>Blessed by the angels them selves, these boots will carry you high into the heavens.</t>
+  </si>
+  <si>
+    <t>Goblin Leather Sleeves</t>
+  </si>
+  <si>
+    <t>Made from the flesh of goblins, stitched with their hair and held together with hope.</t>
+  </si>
+  <si>
+    <t>Shadows Dance</t>
+  </si>
+  <si>
+    <t>Make the shadows dance for you, make them hunt for you. Make them kill for you.</t>
+  </si>
+  <si>
+    <t>Unholy Vow</t>
+  </si>
+  <si>
+    <t>Take the vow and become a sinful, prideful person - as long as you take the vow child, your wounds shall heal over.</t>
+  </si>
+  <si>
+    <t>Astral Ring</t>
+  </si>
+  <si>
+    <t>Looking to head to the astral plane? This isn't the key the mystics made, but it will focus your mind and soul.</t>
+  </si>
+  <si>
+    <t>Dragon Mage Scale</t>
+  </si>
+  <si>
+    <t>Created from the scales of dragons and enchanted by the mages of old, this armour is hard to come by.</t>
+  </si>
+  <si>
+    <t>Ice Fiend Shield</t>
+  </si>
+  <si>
+    <t>I hunted these beasts, day in and day out. Crafted weapons and armour from their corpses. Alas this is my proudest possession.</t>
+  </si>
+  <si>
+    <t>Blood Covered Stone Leggings</t>
+  </si>
+  <si>
+    <t>Enchanted to look like stone, but as light as a feather. These leggings are covered in the blood of another how ever.</t>
+  </si>
+  <si>
+    <t>Ageless Leather Boots</t>
+  </si>
+  <si>
+    <t>They never age, they never wear out, they always look good. Always</t>
+  </si>
+  <si>
+    <t>Mythril sleeves</t>
+  </si>
+  <si>
+    <t>Made from the rarest substance on earth, lighter then any feather and stronger then any dragon scale, mythril is an interesting subject to work with.</t>
+  </si>
+  <si>
+    <t>Obsidian Helm</t>
+  </si>
+  <si>
+    <t>made from this glass like substance, it's harder then steel. While it might look delicate I assure you it is not.</t>
+  </si>
+  <si>
+    <t>Angelic Steel Gloves</t>
+  </si>
+  <si>
+    <t>Angelic Steel Gloves come from the heavens above. The gates have always seemed closed and no one has ever been able to enter the heavenly plane. Maybe you can? Maybe they will open the doors for you?</t>
+  </si>
+  <si>
+    <t>Crystal Ring</t>
+  </si>
+  <si>
+    <t>Made completely from the rarest crystals on this plane, even the band is made from crystals. There is magic that radiates in this ring.</t>
+  </si>
+  <si>
+    <t>Hellhounds</t>
+  </si>
+  <si>
+    <t>Conjure the hounds of hell to devour your enemies.</t>
+  </si>
+  <si>
+    <t>Kiss For The Reaper</t>
+  </si>
+  <si>
+    <t>The reaper want's a kiss, a single kiss. Give the reaper a kiss and your wounds will fade away.</t>
+  </si>
+  <si>
+    <t>Hateful Wish</t>
+  </si>
+  <si>
+    <t>Once it was made, the wish, hate was said to fill the land of the hearts o children. Children who rose up and slaughtered their parents in their beds. Alas fairy tales tend to get dark.</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1199,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA96"/>
+  <dimension ref="A1:AA132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,12 +1212,12 @@
     <col min="3" max="3" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="43.560791" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="245.22583" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="251.224365" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="13.996582" bestFit="true" customWidth="true" style="0"/>
@@ -4559,6 +4718,18 @@
       <c r="K93">
         <v>2000</v>
       </c>
+      <c r="U93">
+        <v>1</v>
+      </c>
+      <c r="V93">
+        <v>9</v>
+      </c>
+      <c r="W93">
+        <v>22</v>
+      </c>
+      <c r="X93" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="94" spans="1:27">
       <c r="D94" t="s">
@@ -4681,6 +4852,1530 @@
       </c>
       <c r="X96" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
+      <c r="A97" t="s">
+        <v>229</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>106</v>
+      </c>
+      <c r="E97" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" t="s">
+        <v>107</v>
+      </c>
+      <c r="H97">
+        <v>5</v>
+      </c>
+      <c r="K97">
+        <v>25</v>
+      </c>
+      <c r="O97">
+        <v>0.05</v>
+      </c>
+      <c r="P97">
+        <v>0.05</v>
+      </c>
+      <c r="Q97">
+        <v>0.05</v>
+      </c>
+      <c r="R97">
+        <v>0.05</v>
+      </c>
+      <c r="S97">
+        <v>0.05</v>
+      </c>
+      <c r="U97">
+        <v>1</v>
+      </c>
+      <c r="V97">
+        <v>2</v>
+      </c>
+      <c r="W97">
+        <v>5</v>
+      </c>
+      <c r="X97" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27">
+      <c r="A98" t="s">
+        <v>228</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>98</v>
+      </c>
+      <c r="E98" t="s">
+        <v>36</v>
+      </c>
+      <c r="F98" t="s">
+        <v>99</v>
+      </c>
+      <c r="G98" t="s">
+        <v>36</v>
+      </c>
+      <c r="J98">
+        <v>3</v>
+      </c>
+      <c r="K98">
+        <v>40</v>
+      </c>
+      <c r="U98">
+        <v>1</v>
+      </c>
+      <c r="V98">
+        <v>2</v>
+      </c>
+      <c r="W98">
+        <v>5</v>
+      </c>
+      <c r="X98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
+      <c r="A99" t="s">
+        <v>229</v>
+      </c>
+      <c r="B99" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99" t="s">
+        <v>50</v>
+      </c>
+      <c r="F99" t="s">
+        <v>51</v>
+      </c>
+      <c r="G99" t="s">
+        <v>52</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>10</v>
+      </c>
+      <c r="U99">
+        <v>1</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>5</v>
+      </c>
+      <c r="X99" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27">
+      <c r="A100" t="s">
+        <v>228</v>
+      </c>
+      <c r="B100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>181</v>
+      </c>
+      <c r="E100" t="s">
+        <v>50</v>
+      </c>
+      <c r="F100" t="s">
+        <v>182</v>
+      </c>
+      <c r="G100" t="s">
+        <v>50</v>
+      </c>
+      <c r="J100">
+        <v>17</v>
+      </c>
+      <c r="K100">
+        <v>160</v>
+      </c>
+      <c r="O100">
+        <v>0.15</v>
+      </c>
+      <c r="P100">
+        <v>0.13</v>
+      </c>
+      <c r="Q100">
+        <v>0.12</v>
+      </c>
+      <c r="R100">
+        <v>0.1</v>
+      </c>
+      <c r="S100">
+        <v>0.11</v>
+      </c>
+      <c r="U100">
+        <v>1</v>
+      </c>
+      <c r="V100">
+        <v>13</v>
+      </c>
+      <c r="W100">
+        <v>30</v>
+      </c>
+      <c r="X100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27">
+      <c r="A101" t="s">
+        <v>230</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E101" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" t="s">
+        <v>109</v>
+      </c>
+      <c r="H101">
+        <v>8</v>
+      </c>
+      <c r="K101">
+        <v>50</v>
+      </c>
+      <c r="O101">
+        <v>0.08</v>
+      </c>
+      <c r="P101">
+        <v>0.08</v>
+      </c>
+      <c r="Q101">
+        <v>0.08</v>
+      </c>
+      <c r="R101">
+        <v>0.08</v>
+      </c>
+      <c r="S101">
+        <v>0.08</v>
+      </c>
+      <c r="U101">
+        <v>1</v>
+      </c>
+      <c r="V101">
+        <v>4</v>
+      </c>
+      <c r="W101">
+        <v>8</v>
+      </c>
+      <c r="X101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27">
+      <c r="B102" t="s">
+        <v>231</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>173</v>
+      </c>
+      <c r="E102" t="s">
+        <v>39</v>
+      </c>
+      <c r="F102" t="s">
+        <v>174</v>
+      </c>
+      <c r="G102" t="s">
+        <v>39</v>
+      </c>
+      <c r="J102">
+        <v>18</v>
+      </c>
+      <c r="K102">
+        <v>130</v>
+      </c>
+      <c r="O102">
+        <v>0.1</v>
+      </c>
+      <c r="P102">
+        <v>0.13</v>
+      </c>
+      <c r="Q102">
+        <v>0.1</v>
+      </c>
+      <c r="R102">
+        <v>0.1</v>
+      </c>
+      <c r="S102">
+        <v>0.13</v>
+      </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
+      <c r="V102">
+        <v>9</v>
+      </c>
+      <c r="W102">
+        <v>30</v>
+      </c>
+      <c r="X102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27">
+      <c r="A103" t="s">
+        <v>229</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>94</v>
+      </c>
+      <c r="E103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F103" t="s">
+        <v>95</v>
+      </c>
+      <c r="J103">
+        <v>3</v>
+      </c>
+      <c r="K103">
+        <v>25</v>
+      </c>
+      <c r="U103">
+        <v>1</v>
+      </c>
+      <c r="V103">
+        <v>2</v>
+      </c>
+      <c r="W103">
+        <v>6</v>
+      </c>
+      <c r="X103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27">
+      <c r="A104" t="s">
+        <v>232</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>213</v>
+      </c>
+      <c r="E104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G104" t="s">
+        <v>43</v>
+      </c>
+      <c r="J104">
+        <v>16</v>
+      </c>
+      <c r="K104">
+        <v>700</v>
+      </c>
+      <c r="O104">
+        <v>0.16</v>
+      </c>
+      <c r="P104">
+        <v>0.18</v>
+      </c>
+      <c r="Q104">
+        <v>0.16</v>
+      </c>
+      <c r="U104">
+        <v>1</v>
+      </c>
+      <c r="V104">
+        <v>29</v>
+      </c>
+      <c r="W104">
+        <v>60</v>
+      </c>
+      <c r="X104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27">
+      <c r="A105" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" t="s">
+        <v>28</v>
+      </c>
+      <c r="H105">
+        <v>3</v>
+      </c>
+      <c r="K105">
+        <v>10</v>
+      </c>
+      <c r="U105">
+        <v>1</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>5</v>
+      </c>
+      <c r="X105" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27">
+      <c r="D106" t="s">
+        <v>233</v>
+      </c>
+      <c r="E106" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" t="s">
+        <v>234</v>
+      </c>
+      <c r="H106">
+        <v>50</v>
+      </c>
+      <c r="K106">
+        <v>750</v>
+      </c>
+      <c r="O106">
+        <v>0.19</v>
+      </c>
+      <c r="P106">
+        <v>0.19</v>
+      </c>
+      <c r="Q106">
+        <v>0.19</v>
+      </c>
+      <c r="R106">
+        <v>0.19</v>
+      </c>
+      <c r="S106">
+        <v>0.19</v>
+      </c>
+      <c r="U106">
+        <v>1</v>
+      </c>
+      <c r="V106">
+        <v>13</v>
+      </c>
+      <c r="W106">
+        <v>25</v>
+      </c>
+      <c r="X106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27">
+      <c r="B107" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>96</v>
+      </c>
+      <c r="E107" t="s">
+        <v>39</v>
+      </c>
+      <c r="F107" t="s">
+        <v>97</v>
+      </c>
+      <c r="G107" t="s">
+        <v>39</v>
+      </c>
+      <c r="J107">
+        <v>3</v>
+      </c>
+      <c r="K107">
+        <v>50</v>
+      </c>
+      <c r="U107">
+        <v>1</v>
+      </c>
+      <c r="V107">
+        <v>2</v>
+      </c>
+      <c r="W107">
+        <v>5</v>
+      </c>
+      <c r="X107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27">
+      <c r="D108" t="s">
+        <v>236</v>
+      </c>
+      <c r="E108" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" t="s">
+        <v>237</v>
+      </c>
+      <c r="H108">
+        <v>70</v>
+      </c>
+      <c r="K108">
+        <v>1800</v>
+      </c>
+      <c r="O108">
+        <v>0.2</v>
+      </c>
+      <c r="P108">
+        <v>0.21</v>
+      </c>
+      <c r="Q108">
+        <v>0.22</v>
+      </c>
+      <c r="R108">
+        <v>0.23</v>
+      </c>
+      <c r="S108">
+        <v>0.24</v>
+      </c>
+      <c r="U108">
+        <v>1</v>
+      </c>
+      <c r="V108">
+        <v>15</v>
+      </c>
+      <c r="W108">
+        <v>30</v>
+      </c>
+      <c r="X108" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27">
+      <c r="D109" t="s">
+        <v>238</v>
+      </c>
+      <c r="E109" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" t="s">
+        <v>239</v>
+      </c>
+      <c r="H109">
+        <v>120</v>
+      </c>
+      <c r="K109">
+        <v>2590</v>
+      </c>
+      <c r="O109">
+        <v>0.23</v>
+      </c>
+      <c r="P109">
+        <v>0.25</v>
+      </c>
+      <c r="Q109">
+        <v>0.24</v>
+      </c>
+      <c r="R109">
+        <v>0.25</v>
+      </c>
+      <c r="S109">
+        <v>0.25</v>
+      </c>
+      <c r="U109">
+        <v>1</v>
+      </c>
+      <c r="V109">
+        <v>18</v>
+      </c>
+      <c r="W109">
+        <v>35</v>
+      </c>
+      <c r="X109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27">
+      <c r="D110" t="s">
+        <v>240</v>
+      </c>
+      <c r="E110" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" t="s">
+        <v>241</v>
+      </c>
+      <c r="G110" t="s">
+        <v>30</v>
+      </c>
+      <c r="J110">
+        <v>150</v>
+      </c>
+      <c r="K110">
+        <v>5000</v>
+      </c>
+      <c r="O110">
+        <v>0.29</v>
+      </c>
+      <c r="P110">
+        <v>0.29</v>
+      </c>
+      <c r="Q110">
+        <v>0.29</v>
+      </c>
+      <c r="R110">
+        <v>0.29</v>
+      </c>
+      <c r="S110">
+        <v>0.29</v>
+      </c>
+      <c r="U110">
+        <v>1</v>
+      </c>
+      <c r="V110">
+        <v>40</v>
+      </c>
+      <c r="W110">
+        <v>70</v>
+      </c>
+      <c r="X110" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27">
+      <c r="D111" t="s">
+        <v>242</v>
+      </c>
+      <c r="E111" t="s">
+        <v>33</v>
+      </c>
+      <c r="F111" t="s">
+        <v>243</v>
+      </c>
+      <c r="J111">
+        <v>50</v>
+      </c>
+      <c r="K111">
+        <v>3000</v>
+      </c>
+      <c r="O111">
+        <v>0.2</v>
+      </c>
+      <c r="P111">
+        <v>0.2</v>
+      </c>
+      <c r="Q111">
+        <v>0.2</v>
+      </c>
+      <c r="R111">
+        <v>0.2</v>
+      </c>
+      <c r="S111">
+        <v>0.2</v>
+      </c>
+      <c r="U111">
+        <v>1</v>
+      </c>
+      <c r="V111">
+        <v>30</v>
+      </c>
+      <c r="W111">
+        <v>65</v>
+      </c>
+      <c r="X111" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27">
+      <c r="D112" t="s">
+        <v>244</v>
+      </c>
+      <c r="E112" t="s">
+        <v>39</v>
+      </c>
+      <c r="F112" t="s">
+        <v>245</v>
+      </c>
+      <c r="G112" t="s">
+        <v>39</v>
+      </c>
+      <c r="J112">
+        <v>25</v>
+      </c>
+      <c r="K112">
+        <v>1200</v>
+      </c>
+      <c r="O112">
+        <v>0.17</v>
+      </c>
+      <c r="P112">
+        <v>0.17</v>
+      </c>
+      <c r="Q112">
+        <v>0.17</v>
+      </c>
+      <c r="R112">
+        <v>0.18</v>
+      </c>
+      <c r="S112">
+        <v>0.18</v>
+      </c>
+      <c r="U112">
+        <v>1</v>
+      </c>
+      <c r="V112">
+        <v>29</v>
+      </c>
+      <c r="W112">
+        <v>65</v>
+      </c>
+      <c r="X112" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
+      <c r="D113" t="s">
+        <v>246</v>
+      </c>
+      <c r="E113" t="s">
+        <v>46</v>
+      </c>
+      <c r="F113" t="s">
+        <v>247</v>
+      </c>
+      <c r="J113">
+        <v>22</v>
+      </c>
+      <c r="K113">
+        <v>1657</v>
+      </c>
+      <c r="O113">
+        <v>0.18</v>
+      </c>
+      <c r="P113">
+        <v>0.22</v>
+      </c>
+      <c r="Q113">
+        <v>0.18</v>
+      </c>
+      <c r="R113">
+        <v>0.18</v>
+      </c>
+      <c r="S113">
+        <v>0.19</v>
+      </c>
+      <c r="U113">
+        <v>1</v>
+      </c>
+      <c r="V113">
+        <v>32</v>
+      </c>
+      <c r="W113">
+        <v>67</v>
+      </c>
+      <c r="X113" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27">
+      <c r="D114" t="s">
+        <v>248</v>
+      </c>
+      <c r="E114" t="s">
+        <v>50</v>
+      </c>
+      <c r="F114" t="s">
+        <v>249</v>
+      </c>
+      <c r="G114" t="s">
+        <v>50</v>
+      </c>
+      <c r="J114">
+        <v>18</v>
+      </c>
+      <c r="K114">
+        <v>1600</v>
+      </c>
+      <c r="O114">
+        <v>0.2</v>
+      </c>
+      <c r="P114">
+        <v>0.22</v>
+      </c>
+      <c r="Q114">
+        <v>0.2</v>
+      </c>
+      <c r="R114">
+        <v>0.22</v>
+      </c>
+      <c r="S114">
+        <v>0.2</v>
+      </c>
+      <c r="U114">
+        <v>1</v>
+      </c>
+      <c r="V114">
+        <v>34</v>
+      </c>
+      <c r="W114">
+        <v>67</v>
+      </c>
+      <c r="X114" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27">
+      <c r="D115" t="s">
+        <v>250</v>
+      </c>
+      <c r="E115" t="s">
+        <v>36</v>
+      </c>
+      <c r="F115" t="s">
+        <v>251</v>
+      </c>
+      <c r="G115" t="s">
+        <v>36</v>
+      </c>
+      <c r="J115">
+        <v>18</v>
+      </c>
+      <c r="K115">
+        <v>1300</v>
+      </c>
+      <c r="O115">
+        <v>0.22</v>
+      </c>
+      <c r="P115">
+        <v>0.23</v>
+      </c>
+      <c r="Q115">
+        <v>0.24</v>
+      </c>
+      <c r="R115">
+        <v>0.24</v>
+      </c>
+      <c r="S115">
+        <v>0.2</v>
+      </c>
+      <c r="U115">
+        <v>1</v>
+      </c>
+      <c r="V115">
+        <v>28</v>
+      </c>
+      <c r="W115">
+        <v>65</v>
+      </c>
+      <c r="X115" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27">
+      <c r="D116" t="s">
+        <v>252</v>
+      </c>
+      <c r="E116" t="s">
+        <v>43</v>
+      </c>
+      <c r="F116" t="s">
+        <v>253</v>
+      </c>
+      <c r="J116">
+        <v>18</v>
+      </c>
+      <c r="K116">
+        <v>1800</v>
+      </c>
+      <c r="P116">
+        <v>0.22</v>
+      </c>
+      <c r="Q116">
+        <v>0.22</v>
+      </c>
+      <c r="R116">
+        <v>0.21</v>
+      </c>
+      <c r="U116">
+        <v>1</v>
+      </c>
+      <c r="V116">
+        <v>31</v>
+      </c>
+      <c r="W116">
+        <v>68</v>
+      </c>
+      <c r="X116" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27">
+      <c r="D117" t="s">
+        <v>254</v>
+      </c>
+      <c r="E117" t="s">
+        <v>54</v>
+      </c>
+      <c r="F117" t="s">
+        <v>255</v>
+      </c>
+      <c r="H117">
+        <v>160</v>
+      </c>
+      <c r="K117">
+        <v>3200</v>
+      </c>
+      <c r="U117">
+        <v>1</v>
+      </c>
+      <c r="V117">
+        <v>12</v>
+      </c>
+      <c r="W117">
+        <v>25</v>
+      </c>
+      <c r="X117" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27">
+      <c r="D118" t="s">
+        <v>256</v>
+      </c>
+      <c r="E118" t="s">
+        <v>58</v>
+      </c>
+      <c r="F118" t="s">
+        <v>257</v>
+      </c>
+      <c r="I118">
+        <v>120</v>
+      </c>
+      <c r="K118">
+        <v>2400</v>
+      </c>
+      <c r="U118">
+        <v>1</v>
+      </c>
+      <c r="V118">
+        <v>14</v>
+      </c>
+      <c r="W118">
+        <v>30</v>
+      </c>
+      <c r="X118" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27">
+      <c r="D119" t="s">
+        <v>258</v>
+      </c>
+      <c r="E119" t="s">
+        <v>60</v>
+      </c>
+      <c r="F119" t="s">
+        <v>259</v>
+      </c>
+      <c r="H119">
+        <v>150</v>
+      </c>
+      <c r="K119">
+        <v>2500</v>
+      </c>
+      <c r="O119">
+        <v>0.21</v>
+      </c>
+      <c r="P119">
+        <v>0.22</v>
+      </c>
+      <c r="Q119">
+        <v>0.22</v>
+      </c>
+      <c r="R119">
+        <v>0.25</v>
+      </c>
+      <c r="S119">
+        <v>0.25</v>
+      </c>
+      <c r="U119">
+        <v>1</v>
+      </c>
+      <c r="V119">
+        <v>23</v>
+      </c>
+      <c r="W119">
+        <v>55</v>
+      </c>
+      <c r="X119" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27">
+      <c r="A120" t="s">
+        <v>228</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>195</v>
+      </c>
+      <c r="E120" t="s">
+        <v>46</v>
+      </c>
+      <c r="F120" t="s">
+        <v>196</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="J120">
+        <v>16</v>
+      </c>
+      <c r="K120">
+        <v>270</v>
+      </c>
+      <c r="O120">
+        <v>0.12</v>
+      </c>
+      <c r="P120">
+        <v>0.12</v>
+      </c>
+      <c r="Q120">
+        <v>0.12</v>
+      </c>
+      <c r="R120">
+        <v>0.16</v>
+      </c>
+      <c r="S120">
+        <v>0.16</v>
+      </c>
+      <c r="U120">
+        <v>1</v>
+      </c>
+      <c r="V120">
+        <v>20</v>
+      </c>
+      <c r="W120">
+        <v>50</v>
+      </c>
+      <c r="X120" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27">
+      <c r="D121" t="s">
+        <v>260</v>
+      </c>
+      <c r="E121" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121" t="s">
+        <v>261</v>
+      </c>
+      <c r="G121" t="s">
+        <v>30</v>
+      </c>
+      <c r="J121">
+        <v>200</v>
+      </c>
+      <c r="K121">
+        <v>10000</v>
+      </c>
+      <c r="O121">
+        <v>0.33</v>
+      </c>
+      <c r="P121">
+        <v>0.33</v>
+      </c>
+      <c r="Q121">
+        <v>0.33</v>
+      </c>
+      <c r="R121">
+        <v>0.33</v>
+      </c>
+      <c r="S121">
+        <v>0.33</v>
+      </c>
+      <c r="U121">
+        <v>1</v>
+      </c>
+      <c r="V121">
+        <v>48</v>
+      </c>
+      <c r="W121">
+        <v>70</v>
+      </c>
+      <c r="X121" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27">
+      <c r="D122" t="s">
+        <v>262</v>
+      </c>
+      <c r="E122" t="s">
+        <v>33</v>
+      </c>
+      <c r="F122" t="s">
+        <v>263</v>
+      </c>
+      <c r="J122">
+        <v>75</v>
+      </c>
+      <c r="K122">
+        <v>5400</v>
+      </c>
+      <c r="O122">
+        <v>0.23</v>
+      </c>
+      <c r="P122">
+        <v>0.24</v>
+      </c>
+      <c r="Q122">
+        <v>0.23</v>
+      </c>
+      <c r="R122">
+        <v>0.24</v>
+      </c>
+      <c r="S122">
+        <v>0.23</v>
+      </c>
+      <c r="U122">
+        <v>1</v>
+      </c>
+      <c r="V122">
+        <v>34</v>
+      </c>
+      <c r="W122">
+        <v>75</v>
+      </c>
+      <c r="X122" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27">
+      <c r="D123" t="s">
+        <v>264</v>
+      </c>
+      <c r="E123" t="s">
+        <v>39</v>
+      </c>
+      <c r="F123" t="s">
+        <v>265</v>
+      </c>
+      <c r="G123" t="s">
+        <v>39</v>
+      </c>
+      <c r="J123">
+        <v>28</v>
+      </c>
+      <c r="K123">
+        <v>2600</v>
+      </c>
+      <c r="O123">
+        <v>0.19</v>
+      </c>
+      <c r="P123">
+        <v>0.22</v>
+      </c>
+      <c r="Q123">
+        <v>0.19</v>
+      </c>
+      <c r="R123">
+        <v>0.23</v>
+      </c>
+      <c r="S123">
+        <v>0.22</v>
+      </c>
+      <c r="U123">
+        <v>1</v>
+      </c>
+      <c r="V123">
+        <v>36</v>
+      </c>
+      <c r="W123">
+        <v>78</v>
+      </c>
+      <c r="X123" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27">
+      <c r="D124" t="s">
+        <v>266</v>
+      </c>
+      <c r="E124" t="s">
+        <v>36</v>
+      </c>
+      <c r="F124" t="s">
+        <v>267</v>
+      </c>
+      <c r="G124" t="s">
+        <v>36</v>
+      </c>
+      <c r="J124">
+        <v>22</v>
+      </c>
+      <c r="K124">
+        <v>2500</v>
+      </c>
+      <c r="O124">
+        <v>0.24</v>
+      </c>
+      <c r="P124">
+        <v>0.24</v>
+      </c>
+      <c r="Q124">
+        <v>0.25</v>
+      </c>
+      <c r="R124">
+        <v>0.24</v>
+      </c>
+      <c r="S124">
+        <v>0.24</v>
+      </c>
+      <c r="U124">
+        <v>1</v>
+      </c>
+      <c r="V124">
+        <v>35</v>
+      </c>
+      <c r="W124">
+        <v>78</v>
+      </c>
+      <c r="X124" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27">
+      <c r="D125" t="s">
+        <v>268</v>
+      </c>
+      <c r="E125" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125" t="s">
+        <v>269</v>
+      </c>
+      <c r="G125" t="s">
+        <v>43</v>
+      </c>
+      <c r="J125">
+        <v>20</v>
+      </c>
+      <c r="K125">
+        <v>3200</v>
+      </c>
+      <c r="O125">
+        <v>0.23</v>
+      </c>
+      <c r="R125">
+        <v>0.24</v>
+      </c>
+      <c r="U125">
+        <v>1</v>
+      </c>
+      <c r="V125">
+        <v>37</v>
+      </c>
+      <c r="W125">
+        <v>80</v>
+      </c>
+      <c r="X125" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27">
+      <c r="D126" t="s">
+        <v>270</v>
+      </c>
+      <c r="E126" t="s">
+        <v>46</v>
+      </c>
+      <c r="F126" t="s">
+        <v>271</v>
+      </c>
+      <c r="G126" t="s">
+        <v>46</v>
+      </c>
+      <c r="K126">
+        <v>3000</v>
+      </c>
+      <c r="P126">
+        <v>0.25</v>
+      </c>
+      <c r="Q126">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27">
+      <c r="A127" t="s">
+        <v>232</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>215</v>
+      </c>
+      <c r="E127" t="s">
+        <v>46</v>
+      </c>
+      <c r="F127" t="s">
+        <v>216</v>
+      </c>
+      <c r="G127" t="s">
+        <v>46</v>
+      </c>
+      <c r="J127">
+        <v>20</v>
+      </c>
+      <c r="K127">
+        <v>865</v>
+      </c>
+      <c r="O127">
+        <v>0.17</v>
+      </c>
+      <c r="P127">
+        <v>0.17</v>
+      </c>
+      <c r="S127">
+        <v>0.17</v>
+      </c>
+      <c r="U127">
+        <v>1</v>
+      </c>
+      <c r="V127">
+        <v>31</v>
+      </c>
+      <c r="W127">
+        <v>60</v>
+      </c>
+      <c r="X127" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27">
+      <c r="D128" t="s">
+        <v>272</v>
+      </c>
+      <c r="E128" t="s">
+        <v>50</v>
+      </c>
+      <c r="F128" t="s">
+        <v>273</v>
+      </c>
+      <c r="G128" t="s">
+        <v>50</v>
+      </c>
+      <c r="J128">
+        <v>20</v>
+      </c>
+      <c r="K128">
+        <v>1890</v>
+      </c>
+      <c r="O128">
+        <v>0.2</v>
+      </c>
+      <c r="P128">
+        <v>0.25</v>
+      </c>
+      <c r="Q128">
+        <v>0.2</v>
+      </c>
+      <c r="R128">
+        <v>0.24</v>
+      </c>
+      <c r="S128">
+        <v>0.24</v>
+      </c>
+      <c r="U128">
+        <v>1</v>
+      </c>
+      <c r="V128">
+        <v>36</v>
+      </c>
+      <c r="W128">
+        <v>80</v>
+      </c>
+      <c r="X128" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="D129" t="s">
+        <v>274</v>
+      </c>
+      <c r="E129" t="s">
+        <v>60</v>
+      </c>
+      <c r="F129" t="s">
+        <v>275</v>
+      </c>
+      <c r="H129">
+        <v>15</v>
+      </c>
+      <c r="K129">
+        <v>5000</v>
+      </c>
+      <c r="O129">
+        <v>0.24</v>
+      </c>
+      <c r="P129">
+        <v>0.24</v>
+      </c>
+      <c r="Q129">
+        <v>0.24</v>
+      </c>
+      <c r="R129">
+        <v>0.24</v>
+      </c>
+      <c r="S129">
+        <v>0.24</v>
+      </c>
+      <c r="U129">
+        <v>1</v>
+      </c>
+      <c r="V129">
+        <v>25</v>
+      </c>
+      <c r="W129">
+        <v>58</v>
+      </c>
+      <c r="X129" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
+      <c r="D130" t="s">
+        <v>276</v>
+      </c>
+      <c r="E130" t="s">
+        <v>54</v>
+      </c>
+      <c r="F130" t="s">
+        <v>277</v>
+      </c>
+      <c r="H130">
+        <v>185</v>
+      </c>
+      <c r="K130">
+        <v>5600</v>
+      </c>
+      <c r="U130">
+        <v>1</v>
+      </c>
+      <c r="V130">
+        <v>16</v>
+      </c>
+      <c r="W130">
+        <v>30</v>
+      </c>
+      <c r="X130" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
+      <c r="D131" t="s">
+        <v>278</v>
+      </c>
+      <c r="E131" t="s">
+        <v>58</v>
+      </c>
+      <c r="F131" t="s">
+        <v>279</v>
+      </c>
+      <c r="I131">
+        <v>160</v>
+      </c>
+      <c r="K131">
+        <v>6000</v>
+      </c>
+      <c r="U131">
+        <v>1</v>
+      </c>
+      <c r="V131">
+        <v>20</v>
+      </c>
+      <c r="W131">
+        <v>40</v>
+      </c>
+      <c r="X131" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
+      <c r="D132" t="s">
+        <v>280</v>
+      </c>
+      <c r="E132" t="s">
+        <v>82</v>
+      </c>
+      <c r="F132" t="s">
+        <v>281</v>
+      </c>
+      <c r="H132">
+        <v>125</v>
+      </c>
+      <c r="I132">
+        <v>15</v>
+      </c>
+      <c r="J132">
+        <v>25</v>
+      </c>
+      <c r="K132">
+        <v>3000</v>
+      </c>
+      <c r="R132">
+        <v>0.25</v>
+      </c>
+      <c r="S132">
+        <v>0.25</v>
+      </c>
+      <c r="U132">
+        <v>1</v>
+      </c>
+      <c r="V132">
+        <v>10</v>
+      </c>
+      <c r="W132">
+        <v>30</v>
+      </c>
+      <c r="X132" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="428">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -1251,6 +1251,54 @@
   </si>
   <si>
     <t>Enchanting</t>
+  </si>
+  <si>
+    <t>Weapon Smiths Book</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>Grants the ability to craft weapons better.</t>
+  </si>
+  <si>
+    <t>Spell Weaving Book</t>
+  </si>
+  <si>
+    <t>Helps you to craft spells better.</t>
+  </si>
+  <si>
+    <t>Flask Of Fresh Air</t>
+  </si>
+  <si>
+    <t>Allows you to walk on water.</t>
+  </si>
+  <si>
+    <t>walk-on-water</t>
+  </si>
+  <si>
+    <t>Artifact Crafting Book</t>
+  </si>
+  <si>
+    <t>Makes finding and crafting artifacts easier.</t>
+  </si>
+  <si>
+    <t>Blacksmiths Book</t>
+  </si>
+  <si>
+    <t>Makes crafting armour better.</t>
+  </si>
+  <si>
+    <t>Ring Crafters Book</t>
+  </si>
+  <si>
+    <t>Allows you to craft rings better.</t>
+  </si>
+  <si>
+    <t>Enchanters Book</t>
+  </si>
+  <si>
+    <t>Allows you to enchant easily.</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1637,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA182"/>
+  <dimension ref="A1:AA189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1616,7 +1664,7 @@
     <col min="17" max="17" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="23.422852" bestFit="true" customWidth="true" style="0"/>
@@ -8876,6 +8924,140 @@
       </c>
       <c r="AA182">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27">
+      <c r="D183" t="s">
+        <v>412</v>
+      </c>
+      <c r="E183" t="s">
+        <v>413</v>
+      </c>
+      <c r="F183" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y183" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z183">
+        <v>0.25</v>
+      </c>
+      <c r="AA183">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27">
+      <c r="D184" t="s">
+        <v>415</v>
+      </c>
+      <c r="E184" t="s">
+        <v>413</v>
+      </c>
+      <c r="F184" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y184" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z184">
+        <v>0.25</v>
+      </c>
+      <c r="AA184">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27">
+      <c r="D185" t="s">
+        <v>417</v>
+      </c>
+      <c r="E185" t="s">
+        <v>413</v>
+      </c>
+      <c r="F185" t="s">
+        <v>418</v>
+      </c>
+      <c r="T185" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27">
+      <c r="D186" t="s">
+        <v>420</v>
+      </c>
+      <c r="E186" t="s">
+        <v>413</v>
+      </c>
+      <c r="F186" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y186" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z186">
+        <v>0.25</v>
+      </c>
+      <c r="AA186">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27">
+      <c r="D187" t="s">
+        <v>422</v>
+      </c>
+      <c r="E187" t="s">
+        <v>413</v>
+      </c>
+      <c r="F187" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z187">
+        <v>0.25</v>
+      </c>
+      <c r="AA187">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27">
+      <c r="D188" t="s">
+        <v>424</v>
+      </c>
+      <c r="E188" t="s">
+        <v>413</v>
+      </c>
+      <c r="F188" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z188">
+        <v>0.25</v>
+      </c>
+      <c r="AA188">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27">
+      <c r="D189" t="s">
+        <v>426</v>
+      </c>
+      <c r="E189" t="s">
+        <v>413</v>
+      </c>
+      <c r="F189" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y189" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z189">
+        <v>0.25</v>
+      </c>
+      <c r="AA189">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="433">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -1299,6 +1299,21 @@
   </si>
   <si>
     <t>Allows you to enchant easily.</t>
+  </si>
+  <si>
+    <t>Astral Ring</t>
+  </si>
+  <si>
+    <t>Fighters Strength</t>
+  </si>
+  <si>
+    <t>Natures Balancing Bliss</t>
+  </si>
+  <si>
+    <t>Spell Crafters Blood</t>
+  </si>
+  <si>
+    <t>Weapon Crafter Spell</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1652,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA189"/>
+  <dimension ref="A1:AA194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1645,8 +1660,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="35.2771" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
@@ -2061,6 +2076,9 @@
       <c r="F11" t="s">
         <v>55</v>
       </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
       <c r="J11">
         <v>6</v>
       </c>
@@ -9058,6 +9076,226 @@
       </c>
       <c r="AA189">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="190" spans="1:27">
+      <c r="B190" t="s">
+        <v>428</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>323</v>
+      </c>
+      <c r="E190" t="s">
+        <v>306</v>
+      </c>
+      <c r="F190" t="s">
+        <v>324</v>
+      </c>
+      <c r="H190">
+        <v>85</v>
+      </c>
+      <c r="K190">
+        <v>18000</v>
+      </c>
+      <c r="U190">
+        <v>1</v>
+      </c>
+      <c r="V190">
+        <v>36</v>
+      </c>
+      <c r="W190">
+        <v>70</v>
+      </c>
+      <c r="X190" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27">
+      <c r="A191" t="s">
+        <v>429</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>128</v>
+      </c>
+      <c r="E191" t="s">
+        <v>47</v>
+      </c>
+      <c r="F191" t="s">
+        <v>129</v>
+      </c>
+      <c r="G191" t="s">
+        <v>47</v>
+      </c>
+      <c r="J191">
+        <v>30</v>
+      </c>
+      <c r="K191">
+        <v>945</v>
+      </c>
+      <c r="O191">
+        <v>0.06</v>
+      </c>
+      <c r="P191">
+        <v>0.06</v>
+      </c>
+      <c r="Q191">
+        <v>0.06</v>
+      </c>
+      <c r="R191">
+        <v>0.06</v>
+      </c>
+      <c r="S191">
+        <v>0.06</v>
+      </c>
+      <c r="U191">
+        <v>1</v>
+      </c>
+      <c r="V191">
+        <v>24</v>
+      </c>
+      <c r="W191">
+        <v>40</v>
+      </c>
+      <c r="X191" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27">
+      <c r="A192" t="s">
+        <v>430</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>30</v>
+      </c>
+      <c r="E192" t="s">
+        <v>31</v>
+      </c>
+      <c r="F192" t="s">
+        <v>32</v>
+      </c>
+      <c r="G192" t="s">
+        <v>31</v>
+      </c>
+      <c r="J192">
+        <v>4</v>
+      </c>
+      <c r="K192">
+        <v>10</v>
+      </c>
+      <c r="U192">
+        <v>1</v>
+      </c>
+      <c r="V192">
+        <v>1</v>
+      </c>
+      <c r="W192">
+        <v>5</v>
+      </c>
+      <c r="X192" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
+      <c r="B193" t="s">
+        <v>431</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193" t="s">
+        <v>100</v>
+      </c>
+      <c r="E193" t="s">
+        <v>28</v>
+      </c>
+      <c r="F193" t="s">
+        <v>101</v>
+      </c>
+      <c r="H193">
+        <v>80</v>
+      </c>
+      <c r="K193">
+        <v>750</v>
+      </c>
+      <c r="O193">
+        <v>0.18</v>
+      </c>
+      <c r="P193">
+        <v>0.18</v>
+      </c>
+      <c r="Q193">
+        <v>0.18</v>
+      </c>
+      <c r="R193">
+        <v>0.18</v>
+      </c>
+      <c r="S193">
+        <v>0.18</v>
+      </c>
+      <c r="U193">
+        <v>1</v>
+      </c>
+      <c r="V193">
+        <v>18</v>
+      </c>
+      <c r="W193">
+        <v>36</v>
+      </c>
+      <c r="X193" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27">
+      <c r="B194" t="s">
+        <v>432</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>297</v>
+      </c>
+      <c r="E194" t="s">
+        <v>273</v>
+      </c>
+      <c r="F194" t="s">
+        <v>298</v>
+      </c>
+      <c r="H194">
+        <v>75</v>
+      </c>
+      <c r="K194">
+        <v>133000</v>
+      </c>
+      <c r="L194">
+        <v>0.25</v>
+      </c>
+      <c r="M194">
+        <v>0.25</v>
+      </c>
+      <c r="N194">
+        <v>0.25</v>
+      </c>
+      <c r="U194">
+        <v>1</v>
+      </c>
+      <c r="V194">
+        <v>50</v>
+      </c>
+      <c r="W194">
+        <v>100</v>
+      </c>
+      <c r="X194" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="446">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -1314,6 +1314,45 @@
   </si>
   <si>
     <t>Weapon Crafter Spell</t>
+  </si>
+  <si>
+    <t>Sorcerers Magic</t>
+  </si>
+  <si>
+    <t>Armour Smiths Hopes</t>
+  </si>
+  <si>
+    <t>Archbishops Prayer</t>
+  </si>
+  <si>
+    <t>Clerics Blessing</t>
+  </si>
+  <si>
+    <t>Devils Arrow</t>
+  </si>
+  <si>
+    <t>Blacksmiths Heart</t>
+  </si>
+  <si>
+    <t>Weapons Glory</t>
+  </si>
+  <si>
+    <t>Balanced Energies</t>
+  </si>
+  <si>
+    <t>Ring Makers Inspiration</t>
+  </si>
+  <si>
+    <t>Desert Winds</t>
+  </si>
+  <si>
+    <t>Life Stealer</t>
+  </si>
+  <si>
+    <t>Soldiers Resilance</t>
+  </si>
+  <si>
+    <t>Archers Bane</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1691,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA194"/>
+  <dimension ref="A1:AA212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1661,7 +1700,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="28.135986" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="35.2771" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
@@ -3946,6 +3985,9 @@
       <c r="F55" t="s">
         <v>143</v>
       </c>
+      <c r="G55" t="s">
+        <v>44</v>
+      </c>
       <c r="J55">
         <v>45</v>
       </c>
@@ -9295,6 +9337,825 @@
         <v>100</v>
       </c>
       <c r="X194" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27">
+      <c r="A195" t="s">
+        <v>433</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>34</v>
+      </c>
+      <c r="E195" t="s">
+        <v>35</v>
+      </c>
+      <c r="F195" t="s">
+        <v>36</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>5</v>
+      </c>
+      <c r="U195">
+        <v>1</v>
+      </c>
+      <c r="V195">
+        <v>1</v>
+      </c>
+      <c r="W195">
+        <v>5</v>
+      </c>
+      <c r="X195" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27">
+      <c r="B196" t="s">
+        <v>434</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>240</v>
+      </c>
+      <c r="E196" t="s">
+        <v>28</v>
+      </c>
+      <c r="F196" t="s">
+        <v>241</v>
+      </c>
+      <c r="H196">
+        <v>380</v>
+      </c>
+      <c r="K196">
+        <v>750000</v>
+      </c>
+      <c r="O196">
+        <v>0.35</v>
+      </c>
+      <c r="P196">
+        <v>0.35</v>
+      </c>
+      <c r="Q196">
+        <v>0.35</v>
+      </c>
+      <c r="R196">
+        <v>0.35</v>
+      </c>
+      <c r="S196">
+        <v>0.35</v>
+      </c>
+      <c r="U196">
+        <v>1</v>
+      </c>
+      <c r="V196">
+        <v>60</v>
+      </c>
+      <c r="W196">
+        <v>130</v>
+      </c>
+      <c r="X196" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27">
+      <c r="A197" t="s">
+        <v>435</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197" t="s">
+        <v>256</v>
+      </c>
+      <c r="E197" t="s">
+        <v>28</v>
+      </c>
+      <c r="F197" t="s">
+        <v>257</v>
+      </c>
+      <c r="H197">
+        <v>450</v>
+      </c>
+      <c r="K197">
+        <v>1525000</v>
+      </c>
+      <c r="O197">
+        <v>0.37</v>
+      </c>
+      <c r="P197">
+        <v>0.37</v>
+      </c>
+      <c r="Q197">
+        <v>0.37</v>
+      </c>
+      <c r="R197">
+        <v>0.37</v>
+      </c>
+      <c r="S197">
+        <v>0.37</v>
+      </c>
+      <c r="U197">
+        <v>1</v>
+      </c>
+      <c r="V197">
+        <v>70</v>
+      </c>
+      <c r="W197">
+        <v>150</v>
+      </c>
+      <c r="X197" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27">
+      <c r="A198" t="s">
+        <v>436</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198" t="s">
+        <v>128</v>
+      </c>
+      <c r="E198" t="s">
+        <v>47</v>
+      </c>
+      <c r="F198" t="s">
+        <v>129</v>
+      </c>
+      <c r="G198" t="s">
+        <v>47</v>
+      </c>
+      <c r="J198">
+        <v>30</v>
+      </c>
+      <c r="K198">
+        <v>945</v>
+      </c>
+      <c r="O198">
+        <v>0.06</v>
+      </c>
+      <c r="P198">
+        <v>0.06</v>
+      </c>
+      <c r="Q198">
+        <v>0.06</v>
+      </c>
+      <c r="R198">
+        <v>0.06</v>
+      </c>
+      <c r="S198">
+        <v>0.06</v>
+      </c>
+      <c r="U198">
+        <v>1</v>
+      </c>
+      <c r="V198">
+        <v>24</v>
+      </c>
+      <c r="W198">
+        <v>40</v>
+      </c>
+      <c r="X198" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27">
+      <c r="A199" t="s">
+        <v>435</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>158</v>
+      </c>
+      <c r="E199" t="s">
+        <v>44</v>
+      </c>
+      <c r="F199" t="s">
+        <v>159</v>
+      </c>
+      <c r="G199" t="s">
+        <v>44</v>
+      </c>
+      <c r="J199">
+        <v>45</v>
+      </c>
+      <c r="K199">
+        <v>4000</v>
+      </c>
+      <c r="O199">
+        <v>0.1</v>
+      </c>
+      <c r="P199">
+        <v>0.1</v>
+      </c>
+      <c r="Q199">
+        <v>0.1</v>
+      </c>
+      <c r="R199">
+        <v>0.1</v>
+      </c>
+      <c r="S199">
+        <v>0.1</v>
+      </c>
+      <c r="U199">
+        <v>1</v>
+      </c>
+      <c r="V199">
+        <v>28</v>
+      </c>
+      <c r="W199">
+        <v>50</v>
+      </c>
+      <c r="X199" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="200" spans="1:27">
+      <c r="B200" t="s">
+        <v>437</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>132</v>
+      </c>
+      <c r="E200" t="s">
+        <v>28</v>
+      </c>
+      <c r="F200" t="s">
+        <v>133</v>
+      </c>
+      <c r="H200">
+        <v>145</v>
+      </c>
+      <c r="K200">
+        <v>3600</v>
+      </c>
+      <c r="O200">
+        <v>0.2</v>
+      </c>
+      <c r="P200">
+        <v>0.2</v>
+      </c>
+      <c r="Q200">
+        <v>0.2</v>
+      </c>
+      <c r="R200">
+        <v>0.2</v>
+      </c>
+      <c r="S200">
+        <v>0.2</v>
+      </c>
+      <c r="U200">
+        <v>1</v>
+      </c>
+      <c r="V200">
+        <v>28</v>
+      </c>
+      <c r="W200">
+        <v>50</v>
+      </c>
+      <c r="X200" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201" spans="1:27">
+      <c r="B201" t="s">
+        <v>438</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>30</v>
+      </c>
+      <c r="E201" t="s">
+        <v>31</v>
+      </c>
+      <c r="F201" t="s">
+        <v>32</v>
+      </c>
+      <c r="G201" t="s">
+        <v>31</v>
+      </c>
+      <c r="J201">
+        <v>4</v>
+      </c>
+      <c r="K201">
+        <v>10</v>
+      </c>
+      <c r="U201">
+        <v>1</v>
+      </c>
+      <c r="V201">
+        <v>1</v>
+      </c>
+      <c r="W201">
+        <v>5</v>
+      </c>
+      <c r="X201" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="202" spans="1:27">
+      <c r="A202" t="s">
+        <v>435</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>356</v>
+      </c>
+      <c r="E202" t="s">
+        <v>340</v>
+      </c>
+      <c r="F202" t="s">
+        <v>357</v>
+      </c>
+      <c r="I202">
+        <v>160</v>
+      </c>
+      <c r="K202">
+        <v>13876</v>
+      </c>
+      <c r="U202">
+        <v>1</v>
+      </c>
+      <c r="V202">
+        <v>36</v>
+      </c>
+      <c r="W202">
+        <v>70</v>
+      </c>
+      <c r="X202" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27">
+      <c r="B203" t="s">
+        <v>439</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>102</v>
+      </c>
+      <c r="E203" t="s">
+        <v>31</v>
+      </c>
+      <c r="F203" t="s">
+        <v>103</v>
+      </c>
+      <c r="G203" t="s">
+        <v>31</v>
+      </c>
+      <c r="J203">
+        <v>40</v>
+      </c>
+      <c r="K203">
+        <v>750</v>
+      </c>
+      <c r="O203">
+        <v>0.18</v>
+      </c>
+      <c r="P203">
+        <v>0.18</v>
+      </c>
+      <c r="Q203">
+        <v>0.18</v>
+      </c>
+      <c r="R203">
+        <v>0.18</v>
+      </c>
+      <c r="S203">
+        <v>0.18</v>
+      </c>
+      <c r="U203">
+        <v>1</v>
+      </c>
+      <c r="V203">
+        <v>18</v>
+      </c>
+      <c r="W203">
+        <v>36</v>
+      </c>
+      <c r="X203" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="204" spans="1:27">
+      <c r="A204" t="s">
+        <v>440</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>27</v>
+      </c>
+      <c r="E204" t="s">
+        <v>28</v>
+      </c>
+      <c r="F204" t="s">
+        <v>29</v>
+      </c>
+      <c r="H204">
+        <v>4</v>
+      </c>
+      <c r="K204">
+        <v>10</v>
+      </c>
+      <c r="U204">
+        <v>1</v>
+      </c>
+      <c r="V204">
+        <v>1</v>
+      </c>
+      <c r="W204">
+        <v>5</v>
+      </c>
+      <c r="X204" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27">
+      <c r="B205" t="s">
+        <v>441</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>311</v>
+      </c>
+      <c r="E205" t="s">
+        <v>306</v>
+      </c>
+      <c r="F205" t="s">
+        <v>312</v>
+      </c>
+      <c r="H205">
+        <v>16</v>
+      </c>
+      <c r="K205">
+        <v>150</v>
+      </c>
+      <c r="U205">
+        <v>1</v>
+      </c>
+      <c r="V205">
+        <v>6</v>
+      </c>
+      <c r="W205">
+        <v>12</v>
+      </c>
+      <c r="X205" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="206" spans="1:27">
+      <c r="B206" t="s">
+        <v>442</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>122</v>
+      </c>
+      <c r="E206" t="s">
+        <v>38</v>
+      </c>
+      <c r="F206" t="s">
+        <v>123</v>
+      </c>
+      <c r="J206">
+        <v>30</v>
+      </c>
+      <c r="K206">
+        <v>1000</v>
+      </c>
+      <c r="O206">
+        <v>0.06</v>
+      </c>
+      <c r="P206">
+        <v>0.06</v>
+      </c>
+      <c r="Q206">
+        <v>0.06</v>
+      </c>
+      <c r="R206">
+        <v>0.06</v>
+      </c>
+      <c r="S206">
+        <v>0.06</v>
+      </c>
+      <c r="U206">
+        <v>1</v>
+      </c>
+      <c r="V206">
+        <v>24</v>
+      </c>
+      <c r="W206">
+        <v>40</v>
+      </c>
+      <c r="X206" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27">
+      <c r="B207" t="s">
+        <v>431</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>140</v>
+      </c>
+      <c r="E207" t="s">
+        <v>41</v>
+      </c>
+      <c r="F207" t="s">
+        <v>141</v>
+      </c>
+      <c r="G207" t="s">
+        <v>41</v>
+      </c>
+      <c r="J207">
+        <v>45</v>
+      </c>
+      <c r="K207">
+        <v>2300</v>
+      </c>
+      <c r="O207">
+        <v>0.08</v>
+      </c>
+      <c r="P207">
+        <v>0.08</v>
+      </c>
+      <c r="Q207">
+        <v>0.08</v>
+      </c>
+      <c r="R207">
+        <v>0.08</v>
+      </c>
+      <c r="S207">
+        <v>0.08</v>
+      </c>
+      <c r="U207">
+        <v>1</v>
+      </c>
+      <c r="V207">
+        <v>28</v>
+      </c>
+      <c r="W207">
+        <v>50</v>
+      </c>
+      <c r="X207" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208" spans="1:27">
+      <c r="A208" t="s">
+        <v>435</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>301</v>
+      </c>
+      <c r="E208" t="s">
+        <v>273</v>
+      </c>
+      <c r="F208" t="s">
+        <v>302</v>
+      </c>
+      <c r="H208">
+        <v>90</v>
+      </c>
+      <c r="K208">
+        <v>750000</v>
+      </c>
+      <c r="L208">
+        <v>0.29</v>
+      </c>
+      <c r="M208">
+        <v>0.29</v>
+      </c>
+      <c r="N208">
+        <v>0.29</v>
+      </c>
+      <c r="U208">
+        <v>1</v>
+      </c>
+      <c r="V208">
+        <v>60</v>
+      </c>
+      <c r="W208">
+        <v>130</v>
+      </c>
+      <c r="X208" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
+      <c r="A209" t="s">
+        <v>443</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209" t="s">
+        <v>142</v>
+      </c>
+      <c r="E209" t="s">
+        <v>44</v>
+      </c>
+      <c r="F209" t="s">
+        <v>143</v>
+      </c>
+      <c r="G209" t="s">
+        <v>44</v>
+      </c>
+      <c r="J209">
+        <v>45</v>
+      </c>
+      <c r="K209">
+        <v>2600</v>
+      </c>
+      <c r="O209">
+        <v>0.08</v>
+      </c>
+      <c r="P209">
+        <v>0.08</v>
+      </c>
+      <c r="Q209">
+        <v>0.08</v>
+      </c>
+      <c r="R209">
+        <v>0.08</v>
+      </c>
+      <c r="S209">
+        <v>0.08</v>
+      </c>
+      <c r="U209">
+        <v>1</v>
+      </c>
+      <c r="V209">
+        <v>28</v>
+      </c>
+      <c r="W209">
+        <v>50</v>
+      </c>
+      <c r="X209" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
+      <c r="B210" t="s">
+        <v>434</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210" t="s">
+        <v>128</v>
+      </c>
+      <c r="E210" t="s">
+        <v>47</v>
+      </c>
+      <c r="F210" t="s">
+        <v>129</v>
+      </c>
+      <c r="G210" t="s">
+        <v>47</v>
+      </c>
+      <c r="J210">
+        <v>30</v>
+      </c>
+      <c r="K210">
+        <v>945</v>
+      </c>
+      <c r="O210">
+        <v>0.06</v>
+      </c>
+      <c r="P210">
+        <v>0.06</v>
+      </c>
+      <c r="Q210">
+        <v>0.06</v>
+      </c>
+      <c r="R210">
+        <v>0.06</v>
+      </c>
+      <c r="S210">
+        <v>0.06</v>
+      </c>
+      <c r="U210">
+        <v>1</v>
+      </c>
+      <c r="V210">
+        <v>24</v>
+      </c>
+      <c r="W210">
+        <v>40</v>
+      </c>
+      <c r="X210" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27">
+      <c r="A211" t="s">
+        <v>444</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211" t="s">
+        <v>370</v>
+      </c>
+      <c r="E211" t="s">
+        <v>340</v>
+      </c>
+      <c r="F211" t="s">
+        <v>371</v>
+      </c>
+      <c r="I211">
+        <v>300</v>
+      </c>
+      <c r="K211">
+        <v>1456000</v>
+      </c>
+      <c r="U211">
+        <v>1</v>
+      </c>
+      <c r="V211">
+        <v>70</v>
+      </c>
+      <c r="W211">
+        <v>180</v>
+      </c>
+      <c r="X211" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27">
+      <c r="A212" t="s">
+        <v>445</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>303</v>
+      </c>
+      <c r="E212" t="s">
+        <v>273</v>
+      </c>
+      <c r="F212" t="s">
+        <v>304</v>
+      </c>
+      <c r="H212">
+        <v>100</v>
+      </c>
+      <c r="K212">
+        <v>1345000</v>
+      </c>
+      <c r="L212">
+        <v>0.3</v>
+      </c>
+      <c r="M212">
+        <v>0.3</v>
+      </c>
+      <c r="N212">
+        <v>0.3</v>
+      </c>
+      <c r="U212">
+        <v>1</v>
+      </c>
+      <c r="V212">
+        <v>70</v>
+      </c>
+      <c r="W212">
+        <v>180</v>
+      </c>
+      <c r="X212" t="s">
         <v>273</v>
       </c>
     </row>

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="454">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -1353,6 +1353,30 @@
   </si>
   <si>
     <t>Archers Bane</t>
+  </si>
+  <si>
+    <t>Eye For Gold</t>
+  </si>
+  <si>
+    <t>Sinister Dance</t>
+  </si>
+  <si>
+    <t>Blood Lust</t>
+  </si>
+  <si>
+    <t>Dancers Moves</t>
+  </si>
+  <si>
+    <t>Enchantress Luck</t>
+  </si>
+  <si>
+    <t>Mages Inspiration</t>
+  </si>
+  <si>
+    <t>Deaths Accuracy</t>
+  </si>
+  <si>
+    <t>Hawk Eye</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1715,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA212"/>
+  <dimension ref="A1:AA242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2616,7 +2640,7 @@
         <v>12</v>
       </c>
       <c r="X24" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -10156,6 +10180,1407 @@
         <v>180</v>
       </c>
       <c r="X212" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27">
+      <c r="B213" t="s">
+        <v>446</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213" t="s">
+        <v>212</v>
+      </c>
+      <c r="E213" t="s">
+        <v>31</v>
+      </c>
+      <c r="F213" t="s">
+        <v>213</v>
+      </c>
+      <c r="G213" t="s">
+        <v>31</v>
+      </c>
+      <c r="J213">
+        <v>190</v>
+      </c>
+      <c r="K213">
+        <v>125000</v>
+      </c>
+      <c r="O213">
+        <v>0.36</v>
+      </c>
+      <c r="P213">
+        <v>0.36</v>
+      </c>
+      <c r="Q213">
+        <v>0.36</v>
+      </c>
+      <c r="R213">
+        <v>0.36</v>
+      </c>
+      <c r="S213">
+        <v>0.36</v>
+      </c>
+      <c r="U213">
+        <v>1</v>
+      </c>
+      <c r="V213">
+        <v>50</v>
+      </c>
+      <c r="W213">
+        <v>100</v>
+      </c>
+      <c r="X213" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27">
+      <c r="A214" t="s">
+        <v>440</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214" t="s">
+        <v>52</v>
+      </c>
+      <c r="E214" t="s">
+        <v>28</v>
+      </c>
+      <c r="F214" t="s">
+        <v>53</v>
+      </c>
+      <c r="H214">
+        <v>8</v>
+      </c>
+      <c r="K214">
+        <v>50</v>
+      </c>
+      <c r="O214">
+        <v>0.05</v>
+      </c>
+      <c r="P214">
+        <v>0.05</v>
+      </c>
+      <c r="Q214">
+        <v>0.05</v>
+      </c>
+      <c r="R214">
+        <v>0.05</v>
+      </c>
+      <c r="S214">
+        <v>0.05</v>
+      </c>
+      <c r="U214">
+        <v>1</v>
+      </c>
+      <c r="V214">
+        <v>3</v>
+      </c>
+      <c r="W214">
+        <v>8</v>
+      </c>
+      <c r="X214" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27">
+      <c r="B215" t="s">
+        <v>447</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215" t="s">
+        <v>198</v>
+      </c>
+      <c r="E215" t="s">
+        <v>31</v>
+      </c>
+      <c r="F215" t="s">
+        <v>199</v>
+      </c>
+      <c r="G215" t="s">
+        <v>31</v>
+      </c>
+      <c r="J215">
+        <v>170</v>
+      </c>
+      <c r="K215">
+        <v>48000</v>
+      </c>
+      <c r="O215">
+        <v>0.33</v>
+      </c>
+      <c r="P215">
+        <v>0.33</v>
+      </c>
+      <c r="Q215">
+        <v>0.33</v>
+      </c>
+      <c r="R215">
+        <v>0.33</v>
+      </c>
+      <c r="S215">
+        <v>0.33</v>
+      </c>
+      <c r="U215">
+        <v>1</v>
+      </c>
+      <c r="V215">
+        <v>43</v>
+      </c>
+      <c r="W215">
+        <v>78</v>
+      </c>
+      <c r="X215" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="216" spans="1:27">
+      <c r="A216" t="s">
+        <v>448</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216" t="s">
+        <v>52</v>
+      </c>
+      <c r="E216" t="s">
+        <v>28</v>
+      </c>
+      <c r="F216" t="s">
+        <v>53</v>
+      </c>
+      <c r="H216">
+        <v>8</v>
+      </c>
+      <c r="K216">
+        <v>50</v>
+      </c>
+      <c r="O216">
+        <v>0.05</v>
+      </c>
+      <c r="P216">
+        <v>0.05</v>
+      </c>
+      <c r="Q216">
+        <v>0.05</v>
+      </c>
+      <c r="R216">
+        <v>0.05</v>
+      </c>
+      <c r="S216">
+        <v>0.05</v>
+      </c>
+      <c r="U216">
+        <v>1</v>
+      </c>
+      <c r="V216">
+        <v>3</v>
+      </c>
+      <c r="W216">
+        <v>8</v>
+      </c>
+      <c r="X216" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="217" spans="1:27">
+      <c r="A217" t="s">
+        <v>448</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217" t="s">
+        <v>27</v>
+      </c>
+      <c r="E217" t="s">
+        <v>28</v>
+      </c>
+      <c r="F217" t="s">
+        <v>29</v>
+      </c>
+      <c r="H217">
+        <v>4</v>
+      </c>
+      <c r="K217">
+        <v>10</v>
+      </c>
+      <c r="U217">
+        <v>1</v>
+      </c>
+      <c r="V217">
+        <v>1</v>
+      </c>
+      <c r="W217">
+        <v>5</v>
+      </c>
+      <c r="X217" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="218" spans="1:27">
+      <c r="A218" t="s">
+        <v>429</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>27</v>
+      </c>
+      <c r="E218" t="s">
+        <v>28</v>
+      </c>
+      <c r="F218" t="s">
+        <v>29</v>
+      </c>
+      <c r="H218">
+        <v>4</v>
+      </c>
+      <c r="K218">
+        <v>10</v>
+      </c>
+      <c r="U218">
+        <v>1</v>
+      </c>
+      <c r="V218">
+        <v>1</v>
+      </c>
+      <c r="W218">
+        <v>5</v>
+      </c>
+      <c r="X218" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="219" spans="1:27">
+      <c r="A219" t="s">
+        <v>445</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219" t="s">
+        <v>27</v>
+      </c>
+      <c r="E219" t="s">
+        <v>28</v>
+      </c>
+      <c r="F219" t="s">
+        <v>29</v>
+      </c>
+      <c r="H219">
+        <v>4</v>
+      </c>
+      <c r="K219">
+        <v>10</v>
+      </c>
+      <c r="U219">
+        <v>1</v>
+      </c>
+      <c r="V219">
+        <v>1</v>
+      </c>
+      <c r="W219">
+        <v>5</v>
+      </c>
+      <c r="X219" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="220" spans="1:27">
+      <c r="B220" t="s">
+        <v>449</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220" t="s">
+        <v>102</v>
+      </c>
+      <c r="E220" t="s">
+        <v>31</v>
+      </c>
+      <c r="F220" t="s">
+        <v>103</v>
+      </c>
+      <c r="G220" t="s">
+        <v>31</v>
+      </c>
+      <c r="J220">
+        <v>40</v>
+      </c>
+      <c r="K220">
+        <v>750</v>
+      </c>
+      <c r="O220">
+        <v>0.18</v>
+      </c>
+      <c r="P220">
+        <v>0.18</v>
+      </c>
+      <c r="Q220">
+        <v>0.18</v>
+      </c>
+      <c r="R220">
+        <v>0.18</v>
+      </c>
+      <c r="S220">
+        <v>0.18</v>
+      </c>
+      <c r="U220">
+        <v>1</v>
+      </c>
+      <c r="V220">
+        <v>18</v>
+      </c>
+      <c r="W220">
+        <v>36</v>
+      </c>
+      <c r="X220" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="221" spans="1:27">
+      <c r="A221" t="s">
+        <v>435</v>
+      </c>
+      <c r="B221" t="s">
+        <v>442</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221" t="s">
+        <v>256</v>
+      </c>
+      <c r="E221" t="s">
+        <v>28</v>
+      </c>
+      <c r="F221" t="s">
+        <v>257</v>
+      </c>
+      <c r="H221">
+        <v>450</v>
+      </c>
+      <c r="K221">
+        <v>1525000</v>
+      </c>
+      <c r="O221">
+        <v>0.37</v>
+      </c>
+      <c r="P221">
+        <v>0.37</v>
+      </c>
+      <c r="Q221">
+        <v>0.37</v>
+      </c>
+      <c r="R221">
+        <v>0.37</v>
+      </c>
+      <c r="S221">
+        <v>0.37</v>
+      </c>
+      <c r="U221">
+        <v>1</v>
+      </c>
+      <c r="V221">
+        <v>70</v>
+      </c>
+      <c r="W221">
+        <v>150</v>
+      </c>
+      <c r="X221" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="222" spans="1:27">
+      <c r="B222" t="s">
+        <v>446</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222" t="s">
+        <v>366</v>
+      </c>
+      <c r="E222" t="s">
+        <v>340</v>
+      </c>
+      <c r="F222" t="s">
+        <v>367</v>
+      </c>
+      <c r="I222">
+        <v>260</v>
+      </c>
+      <c r="K222">
+        <v>320000</v>
+      </c>
+      <c r="U222">
+        <v>1</v>
+      </c>
+      <c r="V222">
+        <v>55</v>
+      </c>
+      <c r="W222">
+        <v>110</v>
+      </c>
+      <c r="X222" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27">
+      <c r="B223" t="s">
+        <v>450</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223" t="s">
+        <v>34</v>
+      </c>
+      <c r="E223" t="s">
+        <v>35</v>
+      </c>
+      <c r="F223" t="s">
+        <v>36</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>5</v>
+      </c>
+      <c r="U223">
+        <v>1</v>
+      </c>
+      <c r="V223">
+        <v>1</v>
+      </c>
+      <c r="W223">
+        <v>5</v>
+      </c>
+      <c r="X223" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="224" spans="1:27">
+      <c r="B224" t="s">
+        <v>450</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>56</v>
+      </c>
+      <c r="E224" t="s">
+        <v>35</v>
+      </c>
+      <c r="F224" t="s">
+        <v>57</v>
+      </c>
+      <c r="J224">
+        <v>3</v>
+      </c>
+      <c r="K224">
+        <v>60</v>
+      </c>
+      <c r="O224">
+        <v>0.02</v>
+      </c>
+      <c r="P224">
+        <v>0.02</v>
+      </c>
+      <c r="Q224">
+        <v>0.02</v>
+      </c>
+      <c r="R224">
+        <v>0.02</v>
+      </c>
+      <c r="S224">
+        <v>0.02</v>
+      </c>
+      <c r="U224">
+        <v>1</v>
+      </c>
+      <c r="V224">
+        <v>3</v>
+      </c>
+      <c r="W224">
+        <v>8</v>
+      </c>
+      <c r="X224" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="A225" t="s">
+        <v>451</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225" t="s">
+        <v>238</v>
+      </c>
+      <c r="E225" t="s">
+        <v>50</v>
+      </c>
+      <c r="F225" t="s">
+        <v>239</v>
+      </c>
+      <c r="J225">
+        <v>150</v>
+      </c>
+      <c r="K225">
+        <v>360000</v>
+      </c>
+      <c r="O225">
+        <v>0.18</v>
+      </c>
+      <c r="P225">
+        <v>0.18</v>
+      </c>
+      <c r="Q225">
+        <v>0.18</v>
+      </c>
+      <c r="R225">
+        <v>0.18</v>
+      </c>
+      <c r="S225">
+        <v>0.18</v>
+      </c>
+      <c r="U225">
+        <v>1</v>
+      </c>
+      <c r="V225">
+        <v>55</v>
+      </c>
+      <c r="W225">
+        <v>110</v>
+      </c>
+      <c r="X225" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
+      <c r="A226" t="s">
+        <v>444</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" t="s">
+        <v>47</v>
+      </c>
+      <c r="F226" t="s">
+        <v>65</v>
+      </c>
+      <c r="G226" t="s">
+        <v>47</v>
+      </c>
+      <c r="J226">
+        <v>3</v>
+      </c>
+      <c r="K226">
+        <v>55</v>
+      </c>
+      <c r="U226">
+        <v>1</v>
+      </c>
+      <c r="V226">
+        <v>3</v>
+      </c>
+      <c r="W226">
+        <v>8</v>
+      </c>
+      <c r="X226" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
+      <c r="B227" t="s">
+        <v>442</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227" t="s">
+        <v>337</v>
+      </c>
+      <c r="E227" t="s">
+        <v>306</v>
+      </c>
+      <c r="F227" t="s">
+        <v>338</v>
+      </c>
+      <c r="H227">
+        <v>200</v>
+      </c>
+      <c r="K227">
+        <v>1250000</v>
+      </c>
+      <c r="U227">
+        <v>1</v>
+      </c>
+      <c r="V227">
+        <v>70</v>
+      </c>
+      <c r="W227">
+        <v>150</v>
+      </c>
+      <c r="X227" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
+      <c r="A228" t="s">
+        <v>429</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228" t="s">
+        <v>52</v>
+      </c>
+      <c r="E228" t="s">
+        <v>28</v>
+      </c>
+      <c r="F228" t="s">
+        <v>53</v>
+      </c>
+      <c r="H228">
+        <v>8</v>
+      </c>
+      <c r="K228">
+        <v>50</v>
+      </c>
+      <c r="O228">
+        <v>0.05</v>
+      </c>
+      <c r="P228">
+        <v>0.05</v>
+      </c>
+      <c r="Q228">
+        <v>0.05</v>
+      </c>
+      <c r="R228">
+        <v>0.05</v>
+      </c>
+      <c r="S228">
+        <v>0.05</v>
+      </c>
+      <c r="U228">
+        <v>1</v>
+      </c>
+      <c r="V228">
+        <v>3</v>
+      </c>
+      <c r="W228">
+        <v>8</v>
+      </c>
+      <c r="X228" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
+      <c r="B229" t="s">
+        <v>452</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229" t="s">
+        <v>240</v>
+      </c>
+      <c r="E229" t="s">
+        <v>28</v>
+      </c>
+      <c r="F229" t="s">
+        <v>241</v>
+      </c>
+      <c r="H229">
+        <v>380</v>
+      </c>
+      <c r="K229">
+        <v>750000</v>
+      </c>
+      <c r="O229">
+        <v>0.35</v>
+      </c>
+      <c r="P229">
+        <v>0.35</v>
+      </c>
+      <c r="Q229">
+        <v>0.35</v>
+      </c>
+      <c r="R229">
+        <v>0.35</v>
+      </c>
+      <c r="S229">
+        <v>0.35</v>
+      </c>
+      <c r="U229">
+        <v>1</v>
+      </c>
+      <c r="V229">
+        <v>60</v>
+      </c>
+      <c r="W229">
+        <v>130</v>
+      </c>
+      <c r="X229" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27">
+      <c r="A230" t="s">
+        <v>444</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>210</v>
+      </c>
+      <c r="E230" t="s">
+        <v>28</v>
+      </c>
+      <c r="F230" t="s">
+        <v>211</v>
+      </c>
+      <c r="H230">
+        <v>280</v>
+      </c>
+      <c r="K230">
+        <v>125000</v>
+      </c>
+      <c r="O230">
+        <v>0.29</v>
+      </c>
+      <c r="P230">
+        <v>0.29</v>
+      </c>
+      <c r="Q230">
+        <v>0.29</v>
+      </c>
+      <c r="R230">
+        <v>0.29</v>
+      </c>
+      <c r="S230">
+        <v>0.29</v>
+      </c>
+      <c r="U230">
+        <v>1</v>
+      </c>
+      <c r="V230">
+        <v>50</v>
+      </c>
+      <c r="W230">
+        <v>100</v>
+      </c>
+      <c r="X230" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27">
+      <c r="B231" t="s">
+        <v>434</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231" t="s">
+        <v>102</v>
+      </c>
+      <c r="E231" t="s">
+        <v>31</v>
+      </c>
+      <c r="F231" t="s">
+        <v>103</v>
+      </c>
+      <c r="G231" t="s">
+        <v>31</v>
+      </c>
+      <c r="J231">
+        <v>40</v>
+      </c>
+      <c r="K231">
+        <v>750</v>
+      </c>
+      <c r="O231">
+        <v>0.18</v>
+      </c>
+      <c r="P231">
+        <v>0.18</v>
+      </c>
+      <c r="Q231">
+        <v>0.18</v>
+      </c>
+      <c r="R231">
+        <v>0.18</v>
+      </c>
+      <c r="S231">
+        <v>0.18</v>
+      </c>
+      <c r="U231">
+        <v>1</v>
+      </c>
+      <c r="V231">
+        <v>18</v>
+      </c>
+      <c r="W231">
+        <v>36</v>
+      </c>
+      <c r="X231" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27">
+      <c r="A232" t="s">
+        <v>444</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232" t="s">
+        <v>118</v>
+      </c>
+      <c r="E232" t="s">
+        <v>31</v>
+      </c>
+      <c r="F232" t="s">
+        <v>119</v>
+      </c>
+      <c r="G232" t="s">
+        <v>31</v>
+      </c>
+      <c r="J232">
+        <v>60</v>
+      </c>
+      <c r="K232">
+        <v>1760</v>
+      </c>
+      <c r="O232">
+        <v>0.2</v>
+      </c>
+      <c r="P232">
+        <v>0.2</v>
+      </c>
+      <c r="Q232">
+        <v>0.2</v>
+      </c>
+      <c r="R232">
+        <v>0.2</v>
+      </c>
+      <c r="S232">
+        <v>0.2</v>
+      </c>
+      <c r="U232">
+        <v>1</v>
+      </c>
+      <c r="V232">
+        <v>24</v>
+      </c>
+      <c r="W232">
+        <v>40</v>
+      </c>
+      <c r="X232" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="233" spans="1:27">
+      <c r="B233" t="s">
+        <v>447</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233" t="s">
+        <v>98</v>
+      </c>
+      <c r="E233" t="s">
+        <v>50</v>
+      </c>
+      <c r="F233" t="s">
+        <v>99</v>
+      </c>
+      <c r="G233" t="s">
+        <v>50</v>
+      </c>
+      <c r="J233">
+        <v>10</v>
+      </c>
+      <c r="K233">
+        <v>200</v>
+      </c>
+      <c r="O233">
+        <v>0.03</v>
+      </c>
+      <c r="P233">
+        <v>0.03</v>
+      </c>
+      <c r="Q233">
+        <v>0.03</v>
+      </c>
+      <c r="R233">
+        <v>0.03</v>
+      </c>
+      <c r="S233">
+        <v>0.03</v>
+      </c>
+      <c r="U233">
+        <v>1</v>
+      </c>
+      <c r="V233">
+        <v>10</v>
+      </c>
+      <c r="W233">
+        <v>20</v>
+      </c>
+      <c r="X233" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="234" spans="1:27">
+      <c r="B234" t="s">
+        <v>446</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>289</v>
+      </c>
+      <c r="E234" t="s">
+        <v>273</v>
+      </c>
+      <c r="F234" t="s">
+        <v>290</v>
+      </c>
+      <c r="H234">
+        <v>55</v>
+      </c>
+      <c r="K234">
+        <v>13400</v>
+      </c>
+      <c r="L234">
+        <v>0.16</v>
+      </c>
+      <c r="M234">
+        <v>0.16</v>
+      </c>
+      <c r="N234">
+        <v>0.16</v>
+      </c>
+      <c r="U234">
+        <v>1</v>
+      </c>
+      <c r="V234">
+        <v>36</v>
+      </c>
+      <c r="W234">
+        <v>70</v>
+      </c>
+      <c r="X234" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="235" spans="1:27">
+      <c r="A235" t="s">
+        <v>448</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235" t="s">
+        <v>102</v>
+      </c>
+      <c r="E235" t="s">
+        <v>31</v>
+      </c>
+      <c r="F235" t="s">
+        <v>103</v>
+      </c>
+      <c r="G235" t="s">
+        <v>31</v>
+      </c>
+      <c r="J235">
+        <v>40</v>
+      </c>
+      <c r="K235">
+        <v>750</v>
+      </c>
+      <c r="O235">
+        <v>0.18</v>
+      </c>
+      <c r="P235">
+        <v>0.18</v>
+      </c>
+      <c r="Q235">
+        <v>0.18</v>
+      </c>
+      <c r="R235">
+        <v>0.18</v>
+      </c>
+      <c r="S235">
+        <v>0.18</v>
+      </c>
+      <c r="U235">
+        <v>1</v>
+      </c>
+      <c r="V235">
+        <v>18</v>
+      </c>
+      <c r="W235">
+        <v>36</v>
+      </c>
+      <c r="X235" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="236" spans="1:27">
+      <c r="B236" t="s">
+        <v>438</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236" t="s">
+        <v>102</v>
+      </c>
+      <c r="E236" t="s">
+        <v>31</v>
+      </c>
+      <c r="F236" t="s">
+        <v>103</v>
+      </c>
+      <c r="G236" t="s">
+        <v>31</v>
+      </c>
+      <c r="J236">
+        <v>40</v>
+      </c>
+      <c r="K236">
+        <v>750</v>
+      </c>
+      <c r="O236">
+        <v>0.18</v>
+      </c>
+      <c r="P236">
+        <v>0.18</v>
+      </c>
+      <c r="Q236">
+        <v>0.18</v>
+      </c>
+      <c r="R236">
+        <v>0.18</v>
+      </c>
+      <c r="S236">
+        <v>0.18</v>
+      </c>
+      <c r="U236">
+        <v>1</v>
+      </c>
+      <c r="V236">
+        <v>18</v>
+      </c>
+      <c r="W236">
+        <v>36</v>
+      </c>
+      <c r="X236" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="237" spans="1:27">
+      <c r="A237" t="s">
+        <v>440</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237" t="s">
+        <v>228</v>
+      </c>
+      <c r="E237" t="s">
+        <v>31</v>
+      </c>
+      <c r="F237" t="s">
+        <v>229</v>
+      </c>
+      <c r="G237" t="s">
+        <v>31</v>
+      </c>
+      <c r="J237">
+        <v>230</v>
+      </c>
+      <c r="K237">
+        <v>450000</v>
+      </c>
+      <c r="O237">
+        <v>0.4</v>
+      </c>
+      <c r="P237">
+        <v>0.4</v>
+      </c>
+      <c r="Q237">
+        <v>0.4</v>
+      </c>
+      <c r="R237">
+        <v>0.4</v>
+      </c>
+      <c r="S237">
+        <v>0.4</v>
+      </c>
+      <c r="U237">
+        <v>1</v>
+      </c>
+      <c r="V237">
+        <v>55</v>
+      </c>
+      <c r="W237">
+        <v>110</v>
+      </c>
+      <c r="X237" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="238" spans="1:27">
+      <c r="A238" t="s">
+        <v>453</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>118</v>
+      </c>
+      <c r="E238" t="s">
+        <v>31</v>
+      </c>
+      <c r="F238" t="s">
+        <v>119</v>
+      </c>
+      <c r="G238" t="s">
+        <v>31</v>
+      </c>
+      <c r="J238">
+        <v>60</v>
+      </c>
+      <c r="K238">
+        <v>1760</v>
+      </c>
+      <c r="O238">
+        <v>0.2</v>
+      </c>
+      <c r="P238">
+        <v>0.2</v>
+      </c>
+      <c r="Q238">
+        <v>0.2</v>
+      </c>
+      <c r="R238">
+        <v>0.2</v>
+      </c>
+      <c r="S238">
+        <v>0.2</v>
+      </c>
+      <c r="U238">
+        <v>1</v>
+      </c>
+      <c r="V238">
+        <v>24</v>
+      </c>
+      <c r="W238">
+        <v>40</v>
+      </c>
+      <c r="X238" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="239" spans="1:27">
+      <c r="A239" t="s">
+        <v>436</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239" t="s">
+        <v>327</v>
+      </c>
+      <c r="E239" t="s">
+        <v>306</v>
+      </c>
+      <c r="F239" t="s">
+        <v>328</v>
+      </c>
+      <c r="H239">
+        <v>120</v>
+      </c>
+      <c r="K239">
+        <v>55000</v>
+      </c>
+      <c r="U239">
+        <v>1</v>
+      </c>
+      <c r="V239">
+        <v>43</v>
+      </c>
+      <c r="W239">
+        <v>78</v>
+      </c>
+      <c r="X239" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="240" spans="1:27">
+      <c r="A240" t="s">
+        <v>440</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240" t="s">
+        <v>301</v>
+      </c>
+      <c r="E240" t="s">
+        <v>273</v>
+      </c>
+      <c r="F240" t="s">
+        <v>302</v>
+      </c>
+      <c r="H240">
+        <v>90</v>
+      </c>
+      <c r="K240">
+        <v>750000</v>
+      </c>
+      <c r="L240">
+        <v>0.29</v>
+      </c>
+      <c r="M240">
+        <v>0.29</v>
+      </c>
+      <c r="N240">
+        <v>0.29</v>
+      </c>
+      <c r="U240">
+        <v>1</v>
+      </c>
+      <c r="V240">
+        <v>60</v>
+      </c>
+      <c r="W240">
+        <v>130</v>
+      </c>
+      <c r="X240" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
+      <c r="A241" t="s">
+        <v>429</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241" t="s">
+        <v>270</v>
+      </c>
+      <c r="E241" t="s">
+        <v>50</v>
+      </c>
+      <c r="F241" t="s">
+        <v>271</v>
+      </c>
+      <c r="G241" t="s">
+        <v>50</v>
+      </c>
+      <c r="J241">
+        <v>200</v>
+      </c>
+      <c r="K241">
+        <v>800000</v>
+      </c>
+      <c r="O241">
+        <v>0.23</v>
+      </c>
+      <c r="P241">
+        <v>0.23</v>
+      </c>
+      <c r="Q241">
+        <v>0.23</v>
+      </c>
+      <c r="R241">
+        <v>0.23</v>
+      </c>
+      <c r="S241">
+        <v>0.23</v>
+      </c>
+      <c r="U241">
+        <v>1</v>
+      </c>
+      <c r="V241">
+        <v>70</v>
+      </c>
+      <c r="W241">
+        <v>180</v>
+      </c>
+      <c r="X241" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
+      <c r="A242" t="s">
+        <v>429</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242" t="s">
+        <v>299</v>
+      </c>
+      <c r="E242" t="s">
+        <v>273</v>
+      </c>
+      <c r="F242" t="s">
+        <v>300</v>
+      </c>
+      <c r="H242">
+        <v>80</v>
+      </c>
+      <c r="K242">
+        <v>346000</v>
+      </c>
+      <c r="L242">
+        <v>0.27</v>
+      </c>
+      <c r="M242">
+        <v>0.27</v>
+      </c>
+      <c r="N242">
+        <v>0.27</v>
+      </c>
+      <c r="U242">
+        <v>1</v>
+      </c>
+      <c r="V242">
+        <v>55</v>
+      </c>
+      <c r="W242">
+        <v>110</v>
+      </c>
+      <c r="X242" t="s">
         <v>273</v>
       </c>
     </row>

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -1715,7 +1715,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA242"/>
+  <dimension ref="A1:AA247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5025,6 +5025,9 @@
       <c r="F77" t="s">
         <v>187</v>
       </c>
+      <c r="G77" t="s">
+        <v>38</v>
+      </c>
       <c r="J77">
         <v>90</v>
       </c>
@@ -11582,6 +11585,223 @@
       </c>
       <c r="X242" t="s">
         <v>273</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
+      <c r="B243" t="s">
+        <v>432</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243" t="s">
+        <v>132</v>
+      </c>
+      <c r="E243" t="s">
+        <v>28</v>
+      </c>
+      <c r="F243" t="s">
+        <v>133</v>
+      </c>
+      <c r="H243">
+        <v>145</v>
+      </c>
+      <c r="K243">
+        <v>3600</v>
+      </c>
+      <c r="O243">
+        <v>0.2</v>
+      </c>
+      <c r="P243">
+        <v>0.2</v>
+      </c>
+      <c r="Q243">
+        <v>0.2</v>
+      </c>
+      <c r="R243">
+        <v>0.2</v>
+      </c>
+      <c r="S243">
+        <v>0.2</v>
+      </c>
+      <c r="U243">
+        <v>1</v>
+      </c>
+      <c r="V243">
+        <v>28</v>
+      </c>
+      <c r="W243">
+        <v>50</v>
+      </c>
+      <c r="X243" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27">
+      <c r="A244" t="s">
+        <v>443</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244" t="s">
+        <v>30</v>
+      </c>
+      <c r="E244" t="s">
+        <v>31</v>
+      </c>
+      <c r="F244" t="s">
+        <v>32</v>
+      </c>
+      <c r="G244" t="s">
+        <v>31</v>
+      </c>
+      <c r="J244">
+        <v>4</v>
+      </c>
+      <c r="K244">
+        <v>10</v>
+      </c>
+      <c r="U244">
+        <v>1</v>
+      </c>
+      <c r="V244">
+        <v>1</v>
+      </c>
+      <c r="W244">
+        <v>5</v>
+      </c>
+      <c r="X244" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="245" spans="1:27">
+      <c r="B245" t="s">
+        <v>439</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245" t="s">
+        <v>64</v>
+      </c>
+      <c r="E245" t="s">
+        <v>47</v>
+      </c>
+      <c r="F245" t="s">
+        <v>65</v>
+      </c>
+      <c r="G245" t="s">
+        <v>47</v>
+      </c>
+      <c r="J245">
+        <v>3</v>
+      </c>
+      <c r="K245">
+        <v>55</v>
+      </c>
+      <c r="U245">
+        <v>1</v>
+      </c>
+      <c r="V245">
+        <v>3</v>
+      </c>
+      <c r="W245">
+        <v>8</v>
+      </c>
+      <c r="X245" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="246" spans="1:27">
+      <c r="A246" t="s">
+        <v>451</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246" t="s">
+        <v>186</v>
+      </c>
+      <c r="E246" t="s">
+        <v>38</v>
+      </c>
+      <c r="F246" t="s">
+        <v>187</v>
+      </c>
+      <c r="G246" t="s">
+        <v>38</v>
+      </c>
+      <c r="J246">
+        <v>90</v>
+      </c>
+      <c r="K246">
+        <v>18000</v>
+      </c>
+      <c r="O246">
+        <v>0.14</v>
+      </c>
+      <c r="P246">
+        <v>0.14</v>
+      </c>
+      <c r="Q246">
+        <v>0.14</v>
+      </c>
+      <c r="R246">
+        <v>0.14</v>
+      </c>
+      <c r="S246">
+        <v>0.14</v>
+      </c>
+      <c r="U246">
+        <v>1</v>
+      </c>
+      <c r="V246">
+        <v>40</v>
+      </c>
+      <c r="W246">
+        <v>75</v>
+      </c>
+      <c r="X246" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="247" spans="1:27">
+      <c r="A247" t="s">
+        <v>435</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>74</v>
+      </c>
+      <c r="E247" t="s">
+        <v>38</v>
+      </c>
+      <c r="F247" t="s">
+        <v>75</v>
+      </c>
+      <c r="G247" t="s">
+        <v>38</v>
+      </c>
+      <c r="J247">
+        <v>5</v>
+      </c>
+      <c r="K247">
+        <v>100</v>
+      </c>
+      <c r="U247">
+        <v>1</v>
+      </c>
+      <c r="V247">
+        <v>6</v>
+      </c>
+      <c r="W247">
+        <v>12</v>
+      </c>
+      <c r="X247" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="568">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -1316,67 +1316,409 @@
     <t>Weapon Crafter Spell</t>
   </si>
   <si>
+    <t>Life Stealer</t>
+  </si>
+  <si>
+    <t>Enchantress Luck</t>
+  </si>
+  <si>
+    <t>Armour Smiths Hopes</t>
+  </si>
+  <si>
+    <t>Spell Weavers Thoughts</t>
+  </si>
+  <si>
+    <t>Archbishops Prayer</t>
+  </si>
+  <si>
+    <t>Balanced Energies</t>
+  </si>
+  <si>
+    <t>Blood Lust</t>
+  </si>
+  <si>
+    <t>Artifact Hunter</t>
+  </si>
+  <si>
+    <t>Hawk Eye</t>
+  </si>
+  <si>
+    <t>Ring Makers Inspiration</t>
+  </si>
+  <si>
+    <t>Thieves Eye</t>
+  </si>
+  <si>
+    <t>Dancers Moves</t>
+  </si>
+  <si>
+    <t>Deaths Accuracy</t>
+  </si>
+  <si>
+    <t>Blacksmiths Heart</t>
+  </si>
+  <si>
+    <t>Desert Winds</t>
+  </si>
+  <si>
+    <t>Eye For Gold</t>
+  </si>
+  <si>
+    <t>Clerics Blessing</t>
+  </si>
+  <si>
+    <t>Soldiers Resilance</t>
+  </si>
+  <si>
     <t>Sorcerers Magic</t>
   </si>
   <si>
-    <t>Armour Smiths Hopes</t>
-  </si>
-  <si>
-    <t>Archbishops Prayer</t>
-  </si>
-  <si>
-    <t>Clerics Blessing</t>
+    <t>Mages Inspiration</t>
   </si>
   <si>
     <t>Devils Arrow</t>
   </si>
   <si>
-    <t>Blacksmiths Heart</t>
+    <t>Dead Mans Bone Scythe</t>
+  </si>
+  <si>
+    <t>Crafted from a dead mans bones. This scythe has the agonizing screams and torments of the man who was tortured for this weapon to be made.</t>
+  </si>
+  <si>
+    <t>Witches Plate</t>
+  </si>
+  <si>
+    <t>Enchanted by witches of the past, thee beings are long dead. This is one of the last treasures to find of witches. They say that all the witches fled for the Astral plane long ago.</t>
+  </si>
+  <si>
+    <t>This shield has been twice blessed by a celestial being from a Plane unknown to ours.</t>
+  </si>
+  <si>
+    <t>Black Widow Leggings</t>
+  </si>
+  <si>
+    <t>Black and red leather to create tight fitting leggings</t>
+  </si>
+  <si>
+    <t>Sorrowful Boots</t>
+  </si>
+  <si>
+    <t>Created from the sadness and darkness of one mans depression, these boots are beautiful, but full of sadness.</t>
+  </si>
+  <si>
+    <t>Twisted Sleeves Of Nature</t>
+  </si>
+  <si>
+    <t>Nature can be a finicky beast. Twisting its roots and earth around obstacles. Never letting anything get in the way, Not completely tameable.</t>
+  </si>
+  <si>
+    <t>Enchanted Helmet</t>
+  </si>
+  <si>
+    <t>Theres really nothing magical about this helmet. Accept when I acquired it, I was told it was enchanted. I think I was lied to.</t>
+  </si>
+  <si>
+    <t>Trusted Ring</t>
+  </si>
+  <si>
+    <t>A ring full of trust. The person who wears it will trust everyone. It's kind of a curse.</t>
+  </si>
+  <si>
+    <t>Crying Widow</t>
+  </si>
+  <si>
+    <t>She use to be a happily married women, till her husband was killed in war. Now her tears are used for healing potions.</t>
+  </si>
+  <si>
+    <t>Blood Magic</t>
+  </si>
+  <si>
+    <t>Use powerful blood magic to take down your enemy.</t>
+  </si>
+  <si>
+    <t>Staff of The Angels</t>
+  </si>
+  <si>
+    <t>A staff created by the angels. It carries the holiest of magic through out, yet mortals cannot tap into its power.</t>
+  </si>
+  <si>
+    <t>Merlins Robes</t>
+  </si>
+  <si>
+    <t>Magical robes worn by a mysterious man named Merlin.</t>
+  </si>
+  <si>
+    <t>Long Tooth Shield</t>
+  </si>
+  <si>
+    <t>Made of a fearsome beasts long teeth, this shield is durable and sturdy.</t>
+  </si>
+  <si>
+    <t>Mages Leggings</t>
+  </si>
+  <si>
+    <t>Worn by mages, created for ease of movement.</t>
+  </si>
+  <si>
+    <t>Demon Scale Boots</t>
+  </si>
+  <si>
+    <t>Created from demon scales these boots are from hell it's self.</t>
+  </si>
+  <si>
+    <t>Dark Fairy Sleeves</t>
+  </si>
+  <si>
+    <t>Created by the magics of dark fairies these sleeves are beautiful and have a slight glow about them.</t>
+  </si>
+  <si>
+    <t>Treasured Helmet</t>
+  </si>
+  <si>
+    <t>This helmet, made of iron and gold, was treasured by the last person to wear it. Alas guess where they are now?</t>
+  </si>
+  <si>
+    <t>Litches Gloves</t>
+  </si>
+  <si>
+    <t>Do Litches even wear gloves?</t>
+  </si>
+  <si>
+    <t>Merlins Ring</t>
+  </si>
+  <si>
+    <t>Merlins ring is said to contain a lot of power with in it, how ever no one has been able to tap into it.</t>
+  </si>
+  <si>
+    <t>Gold Dragon Tears</t>
+  </si>
+  <si>
+    <t>These tears are said to be very healing and very loving. Let it wash away your wounds.</t>
+  </si>
+  <si>
+    <t>Fireball</t>
+  </si>
+  <si>
+    <t>A simple fireball can deal so much damage.</t>
+  </si>
+  <si>
+    <t>Dragon Slayer Spear</t>
+  </si>
+  <si>
+    <t>The legendary spear that brought down many a beast. Will it do wonders for you as well?</t>
+  </si>
+  <si>
+    <t>Astral Chain Mail</t>
+  </si>
+  <si>
+    <t>Created on the Astral plane and given to the merchants of the surface plane, it's sold every where now.</t>
+  </si>
+  <si>
+    <t>Dark Paladins Sield</t>
+  </si>
+  <si>
+    <t>A paladin with out an oath is considered to be a dark faithless paladin. This shield belonged to one such paladin.</t>
+  </si>
+  <si>
+    <t>Dark Wizard Chain Leggings</t>
+  </si>
+  <si>
+    <t>The darkest of magics were enchanted over these chain leggings. Alas wha that magic is I have no idea.</t>
+  </si>
+  <si>
+    <t>Thieves Leather Boots</t>
+  </si>
+  <si>
+    <t>Thieves are said to wear these to move with out even the faintest of sound or trace being left.</t>
+  </si>
+  <si>
+    <t>Air Sleeves</t>
+  </si>
+  <si>
+    <t>Made of air, magically enchanted into the finest of silk, these sleeves are empty and void.</t>
+  </si>
+  <si>
+    <t>Lord Of Lights Helmet</t>
+  </si>
+  <si>
+    <t>Long ago there was a Lord of Light from the Plane of Light, which is now closed to all mortal visitors. Only Celestial creatures may enter now.</t>
+  </si>
+  <si>
+    <t>Red Clerics Plate Gloves</t>
+  </si>
+  <si>
+    <t>The Red Clerics are a group of Clerics that hunt down for magical beings to slaughter in the name of their one true lord: God.</t>
+  </si>
+  <si>
+    <t>Mothers Ring</t>
+  </si>
+  <si>
+    <t>A ring from a mother. She sold it for food for her children.</t>
+  </si>
+  <si>
+    <t>Illusion of Life</t>
+  </si>
+  <si>
+    <t>Do you see it? Out there? In the darkness? The illusion of life. Make the illusion be real and live!</t>
+  </si>
+  <si>
+    <t>Conjured Whips and Chains</t>
+  </si>
+  <si>
+    <t>This sounds painful. Best to stay out of the way.</t>
+  </si>
+  <si>
+    <t>Holy Book Of Truth</t>
+  </si>
+  <si>
+    <t>The Holy Book Of Truth speaks nothing but truth to those around you. It also gives you a boost where you need it the most.</t>
+  </si>
+  <si>
+    <t>Knights Vow</t>
+  </si>
+  <si>
+    <t>The Knights Vow is an old artifact that radiates the courage and strength Knights have.</t>
+  </si>
+  <si>
+    <t>Shadow Arrow</t>
+  </si>
+  <si>
+    <t>An old arrow from from the Shadow Plane, it gives you aim you truly need.</t>
+  </si>
+  <si>
+    <t>Blood Screetch</t>
+  </si>
+  <si>
+    <t>Back in the old days these use to be creatures that would screech after taking the blood of their victims. This one is petrified for you.</t>
+  </si>
+  <si>
+    <t>Crystal Ball</t>
+  </si>
+  <si>
+    <t>The crystal ball holds the truth of intelligence.</t>
+  </si>
+  <si>
+    <t>Ring From The Church</t>
+  </si>
+  <si>
+    <t>An old antique ring from a church of power.</t>
+  </si>
+  <si>
+    <t>Thieves Dagger</t>
+  </si>
+  <si>
+    <t>With this dagger, your aim will never be off.</t>
+  </si>
+  <si>
+    <t>Dancers Shoes</t>
+  </si>
+  <si>
+    <t>Never let the enemy touch you child.</t>
+  </si>
+  <si>
+    <t>Dragons Eye</t>
+  </si>
+  <si>
+    <t>Dragons love treasure. let the eye guide you to the treasure.</t>
+  </si>
+  <si>
+    <t>Anvil Of Hope</t>
+  </si>
+  <si>
+    <t>Craft better weapons child. Better weapons.</t>
+  </si>
+  <si>
+    <t>Mystical Plate</t>
+  </si>
+  <si>
+    <t>This plate will help you craft better armour.</t>
+  </si>
+  <si>
+    <t>Empty Grimoire</t>
+  </si>
+  <si>
+    <t>Craft your darkest spells.</t>
+  </si>
+  <si>
+    <t>Enchanted Hammer</t>
+  </si>
+  <si>
+    <t>Craft beautiful and majestic rings.</t>
+  </si>
+  <si>
+    <t>Golden Pin</t>
+  </si>
+  <si>
+    <t>Craft the artifacts with the finest touch.</t>
+  </si>
+  <si>
+    <t>Enchanters Doll</t>
+  </si>
+  <si>
+    <t>A doll for enchanting objects, how cute.</t>
+  </si>
+  <si>
+    <t>Rune Axe</t>
+  </si>
+  <si>
+    <t>Made of runes this axe is made of power and razor sharp.</t>
+  </si>
+  <si>
+    <t>Death Mage Robes</t>
+  </si>
+  <si>
+    <t>Worn by Death Mages from the Plane of Death. These Mages not only worship death but also fight at his side.</t>
+  </si>
+  <si>
+    <t>Lord Of Shadows Shield</t>
+  </si>
+  <si>
+    <t>used by the Lord of shadows in the Shadow Plane, this shield is made of pure shadow metal.</t>
+  </si>
+  <si>
+    <t>Bloody Pirate Chain Leggings</t>
+  </si>
+  <si>
+    <t>Stolen right off a dead pirate.</t>
+  </si>
+  <si>
+    <t>Druids Leather Boots</t>
+  </si>
+  <si>
+    <t>Worn by druids to move in the woods unheard and unseen.</t>
+  </si>
+  <si>
+    <t>Wolf Gloves</t>
+  </si>
+  <si>
+    <t>These gloves are made of wolf pelts.</t>
+  </si>
+  <si>
+    <t>Demon Prince Ring</t>
+  </si>
+  <si>
+    <t>Once owned by a demon prince of the deepest pits of hell, it is now owned by me.</t>
+  </si>
+  <si>
+    <t>Fire Of Hope</t>
+  </si>
+  <si>
+    <t>Never let the fires of hope go out.</t>
+  </si>
+  <si>
+    <t>Litches Curse</t>
+  </si>
+  <si>
+    <t>The Curse of The Litch is an old one that brings terror to those who hear of it.</t>
   </si>
   <si>
     <t>Weapons Glory</t>
   </si>
   <si>
-    <t>Balanced Energies</t>
-  </si>
-  <si>
-    <t>Ring Makers Inspiration</t>
-  </si>
-  <si>
-    <t>Desert Winds</t>
-  </si>
-  <si>
-    <t>Life Stealer</t>
-  </si>
-  <si>
-    <t>Soldiers Resilance</t>
-  </si>
-  <si>
     <t>Archers Bane</t>
   </si>
   <si>
-    <t>Eye For Gold</t>
-  </si>
-  <si>
     <t>Sinister Dance</t>
-  </si>
-  <si>
-    <t>Blood Lust</t>
-  </si>
-  <si>
-    <t>Dancers Moves</t>
-  </si>
-  <si>
-    <t>Enchantress Luck</t>
-  </si>
-  <si>
-    <t>Mages Inspiration</t>
-  </si>
-  <si>
-    <t>Deaths Accuracy</t>
-  </si>
-  <si>
-    <t>Hawk Eye</t>
   </si>
 </sst>
 </file>
@@ -1711,11 +2053,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA247"/>
+  <dimension ref="A1:AA350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1723,33 +2065,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="35.2771" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="216.947021" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="24.708252" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="35" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="216" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="24" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -9375,322 +9717,328 @@
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>34</v>
+        <v>277</v>
       </c>
       <c r="E195" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
-      </c>
-      <c r="J195">
-        <v>1</v>
+        <v>278</v>
+      </c>
+      <c r="H195">
+        <v>10</v>
       </c>
       <c r="K195">
-        <v>5</v>
+        <v>180</v>
+      </c>
+      <c r="L195">
+        <v>0.02</v>
+      </c>
+      <c r="M195">
+        <v>0.02</v>
+      </c>
+      <c r="N195">
+        <v>0.02</v>
       </c>
       <c r="U195">
         <v>1</v>
       </c>
       <c r="V195">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W195">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="X195" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
     </row>
     <row r="196" spans="1:27">
-      <c r="B196" t="s">
-        <v>434</v>
+      <c r="A196" t="s">
+        <v>433</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="E196" t="s">
         <v>28</v>
       </c>
       <c r="F196" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
       <c r="H196">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="K196">
-        <v>750000</v>
+        <v>12000</v>
       </c>
       <c r="O196">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="P196">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="Q196">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="R196">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="S196">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="U196">
         <v>1</v>
       </c>
       <c r="V196">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="W196">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="X196" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="197" spans="1:27">
-      <c r="A197" t="s">
+      <c r="B197" t="s">
+        <v>432</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197" t="s">
+        <v>244</v>
+      </c>
+      <c r="E197" t="s">
+        <v>35</v>
+      </c>
+      <c r="F197" t="s">
+        <v>245</v>
+      </c>
+      <c r="J197">
+        <v>170</v>
+      </c>
+      <c r="K197">
+        <v>680000</v>
+      </c>
+      <c r="O197">
+        <v>0.25</v>
+      </c>
+      <c r="P197">
+        <v>0.25</v>
+      </c>
+      <c r="Q197">
+        <v>0.25</v>
+      </c>
+      <c r="R197">
+        <v>0.25</v>
+      </c>
+      <c r="S197">
+        <v>0.25</v>
+      </c>
+      <c r="U197">
+        <v>1</v>
+      </c>
+      <c r="V197">
+        <v>60</v>
+      </c>
+      <c r="W197">
+        <v>130</v>
+      </c>
+      <c r="X197" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27">
+      <c r="B198" t="s">
+        <v>434</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198" t="s">
+        <v>260</v>
+      </c>
+      <c r="E198" t="s">
+        <v>35</v>
+      </c>
+      <c r="F198" t="s">
+        <v>261</v>
+      </c>
+      <c r="J198">
+        <v>200</v>
+      </c>
+      <c r="K198">
+        <v>1100000</v>
+      </c>
+      <c r="O198">
+        <v>0.3</v>
+      </c>
+      <c r="P198">
+        <v>0.3</v>
+      </c>
+      <c r="Q198">
+        <v>0.3</v>
+      </c>
+      <c r="R198">
+        <v>0.3</v>
+      </c>
+      <c r="S198">
+        <v>0.3</v>
+      </c>
+      <c r="U198">
+        <v>1</v>
+      </c>
+      <c r="V198">
+        <v>70</v>
+      </c>
+      <c r="W198">
+        <v>180</v>
+      </c>
+      <c r="X198" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27">
+      <c r="B199" t="s">
         <v>435</v>
       </c>
-      <c r="C197">
-        <v>1</v>
-      </c>
-      <c r="D197" t="s">
-        <v>256</v>
-      </c>
-      <c r="E197" t="s">
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>240</v>
+      </c>
+      <c r="E199" t="s">
         <v>28</v>
       </c>
-      <c r="F197" t="s">
-        <v>257</v>
-      </c>
-      <c r="H197">
-        <v>450</v>
-      </c>
-      <c r="K197">
-        <v>1525000</v>
-      </c>
-      <c r="O197">
-        <v>0.37</v>
-      </c>
-      <c r="P197">
-        <v>0.37</v>
-      </c>
-      <c r="Q197">
-        <v>0.37</v>
-      </c>
-      <c r="R197">
-        <v>0.37</v>
-      </c>
-      <c r="S197">
-        <v>0.37</v>
-      </c>
-      <c r="U197">
-        <v>1</v>
-      </c>
-      <c r="V197">
-        <v>70</v>
-      </c>
-      <c r="W197">
-        <v>150</v>
-      </c>
-      <c r="X197" t="s">
+      <c r="F199" t="s">
+        <v>241</v>
+      </c>
+      <c r="H199">
+        <v>380</v>
+      </c>
+      <c r="K199">
+        <v>750000</v>
+      </c>
+      <c r="O199">
+        <v>0.35</v>
+      </c>
+      <c r="P199">
+        <v>0.35</v>
+      </c>
+      <c r="Q199">
+        <v>0.35</v>
+      </c>
+      <c r="R199">
+        <v>0.35</v>
+      </c>
+      <c r="S199">
+        <v>0.35</v>
+      </c>
+      <c r="U199">
+        <v>1</v>
+      </c>
+      <c r="V199">
+        <v>60</v>
+      </c>
+      <c r="W199">
+        <v>130</v>
+      </c>
+      <c r="X199" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="198" spans="1:27">
-      <c r="A198" t="s">
-        <v>436</v>
-      </c>
-      <c r="C198">
-        <v>1</v>
-      </c>
-      <c r="D198" t="s">
-        <v>128</v>
-      </c>
-      <c r="E198" t="s">
-        <v>47</v>
-      </c>
-      <c r="F198" t="s">
-        <v>129</v>
-      </c>
-      <c r="G198" t="s">
-        <v>47</v>
-      </c>
-      <c r="J198">
-        <v>30</v>
-      </c>
-      <c r="K198">
-        <v>945</v>
-      </c>
-      <c r="O198">
-        <v>0.06</v>
-      </c>
-      <c r="P198">
-        <v>0.06</v>
-      </c>
-      <c r="Q198">
-        <v>0.06</v>
-      </c>
-      <c r="R198">
-        <v>0.06</v>
-      </c>
-      <c r="S198">
-        <v>0.06</v>
-      </c>
-      <c r="U198">
-        <v>1</v>
-      </c>
-      <c r="V198">
-        <v>24</v>
-      </c>
-      <c r="W198">
-        <v>40</v>
-      </c>
-      <c r="X198" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="199" spans="1:27">
-      <c r="A199" t="s">
-        <v>435</v>
-      </c>
-      <c r="C199">
-        <v>1</v>
-      </c>
-      <c r="D199" t="s">
-        <v>158</v>
-      </c>
-      <c r="E199" t="s">
-        <v>44</v>
-      </c>
-      <c r="F199" t="s">
-        <v>159</v>
-      </c>
-      <c r="G199" t="s">
-        <v>44</v>
-      </c>
-      <c r="J199">
-        <v>45</v>
-      </c>
-      <c r="K199">
-        <v>4000</v>
-      </c>
-      <c r="O199">
-        <v>0.1</v>
-      </c>
-      <c r="P199">
-        <v>0.1</v>
-      </c>
-      <c r="Q199">
-        <v>0.1</v>
-      </c>
-      <c r="R199">
-        <v>0.1</v>
-      </c>
-      <c r="S199">
-        <v>0.1</v>
-      </c>
-      <c r="U199">
-        <v>1</v>
-      </c>
-      <c r="V199">
-        <v>28</v>
-      </c>
-      <c r="W199">
-        <v>50</v>
-      </c>
-      <c r="X199" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="200" spans="1:27">
       <c r="B200" t="s">
+        <v>436</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>49</v>
+      </c>
+      <c r="E200" t="s">
+        <v>50</v>
+      </c>
+      <c r="F200" t="s">
+        <v>51</v>
+      </c>
+      <c r="G200" t="s">
+        <v>50</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>5</v>
+      </c>
+      <c r="U200">
+        <v>1</v>
+      </c>
+      <c r="V200">
+        <v>1</v>
+      </c>
+      <c r="W200">
+        <v>5</v>
+      </c>
+      <c r="X200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="201" spans="1:27">
+      <c r="A201" t="s">
         <v>437</v>
       </c>
-      <c r="C200">
-        <v>1</v>
-      </c>
-      <c r="D200" t="s">
-        <v>132</v>
-      </c>
-      <c r="E200" t="s">
-        <v>28</v>
-      </c>
-      <c r="F200" t="s">
-        <v>133</v>
-      </c>
-      <c r="H200">
-        <v>145</v>
-      </c>
-      <c r="K200">
-        <v>3600</v>
-      </c>
-      <c r="O200">
-        <v>0.2</v>
-      </c>
-      <c r="P200">
-        <v>0.2</v>
-      </c>
-      <c r="Q200">
-        <v>0.2</v>
-      </c>
-      <c r="R200">
-        <v>0.2</v>
-      </c>
-      <c r="S200">
-        <v>0.2</v>
-      </c>
-      <c r="U200">
-        <v>1</v>
-      </c>
-      <c r="V200">
-        <v>28</v>
-      </c>
-      <c r="W200">
-        <v>50</v>
-      </c>
-      <c r="X200" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="201" spans="1:27">
-      <c r="B201" t="s">
-        <v>438</v>
-      </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E201" t="s">
         <v>31</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="G201" t="s">
         <v>31</v>
       </c>
       <c r="J201">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="K201">
-        <v>10</v>
+        <v>5750</v>
+      </c>
+      <c r="O201">
+        <v>0.28</v>
+      </c>
+      <c r="P201">
+        <v>0.28</v>
+      </c>
+      <c r="Q201">
+        <v>0.28</v>
+      </c>
+      <c r="R201">
+        <v>0.28</v>
+      </c>
+      <c r="S201">
+        <v>0.28</v>
       </c>
       <c r="U201">
         <v>1</v>
       </c>
       <c r="V201">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="W201">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="X201" t="s">
         <v>33</v>
@@ -9698,95 +10046,107 @@
     </row>
     <row r="202" spans="1:27">
       <c r="A202" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>356</v>
+        <v>52</v>
       </c>
       <c r="E202" t="s">
-        <v>340</v>
+        <v>28</v>
       </c>
       <c r="F202" t="s">
-        <v>357</v>
-      </c>
-      <c r="I202">
-        <v>160</v>
+        <v>53</v>
+      </c>
+      <c r="H202">
+        <v>8</v>
       </c>
       <c r="K202">
-        <v>13876</v>
+        <v>50</v>
+      </c>
+      <c r="O202">
+        <v>0.05</v>
+      </c>
+      <c r="P202">
+        <v>0.05</v>
+      </c>
+      <c r="Q202">
+        <v>0.05</v>
+      </c>
+      <c r="R202">
+        <v>0.05</v>
+      </c>
+      <c r="S202">
+        <v>0.05</v>
       </c>
       <c r="U202">
         <v>1</v>
       </c>
       <c r="V202">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="W202">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="X202" t="s">
-        <v>308</v>
+        <v>28</v>
       </c>
     </row>
     <row r="203" spans="1:27">
-      <c r="B203" t="s">
-        <v>439</v>
+      <c r="A203" t="s">
+        <v>438</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="E203" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F203" t="s">
-        <v>103</v>
-      </c>
-      <c r="G203" t="s">
-        <v>31</v>
-      </c>
-      <c r="J203">
-        <v>40</v>
+        <v>53</v>
+      </c>
+      <c r="H203">
+        <v>8</v>
       </c>
       <c r="K203">
-        <v>750</v>
+        <v>50</v>
       </c>
       <c r="O203">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="P203">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="Q203">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="R203">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="S203">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="U203">
         <v>1</v>
       </c>
       <c r="V203">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="W203">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="X203" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="204" spans="1:27">
       <c r="A204" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -9820,288 +10180,279 @@
       </c>
     </row>
     <row r="205" spans="1:27">
-      <c r="B205" t="s">
-        <v>441</v>
+      <c r="A205" t="s">
+        <v>439</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>311</v>
+        <v>27</v>
       </c>
       <c r="E205" t="s">
-        <v>306</v>
+        <v>28</v>
       </c>
       <c r="F205" t="s">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="H205">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K205">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="U205">
         <v>1</v>
       </c>
       <c r="V205">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W205">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="X205" t="s">
-        <v>308</v>
+        <v>28</v>
       </c>
     </row>
     <row r="206" spans="1:27">
-      <c r="B206" t="s">
-        <v>442</v>
+      <c r="A206" t="s">
+        <v>429</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E206" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F206" t="s">
-        <v>123</v>
-      </c>
-      <c r="J206">
-        <v>30</v>
+        <v>133</v>
+      </c>
+      <c r="H206">
+        <v>145</v>
       </c>
       <c r="K206">
-        <v>1000</v>
+        <v>3600</v>
       </c>
       <c r="O206">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="P206">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="Q206">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="R206">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="S206">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="U206">
         <v>1</v>
       </c>
       <c r="V206">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="W206">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="X206" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="207" spans="1:27">
       <c r="B207" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="E207" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F207" t="s">
-        <v>141</v>
-      </c>
-      <c r="G207" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="J207">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="K207">
-        <v>2300</v>
+        <v>75000</v>
       </c>
       <c r="O207">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="P207">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="Q207">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="R207">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="S207">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="U207">
         <v>1</v>
       </c>
       <c r="V207">
+        <v>50</v>
+      </c>
+      <c r="W207">
+        <v>100</v>
+      </c>
+      <c r="X207" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208" spans="1:27">
+      <c r="B208" t="s">
+        <v>434</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>256</v>
+      </c>
+      <c r="E208" t="s">
         <v>28</v>
       </c>
-      <c r="W207">
-        <v>50</v>
-      </c>
-      <c r="X207" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="208" spans="1:27">
-      <c r="A208" t="s">
-        <v>435</v>
-      </c>
-      <c r="C208">
-        <v>1</v>
-      </c>
-      <c r="D208" t="s">
-        <v>301</v>
-      </c>
-      <c r="E208" t="s">
+      <c r="F208" t="s">
+        <v>257</v>
+      </c>
+      <c r="H208">
+        <v>450</v>
+      </c>
+      <c r="K208">
+        <v>1525000</v>
+      </c>
+      <c r="O208">
+        <v>0.37</v>
+      </c>
+      <c r="P208">
+        <v>0.37</v>
+      </c>
+      <c r="Q208">
+        <v>0.37</v>
+      </c>
+      <c r="R208">
+        <v>0.37</v>
+      </c>
+      <c r="S208">
+        <v>0.37</v>
+      </c>
+      <c r="U208">
+        <v>1</v>
+      </c>
+      <c r="V208">
+        <v>70</v>
+      </c>
+      <c r="W208">
+        <v>150</v>
+      </c>
+      <c r="X208" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
+      <c r="B209" t="s">
+        <v>440</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209" t="s">
+        <v>291</v>
+      </c>
+      <c r="E209" t="s">
         <v>273</v>
       </c>
-      <c r="F208" t="s">
-        <v>302</v>
-      </c>
-      <c r="H208">
-        <v>90</v>
-      </c>
-      <c r="K208">
-        <v>750000</v>
-      </c>
-      <c r="L208">
-        <v>0.29</v>
-      </c>
-      <c r="M208">
-        <v>0.29</v>
-      </c>
-      <c r="N208">
-        <v>0.29</v>
-      </c>
-      <c r="U208">
-        <v>1</v>
-      </c>
-      <c r="V208">
+      <c r="F209" t="s">
+        <v>292</v>
+      </c>
+      <c r="H209">
         <v>60</v>
       </c>
-      <c r="W208">
-        <v>130</v>
-      </c>
-      <c r="X208" t="s">
+      <c r="K209">
+        <v>30000</v>
+      </c>
+      <c r="L209">
+        <v>0.18</v>
+      </c>
+      <c r="M209">
+        <v>0.18</v>
+      </c>
+      <c r="N209">
+        <v>0.18</v>
+      </c>
+      <c r="U209">
+        <v>1</v>
+      </c>
+      <c r="V209">
+        <v>40</v>
+      </c>
+      <c r="W209">
+        <v>75</v>
+      </c>
+      <c r="X209" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="209" spans="1:27">
-      <c r="A209" t="s">
-        <v>443</v>
-      </c>
-      <c r="C209">
-        <v>1</v>
-      </c>
-      <c r="D209" t="s">
-        <v>142</v>
-      </c>
-      <c r="E209" t="s">
-        <v>44</v>
-      </c>
-      <c r="F209" t="s">
-        <v>143</v>
-      </c>
-      <c r="G209" t="s">
-        <v>44</v>
-      </c>
-      <c r="J209">
-        <v>45</v>
-      </c>
-      <c r="K209">
-        <v>2600</v>
-      </c>
-      <c r="O209">
-        <v>0.08</v>
-      </c>
-      <c r="P209">
-        <v>0.08</v>
-      </c>
-      <c r="Q209">
-        <v>0.08</v>
-      </c>
-      <c r="R209">
-        <v>0.08</v>
-      </c>
-      <c r="S209">
-        <v>0.08</v>
-      </c>
-      <c r="U209">
-        <v>1</v>
-      </c>
-      <c r="V209">
-        <v>28</v>
-      </c>
-      <c r="W209">
-        <v>50</v>
-      </c>
-      <c r="X209" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="210" spans="1:27">
-      <c r="B210" t="s">
-        <v>434</v>
+      <c r="A210" t="s">
+        <v>429</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="E210" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F210" t="s">
-        <v>129</v>
-      </c>
-      <c r="G210" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="J210">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K210">
-        <v>945</v>
+        <v>80</v>
       </c>
       <c r="O210">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="P210">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="Q210">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="R210">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="S210">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="U210">
         <v>1</v>
       </c>
       <c r="V210">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="W210">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="X210" t="s">
         <v>33</v>
@@ -10109,242 +10460,254 @@
     </row>
     <row r="211" spans="1:27">
       <c r="A211" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211" t="s">
-        <v>370</v>
+        <v>68</v>
       </c>
       <c r="E211" t="s">
-        <v>340</v>
+        <v>28</v>
       </c>
       <c r="F211" t="s">
-        <v>371</v>
-      </c>
-      <c r="I211">
-        <v>300</v>
+        <v>69</v>
+      </c>
+      <c r="H211">
+        <v>16</v>
       </c>
       <c r="K211">
-        <v>1456000</v>
+        <v>160</v>
+      </c>
+      <c r="O211">
+        <v>0.08</v>
+      </c>
+      <c r="P211">
+        <v>0.08</v>
+      </c>
+      <c r="Q211">
+        <v>0.08</v>
+      </c>
+      <c r="R211">
+        <v>0.08</v>
+      </c>
+      <c r="S211">
+        <v>0.08</v>
       </c>
       <c r="U211">
         <v>1</v>
       </c>
       <c r="V211">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="W211">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="X211" t="s">
-        <v>308</v>
+        <v>28</v>
       </c>
     </row>
     <row r="212" spans="1:27">
       <c r="A212" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212" t="s">
+        <v>52</v>
+      </c>
+      <c r="E212" t="s">
+        <v>28</v>
+      </c>
+      <c r="F212" t="s">
+        <v>53</v>
+      </c>
+      <c r="H212">
+        <v>8</v>
+      </c>
+      <c r="K212">
+        <v>50</v>
+      </c>
+      <c r="O212">
+        <v>0.05</v>
+      </c>
+      <c r="P212">
+        <v>0.05</v>
+      </c>
+      <c r="Q212">
+        <v>0.05</v>
+      </c>
+      <c r="R212">
+        <v>0.05</v>
+      </c>
+      <c r="S212">
+        <v>0.05</v>
+      </c>
+      <c r="U212">
+        <v>1</v>
+      </c>
+      <c r="V212">
+        <v>3</v>
+      </c>
+      <c r="W212">
+        <v>8</v>
+      </c>
+      <c r="X212" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27">
+      <c r="A213" t="s">
+        <v>441</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213" t="s">
         <v>303</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E213" t="s">
         <v>273</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F213" t="s">
         <v>304</v>
       </c>
-      <c r="H212">
+      <c r="H213">
         <v>100</v>
       </c>
-      <c r="K212">
+      <c r="K213">
         <v>1345000</v>
       </c>
-      <c r="L212">
+      <c r="L213">
         <v>0.3</v>
       </c>
-      <c r="M212">
+      <c r="M213">
         <v>0.3</v>
       </c>
-      <c r="N212">
+      <c r="N213">
         <v>0.3</v>
       </c>
-      <c r="U212">
-        <v>1</v>
-      </c>
-      <c r="V212">
+      <c r="U213">
+        <v>1</v>
+      </c>
+      <c r="V213">
         <v>70</v>
       </c>
-      <c r="W212">
+      <c r="W213">
         <v>180</v>
       </c>
-      <c r="X212" t="s">
+      <c r="X213" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="213" spans="1:27">
-      <c r="B213" t="s">
-        <v>446</v>
-      </c>
-      <c r="C213">
-        <v>1</v>
-      </c>
-      <c r="D213" t="s">
-        <v>212</v>
-      </c>
-      <c r="E213" t="s">
-        <v>31</v>
-      </c>
-      <c r="F213" t="s">
-        <v>213</v>
-      </c>
-      <c r="G213" t="s">
-        <v>31</v>
-      </c>
-      <c r="J213">
-        <v>190</v>
-      </c>
-      <c r="K213">
-        <v>125000</v>
-      </c>
-      <c r="O213">
-        <v>0.36</v>
-      </c>
-      <c r="P213">
-        <v>0.36</v>
-      </c>
-      <c r="Q213">
-        <v>0.36</v>
-      </c>
-      <c r="R213">
-        <v>0.36</v>
-      </c>
-      <c r="S213">
-        <v>0.36</v>
-      </c>
-      <c r="U213">
-        <v>1</v>
-      </c>
-      <c r="V213">
-        <v>50</v>
-      </c>
-      <c r="W213">
-        <v>100</v>
-      </c>
-      <c r="X213" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="214" spans="1:27">
-      <c r="A214" t="s">
-        <v>440</v>
+      <c r="B214" t="s">
+        <v>442</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="E214" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F214" t="s">
-        <v>53</v>
-      </c>
-      <c r="H214">
-        <v>8</v>
+        <v>125</v>
+      </c>
+      <c r="G214" t="s">
+        <v>41</v>
+      </c>
+      <c r="J214">
+        <v>30</v>
       </c>
       <c r="K214">
-        <v>50</v>
+        <v>850</v>
       </c>
       <c r="O214">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="P214">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Q214">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="R214">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="S214">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="U214">
         <v>1</v>
       </c>
       <c r="V214">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="W214">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="X214" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="215" spans="1:27">
       <c r="B215" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="E215" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F215" t="s">
-        <v>199</v>
-      </c>
-      <c r="G215" t="s">
-        <v>31</v>
-      </c>
-      <c r="J215">
-        <v>170</v>
+        <v>53</v>
+      </c>
+      <c r="H215">
+        <v>8</v>
       </c>
       <c r="K215">
-        <v>48000</v>
+        <v>50</v>
       </c>
       <c r="O215">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="P215">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="Q215">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="R215">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="S215">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="U215">
         <v>1</v>
       </c>
       <c r="V215">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="W215">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="X215" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="216" spans="1:27">
-      <c r="A216" t="s">
-        <v>448</v>
+      <c r="B216" t="s">
+        <v>444</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -10393,35 +10756,50 @@
       </c>
     </row>
     <row r="217" spans="1:27">
-      <c r="A217" t="s">
-        <v>448</v>
+      <c r="B217" t="s">
+        <v>445</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E217" t="s">
         <v>28</v>
       </c>
       <c r="F217" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H217">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K217">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="O217">
+        <v>0.05</v>
+      </c>
+      <c r="P217">
+        <v>0.05</v>
+      </c>
+      <c r="Q217">
+        <v>0.05</v>
+      </c>
+      <c r="R217">
+        <v>0.05</v>
+      </c>
+      <c r="S217">
+        <v>0.05</v>
       </c>
       <c r="U217">
         <v>1</v>
       </c>
       <c r="V217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W217">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X217" t="s">
         <v>28</v>
@@ -10429,34 +10807,52 @@
     </row>
     <row r="218" spans="1:27">
       <c r="A218" t="s">
-        <v>429</v>
+        <v>439</v>
+      </c>
+      <c r="B218" t="s">
+        <v>445</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E218" t="s">
         <v>28</v>
       </c>
       <c r="F218" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H218">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K218">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="O218">
+        <v>0.05</v>
+      </c>
+      <c r="P218">
+        <v>0.05</v>
+      </c>
+      <c r="Q218">
+        <v>0.05</v>
+      </c>
+      <c r="R218">
+        <v>0.05</v>
+      </c>
+      <c r="S218">
+        <v>0.05</v>
       </c>
       <c r="U218">
         <v>1</v>
       </c>
       <c r="V218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W218">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X218" t="s">
         <v>28</v>
@@ -10464,87 +10860,102 @@
     </row>
     <row r="219" spans="1:27">
       <c r="A219" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219" t="s">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="E219" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F219" t="s">
-        <v>29</v>
-      </c>
-      <c r="H219">
-        <v>4</v>
+        <v>259</v>
+      </c>
+      <c r="G219" t="s">
+        <v>31</v>
+      </c>
+      <c r="J219">
+        <v>360</v>
       </c>
       <c r="K219">
-        <v>10</v>
+        <v>1230000</v>
+      </c>
+      <c r="O219">
+        <v>0.5</v>
+      </c>
+      <c r="P219">
+        <v>0.5</v>
+      </c>
+      <c r="Q219">
+        <v>0.5</v>
+      </c>
+      <c r="R219">
+        <v>0.5</v>
+      </c>
+      <c r="S219">
+        <v>0.5</v>
       </c>
       <c r="U219">
         <v>1</v>
       </c>
       <c r="V219">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="W219">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="X219" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="220" spans="1:27">
       <c r="B220" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="E220" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F220" t="s">
-        <v>103</v>
-      </c>
-      <c r="G220" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="J220">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K220">
-        <v>750</v>
+        <v>38000</v>
       </c>
       <c r="O220">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="P220">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="Q220">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="R220">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="S220">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="U220">
         <v>1</v>
       </c>
       <c r="V220">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="W220">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="X220" t="s">
         <v>33</v>
@@ -10552,52 +10963,49 @@
     </row>
     <row r="221" spans="1:27">
       <c r="A221" t="s">
-        <v>435</v>
-      </c>
-      <c r="B221" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E221" t="s">
         <v>28</v>
       </c>
       <c r="F221" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="H221">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="K221">
-        <v>1525000</v>
+        <v>750000</v>
       </c>
       <c r="O221">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="P221">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="Q221">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="R221">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="S221">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="U221">
         <v>1</v>
       </c>
       <c r="V221">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="W221">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="X221" t="s">
         <v>28</v>
@@ -10605,69 +11013,93 @@
     </row>
     <row r="222" spans="1:27">
       <c r="B222" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222" t="s">
-        <v>366</v>
+        <v>289</v>
       </c>
       <c r="E222" t="s">
-        <v>340</v>
+        <v>273</v>
       </c>
       <c r="F222" t="s">
-        <v>367</v>
-      </c>
-      <c r="I222">
-        <v>260</v>
+        <v>290</v>
+      </c>
+      <c r="H222">
+        <v>55</v>
       </c>
       <c r="K222">
-        <v>320000</v>
+        <v>13400</v>
+      </c>
+      <c r="L222">
+        <v>0.16</v>
+      </c>
+      <c r="M222">
+        <v>0.16</v>
+      </c>
+      <c r="N222">
+        <v>0.16</v>
       </c>
       <c r="U222">
         <v>1</v>
       </c>
       <c r="V222">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="W222">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="X222" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
     </row>
     <row r="223" spans="1:27">
       <c r="B223" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="E223" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>247</v>
       </c>
       <c r="J223">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="K223">
-        <v>5</v>
+        <v>540000</v>
+      </c>
+      <c r="O223">
+        <v>0.2</v>
+      </c>
+      <c r="P223">
+        <v>0.2</v>
+      </c>
+      <c r="Q223">
+        <v>0.2</v>
+      </c>
+      <c r="R223">
+        <v>0.2</v>
+      </c>
+      <c r="S223">
+        <v>0.2</v>
       </c>
       <c r="U223">
         <v>1</v>
       </c>
       <c r="V223">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="W223">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="X223" t="s">
         <v>33</v>
@@ -10675,49 +11107,49 @@
     </row>
     <row r="224" spans="1:27">
       <c r="B224" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="E224" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F224" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="J224">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="K224">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="O224">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="P224">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="Q224">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="R224">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="S224">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="U224">
         <v>1</v>
       </c>
       <c r="V224">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="W224">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="X224" t="s">
         <v>33</v>
@@ -10725,49 +11157,52 @@
     </row>
     <row r="225" spans="1:27">
       <c r="A225" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225" t="s">
-        <v>238</v>
+        <v>130</v>
       </c>
       <c r="E225" t="s">
         <v>50</v>
       </c>
       <c r="F225" t="s">
-        <v>239</v>
+        <v>131</v>
+      </c>
+      <c r="G225" t="s">
+        <v>50</v>
       </c>
       <c r="J225">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="K225">
-        <v>360000</v>
+        <v>900</v>
       </c>
       <c r="O225">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="P225">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="Q225">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="R225">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="S225">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="U225">
         <v>1</v>
       </c>
       <c r="V225">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="W225">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="X225" t="s">
         <v>33</v>
@@ -10775,80 +11210,92 @@
     </row>
     <row r="226" spans="1:27">
       <c r="A226" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226" t="s">
-        <v>64</v>
+        <v>299</v>
       </c>
       <c r="E226" t="s">
-        <v>47</v>
+        <v>273</v>
       </c>
       <c r="F226" t="s">
-        <v>65</v>
-      </c>
-      <c r="G226" t="s">
-        <v>47</v>
-      </c>
-      <c r="J226">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="H226">
+        <v>80</v>
       </c>
       <c r="K226">
+        <v>346000</v>
+      </c>
+      <c r="L226">
+        <v>0.27</v>
+      </c>
+      <c r="M226">
+        <v>0.27</v>
+      </c>
+      <c r="N226">
+        <v>0.27</v>
+      </c>
+      <c r="U226">
+        <v>1</v>
+      </c>
+      <c r="V226">
         <v>55</v>
       </c>
-      <c r="U226">
-        <v>1</v>
-      </c>
-      <c r="V226">
-        <v>3</v>
-      </c>
       <c r="W226">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="X226" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
     </row>
     <row r="227" spans="1:27">
       <c r="B227" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227" t="s">
-        <v>337</v>
+        <v>30</v>
       </c>
       <c r="E227" t="s">
-        <v>306</v>
+        <v>31</v>
       </c>
       <c r="F227" t="s">
-        <v>338</v>
-      </c>
-      <c r="H227">
-        <v>200</v>
+        <v>32</v>
+      </c>
+      <c r="G227" t="s">
+        <v>31</v>
+      </c>
+      <c r="J227">
+        <v>4</v>
       </c>
       <c r="K227">
-        <v>1250000</v>
+        <v>10</v>
       </c>
       <c r="U227">
         <v>1</v>
       </c>
       <c r="V227">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="W227">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="X227" t="s">
-        <v>308</v>
+        <v>33</v>
       </c>
     </row>
     <row r="228" spans="1:27">
       <c r="A228" t="s">
-        <v>429</v>
+        <v>441</v>
+      </c>
+      <c r="B228" t="s">
+        <v>445</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -10897,182 +11344,155 @@
       </c>
     </row>
     <row r="229" spans="1:27">
-      <c r="B229" t="s">
-        <v>452</v>
+      <c r="A229" t="s">
+        <v>438</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229" t="s">
-        <v>240</v>
+        <v>342</v>
       </c>
       <c r="E229" t="s">
-        <v>28</v>
+        <v>340</v>
       </c>
       <c r="F229" t="s">
-        <v>241</v>
-      </c>
-      <c r="H229">
-        <v>380</v>
+        <v>343</v>
+      </c>
+      <c r="I229">
+        <v>10</v>
       </c>
       <c r="K229">
-        <v>750000</v>
-      </c>
-      <c r="O229">
-        <v>0.35</v>
-      </c>
-      <c r="P229">
-        <v>0.35</v>
-      </c>
-      <c r="Q229">
-        <v>0.35</v>
-      </c>
-      <c r="R229">
-        <v>0.35</v>
-      </c>
-      <c r="S229">
-        <v>0.35</v>
+        <v>58</v>
       </c>
       <c r="U229">
         <v>1</v>
       </c>
       <c r="V229">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="W229">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="X229" t="s">
-        <v>28</v>
+        <v>308</v>
       </c>
     </row>
     <row r="230" spans="1:27">
       <c r="A230" t="s">
-        <v>444</v>
+        <v>429</v>
+      </c>
+      <c r="B230" t="s">
+        <v>442</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="E230" t="s">
         <v>28</v>
       </c>
       <c r="F230" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="H230">
-        <v>280</v>
+        <v>145</v>
       </c>
       <c r="K230">
-        <v>125000</v>
+        <v>3600</v>
       </c>
       <c r="O230">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="P230">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="Q230">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="R230">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="S230">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="U230">
         <v>1</v>
       </c>
       <c r="V230">
+        <v>28</v>
+      </c>
+      <c r="W230">
         <v>50</v>
-      </c>
-      <c r="W230">
-        <v>100</v>
       </c>
       <c r="X230" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="231" spans="1:27">
+      <c r="A231" t="s">
+        <v>438</v>
+      </c>
       <c r="B231" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>102</v>
+        <v>323</v>
       </c>
       <c r="E231" t="s">
-        <v>31</v>
+        <v>306</v>
       </c>
       <c r="F231" t="s">
-        <v>103</v>
-      </c>
-      <c r="G231" t="s">
-        <v>31</v>
-      </c>
-      <c r="J231">
-        <v>40</v>
+        <v>324</v>
+      </c>
+      <c r="H231">
+        <v>85</v>
       </c>
       <c r="K231">
-        <v>750</v>
-      </c>
-      <c r="O231">
-        <v>0.18</v>
-      </c>
-      <c r="P231">
-        <v>0.18</v>
-      </c>
-      <c r="Q231">
-        <v>0.18</v>
-      </c>
-      <c r="R231">
-        <v>0.18</v>
-      </c>
-      <c r="S231">
-        <v>0.18</v>
+        <v>18000</v>
       </c>
       <c r="U231">
         <v>1</v>
       </c>
       <c r="V231">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="W231">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X231" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
     </row>
     <row r="232" spans="1:27">
       <c r="A232" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="E232" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F232" t="s">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="G232" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="J232">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="K232">
-        <v>1760</v>
+        <v>545000</v>
       </c>
       <c r="O232">
         <v>0.2</v>
@@ -11093,213 +11513,189 @@
         <v>1</v>
       </c>
       <c r="V232">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="W232">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="X232" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="233" spans="1:27">
-      <c r="B233" t="s">
-        <v>447</v>
+      <c r="A233" t="s">
+        <v>439</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233" t="s">
-        <v>98</v>
+        <v>331</v>
       </c>
       <c r="E233" t="s">
+        <v>306</v>
+      </c>
+      <c r="F233" t="s">
+        <v>332</v>
+      </c>
+      <c r="H233">
+        <v>165</v>
+      </c>
+      <c r="K233">
+        <v>130000</v>
+      </c>
+      <c r="U233">
+        <v>1</v>
+      </c>
+      <c r="V233">
         <v>50</v>
       </c>
-      <c r="F233" t="s">
-        <v>99</v>
-      </c>
-      <c r="G233" t="s">
-        <v>50</v>
-      </c>
-      <c r="J233">
-        <v>10</v>
-      </c>
-      <c r="K233">
-        <v>200</v>
-      </c>
-      <c r="O233">
-        <v>0.03</v>
-      </c>
-      <c r="P233">
-        <v>0.03</v>
-      </c>
-      <c r="Q233">
-        <v>0.03</v>
-      </c>
-      <c r="R233">
-        <v>0.03</v>
-      </c>
-      <c r="S233">
-        <v>0.03</v>
-      </c>
-      <c r="U233">
-        <v>1</v>
-      </c>
-      <c r="V233">
-        <v>10</v>
-      </c>
       <c r="W233">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="X233" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
     </row>
     <row r="234" spans="1:27">
       <c r="B234" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="E234" t="s">
-        <v>273</v>
+        <v>50</v>
       </c>
       <c r="F234" t="s">
-        <v>290</v>
-      </c>
-      <c r="H234">
-        <v>55</v>
+        <v>255</v>
+      </c>
+      <c r="G234" t="s">
+        <v>50</v>
+      </c>
+      <c r="J234">
+        <v>170</v>
       </c>
       <c r="K234">
-        <v>13400</v>
-      </c>
-      <c r="L234">
-        <v>0.16</v>
-      </c>
-      <c r="M234">
-        <v>0.16</v>
-      </c>
-      <c r="N234">
-        <v>0.16</v>
+        <v>534000</v>
+      </c>
+      <c r="O234">
+        <v>0.2</v>
+      </c>
+      <c r="P234">
+        <v>0.2</v>
+      </c>
+      <c r="Q234">
+        <v>0.2</v>
+      </c>
+      <c r="R234">
+        <v>0.2</v>
+      </c>
+      <c r="S234">
+        <v>0.2</v>
       </c>
       <c r="U234">
         <v>1</v>
       </c>
       <c r="V234">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="W234">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="X234" t="s">
-        <v>273</v>
+        <v>33</v>
       </c>
     </row>
     <row r="235" spans="1:27">
-      <c r="A235" t="s">
+      <c r="B235" t="s">
         <v>448</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E235" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F235" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J235">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K235">
-        <v>750</v>
-      </c>
-      <c r="O235">
-        <v>0.18</v>
-      </c>
-      <c r="P235">
-        <v>0.18</v>
-      </c>
-      <c r="Q235">
-        <v>0.18</v>
-      </c>
-      <c r="R235">
-        <v>0.18</v>
-      </c>
-      <c r="S235">
-        <v>0.18</v>
+        <v>140</v>
       </c>
       <c r="U235">
         <v>1</v>
       </c>
       <c r="V235">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="W235">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="X235" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="236" spans="1:27">
-      <c r="B236" t="s">
-        <v>438</v>
+      <c r="A236" t="s">
+        <v>451</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="E236" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F236" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G236" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J236">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K236">
-        <v>750</v>
+        <v>2500</v>
       </c>
       <c r="O236">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="P236">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="Q236">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="R236">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="S236">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="U236">
         <v>1</v>
       </c>
       <c r="V236">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="W236">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X236" t="s">
         <v>33</v>
@@ -11307,52 +11703,37 @@
     </row>
     <row r="237" spans="1:27">
       <c r="A237" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="E237" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F237" t="s">
-        <v>229</v>
+        <v>65</v>
       </c>
       <c r="G237" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J237">
-        <v>230</v>
+        <v>3</v>
       </c>
       <c r="K237">
-        <v>450000</v>
-      </c>
-      <c r="O237">
-        <v>0.4</v>
-      </c>
-      <c r="P237">
-        <v>0.4</v>
-      </c>
-      <c r="Q237">
-        <v>0.4</v>
-      </c>
-      <c r="R237">
-        <v>0.4</v>
-      </c>
-      <c r="S237">
-        <v>0.4</v>
+        <v>55</v>
       </c>
       <c r="U237">
         <v>1</v>
       </c>
       <c r="V237">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="W237">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="X237" t="s">
         <v>33</v>
@@ -11360,95 +11741,107 @@
     </row>
     <row r="238" spans="1:27">
       <c r="A238" t="s">
-        <v>453</v>
+        <v>433</v>
+      </c>
+      <c r="B238" t="s">
+        <v>442</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="E238" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="F238" t="s">
-        <v>119</v>
-      </c>
-      <c r="G238" t="s">
-        <v>31</v>
-      </c>
-      <c r="J238">
-        <v>60</v>
+        <v>278</v>
+      </c>
+      <c r="H238">
+        <v>10</v>
       </c>
       <c r="K238">
-        <v>1760</v>
-      </c>
-      <c r="O238">
-        <v>0.2</v>
-      </c>
-      <c r="P238">
-        <v>0.2</v>
-      </c>
-      <c r="Q238">
-        <v>0.2</v>
-      </c>
-      <c r="R238">
-        <v>0.2</v>
-      </c>
-      <c r="S238">
-        <v>0.2</v>
+        <v>180</v>
+      </c>
+      <c r="L238">
+        <v>0.02</v>
+      </c>
+      <c r="M238">
+        <v>0.02</v>
+      </c>
+      <c r="N238">
+        <v>0.02</v>
       </c>
       <c r="U238">
         <v>1</v>
       </c>
       <c r="V238">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="W238">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="X238" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
     </row>
     <row r="239" spans="1:27">
       <c r="A239" t="s">
-        <v>436</v>
+        <v>438</v>
+      </c>
+      <c r="B239" t="s">
+        <v>435</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239" t="s">
-        <v>327</v>
+        <v>52</v>
       </c>
       <c r="E239" t="s">
-        <v>306</v>
+        <v>28</v>
       </c>
       <c r="F239" t="s">
-        <v>328</v>
+        <v>53</v>
       </c>
       <c r="H239">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="K239">
-        <v>55000</v>
+        <v>50</v>
+      </c>
+      <c r="O239">
+        <v>0.05</v>
+      </c>
+      <c r="P239">
+        <v>0.05</v>
+      </c>
+      <c r="Q239">
+        <v>0.05</v>
+      </c>
+      <c r="R239">
+        <v>0.05</v>
+      </c>
+      <c r="S239">
+        <v>0.05</v>
       </c>
       <c r="U239">
         <v>1</v>
       </c>
       <c r="V239">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="W239">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="X239" t="s">
-        <v>308</v>
+        <v>28</v>
       </c>
     </row>
     <row r="240" spans="1:27">
-      <c r="A240" t="s">
-        <v>440</v>
+      <c r="B240" t="s">
+        <v>446</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -11492,184 +11885,181 @@
     </row>
     <row r="241" spans="1:27">
       <c r="A241" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F241" t="s">
-        <v>271</v>
-      </c>
-      <c r="G241" t="s">
-        <v>50</v>
-      </c>
-      <c r="J241">
-        <v>200</v>
+        <v>241</v>
+      </c>
+      <c r="H241">
+        <v>380</v>
       </c>
       <c r="K241">
-        <v>800000</v>
+        <v>750000</v>
       </c>
       <c r="O241">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="P241">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="Q241">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="R241">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="S241">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="U241">
         <v>1</v>
       </c>
       <c r="V241">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="W241">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="X241" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="242" spans="1:27">
       <c r="A242" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
       <c r="E242" t="s">
+        <v>340</v>
+      </c>
+      <c r="F242" t="s">
+        <v>355</v>
+      </c>
+      <c r="I242">
+        <v>145</v>
+      </c>
+      <c r="K242">
+        <v>5589</v>
+      </c>
+      <c r="U242">
+        <v>1</v>
+      </c>
+      <c r="V242">
+        <v>30</v>
+      </c>
+      <c r="W242">
+        <v>60</v>
+      </c>
+      <c r="X242" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
+      <c r="A243" t="s">
+        <v>437</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243" t="s">
+        <v>293</v>
+      </c>
+      <c r="E243" t="s">
         <v>273</v>
       </c>
-      <c r="F242" t="s">
-        <v>300</v>
-      </c>
-      <c r="H242">
-        <v>80</v>
-      </c>
-      <c r="K242">
-        <v>346000</v>
-      </c>
-      <c r="L242">
-        <v>0.27</v>
-      </c>
-      <c r="M242">
-        <v>0.27</v>
-      </c>
-      <c r="N242">
-        <v>0.27</v>
-      </c>
-      <c r="U242">
-        <v>1</v>
-      </c>
-      <c r="V242">
-        <v>55</v>
-      </c>
-      <c r="W242">
-        <v>110</v>
-      </c>
-      <c r="X242" t="s">
+      <c r="F243" t="s">
+        <v>294</v>
+      </c>
+      <c r="H243">
+        <v>65</v>
+      </c>
+      <c r="K243">
+        <v>55000</v>
+      </c>
+      <c r="L243">
+        <v>0.2</v>
+      </c>
+      <c r="M243">
+        <v>0.2</v>
+      </c>
+      <c r="N243">
+        <v>0.2</v>
+      </c>
+      <c r="U243">
+        <v>1</v>
+      </c>
+      <c r="V243">
+        <v>43</v>
+      </c>
+      <c r="W243">
+        <v>78</v>
+      </c>
+      <c r="X243" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="243" spans="1:27">
-      <c r="B243" t="s">
-        <v>432</v>
-      </c>
-      <c r="C243">
-        <v>1</v>
-      </c>
-      <c r="D243" t="s">
-        <v>132</v>
-      </c>
-      <c r="E243" t="s">
-        <v>28</v>
-      </c>
-      <c r="F243" t="s">
-        <v>133</v>
-      </c>
-      <c r="H243">
-        <v>145</v>
-      </c>
-      <c r="K243">
-        <v>3600</v>
-      </c>
-      <c r="O243">
-        <v>0.2</v>
-      </c>
-      <c r="P243">
-        <v>0.2</v>
-      </c>
-      <c r="Q243">
-        <v>0.2</v>
-      </c>
-      <c r="R243">
-        <v>0.2</v>
-      </c>
-      <c r="S243">
-        <v>0.2</v>
-      </c>
-      <c r="U243">
-        <v>1</v>
-      </c>
-      <c r="V243">
-        <v>28</v>
-      </c>
-      <c r="W243">
+    <row r="244" spans="1:27">
+      <c r="B244" t="s">
+        <v>453</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244" t="s">
+        <v>178</v>
+      </c>
+      <c r="E244" t="s">
         <v>50</v>
       </c>
-      <c r="X243" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="244" spans="1:27">
-      <c r="A244" t="s">
-        <v>443</v>
-      </c>
-      <c r="C244">
-        <v>1</v>
-      </c>
-      <c r="D244" t="s">
-        <v>30</v>
-      </c>
-      <c r="E244" t="s">
-        <v>31</v>
-      </c>
       <c r="F244" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="G244" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J244">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="K244">
-        <v>10</v>
+        <v>8700</v>
+      </c>
+      <c r="O244">
+        <v>0.12</v>
+      </c>
+      <c r="P244">
+        <v>0.12</v>
+      </c>
+      <c r="Q244">
+        <v>0.12</v>
+      </c>
+      <c r="R244">
+        <v>0.12</v>
+      </c>
+      <c r="S244">
+        <v>0.12</v>
       </c>
       <c r="U244">
         <v>1</v>
       </c>
       <c r="V244">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="W244">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="X244" t="s">
         <v>33</v>
@@ -11677,130 +12067,4494 @@
     </row>
     <row r="245" spans="1:27">
       <c r="B245" t="s">
+        <v>445</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245" t="s">
+        <v>301</v>
+      </c>
+      <c r="E245" t="s">
+        <v>273</v>
+      </c>
+      <c r="F245" t="s">
+        <v>302</v>
+      </c>
+      <c r="H245">
+        <v>90</v>
+      </c>
+      <c r="K245">
+        <v>750000</v>
+      </c>
+      <c r="L245">
+        <v>0.29</v>
+      </c>
+      <c r="M245">
+        <v>0.29</v>
+      </c>
+      <c r="N245">
+        <v>0.29</v>
+      </c>
+      <c r="U245">
+        <v>1</v>
+      </c>
+      <c r="V245">
+        <v>60</v>
+      </c>
+      <c r="W245">
+        <v>130</v>
+      </c>
+      <c r="X245" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="246" spans="1:27">
+      <c r="B246" t="s">
+        <v>431</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246" t="s">
+        <v>88</v>
+      </c>
+      <c r="E246" t="s">
+        <v>35</v>
+      </c>
+      <c r="F246" t="s">
+        <v>89</v>
+      </c>
+      <c r="J246">
+        <v>10</v>
+      </c>
+      <c r="K246">
+        <v>280</v>
+      </c>
+      <c r="O246">
+        <v>0.06</v>
+      </c>
+      <c r="P246">
+        <v>0.06</v>
+      </c>
+      <c r="Q246">
+        <v>0.06</v>
+      </c>
+      <c r="R246">
+        <v>0.06</v>
+      </c>
+      <c r="S246">
+        <v>0.06</v>
+      </c>
+      <c r="U246">
+        <v>1</v>
+      </c>
+      <c r="V246">
+        <v>10</v>
+      </c>
+      <c r="W246">
+        <v>20</v>
+      </c>
+      <c r="X246" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="247" spans="1:27">
+      <c r="B247" t="s">
+        <v>446</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>360</v>
+      </c>
+      <c r="E247" t="s">
+        <v>340</v>
+      </c>
+      <c r="F247" t="s">
+        <v>361</v>
+      </c>
+      <c r="I247">
+        <v>195</v>
+      </c>
+      <c r="K247">
+        <v>53600</v>
+      </c>
+      <c r="U247">
+        <v>1</v>
+      </c>
+      <c r="V247">
+        <v>47</v>
+      </c>
+      <c r="W247">
+        <v>78</v>
+      </c>
+      <c r="X247" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="248" spans="1:27">
+      <c r="D248" t="s">
+        <v>454</v>
+      </c>
+      <c r="E248" t="s">
+        <v>28</v>
+      </c>
+      <c r="F248" t="s">
+        <v>455</v>
+      </c>
+      <c r="H248">
+        <v>475</v>
+      </c>
+      <c r="K248">
+        <v>2300000</v>
+      </c>
+      <c r="O248">
+        <v>0.38</v>
+      </c>
+      <c r="P248">
+        <v>0.38</v>
+      </c>
+      <c r="Q248">
+        <v>0.38</v>
+      </c>
+      <c r="R248">
+        <v>0.38</v>
+      </c>
+      <c r="S248">
+        <v>0.38</v>
+      </c>
+      <c r="U248">
+        <v>1</v>
+      </c>
+      <c r="V248">
+        <v>75</v>
+      </c>
+      <c r="W248">
+        <v>18</v>
+      </c>
+      <c r="X248" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="249" spans="1:27">
+      <c r="D249" t="s">
+        <v>456</v>
+      </c>
+      <c r="E249" t="s">
+        <v>31</v>
+      </c>
+      <c r="F249" t="s">
+        <v>457</v>
+      </c>
+      <c r="G249" t="s">
+        <v>31</v>
+      </c>
+      <c r="J249">
+        <v>370</v>
+      </c>
+      <c r="K249">
+        <v>2300000</v>
+      </c>
+      <c r="O249">
+        <v>0.53</v>
+      </c>
+      <c r="P249">
+        <v>0.53</v>
+      </c>
+      <c r="Q249">
+        <v>0.53</v>
+      </c>
+      <c r="R249">
+        <v>0.53</v>
+      </c>
+      <c r="S249">
+        <v>0.53</v>
+      </c>
+      <c r="U249">
+        <v>1</v>
+      </c>
+      <c r="V249">
+        <v>75</v>
+      </c>
+      <c r="W249">
+        <v>180</v>
+      </c>
+      <c r="X249" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="250" spans="1:27">
+      <c r="D250" t="s">
+        <v>244</v>
+      </c>
+      <c r="E250" t="s">
+        <v>35</v>
+      </c>
+      <c r="F250" t="s">
+        <v>458</v>
+      </c>
+      <c r="J250">
+        <v>250</v>
+      </c>
+      <c r="K250">
+        <v>2300000</v>
+      </c>
+      <c r="O250">
+        <v>0.32</v>
+      </c>
+      <c r="P250">
+        <v>0.32</v>
+      </c>
+      <c r="Q250">
+        <v>0.32</v>
+      </c>
+      <c r="R250">
+        <v>0.32</v>
+      </c>
+      <c r="S250">
+        <v>0.32</v>
+      </c>
+      <c r="U250">
+        <v>1</v>
+      </c>
+      <c r="V250">
+        <v>75</v>
+      </c>
+      <c r="W250">
+        <v>180</v>
+      </c>
+      <c r="X250" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="251" spans="1:27">
+      <c r="D251" t="s">
+        <v>459</v>
+      </c>
+      <c r="E251" t="s">
+        <v>38</v>
+      </c>
+      <c r="F251" t="s">
+        <v>460</v>
+      </c>
+      <c r="G251" t="s">
+        <v>38</v>
+      </c>
+      <c r="J251">
+        <v>250</v>
+      </c>
+      <c r="K251">
+        <v>2200000</v>
+      </c>
+      <c r="O251">
+        <v>0.26</v>
+      </c>
+      <c r="P251">
+        <v>0.26</v>
+      </c>
+      <c r="Q251">
+        <v>0.26</v>
+      </c>
+      <c r="R251">
+        <v>0.26</v>
+      </c>
+      <c r="S251">
+        <v>0.26</v>
+      </c>
+      <c r="U251">
+        <v>1</v>
+      </c>
+      <c r="V251">
+        <v>75</v>
+      </c>
+      <c r="W251">
+        <v>180</v>
+      </c>
+      <c r="X251" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="252" spans="1:27">
+      <c r="D252" t="s">
+        <v>461</v>
+      </c>
+      <c r="E252" t="s">
+        <v>41</v>
+      </c>
+      <c r="F252" t="s">
+        <v>462</v>
+      </c>
+      <c r="J252">
+        <v>250</v>
+      </c>
+      <c r="K252">
+        <v>1200000</v>
+      </c>
+      <c r="O252">
+        <v>0.26</v>
+      </c>
+      <c r="P252">
+        <v>0.26</v>
+      </c>
+      <c r="Q252">
+        <v>0.26</v>
+      </c>
+      <c r="R252">
+        <v>0.26</v>
+      </c>
+      <c r="S252">
+        <v>0.26</v>
+      </c>
+      <c r="U252">
+        <v>1</v>
+      </c>
+      <c r="V252">
+        <v>75</v>
+      </c>
+      <c r="W252">
+        <v>180</v>
+      </c>
+      <c r="X252" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="253" spans="1:27">
+      <c r="D253" t="s">
+        <v>463</v>
+      </c>
+      <c r="E253" t="s">
+        <v>44</v>
+      </c>
+      <c r="F253" t="s">
+        <v>464</v>
+      </c>
+      <c r="J253">
+        <v>250</v>
+      </c>
+      <c r="K253">
+        <v>1300000</v>
+      </c>
+      <c r="O253">
+        <v>0.26</v>
+      </c>
+      <c r="P253">
+        <v>0.26</v>
+      </c>
+      <c r="Q253">
+        <v>0.26</v>
+      </c>
+      <c r="R253">
+        <v>0.26</v>
+      </c>
+      <c r="S253">
+        <v>0.26</v>
+      </c>
+      <c r="U253">
+        <v>1</v>
+      </c>
+      <c r="V253">
+        <v>75</v>
+      </c>
+      <c r="W253">
+        <v>180</v>
+      </c>
+      <c r="X253" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="254" spans="1:27">
+      <c r="D254" t="s">
+        <v>465</v>
+      </c>
+      <c r="E254" t="s">
+        <v>47</v>
+      </c>
+      <c r="F254" t="s">
+        <v>466</v>
+      </c>
+      <c r="G254" t="s">
+        <v>47</v>
+      </c>
+      <c r="J254">
+        <v>250</v>
+      </c>
+      <c r="K254">
+        <v>1100000</v>
+      </c>
+      <c r="O254">
+        <v>0.26</v>
+      </c>
+      <c r="P254">
+        <v>0.26</v>
+      </c>
+      <c r="Q254">
+        <v>0.26</v>
+      </c>
+      <c r="R254">
+        <v>0.26</v>
+      </c>
+      <c r="S254">
+        <v>0.26</v>
+      </c>
+      <c r="U254">
+        <v>1</v>
+      </c>
+      <c r="V254">
+        <v>75</v>
+      </c>
+      <c r="W254">
+        <v>180</v>
+      </c>
+      <c r="X254" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="255" spans="1:27">
+      <c r="D255" t="s">
+        <v>467</v>
+      </c>
+      <c r="E255" t="s">
+        <v>273</v>
+      </c>
+      <c r="F255" t="s">
+        <v>468</v>
+      </c>
+      <c r="H255">
+        <v>110</v>
+      </c>
+      <c r="K255">
+        <v>2500000</v>
+      </c>
+      <c r="L255">
+        <v>0.35</v>
+      </c>
+      <c r="M255">
+        <v>0.35</v>
+      </c>
+      <c r="N255">
+        <v>0.35</v>
+      </c>
+      <c r="U255">
+        <v>1</v>
+      </c>
+      <c r="V255">
+        <v>75</v>
+      </c>
+      <c r="W255">
+        <v>180</v>
+      </c>
+      <c r="X255" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="256" spans="1:27">
+      <c r="D256" t="s">
+        <v>469</v>
+      </c>
+      <c r="E256" t="s">
+        <v>340</v>
+      </c>
+      <c r="F256" t="s">
+        <v>470</v>
+      </c>
+      <c r="I256">
+        <v>310</v>
+      </c>
+      <c r="K256">
+        <v>2500000</v>
+      </c>
+      <c r="U256">
+        <v>1</v>
+      </c>
+      <c r="V256">
+        <v>75</v>
+      </c>
+      <c r="W256">
+        <v>180</v>
+      </c>
+      <c r="X256" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27">
+      <c r="D257" t="s">
+        <v>471</v>
+      </c>
+      <c r="E257" t="s">
+        <v>306</v>
+      </c>
+      <c r="F257" t="s">
+        <v>472</v>
+      </c>
+      <c r="H257">
+        <v>220</v>
+      </c>
+      <c r="K257">
+        <v>2500000</v>
+      </c>
+      <c r="U257">
+        <v>1</v>
+      </c>
+      <c r="V257">
+        <v>75</v>
+      </c>
+      <c r="W257">
+        <v>180</v>
+      </c>
+      <c r="X257" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="258" spans="1:27">
+      <c r="D258" t="s">
+        <v>473</v>
+      </c>
+      <c r="E258" t="s">
+        <v>28</v>
+      </c>
+      <c r="F258" t="s">
+        <v>474</v>
+      </c>
+      <c r="H258">
+        <v>490</v>
+      </c>
+      <c r="K258">
+        <v>5555000</v>
+      </c>
+      <c r="O258">
+        <v>0.38</v>
+      </c>
+      <c r="P258">
+        <v>0.38</v>
+      </c>
+      <c r="Q258">
+        <v>0.38</v>
+      </c>
+      <c r="R258">
+        <v>0.38</v>
+      </c>
+      <c r="S258">
+        <v>0.38</v>
+      </c>
+      <c r="U258">
+        <v>1</v>
+      </c>
+      <c r="V258">
+        <v>80</v>
+      </c>
+      <c r="W258">
+        <v>190</v>
+      </c>
+      <c r="X258" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27">
+      <c r="D259" t="s">
+        <v>475</v>
+      </c>
+      <c r="E259" t="s">
+        <v>31</v>
+      </c>
+      <c r="F259" t="s">
+        <v>476</v>
+      </c>
+      <c r="G259" t="s">
+        <v>31</v>
+      </c>
+      <c r="J259">
+        <v>380</v>
+      </c>
+      <c r="K259">
+        <v>5600000</v>
+      </c>
+      <c r="O259">
+        <v>0.55</v>
+      </c>
+      <c r="P259">
+        <v>0.55</v>
+      </c>
+      <c r="Q259">
+        <v>0.55</v>
+      </c>
+      <c r="R259">
+        <v>0.55</v>
+      </c>
+      <c r="S259">
+        <v>0.55</v>
+      </c>
+      <c r="U259">
+        <v>1</v>
+      </c>
+      <c r="V259">
+        <v>80</v>
+      </c>
+      <c r="W259">
+        <v>190</v>
+      </c>
+      <c r="X259" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="260" spans="1:27">
+      <c r="D260" t="s">
+        <v>477</v>
+      </c>
+      <c r="E260" t="s">
+        <v>35</v>
+      </c>
+      <c r="F260" t="s">
+        <v>478</v>
+      </c>
+      <c r="J260">
+        <v>270</v>
+      </c>
+      <c r="K260">
+        <v>5300000</v>
+      </c>
+      <c r="O260">
+        <v>0.35</v>
+      </c>
+      <c r="P260">
+        <v>0.35</v>
+      </c>
+      <c r="Q260">
+        <v>0.35</v>
+      </c>
+      <c r="R260">
+        <v>0.35</v>
+      </c>
+      <c r="S260">
+        <v>0.35</v>
+      </c>
+      <c r="U260">
+        <v>1</v>
+      </c>
+      <c r="V260">
+        <v>80</v>
+      </c>
+      <c r="W260">
+        <v>190</v>
+      </c>
+      <c r="X260" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="261" spans="1:27">
+      <c r="D261" t="s">
+        <v>479</v>
+      </c>
+      <c r="E261" t="s">
+        <v>38</v>
+      </c>
+      <c r="F261" t="s">
+        <v>480</v>
+      </c>
+      <c r="G261" t="s">
+        <v>38</v>
+      </c>
+      <c r="J261">
+        <v>270</v>
+      </c>
+      <c r="K261">
+        <v>5200000</v>
+      </c>
+      <c r="O261">
+        <v>0.3</v>
+      </c>
+      <c r="P261">
+        <v>0.3</v>
+      </c>
+      <c r="Q261">
+        <v>0.3</v>
+      </c>
+      <c r="R261">
+        <v>0.3</v>
+      </c>
+      <c r="S261">
+        <v>0.3</v>
+      </c>
+      <c r="U261">
+        <v>1</v>
+      </c>
+      <c r="V261">
+        <v>80</v>
+      </c>
+      <c r="W261">
+        <v>190</v>
+      </c>
+      <c r="X261" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="262" spans="1:27">
+      <c r="D262" t="s">
+        <v>481</v>
+      </c>
+      <c r="E262" t="s">
+        <v>41</v>
+      </c>
+      <c r="F262" t="s">
+        <v>482</v>
+      </c>
+      <c r="G262" t="s">
+        <v>41</v>
+      </c>
+      <c r="J262">
+        <v>270</v>
+      </c>
+      <c r="K262">
+        <v>3500000</v>
+      </c>
+      <c r="O262">
+        <v>0.3</v>
+      </c>
+      <c r="P262">
+        <v>0.3</v>
+      </c>
+      <c r="Q262">
+        <v>0.3</v>
+      </c>
+      <c r="R262">
+        <v>0.3</v>
+      </c>
+      <c r="S262">
+        <v>0.3</v>
+      </c>
+      <c r="U262">
+        <v>1</v>
+      </c>
+      <c r="V262">
+        <v>80</v>
+      </c>
+      <c r="W262">
+        <v>190</v>
+      </c>
+      <c r="X262" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="263" spans="1:27">
+      <c r="D263" t="s">
+        <v>483</v>
+      </c>
+      <c r="E263" t="s">
+        <v>44</v>
+      </c>
+      <c r="F263" t="s">
+        <v>484</v>
+      </c>
+      <c r="G263" t="s">
+        <v>44</v>
+      </c>
+      <c r="J263">
+        <v>270</v>
+      </c>
+      <c r="K263">
+        <v>2350000</v>
+      </c>
+      <c r="O263">
+        <v>0.3</v>
+      </c>
+      <c r="P263">
+        <v>0.3</v>
+      </c>
+      <c r="Q263">
+        <v>0.3</v>
+      </c>
+      <c r="R263">
+        <v>0.3</v>
+      </c>
+      <c r="S263">
+        <v>0.3</v>
+      </c>
+      <c r="U263">
+        <v>1</v>
+      </c>
+      <c r="V263">
+        <v>80</v>
+      </c>
+      <c r="W263">
+        <v>190</v>
+      </c>
+      <c r="X263" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="264" spans="1:27">
+      <c r="D264" t="s">
+        <v>485</v>
+      </c>
+      <c r="E264" t="s">
+        <v>47</v>
+      </c>
+      <c r="F264" t="s">
+        <v>486</v>
+      </c>
+      <c r="G264" t="s">
+        <v>47</v>
+      </c>
+      <c r="J264">
+        <v>270</v>
+      </c>
+      <c r="K264">
+        <v>1900000</v>
+      </c>
+      <c r="O264">
+        <v>0.3</v>
+      </c>
+      <c r="P264">
+        <v>0.3</v>
+      </c>
+      <c r="Q264">
+        <v>0.3</v>
+      </c>
+      <c r="R264">
+        <v>0.3</v>
+      </c>
+      <c r="S264">
+        <v>0.3</v>
+      </c>
+      <c r="U264">
+        <v>1</v>
+      </c>
+      <c r="V264">
+        <v>80</v>
+      </c>
+      <c r="W264">
+        <v>190</v>
+      </c>
+      <c r="X264" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="265" spans="1:27">
+      <c r="D265" t="s">
+        <v>487</v>
+      </c>
+      <c r="E265" t="s">
+        <v>50</v>
+      </c>
+      <c r="F265" t="s">
+        <v>488</v>
+      </c>
+      <c r="G265" t="s">
+        <v>50</v>
+      </c>
+      <c r="J265">
+        <v>270</v>
+      </c>
+      <c r="K265">
+        <v>1900000</v>
+      </c>
+      <c r="O265">
+        <v>0.3</v>
+      </c>
+      <c r="P265">
+        <v>0.3</v>
+      </c>
+      <c r="Q265">
+        <v>0.3</v>
+      </c>
+      <c r="R265">
+        <v>0.3</v>
+      </c>
+      <c r="S265">
+        <v>0.3</v>
+      </c>
+      <c r="U265">
+        <v>1</v>
+      </c>
+      <c r="V265">
+        <v>80</v>
+      </c>
+      <c r="W265">
+        <v>190</v>
+      </c>
+      <c r="X265" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="266" spans="1:27">
+      <c r="D266" t="s">
+        <v>489</v>
+      </c>
+      <c r="E266" t="s">
+        <v>273</v>
+      </c>
+      <c r="F266" t="s">
+        <v>490</v>
+      </c>
+      <c r="H266">
+        <v>120</v>
+      </c>
+      <c r="K266">
+        <v>5460000</v>
+      </c>
+      <c r="L266">
+        <v>0.38</v>
+      </c>
+      <c r="M266">
+        <v>0.38</v>
+      </c>
+      <c r="N266">
+        <v>0.38</v>
+      </c>
+      <c r="U266">
+        <v>1</v>
+      </c>
+      <c r="V266">
+        <v>80</v>
+      </c>
+      <c r="W266">
+        <v>190</v>
+      </c>
+      <c r="X266" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="267" spans="1:27">
+      <c r="D267" t="s">
+        <v>491</v>
+      </c>
+      <c r="E267" t="s">
+        <v>340</v>
+      </c>
+      <c r="F267" t="s">
+        <v>492</v>
+      </c>
+      <c r="I267">
+        <v>340</v>
+      </c>
+      <c r="K267">
+        <v>5460000</v>
+      </c>
+      <c r="U267">
+        <v>1</v>
+      </c>
+      <c r="V267">
+        <v>80</v>
+      </c>
+      <c r="W267">
+        <v>190</v>
+      </c>
+      <c r="X267" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="268" spans="1:27">
+      <c r="D268" t="s">
+        <v>493</v>
+      </c>
+      <c r="E268" t="s">
+        <v>306</v>
+      </c>
+      <c r="F268" t="s">
+        <v>494</v>
+      </c>
+      <c r="H268">
+        <v>240</v>
+      </c>
+      <c r="K268">
+        <v>5340000</v>
+      </c>
+      <c r="U268">
+        <v>1</v>
+      </c>
+      <c r="V268">
+        <v>80</v>
+      </c>
+      <c r="W268">
+        <v>190</v>
+      </c>
+      <c r="X268" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="269" spans="1:27">
+      <c r="D269" t="s">
+        <v>495</v>
+      </c>
+      <c r="E269" t="s">
+        <v>28</v>
+      </c>
+      <c r="F269" t="s">
+        <v>496</v>
+      </c>
+      <c r="H269">
+        <v>520</v>
+      </c>
+      <c r="K269">
+        <v>10234000</v>
+      </c>
+      <c r="O269">
+        <v>0.42</v>
+      </c>
+      <c r="P269">
+        <v>0.42</v>
+      </c>
+      <c r="Q269">
+        <v>0.42</v>
+      </c>
+      <c r="R269">
+        <v>0.42</v>
+      </c>
+      <c r="S269">
+        <v>0.42</v>
+      </c>
+      <c r="U269">
+        <v>1</v>
+      </c>
+      <c r="V269">
+        <v>85</v>
+      </c>
+      <c r="W269">
+        <v>190</v>
+      </c>
+      <c r="X269" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="270" spans="1:27">
+      <c r="D270" t="s">
+        <v>497</v>
+      </c>
+      <c r="E270" t="s">
+        <v>31</v>
+      </c>
+      <c r="F270" t="s">
+        <v>498</v>
+      </c>
+      <c r="G270" t="s">
+        <v>31</v>
+      </c>
+      <c r="J270">
+        <v>400</v>
+      </c>
+      <c r="K270">
+        <v>9876000</v>
+      </c>
+      <c r="O270">
+        <v>0.6</v>
+      </c>
+      <c r="P270">
+        <v>0.6</v>
+      </c>
+      <c r="Q270">
+        <v>0.6</v>
+      </c>
+      <c r="R270">
+        <v>0.6</v>
+      </c>
+      <c r="S270">
+        <v>0.6</v>
+      </c>
+      <c r="U270">
+        <v>1</v>
+      </c>
+      <c r="V270">
+        <v>85</v>
+      </c>
+      <c r="W270">
+        <v>190</v>
+      </c>
+      <c r="X270" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="271" spans="1:27">
+      <c r="D271" t="s">
+        <v>499</v>
+      </c>
+      <c r="E271" t="s">
+        <v>35</v>
+      </c>
+      <c r="F271" t="s">
+        <v>500</v>
+      </c>
+      <c r="J271">
+        <v>300</v>
+      </c>
+      <c r="K271">
+        <v>9987000</v>
+      </c>
+      <c r="O271">
+        <v>0.38</v>
+      </c>
+      <c r="P271">
+        <v>0.38</v>
+      </c>
+      <c r="Q271">
+        <v>0.38</v>
+      </c>
+      <c r="R271">
+        <v>0.38</v>
+      </c>
+      <c r="S271">
+        <v>0.38</v>
+      </c>
+      <c r="U271">
+        <v>1</v>
+      </c>
+      <c r="V271">
+        <v>85</v>
+      </c>
+      <c r="W271">
+        <v>190</v>
+      </c>
+      <c r="X271" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="272" spans="1:27">
+      <c r="D272" t="s">
+        <v>501</v>
+      </c>
+      <c r="E272" t="s">
+        <v>38</v>
+      </c>
+      <c r="F272" t="s">
+        <v>502</v>
+      </c>
+      <c r="G272" t="s">
+        <v>38</v>
+      </c>
+      <c r="J272">
+        <v>300</v>
+      </c>
+      <c r="K272">
+        <v>9578000</v>
+      </c>
+      <c r="O272">
+        <v>0.35</v>
+      </c>
+      <c r="P272">
+        <v>0.35</v>
+      </c>
+      <c r="Q272">
+        <v>0.35</v>
+      </c>
+      <c r="R272">
+        <v>0.35</v>
+      </c>
+      <c r="S272">
+        <v>0.35</v>
+      </c>
+      <c r="U272">
+        <v>1</v>
+      </c>
+      <c r="V272">
+        <v>85</v>
+      </c>
+      <c r="W272">
+        <v>190</v>
+      </c>
+      <c r="X272" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="273" spans="1:27">
+      <c r="D273" t="s">
+        <v>503</v>
+      </c>
+      <c r="E273" t="s">
+        <v>41</v>
+      </c>
+      <c r="F273" t="s">
+        <v>504</v>
+      </c>
+      <c r="G273" t="s">
+        <v>41</v>
+      </c>
+      <c r="J273">
+        <v>300</v>
+      </c>
+      <c r="K273">
+        <v>5467000</v>
+      </c>
+      <c r="O273">
+        <v>0.35</v>
+      </c>
+      <c r="P273">
+        <v>0.35</v>
+      </c>
+      <c r="Q273">
+        <v>0.35</v>
+      </c>
+      <c r="R273">
+        <v>0.35</v>
+      </c>
+      <c r="S273">
+        <v>0.35</v>
+      </c>
+      <c r="U273">
+        <v>1</v>
+      </c>
+      <c r="V273">
+        <v>85</v>
+      </c>
+      <c r="W273">
+        <v>190</v>
+      </c>
+      <c r="X273" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="274" spans="1:27">
+      <c r="D274" t="s">
+        <v>505</v>
+      </c>
+      <c r="E274" t="s">
+        <v>44</v>
+      </c>
+      <c r="F274" t="s">
+        <v>506</v>
+      </c>
+      <c r="G274" t="s">
+        <v>44</v>
+      </c>
+      <c r="J274">
+        <v>300</v>
+      </c>
+      <c r="K274">
+        <v>3520000</v>
+      </c>
+      <c r="O274">
+        <v>0.35</v>
+      </c>
+      <c r="P274">
+        <v>0.35</v>
+      </c>
+      <c r="Q274">
+        <v>0.35</v>
+      </c>
+      <c r="R274">
+        <v>0.35</v>
+      </c>
+      <c r="S274">
+        <v>0.35</v>
+      </c>
+      <c r="U274">
+        <v>1</v>
+      </c>
+      <c r="V274">
+        <v>85</v>
+      </c>
+      <c r="W274">
+        <v>190</v>
+      </c>
+      <c r="X274" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="275" spans="1:27">
+      <c r="D275" t="s">
+        <v>507</v>
+      </c>
+      <c r="E275" t="s">
+        <v>47</v>
+      </c>
+      <c r="F275" t="s">
+        <v>508</v>
+      </c>
+      <c r="J275">
+        <v>300</v>
+      </c>
+      <c r="K275">
+        <v>2987000</v>
+      </c>
+      <c r="O275">
+        <v>0.35</v>
+      </c>
+      <c r="P275">
+        <v>0.35</v>
+      </c>
+      <c r="Q275">
+        <v>0.35</v>
+      </c>
+      <c r="R275">
+        <v>0.35</v>
+      </c>
+      <c r="S275">
+        <v>0.35</v>
+      </c>
+      <c r="U275">
+        <v>1</v>
+      </c>
+      <c r="V275">
+        <v>85</v>
+      </c>
+      <c r="W275">
+        <v>190</v>
+      </c>
+      <c r="X275" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="276" spans="1:27">
+      <c r="D276" t="s">
+        <v>509</v>
+      </c>
+      <c r="E276" t="s">
+        <v>50</v>
+      </c>
+      <c r="F276" t="s">
+        <v>510</v>
+      </c>
+      <c r="J276">
+        <v>300</v>
+      </c>
+      <c r="K276">
+        <v>2560000</v>
+      </c>
+      <c r="O276">
+        <v>0.35</v>
+      </c>
+      <c r="P276">
+        <v>0.35</v>
+      </c>
+      <c r="Q276">
+        <v>0.35</v>
+      </c>
+      <c r="R276">
+        <v>0.35</v>
+      </c>
+      <c r="S276">
+        <v>0.35</v>
+      </c>
+      <c r="U276">
+        <v>1</v>
+      </c>
+      <c r="V276">
+        <v>85</v>
+      </c>
+      <c r="W276">
+        <v>190</v>
+      </c>
+      <c r="X276" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="277" spans="1:27">
+      <c r="D277" t="s">
+        <v>511</v>
+      </c>
+      <c r="E277" t="s">
+        <v>273</v>
+      </c>
+      <c r="F277" t="s">
+        <v>512</v>
+      </c>
+      <c r="H277">
+        <v>140</v>
+      </c>
+      <c r="K277">
+        <v>9875000</v>
+      </c>
+      <c r="L277">
+        <v>0.4</v>
+      </c>
+      <c r="M277">
+        <v>0.4</v>
+      </c>
+      <c r="N277">
+        <v>0.4</v>
+      </c>
+      <c r="U277">
+        <v>1</v>
+      </c>
+      <c r="V277">
+        <v>85</v>
+      </c>
+      <c r="W277">
+        <v>190</v>
+      </c>
+      <c r="X277" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="278" spans="1:27">
+      <c r="D278" t="s">
+        <v>513</v>
+      </c>
+      <c r="E278" t="s">
+        <v>340</v>
+      </c>
+      <c r="F278" t="s">
+        <v>514</v>
+      </c>
+      <c r="I278">
+        <v>360</v>
+      </c>
+      <c r="K278">
+        <v>10245000</v>
+      </c>
+      <c r="U278">
+        <v>1</v>
+      </c>
+      <c r="V278">
+        <v>85</v>
+      </c>
+      <c r="W278">
+        <v>190</v>
+      </c>
+      <c r="X278" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="279" spans="1:27">
+      <c r="D279" t="s">
+        <v>515</v>
+      </c>
+      <c r="E279" t="s">
+        <v>306</v>
+      </c>
+      <c r="F279" t="s">
+        <v>516</v>
+      </c>
+      <c r="H279">
+        <v>260</v>
+      </c>
+      <c r="K279">
+        <v>10567000</v>
+      </c>
+      <c r="U279">
+        <v>1</v>
+      </c>
+      <c r="V279">
+        <v>85</v>
+      </c>
+      <c r="W279">
+        <v>190</v>
+      </c>
+      <c r="X279" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="280" spans="1:27">
+      <c r="D280" t="s">
+        <v>517</v>
+      </c>
+      <c r="E280" t="s">
+        <v>373</v>
+      </c>
+      <c r="F280" t="s">
+        <v>518</v>
+      </c>
+      <c r="K280">
+        <v>5500</v>
+      </c>
+      <c r="O280">
+        <v>0.2</v>
+      </c>
+      <c r="P280">
+        <v>0.2</v>
+      </c>
+      <c r="Q280">
+        <v>0.2</v>
+      </c>
+      <c r="R280">
+        <v>0.2</v>
+      </c>
+      <c r="S280">
+        <v>0.2</v>
+      </c>
+      <c r="U280">
+        <v>1</v>
+      </c>
+      <c r="V280">
+        <v>14</v>
+      </c>
+      <c r="W280">
+        <v>20</v>
+      </c>
+      <c r="X280" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="281" spans="1:27">
+      <c r="D281" t="s">
+        <v>519</v>
+      </c>
+      <c r="E281" t="s">
+        <v>373</v>
+      </c>
+      <c r="F281" t="s">
+        <v>520</v>
+      </c>
+      <c r="K281">
+        <v>10000</v>
+      </c>
+      <c r="O281">
+        <v>0.25</v>
+      </c>
+      <c r="U281">
+        <v>1</v>
+      </c>
+      <c r="V281">
+        <v>17</v>
+      </c>
+      <c r="W281">
+        <v>25</v>
+      </c>
+      <c r="X281" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="282" spans="1:27">
+      <c r="D282" t="s">
+        <v>521</v>
+      </c>
+      <c r="E282" t="s">
+        <v>373</v>
+      </c>
+      <c r="F282" t="s">
+        <v>522</v>
+      </c>
+      <c r="K282">
+        <v>10000</v>
+      </c>
+      <c r="Q282">
+        <v>0.25</v>
+      </c>
+      <c r="U282">
+        <v>1</v>
+      </c>
+      <c r="V282">
+        <v>17</v>
+      </c>
+      <c r="W282">
+        <v>25</v>
+      </c>
+      <c r="X282" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="283" spans="1:27">
+      <c r="D283" t="s">
+        <v>523</v>
+      </c>
+      <c r="E283" t="s">
+        <v>373</v>
+      </c>
+      <c r="F283" t="s">
+        <v>524</v>
+      </c>
+      <c r="K283">
+        <v>10000</v>
+      </c>
+      <c r="P283">
+        <v>0.25</v>
+      </c>
+      <c r="U283">
+        <v>1</v>
+      </c>
+      <c r="V283">
+        <v>17</v>
+      </c>
+      <c r="W283">
+        <v>25</v>
+      </c>
+      <c r="X283" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="284" spans="1:27">
+      <c r="D284" t="s">
+        <v>525</v>
+      </c>
+      <c r="E284" t="s">
+        <v>373</v>
+      </c>
+      <c r="F284" t="s">
+        <v>526</v>
+      </c>
+      <c r="K284">
+        <v>10000</v>
+      </c>
+      <c r="S284">
+        <v>0.25</v>
+      </c>
+      <c r="U284">
+        <v>1</v>
+      </c>
+      <c r="V284">
+        <v>17</v>
+      </c>
+      <c r="W284">
+        <v>25</v>
+      </c>
+      <c r="X284" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="285" spans="1:27">
+      <c r="D285" t="s">
+        <v>527</v>
+      </c>
+      <c r="E285" t="s">
+        <v>373</v>
+      </c>
+      <c r="F285" t="s">
+        <v>528</v>
+      </c>
+      <c r="K285">
+        <v>10000</v>
+      </c>
+      <c r="R285">
+        <v>0.25</v>
+      </c>
+      <c r="U285">
+        <v>1</v>
+      </c>
+      <c r="V285">
+        <v>17</v>
+      </c>
+      <c r="W285">
+        <v>25</v>
+      </c>
+      <c r="X285" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="286" spans="1:27">
+      <c r="D286" t="s">
+        <v>529</v>
+      </c>
+      <c r="E286" t="s">
+        <v>373</v>
+      </c>
+      <c r="F286" t="s">
+        <v>530</v>
+      </c>
+      <c r="K286">
+        <v>15000</v>
+      </c>
+      <c r="U286">
+        <v>1</v>
+      </c>
+      <c r="V286">
+        <v>23</v>
+      </c>
+      <c r="W286">
+        <v>30</v>
+      </c>
+      <c r="X286" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y286" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z286">
+        <v>0.12</v>
+      </c>
+      <c r="AA286">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:27">
+      <c r="D287" t="s">
+        <v>531</v>
+      </c>
+      <c r="E287" t="s">
+        <v>373</v>
+      </c>
+      <c r="F287" t="s">
+        <v>532</v>
+      </c>
+      <c r="K287">
+        <v>15000</v>
+      </c>
+      <c r="Y287" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z287">
+        <v>0.12</v>
+      </c>
+      <c r="AA287">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:27">
+      <c r="D288" t="s">
+        <v>533</v>
+      </c>
+      <c r="E288" t="s">
+        <v>373</v>
+      </c>
+      <c r="F288" t="s">
+        <v>534</v>
+      </c>
+      <c r="K288">
+        <v>15000</v>
+      </c>
+      <c r="U288">
+        <v>1</v>
+      </c>
+      <c r="V288">
+        <v>23</v>
+      </c>
+      <c r="W288">
+        <v>30</v>
+      </c>
+      <c r="X288" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y288" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z288">
+        <v>0.12</v>
+      </c>
+      <c r="AA288">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:27">
+      <c r="D289" t="s">
+        <v>535</v>
+      </c>
+      <c r="E289" t="s">
+        <v>373</v>
+      </c>
+      <c r="F289" t="s">
+        <v>536</v>
+      </c>
+      <c r="K289">
+        <v>30000</v>
+      </c>
+      <c r="U289">
+        <v>1</v>
+      </c>
+      <c r="V289">
+        <v>26</v>
+      </c>
+      <c r="W289">
+        <v>40</v>
+      </c>
+      <c r="X289" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y289" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z289">
+        <v>0.12</v>
+      </c>
+      <c r="AA289">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:27">
+      <c r="D290" t="s">
+        <v>537</v>
+      </c>
+      <c r="E290" t="s">
+        <v>373</v>
+      </c>
+      <c r="F290" t="s">
+        <v>538</v>
+      </c>
+      <c r="K290">
+        <v>30000</v>
+      </c>
+      <c r="U290">
+        <v>1</v>
+      </c>
+      <c r="V290">
+        <v>26</v>
+      </c>
+      <c r="W290">
+        <v>40</v>
+      </c>
+      <c r="X290" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y290" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z290">
+        <v>0.12</v>
+      </c>
+      <c r="AA290">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:27">
+      <c r="D291" t="s">
+        <v>539</v>
+      </c>
+      <c r="E291" t="s">
+        <v>373</v>
+      </c>
+      <c r="F291" t="s">
+        <v>540</v>
+      </c>
+      <c r="K291">
+        <v>30000</v>
+      </c>
+      <c r="U291">
+        <v>1</v>
+      </c>
+      <c r="V291">
+        <v>26</v>
+      </c>
+      <c r="W291">
+        <v>60</v>
+      </c>
+      <c r="X291" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y291" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z291">
+        <v>0.12</v>
+      </c>
+      <c r="AA291">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:27">
+      <c r="D292" t="s">
+        <v>541</v>
+      </c>
+      <c r="E292" t="s">
+        <v>373</v>
+      </c>
+      <c r="F292" t="s">
+        <v>542</v>
+      </c>
+      <c r="K292">
+        <v>30000</v>
+      </c>
+      <c r="U292">
+        <v>1</v>
+      </c>
+      <c r="V292">
+        <v>26</v>
+      </c>
+      <c r="W292">
+        <v>40</v>
+      </c>
+      <c r="X292" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y292" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z292">
+        <v>0.12</v>
+      </c>
+      <c r="AA292">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:27">
+      <c r="D293" t="s">
+        <v>543</v>
+      </c>
+      <c r="E293" t="s">
+        <v>373</v>
+      </c>
+      <c r="F293" t="s">
+        <v>544</v>
+      </c>
+      <c r="K293">
+        <v>30000</v>
+      </c>
+      <c r="U293">
+        <v>1</v>
+      </c>
+      <c r="V293">
+        <v>26</v>
+      </c>
+      <c r="W293">
+        <v>40</v>
+      </c>
+      <c r="X293" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y293" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z293">
+        <v>0.12</v>
+      </c>
+      <c r="AA293">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:27">
+      <c r="D294" t="s">
+        <v>545</v>
+      </c>
+      <c r="E294" t="s">
+        <v>373</v>
+      </c>
+      <c r="F294" t="s">
+        <v>546</v>
+      </c>
+      <c r="K294">
+        <v>30000</v>
+      </c>
+      <c r="U294">
+        <v>1</v>
+      </c>
+      <c r="V294">
+        <v>26</v>
+      </c>
+      <c r="W294">
+        <v>40</v>
+      </c>
+      <c r="X294" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y294" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z294">
+        <v>0.12</v>
+      </c>
+      <c r="AA294">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:27">
+      <c r="D295" t="s">
+        <v>547</v>
+      </c>
+      <c r="E295" t="s">
+        <v>28</v>
+      </c>
+      <c r="F295" t="s">
+        <v>548</v>
+      </c>
+      <c r="H295">
+        <v>540</v>
+      </c>
+      <c r="K295">
+        <v>19689000</v>
+      </c>
+      <c r="O295">
+        <v>0.45</v>
+      </c>
+      <c r="P295">
+        <v>0.45</v>
+      </c>
+      <c r="Q295">
+        <v>0.45</v>
+      </c>
+      <c r="R295">
+        <v>0.45</v>
+      </c>
+      <c r="S295">
+        <v>0.45</v>
+      </c>
+      <c r="U295">
+        <v>1</v>
+      </c>
+      <c r="V295">
+        <v>90</v>
+      </c>
+      <c r="W295">
+        <v>200</v>
+      </c>
+      <c r="X295" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="296" spans="1:27">
+      <c r="D296" t="s">
+        <v>549</v>
+      </c>
+      <c r="E296" t="s">
+        <v>31</v>
+      </c>
+      <c r="F296" t="s">
+        <v>550</v>
+      </c>
+      <c r="G296" t="s">
+        <v>31</v>
+      </c>
+      <c r="J296">
+        <v>325</v>
+      </c>
+      <c r="K296">
+        <v>20000000</v>
+      </c>
+      <c r="O296">
+        <v>0.63</v>
+      </c>
+      <c r="P296">
+        <v>0.63</v>
+      </c>
+      <c r="Q296">
+        <v>0.63</v>
+      </c>
+      <c r="R296">
+        <v>0.63</v>
+      </c>
+      <c r="S296">
+        <v>0.63</v>
+      </c>
+      <c r="U296">
+        <v>1</v>
+      </c>
+      <c r="V296">
+        <v>90</v>
+      </c>
+      <c r="W296">
+        <v>200</v>
+      </c>
+      <c r="X296" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="297" spans="1:27">
+      <c r="D297" t="s">
+        <v>551</v>
+      </c>
+      <c r="E297" t="s">
+        <v>35</v>
+      </c>
+      <c r="F297" t="s">
+        <v>552</v>
+      </c>
+      <c r="J297">
+        <v>325</v>
+      </c>
+      <c r="K297">
+        <v>18765000</v>
+      </c>
+      <c r="O297">
+        <v>0.4</v>
+      </c>
+      <c r="P297">
+        <v>0.4</v>
+      </c>
+      <c r="Q297">
+        <v>0.4</v>
+      </c>
+      <c r="R297">
+        <v>0.4</v>
+      </c>
+      <c r="S297">
+        <v>0.4</v>
+      </c>
+      <c r="U297">
+        <v>1</v>
+      </c>
+      <c r="V297">
+        <v>90</v>
+      </c>
+      <c r="W297">
+        <v>200</v>
+      </c>
+      <c r="X297" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="298" spans="1:27">
+      <c r="D298" t="s">
+        <v>553</v>
+      </c>
+      <c r="E298" t="s">
+        <v>38</v>
+      </c>
+      <c r="F298" t="s">
+        <v>554</v>
+      </c>
+      <c r="G298" t="s">
+        <v>38</v>
+      </c>
+      <c r="J298">
+        <v>325</v>
+      </c>
+      <c r="K298">
+        <v>18657000</v>
+      </c>
+      <c r="O298">
+        <v>0.35</v>
+      </c>
+      <c r="P298">
+        <v>0.35</v>
+      </c>
+      <c r="Q298">
+        <v>0.35</v>
+      </c>
+      <c r="R298">
+        <v>0.35</v>
+      </c>
+      <c r="S298">
+        <v>0.35</v>
+      </c>
+      <c r="U298">
+        <v>1</v>
+      </c>
+      <c r="V298">
+        <v>90</v>
+      </c>
+      <c r="W298">
+        <v>200</v>
+      </c>
+      <c r="X298" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="299" spans="1:27">
+      <c r="D299" t="s">
+        <v>555</v>
+      </c>
+      <c r="E299" t="s">
+        <v>41</v>
+      </c>
+      <c r="F299" t="s">
+        <v>556</v>
+      </c>
+      <c r="G299" t="s">
+        <v>41</v>
+      </c>
+      <c r="J299">
+        <v>325</v>
+      </c>
+      <c r="K299">
+        <v>9876000</v>
+      </c>
+      <c r="O299">
+        <v>0.35</v>
+      </c>
+      <c r="P299">
+        <v>0.35</v>
+      </c>
+      <c r="Q299">
+        <v>0.35</v>
+      </c>
+      <c r="R299">
+        <v>0.35</v>
+      </c>
+      <c r="S299">
+        <v>0.35</v>
+      </c>
+      <c r="U299">
+        <v>1</v>
+      </c>
+      <c r="V299">
+        <v>90</v>
+      </c>
+      <c r="W299">
+        <v>200</v>
+      </c>
+      <c r="X299" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="300" spans="1:27">
+      <c r="D300" t="s">
+        <v>557</v>
+      </c>
+      <c r="E300" t="s">
+        <v>44</v>
+      </c>
+      <c r="F300" t="s">
+        <v>558</v>
+      </c>
+      <c r="J300">
+        <v>325</v>
+      </c>
+      <c r="K300">
+        <v>5345000</v>
+      </c>
+      <c r="O300">
+        <v>0.35</v>
+      </c>
+      <c r="P300">
+        <v>0.35</v>
+      </c>
+      <c r="Q300">
+        <v>0.35</v>
+      </c>
+      <c r="R300">
+        <v>0.35</v>
+      </c>
+      <c r="S300">
+        <v>0.35</v>
+      </c>
+      <c r="U300">
+        <v>1</v>
+      </c>
+      <c r="V300">
+        <v>90</v>
+      </c>
+      <c r="W300">
+        <v>200</v>
+      </c>
+      <c r="X300" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="301" spans="1:27">
+      <c r="D301" t="s">
+        <v>559</v>
+      </c>
+      <c r="E301" t="s">
+        <v>273</v>
+      </c>
+      <c r="F301" t="s">
+        <v>560</v>
+      </c>
+      <c r="H301">
+        <v>160</v>
+      </c>
+      <c r="K301">
+        <v>18978000</v>
+      </c>
+      <c r="L301">
+        <v>0.43</v>
+      </c>
+      <c r="M301">
+        <v>0.43</v>
+      </c>
+      <c r="N301">
+        <v>0.43</v>
+      </c>
+      <c r="U301">
+        <v>1</v>
+      </c>
+      <c r="V301">
+        <v>90</v>
+      </c>
+      <c r="W301">
+        <v>200</v>
+      </c>
+      <c r="X301" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="302" spans="1:27">
+      <c r="D302" t="s">
+        <v>561</v>
+      </c>
+      <c r="E302" t="s">
+        <v>340</v>
+      </c>
+      <c r="F302" t="s">
+        <v>562</v>
+      </c>
+      <c r="I302">
+        <v>400</v>
+      </c>
+      <c r="K302">
+        <v>16689000</v>
+      </c>
+      <c r="U302">
+        <v>1</v>
+      </c>
+      <c r="V302">
+        <v>90</v>
+      </c>
+      <c r="W302">
+        <v>200</v>
+      </c>
+      <c r="X302" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="303" spans="1:27">
+      <c r="D303" t="s">
+        <v>563</v>
+      </c>
+      <c r="E303" t="s">
+        <v>306</v>
+      </c>
+      <c r="F303" t="s">
+        <v>564</v>
+      </c>
+      <c r="H303">
+        <v>320</v>
+      </c>
+      <c r="K303">
+        <v>19679000</v>
+      </c>
+      <c r="U303">
+        <v>1</v>
+      </c>
+      <c r="V303">
+        <v>90</v>
+      </c>
+      <c r="W303">
+        <v>200</v>
+      </c>
+      <c r="X303" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="304" spans="1:27">
+      <c r="A304" t="s">
+        <v>451</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304" t="s">
+        <v>34</v>
+      </c>
+      <c r="E304" t="s">
+        <v>35</v>
+      </c>
+      <c r="F304" t="s">
+        <v>36</v>
+      </c>
+      <c r="J304">
+        <v>1</v>
+      </c>
+      <c r="K304">
+        <v>5</v>
+      </c>
+      <c r="U304">
+        <v>1</v>
+      </c>
+      <c r="V304">
+        <v>1</v>
+      </c>
+      <c r="W304">
+        <v>5</v>
+      </c>
+      <c r="X304" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="305" spans="1:27">
+      <c r="A305" t="s">
+        <v>437</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305" t="s">
+        <v>256</v>
+      </c>
+      <c r="E305" t="s">
+        <v>28</v>
+      </c>
+      <c r="F305" t="s">
+        <v>257</v>
+      </c>
+      <c r="H305">
+        <v>450</v>
+      </c>
+      <c r="K305">
+        <v>1525000</v>
+      </c>
+      <c r="O305">
+        <v>0.37</v>
+      </c>
+      <c r="P305">
+        <v>0.37</v>
+      </c>
+      <c r="Q305">
+        <v>0.37</v>
+      </c>
+      <c r="R305">
+        <v>0.37</v>
+      </c>
+      <c r="S305">
+        <v>0.37</v>
+      </c>
+      <c r="U305">
+        <v>1</v>
+      </c>
+      <c r="V305">
+        <v>70</v>
+      </c>
+      <c r="W305">
+        <v>150</v>
+      </c>
+      <c r="X305" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="306" spans="1:27">
+      <c r="A306" t="s">
+        <v>449</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306" t="s">
+        <v>128</v>
+      </c>
+      <c r="E306" t="s">
+        <v>47</v>
+      </c>
+      <c r="F306" t="s">
+        <v>129</v>
+      </c>
+      <c r="G306" t="s">
+        <v>47</v>
+      </c>
+      <c r="J306">
+        <v>30</v>
+      </c>
+      <c r="K306">
+        <v>945</v>
+      </c>
+      <c r="O306">
+        <v>0.06</v>
+      </c>
+      <c r="P306">
+        <v>0.06</v>
+      </c>
+      <c r="Q306">
+        <v>0.06</v>
+      </c>
+      <c r="R306">
+        <v>0.06</v>
+      </c>
+      <c r="S306">
+        <v>0.06</v>
+      </c>
+      <c r="U306">
+        <v>1</v>
+      </c>
+      <c r="V306">
+        <v>24</v>
+      </c>
+      <c r="W306">
+        <v>40</v>
+      </c>
+      <c r="X306" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="307" spans="1:27">
+      <c r="A307" t="s">
+        <v>437</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307" t="s">
+        <v>158</v>
+      </c>
+      <c r="E307" t="s">
+        <v>44</v>
+      </c>
+      <c r="F307" t="s">
+        <v>159</v>
+      </c>
+      <c r="G307" t="s">
+        <v>44</v>
+      </c>
+      <c r="J307">
+        <v>45</v>
+      </c>
+      <c r="K307">
+        <v>4000</v>
+      </c>
+      <c r="O307">
+        <v>0.1</v>
+      </c>
+      <c r="P307">
+        <v>0.1</v>
+      </c>
+      <c r="Q307">
+        <v>0.1</v>
+      </c>
+      <c r="R307">
+        <v>0.1</v>
+      </c>
+      <c r="S307">
+        <v>0.1</v>
+      </c>
+      <c r="U307">
+        <v>1</v>
+      </c>
+      <c r="V307">
+        <v>28</v>
+      </c>
+      <c r="W307">
+        <v>50</v>
+      </c>
+      <c r="X307" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="308" spans="1:27">
+      <c r="B308" t="s">
+        <v>453</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308" t="s">
+        <v>132</v>
+      </c>
+      <c r="E308" t="s">
+        <v>28</v>
+      </c>
+      <c r="F308" t="s">
+        <v>133</v>
+      </c>
+      <c r="H308">
+        <v>145</v>
+      </c>
+      <c r="K308">
+        <v>3600</v>
+      </c>
+      <c r="O308">
+        <v>0.2</v>
+      </c>
+      <c r="P308">
+        <v>0.2</v>
+      </c>
+      <c r="Q308">
+        <v>0.2</v>
+      </c>
+      <c r="R308">
+        <v>0.2</v>
+      </c>
+      <c r="S308">
+        <v>0.2</v>
+      </c>
+      <c r="U308">
+        <v>1</v>
+      </c>
+      <c r="V308">
+        <v>28</v>
+      </c>
+      <c r="W308">
+        <v>50</v>
+      </c>
+      <c r="X308" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="309" spans="1:27">
+      <c r="B309" t="s">
+        <v>446</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309" t="s">
+        <v>30</v>
+      </c>
+      <c r="E309" t="s">
+        <v>31</v>
+      </c>
+      <c r="F309" t="s">
+        <v>32</v>
+      </c>
+      <c r="G309" t="s">
+        <v>31</v>
+      </c>
+      <c r="J309">
+        <v>4</v>
+      </c>
+      <c r="K309">
+        <v>10</v>
+      </c>
+      <c r="U309">
+        <v>1</v>
+      </c>
+      <c r="V309">
+        <v>1</v>
+      </c>
+      <c r="W309">
+        <v>5</v>
+      </c>
+      <c r="X309" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="310" spans="1:27">
+      <c r="A310" t="s">
+        <v>437</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310" t="s">
+        <v>356</v>
+      </c>
+      <c r="E310" t="s">
+        <v>340</v>
+      </c>
+      <c r="F310" t="s">
+        <v>357</v>
+      </c>
+      <c r="I310">
+        <v>160</v>
+      </c>
+      <c r="K310">
+        <v>13876</v>
+      </c>
+      <c r="U310">
+        <v>1</v>
+      </c>
+      <c r="V310">
+        <v>36</v>
+      </c>
+      <c r="W310">
+        <v>70</v>
+      </c>
+      <c r="X310" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:27">
+      <c r="B311" t="s">
+        <v>565</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311" t="s">
+        <v>102</v>
+      </c>
+      <c r="E311" t="s">
+        <v>31</v>
+      </c>
+      <c r="F311" t="s">
+        <v>103</v>
+      </c>
+      <c r="G311" t="s">
+        <v>31</v>
+      </c>
+      <c r="J311">
+        <v>40</v>
+      </c>
+      <c r="K311">
+        <v>750</v>
+      </c>
+      <c r="O311">
+        <v>0.18</v>
+      </c>
+      <c r="P311">
+        <v>0.18</v>
+      </c>
+      <c r="Q311">
+        <v>0.18</v>
+      </c>
+      <c r="R311">
+        <v>0.18</v>
+      </c>
+      <c r="S311">
+        <v>0.18</v>
+      </c>
+      <c r="U311">
+        <v>1</v>
+      </c>
+      <c r="V311">
+        <v>18</v>
+      </c>
+      <c r="W311">
+        <v>36</v>
+      </c>
+      <c r="X311" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="312" spans="1:27">
+      <c r="B312" t="s">
+        <v>442</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312" t="s">
+        <v>311</v>
+      </c>
+      <c r="E312" t="s">
+        <v>306</v>
+      </c>
+      <c r="F312" t="s">
+        <v>312</v>
+      </c>
+      <c r="H312">
+        <v>16</v>
+      </c>
+      <c r="K312">
+        <v>150</v>
+      </c>
+      <c r="U312">
+        <v>1</v>
+      </c>
+      <c r="V312">
+        <v>6</v>
+      </c>
+      <c r="W312">
+        <v>12</v>
+      </c>
+      <c r="X312" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="313" spans="1:27">
+      <c r="B313" t="s">
+        <v>447</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313" t="s">
+        <v>122</v>
+      </c>
+      <c r="E313" t="s">
+        <v>38</v>
+      </c>
+      <c r="F313" t="s">
+        <v>123</v>
+      </c>
+      <c r="J313">
+        <v>30</v>
+      </c>
+      <c r="K313">
+        <v>1000</v>
+      </c>
+      <c r="O313">
+        <v>0.06</v>
+      </c>
+      <c r="P313">
+        <v>0.06</v>
+      </c>
+      <c r="Q313">
+        <v>0.06</v>
+      </c>
+      <c r="R313">
+        <v>0.06</v>
+      </c>
+      <c r="S313">
+        <v>0.06</v>
+      </c>
+      <c r="U313">
+        <v>1</v>
+      </c>
+      <c r="V313">
+        <v>24</v>
+      </c>
+      <c r="W313">
+        <v>40</v>
+      </c>
+      <c r="X313" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="314" spans="1:27">
+      <c r="B314" t="s">
+        <v>431</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314" t="s">
+        <v>140</v>
+      </c>
+      <c r="E314" t="s">
+        <v>41</v>
+      </c>
+      <c r="F314" t="s">
+        <v>141</v>
+      </c>
+      <c r="G314" t="s">
+        <v>41</v>
+      </c>
+      <c r="J314">
+        <v>45</v>
+      </c>
+      <c r="K314">
+        <v>2300</v>
+      </c>
+      <c r="O314">
+        <v>0.08</v>
+      </c>
+      <c r="P314">
+        <v>0.08</v>
+      </c>
+      <c r="Q314">
+        <v>0.08</v>
+      </c>
+      <c r="R314">
+        <v>0.08</v>
+      </c>
+      <c r="S314">
+        <v>0.08</v>
+      </c>
+      <c r="U314">
+        <v>1</v>
+      </c>
+      <c r="V314">
+        <v>28</v>
+      </c>
+      <c r="W314">
+        <v>50</v>
+      </c>
+      <c r="X314" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="315" spans="1:27">
+      <c r="A315" t="s">
+        <v>437</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315" t="s">
+        <v>301</v>
+      </c>
+      <c r="E315" t="s">
+        <v>273</v>
+      </c>
+      <c r="F315" t="s">
+        <v>302</v>
+      </c>
+      <c r="H315">
+        <v>90</v>
+      </c>
+      <c r="K315">
+        <v>750000</v>
+      </c>
+      <c r="L315">
+        <v>0.29</v>
+      </c>
+      <c r="M315">
+        <v>0.29</v>
+      </c>
+      <c r="N315">
+        <v>0.29</v>
+      </c>
+      <c r="U315">
+        <v>1</v>
+      </c>
+      <c r="V315">
+        <v>60</v>
+      </c>
+      <c r="W315">
+        <v>130</v>
+      </c>
+      <c r="X315" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="316" spans="1:27">
+      <c r="A316" t="s">
+        <v>433</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316" t="s">
+        <v>142</v>
+      </c>
+      <c r="E316" t="s">
+        <v>44</v>
+      </c>
+      <c r="F316" t="s">
+        <v>143</v>
+      </c>
+      <c r="G316" t="s">
+        <v>44</v>
+      </c>
+      <c r="J316">
+        <v>45</v>
+      </c>
+      <c r="K316">
+        <v>2600</v>
+      </c>
+      <c r="O316">
+        <v>0.08</v>
+      </c>
+      <c r="P316">
+        <v>0.08</v>
+      </c>
+      <c r="Q316">
+        <v>0.08</v>
+      </c>
+      <c r="R316">
+        <v>0.08</v>
+      </c>
+      <c r="S316">
+        <v>0.08</v>
+      </c>
+      <c r="U316">
+        <v>1</v>
+      </c>
+      <c r="V316">
+        <v>28</v>
+      </c>
+      <c r="W316">
+        <v>50</v>
+      </c>
+      <c r="X316" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="317" spans="1:27">
+      <c r="B317" t="s">
+        <v>435</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317" t="s">
+        <v>128</v>
+      </c>
+      <c r="E317" t="s">
+        <v>47</v>
+      </c>
+      <c r="F317" t="s">
+        <v>129</v>
+      </c>
+      <c r="G317" t="s">
+        <v>47</v>
+      </c>
+      <c r="J317">
+        <v>30</v>
+      </c>
+      <c r="K317">
+        <v>945</v>
+      </c>
+      <c r="O317">
+        <v>0.06</v>
+      </c>
+      <c r="P317">
+        <v>0.06</v>
+      </c>
+      <c r="Q317">
+        <v>0.06</v>
+      </c>
+      <c r="R317">
+        <v>0.06</v>
+      </c>
+      <c r="S317">
+        <v>0.06</v>
+      </c>
+      <c r="U317">
+        <v>1</v>
+      </c>
+      <c r="V317">
+        <v>24</v>
+      </c>
+      <c r="W317">
+        <v>40</v>
+      </c>
+      <c r="X317" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="318" spans="1:27">
+      <c r="A318" t="s">
+        <v>450</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318" t="s">
+        <v>370</v>
+      </c>
+      <c r="E318" t="s">
+        <v>340</v>
+      </c>
+      <c r="F318" t="s">
+        <v>371</v>
+      </c>
+      <c r="I318">
+        <v>300</v>
+      </c>
+      <c r="K318">
+        <v>1456000</v>
+      </c>
+      <c r="U318">
+        <v>1</v>
+      </c>
+      <c r="V318">
+        <v>70</v>
+      </c>
+      <c r="W318">
+        <v>180</v>
+      </c>
+      <c r="X318" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="319" spans="1:27">
+      <c r="A319" t="s">
+        <v>566</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319" t="s">
+        <v>303</v>
+      </c>
+      <c r="E319" t="s">
+        <v>273</v>
+      </c>
+      <c r="F319" t="s">
+        <v>304</v>
+      </c>
+      <c r="H319">
+        <v>100</v>
+      </c>
+      <c r="K319">
+        <v>1345000</v>
+      </c>
+      <c r="L319">
+        <v>0.3</v>
+      </c>
+      <c r="M319">
+        <v>0.3</v>
+      </c>
+      <c r="N319">
+        <v>0.3</v>
+      </c>
+      <c r="U319">
+        <v>1</v>
+      </c>
+      <c r="V319">
+        <v>70</v>
+      </c>
+      <c r="W319">
+        <v>180</v>
+      </c>
+      <c r="X319" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="320" spans="1:27">
+      <c r="B320" t="s">
+        <v>448</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320" t="s">
+        <v>212</v>
+      </c>
+      <c r="E320" t="s">
+        <v>31</v>
+      </c>
+      <c r="F320" t="s">
+        <v>213</v>
+      </c>
+      <c r="G320" t="s">
+        <v>31</v>
+      </c>
+      <c r="J320">
+        <v>190</v>
+      </c>
+      <c r="K320">
+        <v>125000</v>
+      </c>
+      <c r="O320">
+        <v>0.36</v>
+      </c>
+      <c r="P320">
+        <v>0.36</v>
+      </c>
+      <c r="Q320">
+        <v>0.36</v>
+      </c>
+      <c r="R320">
+        <v>0.36</v>
+      </c>
+      <c r="S320">
+        <v>0.36</v>
+      </c>
+      <c r="U320">
+        <v>1</v>
+      </c>
+      <c r="V320">
+        <v>50</v>
+      </c>
+      <c r="W320">
+        <v>100</v>
+      </c>
+      <c r="X320" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="321" spans="1:27">
+      <c r="B321" t="s">
+        <v>567</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321" t="s">
+        <v>198</v>
+      </c>
+      <c r="E321" t="s">
+        <v>31</v>
+      </c>
+      <c r="F321" t="s">
+        <v>199</v>
+      </c>
+      <c r="G321" t="s">
+        <v>31</v>
+      </c>
+      <c r="J321">
+        <v>170</v>
+      </c>
+      <c r="K321">
+        <v>48000</v>
+      </c>
+      <c r="O321">
+        <v>0.33</v>
+      </c>
+      <c r="P321">
+        <v>0.33</v>
+      </c>
+      <c r="Q321">
+        <v>0.33</v>
+      </c>
+      <c r="R321">
+        <v>0.33</v>
+      </c>
+      <c r="S321">
+        <v>0.33</v>
+      </c>
+      <c r="U321">
+        <v>1</v>
+      </c>
+      <c r="V321">
+        <v>43</v>
+      </c>
+      <c r="W321">
+        <v>78</v>
+      </c>
+      <c r="X321" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="322" spans="1:27">
+      <c r="A322" t="s">
+        <v>429</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322" t="s">
+        <v>27</v>
+      </c>
+      <c r="E322" t="s">
+        <v>28</v>
+      </c>
+      <c r="F322" t="s">
+        <v>29</v>
+      </c>
+      <c r="H322">
+        <v>4</v>
+      </c>
+      <c r="K322">
+        <v>10</v>
+      </c>
+      <c r="U322">
+        <v>1</v>
+      </c>
+      <c r="V322">
+        <v>1</v>
+      </c>
+      <c r="W322">
+        <v>5</v>
+      </c>
+      <c r="X322" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="323" spans="1:27">
+      <c r="A323" t="s">
+        <v>566</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323" t="s">
+        <v>27</v>
+      </c>
+      <c r="E323" t="s">
+        <v>28</v>
+      </c>
+      <c r="F323" t="s">
+        <v>29</v>
+      </c>
+      <c r="H323">
+        <v>4</v>
+      </c>
+      <c r="K323">
+        <v>10</v>
+      </c>
+      <c r="U323">
+        <v>1</v>
+      </c>
+      <c r="V323">
+        <v>1</v>
+      </c>
+      <c r="W323">
+        <v>5</v>
+      </c>
+      <c r="X323" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="324" spans="1:27">
+      <c r="B324" t="s">
+        <v>444</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324" t="s">
+        <v>102</v>
+      </c>
+      <c r="E324" t="s">
+        <v>31</v>
+      </c>
+      <c r="F324" t="s">
+        <v>103</v>
+      </c>
+      <c r="G324" t="s">
+        <v>31</v>
+      </c>
+      <c r="J324">
+        <v>40</v>
+      </c>
+      <c r="K324">
+        <v>750</v>
+      </c>
+      <c r="O324">
+        <v>0.18</v>
+      </c>
+      <c r="P324">
+        <v>0.18</v>
+      </c>
+      <c r="Q324">
+        <v>0.18</v>
+      </c>
+      <c r="R324">
+        <v>0.18</v>
+      </c>
+      <c r="S324">
+        <v>0.18</v>
+      </c>
+      <c r="U324">
+        <v>1</v>
+      </c>
+      <c r="V324">
+        <v>18</v>
+      </c>
+      <c r="W324">
+        <v>36</v>
+      </c>
+      <c r="X324" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="325" spans="1:27">
+      <c r="A325" t="s">
+        <v>437</v>
+      </c>
+      <c r="B325" t="s">
+        <v>447</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325" t="s">
+        <v>256</v>
+      </c>
+      <c r="E325" t="s">
+        <v>28</v>
+      </c>
+      <c r="F325" t="s">
+        <v>257</v>
+      </c>
+      <c r="H325">
+        <v>450</v>
+      </c>
+      <c r="K325">
+        <v>1525000</v>
+      </c>
+      <c r="O325">
+        <v>0.37</v>
+      </c>
+      <c r="P325">
+        <v>0.37</v>
+      </c>
+      <c r="Q325">
+        <v>0.37</v>
+      </c>
+      <c r="R325">
+        <v>0.37</v>
+      </c>
+      <c r="S325">
+        <v>0.37</v>
+      </c>
+      <c r="U325">
+        <v>1</v>
+      </c>
+      <c r="V325">
+        <v>70</v>
+      </c>
+      <c r="W325">
+        <v>150</v>
+      </c>
+      <c r="X325" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="326" spans="1:27">
+      <c r="B326" t="s">
+        <v>448</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326" t="s">
+        <v>366</v>
+      </c>
+      <c r="E326" t="s">
+        <v>340</v>
+      </c>
+      <c r="F326" t="s">
+        <v>367</v>
+      </c>
+      <c r="I326">
+        <v>260</v>
+      </c>
+      <c r="K326">
+        <v>320000</v>
+      </c>
+      <c r="U326">
+        <v>1</v>
+      </c>
+      <c r="V326">
+        <v>55</v>
+      </c>
+      <c r="W326">
+        <v>110</v>
+      </c>
+      <c r="X326" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="327" spans="1:27">
+      <c r="B327" t="s">
+        <v>434</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327" t="s">
+        <v>34</v>
+      </c>
+      <c r="E327" t="s">
+        <v>35</v>
+      </c>
+      <c r="F327" t="s">
+        <v>36</v>
+      </c>
+      <c r="J327">
+        <v>1</v>
+      </c>
+      <c r="K327">
+        <v>5</v>
+      </c>
+      <c r="U327">
+        <v>1</v>
+      </c>
+      <c r="V327">
+        <v>1</v>
+      </c>
+      <c r="W327">
+        <v>5</v>
+      </c>
+      <c r="X327" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="328" spans="1:27">
+      <c r="B328" t="s">
+        <v>434</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328" t="s">
+        <v>56</v>
+      </c>
+      <c r="E328" t="s">
+        <v>35</v>
+      </c>
+      <c r="F328" t="s">
+        <v>57</v>
+      </c>
+      <c r="J328">
+        <v>3</v>
+      </c>
+      <c r="K328">
+        <v>60</v>
+      </c>
+      <c r="O328">
+        <v>0.02</v>
+      </c>
+      <c r="P328">
+        <v>0.02</v>
+      </c>
+      <c r="Q328">
+        <v>0.02</v>
+      </c>
+      <c r="R328">
+        <v>0.02</v>
+      </c>
+      <c r="S328">
+        <v>0.02</v>
+      </c>
+      <c r="U328">
+        <v>1</v>
+      </c>
+      <c r="V328">
+        <v>3</v>
+      </c>
+      <c r="W328">
+        <v>8</v>
+      </c>
+      <c r="X328" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="329" spans="1:27">
+      <c r="A329" t="s">
+        <v>452</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329" t="s">
+        <v>238</v>
+      </c>
+      <c r="E329" t="s">
+        <v>50</v>
+      </c>
+      <c r="F329" t="s">
+        <v>239</v>
+      </c>
+      <c r="J329">
+        <v>150</v>
+      </c>
+      <c r="K329">
+        <v>360000</v>
+      </c>
+      <c r="O329">
+        <v>0.18</v>
+      </c>
+      <c r="P329">
+        <v>0.18</v>
+      </c>
+      <c r="Q329">
+        <v>0.18</v>
+      </c>
+      <c r="R329">
+        <v>0.18</v>
+      </c>
+      <c r="S329">
+        <v>0.18</v>
+      </c>
+      <c r="U329">
+        <v>1</v>
+      </c>
+      <c r="V329">
+        <v>55</v>
+      </c>
+      <c r="W329">
+        <v>110</v>
+      </c>
+      <c r="X329" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="330" spans="1:27">
+      <c r="A330" t="s">
+        <v>450</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330" t="s">
+        <v>64</v>
+      </c>
+      <c r="E330" t="s">
+        <v>47</v>
+      </c>
+      <c r="F330" t="s">
+        <v>65</v>
+      </c>
+      <c r="G330" t="s">
+        <v>47</v>
+      </c>
+      <c r="J330">
+        <v>3</v>
+      </c>
+      <c r="K330">
+        <v>55</v>
+      </c>
+      <c r="U330">
+        <v>1</v>
+      </c>
+      <c r="V330">
+        <v>3</v>
+      </c>
+      <c r="W330">
+        <v>8</v>
+      </c>
+      <c r="X330" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="331" spans="1:27">
+      <c r="B331" t="s">
+        <v>447</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331" t="s">
+        <v>337</v>
+      </c>
+      <c r="E331" t="s">
+        <v>306</v>
+      </c>
+      <c r="F331" t="s">
+        <v>338</v>
+      </c>
+      <c r="H331">
+        <v>200</v>
+      </c>
+      <c r="K331">
+        <v>1250000</v>
+      </c>
+      <c r="U331">
+        <v>1</v>
+      </c>
+      <c r="V331">
+        <v>70</v>
+      </c>
+      <c r="W331">
+        <v>150</v>
+      </c>
+      <c r="X331" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="332" spans="1:27">
+      <c r="B332" t="s">
+        <v>445</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332" t="s">
+        <v>240</v>
+      </c>
+      <c r="E332" t="s">
+        <v>28</v>
+      </c>
+      <c r="F332" t="s">
+        <v>241</v>
+      </c>
+      <c r="H332">
+        <v>380</v>
+      </c>
+      <c r="K332">
+        <v>750000</v>
+      </c>
+      <c r="O332">
+        <v>0.35</v>
+      </c>
+      <c r="P332">
+        <v>0.35</v>
+      </c>
+      <c r="Q332">
+        <v>0.35</v>
+      </c>
+      <c r="R332">
+        <v>0.35</v>
+      </c>
+      <c r="S332">
+        <v>0.35</v>
+      </c>
+      <c r="U332">
+        <v>1</v>
+      </c>
+      <c r="V332">
+        <v>60</v>
+      </c>
+      <c r="W332">
+        <v>130</v>
+      </c>
+      <c r="X332" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="333" spans="1:27">
+      <c r="A333" t="s">
+        <v>450</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333" t="s">
+        <v>210</v>
+      </c>
+      <c r="E333" t="s">
+        <v>28</v>
+      </c>
+      <c r="F333" t="s">
+        <v>211</v>
+      </c>
+      <c r="H333">
+        <v>280</v>
+      </c>
+      <c r="K333">
+        <v>125000</v>
+      </c>
+      <c r="O333">
+        <v>0.29</v>
+      </c>
+      <c r="P333">
+        <v>0.29</v>
+      </c>
+      <c r="Q333">
+        <v>0.29</v>
+      </c>
+      <c r="R333">
+        <v>0.29</v>
+      </c>
+      <c r="S333">
+        <v>0.29</v>
+      </c>
+      <c r="U333">
+        <v>1</v>
+      </c>
+      <c r="V333">
+        <v>50</v>
+      </c>
+      <c r="W333">
+        <v>100</v>
+      </c>
+      <c r="X333" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="334" spans="1:27">
+      <c r="B334" t="s">
+        <v>435</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334" t="s">
+        <v>102</v>
+      </c>
+      <c r="E334" t="s">
+        <v>31</v>
+      </c>
+      <c r="F334" t="s">
+        <v>103</v>
+      </c>
+      <c r="G334" t="s">
+        <v>31</v>
+      </c>
+      <c r="J334">
+        <v>40</v>
+      </c>
+      <c r="K334">
+        <v>750</v>
+      </c>
+      <c r="O334">
+        <v>0.18</v>
+      </c>
+      <c r="P334">
+        <v>0.18</v>
+      </c>
+      <c r="Q334">
+        <v>0.18</v>
+      </c>
+      <c r="R334">
+        <v>0.18</v>
+      </c>
+      <c r="S334">
+        <v>0.18</v>
+      </c>
+      <c r="U334">
+        <v>1</v>
+      </c>
+      <c r="V334">
+        <v>18</v>
+      </c>
+      <c r="W334">
+        <v>36</v>
+      </c>
+      <c r="X334" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="335" spans="1:27">
+      <c r="A335" t="s">
+        <v>450</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335" t="s">
+        <v>118</v>
+      </c>
+      <c r="E335" t="s">
+        <v>31</v>
+      </c>
+      <c r="F335" t="s">
+        <v>119</v>
+      </c>
+      <c r="G335" t="s">
+        <v>31</v>
+      </c>
+      <c r="J335">
+        <v>60</v>
+      </c>
+      <c r="K335">
+        <v>1760</v>
+      </c>
+      <c r="O335">
+        <v>0.2</v>
+      </c>
+      <c r="P335">
+        <v>0.2</v>
+      </c>
+      <c r="Q335">
+        <v>0.2</v>
+      </c>
+      <c r="R335">
+        <v>0.2</v>
+      </c>
+      <c r="S335">
+        <v>0.2</v>
+      </c>
+      <c r="U335">
+        <v>1</v>
+      </c>
+      <c r="V335">
+        <v>24</v>
+      </c>
+      <c r="W335">
+        <v>40</v>
+      </c>
+      <c r="X335" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="336" spans="1:27">
+      <c r="B336" t="s">
+        <v>567</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336" t="s">
+        <v>98</v>
+      </c>
+      <c r="E336" t="s">
+        <v>50</v>
+      </c>
+      <c r="F336" t="s">
+        <v>99</v>
+      </c>
+      <c r="G336" t="s">
+        <v>50</v>
+      </c>
+      <c r="J336">
+        <v>10</v>
+      </c>
+      <c r="K336">
+        <v>200</v>
+      </c>
+      <c r="O336">
+        <v>0.03</v>
+      </c>
+      <c r="P336">
+        <v>0.03</v>
+      </c>
+      <c r="Q336">
+        <v>0.03</v>
+      </c>
+      <c r="R336">
+        <v>0.03</v>
+      </c>
+      <c r="S336">
+        <v>0.03</v>
+      </c>
+      <c r="U336">
+        <v>1</v>
+      </c>
+      <c r="V336">
+        <v>10</v>
+      </c>
+      <c r="W336">
+        <v>20</v>
+      </c>
+      <c r="X336" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="337" spans="1:27">
+      <c r="B337" t="s">
+        <v>448</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337" t="s">
+        <v>289</v>
+      </c>
+      <c r="E337" t="s">
+        <v>273</v>
+      </c>
+      <c r="F337" t="s">
+        <v>290</v>
+      </c>
+      <c r="H337">
+        <v>55</v>
+      </c>
+      <c r="K337">
+        <v>13400</v>
+      </c>
+      <c r="L337">
+        <v>0.16</v>
+      </c>
+      <c r="M337">
+        <v>0.16</v>
+      </c>
+      <c r="N337">
+        <v>0.16</v>
+      </c>
+      <c r="U337">
+        <v>1</v>
+      </c>
+      <c r="V337">
+        <v>36</v>
+      </c>
+      <c r="W337">
+        <v>70</v>
+      </c>
+      <c r="X337" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="338" spans="1:27">
+      <c r="A338" t="s">
         <v>439</v>
       </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-      <c r="D245" t="s">
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338" t="s">
+        <v>102</v>
+      </c>
+      <c r="E338" t="s">
+        <v>31</v>
+      </c>
+      <c r="F338" t="s">
+        <v>103</v>
+      </c>
+      <c r="G338" t="s">
+        <v>31</v>
+      </c>
+      <c r="J338">
+        <v>40</v>
+      </c>
+      <c r="K338">
+        <v>750</v>
+      </c>
+      <c r="O338">
+        <v>0.18</v>
+      </c>
+      <c r="P338">
+        <v>0.18</v>
+      </c>
+      <c r="Q338">
+        <v>0.18</v>
+      </c>
+      <c r="R338">
+        <v>0.18</v>
+      </c>
+      <c r="S338">
+        <v>0.18</v>
+      </c>
+      <c r="U338">
+        <v>1</v>
+      </c>
+      <c r="V338">
+        <v>18</v>
+      </c>
+      <c r="W338">
+        <v>36</v>
+      </c>
+      <c r="X338" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="339" spans="1:27">
+      <c r="B339" t="s">
+        <v>446</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339" t="s">
+        <v>102</v>
+      </c>
+      <c r="E339" t="s">
+        <v>31</v>
+      </c>
+      <c r="F339" t="s">
+        <v>103</v>
+      </c>
+      <c r="G339" t="s">
+        <v>31</v>
+      </c>
+      <c r="J339">
+        <v>40</v>
+      </c>
+      <c r="K339">
+        <v>750</v>
+      </c>
+      <c r="O339">
+        <v>0.18</v>
+      </c>
+      <c r="P339">
+        <v>0.18</v>
+      </c>
+      <c r="Q339">
+        <v>0.18</v>
+      </c>
+      <c r="R339">
+        <v>0.18</v>
+      </c>
+      <c r="S339">
+        <v>0.18</v>
+      </c>
+      <c r="U339">
+        <v>1</v>
+      </c>
+      <c r="V339">
+        <v>18</v>
+      </c>
+      <c r="W339">
+        <v>36</v>
+      </c>
+      <c r="X339" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="340" spans="1:27">
+      <c r="A340" t="s">
+        <v>438</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340" t="s">
+        <v>228</v>
+      </c>
+      <c r="E340" t="s">
+        <v>31</v>
+      </c>
+      <c r="F340" t="s">
+        <v>229</v>
+      </c>
+      <c r="G340" t="s">
+        <v>31</v>
+      </c>
+      <c r="J340">
+        <v>230</v>
+      </c>
+      <c r="K340">
+        <v>450000</v>
+      </c>
+      <c r="O340">
+        <v>0.4</v>
+      </c>
+      <c r="P340">
+        <v>0.4</v>
+      </c>
+      <c r="Q340">
+        <v>0.4</v>
+      </c>
+      <c r="R340">
+        <v>0.4</v>
+      </c>
+      <c r="S340">
+        <v>0.4</v>
+      </c>
+      <c r="U340">
+        <v>1</v>
+      </c>
+      <c r="V340">
+        <v>55</v>
+      </c>
+      <c r="W340">
+        <v>110</v>
+      </c>
+      <c r="X340" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="341" spans="1:27">
+      <c r="A341" t="s">
+        <v>441</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341" t="s">
+        <v>118</v>
+      </c>
+      <c r="E341" t="s">
+        <v>31</v>
+      </c>
+      <c r="F341" t="s">
+        <v>119</v>
+      </c>
+      <c r="G341" t="s">
+        <v>31</v>
+      </c>
+      <c r="J341">
+        <v>60</v>
+      </c>
+      <c r="K341">
+        <v>1760</v>
+      </c>
+      <c r="O341">
+        <v>0.2</v>
+      </c>
+      <c r="P341">
+        <v>0.2</v>
+      </c>
+      <c r="Q341">
+        <v>0.2</v>
+      </c>
+      <c r="R341">
+        <v>0.2</v>
+      </c>
+      <c r="S341">
+        <v>0.2</v>
+      </c>
+      <c r="U341">
+        <v>1</v>
+      </c>
+      <c r="V341">
+        <v>24</v>
+      </c>
+      <c r="W341">
+        <v>40</v>
+      </c>
+      <c r="X341" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="342" spans="1:27">
+      <c r="A342" t="s">
+        <v>449</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342" t="s">
+        <v>327</v>
+      </c>
+      <c r="E342" t="s">
+        <v>306</v>
+      </c>
+      <c r="F342" t="s">
+        <v>328</v>
+      </c>
+      <c r="H342">
+        <v>120</v>
+      </c>
+      <c r="K342">
+        <v>55000</v>
+      </c>
+      <c r="U342">
+        <v>1</v>
+      </c>
+      <c r="V342">
+        <v>43</v>
+      </c>
+      <c r="W342">
+        <v>78</v>
+      </c>
+      <c r="X342" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="343" spans="1:27">
+      <c r="A343" t="s">
+        <v>438</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343" t="s">
+        <v>301</v>
+      </c>
+      <c r="E343" t="s">
+        <v>273</v>
+      </c>
+      <c r="F343" t="s">
+        <v>302</v>
+      </c>
+      <c r="H343">
+        <v>90</v>
+      </c>
+      <c r="K343">
+        <v>750000</v>
+      </c>
+      <c r="L343">
+        <v>0.29</v>
+      </c>
+      <c r="M343">
+        <v>0.29</v>
+      </c>
+      <c r="N343">
+        <v>0.29</v>
+      </c>
+      <c r="U343">
+        <v>1</v>
+      </c>
+      <c r="V343">
+        <v>60</v>
+      </c>
+      <c r="W343">
+        <v>130</v>
+      </c>
+      <c r="X343" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="344" spans="1:27">
+      <c r="A344" t="s">
+        <v>429</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344" t="s">
+        <v>270</v>
+      </c>
+      <c r="E344" t="s">
+        <v>50</v>
+      </c>
+      <c r="F344" t="s">
+        <v>271</v>
+      </c>
+      <c r="G344" t="s">
+        <v>50</v>
+      </c>
+      <c r="J344">
+        <v>200</v>
+      </c>
+      <c r="K344">
+        <v>800000</v>
+      </c>
+      <c r="O344">
+        <v>0.23</v>
+      </c>
+      <c r="P344">
+        <v>0.23</v>
+      </c>
+      <c r="Q344">
+        <v>0.23</v>
+      </c>
+      <c r="R344">
+        <v>0.23</v>
+      </c>
+      <c r="S344">
+        <v>0.23</v>
+      </c>
+      <c r="U344">
+        <v>1</v>
+      </c>
+      <c r="V344">
+        <v>70</v>
+      </c>
+      <c r="W344">
+        <v>180</v>
+      </c>
+      <c r="X344" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="345" spans="1:27">
+      <c r="A345" t="s">
+        <v>429</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345" t="s">
+        <v>299</v>
+      </c>
+      <c r="E345" t="s">
+        <v>273</v>
+      </c>
+      <c r="F345" t="s">
+        <v>300</v>
+      </c>
+      <c r="H345">
+        <v>80</v>
+      </c>
+      <c r="K345">
+        <v>346000</v>
+      </c>
+      <c r="L345">
+        <v>0.27</v>
+      </c>
+      <c r="M345">
+        <v>0.27</v>
+      </c>
+      <c r="N345">
+        <v>0.27</v>
+      </c>
+      <c r="U345">
+        <v>1</v>
+      </c>
+      <c r="V345">
+        <v>55</v>
+      </c>
+      <c r="W345">
+        <v>110</v>
+      </c>
+      <c r="X345" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="346" spans="1:27">
+      <c r="B346" t="s">
+        <v>432</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346" t="s">
+        <v>132</v>
+      </c>
+      <c r="E346" t="s">
+        <v>28</v>
+      </c>
+      <c r="F346" t="s">
+        <v>133</v>
+      </c>
+      <c r="H346">
+        <v>145</v>
+      </c>
+      <c r="K346">
+        <v>3600</v>
+      </c>
+      <c r="O346">
+        <v>0.2</v>
+      </c>
+      <c r="P346">
+        <v>0.2</v>
+      </c>
+      <c r="Q346">
+        <v>0.2</v>
+      </c>
+      <c r="R346">
+        <v>0.2</v>
+      </c>
+      <c r="S346">
+        <v>0.2</v>
+      </c>
+      <c r="U346">
+        <v>1</v>
+      </c>
+      <c r="V346">
+        <v>28</v>
+      </c>
+      <c r="W346">
+        <v>50</v>
+      </c>
+      <c r="X346" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="347" spans="1:27">
+      <c r="A347" t="s">
+        <v>433</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347" t="s">
+        <v>30</v>
+      </c>
+      <c r="E347" t="s">
+        <v>31</v>
+      </c>
+      <c r="F347" t="s">
+        <v>32</v>
+      </c>
+      <c r="G347" t="s">
+        <v>31</v>
+      </c>
+      <c r="J347">
+        <v>4</v>
+      </c>
+      <c r="K347">
+        <v>10</v>
+      </c>
+      <c r="U347">
+        <v>1</v>
+      </c>
+      <c r="V347">
+        <v>1</v>
+      </c>
+      <c r="W347">
+        <v>5</v>
+      </c>
+      <c r="X347" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="348" spans="1:27">
+      <c r="B348" t="s">
+        <v>565</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348" t="s">
         <v>64</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E348" t="s">
         <v>47</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F348" t="s">
         <v>65</v>
       </c>
-      <c r="G245" t="s">
+      <c r="G348" t="s">
         <v>47</v>
       </c>
-      <c r="J245">
+      <c r="J348">
         <v>3</v>
       </c>
-      <c r="K245">
+      <c r="K348">
         <v>55</v>
       </c>
-      <c r="U245">
-        <v>1</v>
-      </c>
-      <c r="V245">
+      <c r="U348">
+        <v>1</v>
+      </c>
+      <c r="V348">
         <v>3</v>
       </c>
-      <c r="W245">
+      <c r="W348">
         <v>8</v>
       </c>
-      <c r="X245" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="246" spans="1:27">
-      <c r="A246" t="s">
-        <v>451</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-      <c r="D246" t="s">
+      <c r="X348" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="349" spans="1:27">
+      <c r="A349" t="s">
+        <v>452</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349" t="s">
         <v>186</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E349" t="s">
         <v>38</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F349" t="s">
         <v>187</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G349" t="s">
         <v>38</v>
       </c>
-      <c r="J246">
+      <c r="J349">
         <v>90</v>
       </c>
-      <c r="K246">
+      <c r="K349">
         <v>18000</v>
       </c>
-      <c r="O246">
+      <c r="O349">
         <v>0.14</v>
       </c>
-      <c r="P246">
+      <c r="P349">
         <v>0.14</v>
       </c>
-      <c r="Q246">
+      <c r="Q349">
         <v>0.14</v>
       </c>
-      <c r="R246">
+      <c r="R349">
         <v>0.14</v>
       </c>
-      <c r="S246">
+      <c r="S349">
         <v>0.14</v>
       </c>
-      <c r="U246">
-        <v>1</v>
-      </c>
-      <c r="V246">
+      <c r="U349">
+        <v>1</v>
+      </c>
+      <c r="V349">
         <v>40</v>
       </c>
-      <c r="W246">
+      <c r="W349">
         <v>75</v>
       </c>
-      <c r="X246" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="247" spans="1:27">
-      <c r="A247" t="s">
-        <v>435</v>
-      </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-      <c r="D247" t="s">
+      <c r="X349" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="350" spans="1:27">
+      <c r="A350" t="s">
+        <v>437</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350" t="s">
         <v>74</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E350" t="s">
         <v>38</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F350" t="s">
         <v>75</v>
       </c>
-      <c r="G247" t="s">
+      <c r="G350" t="s">
         <v>38</v>
       </c>
-      <c r="J247">
+      <c r="J350">
         <v>5</v>
       </c>
-      <c r="K247">
+      <c r="K350">
         <v>100</v>
       </c>
-      <c r="U247">
-        <v>1</v>
-      </c>
-      <c r="V247">
+      <c r="U350">
+        <v>1</v>
+      </c>
+      <c r="V350">
         <v>6</v>
       </c>
-      <c r="W247">
+      <c r="W350">
         <v>12</v>
       </c>
-      <c r="X247" t="s">
+      <c r="X350" t="s">
         <v>33</v>
       </c>
     </row>

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="703">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -719,7 +719,7 @@
     <t>Magic is used to hold the sands in place.</t>
   </si>
   <si>
-    <t>Golen Sandals</t>
+    <t>Golden Sandals</t>
   </si>
   <si>
     <t>Made of pure gold, these are the top of the line for the fashion.</t>
@@ -815,7 +815,7 @@
     <t>Stolen from goblins, this - is their shoes!</t>
   </si>
   <si>
-    <t>Golen Ribbon Sleevs</t>
+    <t>Golden Ribbon Sleeves</t>
   </si>
   <si>
     <t>Made from the finest, softest spun golden silk, these sleeves imbue a sense of inspiration and magic.</t>
@@ -1907,181 +1907,223 @@
     <t>Made by vampires these gloves help with the life stealing abilities of some vampires.</t>
   </si>
   <si>
+    <t>Faceless Gloves</t>
+  </si>
+  <si>
+    <t>Worn by the Faceless man these gloves phase in and out of reality.</t>
+  </si>
+  <si>
+    <t>Spiteful Ring of Lust</t>
+  </si>
+  <si>
+    <t>Let the spitefulness of love rush over you.</t>
+  </si>
+  <si>
+    <t>Ring of Fear</t>
+  </si>
+  <si>
+    <t>Put the fear of god into your enemies.</t>
+  </si>
+  <si>
+    <t>Wish Ring</t>
+  </si>
+  <si>
+    <t>Be careful what you wish for child.</t>
+  </si>
+  <si>
+    <t>Priceless Ring</t>
+  </si>
+  <si>
+    <t>Clearly this ring isn't all that priceless, or I wouldn't have slapped a price on it.</t>
+  </si>
+  <si>
+    <t>Live Again!</t>
+  </si>
+  <si>
+    <t>When you just really want to live again! Ya know?</t>
+  </si>
+  <si>
+    <t>Flush Of Red</t>
+  </si>
+  <si>
+    <t>There, see?! A flush of red has returned to the cheeks.</t>
+  </si>
+  <si>
+    <t>Reckless Endeavour</t>
+  </si>
+  <si>
+    <t>It was one hell of a reckless endeavour just to get to you!</t>
+  </si>
+  <si>
+    <t>Truth Syrup</t>
+  </si>
+  <si>
+    <t>It also has magnificent healing powers.</t>
+  </si>
+  <si>
+    <t>Reapers Shadow</t>
+  </si>
+  <si>
+    <t>See that?! the shadow of the reaper has come for you child!</t>
+  </si>
+  <si>
+    <t>Web of Lies and Truth</t>
+  </si>
+  <si>
+    <t>Rip them apart in your web child! Rip them apart!</t>
+  </si>
+  <si>
+    <t>Fearful Shade</t>
+  </si>
+  <si>
+    <t>Conjure a shade from the depths of the creatures heart! A shade of their darkest fear.</t>
+  </si>
+  <si>
+    <t>Buckets of Blood</t>
+  </si>
+  <si>
+    <t>Let it rain buckets of blood upon the land until thy enemy drowns in it!</t>
+  </si>
+  <si>
+    <t>Mirror Of Truth</t>
+  </si>
+  <si>
+    <t>Look with in the mirror and see the balanced reflection of your own fears upon your face.</t>
+  </si>
+  <si>
+    <t>Paladins Crest</t>
+  </si>
+  <si>
+    <t>With this, your strength will be unbound and untested.</t>
+  </si>
+  <si>
+    <t>Mechanical Bolt</t>
+  </si>
+  <si>
+    <t>It's small for it's shape and made of clock work engineering. Yet it's just a bolt.</t>
+  </si>
+  <si>
+    <t>Vampric Scythe</t>
+  </si>
+  <si>
+    <t>An old vampric scythe. Great for stealing the hearts of enemies.</t>
+  </si>
+  <si>
+    <t>Wizards Crown</t>
+  </si>
+  <si>
+    <t>Won by a wizard king, this crown bestows magic upon the wearer.</t>
+  </si>
+  <si>
+    <t>Arch Deacons Bone</t>
+  </si>
+  <si>
+    <t>The holy bone of a Arch Deacon</t>
+  </si>
+  <si>
+    <t>Litches Eye</t>
+  </si>
+  <si>
+    <t>Never let the enemy see you, but always see them.</t>
+  </si>
+  <si>
+    <t>Slippers Of The Angel</t>
+  </si>
+  <si>
+    <t>With these in hand, you never be hit. I promise you.</t>
+  </si>
+  <si>
+    <t>Astral Talisman of Treasure</t>
+  </si>
+  <si>
+    <t>Comes from the Astral Plane and is imbued with properties to help find treasure.</t>
+  </si>
+  <si>
+    <t>Antique Hammer</t>
+  </si>
+  <si>
+    <t>Who said old things could not help to create better weapons?</t>
+  </si>
+  <si>
+    <t>Armour Smiths Fire</t>
+  </si>
+  <si>
+    <t>The fire of the armour smith is what helps with the crafting of new items.</t>
+  </si>
+  <si>
+    <t>Magicians Tarot</t>
+  </si>
+  <si>
+    <t>Let these tarot cards give you the ideas you need to create new spells.</t>
+  </si>
+  <si>
+    <t>Ring Bearers Pillow</t>
+  </si>
+  <si>
+    <t>Maybe this pillow with two rings on it will help you craft new and powerful rings?</t>
+  </si>
+  <si>
+    <t>Spiteful Dust Pan</t>
+  </si>
+  <si>
+    <t>A dustpan full of spite, but you might be able to use in your hunt for artifacts.</t>
+  </si>
+  <si>
+    <t>Astral Quill</t>
+  </si>
+  <si>
+    <t>A simple quill from the Astral plane that helps you to craft new enchantments.</t>
+  </si>
+  <si>
+    <t>Key To The Labyrinth</t>
+  </si>
+  <si>
+    <t>Allows access to the Labyrinth plane. What new and exciting adventures await you down there?</t>
+  </si>
+  <si>
+    <t>labyrinth</t>
+  </si>
+  <si>
+    <t>Queens Blessing</t>
+  </si>
+  <si>
+    <t>Golden Ribbon Sleevs</t>
+  </si>
+  <si>
+    <t>Enchantress Spell</t>
+  </si>
+  <si>
+    <t>Treasures Dreams</t>
+  </si>
+  <si>
+    <t>Dancing Moon Light</t>
+  </si>
+  <si>
+    <t>Dream Of Magic</t>
+  </si>
+  <si>
+    <t>The Earths Winds</t>
+  </si>
+  <si>
+    <t>Deaths Magic Spell</t>
+  </si>
+  <si>
+    <t>Knights Blessing</t>
+  </si>
+  <si>
+    <t>Vampires Hope</t>
+  </si>
+  <si>
+    <t>Fires Of Armour</t>
+  </si>
+  <si>
     <t>Faceless Gloes</t>
   </si>
   <si>
-    <t>Worn by the Faceless man these gloves phase in and out of reality.</t>
-  </si>
-  <si>
-    <t>Spiteful Ring of Lust</t>
-  </si>
-  <si>
-    <t>Let the spitefulness of love rush over you.</t>
-  </si>
-  <si>
-    <t>Ring of Fear</t>
-  </si>
-  <si>
-    <t>Put the fear of god into your enemies.</t>
-  </si>
-  <si>
-    <t>Wish Ring</t>
-  </si>
-  <si>
-    <t>Be careful what you wish for child.</t>
-  </si>
-  <si>
-    <t>Priceless Ring</t>
-  </si>
-  <si>
-    <t>Clearly this ring isn't all that priceless, or I wouldn't have slapped a price on it.</t>
-  </si>
-  <si>
-    <t>Live Again!</t>
-  </si>
-  <si>
-    <t>When you just really want to live again! Ya know?</t>
-  </si>
-  <si>
-    <t>Flush Of Red</t>
-  </si>
-  <si>
-    <t>There, see?! A flush of red has returned to the cheeks.</t>
-  </si>
-  <si>
-    <t>Reckless Endeavour</t>
-  </si>
-  <si>
-    <t>It was one hell of a reckless endeavour just to get to you!</t>
-  </si>
-  <si>
-    <t>Truth Syrup</t>
-  </si>
-  <si>
-    <t>It also has magnificent healing powers.</t>
-  </si>
-  <si>
-    <t>Reapers Shadow</t>
-  </si>
-  <si>
-    <t>See that?! the shadow of the reaper has come for you child!</t>
-  </si>
-  <si>
-    <t>Web of Lies and Truth</t>
-  </si>
-  <si>
-    <t>Rip them apart in your web child! Rip them apart!</t>
-  </si>
-  <si>
-    <t>Fearful Shade</t>
-  </si>
-  <si>
-    <t>Conjure a shade from the depths of the creatures heart! A shade of their darkest fear.</t>
-  </si>
-  <si>
-    <t>Buckets of Blood</t>
-  </si>
-  <si>
-    <t>Let it rain buckets of blood upon the land until thy enemy drowns in it!</t>
-  </si>
-  <si>
-    <t>Mirror Of Truth</t>
-  </si>
-  <si>
-    <t>Look with in the mirror and see the balanced reflection of your own fears upon your face.</t>
-  </si>
-  <si>
-    <t>Paladins Crest</t>
-  </si>
-  <si>
-    <t>With this, your strength will be unbound and untested.</t>
-  </si>
-  <si>
-    <t>Mechanical Bolt</t>
-  </si>
-  <si>
-    <t>It's small for it's shape and made of clock work engineering. Yet it's just a bolt.</t>
-  </si>
-  <si>
-    <t>Vampric Scythe</t>
-  </si>
-  <si>
-    <t>An old vampric scythe. Great for stealing the hearts of enemies.</t>
-  </si>
-  <si>
-    <t>Wizards Crown</t>
-  </si>
-  <si>
-    <t>Won by a wizard king, this crown bestows magic upon the wearer.</t>
-  </si>
-  <si>
-    <t>Arch Deacons Bone</t>
-  </si>
-  <si>
-    <t>The holy bone of a Arch Deacon</t>
-  </si>
-  <si>
-    <t>Litches Eye</t>
-  </si>
-  <si>
-    <t>Never let the enemy see you, but always see them.</t>
-  </si>
-  <si>
-    <t>Slippers Of The Angel</t>
-  </si>
-  <si>
-    <t>With these in hand, you never be hit. I promise you.</t>
-  </si>
-  <si>
-    <t>Astral Talisman of Treasure</t>
-  </si>
-  <si>
-    <t>Comes from the Astral Plane and is imbued with properties to help find treasure.</t>
-  </si>
-  <si>
-    <t>Antique Hammer</t>
-  </si>
-  <si>
-    <t>Who said old things could not help to create better weapons?</t>
-  </si>
-  <si>
-    <t>Armour Smiths Fire</t>
-  </si>
-  <si>
-    <t>The fire of the armour smith is what helps with the crafting of new items.</t>
-  </si>
-  <si>
-    <t>Magicians Tarot</t>
-  </si>
-  <si>
-    <t>Let these tarot cards give you the ideas you need to create new spells.</t>
-  </si>
-  <si>
-    <t>Ring Bearers Pillow</t>
-  </si>
-  <si>
-    <t>Maybe this pillow with two rings on it will help you craft new and powerful rings?</t>
-  </si>
-  <si>
-    <t>Spiteful Dust Pan</t>
-  </si>
-  <si>
-    <t>A dustpan full of spite, but you might be able to use in your hunt for artifacts.</t>
-  </si>
-  <si>
-    <t>Astral Quill</t>
-  </si>
-  <si>
-    <t>A simple quill from the Astral plane that helps you to craft new enchantments.</t>
-  </si>
-  <si>
-    <t>Key To The Labyrinth</t>
-  </si>
-  <si>
-    <t>Allows access to the Labyrinth plane. What new and exciting adventures await you down there?</t>
-  </si>
-  <si>
-    <t>labyrinth</t>
+    <t>Dragons Tongue</t>
+  </si>
+  <si>
+    <t>Pact For Accuracy</t>
   </si>
 </sst>
 </file>
@@ -2420,7 +2462,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA409"/>
+  <dimension ref="A1:AA535"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -10044,6 +10086,9 @@
       <c r="F194" t="s">
         <v>437</v>
       </c>
+      <c r="G194" t="s">
+        <v>44</v>
+      </c>
       <c r="J194">
         <v>250</v>
       </c>
@@ -17154,6 +17199,9 @@
       <c r="F356" t="s">
         <v>581</v>
       </c>
+      <c r="G356" t="s">
+        <v>31</v>
+      </c>
       <c r="J356">
         <v>480</v>
       </c>
@@ -17559,6 +17607,9 @@
       <c r="F365" t="s">
         <v>599</v>
       </c>
+      <c r="G365" t="s">
+        <v>38</v>
+      </c>
       <c r="J365">
         <v>400</v>
       </c>
@@ -17885,6 +17936,9 @@
       <c r="F372" t="s">
         <v>613</v>
       </c>
+      <c r="G372" t="s">
+        <v>44</v>
+      </c>
       <c r="J372">
         <v>380</v>
       </c>
@@ -17976,6 +18030,9 @@
       <c r="F374" t="s">
         <v>617</v>
       </c>
+      <c r="G374" t="s">
+        <v>47</v>
+      </c>
       <c r="J374">
         <v>350</v>
       </c>
@@ -18114,6 +18171,9 @@
       <c r="F377" t="s">
         <v>623</v>
       </c>
+      <c r="G377" t="s">
+        <v>47</v>
+      </c>
       <c r="J377">
         <v>400</v>
       </c>
@@ -18299,6 +18359,9 @@
       <c r="F381" t="s">
         <v>631</v>
       </c>
+      <c r="G381" t="s">
+        <v>50</v>
+      </c>
       <c r="J381">
         <v>300</v>
       </c>
@@ -19206,6 +19269,6003 @@
       </c>
       <c r="T409" t="s">
         <v>688</v>
+      </c>
+    </row>
+    <row r="410" spans="1:27">
+      <c r="A410" t="s">
+        <v>689</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410" t="s">
+        <v>182</v>
+      </c>
+      <c r="E410" t="s">
+        <v>31</v>
+      </c>
+      <c r="F410" t="s">
+        <v>183</v>
+      </c>
+      <c r="G410" t="s">
+        <v>31</v>
+      </c>
+      <c r="J410">
+        <v>150</v>
+      </c>
+      <c r="K410">
+        <v>23600</v>
+      </c>
+      <c r="O410">
+        <v>0.33</v>
+      </c>
+      <c r="P410">
+        <v>0.33</v>
+      </c>
+      <c r="Q410">
+        <v>0.33</v>
+      </c>
+      <c r="R410">
+        <v>0.33</v>
+      </c>
+      <c r="S410">
+        <v>0.33</v>
+      </c>
+      <c r="U410">
+        <v>1</v>
+      </c>
+      <c r="V410">
+        <v>40</v>
+      </c>
+      <c r="W410">
+        <v>75</v>
+      </c>
+      <c r="X410" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="411" spans="1:27">
+      <c r="B411" t="s">
+        <v>557</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411" t="s">
+        <v>266</v>
+      </c>
+      <c r="E411" t="s">
+        <v>44</v>
+      </c>
+      <c r="F411" t="s">
+        <v>267</v>
+      </c>
+      <c r="J411">
+        <v>200</v>
+      </c>
+      <c r="K411">
+        <v>760000</v>
+      </c>
+      <c r="O411">
+        <v>0.23</v>
+      </c>
+      <c r="P411">
+        <v>0.23</v>
+      </c>
+      <c r="Q411">
+        <v>0.23</v>
+      </c>
+      <c r="R411">
+        <v>0.23</v>
+      </c>
+      <c r="S411">
+        <v>0.23</v>
+      </c>
+      <c r="U411">
+        <v>1</v>
+      </c>
+      <c r="V411">
+        <v>70</v>
+      </c>
+      <c r="W411">
+        <v>130</v>
+      </c>
+      <c r="X411" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="412" spans="1:27">
+      <c r="D412" t="s">
+        <v>234</v>
+      </c>
+      <c r="E412" t="s">
+        <v>41</v>
+      </c>
+      <c r="F412" t="s">
+        <v>235</v>
+      </c>
+      <c r="G412" t="s">
+        <v>41</v>
+      </c>
+      <c r="J412">
+        <v>150</v>
+      </c>
+      <c r="K412">
+        <v>370000</v>
+      </c>
+      <c r="O412">
+        <v>0.18</v>
+      </c>
+      <c r="P412">
+        <v>0.18</v>
+      </c>
+      <c r="Q412">
+        <v>0.18</v>
+      </c>
+      <c r="R412">
+        <v>0.18</v>
+      </c>
+      <c r="S412">
+        <v>0.18</v>
+      </c>
+      <c r="U412">
+        <v>1</v>
+      </c>
+      <c r="V412">
+        <v>55</v>
+      </c>
+      <c r="W412">
+        <v>110</v>
+      </c>
+      <c r="X412" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="413" spans="1:27">
+      <c r="D413" t="s">
+        <v>690</v>
+      </c>
+      <c r="E413" t="s">
+        <v>44</v>
+      </c>
+      <c r="F413" t="s">
+        <v>267</v>
+      </c>
+      <c r="J413">
+        <v>200</v>
+      </c>
+      <c r="K413">
+        <v>760000</v>
+      </c>
+      <c r="O413">
+        <v>0.23</v>
+      </c>
+      <c r="P413">
+        <v>0.23</v>
+      </c>
+      <c r="Q413">
+        <v>0.23</v>
+      </c>
+      <c r="R413">
+        <v>0.23</v>
+      </c>
+      <c r="S413">
+        <v>0.23</v>
+      </c>
+      <c r="U413">
+        <v>1</v>
+      </c>
+      <c r="V413">
+        <v>70</v>
+      </c>
+      <c r="W413">
+        <v>130</v>
+      </c>
+      <c r="X413" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="414" spans="1:27">
+      <c r="A414" t="s">
+        <v>562</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414" t="s">
+        <v>144</v>
+      </c>
+      <c r="E414" t="s">
+        <v>47</v>
+      </c>
+      <c r="F414" t="s">
+        <v>145</v>
+      </c>
+      <c r="G414" t="s">
+        <v>47</v>
+      </c>
+      <c r="J414">
+        <v>45</v>
+      </c>
+      <c r="K414">
+        <v>2250</v>
+      </c>
+      <c r="O414">
+        <v>0.08</v>
+      </c>
+      <c r="P414">
+        <v>0.08</v>
+      </c>
+      <c r="Q414">
+        <v>0.08</v>
+      </c>
+      <c r="R414">
+        <v>0.08</v>
+      </c>
+      <c r="S414">
+        <v>0.08</v>
+      </c>
+      <c r="U414">
+        <v>1</v>
+      </c>
+      <c r="V414">
+        <v>28</v>
+      </c>
+      <c r="W414">
+        <v>50</v>
+      </c>
+      <c r="X414" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="415" spans="1:27">
+      <c r="B415" t="s">
+        <v>538</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415" t="s">
+        <v>52</v>
+      </c>
+      <c r="E415" t="s">
+        <v>28</v>
+      </c>
+      <c r="F415" t="s">
+        <v>53</v>
+      </c>
+      <c r="H415">
+        <v>8</v>
+      </c>
+      <c r="K415">
+        <v>50</v>
+      </c>
+      <c r="O415">
+        <v>0.05</v>
+      </c>
+      <c r="P415">
+        <v>0.05</v>
+      </c>
+      <c r="Q415">
+        <v>0.05</v>
+      </c>
+      <c r="R415">
+        <v>0.05</v>
+      </c>
+      <c r="S415">
+        <v>0.05</v>
+      </c>
+      <c r="U415">
+        <v>1</v>
+      </c>
+      <c r="V415">
+        <v>3</v>
+      </c>
+      <c r="W415">
+        <v>8</v>
+      </c>
+      <c r="X415" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="416" spans="1:27">
+      <c r="A416" t="s">
+        <v>540</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416" t="s">
+        <v>236</v>
+      </c>
+      <c r="E416" t="s">
+        <v>47</v>
+      </c>
+      <c r="F416" t="s">
+        <v>237</v>
+      </c>
+      <c r="G416" t="s">
+        <v>47</v>
+      </c>
+      <c r="J416">
+        <v>150</v>
+      </c>
+      <c r="K416">
+        <v>378000</v>
+      </c>
+      <c r="O416">
+        <v>0.18</v>
+      </c>
+      <c r="P416">
+        <v>0.18</v>
+      </c>
+      <c r="Q416">
+        <v>0.18</v>
+      </c>
+      <c r="R416">
+        <v>0.18</v>
+      </c>
+      <c r="S416">
+        <v>0.18</v>
+      </c>
+      <c r="U416">
+        <v>1</v>
+      </c>
+      <c r="V416">
+        <v>55</v>
+      </c>
+      <c r="W416">
+        <v>110</v>
+      </c>
+      <c r="X416" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="417" spans="1:27">
+      <c r="B417" t="s">
+        <v>554</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417" t="s">
+        <v>164</v>
+      </c>
+      <c r="E417" t="s">
+        <v>28</v>
+      </c>
+      <c r="F417" t="s">
+        <v>165</v>
+      </c>
+      <c r="H417">
+        <v>190</v>
+      </c>
+      <c r="K417">
+        <v>12000</v>
+      </c>
+      <c r="O417">
+        <v>0.25</v>
+      </c>
+      <c r="P417">
+        <v>0.25</v>
+      </c>
+      <c r="Q417">
+        <v>0.25</v>
+      </c>
+      <c r="R417">
+        <v>0.25</v>
+      </c>
+      <c r="S417">
+        <v>0.25</v>
+      </c>
+      <c r="U417">
+        <v>1</v>
+      </c>
+      <c r="V417">
+        <v>36</v>
+      </c>
+      <c r="W417">
+        <v>70</v>
+      </c>
+      <c r="X417" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="418" spans="1:27">
+      <c r="A418" t="s">
+        <v>561</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+      <c r="D418" t="s">
+        <v>301</v>
+      </c>
+      <c r="E418" t="s">
+        <v>273</v>
+      </c>
+      <c r="F418" t="s">
+        <v>302</v>
+      </c>
+      <c r="H418">
+        <v>90</v>
+      </c>
+      <c r="K418">
+        <v>750000</v>
+      </c>
+      <c r="L418">
+        <v>0.29</v>
+      </c>
+      <c r="M418">
+        <v>0.29</v>
+      </c>
+      <c r="N418">
+        <v>0.29</v>
+      </c>
+      <c r="U418">
+        <v>1</v>
+      </c>
+      <c r="V418">
+        <v>60</v>
+      </c>
+      <c r="W418">
+        <v>130</v>
+      </c>
+      <c r="X418" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="419" spans="1:27">
+      <c r="B419" t="s">
+        <v>555</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419" t="s">
+        <v>220</v>
+      </c>
+      <c r="E419" t="s">
+        <v>44</v>
+      </c>
+      <c r="F419" t="s">
+        <v>221</v>
+      </c>
+      <c r="G419" t="s">
+        <v>44</v>
+      </c>
+      <c r="J419">
+        <v>130</v>
+      </c>
+      <c r="K419">
+        <v>78000</v>
+      </c>
+      <c r="O419">
+        <v>0.16</v>
+      </c>
+      <c r="P419">
+        <v>0.16</v>
+      </c>
+      <c r="Q419">
+        <v>0.16</v>
+      </c>
+      <c r="R419">
+        <v>0.16</v>
+      </c>
+      <c r="S419">
+        <v>0.16</v>
+      </c>
+      <c r="U419">
+        <v>1</v>
+      </c>
+      <c r="V419">
+        <v>50</v>
+      </c>
+      <c r="W419">
+        <v>100</v>
+      </c>
+      <c r="X419" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="420" spans="1:27">
+      <c r="B420" t="s">
+        <v>546</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420" t="s">
+        <v>120</v>
+      </c>
+      <c r="E420" t="s">
+        <v>35</v>
+      </c>
+      <c r="F420" t="s">
+        <v>121</v>
+      </c>
+      <c r="J420">
+        <v>30</v>
+      </c>
+      <c r="K420">
+        <v>1750</v>
+      </c>
+      <c r="O420">
+        <v>0.09</v>
+      </c>
+      <c r="P420">
+        <v>0.09</v>
+      </c>
+      <c r="Q420">
+        <v>0.09</v>
+      </c>
+      <c r="R420">
+        <v>0.09</v>
+      </c>
+      <c r="S420">
+        <v>0.09</v>
+      </c>
+      <c r="U420">
+        <v>1</v>
+      </c>
+      <c r="V420">
+        <v>24</v>
+      </c>
+      <c r="W420">
+        <v>40</v>
+      </c>
+      <c r="X420" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="421" spans="1:27">
+      <c r="B421" t="s">
+        <v>557</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421" t="s">
+        <v>222</v>
+      </c>
+      <c r="E421" t="s">
+        <v>47</v>
+      </c>
+      <c r="F421" t="s">
+        <v>223</v>
+      </c>
+      <c r="G421" t="s">
+        <v>47</v>
+      </c>
+      <c r="J421">
+        <v>130</v>
+      </c>
+      <c r="K421">
+        <v>73000</v>
+      </c>
+      <c r="O421">
+        <v>0.16</v>
+      </c>
+      <c r="P421">
+        <v>0.16</v>
+      </c>
+      <c r="Q421">
+        <v>0.16</v>
+      </c>
+      <c r="R421">
+        <v>0.16</v>
+      </c>
+      <c r="S421">
+        <v>0.16</v>
+      </c>
+      <c r="U421">
+        <v>1</v>
+      </c>
+      <c r="V421">
+        <v>50</v>
+      </c>
+      <c r="W421">
+        <v>100</v>
+      </c>
+      <c r="X421" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="422" spans="1:27">
+      <c r="B422" t="s">
+        <v>554</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422" t="s">
+        <v>150</v>
+      </c>
+      <c r="E422" t="s">
+        <v>31</v>
+      </c>
+      <c r="F422" t="s">
+        <v>151</v>
+      </c>
+      <c r="G422" t="s">
+        <v>31</v>
+      </c>
+      <c r="J422">
+        <v>100</v>
+      </c>
+      <c r="K422">
+        <v>5750</v>
+      </c>
+      <c r="O422">
+        <v>0.28</v>
+      </c>
+      <c r="P422">
+        <v>0.28</v>
+      </c>
+      <c r="Q422">
+        <v>0.28</v>
+      </c>
+      <c r="R422">
+        <v>0.28</v>
+      </c>
+      <c r="S422">
+        <v>0.28</v>
+      </c>
+      <c r="U422">
+        <v>1</v>
+      </c>
+      <c r="V422">
+        <v>28</v>
+      </c>
+      <c r="W422">
+        <v>50</v>
+      </c>
+      <c r="X422" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="423" spans="1:27">
+      <c r="B423" t="s">
+        <v>546</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+      <c r="D423" t="s">
+        <v>70</v>
+      </c>
+      <c r="E423" t="s">
+        <v>31</v>
+      </c>
+      <c r="F423" t="s">
+        <v>71</v>
+      </c>
+      <c r="G423" t="s">
+        <v>31</v>
+      </c>
+      <c r="J423">
+        <v>10</v>
+      </c>
+      <c r="K423">
+        <v>160</v>
+      </c>
+      <c r="O423">
+        <v>0.1</v>
+      </c>
+      <c r="P423">
+        <v>0.1</v>
+      </c>
+      <c r="Q423">
+        <v>0.1</v>
+      </c>
+      <c r="R423">
+        <v>0.1</v>
+      </c>
+      <c r="S423">
+        <v>0.1</v>
+      </c>
+      <c r="U423">
+        <v>1</v>
+      </c>
+      <c r="V423">
+        <v>6</v>
+      </c>
+      <c r="W423">
+        <v>12</v>
+      </c>
+      <c r="X423" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="424" spans="1:27">
+      <c r="A424" t="s">
+        <v>543</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+      <c r="D424" t="s">
+        <v>323</v>
+      </c>
+      <c r="E424" t="s">
+        <v>306</v>
+      </c>
+      <c r="F424" t="s">
+        <v>324</v>
+      </c>
+      <c r="H424">
+        <v>85</v>
+      </c>
+      <c r="K424">
+        <v>18000</v>
+      </c>
+      <c r="U424">
+        <v>1</v>
+      </c>
+      <c r="V424">
+        <v>36</v>
+      </c>
+      <c r="W424">
+        <v>70</v>
+      </c>
+      <c r="X424" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="425" spans="1:27">
+      <c r="A425" t="s">
+        <v>548</v>
+      </c>
+      <c r="B425" t="s">
+        <v>546</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425" t="s">
+        <v>356</v>
+      </c>
+      <c r="E425" t="s">
+        <v>340</v>
+      </c>
+      <c r="F425" t="s">
+        <v>357</v>
+      </c>
+      <c r="I425">
+        <v>160</v>
+      </c>
+      <c r="K425">
+        <v>13876</v>
+      </c>
+      <c r="U425">
+        <v>1</v>
+      </c>
+      <c r="V425">
+        <v>36</v>
+      </c>
+      <c r="W425">
+        <v>70</v>
+      </c>
+      <c r="X425" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="426" spans="1:27">
+      <c r="B426" t="s">
+        <v>547</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+      <c r="D426" t="s">
+        <v>309</v>
+      </c>
+      <c r="E426" t="s">
+        <v>306</v>
+      </c>
+      <c r="F426" t="s">
+        <v>310</v>
+      </c>
+      <c r="H426">
+        <v>10</v>
+      </c>
+      <c r="K426">
+        <v>50</v>
+      </c>
+      <c r="U426">
+        <v>1</v>
+      </c>
+      <c r="V426">
+        <v>3</v>
+      </c>
+      <c r="W426">
+        <v>8</v>
+      </c>
+      <c r="X426" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="427" spans="1:27">
+      <c r="A427" t="s">
+        <v>549</v>
+      </c>
+      <c r="B427" t="s">
+        <v>564</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427" t="s">
+        <v>27</v>
+      </c>
+      <c r="E427" t="s">
+        <v>28</v>
+      </c>
+      <c r="F427" t="s">
+        <v>29</v>
+      </c>
+      <c r="H427">
+        <v>4</v>
+      </c>
+      <c r="K427">
+        <v>10</v>
+      </c>
+      <c r="U427">
+        <v>1</v>
+      </c>
+      <c r="V427">
+        <v>1</v>
+      </c>
+      <c r="W427">
+        <v>5</v>
+      </c>
+      <c r="X427" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="428" spans="1:27">
+      <c r="A428" t="s">
+        <v>550</v>
+      </c>
+      <c r="B428" t="s">
+        <v>555</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428" t="s">
+        <v>52</v>
+      </c>
+      <c r="E428" t="s">
+        <v>28</v>
+      </c>
+      <c r="F428" t="s">
+        <v>53</v>
+      </c>
+      <c r="H428">
+        <v>8</v>
+      </c>
+      <c r="K428">
+        <v>50</v>
+      </c>
+      <c r="O428">
+        <v>0.05</v>
+      </c>
+      <c r="P428">
+        <v>0.05</v>
+      </c>
+      <c r="Q428">
+        <v>0.05</v>
+      </c>
+      <c r="R428">
+        <v>0.05</v>
+      </c>
+      <c r="S428">
+        <v>0.05</v>
+      </c>
+      <c r="U428">
+        <v>1</v>
+      </c>
+      <c r="V428">
+        <v>3</v>
+      </c>
+      <c r="W428">
+        <v>8</v>
+      </c>
+      <c r="X428" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="429" spans="1:27">
+      <c r="A429" t="s">
+        <v>549</v>
+      </c>
+      <c r="B429" t="s">
+        <v>557</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429" t="s">
+        <v>30</v>
+      </c>
+      <c r="E429" t="s">
+        <v>31</v>
+      </c>
+      <c r="F429" t="s">
+        <v>32</v>
+      </c>
+      <c r="G429" t="s">
+        <v>31</v>
+      </c>
+      <c r="J429">
+        <v>4</v>
+      </c>
+      <c r="K429">
+        <v>10</v>
+      </c>
+      <c r="U429">
+        <v>1</v>
+      </c>
+      <c r="V429">
+        <v>1</v>
+      </c>
+      <c r="W429">
+        <v>5</v>
+      </c>
+      <c r="X429" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="430" spans="1:27">
+      <c r="B430" t="s">
+        <v>538</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430" t="s">
+        <v>196</v>
+      </c>
+      <c r="E430" t="s">
+        <v>28</v>
+      </c>
+      <c r="F430" t="s">
+        <v>197</v>
+      </c>
+      <c r="H430">
+        <v>250</v>
+      </c>
+      <c r="K430">
+        <v>50000</v>
+      </c>
+      <c r="O430">
+        <v>0.27</v>
+      </c>
+      <c r="P430">
+        <v>0.27</v>
+      </c>
+      <c r="Q430">
+        <v>0.27</v>
+      </c>
+      <c r="R430">
+        <v>0.27</v>
+      </c>
+      <c r="S430">
+        <v>0.27</v>
+      </c>
+      <c r="U430">
+        <v>1</v>
+      </c>
+      <c r="V430">
+        <v>43</v>
+      </c>
+      <c r="W430">
+        <v>78</v>
+      </c>
+      <c r="X430" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="431" spans="1:27">
+      <c r="A431" t="s">
+        <v>540</v>
+      </c>
+      <c r="B431" t="s">
+        <v>565</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431" t="s">
+        <v>64</v>
+      </c>
+      <c r="E431" t="s">
+        <v>47</v>
+      </c>
+      <c r="F431" t="s">
+        <v>65</v>
+      </c>
+      <c r="G431" t="s">
+        <v>47</v>
+      </c>
+      <c r="J431">
+        <v>3</v>
+      </c>
+      <c r="K431">
+        <v>55</v>
+      </c>
+      <c r="U431">
+        <v>1</v>
+      </c>
+      <c r="V431">
+        <v>3</v>
+      </c>
+      <c r="W431">
+        <v>8</v>
+      </c>
+      <c r="X431" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="432" spans="1:27">
+      <c r="B432" t="s">
+        <v>545</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432" t="s">
+        <v>52</v>
+      </c>
+      <c r="E432" t="s">
+        <v>28</v>
+      </c>
+      <c r="F432" t="s">
+        <v>53</v>
+      </c>
+      <c r="H432">
+        <v>8</v>
+      </c>
+      <c r="K432">
+        <v>50</v>
+      </c>
+      <c r="O432">
+        <v>0.05</v>
+      </c>
+      <c r="P432">
+        <v>0.05</v>
+      </c>
+      <c r="Q432">
+        <v>0.05</v>
+      </c>
+      <c r="R432">
+        <v>0.05</v>
+      </c>
+      <c r="S432">
+        <v>0.05</v>
+      </c>
+      <c r="U432">
+        <v>1</v>
+      </c>
+      <c r="V432">
+        <v>3</v>
+      </c>
+      <c r="W432">
+        <v>8</v>
+      </c>
+      <c r="X432" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="433" spans="1:27">
+      <c r="A433" t="s">
+        <v>561</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433" t="s">
+        <v>186</v>
+      </c>
+      <c r="E433" t="s">
+        <v>38</v>
+      </c>
+      <c r="F433" t="s">
+        <v>187</v>
+      </c>
+      <c r="G433" t="s">
+        <v>38</v>
+      </c>
+      <c r="J433">
+        <v>90</v>
+      </c>
+      <c r="K433">
+        <v>18000</v>
+      </c>
+      <c r="O433">
+        <v>0.14</v>
+      </c>
+      <c r="P433">
+        <v>0.14</v>
+      </c>
+      <c r="Q433">
+        <v>0.14</v>
+      </c>
+      <c r="R433">
+        <v>0.14</v>
+      </c>
+      <c r="S433">
+        <v>0.14</v>
+      </c>
+      <c r="U433">
+        <v>1</v>
+      </c>
+      <c r="V433">
+        <v>40</v>
+      </c>
+      <c r="W433">
+        <v>75</v>
+      </c>
+      <c r="X433" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="434" spans="1:27">
+      <c r="A434" t="s">
+        <v>562</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434" t="s">
+        <v>88</v>
+      </c>
+      <c r="E434" t="s">
+        <v>35</v>
+      </c>
+      <c r="F434" t="s">
+        <v>89</v>
+      </c>
+      <c r="J434">
+        <v>10</v>
+      </c>
+      <c r="K434">
+        <v>280</v>
+      </c>
+      <c r="O434">
+        <v>0.06</v>
+      </c>
+      <c r="P434">
+        <v>0.06</v>
+      </c>
+      <c r="Q434">
+        <v>0.06</v>
+      </c>
+      <c r="R434">
+        <v>0.06</v>
+      </c>
+      <c r="S434">
+        <v>0.06</v>
+      </c>
+      <c r="U434">
+        <v>1</v>
+      </c>
+      <c r="V434">
+        <v>10</v>
+      </c>
+      <c r="W434">
+        <v>20</v>
+      </c>
+      <c r="X434" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="435" spans="1:27">
+      <c r="B435" t="s">
+        <v>542</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435" t="s">
+        <v>70</v>
+      </c>
+      <c r="E435" t="s">
+        <v>31</v>
+      </c>
+      <c r="F435" t="s">
+        <v>71</v>
+      </c>
+      <c r="G435" t="s">
+        <v>31</v>
+      </c>
+      <c r="J435">
+        <v>10</v>
+      </c>
+      <c r="K435">
+        <v>160</v>
+      </c>
+      <c r="O435">
+        <v>0.1</v>
+      </c>
+      <c r="P435">
+        <v>0.1</v>
+      </c>
+      <c r="Q435">
+        <v>0.1</v>
+      </c>
+      <c r="R435">
+        <v>0.1</v>
+      </c>
+      <c r="S435">
+        <v>0.1</v>
+      </c>
+      <c r="U435">
+        <v>1</v>
+      </c>
+      <c r="V435">
+        <v>6</v>
+      </c>
+      <c r="W435">
+        <v>12</v>
+      </c>
+      <c r="X435" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="436" spans="1:27">
+      <c r="B436" t="s">
+        <v>541</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436" t="s">
+        <v>329</v>
+      </c>
+      <c r="E436" t="s">
+        <v>306</v>
+      </c>
+      <c r="F436" t="s">
+        <v>330</v>
+      </c>
+      <c r="H436">
+        <v>140</v>
+      </c>
+      <c r="K436">
+        <v>76000</v>
+      </c>
+      <c r="U436">
+        <v>1</v>
+      </c>
+      <c r="V436">
+        <v>46</v>
+      </c>
+      <c r="W436">
+        <v>90</v>
+      </c>
+      <c r="X436" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="437" spans="1:27">
+      <c r="A437" t="s">
+        <v>550</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437" t="s">
+        <v>228</v>
+      </c>
+      <c r="E437" t="s">
+        <v>31</v>
+      </c>
+      <c r="F437" t="s">
+        <v>229</v>
+      </c>
+      <c r="G437" t="s">
+        <v>31</v>
+      </c>
+      <c r="J437">
+        <v>230</v>
+      </c>
+      <c r="K437">
+        <v>450000</v>
+      </c>
+      <c r="O437">
+        <v>0.4</v>
+      </c>
+      <c r="P437">
+        <v>0.4</v>
+      </c>
+      <c r="Q437">
+        <v>0.4</v>
+      </c>
+      <c r="R437">
+        <v>0.4</v>
+      </c>
+      <c r="S437">
+        <v>0.4</v>
+      </c>
+      <c r="U437">
+        <v>1</v>
+      </c>
+      <c r="V437">
+        <v>55</v>
+      </c>
+      <c r="W437">
+        <v>110</v>
+      </c>
+      <c r="X437" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="438" spans="1:27">
+      <c r="A438" t="s">
+        <v>566</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438" t="s">
+        <v>299</v>
+      </c>
+      <c r="E438" t="s">
+        <v>273</v>
+      </c>
+      <c r="F438" t="s">
+        <v>300</v>
+      </c>
+      <c r="H438">
+        <v>80</v>
+      </c>
+      <c r="K438">
+        <v>346000</v>
+      </c>
+      <c r="L438">
+        <v>0.27</v>
+      </c>
+      <c r="M438">
+        <v>0.27</v>
+      </c>
+      <c r="N438">
+        <v>0.27</v>
+      </c>
+      <c r="U438">
+        <v>1</v>
+      </c>
+      <c r="V438">
+        <v>55</v>
+      </c>
+      <c r="W438">
+        <v>110</v>
+      </c>
+      <c r="X438" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="439" spans="1:27">
+      <c r="B439" t="s">
+        <v>559</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439" t="s">
+        <v>311</v>
+      </c>
+      <c r="E439" t="s">
+        <v>306</v>
+      </c>
+      <c r="F439" t="s">
+        <v>312</v>
+      </c>
+      <c r="H439">
+        <v>16</v>
+      </c>
+      <c r="K439">
+        <v>150</v>
+      </c>
+      <c r="U439">
+        <v>1</v>
+      </c>
+      <c r="V439">
+        <v>6</v>
+      </c>
+      <c r="W439">
+        <v>12</v>
+      </c>
+      <c r="X439" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="440" spans="1:27">
+      <c r="A440" t="s">
+        <v>550</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440" t="s">
+        <v>254</v>
+      </c>
+      <c r="E440" t="s">
+        <v>50</v>
+      </c>
+      <c r="F440" t="s">
+        <v>255</v>
+      </c>
+      <c r="G440" t="s">
+        <v>50</v>
+      </c>
+      <c r="J440">
+        <v>170</v>
+      </c>
+      <c r="K440">
+        <v>534000</v>
+      </c>
+      <c r="O440">
+        <v>0.2</v>
+      </c>
+      <c r="P440">
+        <v>0.2</v>
+      </c>
+      <c r="Q440">
+        <v>0.2</v>
+      </c>
+      <c r="R440">
+        <v>0.2</v>
+      </c>
+      <c r="S440">
+        <v>0.2</v>
+      </c>
+      <c r="U440">
+        <v>1</v>
+      </c>
+      <c r="V440">
+        <v>60</v>
+      </c>
+      <c r="W440">
+        <v>130</v>
+      </c>
+      <c r="X440" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="441" spans="1:27">
+      <c r="B441" t="s">
+        <v>551</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441" t="s">
+        <v>156</v>
+      </c>
+      <c r="E441" t="s">
+        <v>41</v>
+      </c>
+      <c r="F441" t="s">
+        <v>157</v>
+      </c>
+      <c r="G441" t="s">
+        <v>41</v>
+      </c>
+      <c r="J441">
+        <v>45</v>
+      </c>
+      <c r="K441">
+        <v>3800</v>
+      </c>
+      <c r="O441">
+        <v>0.1</v>
+      </c>
+      <c r="P441">
+        <v>0.1</v>
+      </c>
+      <c r="Q441">
+        <v>0.1</v>
+      </c>
+      <c r="R441">
+        <v>0.1</v>
+      </c>
+      <c r="S441">
+        <v>0.1</v>
+      </c>
+      <c r="U441">
+        <v>1</v>
+      </c>
+      <c r="V441">
+        <v>28</v>
+      </c>
+      <c r="W441">
+        <v>50</v>
+      </c>
+      <c r="X441" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="442" spans="1:27">
+      <c r="A442" t="s">
+        <v>563</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442" t="s">
+        <v>228</v>
+      </c>
+      <c r="E442" t="s">
+        <v>31</v>
+      </c>
+      <c r="F442" t="s">
+        <v>229</v>
+      </c>
+      <c r="G442" t="s">
+        <v>31</v>
+      </c>
+      <c r="J442">
+        <v>230</v>
+      </c>
+      <c r="K442">
+        <v>450000</v>
+      </c>
+      <c r="O442">
+        <v>0.4</v>
+      </c>
+      <c r="P442">
+        <v>0.4</v>
+      </c>
+      <c r="Q442">
+        <v>0.4</v>
+      </c>
+      <c r="R442">
+        <v>0.4</v>
+      </c>
+      <c r="S442">
+        <v>0.4</v>
+      </c>
+      <c r="U442">
+        <v>1</v>
+      </c>
+      <c r="V442">
+        <v>55</v>
+      </c>
+      <c r="W442">
+        <v>110</v>
+      </c>
+      <c r="X442" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="443" spans="1:27">
+      <c r="A443" t="s">
+        <v>543</v>
+      </c>
+      <c r="B443" t="s">
+        <v>555</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443" t="s">
+        <v>102</v>
+      </c>
+      <c r="E443" t="s">
+        <v>31</v>
+      </c>
+      <c r="F443" t="s">
+        <v>103</v>
+      </c>
+      <c r="G443" t="s">
+        <v>31</v>
+      </c>
+      <c r="J443">
+        <v>40</v>
+      </c>
+      <c r="K443">
+        <v>750</v>
+      </c>
+      <c r="O443">
+        <v>0.18</v>
+      </c>
+      <c r="P443">
+        <v>0.18</v>
+      </c>
+      <c r="Q443">
+        <v>0.18</v>
+      </c>
+      <c r="R443">
+        <v>0.18</v>
+      </c>
+      <c r="S443">
+        <v>0.18</v>
+      </c>
+      <c r="U443">
+        <v>1</v>
+      </c>
+      <c r="V443">
+        <v>18</v>
+      </c>
+      <c r="W443">
+        <v>36</v>
+      </c>
+      <c r="X443" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="444" spans="1:27">
+      <c r="A444" t="s">
+        <v>560</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444" t="s">
+        <v>146</v>
+      </c>
+      <c r="E444" t="s">
+        <v>50</v>
+      </c>
+      <c r="F444" t="s">
+        <v>147</v>
+      </c>
+      <c r="G444" t="s">
+        <v>50</v>
+      </c>
+      <c r="J444">
+        <v>45</v>
+      </c>
+      <c r="K444">
+        <v>2600</v>
+      </c>
+      <c r="L444">
+        <v>0</v>
+      </c>
+      <c r="O444">
+        <v>0.08</v>
+      </c>
+      <c r="P444">
+        <v>0.08</v>
+      </c>
+      <c r="Q444">
+        <v>0.08</v>
+      </c>
+      <c r="R444">
+        <v>0.08</v>
+      </c>
+      <c r="S444">
+        <v>0.08</v>
+      </c>
+      <c r="U444">
+        <v>1</v>
+      </c>
+      <c r="V444">
+        <v>28</v>
+      </c>
+      <c r="W444">
+        <v>50</v>
+      </c>
+      <c r="X444" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="445" spans="1:27">
+      <c r="A445" t="s">
+        <v>550</v>
+      </c>
+      <c r="B445" t="s">
+        <v>556</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+      <c r="D445" t="s">
+        <v>254</v>
+      </c>
+      <c r="E445" t="s">
+        <v>50</v>
+      </c>
+      <c r="F445" t="s">
+        <v>255</v>
+      </c>
+      <c r="G445" t="s">
+        <v>50</v>
+      </c>
+      <c r="J445">
+        <v>170</v>
+      </c>
+      <c r="K445">
+        <v>534000</v>
+      </c>
+      <c r="O445">
+        <v>0.2</v>
+      </c>
+      <c r="P445">
+        <v>0.2</v>
+      </c>
+      <c r="Q445">
+        <v>0.2</v>
+      </c>
+      <c r="R445">
+        <v>0.2</v>
+      </c>
+      <c r="S445">
+        <v>0.2</v>
+      </c>
+      <c r="U445">
+        <v>1</v>
+      </c>
+      <c r="V445">
+        <v>60</v>
+      </c>
+      <c r="W445">
+        <v>130</v>
+      </c>
+      <c r="X445" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="446" spans="1:27">
+      <c r="A446" t="s">
+        <v>549</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446" t="s">
+        <v>118</v>
+      </c>
+      <c r="E446" t="s">
+        <v>31</v>
+      </c>
+      <c r="F446" t="s">
+        <v>119</v>
+      </c>
+      <c r="G446" t="s">
+        <v>31</v>
+      </c>
+      <c r="J446">
+        <v>60</v>
+      </c>
+      <c r="K446">
+        <v>1760</v>
+      </c>
+      <c r="O446">
+        <v>0.2</v>
+      </c>
+      <c r="P446">
+        <v>0.2</v>
+      </c>
+      <c r="Q446">
+        <v>0.2</v>
+      </c>
+      <c r="R446">
+        <v>0.2</v>
+      </c>
+      <c r="S446">
+        <v>0.2</v>
+      </c>
+      <c r="U446">
+        <v>1</v>
+      </c>
+      <c r="V446">
+        <v>24</v>
+      </c>
+      <c r="W446">
+        <v>40</v>
+      </c>
+      <c r="X446" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="447" spans="1:27">
+      <c r="A447" t="s">
+        <v>563</v>
+      </c>
+      <c r="B447" t="s">
+        <v>551</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447" t="s">
+        <v>186</v>
+      </c>
+      <c r="E447" t="s">
+        <v>38</v>
+      </c>
+      <c r="F447" t="s">
+        <v>187</v>
+      </c>
+      <c r="G447" t="s">
+        <v>38</v>
+      </c>
+      <c r="J447">
+        <v>90</v>
+      </c>
+      <c r="K447">
+        <v>18000</v>
+      </c>
+      <c r="O447">
+        <v>0.14</v>
+      </c>
+      <c r="P447">
+        <v>0.14</v>
+      </c>
+      <c r="Q447">
+        <v>0.14</v>
+      </c>
+      <c r="R447">
+        <v>0.14</v>
+      </c>
+      <c r="S447">
+        <v>0.14</v>
+      </c>
+      <c r="U447">
+        <v>1</v>
+      </c>
+      <c r="V447">
+        <v>40</v>
+      </c>
+      <c r="W447">
+        <v>75</v>
+      </c>
+      <c r="X447" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="448" spans="1:27">
+      <c r="A448" t="s">
+        <v>550</v>
+      </c>
+      <c r="B448" t="s">
+        <v>565</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+      <c r="D448" t="s">
+        <v>52</v>
+      </c>
+      <c r="E448" t="s">
+        <v>28</v>
+      </c>
+      <c r="F448" t="s">
+        <v>53</v>
+      </c>
+      <c r="H448">
+        <v>8</v>
+      </c>
+      <c r="K448">
+        <v>50</v>
+      </c>
+      <c r="O448">
+        <v>0.05</v>
+      </c>
+      <c r="P448">
+        <v>0.05</v>
+      </c>
+      <c r="Q448">
+        <v>0.05</v>
+      </c>
+      <c r="R448">
+        <v>0.05</v>
+      </c>
+      <c r="S448">
+        <v>0.05</v>
+      </c>
+      <c r="U448">
+        <v>1</v>
+      </c>
+      <c r="V448">
+        <v>3</v>
+      </c>
+      <c r="W448">
+        <v>8</v>
+      </c>
+      <c r="X448" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="449" spans="1:27">
+      <c r="A449" t="s">
+        <v>562</v>
+      </c>
+      <c r="B449" t="s">
+        <v>557</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+      <c r="D449" t="s">
+        <v>144</v>
+      </c>
+      <c r="E449" t="s">
+        <v>47</v>
+      </c>
+      <c r="F449" t="s">
+        <v>145</v>
+      </c>
+      <c r="G449" t="s">
+        <v>47</v>
+      </c>
+      <c r="J449">
+        <v>45</v>
+      </c>
+      <c r="K449">
+        <v>2250</v>
+      </c>
+      <c r="O449">
+        <v>0.08</v>
+      </c>
+      <c r="P449">
+        <v>0.08</v>
+      </c>
+      <c r="Q449">
+        <v>0.08</v>
+      </c>
+      <c r="R449">
+        <v>0.08</v>
+      </c>
+      <c r="S449">
+        <v>0.08</v>
+      </c>
+      <c r="U449">
+        <v>1</v>
+      </c>
+      <c r="V449">
+        <v>28</v>
+      </c>
+      <c r="W449">
+        <v>50</v>
+      </c>
+      <c r="X449" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="450" spans="1:27">
+      <c r="B450" t="s">
+        <v>557</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450" t="s">
+        <v>352</v>
+      </c>
+      <c r="E450" t="s">
+        <v>340</v>
+      </c>
+      <c r="F450" t="s">
+        <v>353</v>
+      </c>
+      <c r="I450">
+        <v>130</v>
+      </c>
+      <c r="K450">
+        <v>3389</v>
+      </c>
+      <c r="U450">
+        <v>1</v>
+      </c>
+      <c r="V450">
+        <v>28</v>
+      </c>
+      <c r="W450">
+        <v>50</v>
+      </c>
+      <c r="X450" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="451" spans="1:27">
+      <c r="A451" t="s">
+        <v>540</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451" t="s">
+        <v>52</v>
+      </c>
+      <c r="E451" t="s">
+        <v>28</v>
+      </c>
+      <c r="F451" t="s">
+        <v>53</v>
+      </c>
+      <c r="H451">
+        <v>8</v>
+      </c>
+      <c r="K451">
+        <v>50</v>
+      </c>
+      <c r="O451">
+        <v>0.05</v>
+      </c>
+      <c r="P451">
+        <v>0.05</v>
+      </c>
+      <c r="Q451">
+        <v>0.05</v>
+      </c>
+      <c r="R451">
+        <v>0.05</v>
+      </c>
+      <c r="S451">
+        <v>0.05</v>
+      </c>
+      <c r="U451">
+        <v>1</v>
+      </c>
+      <c r="V451">
+        <v>3</v>
+      </c>
+      <c r="W451">
+        <v>8</v>
+      </c>
+      <c r="X451" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="452" spans="1:27">
+      <c r="B452" t="s">
+        <v>565</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452" t="s">
+        <v>80</v>
+      </c>
+      <c r="E452" t="s">
+        <v>47</v>
+      </c>
+      <c r="F452" t="s">
+        <v>81</v>
+      </c>
+      <c r="G452" t="s">
+        <v>47</v>
+      </c>
+      <c r="J452">
+        <v>5</v>
+      </c>
+      <c r="K452">
+        <v>120</v>
+      </c>
+      <c r="U452">
+        <v>1</v>
+      </c>
+      <c r="V452">
+        <v>6</v>
+      </c>
+      <c r="W452">
+        <v>12</v>
+      </c>
+      <c r="X452" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="453" spans="1:27">
+      <c r="A453" t="s">
+        <v>543</v>
+      </c>
+      <c r="B453" t="s">
+        <v>559</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453" t="s">
+        <v>366</v>
+      </c>
+      <c r="E453" t="s">
+        <v>340</v>
+      </c>
+      <c r="F453" t="s">
+        <v>367</v>
+      </c>
+      <c r="I453">
+        <v>260</v>
+      </c>
+      <c r="K453">
+        <v>320000</v>
+      </c>
+      <c r="U453">
+        <v>1</v>
+      </c>
+      <c r="V453">
+        <v>55</v>
+      </c>
+      <c r="W453">
+        <v>110</v>
+      </c>
+      <c r="X453" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="454" spans="1:27">
+      <c r="B454" t="s">
+        <v>542</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454" t="s">
+        <v>198</v>
+      </c>
+      <c r="E454" t="s">
+        <v>31</v>
+      </c>
+      <c r="F454" t="s">
+        <v>199</v>
+      </c>
+      <c r="G454" t="s">
+        <v>31</v>
+      </c>
+      <c r="J454">
+        <v>170</v>
+      </c>
+      <c r="K454">
+        <v>48000</v>
+      </c>
+      <c r="O454">
+        <v>0.33</v>
+      </c>
+      <c r="P454">
+        <v>0.33</v>
+      </c>
+      <c r="Q454">
+        <v>0.33</v>
+      </c>
+      <c r="R454">
+        <v>0.33</v>
+      </c>
+      <c r="S454">
+        <v>0.33</v>
+      </c>
+      <c r="U454">
+        <v>1</v>
+      </c>
+      <c r="V454">
+        <v>43</v>
+      </c>
+      <c r="W454">
+        <v>78</v>
+      </c>
+      <c r="X454" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="455" spans="1:27">
+      <c r="A455" t="s">
+        <v>561</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455" t="s">
+        <v>319</v>
+      </c>
+      <c r="E455" t="s">
+        <v>306</v>
+      </c>
+      <c r="F455" t="s">
+        <v>320</v>
+      </c>
+      <c r="H455">
+        <v>75</v>
+      </c>
+      <c r="K455">
+        <v>3300</v>
+      </c>
+      <c r="U455">
+        <v>1</v>
+      </c>
+      <c r="V455">
+        <v>28</v>
+      </c>
+      <c r="W455">
+        <v>50</v>
+      </c>
+      <c r="X455" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="456" spans="1:27">
+      <c r="A456" t="s">
+        <v>543</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456" t="s">
+        <v>313</v>
+      </c>
+      <c r="E456" t="s">
+        <v>306</v>
+      </c>
+      <c r="F456" t="s">
+        <v>314</v>
+      </c>
+      <c r="H456">
+        <v>32</v>
+      </c>
+      <c r="K456">
+        <v>380</v>
+      </c>
+      <c r="U456">
+        <v>1</v>
+      </c>
+      <c r="V456">
+        <v>10</v>
+      </c>
+      <c r="W456">
+        <v>20</v>
+      </c>
+      <c r="X456" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="457" spans="1:27">
+      <c r="A457" t="s">
+        <v>540</v>
+      </c>
+      <c r="B457" t="s">
+        <v>556</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457" t="s">
+        <v>240</v>
+      </c>
+      <c r="E457" t="s">
+        <v>28</v>
+      </c>
+      <c r="F457" t="s">
+        <v>241</v>
+      </c>
+      <c r="H457">
+        <v>380</v>
+      </c>
+      <c r="K457">
+        <v>750000</v>
+      </c>
+      <c r="O457">
+        <v>0.35</v>
+      </c>
+      <c r="P457">
+        <v>0.35</v>
+      </c>
+      <c r="Q457">
+        <v>0.35</v>
+      </c>
+      <c r="R457">
+        <v>0.35</v>
+      </c>
+      <c r="S457">
+        <v>0.35</v>
+      </c>
+      <c r="U457">
+        <v>1</v>
+      </c>
+      <c r="V457">
+        <v>60</v>
+      </c>
+      <c r="W457">
+        <v>130</v>
+      </c>
+      <c r="X457" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="458" spans="1:27">
+      <c r="B458" t="s">
+        <v>546</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458" t="s">
+        <v>30</v>
+      </c>
+      <c r="E458" t="s">
+        <v>31</v>
+      </c>
+      <c r="F458" t="s">
+        <v>32</v>
+      </c>
+      <c r="G458" t="s">
+        <v>31</v>
+      </c>
+      <c r="J458">
+        <v>4</v>
+      </c>
+      <c r="K458">
+        <v>10</v>
+      </c>
+      <c r="U458">
+        <v>1</v>
+      </c>
+      <c r="V458">
+        <v>1</v>
+      </c>
+      <c r="W458">
+        <v>5</v>
+      </c>
+      <c r="X458" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="459" spans="1:27">
+      <c r="A459" t="s">
+        <v>562</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459" t="s">
+        <v>305</v>
+      </c>
+      <c r="E459" t="s">
+        <v>306</v>
+      </c>
+      <c r="F459" t="s">
+        <v>307</v>
+      </c>
+      <c r="H459">
+        <v>5</v>
+      </c>
+      <c r="K459">
+        <v>10</v>
+      </c>
+      <c r="U459">
+        <v>1</v>
+      </c>
+      <c r="V459">
+        <v>1</v>
+      </c>
+      <c r="W459">
+        <v>5</v>
+      </c>
+      <c r="X459" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="460" spans="1:27">
+      <c r="B460" t="s">
+        <v>564</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+      <c r="D460" t="s">
+        <v>297</v>
+      </c>
+      <c r="E460" t="s">
+        <v>273</v>
+      </c>
+      <c r="F460" t="s">
+        <v>298</v>
+      </c>
+      <c r="H460">
+        <v>75</v>
+      </c>
+      <c r="K460">
+        <v>133000</v>
+      </c>
+      <c r="L460">
+        <v>0.25</v>
+      </c>
+      <c r="M460">
+        <v>0.25</v>
+      </c>
+      <c r="N460">
+        <v>0.25</v>
+      </c>
+      <c r="U460">
+        <v>1</v>
+      </c>
+      <c r="V460">
+        <v>50</v>
+      </c>
+      <c r="W460">
+        <v>100</v>
+      </c>
+      <c r="X460" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="461" spans="1:27">
+      <c r="B461" t="s">
+        <v>542</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="D461" t="s">
+        <v>120</v>
+      </c>
+      <c r="E461" t="s">
+        <v>35</v>
+      </c>
+      <c r="F461" t="s">
+        <v>121</v>
+      </c>
+      <c r="J461">
+        <v>30</v>
+      </c>
+      <c r="K461">
+        <v>1750</v>
+      </c>
+      <c r="O461">
+        <v>0.09</v>
+      </c>
+      <c r="P461">
+        <v>0.09</v>
+      </c>
+      <c r="Q461">
+        <v>0.09</v>
+      </c>
+      <c r="R461">
+        <v>0.09</v>
+      </c>
+      <c r="S461">
+        <v>0.09</v>
+      </c>
+      <c r="U461">
+        <v>1</v>
+      </c>
+      <c r="V461">
+        <v>24</v>
+      </c>
+      <c r="W461">
+        <v>40</v>
+      </c>
+      <c r="X461" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="462" spans="1:27">
+      <c r="A462" t="s">
+        <v>550</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462" t="s">
+        <v>198</v>
+      </c>
+      <c r="E462" t="s">
+        <v>31</v>
+      </c>
+      <c r="F462" t="s">
+        <v>199</v>
+      </c>
+      <c r="G462" t="s">
+        <v>31</v>
+      </c>
+      <c r="J462">
+        <v>170</v>
+      </c>
+      <c r="K462">
+        <v>48000</v>
+      </c>
+      <c r="O462">
+        <v>0.33</v>
+      </c>
+      <c r="P462">
+        <v>0.33</v>
+      </c>
+      <c r="Q462">
+        <v>0.33</v>
+      </c>
+      <c r="R462">
+        <v>0.33</v>
+      </c>
+      <c r="S462">
+        <v>0.33</v>
+      </c>
+      <c r="U462">
+        <v>1</v>
+      </c>
+      <c r="V462">
+        <v>43</v>
+      </c>
+      <c r="W462">
+        <v>78</v>
+      </c>
+      <c r="X462" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="463" spans="1:27">
+      <c r="A463" t="s">
+        <v>560</v>
+      </c>
+      <c r="B463" t="s">
+        <v>559</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463" t="s">
+        <v>366</v>
+      </c>
+      <c r="E463" t="s">
+        <v>340</v>
+      </c>
+      <c r="F463" t="s">
+        <v>367</v>
+      </c>
+      <c r="I463">
+        <v>260</v>
+      </c>
+      <c r="K463">
+        <v>320000</v>
+      </c>
+      <c r="U463">
+        <v>1</v>
+      </c>
+      <c r="V463">
+        <v>55</v>
+      </c>
+      <c r="W463">
+        <v>110</v>
+      </c>
+      <c r="X463" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="464" spans="1:27">
+      <c r="A464" t="s">
+        <v>540</v>
+      </c>
+      <c r="B464" t="s">
+        <v>554</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464" t="s">
+        <v>236</v>
+      </c>
+      <c r="E464" t="s">
+        <v>47</v>
+      </c>
+      <c r="F464" t="s">
+        <v>237</v>
+      </c>
+      <c r="G464" t="s">
+        <v>47</v>
+      </c>
+      <c r="J464">
+        <v>150</v>
+      </c>
+      <c r="K464">
+        <v>378000</v>
+      </c>
+      <c r="O464">
+        <v>0.18</v>
+      </c>
+      <c r="P464">
+        <v>0.18</v>
+      </c>
+      <c r="Q464">
+        <v>0.18</v>
+      </c>
+      <c r="R464">
+        <v>0.18</v>
+      </c>
+      <c r="S464">
+        <v>0.18</v>
+      </c>
+      <c r="U464">
+        <v>1</v>
+      </c>
+      <c r="V464">
+        <v>55</v>
+      </c>
+      <c r="W464">
+        <v>110</v>
+      </c>
+      <c r="X464" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="465" spans="1:27">
+      <c r="A465" t="s">
+        <v>550</v>
+      </c>
+      <c r="B465" t="s">
+        <v>559</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465" t="s">
+        <v>254</v>
+      </c>
+      <c r="E465" t="s">
+        <v>50</v>
+      </c>
+      <c r="F465" t="s">
+        <v>255</v>
+      </c>
+      <c r="G465" t="s">
+        <v>50</v>
+      </c>
+      <c r="J465">
+        <v>170</v>
+      </c>
+      <c r="K465">
+        <v>534000</v>
+      </c>
+      <c r="O465">
+        <v>0.2</v>
+      </c>
+      <c r="P465">
+        <v>0.2</v>
+      </c>
+      <c r="Q465">
+        <v>0.2</v>
+      </c>
+      <c r="R465">
+        <v>0.2</v>
+      </c>
+      <c r="S465">
+        <v>0.2</v>
+      </c>
+      <c r="U465">
+        <v>1</v>
+      </c>
+      <c r="V465">
+        <v>60</v>
+      </c>
+      <c r="W465">
+        <v>130</v>
+      </c>
+      <c r="X465" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="466" spans="1:27">
+      <c r="A466" t="s">
+        <v>561</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466" t="s">
+        <v>212</v>
+      </c>
+      <c r="E466" t="s">
+        <v>31</v>
+      </c>
+      <c r="F466" t="s">
+        <v>213</v>
+      </c>
+      <c r="G466" t="s">
+        <v>31</v>
+      </c>
+      <c r="J466">
+        <v>190</v>
+      </c>
+      <c r="K466">
+        <v>125000</v>
+      </c>
+      <c r="O466">
+        <v>0.36</v>
+      </c>
+      <c r="P466">
+        <v>0.36</v>
+      </c>
+      <c r="Q466">
+        <v>0.36</v>
+      </c>
+      <c r="R466">
+        <v>0.36</v>
+      </c>
+      <c r="S466">
+        <v>0.36</v>
+      </c>
+      <c r="U466">
+        <v>1</v>
+      </c>
+      <c r="V466">
+        <v>50</v>
+      </c>
+      <c r="W466">
+        <v>100</v>
+      </c>
+      <c r="X466" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="467" spans="1:27">
+      <c r="A467" t="s">
+        <v>550</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467" t="s">
+        <v>30</v>
+      </c>
+      <c r="E467" t="s">
+        <v>31</v>
+      </c>
+      <c r="F467" t="s">
+        <v>32</v>
+      </c>
+      <c r="G467" t="s">
+        <v>31</v>
+      </c>
+      <c r="J467">
+        <v>4</v>
+      </c>
+      <c r="K467">
+        <v>10</v>
+      </c>
+      <c r="U467">
+        <v>1</v>
+      </c>
+      <c r="V467">
+        <v>1</v>
+      </c>
+      <c r="W467">
+        <v>5</v>
+      </c>
+      <c r="X467" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="468" spans="1:27">
+      <c r="B468" t="s">
+        <v>556</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468" t="s">
+        <v>30</v>
+      </c>
+      <c r="E468" t="s">
+        <v>31</v>
+      </c>
+      <c r="F468" t="s">
+        <v>32</v>
+      </c>
+      <c r="G468" t="s">
+        <v>31</v>
+      </c>
+      <c r="J468">
+        <v>4</v>
+      </c>
+      <c r="K468">
+        <v>10</v>
+      </c>
+      <c r="U468">
+        <v>1</v>
+      </c>
+      <c r="V468">
+        <v>1</v>
+      </c>
+      <c r="W468">
+        <v>5</v>
+      </c>
+      <c r="X468" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="469" spans="1:27">
+      <c r="B469" t="s">
+        <v>554</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469" t="s">
+        <v>30</v>
+      </c>
+      <c r="E469" t="s">
+        <v>31</v>
+      </c>
+      <c r="F469" t="s">
+        <v>32</v>
+      </c>
+      <c r="G469" t="s">
+        <v>31</v>
+      </c>
+      <c r="J469">
+        <v>4</v>
+      </c>
+      <c r="K469">
+        <v>10</v>
+      </c>
+      <c r="U469">
+        <v>1</v>
+      </c>
+      <c r="V469">
+        <v>1</v>
+      </c>
+      <c r="W469">
+        <v>5</v>
+      </c>
+      <c r="X469" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="470" spans="1:27">
+      <c r="A470" t="s">
+        <v>550</v>
+      </c>
+      <c r="B470" t="s">
+        <v>555</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470" t="s">
+        <v>30</v>
+      </c>
+      <c r="E470" t="s">
+        <v>31</v>
+      </c>
+      <c r="F470" t="s">
+        <v>32</v>
+      </c>
+      <c r="G470" t="s">
+        <v>31</v>
+      </c>
+      <c r="J470">
+        <v>4</v>
+      </c>
+      <c r="K470">
+        <v>10</v>
+      </c>
+      <c r="U470">
+        <v>1</v>
+      </c>
+      <c r="V470">
+        <v>1</v>
+      </c>
+      <c r="W470">
+        <v>5</v>
+      </c>
+      <c r="X470" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="471" spans="1:27">
+      <c r="B471" t="s">
+        <v>559</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+      <c r="D471" t="s">
+        <v>309</v>
+      </c>
+      <c r="E471" t="s">
+        <v>306</v>
+      </c>
+      <c r="F471" t="s">
+        <v>310</v>
+      </c>
+      <c r="H471">
+        <v>10</v>
+      </c>
+      <c r="K471">
+        <v>50</v>
+      </c>
+      <c r="U471">
+        <v>1</v>
+      </c>
+      <c r="V471">
+        <v>3</v>
+      </c>
+      <c r="W471">
+        <v>8</v>
+      </c>
+      <c r="X471" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="472" spans="1:27">
+      <c r="A472" t="s">
+        <v>566</v>
+      </c>
+      <c r="B472" t="s">
+        <v>554</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472" t="s">
+        <v>303</v>
+      </c>
+      <c r="E472" t="s">
+        <v>273</v>
+      </c>
+      <c r="F472" t="s">
+        <v>304</v>
+      </c>
+      <c r="H472">
+        <v>100</v>
+      </c>
+      <c r="K472">
+        <v>1345000</v>
+      </c>
+      <c r="L472">
+        <v>0.3</v>
+      </c>
+      <c r="M472">
+        <v>0.3</v>
+      </c>
+      <c r="N472">
+        <v>0.3</v>
+      </c>
+      <c r="U472">
+        <v>1</v>
+      </c>
+      <c r="V472">
+        <v>70</v>
+      </c>
+      <c r="W472">
+        <v>180</v>
+      </c>
+      <c r="X472" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="473" spans="1:27">
+      <c r="A473" t="s">
+        <v>550</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473" t="s">
+        <v>305</v>
+      </c>
+      <c r="E473" t="s">
+        <v>306</v>
+      </c>
+      <c r="F473" t="s">
+        <v>307</v>
+      </c>
+      <c r="H473">
+        <v>5</v>
+      </c>
+      <c r="K473">
+        <v>10</v>
+      </c>
+      <c r="U473">
+        <v>1</v>
+      </c>
+      <c r="V473">
+        <v>1</v>
+      </c>
+      <c r="W473">
+        <v>5</v>
+      </c>
+      <c r="X473" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="474" spans="1:27">
+      <c r="B474" t="s">
+        <v>538</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474" t="s">
+        <v>40</v>
+      </c>
+      <c r="E474" t="s">
+        <v>41</v>
+      </c>
+      <c r="F474" t="s">
+        <v>42</v>
+      </c>
+      <c r="G474" t="s">
+        <v>41</v>
+      </c>
+      <c r="J474">
+        <v>1</v>
+      </c>
+      <c r="K474">
+        <v>5</v>
+      </c>
+      <c r="U474">
+        <v>1</v>
+      </c>
+      <c r="V474">
+        <v>1</v>
+      </c>
+      <c r="W474">
+        <v>5</v>
+      </c>
+      <c r="X474" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="475" spans="1:27">
+      <c r="B475" t="s">
+        <v>556</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475" t="s">
+        <v>70</v>
+      </c>
+      <c r="E475" t="s">
+        <v>31</v>
+      </c>
+      <c r="F475" t="s">
+        <v>71</v>
+      </c>
+      <c r="G475" t="s">
+        <v>31</v>
+      </c>
+      <c r="J475">
+        <v>10</v>
+      </c>
+      <c r="K475">
+        <v>160</v>
+      </c>
+      <c r="O475">
+        <v>0.1</v>
+      </c>
+      <c r="P475">
+        <v>0.1</v>
+      </c>
+      <c r="Q475">
+        <v>0.1</v>
+      </c>
+      <c r="R475">
+        <v>0.1</v>
+      </c>
+      <c r="S475">
+        <v>0.1</v>
+      </c>
+      <c r="U475">
+        <v>1</v>
+      </c>
+      <c r="V475">
+        <v>6</v>
+      </c>
+      <c r="W475">
+        <v>12</v>
+      </c>
+      <c r="X475" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="476" spans="1:27">
+      <c r="A476" t="s">
+        <v>560</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+      <c r="D476" t="s">
+        <v>154</v>
+      </c>
+      <c r="E476" t="s">
+        <v>38</v>
+      </c>
+      <c r="F476" t="s">
+        <v>155</v>
+      </c>
+      <c r="G476" t="s">
+        <v>38</v>
+      </c>
+      <c r="J476">
+        <v>52</v>
+      </c>
+      <c r="K476">
+        <v>3700</v>
+      </c>
+      <c r="O476">
+        <v>0.1</v>
+      </c>
+      <c r="P476">
+        <v>0.1</v>
+      </c>
+      <c r="Q476">
+        <v>0.1</v>
+      </c>
+      <c r="R476">
+        <v>0.1</v>
+      </c>
+      <c r="S476">
+        <v>0.1</v>
+      </c>
+      <c r="U476">
+        <v>1</v>
+      </c>
+      <c r="V476">
+        <v>28</v>
+      </c>
+      <c r="W476">
+        <v>50</v>
+      </c>
+      <c r="X476" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="477" spans="1:27">
+      <c r="B477" t="s">
+        <v>555</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477" t="s">
+        <v>285</v>
+      </c>
+      <c r="E477" t="s">
+        <v>273</v>
+      </c>
+      <c r="F477" t="s">
+        <v>286</v>
+      </c>
+      <c r="H477">
+        <v>35</v>
+      </c>
+      <c r="K477">
+        <v>3300</v>
+      </c>
+      <c r="L477">
+        <v>0.12</v>
+      </c>
+      <c r="M477">
+        <v>0.12</v>
+      </c>
+      <c r="N477">
+        <v>0.12</v>
+      </c>
+      <c r="U477">
+        <v>1</v>
+      </c>
+      <c r="V477">
+        <v>28</v>
+      </c>
+      <c r="W477">
+        <v>50</v>
+      </c>
+      <c r="X477" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="478" spans="1:27">
+      <c r="A478" t="s">
+        <v>561</v>
+      </c>
+      <c r="B478" t="s">
+        <v>691</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+      <c r="D478" t="s">
+        <v>186</v>
+      </c>
+      <c r="E478" t="s">
+        <v>38</v>
+      </c>
+      <c r="F478" t="s">
+        <v>187</v>
+      </c>
+      <c r="G478" t="s">
+        <v>38</v>
+      </c>
+      <c r="J478">
+        <v>90</v>
+      </c>
+      <c r="K478">
+        <v>18000</v>
+      </c>
+      <c r="O478">
+        <v>0.14</v>
+      </c>
+      <c r="P478">
+        <v>0.14</v>
+      </c>
+      <c r="Q478">
+        <v>0.14</v>
+      </c>
+      <c r="R478">
+        <v>0.14</v>
+      </c>
+      <c r="S478">
+        <v>0.14</v>
+      </c>
+      <c r="U478">
+        <v>1</v>
+      </c>
+      <c r="V478">
+        <v>40</v>
+      </c>
+      <c r="W478">
+        <v>75</v>
+      </c>
+      <c r="X478" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="479" spans="1:27">
+      <c r="B479" t="s">
+        <v>692</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479" t="s">
+        <v>132</v>
+      </c>
+      <c r="E479" t="s">
+        <v>28</v>
+      </c>
+      <c r="F479" t="s">
+        <v>133</v>
+      </c>
+      <c r="H479">
+        <v>145</v>
+      </c>
+      <c r="K479">
+        <v>3600</v>
+      </c>
+      <c r="O479">
+        <v>0.2</v>
+      </c>
+      <c r="P479">
+        <v>0.2</v>
+      </c>
+      <c r="Q479">
+        <v>0.2</v>
+      </c>
+      <c r="R479">
+        <v>0.2</v>
+      </c>
+      <c r="S479">
+        <v>0.2</v>
+      </c>
+      <c r="U479">
+        <v>1</v>
+      </c>
+      <c r="V479">
+        <v>28</v>
+      </c>
+      <c r="W479">
+        <v>50</v>
+      </c>
+      <c r="X479" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="480" spans="1:27">
+      <c r="B480" t="s">
+        <v>693</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480" t="s">
+        <v>108</v>
+      </c>
+      <c r="E480" t="s">
+        <v>41</v>
+      </c>
+      <c r="F480" t="s">
+        <v>109</v>
+      </c>
+      <c r="G480" t="s">
+        <v>41</v>
+      </c>
+      <c r="J480">
+        <v>22</v>
+      </c>
+      <c r="K480">
+        <v>480</v>
+      </c>
+      <c r="O480">
+        <v>0.05</v>
+      </c>
+      <c r="P480">
+        <v>0.05</v>
+      </c>
+      <c r="Q480">
+        <v>0.05</v>
+      </c>
+      <c r="R480">
+        <v>0.05</v>
+      </c>
+      <c r="S480">
+        <v>0.05</v>
+      </c>
+      <c r="U480">
+        <v>1</v>
+      </c>
+      <c r="V480">
+        <v>18</v>
+      </c>
+      <c r="W480">
+        <v>36</v>
+      </c>
+      <c r="X480" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="481" spans="1:27">
+      <c r="A481" t="s">
+        <v>539</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481" t="s">
+        <v>82</v>
+      </c>
+      <c r="E481" t="s">
+        <v>50</v>
+      </c>
+      <c r="F481" t="s">
+        <v>83</v>
+      </c>
+      <c r="G481" t="s">
+        <v>50</v>
+      </c>
+      <c r="J481">
+        <v>5</v>
+      </c>
+      <c r="K481">
+        <v>140</v>
+      </c>
+      <c r="U481">
+        <v>1</v>
+      </c>
+      <c r="V481">
+        <v>6</v>
+      </c>
+      <c r="W481">
+        <v>12</v>
+      </c>
+      <c r="X481" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="482" spans="1:27">
+      <c r="B482" t="s">
+        <v>554</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482" t="s">
+        <v>301</v>
+      </c>
+      <c r="E482" t="s">
+        <v>273</v>
+      </c>
+      <c r="F482" t="s">
+        <v>302</v>
+      </c>
+      <c r="H482">
+        <v>90</v>
+      </c>
+      <c r="K482">
+        <v>750000</v>
+      </c>
+      <c r="L482">
+        <v>0.29</v>
+      </c>
+      <c r="M482">
+        <v>0.29</v>
+      </c>
+      <c r="N482">
+        <v>0.29</v>
+      </c>
+      <c r="U482">
+        <v>1</v>
+      </c>
+      <c r="V482">
+        <v>60</v>
+      </c>
+      <c r="W482">
+        <v>130</v>
+      </c>
+      <c r="X482" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="483" spans="1:27">
+      <c r="B483" t="s">
+        <v>694</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483" t="s">
+        <v>34</v>
+      </c>
+      <c r="E483" t="s">
+        <v>35</v>
+      </c>
+      <c r="F483" t="s">
+        <v>36</v>
+      </c>
+      <c r="J483">
+        <v>1</v>
+      </c>
+      <c r="K483">
+        <v>5</v>
+      </c>
+      <c r="U483">
+        <v>1</v>
+      </c>
+      <c r="V483">
+        <v>1</v>
+      </c>
+      <c r="W483">
+        <v>5</v>
+      </c>
+      <c r="X483" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="484" spans="1:27">
+      <c r="A484" t="s">
+        <v>563</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484" t="s">
+        <v>436</v>
+      </c>
+      <c r="E484" t="s">
+        <v>44</v>
+      </c>
+      <c r="F484" t="s">
+        <v>437</v>
+      </c>
+      <c r="G484" t="s">
+        <v>44</v>
+      </c>
+      <c r="J484">
+        <v>250</v>
+      </c>
+      <c r="K484">
+        <v>1300000</v>
+      </c>
+      <c r="O484">
+        <v>0.26</v>
+      </c>
+      <c r="P484">
+        <v>0.26</v>
+      </c>
+      <c r="Q484">
+        <v>0.26</v>
+      </c>
+      <c r="R484">
+        <v>0.26</v>
+      </c>
+      <c r="S484">
+        <v>0.26</v>
+      </c>
+      <c r="U484">
+        <v>1</v>
+      </c>
+      <c r="V484">
+        <v>75</v>
+      </c>
+      <c r="W484">
+        <v>180</v>
+      </c>
+      <c r="X484" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="485" spans="1:27">
+      <c r="A485" t="s">
+        <v>562</v>
+      </c>
+      <c r="B485" t="s">
+        <v>695</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485" t="s">
+        <v>138</v>
+      </c>
+      <c r="E485" t="s">
+        <v>38</v>
+      </c>
+      <c r="F485" t="s">
+        <v>139</v>
+      </c>
+      <c r="G485" t="s">
+        <v>38</v>
+      </c>
+      <c r="J485">
+        <v>45</v>
+      </c>
+      <c r="K485">
+        <v>2500</v>
+      </c>
+      <c r="O485">
+        <v>0.08</v>
+      </c>
+      <c r="P485">
+        <v>0.08</v>
+      </c>
+      <c r="Q485">
+        <v>0.08</v>
+      </c>
+      <c r="R485">
+        <v>0.08</v>
+      </c>
+      <c r="S485">
+        <v>0.08</v>
+      </c>
+      <c r="U485">
+        <v>1</v>
+      </c>
+      <c r="V485">
+        <v>28</v>
+      </c>
+      <c r="W485">
+        <v>50</v>
+      </c>
+      <c r="X485" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="486" spans="1:27">
+      <c r="A486" t="s">
+        <v>549</v>
+      </c>
+      <c r="B486" t="s">
+        <v>695</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486" t="s">
+        <v>27</v>
+      </c>
+      <c r="E486" t="s">
+        <v>28</v>
+      </c>
+      <c r="F486" t="s">
+        <v>29</v>
+      </c>
+      <c r="H486">
+        <v>4</v>
+      </c>
+      <c r="K486">
+        <v>10</v>
+      </c>
+      <c r="U486">
+        <v>1</v>
+      </c>
+      <c r="V486">
+        <v>1</v>
+      </c>
+      <c r="W486">
+        <v>5</v>
+      </c>
+      <c r="X486" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="487" spans="1:27">
+      <c r="A487" t="s">
+        <v>540</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487" t="s">
+        <v>114</v>
+      </c>
+      <c r="E487" t="s">
+        <v>50</v>
+      </c>
+      <c r="F487" t="s">
+        <v>115</v>
+      </c>
+      <c r="G487" t="s">
+        <v>50</v>
+      </c>
+      <c r="J487">
+        <v>22</v>
+      </c>
+      <c r="K487">
+        <v>510</v>
+      </c>
+      <c r="O487">
+        <v>0.05</v>
+      </c>
+      <c r="P487">
+        <v>0.05</v>
+      </c>
+      <c r="Q487">
+        <v>0.05</v>
+      </c>
+      <c r="R487">
+        <v>0.05</v>
+      </c>
+      <c r="S487">
+        <v>0.05</v>
+      </c>
+      <c r="U487">
+        <v>1</v>
+      </c>
+      <c r="V487">
+        <v>18</v>
+      </c>
+      <c r="W487">
+        <v>36</v>
+      </c>
+      <c r="X487" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="488" spans="1:27">
+      <c r="B488" t="s">
+        <v>694</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488" t="s">
+        <v>470</v>
+      </c>
+      <c r="E488" t="s">
+        <v>31</v>
+      </c>
+      <c r="F488" t="s">
+        <v>471</v>
+      </c>
+      <c r="G488" t="s">
+        <v>31</v>
+      </c>
+      <c r="J488">
+        <v>400</v>
+      </c>
+      <c r="K488">
+        <v>9876000</v>
+      </c>
+      <c r="O488">
+        <v>0.6</v>
+      </c>
+      <c r="P488">
+        <v>0.6</v>
+      </c>
+      <c r="Q488">
+        <v>0.6</v>
+      </c>
+      <c r="R488">
+        <v>0.6</v>
+      </c>
+      <c r="S488">
+        <v>0.6</v>
+      </c>
+      <c r="U488">
+        <v>1</v>
+      </c>
+      <c r="V488">
+        <v>85</v>
+      </c>
+      <c r="W488">
+        <v>190</v>
+      </c>
+      <c r="X488" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="489" spans="1:27">
+      <c r="A489" t="s">
+        <v>543</v>
+      </c>
+      <c r="B489" t="s">
+        <v>542</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489" t="s">
+        <v>142</v>
+      </c>
+      <c r="E489" t="s">
+        <v>44</v>
+      </c>
+      <c r="F489" t="s">
+        <v>143</v>
+      </c>
+      <c r="G489" t="s">
+        <v>44</v>
+      </c>
+      <c r="J489">
+        <v>45</v>
+      </c>
+      <c r="K489">
+        <v>2600</v>
+      </c>
+      <c r="O489">
+        <v>0.08</v>
+      </c>
+      <c r="P489">
+        <v>0.08</v>
+      </c>
+      <c r="Q489">
+        <v>0.08</v>
+      </c>
+      <c r="R489">
+        <v>0.08</v>
+      </c>
+      <c r="S489">
+        <v>0.08</v>
+      </c>
+      <c r="U489">
+        <v>1</v>
+      </c>
+      <c r="V489">
+        <v>28</v>
+      </c>
+      <c r="W489">
+        <v>50</v>
+      </c>
+      <c r="X489" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="490" spans="1:27">
+      <c r="A490" t="s">
+        <v>563</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490" t="s">
+        <v>144</v>
+      </c>
+      <c r="E490" t="s">
+        <v>47</v>
+      </c>
+      <c r="F490" t="s">
+        <v>145</v>
+      </c>
+      <c r="G490" t="s">
+        <v>47</v>
+      </c>
+      <c r="J490">
+        <v>45</v>
+      </c>
+      <c r="K490">
+        <v>2250</v>
+      </c>
+      <c r="O490">
+        <v>0.08</v>
+      </c>
+      <c r="P490">
+        <v>0.08</v>
+      </c>
+      <c r="Q490">
+        <v>0.08</v>
+      </c>
+      <c r="R490">
+        <v>0.08</v>
+      </c>
+      <c r="S490">
+        <v>0.08</v>
+      </c>
+      <c r="U490">
+        <v>1</v>
+      </c>
+      <c r="V490">
+        <v>28</v>
+      </c>
+      <c r="W490">
+        <v>50</v>
+      </c>
+      <c r="X490" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="491" spans="1:27">
+      <c r="A491" t="s">
+        <v>696</v>
+      </c>
+      <c r="B491" t="s">
+        <v>546</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491" t="s">
+        <v>214</v>
+      </c>
+      <c r="E491" t="s">
+        <v>35</v>
+      </c>
+      <c r="F491" t="s">
+        <v>215</v>
+      </c>
+      <c r="J491">
+        <v>130</v>
+      </c>
+      <c r="K491">
+        <v>75000</v>
+      </c>
+      <c r="O491">
+        <v>0.2</v>
+      </c>
+      <c r="P491">
+        <v>0.2</v>
+      </c>
+      <c r="Q491">
+        <v>0.2</v>
+      </c>
+      <c r="R491">
+        <v>0.2</v>
+      </c>
+      <c r="S491">
+        <v>0.2</v>
+      </c>
+      <c r="U491">
+        <v>1</v>
+      </c>
+      <c r="V491">
+        <v>50</v>
+      </c>
+      <c r="W491">
+        <v>100</v>
+      </c>
+      <c r="X491" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="492" spans="1:27">
+      <c r="B492" t="s">
+        <v>691</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492" t="s">
+        <v>100</v>
+      </c>
+      <c r="E492" t="s">
+        <v>28</v>
+      </c>
+      <c r="F492" t="s">
+        <v>101</v>
+      </c>
+      <c r="H492">
+        <v>80</v>
+      </c>
+      <c r="K492">
+        <v>750</v>
+      </c>
+      <c r="O492">
+        <v>0.18</v>
+      </c>
+      <c r="P492">
+        <v>0.18</v>
+      </c>
+      <c r="Q492">
+        <v>0.18</v>
+      </c>
+      <c r="R492">
+        <v>0.18</v>
+      </c>
+      <c r="S492">
+        <v>0.18</v>
+      </c>
+      <c r="U492">
+        <v>1</v>
+      </c>
+      <c r="V492">
+        <v>18</v>
+      </c>
+      <c r="W492">
+        <v>36</v>
+      </c>
+      <c r="X492" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="493" spans="1:27">
+      <c r="A493" t="s">
+        <v>550</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493" t="s">
+        <v>150</v>
+      </c>
+      <c r="E493" t="s">
+        <v>31</v>
+      </c>
+      <c r="F493" t="s">
+        <v>151</v>
+      </c>
+      <c r="G493" t="s">
+        <v>31</v>
+      </c>
+      <c r="J493">
+        <v>100</v>
+      </c>
+      <c r="K493">
+        <v>5750</v>
+      </c>
+      <c r="O493">
+        <v>0.28</v>
+      </c>
+      <c r="P493">
+        <v>0.28</v>
+      </c>
+      <c r="Q493">
+        <v>0.28</v>
+      </c>
+      <c r="R493">
+        <v>0.28</v>
+      </c>
+      <c r="S493">
+        <v>0.28</v>
+      </c>
+      <c r="U493">
+        <v>1</v>
+      </c>
+      <c r="V493">
+        <v>28</v>
+      </c>
+      <c r="W493">
+        <v>50</v>
+      </c>
+      <c r="X493" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="494" spans="1:27">
+      <c r="B494" t="s">
+        <v>567</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494" t="s">
+        <v>432</v>
+      </c>
+      <c r="E494" t="s">
+        <v>38</v>
+      </c>
+      <c r="F494" t="s">
+        <v>433</v>
+      </c>
+      <c r="G494" t="s">
+        <v>38</v>
+      </c>
+      <c r="J494">
+        <v>250</v>
+      </c>
+      <c r="K494">
+        <v>2200000</v>
+      </c>
+      <c r="O494">
+        <v>0.26</v>
+      </c>
+      <c r="P494">
+        <v>0.26</v>
+      </c>
+      <c r="Q494">
+        <v>0.26</v>
+      </c>
+      <c r="R494">
+        <v>0.26</v>
+      </c>
+      <c r="S494">
+        <v>0.26</v>
+      </c>
+      <c r="U494">
+        <v>1</v>
+      </c>
+      <c r="V494">
+        <v>75</v>
+      </c>
+      <c r="W494">
+        <v>180</v>
+      </c>
+      <c r="X494" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="495" spans="1:27">
+      <c r="A495" t="s">
+        <v>543</v>
+      </c>
+      <c r="B495" t="s">
+        <v>553</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+      <c r="D495" t="s">
+        <v>164</v>
+      </c>
+      <c r="E495" t="s">
+        <v>28</v>
+      </c>
+      <c r="F495" t="s">
+        <v>165</v>
+      </c>
+      <c r="H495">
+        <v>190</v>
+      </c>
+      <c r="K495">
+        <v>12000</v>
+      </c>
+      <c r="O495">
+        <v>0.25</v>
+      </c>
+      <c r="P495">
+        <v>0.25</v>
+      </c>
+      <c r="Q495">
+        <v>0.25</v>
+      </c>
+      <c r="R495">
+        <v>0.25</v>
+      </c>
+      <c r="S495">
+        <v>0.25</v>
+      </c>
+      <c r="U495">
+        <v>1</v>
+      </c>
+      <c r="V495">
+        <v>36</v>
+      </c>
+      <c r="W495">
+        <v>70</v>
+      </c>
+      <c r="X495" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="496" spans="1:27">
+      <c r="A496" t="s">
+        <v>540</v>
+      </c>
+      <c r="B496" t="s">
+        <v>555</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496" t="s">
+        <v>236</v>
+      </c>
+      <c r="E496" t="s">
+        <v>47</v>
+      </c>
+      <c r="F496" t="s">
+        <v>237</v>
+      </c>
+      <c r="G496" t="s">
+        <v>47</v>
+      </c>
+      <c r="J496">
+        <v>150</v>
+      </c>
+      <c r="K496">
+        <v>378000</v>
+      </c>
+      <c r="O496">
+        <v>0.18</v>
+      </c>
+      <c r="P496">
+        <v>0.18</v>
+      </c>
+      <c r="Q496">
+        <v>0.18</v>
+      </c>
+      <c r="R496">
+        <v>0.18</v>
+      </c>
+      <c r="S496">
+        <v>0.18</v>
+      </c>
+      <c r="U496">
+        <v>1</v>
+      </c>
+      <c r="V496">
+        <v>55</v>
+      </c>
+      <c r="W496">
+        <v>110</v>
+      </c>
+      <c r="X496" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="497" spans="1:27">
+      <c r="B497" t="s">
+        <v>558</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497" t="s">
+        <v>309</v>
+      </c>
+      <c r="E497" t="s">
+        <v>306</v>
+      </c>
+      <c r="F497" t="s">
+        <v>310</v>
+      </c>
+      <c r="H497">
+        <v>10</v>
+      </c>
+      <c r="K497">
+        <v>50</v>
+      </c>
+      <c r="U497">
+        <v>1</v>
+      </c>
+      <c r="V497">
+        <v>3</v>
+      </c>
+      <c r="W497">
+        <v>8</v>
+      </c>
+      <c r="X497" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="498" spans="1:27">
+      <c r="A498" t="s">
+        <v>540</v>
+      </c>
+      <c r="B498" t="s">
+        <v>538</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498" t="s">
+        <v>236</v>
+      </c>
+      <c r="E498" t="s">
+        <v>47</v>
+      </c>
+      <c r="F498" t="s">
+        <v>237</v>
+      </c>
+      <c r="G498" t="s">
+        <v>47</v>
+      </c>
+      <c r="J498">
+        <v>150</v>
+      </c>
+      <c r="K498">
+        <v>378000</v>
+      </c>
+      <c r="O498">
+        <v>0.18</v>
+      </c>
+      <c r="P498">
+        <v>0.18</v>
+      </c>
+      <c r="Q498">
+        <v>0.18</v>
+      </c>
+      <c r="R498">
+        <v>0.18</v>
+      </c>
+      <c r="S498">
+        <v>0.18</v>
+      </c>
+      <c r="U498">
+        <v>1</v>
+      </c>
+      <c r="V498">
+        <v>55</v>
+      </c>
+      <c r="W498">
+        <v>110</v>
+      </c>
+      <c r="X498" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="499" spans="1:27">
+      <c r="B499" t="s">
+        <v>538</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499" t="s">
+        <v>305</v>
+      </c>
+      <c r="E499" t="s">
+        <v>306</v>
+      </c>
+      <c r="F499" t="s">
+        <v>307</v>
+      </c>
+      <c r="H499">
+        <v>5</v>
+      </c>
+      <c r="K499">
+        <v>10</v>
+      </c>
+      <c r="U499">
+        <v>1</v>
+      </c>
+      <c r="V499">
+        <v>1</v>
+      </c>
+      <c r="W499">
+        <v>5</v>
+      </c>
+      <c r="X499" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="500" spans="1:27">
+      <c r="B500" t="s">
+        <v>691</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+      <c r="D500" t="s">
+        <v>200</v>
+      </c>
+      <c r="E500" t="s">
+        <v>35</v>
+      </c>
+      <c r="F500" t="s">
+        <v>201</v>
+      </c>
+      <c r="J500">
+        <v>110</v>
+      </c>
+      <c r="K500">
+        <v>38000</v>
+      </c>
+      <c r="O500">
+        <v>0.19</v>
+      </c>
+      <c r="P500">
+        <v>0.19</v>
+      </c>
+      <c r="Q500">
+        <v>0.19</v>
+      </c>
+      <c r="R500">
+        <v>0.19</v>
+      </c>
+      <c r="S500">
+        <v>0.19</v>
+      </c>
+      <c r="U500">
+        <v>1</v>
+      </c>
+      <c r="V500">
+        <v>43</v>
+      </c>
+      <c r="W500">
+        <v>78</v>
+      </c>
+      <c r="X500" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="501" spans="1:27">
+      <c r="B501" t="s">
+        <v>542</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+      <c r="D501" t="s">
+        <v>301</v>
+      </c>
+      <c r="E501" t="s">
+        <v>273</v>
+      </c>
+      <c r="F501" t="s">
+        <v>302</v>
+      </c>
+      <c r="H501">
+        <v>90</v>
+      </c>
+      <c r="K501">
+        <v>750000</v>
+      </c>
+      <c r="L501">
+        <v>0.29</v>
+      </c>
+      <c r="M501">
+        <v>0.29</v>
+      </c>
+      <c r="N501">
+        <v>0.29</v>
+      </c>
+      <c r="U501">
+        <v>1</v>
+      </c>
+      <c r="V501">
+        <v>60</v>
+      </c>
+      <c r="W501">
+        <v>130</v>
+      </c>
+      <c r="X501" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="502" spans="1:27">
+      <c r="A502" t="s">
+        <v>540</v>
+      </c>
+      <c r="B502" t="s">
+        <v>538</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502" t="s">
+        <v>323</v>
+      </c>
+      <c r="E502" t="s">
+        <v>306</v>
+      </c>
+      <c r="F502" t="s">
+        <v>324</v>
+      </c>
+      <c r="H502">
+        <v>85</v>
+      </c>
+      <c r="K502">
+        <v>18000</v>
+      </c>
+      <c r="U502">
+        <v>1</v>
+      </c>
+      <c r="V502">
+        <v>36</v>
+      </c>
+      <c r="W502">
+        <v>70</v>
+      </c>
+      <c r="X502" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="503" spans="1:27">
+      <c r="A503" t="s">
+        <v>549</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+      <c r="D503" t="s">
+        <v>90</v>
+      </c>
+      <c r="E503" t="s">
+        <v>38</v>
+      </c>
+      <c r="F503" t="s">
+        <v>91</v>
+      </c>
+      <c r="J503">
+        <v>10</v>
+      </c>
+      <c r="K503">
+        <v>220</v>
+      </c>
+      <c r="O503">
+        <v>0.03</v>
+      </c>
+      <c r="P503">
+        <v>0.03</v>
+      </c>
+      <c r="Q503">
+        <v>0.03</v>
+      </c>
+      <c r="R503">
+        <v>0.03</v>
+      </c>
+      <c r="S503">
+        <v>0.03</v>
+      </c>
+      <c r="U503">
+        <v>1</v>
+      </c>
+      <c r="V503">
+        <v>10</v>
+      </c>
+      <c r="W503">
+        <v>20</v>
+      </c>
+      <c r="X503" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="504" spans="1:27">
+      <c r="A504" t="s">
+        <v>548</v>
+      </c>
+      <c r="B504" t="s">
+        <v>538</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504" t="s">
+        <v>356</v>
+      </c>
+      <c r="E504" t="s">
+        <v>340</v>
+      </c>
+      <c r="F504" t="s">
+        <v>357</v>
+      </c>
+      <c r="I504">
+        <v>160</v>
+      </c>
+      <c r="K504">
+        <v>13876</v>
+      </c>
+      <c r="U504">
+        <v>1</v>
+      </c>
+      <c r="V504">
+        <v>36</v>
+      </c>
+      <c r="W504">
+        <v>70</v>
+      </c>
+      <c r="X504" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="505" spans="1:27">
+      <c r="A505" t="s">
+        <v>539</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="D505" t="s">
+        <v>196</v>
+      </c>
+      <c r="E505" t="s">
+        <v>28</v>
+      </c>
+      <c r="F505" t="s">
+        <v>197</v>
+      </c>
+      <c r="H505">
+        <v>250</v>
+      </c>
+      <c r="K505">
+        <v>50000</v>
+      </c>
+      <c r="O505">
+        <v>0.27</v>
+      </c>
+      <c r="P505">
+        <v>0.27</v>
+      </c>
+      <c r="Q505">
+        <v>0.27</v>
+      </c>
+      <c r="R505">
+        <v>0.27</v>
+      </c>
+      <c r="S505">
+        <v>0.27</v>
+      </c>
+      <c r="U505">
+        <v>1</v>
+      </c>
+      <c r="V505">
+        <v>43</v>
+      </c>
+      <c r="W505">
+        <v>78</v>
+      </c>
+      <c r="X505" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="506" spans="1:27">
+      <c r="A506" t="s">
+        <v>697</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+      <c r="D506" t="s">
+        <v>52</v>
+      </c>
+      <c r="E506" t="s">
+        <v>28</v>
+      </c>
+      <c r="F506" t="s">
+        <v>53</v>
+      </c>
+      <c r="H506">
+        <v>8</v>
+      </c>
+      <c r="K506">
+        <v>50</v>
+      </c>
+      <c r="O506">
+        <v>0.05</v>
+      </c>
+      <c r="P506">
+        <v>0.05</v>
+      </c>
+      <c r="Q506">
+        <v>0.05</v>
+      </c>
+      <c r="R506">
+        <v>0.05</v>
+      </c>
+      <c r="S506">
+        <v>0.05</v>
+      </c>
+      <c r="U506">
+        <v>1</v>
+      </c>
+      <c r="V506">
+        <v>3</v>
+      </c>
+      <c r="W506">
+        <v>8</v>
+      </c>
+      <c r="X506" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="507" spans="1:27">
+      <c r="B507" t="s">
+        <v>556</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+      <c r="D507" t="s">
+        <v>150</v>
+      </c>
+      <c r="E507" t="s">
+        <v>31</v>
+      </c>
+      <c r="F507" t="s">
+        <v>151</v>
+      </c>
+      <c r="G507" t="s">
+        <v>31</v>
+      </c>
+      <c r="J507">
+        <v>100</v>
+      </c>
+      <c r="K507">
+        <v>5750</v>
+      </c>
+      <c r="O507">
+        <v>0.28</v>
+      </c>
+      <c r="P507">
+        <v>0.28</v>
+      </c>
+      <c r="Q507">
+        <v>0.28</v>
+      </c>
+      <c r="R507">
+        <v>0.28</v>
+      </c>
+      <c r="S507">
+        <v>0.28</v>
+      </c>
+      <c r="U507">
+        <v>1</v>
+      </c>
+      <c r="V507">
+        <v>28</v>
+      </c>
+      <c r="W507">
+        <v>50</v>
+      </c>
+      <c r="X507" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="508" spans="1:27">
+      <c r="A508" t="s">
+        <v>548</v>
+      </c>
+      <c r="B508" t="s">
+        <v>542</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508" t="s">
+        <v>256</v>
+      </c>
+      <c r="E508" t="s">
+        <v>28</v>
+      </c>
+      <c r="F508" t="s">
+        <v>257</v>
+      </c>
+      <c r="H508">
+        <v>450</v>
+      </c>
+      <c r="K508">
+        <v>1525000</v>
+      </c>
+      <c r="O508">
+        <v>0.37</v>
+      </c>
+      <c r="P508">
+        <v>0.37</v>
+      </c>
+      <c r="Q508">
+        <v>0.37</v>
+      </c>
+      <c r="R508">
+        <v>0.37</v>
+      </c>
+      <c r="S508">
+        <v>0.37</v>
+      </c>
+      <c r="U508">
+        <v>1</v>
+      </c>
+      <c r="V508">
+        <v>70</v>
+      </c>
+      <c r="W508">
+        <v>150</v>
+      </c>
+      <c r="X508" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="509" spans="1:27">
+      <c r="A509" t="s">
+        <v>689</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509" t="s">
+        <v>321</v>
+      </c>
+      <c r="E509" t="s">
+        <v>306</v>
+      </c>
+      <c r="F509" t="s">
+        <v>322</v>
+      </c>
+      <c r="H509">
+        <v>80</v>
+      </c>
+      <c r="K509">
+        <v>5600</v>
+      </c>
+      <c r="U509">
+        <v>1</v>
+      </c>
+      <c r="V509">
+        <v>30</v>
+      </c>
+      <c r="W509">
+        <v>60</v>
+      </c>
+      <c r="X509" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="510" spans="1:27">
+      <c r="B510" t="s">
+        <v>545</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510" t="s">
+        <v>134</v>
+      </c>
+      <c r="E510" t="s">
+        <v>31</v>
+      </c>
+      <c r="F510" t="s">
+        <v>135</v>
+      </c>
+      <c r="G510" t="s">
+        <v>31</v>
+      </c>
+      <c r="J510">
+        <v>80</v>
+      </c>
+      <c r="K510">
+        <v>3500</v>
+      </c>
+      <c r="O510">
+        <v>0.25</v>
+      </c>
+      <c r="P510">
+        <v>0.25</v>
+      </c>
+      <c r="Q510">
+        <v>0.25</v>
+      </c>
+      <c r="R510">
+        <v>0.25</v>
+      </c>
+      <c r="S510">
+        <v>0.25</v>
+      </c>
+      <c r="U510">
+        <v>1</v>
+      </c>
+      <c r="V510">
+        <v>28</v>
+      </c>
+      <c r="W510">
+        <v>50</v>
+      </c>
+      <c r="X510" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="511" spans="1:27">
+      <c r="B511" t="s">
+        <v>694</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+      <c r="D511" t="s">
+        <v>198</v>
+      </c>
+      <c r="E511" t="s">
+        <v>31</v>
+      </c>
+      <c r="F511" t="s">
+        <v>199</v>
+      </c>
+      <c r="G511" t="s">
+        <v>31</v>
+      </c>
+      <c r="J511">
+        <v>170</v>
+      </c>
+      <c r="K511">
+        <v>48000</v>
+      </c>
+      <c r="O511">
+        <v>0.33</v>
+      </c>
+      <c r="P511">
+        <v>0.33</v>
+      </c>
+      <c r="Q511">
+        <v>0.33</v>
+      </c>
+      <c r="R511">
+        <v>0.33</v>
+      </c>
+      <c r="S511">
+        <v>0.33</v>
+      </c>
+      <c r="U511">
+        <v>1</v>
+      </c>
+      <c r="V511">
+        <v>43</v>
+      </c>
+      <c r="W511">
+        <v>78</v>
+      </c>
+      <c r="X511" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="512" spans="1:27">
+      <c r="A512" t="s">
+        <v>561</v>
+      </c>
+      <c r="B512" t="s">
+        <v>546</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512" t="s">
+        <v>210</v>
+      </c>
+      <c r="E512" t="s">
+        <v>28</v>
+      </c>
+      <c r="F512" t="s">
+        <v>211</v>
+      </c>
+      <c r="H512">
+        <v>280</v>
+      </c>
+      <c r="K512">
+        <v>125000</v>
+      </c>
+      <c r="O512">
+        <v>0.29</v>
+      </c>
+      <c r="P512">
+        <v>0.29</v>
+      </c>
+      <c r="Q512">
+        <v>0.29</v>
+      </c>
+      <c r="R512">
+        <v>0.29</v>
+      </c>
+      <c r="S512">
+        <v>0.29</v>
+      </c>
+      <c r="U512">
+        <v>1</v>
+      </c>
+      <c r="V512">
+        <v>50</v>
+      </c>
+      <c r="W512">
+        <v>100</v>
+      </c>
+      <c r="X512" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="513" spans="1:27">
+      <c r="A513" t="s">
+        <v>550</v>
+      </c>
+      <c r="B513" t="s">
+        <v>555</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+      <c r="D513" t="s">
+        <v>27</v>
+      </c>
+      <c r="E513" t="s">
+        <v>28</v>
+      </c>
+      <c r="F513" t="s">
+        <v>29</v>
+      </c>
+      <c r="H513">
+        <v>4</v>
+      </c>
+      <c r="K513">
+        <v>10</v>
+      </c>
+      <c r="U513">
+        <v>1</v>
+      </c>
+      <c r="V513">
+        <v>1</v>
+      </c>
+      <c r="W513">
+        <v>5</v>
+      </c>
+      <c r="X513" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="514" spans="1:27">
+      <c r="A514" t="s">
+        <v>696</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514" t="s">
+        <v>128</v>
+      </c>
+      <c r="E514" t="s">
+        <v>47</v>
+      </c>
+      <c r="F514" t="s">
+        <v>129</v>
+      </c>
+      <c r="G514" t="s">
+        <v>47</v>
+      </c>
+      <c r="J514">
+        <v>30</v>
+      </c>
+      <c r="K514">
+        <v>945</v>
+      </c>
+      <c r="O514">
+        <v>0.06</v>
+      </c>
+      <c r="P514">
+        <v>0.06</v>
+      </c>
+      <c r="Q514">
+        <v>0.06</v>
+      </c>
+      <c r="R514">
+        <v>0.06</v>
+      </c>
+      <c r="S514">
+        <v>0.06</v>
+      </c>
+      <c r="U514">
+        <v>1</v>
+      </c>
+      <c r="V514">
+        <v>24</v>
+      </c>
+      <c r="W514">
+        <v>40</v>
+      </c>
+      <c r="X514" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="515" spans="1:27">
+      <c r="A515" t="s">
+        <v>698</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+      <c r="D515" t="s">
+        <v>164</v>
+      </c>
+      <c r="E515" t="s">
+        <v>28</v>
+      </c>
+      <c r="F515" t="s">
+        <v>165</v>
+      </c>
+      <c r="H515">
+        <v>190</v>
+      </c>
+      <c r="K515">
+        <v>12000</v>
+      </c>
+      <c r="O515">
+        <v>0.25</v>
+      </c>
+      <c r="P515">
+        <v>0.25</v>
+      </c>
+      <c r="Q515">
+        <v>0.25</v>
+      </c>
+      <c r="R515">
+        <v>0.25</v>
+      </c>
+      <c r="S515">
+        <v>0.25</v>
+      </c>
+      <c r="U515">
+        <v>1</v>
+      </c>
+      <c r="V515">
+        <v>36</v>
+      </c>
+      <c r="W515">
+        <v>70</v>
+      </c>
+      <c r="X515" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="516" spans="1:27">
+      <c r="B516" t="s">
+        <v>555</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+      <c r="D516" t="s">
+        <v>254</v>
+      </c>
+      <c r="E516" t="s">
+        <v>50</v>
+      </c>
+      <c r="F516" t="s">
+        <v>255</v>
+      </c>
+      <c r="G516" t="s">
+        <v>50</v>
+      </c>
+      <c r="J516">
+        <v>170</v>
+      </c>
+      <c r="K516">
+        <v>534000</v>
+      </c>
+      <c r="O516">
+        <v>0.2</v>
+      </c>
+      <c r="P516">
+        <v>0.2</v>
+      </c>
+      <c r="Q516">
+        <v>0.2</v>
+      </c>
+      <c r="R516">
+        <v>0.2</v>
+      </c>
+      <c r="S516">
+        <v>0.2</v>
+      </c>
+      <c r="U516">
+        <v>1</v>
+      </c>
+      <c r="V516">
+        <v>60</v>
+      </c>
+      <c r="W516">
+        <v>130</v>
+      </c>
+      <c r="X516" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="517" spans="1:27">
+      <c r="B517" t="s">
+        <v>699</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+      <c r="D517" t="s">
+        <v>49</v>
+      </c>
+      <c r="E517" t="s">
+        <v>50</v>
+      </c>
+      <c r="F517" t="s">
+        <v>51</v>
+      </c>
+      <c r="G517" t="s">
+        <v>50</v>
+      </c>
+      <c r="J517">
+        <v>1</v>
+      </c>
+      <c r="K517">
+        <v>5</v>
+      </c>
+      <c r="U517">
+        <v>1</v>
+      </c>
+      <c r="V517">
+        <v>1</v>
+      </c>
+      <c r="W517">
+        <v>5</v>
+      </c>
+      <c r="X517" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="518" spans="1:27">
+      <c r="A518" t="s">
+        <v>563</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+      <c r="D518" t="s">
+        <v>303</v>
+      </c>
+      <c r="E518" t="s">
+        <v>273</v>
+      </c>
+      <c r="F518" t="s">
+        <v>304</v>
+      </c>
+      <c r="H518">
+        <v>100</v>
+      </c>
+      <c r="K518">
+        <v>1345000</v>
+      </c>
+      <c r="L518">
+        <v>0.3</v>
+      </c>
+      <c r="M518">
+        <v>0.3</v>
+      </c>
+      <c r="N518">
+        <v>0.3</v>
+      </c>
+      <c r="U518">
+        <v>1</v>
+      </c>
+      <c r="V518">
+        <v>70</v>
+      </c>
+      <c r="W518">
+        <v>180</v>
+      </c>
+      <c r="X518" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="519" spans="1:27">
+      <c r="B519" t="s">
+        <v>551</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+      <c r="D519" t="s">
+        <v>144</v>
+      </c>
+      <c r="E519" t="s">
+        <v>47</v>
+      </c>
+      <c r="F519" t="s">
+        <v>145</v>
+      </c>
+      <c r="G519" t="s">
+        <v>47</v>
+      </c>
+      <c r="J519">
+        <v>45</v>
+      </c>
+      <c r="K519">
+        <v>2250</v>
+      </c>
+      <c r="O519">
+        <v>0.08</v>
+      </c>
+      <c r="P519">
+        <v>0.08</v>
+      </c>
+      <c r="Q519">
+        <v>0.08</v>
+      </c>
+      <c r="R519">
+        <v>0.08</v>
+      </c>
+      <c r="S519">
+        <v>0.08</v>
+      </c>
+      <c r="U519">
+        <v>1</v>
+      </c>
+      <c r="V519">
+        <v>28</v>
+      </c>
+      <c r="W519">
+        <v>50</v>
+      </c>
+      <c r="X519" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="520" spans="1:27">
+      <c r="A520" t="s">
+        <v>561</v>
+      </c>
+      <c r="B520" t="s">
+        <v>551</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+      <c r="D520" t="s">
+        <v>156</v>
+      </c>
+      <c r="E520" t="s">
+        <v>41</v>
+      </c>
+      <c r="F520" t="s">
+        <v>157</v>
+      </c>
+      <c r="G520" t="s">
+        <v>41</v>
+      </c>
+      <c r="J520">
+        <v>45</v>
+      </c>
+      <c r="K520">
+        <v>3800</v>
+      </c>
+      <c r="O520">
+        <v>0.1</v>
+      </c>
+      <c r="P520">
+        <v>0.1</v>
+      </c>
+      <c r="Q520">
+        <v>0.1</v>
+      </c>
+      <c r="R520">
+        <v>0.1</v>
+      </c>
+      <c r="S520">
+        <v>0.1</v>
+      </c>
+      <c r="U520">
+        <v>1</v>
+      </c>
+      <c r="V520">
+        <v>28</v>
+      </c>
+      <c r="W520">
+        <v>50</v>
+      </c>
+      <c r="X520" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="521" spans="1:27">
+      <c r="B521" t="s">
+        <v>558</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+      <c r="D521" t="s">
+        <v>176</v>
+      </c>
+      <c r="E521" t="s">
+        <v>47</v>
+      </c>
+      <c r="F521" t="s">
+        <v>177</v>
+      </c>
+      <c r="G521" t="s">
+        <v>47</v>
+      </c>
+      <c r="J521">
+        <v>75</v>
+      </c>
+      <c r="K521">
+        <v>9000</v>
+      </c>
+      <c r="O521">
+        <v>0.12</v>
+      </c>
+      <c r="P521">
+        <v>0.12</v>
+      </c>
+      <c r="Q521">
+        <v>0.12</v>
+      </c>
+      <c r="R521">
+        <v>0.12</v>
+      </c>
+      <c r="S521">
+        <v>0.12</v>
+      </c>
+      <c r="U521">
+        <v>1</v>
+      </c>
+      <c r="V521">
+        <v>36</v>
+      </c>
+      <c r="W521">
+        <v>70</v>
+      </c>
+      <c r="X521" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="522" spans="1:27">
+      <c r="A522" t="s">
+        <v>689</v>
+      </c>
+      <c r="B522" t="s">
+        <v>699</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+      <c r="D522" t="s">
+        <v>321</v>
+      </c>
+      <c r="E522" t="s">
+        <v>306</v>
+      </c>
+      <c r="F522" t="s">
+        <v>322</v>
+      </c>
+      <c r="H522">
+        <v>80</v>
+      </c>
+      <c r="K522">
+        <v>5600</v>
+      </c>
+      <c r="U522">
+        <v>1</v>
+      </c>
+      <c r="V522">
+        <v>30</v>
+      </c>
+      <c r="W522">
+        <v>60</v>
+      </c>
+      <c r="X522" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="523" spans="1:27">
+      <c r="A523" t="s">
+        <v>561</v>
+      </c>
+      <c r="B523" t="s">
+        <v>546</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+      <c r="D523" t="s">
+        <v>240</v>
+      </c>
+      <c r="E523" t="s">
+        <v>28</v>
+      </c>
+      <c r="F523" t="s">
+        <v>241</v>
+      </c>
+      <c r="H523">
+        <v>380</v>
+      </c>
+      <c r="K523">
+        <v>750000</v>
+      </c>
+      <c r="O523">
+        <v>0.35</v>
+      </c>
+      <c r="P523">
+        <v>0.35</v>
+      </c>
+      <c r="Q523">
+        <v>0.35</v>
+      </c>
+      <c r="R523">
+        <v>0.35</v>
+      </c>
+      <c r="S523">
+        <v>0.35</v>
+      </c>
+      <c r="U523">
+        <v>1</v>
+      </c>
+      <c r="V523">
+        <v>60</v>
+      </c>
+      <c r="W523">
+        <v>130</v>
+      </c>
+      <c r="X523" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="524" spans="1:27">
+      <c r="A524" t="s">
+        <v>566</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+      <c r="D524" t="s">
+        <v>476</v>
+      </c>
+      <c r="E524" t="s">
+        <v>41</v>
+      </c>
+      <c r="F524" t="s">
+        <v>477</v>
+      </c>
+      <c r="G524" t="s">
+        <v>41</v>
+      </c>
+      <c r="J524">
+        <v>300</v>
+      </c>
+      <c r="K524">
+        <v>5467000</v>
+      </c>
+      <c r="O524">
+        <v>0.35</v>
+      </c>
+      <c r="P524">
+        <v>0.35</v>
+      </c>
+      <c r="Q524">
+        <v>0.35</v>
+      </c>
+      <c r="R524">
+        <v>0.35</v>
+      </c>
+      <c r="S524">
+        <v>0.35</v>
+      </c>
+      <c r="U524">
+        <v>1</v>
+      </c>
+      <c r="V524">
+        <v>85</v>
+      </c>
+      <c r="W524">
+        <v>190</v>
+      </c>
+      <c r="X524" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="525" spans="1:27">
+      <c r="B525" t="s">
+        <v>554</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+      <c r="D525" t="s">
+        <v>212</v>
+      </c>
+      <c r="E525" t="s">
+        <v>31</v>
+      </c>
+      <c r="F525" t="s">
+        <v>213</v>
+      </c>
+      <c r="G525" t="s">
+        <v>31</v>
+      </c>
+      <c r="J525">
+        <v>190</v>
+      </c>
+      <c r="K525">
+        <v>125000</v>
+      </c>
+      <c r="O525">
+        <v>0.36</v>
+      </c>
+      <c r="P525">
+        <v>0.36</v>
+      </c>
+      <c r="Q525">
+        <v>0.36</v>
+      </c>
+      <c r="R525">
+        <v>0.36</v>
+      </c>
+      <c r="S525">
+        <v>0.36</v>
+      </c>
+      <c r="U525">
+        <v>1</v>
+      </c>
+      <c r="V525">
+        <v>50</v>
+      </c>
+      <c r="W525">
+        <v>100</v>
+      </c>
+      <c r="X525" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="526" spans="1:27">
+      <c r="A526" t="s">
+        <v>549</v>
+      </c>
+      <c r="B526" t="s">
+        <v>691</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+      <c r="D526" t="s">
+        <v>27</v>
+      </c>
+      <c r="E526" t="s">
+        <v>28</v>
+      </c>
+      <c r="F526" t="s">
+        <v>29</v>
+      </c>
+      <c r="H526">
+        <v>4</v>
+      </c>
+      <c r="K526">
+        <v>10</v>
+      </c>
+      <c r="U526">
+        <v>1</v>
+      </c>
+      <c r="V526">
+        <v>1</v>
+      </c>
+      <c r="W526">
+        <v>5</v>
+      </c>
+      <c r="X526" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="527" spans="1:27">
+      <c r="A527" t="s">
+        <v>697</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+      <c r="D527" t="s">
+        <v>102</v>
+      </c>
+      <c r="E527" t="s">
+        <v>31</v>
+      </c>
+      <c r="F527" t="s">
+        <v>103</v>
+      </c>
+      <c r="G527" t="s">
+        <v>31</v>
+      </c>
+      <c r="J527">
+        <v>40</v>
+      </c>
+      <c r="K527">
+        <v>750</v>
+      </c>
+      <c r="O527">
+        <v>0.18</v>
+      </c>
+      <c r="P527">
+        <v>0.18</v>
+      </c>
+      <c r="Q527">
+        <v>0.18</v>
+      </c>
+      <c r="R527">
+        <v>0.18</v>
+      </c>
+      <c r="S527">
+        <v>0.18</v>
+      </c>
+      <c r="U527">
+        <v>1</v>
+      </c>
+      <c r="V527">
+        <v>18</v>
+      </c>
+      <c r="W527">
+        <v>36</v>
+      </c>
+      <c r="X527" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="528" spans="1:27">
+      <c r="B528" t="s">
+        <v>558</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+      <c r="D528" t="s">
+        <v>297</v>
+      </c>
+      <c r="E528" t="s">
+        <v>273</v>
+      </c>
+      <c r="F528" t="s">
+        <v>298</v>
+      </c>
+      <c r="H528">
+        <v>75</v>
+      </c>
+      <c r="K528">
+        <v>133000</v>
+      </c>
+      <c r="L528">
+        <v>0.25</v>
+      </c>
+      <c r="M528">
+        <v>0.25</v>
+      </c>
+      <c r="N528">
+        <v>0.25</v>
+      </c>
+      <c r="U528">
+        <v>1</v>
+      </c>
+      <c r="V528">
+        <v>50</v>
+      </c>
+      <c r="W528">
+        <v>100</v>
+      </c>
+      <c r="X528" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="529" spans="1:27">
+      <c r="B529" t="s">
+        <v>557</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+      <c r="D529" t="s">
+        <v>132</v>
+      </c>
+      <c r="E529" t="s">
+        <v>28</v>
+      </c>
+      <c r="F529" t="s">
+        <v>133</v>
+      </c>
+      <c r="H529">
+        <v>145</v>
+      </c>
+      <c r="K529">
+        <v>3600</v>
+      </c>
+      <c r="O529">
+        <v>0.2</v>
+      </c>
+      <c r="P529">
+        <v>0.2</v>
+      </c>
+      <c r="Q529">
+        <v>0.2</v>
+      </c>
+      <c r="R529">
+        <v>0.2</v>
+      </c>
+      <c r="S529">
+        <v>0.2</v>
+      </c>
+      <c r="U529">
+        <v>1</v>
+      </c>
+      <c r="V529">
+        <v>28</v>
+      </c>
+      <c r="W529">
+        <v>50</v>
+      </c>
+      <c r="X529" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="530" spans="1:27">
+      <c r="B530" t="s">
+        <v>565</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+      <c r="D530" t="s">
+        <v>690</v>
+      </c>
+      <c r="E530" t="s">
+        <v>44</v>
+      </c>
+      <c r="F530" t="s">
+        <v>267</v>
+      </c>
+      <c r="J530">
+        <v>200</v>
+      </c>
+      <c r="K530">
+        <v>760000</v>
+      </c>
+      <c r="O530">
+        <v>0.23</v>
+      </c>
+      <c r="P530">
+        <v>0.23</v>
+      </c>
+      <c r="Q530">
+        <v>0.23</v>
+      </c>
+      <c r="R530">
+        <v>0.23</v>
+      </c>
+      <c r="S530">
+        <v>0.23</v>
+      </c>
+      <c r="U530">
+        <v>1</v>
+      </c>
+      <c r="V530">
+        <v>70</v>
+      </c>
+      <c r="W530">
+        <v>130</v>
+      </c>
+      <c r="X530" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="531" spans="1:27">
+      <c r="D531" t="s">
+        <v>700</v>
+      </c>
+      <c r="E531" t="s">
+        <v>50</v>
+      </c>
+      <c r="F531" t="s">
+        <v>631</v>
+      </c>
+      <c r="G531" t="s">
+        <v>50</v>
+      </c>
+      <c r="J531">
+        <v>300</v>
+      </c>
+      <c r="K531">
+        <v>35930000</v>
+      </c>
+      <c r="O531">
+        <v>0.49</v>
+      </c>
+      <c r="P531">
+        <v>0.49</v>
+      </c>
+      <c r="Q531">
+        <v>0.49</v>
+      </c>
+      <c r="R531">
+        <v>0.49</v>
+      </c>
+      <c r="S531">
+        <v>0.49</v>
+      </c>
+      <c r="U531">
+        <v>1</v>
+      </c>
+      <c r="V531">
+        <v>130</v>
+      </c>
+      <c r="W531">
+        <v>200</v>
+      </c>
+      <c r="X531" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="532" spans="1:27">
+      <c r="A532" t="s">
+        <v>560</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+      <c r="D532" t="s">
+        <v>214</v>
+      </c>
+      <c r="E532" t="s">
+        <v>35</v>
+      </c>
+      <c r="F532" t="s">
+        <v>215</v>
+      </c>
+      <c r="J532">
+        <v>130</v>
+      </c>
+      <c r="K532">
+        <v>75000</v>
+      </c>
+      <c r="O532">
+        <v>0.2</v>
+      </c>
+      <c r="P532">
+        <v>0.2</v>
+      </c>
+      <c r="Q532">
+        <v>0.2</v>
+      </c>
+      <c r="R532">
+        <v>0.2</v>
+      </c>
+      <c r="S532">
+        <v>0.2</v>
+      </c>
+      <c r="U532">
+        <v>1</v>
+      </c>
+      <c r="V532">
+        <v>50</v>
+      </c>
+      <c r="W532">
+        <v>100</v>
+      </c>
+      <c r="X532" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="533" spans="1:27">
+      <c r="B533" t="s">
+        <v>701</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+      <c r="D533" t="s">
+        <v>256</v>
+      </c>
+      <c r="E533" t="s">
+        <v>28</v>
+      </c>
+      <c r="F533" t="s">
+        <v>257</v>
+      </c>
+      <c r="H533">
+        <v>450</v>
+      </c>
+      <c r="K533">
+        <v>1525000</v>
+      </c>
+      <c r="O533">
+        <v>0.37</v>
+      </c>
+      <c r="P533">
+        <v>0.37</v>
+      </c>
+      <c r="Q533">
+        <v>0.37</v>
+      </c>
+      <c r="R533">
+        <v>0.37</v>
+      </c>
+      <c r="S533">
+        <v>0.37</v>
+      </c>
+      <c r="U533">
+        <v>1</v>
+      </c>
+      <c r="V533">
+        <v>70</v>
+      </c>
+      <c r="W533">
+        <v>150</v>
+      </c>
+      <c r="X533" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="534" spans="1:27">
+      <c r="B534" t="s">
+        <v>702</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+      <c r="D534" t="s">
+        <v>128</v>
+      </c>
+      <c r="E534" t="s">
+        <v>47</v>
+      </c>
+      <c r="F534" t="s">
+        <v>129</v>
+      </c>
+      <c r="G534" t="s">
+        <v>47</v>
+      </c>
+      <c r="J534">
+        <v>30</v>
+      </c>
+      <c r="K534">
+        <v>945</v>
+      </c>
+      <c r="O534">
+        <v>0.06</v>
+      </c>
+      <c r="P534">
+        <v>0.06</v>
+      </c>
+      <c r="Q534">
+        <v>0.06</v>
+      </c>
+      <c r="R534">
+        <v>0.06</v>
+      </c>
+      <c r="S534">
+        <v>0.06</v>
+      </c>
+      <c r="U534">
+        <v>1</v>
+      </c>
+      <c r="V534">
+        <v>24</v>
+      </c>
+      <c r="W534">
+        <v>40</v>
+      </c>
+      <c r="X534" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="535" spans="1:27">
+      <c r="B535" t="s">
+        <v>542</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+      <c r="D535" t="s">
+        <v>200</v>
+      </c>
+      <c r="E535" t="s">
+        <v>35</v>
+      </c>
+      <c r="F535" t="s">
+        <v>201</v>
+      </c>
+      <c r="J535">
+        <v>110</v>
+      </c>
+      <c r="K535">
+        <v>38000</v>
+      </c>
+      <c r="O535">
+        <v>0.19</v>
+      </c>
+      <c r="P535">
+        <v>0.19</v>
+      </c>
+      <c r="Q535">
+        <v>0.19</v>
+      </c>
+      <c r="R535">
+        <v>0.19</v>
+      </c>
+      <c r="S535">
+        <v>0.19</v>
+      </c>
+      <c r="U535">
+        <v>1</v>
+      </c>
+      <c r="V535">
+        <v>43</v>
+      </c>
+      <c r="W535">
+        <v>78</v>
+      </c>
+      <c r="X535" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="702">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -2085,9 +2085,6 @@
   </si>
   <si>
     <t>Queens Blessing</t>
-  </si>
-  <si>
-    <t>Golden Ribbon Sleevs</t>
   </si>
   <si>
     <t>Enchantress Spell</t>
@@ -7613,6 +7610,9 @@
       <c r="F117" t="s">
         <v>267</v>
       </c>
+      <c r="G117" t="s">
+        <v>44</v>
+      </c>
       <c r="J117">
         <v>200</v>
       </c>
@@ -19340,6 +19340,9 @@
       <c r="F411" t="s">
         <v>267</v>
       </c>
+      <c r="G411" t="s">
+        <v>44</v>
+      </c>
       <c r="J411">
         <v>200</v>
       </c>
@@ -19422,347 +19425,353 @@
       </c>
     </row>
     <row r="413" spans="1:27">
+      <c r="A413" t="s">
+        <v>562</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
       <c r="D413" t="s">
-        <v>690</v>
+        <v>144</v>
       </c>
       <c r="E413" t="s">
+        <v>47</v>
+      </c>
+      <c r="F413" t="s">
+        <v>145</v>
+      </c>
+      <c r="G413" t="s">
+        <v>47</v>
+      </c>
+      <c r="J413">
+        <v>45</v>
+      </c>
+      <c r="K413">
+        <v>2250</v>
+      </c>
+      <c r="O413">
+        <v>0.08</v>
+      </c>
+      <c r="P413">
+        <v>0.08</v>
+      </c>
+      <c r="Q413">
+        <v>0.08</v>
+      </c>
+      <c r="R413">
+        <v>0.08</v>
+      </c>
+      <c r="S413">
+        <v>0.08</v>
+      </c>
+      <c r="U413">
+        <v>1</v>
+      </c>
+      <c r="V413">
+        <v>28</v>
+      </c>
+      <c r="W413">
+        <v>50</v>
+      </c>
+      <c r="X413" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="414" spans="1:27">
+      <c r="B414" t="s">
+        <v>538</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414" t="s">
+        <v>52</v>
+      </c>
+      <c r="E414" t="s">
+        <v>28</v>
+      </c>
+      <c r="F414" t="s">
+        <v>53</v>
+      </c>
+      <c r="H414">
+        <v>8</v>
+      </c>
+      <c r="K414">
+        <v>50</v>
+      </c>
+      <c r="O414">
+        <v>0.05</v>
+      </c>
+      <c r="P414">
+        <v>0.05</v>
+      </c>
+      <c r="Q414">
+        <v>0.05</v>
+      </c>
+      <c r="R414">
+        <v>0.05</v>
+      </c>
+      <c r="S414">
+        <v>0.05</v>
+      </c>
+      <c r="U414">
+        <v>1</v>
+      </c>
+      <c r="V414">
+        <v>3</v>
+      </c>
+      <c r="W414">
+        <v>8</v>
+      </c>
+      <c r="X414" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="415" spans="1:27">
+      <c r="A415" t="s">
+        <v>540</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415" t="s">
+        <v>236</v>
+      </c>
+      <c r="E415" t="s">
+        <v>47</v>
+      </c>
+      <c r="F415" t="s">
+        <v>237</v>
+      </c>
+      <c r="G415" t="s">
+        <v>47</v>
+      </c>
+      <c r="J415">
+        <v>150</v>
+      </c>
+      <c r="K415">
+        <v>378000</v>
+      </c>
+      <c r="O415">
+        <v>0.18</v>
+      </c>
+      <c r="P415">
+        <v>0.18</v>
+      </c>
+      <c r="Q415">
+        <v>0.18</v>
+      </c>
+      <c r="R415">
+        <v>0.18</v>
+      </c>
+      <c r="S415">
+        <v>0.18</v>
+      </c>
+      <c r="U415">
+        <v>1</v>
+      </c>
+      <c r="V415">
+        <v>55</v>
+      </c>
+      <c r="W415">
+        <v>110</v>
+      </c>
+      <c r="X415" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="416" spans="1:27">
+      <c r="B416" t="s">
+        <v>554</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416" t="s">
+        <v>164</v>
+      </c>
+      <c r="E416" t="s">
+        <v>28</v>
+      </c>
+      <c r="F416" t="s">
+        <v>165</v>
+      </c>
+      <c r="H416">
+        <v>190</v>
+      </c>
+      <c r="K416">
+        <v>12000</v>
+      </c>
+      <c r="O416">
+        <v>0.25</v>
+      </c>
+      <c r="P416">
+        <v>0.25</v>
+      </c>
+      <c r="Q416">
+        <v>0.25</v>
+      </c>
+      <c r="R416">
+        <v>0.25</v>
+      </c>
+      <c r="S416">
+        <v>0.25</v>
+      </c>
+      <c r="U416">
+        <v>1</v>
+      </c>
+      <c r="V416">
+        <v>36</v>
+      </c>
+      <c r="W416">
+        <v>70</v>
+      </c>
+      <c r="X416" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="417" spans="1:27">
+      <c r="A417" t="s">
+        <v>561</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417" t="s">
+        <v>301</v>
+      </c>
+      <c r="E417" t="s">
+        <v>273</v>
+      </c>
+      <c r="F417" t="s">
+        <v>302</v>
+      </c>
+      <c r="H417">
+        <v>90</v>
+      </c>
+      <c r="K417">
+        <v>750000</v>
+      </c>
+      <c r="L417">
+        <v>0.29</v>
+      </c>
+      <c r="M417">
+        <v>0.29</v>
+      </c>
+      <c r="N417">
+        <v>0.29</v>
+      </c>
+      <c r="U417">
+        <v>1</v>
+      </c>
+      <c r="V417">
+        <v>60</v>
+      </c>
+      <c r="W417">
+        <v>130</v>
+      </c>
+      <c r="X417" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="418" spans="1:27">
+      <c r="B418" t="s">
+        <v>555</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+      <c r="D418" t="s">
+        <v>220</v>
+      </c>
+      <c r="E418" t="s">
         <v>44</v>
       </c>
-      <c r="F413" t="s">
-        <v>267</v>
-      </c>
-      <c r="J413">
-        <v>200</v>
-      </c>
-      <c r="K413">
-        <v>760000</v>
-      </c>
-      <c r="O413">
-        <v>0.23</v>
-      </c>
-      <c r="P413">
-        <v>0.23</v>
-      </c>
-      <c r="Q413">
-        <v>0.23</v>
-      </c>
-      <c r="R413">
-        <v>0.23</v>
-      </c>
-      <c r="S413">
-        <v>0.23</v>
-      </c>
-      <c r="U413">
-        <v>1</v>
-      </c>
-      <c r="V413">
-        <v>70</v>
-      </c>
-      <c r="W413">
+      <c r="F418" t="s">
+        <v>221</v>
+      </c>
+      <c r="G418" t="s">
+        <v>44</v>
+      </c>
+      <c r="J418">
         <v>130</v>
       </c>
-      <c r="X413" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="414" spans="1:27">
-      <c r="A414" t="s">
-        <v>562</v>
-      </c>
-      <c r="C414">
-        <v>1</v>
-      </c>
-      <c r="D414" t="s">
-        <v>144</v>
-      </c>
-      <c r="E414" t="s">
-        <v>47</v>
-      </c>
-      <c r="F414" t="s">
-        <v>145</v>
-      </c>
-      <c r="G414" t="s">
-        <v>47</v>
-      </c>
-      <c r="J414">
-        <v>45</v>
-      </c>
-      <c r="K414">
-        <v>2250</v>
-      </c>
-      <c r="O414">
-        <v>0.08</v>
-      </c>
-      <c r="P414">
-        <v>0.08</v>
-      </c>
-      <c r="Q414">
-        <v>0.08</v>
-      </c>
-      <c r="R414">
-        <v>0.08</v>
-      </c>
-      <c r="S414">
-        <v>0.08</v>
-      </c>
-      <c r="U414">
-        <v>1</v>
-      </c>
-      <c r="V414">
-        <v>28</v>
-      </c>
-      <c r="W414">
+      <c r="K418">
+        <v>78000</v>
+      </c>
+      <c r="O418">
+        <v>0.16</v>
+      </c>
+      <c r="P418">
+        <v>0.16</v>
+      </c>
+      <c r="Q418">
+        <v>0.16</v>
+      </c>
+      <c r="R418">
+        <v>0.16</v>
+      </c>
+      <c r="S418">
+        <v>0.16</v>
+      </c>
+      <c r="U418">
+        <v>1</v>
+      </c>
+      <c r="V418">
         <v>50</v>
       </c>
-      <c r="X414" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="415" spans="1:27">
-      <c r="B415" t="s">
-        <v>538</v>
-      </c>
-      <c r="C415">
-        <v>1</v>
-      </c>
-      <c r="D415" t="s">
-        <v>52</v>
-      </c>
-      <c r="E415" t="s">
-        <v>28</v>
-      </c>
-      <c r="F415" t="s">
-        <v>53</v>
-      </c>
-      <c r="H415">
-        <v>8</v>
-      </c>
-      <c r="K415">
-        <v>50</v>
-      </c>
-      <c r="O415">
-        <v>0.05</v>
-      </c>
-      <c r="P415">
-        <v>0.05</v>
-      </c>
-      <c r="Q415">
-        <v>0.05</v>
-      </c>
-      <c r="R415">
-        <v>0.05</v>
-      </c>
-      <c r="S415">
-        <v>0.05</v>
-      </c>
-      <c r="U415">
-        <v>1</v>
-      </c>
-      <c r="V415">
-        <v>3</v>
-      </c>
-      <c r="W415">
-        <v>8</v>
-      </c>
-      <c r="X415" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="416" spans="1:27">
-      <c r="A416" t="s">
-        <v>540</v>
-      </c>
-      <c r="C416">
-        <v>1</v>
-      </c>
-      <c r="D416" t="s">
-        <v>236</v>
-      </c>
-      <c r="E416" t="s">
-        <v>47</v>
-      </c>
-      <c r="F416" t="s">
-        <v>237</v>
-      </c>
-      <c r="G416" t="s">
-        <v>47</v>
-      </c>
-      <c r="J416">
-        <v>150</v>
-      </c>
-      <c r="K416">
-        <v>378000</v>
-      </c>
-      <c r="O416">
-        <v>0.18</v>
-      </c>
-      <c r="P416">
-        <v>0.18</v>
-      </c>
-      <c r="Q416">
-        <v>0.18</v>
-      </c>
-      <c r="R416">
-        <v>0.18</v>
-      </c>
-      <c r="S416">
-        <v>0.18</v>
-      </c>
-      <c r="U416">
-        <v>1</v>
-      </c>
-      <c r="V416">
-        <v>55</v>
-      </c>
-      <c r="W416">
-        <v>110</v>
-      </c>
-      <c r="X416" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="417" spans="1:27">
-      <c r="B417" t="s">
-        <v>554</v>
-      </c>
-      <c r="C417">
-        <v>1</v>
-      </c>
-      <c r="D417" t="s">
-        <v>164</v>
-      </c>
-      <c r="E417" t="s">
-        <v>28</v>
-      </c>
-      <c r="F417" t="s">
-        <v>165</v>
-      </c>
-      <c r="H417">
-        <v>190</v>
-      </c>
-      <c r="K417">
-        <v>12000</v>
-      </c>
-      <c r="O417">
-        <v>0.25</v>
-      </c>
-      <c r="P417">
-        <v>0.25</v>
-      </c>
-      <c r="Q417">
-        <v>0.25</v>
-      </c>
-      <c r="R417">
-        <v>0.25</v>
-      </c>
-      <c r="S417">
-        <v>0.25</v>
-      </c>
-      <c r="U417">
-        <v>1</v>
-      </c>
-      <c r="V417">
-        <v>36</v>
-      </c>
-      <c r="W417">
-        <v>70</v>
-      </c>
-      <c r="X417" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="418" spans="1:27">
-      <c r="A418" t="s">
-        <v>561</v>
-      </c>
-      <c r="C418">
-        <v>1</v>
-      </c>
-      <c r="D418" t="s">
-        <v>301</v>
-      </c>
-      <c r="E418" t="s">
-        <v>273</v>
-      </c>
-      <c r="F418" t="s">
-        <v>302</v>
-      </c>
-      <c r="H418">
-        <v>90</v>
-      </c>
-      <c r="K418">
-        <v>750000</v>
-      </c>
-      <c r="L418">
-        <v>0.29</v>
-      </c>
-      <c r="M418">
-        <v>0.29</v>
-      </c>
-      <c r="N418">
-        <v>0.29</v>
-      </c>
-      <c r="U418">
-        <v>1</v>
-      </c>
-      <c r="V418">
-        <v>60</v>
-      </c>
       <c r="W418">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="X418" t="s">
-        <v>273</v>
+        <v>33</v>
       </c>
     </row>
     <row r="419" spans="1:27">
       <c r="B419" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="C419">
         <v>1</v>
       </c>
       <c r="D419" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="E419" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F419" t="s">
-        <v>221</v>
-      </c>
-      <c r="G419" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="J419">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="K419">
-        <v>78000</v>
+        <v>1750</v>
       </c>
       <c r="O419">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="P419">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="Q419">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="R419">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="S419">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="U419">
         <v>1</v>
       </c>
       <c r="V419">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="W419">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="X419" t="s">
         <v>33</v>
@@ -19770,49 +19779,52 @@
     </row>
     <row r="420" spans="1:27">
       <c r="B420" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="C420">
         <v>1</v>
       </c>
       <c r="D420" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="E420" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F420" t="s">
-        <v>121</v>
+        <v>223</v>
+      </c>
+      <c r="G420" t="s">
+        <v>47</v>
       </c>
       <c r="J420">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="K420">
-        <v>1750</v>
+        <v>73000</v>
       </c>
       <c r="O420">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="P420">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="Q420">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="R420">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="S420">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="U420">
         <v>1</v>
       </c>
       <c r="V420">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="W420">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="X420" t="s">
         <v>33</v>
@@ -19820,52 +19832,52 @@
     </row>
     <row r="421" spans="1:27">
       <c r="B421" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C421">
         <v>1</v>
       </c>
       <c r="D421" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="E421" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F421" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="G421" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J421">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K421">
-        <v>73000</v>
+        <v>5750</v>
       </c>
       <c r="O421">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="P421">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="Q421">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="R421">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="S421">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="U421">
         <v>1</v>
       </c>
       <c r="V421">
+        <v>28</v>
+      </c>
+      <c r="W421">
         <v>50</v>
-      </c>
-      <c r="W421">
-        <v>100</v>
       </c>
       <c r="X421" t="s">
         <v>33</v>
@@ -19873,131 +19885,116 @@
     </row>
     <row r="422" spans="1:27">
       <c r="B422" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C422">
         <v>1</v>
       </c>
       <c r="D422" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="E422" t="s">
         <v>31</v>
       </c>
       <c r="F422" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="G422" t="s">
         <v>31</v>
       </c>
       <c r="J422">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K422">
-        <v>5750</v>
+        <v>160</v>
       </c>
       <c r="O422">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="P422">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="Q422">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="R422">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="S422">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="U422">
         <v>1</v>
       </c>
       <c r="V422">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="W422">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="X422" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="423" spans="1:27">
-      <c r="B423" t="s">
-        <v>546</v>
+      <c r="A423" t="s">
+        <v>543</v>
       </c>
       <c r="C423">
         <v>1</v>
       </c>
       <c r="D423" t="s">
+        <v>323</v>
+      </c>
+      <c r="E423" t="s">
+        <v>306</v>
+      </c>
+      <c r="F423" t="s">
+        <v>324</v>
+      </c>
+      <c r="H423">
+        <v>85</v>
+      </c>
+      <c r="K423">
+        <v>18000</v>
+      </c>
+      <c r="U423">
+        <v>1</v>
+      </c>
+      <c r="V423">
+        <v>36</v>
+      </c>
+      <c r="W423">
         <v>70</v>
       </c>
-      <c r="E423" t="s">
-        <v>31</v>
-      </c>
-      <c r="F423" t="s">
-        <v>71</v>
-      </c>
-      <c r="G423" t="s">
-        <v>31</v>
-      </c>
-      <c r="J423">
-        <v>10</v>
-      </c>
-      <c r="K423">
-        <v>160</v>
-      </c>
-      <c r="O423">
-        <v>0.1</v>
-      </c>
-      <c r="P423">
-        <v>0.1</v>
-      </c>
-      <c r="Q423">
-        <v>0.1</v>
-      </c>
-      <c r="R423">
-        <v>0.1</v>
-      </c>
-      <c r="S423">
-        <v>0.1</v>
-      </c>
-      <c r="U423">
-        <v>1</v>
-      </c>
-      <c r="V423">
-        <v>6</v>
-      </c>
-      <c r="W423">
-        <v>12</v>
-      </c>
       <c r="X423" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
     </row>
     <row r="424" spans="1:27">
       <c r="A424" t="s">
-        <v>543</v>
+        <v>548</v>
+      </c>
+      <c r="B424" t="s">
+        <v>546</v>
       </c>
       <c r="C424">
         <v>1</v>
       </c>
       <c r="D424" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="E424" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="F424" t="s">
-        <v>324</v>
-      </c>
-      <c r="H424">
-        <v>85</v>
+        <v>357</v>
+      </c>
+      <c r="I424">
+        <v>160</v>
       </c>
       <c r="K424">
-        <v>18000</v>
+        <v>13876</v>
       </c>
       <c r="U424">
         <v>1</v>
@@ -20013,111 +20010,126 @@
       </c>
     </row>
     <row r="425" spans="1:27">
-      <c r="A425" t="s">
-        <v>548</v>
-      </c>
       <c r="B425" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C425">
         <v>1</v>
       </c>
       <c r="D425" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="E425" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="F425" t="s">
-        <v>357</v>
-      </c>
-      <c r="I425">
-        <v>160</v>
+        <v>310</v>
+      </c>
+      <c r="H425">
+        <v>10</v>
       </c>
       <c r="K425">
-        <v>13876</v>
+        <v>50</v>
       </c>
       <c r="U425">
         <v>1</v>
       </c>
       <c r="V425">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="W425">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="X425" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="426" spans="1:27">
+      <c r="A426" t="s">
+        <v>549</v>
+      </c>
       <c r="B426" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="C426">
         <v>1</v>
       </c>
       <c r="D426" t="s">
-        <v>309</v>
+        <v>27</v>
       </c>
       <c r="E426" t="s">
-        <v>306</v>
+        <v>28</v>
       </c>
       <c r="F426" t="s">
-        <v>310</v>
+        <v>29</v>
       </c>
       <c r="H426">
+        <v>4</v>
+      </c>
+      <c r="K426">
         <v>10</v>
       </c>
-      <c r="K426">
-        <v>50</v>
-      </c>
       <c r="U426">
         <v>1</v>
       </c>
       <c r="V426">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W426">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X426" t="s">
-        <v>308</v>
+        <v>28</v>
       </c>
     </row>
     <row r="427" spans="1:27">
       <c r="A427" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B427" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C427">
         <v>1</v>
       </c>
       <c r="D427" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E427" t="s">
         <v>28</v>
       </c>
       <c r="F427" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H427">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K427">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="O427">
+        <v>0.05</v>
+      </c>
+      <c r="P427">
+        <v>0.05</v>
+      </c>
+      <c r="Q427">
+        <v>0.05</v>
+      </c>
+      <c r="R427">
+        <v>0.05</v>
+      </c>
+      <c r="S427">
+        <v>0.05</v>
       </c>
       <c r="U427">
         <v>1</v>
       </c>
       <c r="V427">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W427">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X427" t="s">
         <v>28</v>
@@ -20125,175 +20137,172 @@
     </row>
     <row r="428" spans="1:27">
       <c r="A428" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B428" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C428">
         <v>1</v>
       </c>
       <c r="D428" t="s">
+        <v>30</v>
+      </c>
+      <c r="E428" t="s">
+        <v>31</v>
+      </c>
+      <c r="F428" t="s">
+        <v>32</v>
+      </c>
+      <c r="G428" t="s">
+        <v>31</v>
+      </c>
+      <c r="J428">
+        <v>4</v>
+      </c>
+      <c r="K428">
+        <v>10</v>
+      </c>
+      <c r="U428">
+        <v>1</v>
+      </c>
+      <c r="V428">
+        <v>1</v>
+      </c>
+      <c r="W428">
+        <v>5</v>
+      </c>
+      <c r="X428" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="429" spans="1:27">
+      <c r="B429" t="s">
+        <v>538</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429" t="s">
+        <v>196</v>
+      </c>
+      <c r="E429" t="s">
+        <v>28</v>
+      </c>
+      <c r="F429" t="s">
+        <v>197</v>
+      </c>
+      <c r="H429">
+        <v>250</v>
+      </c>
+      <c r="K429">
+        <v>50000</v>
+      </c>
+      <c r="O429">
+        <v>0.27</v>
+      </c>
+      <c r="P429">
+        <v>0.27</v>
+      </c>
+      <c r="Q429">
+        <v>0.27</v>
+      </c>
+      <c r="R429">
+        <v>0.27</v>
+      </c>
+      <c r="S429">
+        <v>0.27</v>
+      </c>
+      <c r="U429">
+        <v>1</v>
+      </c>
+      <c r="V429">
+        <v>43</v>
+      </c>
+      <c r="W429">
+        <v>78</v>
+      </c>
+      <c r="X429" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="430" spans="1:27">
+      <c r="A430" t="s">
+        <v>540</v>
+      </c>
+      <c r="B430" t="s">
+        <v>565</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430" t="s">
+        <v>64</v>
+      </c>
+      <c r="E430" t="s">
+        <v>47</v>
+      </c>
+      <c r="F430" t="s">
+        <v>65</v>
+      </c>
+      <c r="G430" t="s">
+        <v>47</v>
+      </c>
+      <c r="J430">
+        <v>3</v>
+      </c>
+      <c r="K430">
+        <v>55</v>
+      </c>
+      <c r="U430">
+        <v>1</v>
+      </c>
+      <c r="V430">
+        <v>3</v>
+      </c>
+      <c r="W430">
+        <v>8</v>
+      </c>
+      <c r="X430" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="431" spans="1:27">
+      <c r="B431" t="s">
+        <v>545</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431" t="s">
         <v>52</v>
       </c>
-      <c r="E428" t="s">
+      <c r="E431" t="s">
         <v>28</v>
       </c>
-      <c r="F428" t="s">
+      <c r="F431" t="s">
         <v>53</v>
       </c>
-      <c r="H428">
+      <c r="H431">
         <v>8</v>
       </c>
-      <c r="K428">
+      <c r="K431">
         <v>50</v>
       </c>
-      <c r="O428">
+      <c r="O431">
         <v>0.05</v>
       </c>
-      <c r="P428">
+      <c r="P431">
         <v>0.05</v>
       </c>
-      <c r="Q428">
+      <c r="Q431">
         <v>0.05</v>
       </c>
-      <c r="R428">
+      <c r="R431">
         <v>0.05</v>
       </c>
-      <c r="S428">
+      <c r="S431">
         <v>0.05</v>
-      </c>
-      <c r="U428">
-        <v>1</v>
-      </c>
-      <c r="V428">
-        <v>3</v>
-      </c>
-      <c r="W428">
-        <v>8</v>
-      </c>
-      <c r="X428" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="429" spans="1:27">
-      <c r="A429" t="s">
-        <v>549</v>
-      </c>
-      <c r="B429" t="s">
-        <v>557</v>
-      </c>
-      <c r="C429">
-        <v>1</v>
-      </c>
-      <c r="D429" t="s">
-        <v>30</v>
-      </c>
-      <c r="E429" t="s">
-        <v>31</v>
-      </c>
-      <c r="F429" t="s">
-        <v>32</v>
-      </c>
-      <c r="G429" t="s">
-        <v>31</v>
-      </c>
-      <c r="J429">
-        <v>4</v>
-      </c>
-      <c r="K429">
-        <v>10</v>
-      </c>
-      <c r="U429">
-        <v>1</v>
-      </c>
-      <c r="V429">
-        <v>1</v>
-      </c>
-      <c r="W429">
-        <v>5</v>
-      </c>
-      <c r="X429" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="430" spans="1:27">
-      <c r="B430" t="s">
-        <v>538</v>
-      </c>
-      <c r="C430">
-        <v>1</v>
-      </c>
-      <c r="D430" t="s">
-        <v>196</v>
-      </c>
-      <c r="E430" t="s">
-        <v>28</v>
-      </c>
-      <c r="F430" t="s">
-        <v>197</v>
-      </c>
-      <c r="H430">
-        <v>250</v>
-      </c>
-      <c r="K430">
-        <v>50000</v>
-      </c>
-      <c r="O430">
-        <v>0.27</v>
-      </c>
-      <c r="P430">
-        <v>0.27</v>
-      </c>
-      <c r="Q430">
-        <v>0.27</v>
-      </c>
-      <c r="R430">
-        <v>0.27</v>
-      </c>
-      <c r="S430">
-        <v>0.27</v>
-      </c>
-      <c r="U430">
-        <v>1</v>
-      </c>
-      <c r="V430">
-        <v>43</v>
-      </c>
-      <c r="W430">
-        <v>78</v>
-      </c>
-      <c r="X430" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="431" spans="1:27">
-      <c r="A431" t="s">
-        <v>540</v>
-      </c>
-      <c r="B431" t="s">
-        <v>565</v>
-      </c>
-      <c r="C431">
-        <v>1</v>
-      </c>
-      <c r="D431" t="s">
-        <v>64</v>
-      </c>
-      <c r="E431" t="s">
-        <v>47</v>
-      </c>
-      <c r="F431" t="s">
-        <v>65</v>
-      </c>
-      <c r="G431" t="s">
-        <v>47</v>
-      </c>
-      <c r="J431">
-        <v>3</v>
-      </c>
-      <c r="K431">
-        <v>55</v>
       </c>
       <c r="U431">
         <v>1</v>
@@ -20305,157 +20314,160 @@
         <v>8</v>
       </c>
       <c r="X431" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="432" spans="1:27">
-      <c r="B432" t="s">
-        <v>545</v>
+      <c r="A432" t="s">
+        <v>561</v>
       </c>
       <c r="C432">
         <v>1</v>
       </c>
       <c r="D432" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="E432" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F432" t="s">
-        <v>53</v>
-      </c>
-      <c r="H432">
-        <v>8</v>
+        <v>187</v>
+      </c>
+      <c r="G432" t="s">
+        <v>38</v>
+      </c>
+      <c r="J432">
+        <v>90</v>
       </c>
       <c r="K432">
-        <v>50</v>
+        <v>18000</v>
       </c>
       <c r="O432">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="P432">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="Q432">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="R432">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="S432">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="U432">
         <v>1</v>
       </c>
       <c r="V432">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="W432">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="X432" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="433" spans="1:27">
       <c r="A433" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C433">
         <v>1</v>
       </c>
       <c r="D433" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="E433" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F433" t="s">
-        <v>187</v>
-      </c>
-      <c r="G433" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="J433">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="K433">
-        <v>18000</v>
+        <v>280</v>
       </c>
       <c r="O433">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="P433">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="Q433">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="R433">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="S433">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="U433">
         <v>1</v>
       </c>
       <c r="V433">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="W433">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="X433" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="434" spans="1:27">
-      <c r="A434" t="s">
-        <v>562</v>
+      <c r="B434" t="s">
+        <v>542</v>
       </c>
       <c r="C434">
         <v>1</v>
       </c>
       <c r="D434" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E434" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F434" t="s">
-        <v>89</v>
+        <v>71</v>
+      </c>
+      <c r="G434" t="s">
+        <v>31</v>
       </c>
       <c r="J434">
         <v>10</v>
       </c>
       <c r="K434">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="O434">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="P434">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="Q434">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="R434">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="S434">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="U434">
         <v>1</v>
       </c>
       <c r="V434">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W434">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="X434" t="s">
         <v>33</v>
@@ -20463,131 +20475,122 @@
     </row>
     <row r="435" spans="1:27">
       <c r="B435" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C435">
         <v>1</v>
       </c>
       <c r="D435" t="s">
-        <v>70</v>
+        <v>329</v>
       </c>
       <c r="E435" t="s">
+        <v>306</v>
+      </c>
+      <c r="F435" t="s">
+        <v>330</v>
+      </c>
+      <c r="H435">
+        <v>140</v>
+      </c>
+      <c r="K435">
+        <v>76000</v>
+      </c>
+      <c r="U435">
+        <v>1</v>
+      </c>
+      <c r="V435">
+        <v>46</v>
+      </c>
+      <c r="W435">
+        <v>90</v>
+      </c>
+      <c r="X435" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="436" spans="1:27">
+      <c r="A436" t="s">
+        <v>550</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436" t="s">
+        <v>228</v>
+      </c>
+      <c r="E436" t="s">
         <v>31</v>
       </c>
-      <c r="F435" t="s">
-        <v>71</v>
-      </c>
-      <c r="G435" t="s">
+      <c r="F436" t="s">
+        <v>229</v>
+      </c>
+      <c r="G436" t="s">
         <v>31</v>
       </c>
-      <c r="J435">
-        <v>10</v>
-      </c>
-      <c r="K435">
-        <v>160</v>
-      </c>
-      <c r="O435">
-        <v>0.1</v>
-      </c>
-      <c r="P435">
-        <v>0.1</v>
-      </c>
-      <c r="Q435">
-        <v>0.1</v>
-      </c>
-      <c r="R435">
-        <v>0.1</v>
-      </c>
-      <c r="S435">
-        <v>0.1</v>
-      </c>
-      <c r="U435">
-        <v>1</v>
-      </c>
-      <c r="V435">
-        <v>6</v>
-      </c>
-      <c r="W435">
-        <v>12</v>
-      </c>
-      <c r="X435" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="436" spans="1:27">
-      <c r="B436" t="s">
-        <v>541</v>
-      </c>
-      <c r="C436">
-        <v>1</v>
-      </c>
-      <c r="D436" t="s">
-        <v>329</v>
-      </c>
-      <c r="E436" t="s">
-        <v>306</v>
-      </c>
-      <c r="F436" t="s">
-        <v>330</v>
-      </c>
-      <c r="H436">
-        <v>140</v>
+      <c r="J436">
+        <v>230</v>
       </c>
       <c r="K436">
-        <v>76000</v>
+        <v>450000</v>
+      </c>
+      <c r="O436">
+        <v>0.4</v>
+      </c>
+      <c r="P436">
+        <v>0.4</v>
+      </c>
+      <c r="Q436">
+        <v>0.4</v>
+      </c>
+      <c r="R436">
+        <v>0.4</v>
+      </c>
+      <c r="S436">
+        <v>0.4</v>
       </c>
       <c r="U436">
         <v>1</v>
       </c>
       <c r="V436">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="W436">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="X436" t="s">
-        <v>308</v>
+        <v>33</v>
       </c>
     </row>
     <row r="437" spans="1:27">
       <c r="A437" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="C437">
         <v>1</v>
       </c>
       <c r="D437" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="E437" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="F437" t="s">
-        <v>229</v>
-      </c>
-      <c r="G437" t="s">
-        <v>31</v>
-      </c>
-      <c r="J437">
-        <v>230</v>
+        <v>300</v>
+      </c>
+      <c r="H437">
+        <v>80</v>
       </c>
       <c r="K437">
-        <v>450000</v>
-      </c>
-      <c r="O437">
-        <v>0.4</v>
-      </c>
-      <c r="P437">
-        <v>0.4</v>
-      </c>
-      <c r="Q437">
-        <v>0.4</v>
-      </c>
-      <c r="R437">
-        <v>0.4</v>
-      </c>
-      <c r="S437">
-        <v>0.4</v>
+        <v>346000</v>
+      </c>
+      <c r="L437">
+        <v>0.27</v>
+      </c>
+      <c r="M437">
+        <v>0.27</v>
+      </c>
+      <c r="N437">
+        <v>0.27</v>
       </c>
       <c r="U437">
         <v>1</v>
@@ -20599,189 +20602,198 @@
         <v>110</v>
       </c>
       <c r="X437" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
     </row>
     <row r="438" spans="1:27">
-      <c r="A438" t="s">
-        <v>566</v>
+      <c r="B438" t="s">
+        <v>559</v>
       </c>
       <c r="C438">
         <v>1</v>
       </c>
       <c r="D438" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="E438" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="F438" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="H438">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="K438">
-        <v>346000</v>
-      </c>
-      <c r="L438">
-        <v>0.27</v>
-      </c>
-      <c r="M438">
-        <v>0.27</v>
-      </c>
-      <c r="N438">
-        <v>0.27</v>
+        <v>150</v>
       </c>
       <c r="U438">
         <v>1</v>
       </c>
       <c r="V438">
+        <v>6</v>
+      </c>
+      <c r="W438">
+        <v>12</v>
+      </c>
+      <c r="X438" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="439" spans="1:27">
+      <c r="A439" t="s">
+        <v>550</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439" t="s">
+        <v>254</v>
+      </c>
+      <c r="E439" t="s">
+        <v>50</v>
+      </c>
+      <c r="F439" t="s">
+        <v>255</v>
+      </c>
+      <c r="G439" t="s">
+        <v>50</v>
+      </c>
+      <c r="J439">
+        <v>170</v>
+      </c>
+      <c r="K439">
+        <v>534000</v>
+      </c>
+      <c r="O439">
+        <v>0.2</v>
+      </c>
+      <c r="P439">
+        <v>0.2</v>
+      </c>
+      <c r="Q439">
+        <v>0.2</v>
+      </c>
+      <c r="R439">
+        <v>0.2</v>
+      </c>
+      <c r="S439">
+        <v>0.2</v>
+      </c>
+      <c r="U439">
+        <v>1</v>
+      </c>
+      <c r="V439">
+        <v>60</v>
+      </c>
+      <c r="W439">
+        <v>130</v>
+      </c>
+      <c r="X439" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="440" spans="1:27">
+      <c r="B440" t="s">
+        <v>551</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440" t="s">
+        <v>156</v>
+      </c>
+      <c r="E440" t="s">
+        <v>41</v>
+      </c>
+      <c r="F440" t="s">
+        <v>157</v>
+      </c>
+      <c r="G440" t="s">
+        <v>41</v>
+      </c>
+      <c r="J440">
+        <v>45</v>
+      </c>
+      <c r="K440">
+        <v>3800</v>
+      </c>
+      <c r="O440">
+        <v>0.1</v>
+      </c>
+      <c r="P440">
+        <v>0.1</v>
+      </c>
+      <c r="Q440">
+        <v>0.1</v>
+      </c>
+      <c r="R440">
+        <v>0.1</v>
+      </c>
+      <c r="S440">
+        <v>0.1</v>
+      </c>
+      <c r="U440">
+        <v>1</v>
+      </c>
+      <c r="V440">
+        <v>28</v>
+      </c>
+      <c r="W440">
+        <v>50</v>
+      </c>
+      <c r="X440" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="441" spans="1:27">
+      <c r="A441" t="s">
+        <v>563</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441" t="s">
+        <v>228</v>
+      </c>
+      <c r="E441" t="s">
+        <v>31</v>
+      </c>
+      <c r="F441" t="s">
+        <v>229</v>
+      </c>
+      <c r="G441" t="s">
+        <v>31</v>
+      </c>
+      <c r="J441">
+        <v>230</v>
+      </c>
+      <c r="K441">
+        <v>450000</v>
+      </c>
+      <c r="O441">
+        <v>0.4</v>
+      </c>
+      <c r="P441">
+        <v>0.4</v>
+      </c>
+      <c r="Q441">
+        <v>0.4</v>
+      </c>
+      <c r="R441">
+        <v>0.4</v>
+      </c>
+      <c r="S441">
+        <v>0.4</v>
+      </c>
+      <c r="U441">
+        <v>1</v>
+      </c>
+      <c r="V441">
         <v>55</v>
       </c>
-      <c r="W438">
+      <c r="W441">
         <v>110</v>
-      </c>
-      <c r="X438" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="439" spans="1:27">
-      <c r="B439" t="s">
-        <v>559</v>
-      </c>
-      <c r="C439">
-        <v>1</v>
-      </c>
-      <c r="D439" t="s">
-        <v>311</v>
-      </c>
-      <c r="E439" t="s">
-        <v>306</v>
-      </c>
-      <c r="F439" t="s">
-        <v>312</v>
-      </c>
-      <c r="H439">
-        <v>16</v>
-      </c>
-      <c r="K439">
-        <v>150</v>
-      </c>
-      <c r="U439">
-        <v>1</v>
-      </c>
-      <c r="V439">
-        <v>6</v>
-      </c>
-      <c r="W439">
-        <v>12</v>
-      </c>
-      <c r="X439" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="440" spans="1:27">
-      <c r="A440" t="s">
-        <v>550</v>
-      </c>
-      <c r="C440">
-        <v>1</v>
-      </c>
-      <c r="D440" t="s">
-        <v>254</v>
-      </c>
-      <c r="E440" t="s">
-        <v>50</v>
-      </c>
-      <c r="F440" t="s">
-        <v>255</v>
-      </c>
-      <c r="G440" t="s">
-        <v>50</v>
-      </c>
-      <c r="J440">
-        <v>170</v>
-      </c>
-      <c r="K440">
-        <v>534000</v>
-      </c>
-      <c r="O440">
-        <v>0.2</v>
-      </c>
-      <c r="P440">
-        <v>0.2</v>
-      </c>
-      <c r="Q440">
-        <v>0.2</v>
-      </c>
-      <c r="R440">
-        <v>0.2</v>
-      </c>
-      <c r="S440">
-        <v>0.2</v>
-      </c>
-      <c r="U440">
-        <v>1</v>
-      </c>
-      <c r="V440">
-        <v>60</v>
-      </c>
-      <c r="W440">
-        <v>130</v>
-      </c>
-      <c r="X440" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="441" spans="1:27">
-      <c r="B441" t="s">
-        <v>551</v>
-      </c>
-      <c r="C441">
-        <v>1</v>
-      </c>
-      <c r="D441" t="s">
-        <v>156</v>
-      </c>
-      <c r="E441" t="s">
-        <v>41</v>
-      </c>
-      <c r="F441" t="s">
-        <v>157</v>
-      </c>
-      <c r="G441" t="s">
-        <v>41</v>
-      </c>
-      <c r="J441">
-        <v>45</v>
-      </c>
-      <c r="K441">
-        <v>3800</v>
-      </c>
-      <c r="O441">
-        <v>0.1</v>
-      </c>
-      <c r="P441">
-        <v>0.1</v>
-      </c>
-      <c r="Q441">
-        <v>0.1</v>
-      </c>
-      <c r="R441">
-        <v>0.1</v>
-      </c>
-      <c r="S441">
-        <v>0.1</v>
-      </c>
-      <c r="U441">
-        <v>1</v>
-      </c>
-      <c r="V441">
-        <v>28</v>
-      </c>
-      <c r="W441">
-        <v>50</v>
       </c>
       <c r="X441" t="s">
         <v>33</v>
@@ -20789,52 +20801,55 @@
     </row>
     <row r="442" spans="1:27">
       <c r="A442" t="s">
-        <v>563</v>
+        <v>543</v>
+      </c>
+      <c r="B442" t="s">
+        <v>555</v>
       </c>
       <c r="C442">
         <v>1</v>
       </c>
       <c r="D442" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="E442" t="s">
         <v>31</v>
       </c>
       <c r="F442" t="s">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="G442" t="s">
         <v>31</v>
       </c>
       <c r="J442">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="K442">
-        <v>450000</v>
+        <v>750</v>
       </c>
       <c r="O442">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="P442">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="Q442">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="R442">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="S442">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="U442">
         <v>1</v>
       </c>
       <c r="V442">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="W442">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="X442" t="s">
         <v>33</v>
@@ -20842,55 +20857,55 @@
     </row>
     <row r="443" spans="1:27">
       <c r="A443" t="s">
-        <v>543</v>
-      </c>
-      <c r="B443" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C443">
         <v>1</v>
       </c>
       <c r="D443" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="E443" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F443" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="G443" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J443">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K443">
-        <v>750</v>
+        <v>2600</v>
+      </c>
+      <c r="L443">
+        <v>0</v>
       </c>
       <c r="O443">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="P443">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="Q443">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="R443">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="S443">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="U443">
         <v>1</v>
       </c>
       <c r="V443">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="W443">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X443" t="s">
         <v>33</v>
@@ -20898,55 +20913,55 @@
     </row>
     <row r="444" spans="1:27">
       <c r="A444" t="s">
-        <v>560</v>
+        <v>550</v>
+      </c>
+      <c r="B444" t="s">
+        <v>556</v>
       </c>
       <c r="C444">
         <v>1</v>
       </c>
       <c r="D444" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="E444" t="s">
         <v>50</v>
       </c>
       <c r="F444" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="G444" t="s">
         <v>50</v>
       </c>
       <c r="J444">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="K444">
-        <v>2600</v>
-      </c>
-      <c r="L444">
-        <v>0</v>
+        <v>534000</v>
       </c>
       <c r="O444">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="P444">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="Q444">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="R444">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="S444">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="U444">
         <v>1</v>
       </c>
       <c r="V444">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="W444">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="X444" t="s">
         <v>33</v>
@@ -20954,31 +20969,28 @@
     </row>
     <row r="445" spans="1:27">
       <c r="A445" t="s">
-        <v>550</v>
-      </c>
-      <c r="B445" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C445">
         <v>1</v>
       </c>
       <c r="D445" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="E445" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F445" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="G445" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J445">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="K445">
-        <v>534000</v>
+        <v>1760</v>
       </c>
       <c r="O445">
         <v>0.2</v>
@@ -20999,10 +21011,10 @@
         <v>1</v>
       </c>
       <c r="V445">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="W445">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="X445" t="s">
         <v>33</v>
@@ -21010,52 +21022,55 @@
     </row>
     <row r="446" spans="1:27">
       <c r="A446" t="s">
-        <v>549</v>
+        <v>563</v>
+      </c>
+      <c r="B446" t="s">
+        <v>551</v>
       </c>
       <c r="C446">
         <v>1</v>
       </c>
       <c r="D446" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="E446" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F446" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="G446" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J446">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K446">
-        <v>1760</v>
+        <v>18000</v>
       </c>
       <c r="O446">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="P446">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="Q446">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="R446">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="S446">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="U446">
         <v>1</v>
       </c>
       <c r="V446">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="W446">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="X446" t="s">
         <v>33</v>
@@ -21063,117 +21078,114 @@
     </row>
     <row r="447" spans="1:27">
       <c r="A447" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="B447" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="C447">
         <v>1</v>
       </c>
       <c r="D447" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="E447" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F447" t="s">
-        <v>187</v>
-      </c>
-      <c r="G447" t="s">
-        <v>38</v>
-      </c>
-      <c r="J447">
-        <v>90</v>
+        <v>53</v>
+      </c>
+      <c r="H447">
+        <v>8</v>
       </c>
       <c r="K447">
-        <v>18000</v>
+        <v>50</v>
       </c>
       <c r="O447">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="P447">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="Q447">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="R447">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="S447">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="U447">
         <v>1</v>
       </c>
       <c r="V447">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="W447">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="X447" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="448" spans="1:27">
       <c r="A448" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="B448" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C448">
         <v>1</v>
       </c>
       <c r="D448" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="E448" t="s">
+        <v>47</v>
+      </c>
+      <c r="F448" t="s">
+        <v>145</v>
+      </c>
+      <c r="G448" t="s">
+        <v>47</v>
+      </c>
+      <c r="J448">
+        <v>45</v>
+      </c>
+      <c r="K448">
+        <v>2250</v>
+      </c>
+      <c r="O448">
+        <v>0.08</v>
+      </c>
+      <c r="P448">
+        <v>0.08</v>
+      </c>
+      <c r="Q448">
+        <v>0.08</v>
+      </c>
+      <c r="R448">
+        <v>0.08</v>
+      </c>
+      <c r="S448">
+        <v>0.08</v>
+      </c>
+      <c r="U448">
+        <v>1</v>
+      </c>
+      <c r="V448">
         <v>28</v>
       </c>
-      <c r="F448" t="s">
-        <v>53</v>
-      </c>
-      <c r="H448">
-        <v>8</v>
-      </c>
-      <c r="K448">
+      <c r="W448">
         <v>50</v>
       </c>
-      <c r="O448">
-        <v>0.05</v>
-      </c>
-      <c r="P448">
-        <v>0.05</v>
-      </c>
-      <c r="Q448">
-        <v>0.05</v>
-      </c>
-      <c r="R448">
-        <v>0.05</v>
-      </c>
-      <c r="S448">
-        <v>0.05</v>
-      </c>
-      <c r="U448">
-        <v>1</v>
-      </c>
-      <c r="V448">
-        <v>3</v>
-      </c>
-      <c r="W448">
-        <v>8</v>
-      </c>
       <c r="X448" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="449" spans="1:27">
-      <c r="A449" t="s">
-        <v>562</v>
-      </c>
       <c r="B449" t="s">
         <v>557</v>
       </c>
@@ -21181,37 +21193,19 @@
         <v>1</v>
       </c>
       <c r="D449" t="s">
-        <v>144</v>
+        <v>352</v>
       </c>
       <c r="E449" t="s">
-        <v>47</v>
+        <v>340</v>
       </c>
       <c r="F449" t="s">
-        <v>145</v>
-      </c>
-      <c r="G449" t="s">
-        <v>47</v>
-      </c>
-      <c r="J449">
-        <v>45</v>
+        <v>353</v>
+      </c>
+      <c r="I449">
+        <v>130</v>
       </c>
       <c r="K449">
-        <v>2250</v>
-      </c>
-      <c r="O449">
-        <v>0.08</v>
-      </c>
-      <c r="P449">
-        <v>0.08</v>
-      </c>
-      <c r="Q449">
-        <v>0.08</v>
-      </c>
-      <c r="R449">
-        <v>0.08</v>
-      </c>
-      <c r="S449">
-        <v>0.08</v>
+        <v>3389</v>
       </c>
       <c r="U449">
         <v>1</v>
@@ -21223,253 +21217,253 @@
         <v>50</v>
       </c>
       <c r="X449" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
     </row>
     <row r="450" spans="1:27">
-      <c r="B450" t="s">
-        <v>557</v>
+      <c r="A450" t="s">
+        <v>540</v>
       </c>
       <c r="C450">
         <v>1</v>
       </c>
       <c r="D450" t="s">
-        <v>352</v>
+        <v>52</v>
       </c>
       <c r="E450" t="s">
+        <v>28</v>
+      </c>
+      <c r="F450" t="s">
+        <v>53</v>
+      </c>
+      <c r="H450">
+        <v>8</v>
+      </c>
+      <c r="K450">
+        <v>50</v>
+      </c>
+      <c r="O450">
+        <v>0.05</v>
+      </c>
+      <c r="P450">
+        <v>0.05</v>
+      </c>
+      <c r="Q450">
+        <v>0.05</v>
+      </c>
+      <c r="R450">
+        <v>0.05</v>
+      </c>
+      <c r="S450">
+        <v>0.05</v>
+      </c>
+      <c r="U450">
+        <v>1</v>
+      </c>
+      <c r="V450">
+        <v>3</v>
+      </c>
+      <c r="W450">
+        <v>8</v>
+      </c>
+      <c r="X450" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="451" spans="1:27">
+      <c r="B451" t="s">
+        <v>565</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451" t="s">
+        <v>80</v>
+      </c>
+      <c r="E451" t="s">
+        <v>47</v>
+      </c>
+      <c r="F451" t="s">
+        <v>81</v>
+      </c>
+      <c r="G451" t="s">
+        <v>47</v>
+      </c>
+      <c r="J451">
+        <v>5</v>
+      </c>
+      <c r="K451">
+        <v>120</v>
+      </c>
+      <c r="U451">
+        <v>1</v>
+      </c>
+      <c r="V451">
+        <v>6</v>
+      </c>
+      <c r="W451">
+        <v>12</v>
+      </c>
+      <c r="X451" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="452" spans="1:27">
+      <c r="A452" t="s">
+        <v>543</v>
+      </c>
+      <c r="B452" t="s">
+        <v>559</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452" t="s">
+        <v>366</v>
+      </c>
+      <c r="E452" t="s">
         <v>340</v>
       </c>
-      <c r="F450" t="s">
-        <v>353</v>
-      </c>
-      <c r="I450">
-        <v>130</v>
-      </c>
-      <c r="K450">
-        <v>3389</v>
-      </c>
-      <c r="U450">
-        <v>1</v>
-      </c>
-      <c r="V450">
+      <c r="F452" t="s">
+        <v>367</v>
+      </c>
+      <c r="I452">
+        <v>260</v>
+      </c>
+      <c r="K452">
+        <v>320000</v>
+      </c>
+      <c r="U452">
+        <v>1</v>
+      </c>
+      <c r="V452">
+        <v>55</v>
+      </c>
+      <c r="W452">
+        <v>110</v>
+      </c>
+      <c r="X452" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="453" spans="1:27">
+      <c r="B453" t="s">
+        <v>542</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453" t="s">
+        <v>198</v>
+      </c>
+      <c r="E453" t="s">
+        <v>31</v>
+      </c>
+      <c r="F453" t="s">
+        <v>199</v>
+      </c>
+      <c r="G453" t="s">
+        <v>31</v>
+      </c>
+      <c r="J453">
+        <v>170</v>
+      </c>
+      <c r="K453">
+        <v>48000</v>
+      </c>
+      <c r="O453">
+        <v>0.33</v>
+      </c>
+      <c r="P453">
+        <v>0.33</v>
+      </c>
+      <c r="Q453">
+        <v>0.33</v>
+      </c>
+      <c r="R453">
+        <v>0.33</v>
+      </c>
+      <c r="S453">
+        <v>0.33</v>
+      </c>
+      <c r="U453">
+        <v>1</v>
+      </c>
+      <c r="V453">
+        <v>43</v>
+      </c>
+      <c r="W453">
+        <v>78</v>
+      </c>
+      <c r="X453" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="454" spans="1:27">
+      <c r="A454" t="s">
+        <v>561</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454" t="s">
+        <v>319</v>
+      </c>
+      <c r="E454" t="s">
+        <v>306</v>
+      </c>
+      <c r="F454" t="s">
+        <v>320</v>
+      </c>
+      <c r="H454">
+        <v>75</v>
+      </c>
+      <c r="K454">
+        <v>3300</v>
+      </c>
+      <c r="U454">
+        <v>1</v>
+      </c>
+      <c r="V454">
         <v>28</v>
       </c>
-      <c r="W450">
+      <c r="W454">
         <v>50</v>
       </c>
-      <c r="X450" t="s">
+      <c r="X454" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="451" spans="1:27">
-      <c r="A451" t="s">
-        <v>540</v>
-      </c>
-      <c r="C451">
-        <v>1</v>
-      </c>
-      <c r="D451" t="s">
-        <v>52</v>
-      </c>
-      <c r="E451" t="s">
-        <v>28</v>
-      </c>
-      <c r="F451" t="s">
-        <v>53</v>
-      </c>
-      <c r="H451">
-        <v>8</v>
-      </c>
-      <c r="K451">
-        <v>50</v>
-      </c>
-      <c r="O451">
-        <v>0.05</v>
-      </c>
-      <c r="P451">
-        <v>0.05</v>
-      </c>
-      <c r="Q451">
-        <v>0.05</v>
-      </c>
-      <c r="R451">
-        <v>0.05</v>
-      </c>
-      <c r="S451">
-        <v>0.05</v>
-      </c>
-      <c r="U451">
-        <v>1</v>
-      </c>
-      <c r="V451">
-        <v>3</v>
-      </c>
-      <c r="W451">
-        <v>8</v>
-      </c>
-      <c r="X451" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="452" spans="1:27">
-      <c r="B452" t="s">
-        <v>565</v>
-      </c>
-      <c r="C452">
-        <v>1</v>
-      </c>
-      <c r="D452" t="s">
-        <v>80</v>
-      </c>
-      <c r="E452" t="s">
-        <v>47</v>
-      </c>
-      <c r="F452" t="s">
-        <v>81</v>
-      </c>
-      <c r="G452" t="s">
-        <v>47</v>
-      </c>
-      <c r="J452">
-        <v>5</v>
-      </c>
-      <c r="K452">
-        <v>120</v>
-      </c>
-      <c r="U452">
-        <v>1</v>
-      </c>
-      <c r="V452">
-        <v>6</v>
-      </c>
-      <c r="W452">
-        <v>12</v>
-      </c>
-      <c r="X452" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="453" spans="1:27">
-      <c r="A453" t="s">
-        <v>543</v>
-      </c>
-      <c r="B453" t="s">
-        <v>559</v>
-      </c>
-      <c r="C453">
-        <v>1</v>
-      </c>
-      <c r="D453" t="s">
-        <v>366</v>
-      </c>
-      <c r="E453" t="s">
-        <v>340</v>
-      </c>
-      <c r="F453" t="s">
-        <v>367</v>
-      </c>
-      <c r="I453">
-        <v>260</v>
-      </c>
-      <c r="K453">
-        <v>320000</v>
-      </c>
-      <c r="U453">
-        <v>1</v>
-      </c>
-      <c r="V453">
-        <v>55</v>
-      </c>
-      <c r="W453">
-        <v>110</v>
-      </c>
-      <c r="X453" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="454" spans="1:27">
-      <c r="B454" t="s">
-        <v>542</v>
-      </c>
-      <c r="C454">
-        <v>1</v>
-      </c>
-      <c r="D454" t="s">
-        <v>198</v>
-      </c>
-      <c r="E454" t="s">
-        <v>31</v>
-      </c>
-      <c r="F454" t="s">
-        <v>199</v>
-      </c>
-      <c r="G454" t="s">
-        <v>31</v>
-      </c>
-      <c r="J454">
-        <v>170</v>
-      </c>
-      <c r="K454">
-        <v>48000</v>
-      </c>
-      <c r="O454">
-        <v>0.33</v>
-      </c>
-      <c r="P454">
-        <v>0.33</v>
-      </c>
-      <c r="Q454">
-        <v>0.33</v>
-      </c>
-      <c r="R454">
-        <v>0.33</v>
-      </c>
-      <c r="S454">
-        <v>0.33</v>
-      </c>
-      <c r="U454">
-        <v>1</v>
-      </c>
-      <c r="V454">
-        <v>43</v>
-      </c>
-      <c r="W454">
-        <v>78</v>
-      </c>
-      <c r="X454" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="455" spans="1:27">
       <c r="A455" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="C455">
         <v>1</v>
       </c>
       <c r="D455" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E455" t="s">
         <v>306</v>
       </c>
       <c r="F455" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H455">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="K455">
-        <v>3300</v>
+        <v>380</v>
       </c>
       <c r="U455">
         <v>1</v>
       </c>
       <c r="V455">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="W455">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="X455" t="s">
         <v>308</v>
@@ -21477,113 +21471,113 @@
     </row>
     <row r="456" spans="1:27">
       <c r="A456" t="s">
-        <v>543</v>
+        <v>540</v>
+      </c>
+      <c r="B456" t="s">
+        <v>556</v>
       </c>
       <c r="C456">
         <v>1</v>
       </c>
       <c r="D456" t="s">
-        <v>313</v>
+        <v>240</v>
       </c>
       <c r="E456" t="s">
+        <v>28</v>
+      </c>
+      <c r="F456" t="s">
+        <v>241</v>
+      </c>
+      <c r="H456">
+        <v>380</v>
+      </c>
+      <c r="K456">
+        <v>750000</v>
+      </c>
+      <c r="O456">
+        <v>0.35</v>
+      </c>
+      <c r="P456">
+        <v>0.35</v>
+      </c>
+      <c r="Q456">
+        <v>0.35</v>
+      </c>
+      <c r="R456">
+        <v>0.35</v>
+      </c>
+      <c r="S456">
+        <v>0.35</v>
+      </c>
+      <c r="U456">
+        <v>1</v>
+      </c>
+      <c r="V456">
+        <v>60</v>
+      </c>
+      <c r="W456">
+        <v>130</v>
+      </c>
+      <c r="X456" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="457" spans="1:27">
+      <c r="B457" t="s">
+        <v>546</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457" t="s">
+        <v>30</v>
+      </c>
+      <c r="E457" t="s">
+        <v>31</v>
+      </c>
+      <c r="F457" t="s">
+        <v>32</v>
+      </c>
+      <c r="G457" t="s">
+        <v>31</v>
+      </c>
+      <c r="J457">
+        <v>4</v>
+      </c>
+      <c r="K457">
+        <v>10</v>
+      </c>
+      <c r="U457">
+        <v>1</v>
+      </c>
+      <c r="V457">
+        <v>1</v>
+      </c>
+      <c r="W457">
+        <v>5</v>
+      </c>
+      <c r="X457" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="458" spans="1:27">
+      <c r="A458" t="s">
+        <v>562</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458" t="s">
+        <v>305</v>
+      </c>
+      <c r="E458" t="s">
         <v>306</v>
       </c>
-      <c r="F456" t="s">
-        <v>314</v>
-      </c>
-      <c r="H456">
-        <v>32</v>
-      </c>
-      <c r="K456">
-        <v>380</v>
-      </c>
-      <c r="U456">
-        <v>1</v>
-      </c>
-      <c r="V456">
-        <v>10</v>
-      </c>
-      <c r="W456">
-        <v>20</v>
-      </c>
-      <c r="X456" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="457" spans="1:27">
-      <c r="A457" t="s">
-        <v>540</v>
-      </c>
-      <c r="B457" t="s">
-        <v>556</v>
-      </c>
-      <c r="C457">
-        <v>1</v>
-      </c>
-      <c r="D457" t="s">
-        <v>240</v>
-      </c>
-      <c r="E457" t="s">
-        <v>28</v>
-      </c>
-      <c r="F457" t="s">
-        <v>241</v>
-      </c>
-      <c r="H457">
-        <v>380</v>
-      </c>
-      <c r="K457">
-        <v>750000</v>
-      </c>
-      <c r="O457">
-        <v>0.35</v>
-      </c>
-      <c r="P457">
-        <v>0.35</v>
-      </c>
-      <c r="Q457">
-        <v>0.35</v>
-      </c>
-      <c r="R457">
-        <v>0.35</v>
-      </c>
-      <c r="S457">
-        <v>0.35</v>
-      </c>
-      <c r="U457">
-        <v>1</v>
-      </c>
-      <c r="V457">
-        <v>60</v>
-      </c>
-      <c r="W457">
-        <v>130</v>
-      </c>
-      <c r="X457" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="458" spans="1:27">
-      <c r="B458" t="s">
-        <v>546</v>
-      </c>
-      <c r="C458">
-        <v>1</v>
-      </c>
-      <c r="D458" t="s">
-        <v>30</v>
-      </c>
-      <c r="E458" t="s">
-        <v>31</v>
-      </c>
       <c r="F458" t="s">
-        <v>32</v>
-      </c>
-      <c r="G458" t="s">
-        <v>31</v>
-      </c>
-      <c r="J458">
-        <v>4</v>
+        <v>307</v>
+      </c>
+      <c r="H458">
+        <v>5</v>
       </c>
       <c r="K458">
         <v>10</v>
@@ -21598,133 +21592,151 @@
         <v>5</v>
       </c>
       <c r="X458" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
     </row>
     <row r="459" spans="1:27">
-      <c r="A459" t="s">
-        <v>562</v>
+      <c r="B459" t="s">
+        <v>564</v>
       </c>
       <c r="C459">
         <v>1</v>
       </c>
       <c r="D459" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E459" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F459" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="H459">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="K459">
-        <v>10</v>
+        <v>133000</v>
+      </c>
+      <c r="L459">
+        <v>0.25</v>
+      </c>
+      <c r="M459">
+        <v>0.25</v>
+      </c>
+      <c r="N459">
+        <v>0.25</v>
       </c>
       <c r="U459">
         <v>1</v>
       </c>
       <c r="V459">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="W459">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="X459" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
     </row>
     <row r="460" spans="1:27">
       <c r="B460" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="C460">
         <v>1</v>
       </c>
       <c r="D460" t="s">
-        <v>297</v>
+        <v>120</v>
       </c>
       <c r="E460" t="s">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c r="F460" t="s">
-        <v>298</v>
-      </c>
-      <c r="H460">
-        <v>75</v>
+        <v>121</v>
+      </c>
+      <c r="J460">
+        <v>30</v>
       </c>
       <c r="K460">
-        <v>133000</v>
-      </c>
-      <c r="L460">
-        <v>0.25</v>
-      </c>
-      <c r="M460">
-        <v>0.25</v>
-      </c>
-      <c r="N460">
-        <v>0.25</v>
+        <v>1750</v>
+      </c>
+      <c r="O460">
+        <v>0.09</v>
+      </c>
+      <c r="P460">
+        <v>0.09</v>
+      </c>
+      <c r="Q460">
+        <v>0.09</v>
+      </c>
+      <c r="R460">
+        <v>0.09</v>
+      </c>
+      <c r="S460">
+        <v>0.09</v>
       </c>
       <c r="U460">
         <v>1</v>
       </c>
       <c r="V460">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="W460">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="X460" t="s">
-        <v>273</v>
+        <v>33</v>
       </c>
     </row>
     <row r="461" spans="1:27">
-      <c r="B461" t="s">
-        <v>542</v>
+      <c r="A461" t="s">
+        <v>550</v>
       </c>
       <c r="C461">
         <v>1</v>
       </c>
       <c r="D461" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="E461" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F461" t="s">
-        <v>121</v>
+        <v>199</v>
+      </c>
+      <c r="G461" t="s">
+        <v>31</v>
       </c>
       <c r="J461">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="K461">
-        <v>1750</v>
+        <v>48000</v>
       </c>
       <c r="O461">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="P461">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="Q461">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="R461">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="S461">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="U461">
         <v>1</v>
       </c>
       <c r="V461">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="W461">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="X461" t="s">
         <v>33</v>
@@ -21732,81 +21744,84 @@
     </row>
     <row r="462" spans="1:27">
       <c r="A462" t="s">
-        <v>550</v>
+        <v>560</v>
+      </c>
+      <c r="B462" t="s">
+        <v>559</v>
       </c>
       <c r="C462">
         <v>1</v>
       </c>
       <c r="D462" t="s">
-        <v>198</v>
+        <v>366</v>
       </c>
       <c r="E462" t="s">
-        <v>31</v>
+        <v>340</v>
       </c>
       <c r="F462" t="s">
-        <v>199</v>
-      </c>
-      <c r="G462" t="s">
-        <v>31</v>
-      </c>
-      <c r="J462">
-        <v>170</v>
+        <v>367</v>
+      </c>
+      <c r="I462">
+        <v>260</v>
       </c>
       <c r="K462">
-        <v>48000</v>
-      </c>
-      <c r="O462">
-        <v>0.33</v>
-      </c>
-      <c r="P462">
-        <v>0.33</v>
-      </c>
-      <c r="Q462">
-        <v>0.33</v>
-      </c>
-      <c r="R462">
-        <v>0.33</v>
-      </c>
-      <c r="S462">
-        <v>0.33</v>
+        <v>320000</v>
       </c>
       <c r="U462">
         <v>1</v>
       </c>
       <c r="V462">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="W462">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="X462" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
     </row>
     <row r="463" spans="1:27">
       <c r="A463" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="B463" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C463">
         <v>1</v>
       </c>
       <c r="D463" t="s">
-        <v>366</v>
+        <v>236</v>
       </c>
       <c r="E463" t="s">
-        <v>340</v>
+        <v>47</v>
       </c>
       <c r="F463" t="s">
-        <v>367</v>
-      </c>
-      <c r="I463">
-        <v>260</v>
+        <v>237</v>
+      </c>
+      <c r="G463" t="s">
+        <v>47</v>
+      </c>
+      <c r="J463">
+        <v>150</v>
       </c>
       <c r="K463">
-        <v>320000</v>
+        <v>378000</v>
+      </c>
+      <c r="O463">
+        <v>0.18</v>
+      </c>
+      <c r="P463">
+        <v>0.18</v>
+      </c>
+      <c r="Q463">
+        <v>0.18</v>
+      </c>
+      <c r="R463">
+        <v>0.18</v>
+      </c>
+      <c r="S463">
+        <v>0.18</v>
       </c>
       <c r="U463">
         <v>1</v>
@@ -21818,60 +21833,60 @@
         <v>110</v>
       </c>
       <c r="X463" t="s">
-        <v>308</v>
+        <v>33</v>
       </c>
     </row>
     <row r="464" spans="1:27">
       <c r="A464" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="B464" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="C464">
         <v>1</v>
       </c>
       <c r="D464" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="E464" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F464" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="G464" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J464">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K464">
-        <v>378000</v>
+        <v>534000</v>
       </c>
       <c r="O464">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="P464">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="Q464">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="R464">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="S464">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="U464">
         <v>1</v>
       </c>
       <c r="V464">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="W464">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="X464" t="s">
         <v>33</v>
@@ -21879,55 +21894,52 @@
     </row>
     <row r="465" spans="1:27">
       <c r="A465" t="s">
-        <v>550</v>
-      </c>
-      <c r="B465" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C465">
         <v>1</v>
       </c>
       <c r="D465" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="E465" t="s">
+        <v>31</v>
+      </c>
+      <c r="F465" t="s">
+        <v>213</v>
+      </c>
+      <c r="G465" t="s">
+        <v>31</v>
+      </c>
+      <c r="J465">
+        <v>190</v>
+      </c>
+      <c r="K465">
+        <v>125000</v>
+      </c>
+      <c r="O465">
+        <v>0.36</v>
+      </c>
+      <c r="P465">
+        <v>0.36</v>
+      </c>
+      <c r="Q465">
+        <v>0.36</v>
+      </c>
+      <c r="R465">
+        <v>0.36</v>
+      </c>
+      <c r="S465">
+        <v>0.36</v>
+      </c>
+      <c r="U465">
+        <v>1</v>
+      </c>
+      <c r="V465">
         <v>50</v>
       </c>
-      <c r="F465" t="s">
-        <v>255</v>
-      </c>
-      <c r="G465" t="s">
-        <v>50</v>
-      </c>
-      <c r="J465">
-        <v>170</v>
-      </c>
-      <c r="K465">
-        <v>534000</v>
-      </c>
-      <c r="O465">
-        <v>0.2</v>
-      </c>
-      <c r="P465">
-        <v>0.2</v>
-      </c>
-      <c r="Q465">
-        <v>0.2</v>
-      </c>
-      <c r="R465">
-        <v>0.2</v>
-      </c>
-      <c r="S465">
-        <v>0.2</v>
-      </c>
-      <c r="U465">
-        <v>1</v>
-      </c>
-      <c r="V465">
-        <v>60</v>
-      </c>
       <c r="W465">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="X465" t="s">
         <v>33</v>
@@ -21935,60 +21947,45 @@
     </row>
     <row r="466" spans="1:27">
       <c r="A466" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="C466">
         <v>1</v>
       </c>
       <c r="D466" t="s">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="E466" t="s">
         <v>31</v>
       </c>
       <c r="F466" t="s">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="G466" t="s">
         <v>31</v>
       </c>
       <c r="J466">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="K466">
-        <v>125000</v>
-      </c>
-      <c r="O466">
-        <v>0.36</v>
-      </c>
-      <c r="P466">
-        <v>0.36</v>
-      </c>
-      <c r="Q466">
-        <v>0.36</v>
-      </c>
-      <c r="R466">
-        <v>0.36</v>
-      </c>
-      <c r="S466">
-        <v>0.36</v>
+        <v>10</v>
       </c>
       <c r="U466">
         <v>1</v>
       </c>
       <c r="V466">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="W466">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="X466" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="467" spans="1:27">
-      <c r="A467" t="s">
-        <v>550</v>
+      <c r="B467" t="s">
+        <v>556</v>
       </c>
       <c r="C467">
         <v>1</v>
@@ -22026,7 +22023,7 @@
     </row>
     <row r="468" spans="1:27">
       <c r="B468" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C468">
         <v>1</v>
@@ -22063,8 +22060,11 @@
       </c>
     </row>
     <row r="469" spans="1:27">
+      <c r="A469" t="s">
+        <v>550</v>
+      </c>
       <c r="B469" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C469">
         <v>1</v>
@@ -22101,149 +22101,146 @@
       </c>
     </row>
     <row r="470" spans="1:27">
-      <c r="A470" t="s">
-        <v>550</v>
-      </c>
       <c r="B470" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C470">
         <v>1</v>
       </c>
       <c r="D470" t="s">
-        <v>30</v>
+        <v>309</v>
       </c>
       <c r="E470" t="s">
-        <v>31</v>
+        <v>306</v>
       </c>
       <c r="F470" t="s">
-        <v>32</v>
-      </c>
-      <c r="G470" t="s">
-        <v>31</v>
-      </c>
-      <c r="J470">
-        <v>4</v>
+        <v>310</v>
+      </c>
+      <c r="H470">
+        <v>10</v>
       </c>
       <c r="K470">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="U470">
         <v>1</v>
       </c>
       <c r="V470">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W470">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X470" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
     </row>
     <row r="471" spans="1:27">
+      <c r="A471" t="s">
+        <v>566</v>
+      </c>
       <c r="B471" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C471">
         <v>1</v>
       </c>
       <c r="D471" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E471" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F471" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H471">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K471">
-        <v>50</v>
+        <v>1345000</v>
+      </c>
+      <c r="L471">
+        <v>0.3</v>
+      </c>
+      <c r="M471">
+        <v>0.3</v>
+      </c>
+      <c r="N471">
+        <v>0.3</v>
       </c>
       <c r="U471">
         <v>1</v>
       </c>
       <c r="V471">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="W471">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="X471" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
     </row>
     <row r="472" spans="1:27">
       <c r="A472" t="s">
-        <v>566</v>
-      </c>
-      <c r="B472" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C472">
         <v>1</v>
       </c>
       <c r="D472" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E472" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="F472" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H472">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="K472">
-        <v>1345000</v>
-      </c>
-      <c r="L472">
-        <v>0.3</v>
-      </c>
-      <c r="M472">
-        <v>0.3</v>
-      </c>
-      <c r="N472">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="U472">
         <v>1</v>
       </c>
       <c r="V472">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="W472">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="X472" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
     </row>
     <row r="473" spans="1:27">
-      <c r="A473" t="s">
-        <v>550</v>
+      <c r="B473" t="s">
+        <v>538</v>
       </c>
       <c r="C473">
         <v>1</v>
       </c>
       <c r="D473" t="s">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="E473" t="s">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="F473" t="s">
-        <v>307</v>
-      </c>
-      <c r="H473">
+        <v>42</v>
+      </c>
+      <c r="G473" t="s">
+        <v>41</v>
+      </c>
+      <c r="J473">
+        <v>1</v>
+      </c>
+      <c r="K473">
         <v>5</v>
-      </c>
-      <c r="K473">
-        <v>10</v>
       </c>
       <c r="U473">
         <v>1</v>
@@ -22255,71 +22252,86 @@
         <v>5</v>
       </c>
       <c r="X473" t="s">
-        <v>308</v>
+        <v>33</v>
       </c>
     </row>
     <row r="474" spans="1:27">
       <c r="B474" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="C474">
         <v>1</v>
       </c>
       <c r="D474" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E474" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F474" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="G474" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J474">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K474">
-        <v>5</v>
+        <v>160</v>
+      </c>
+      <c r="O474">
+        <v>0.1</v>
+      </c>
+      <c r="P474">
+        <v>0.1</v>
+      </c>
+      <c r="Q474">
+        <v>0.1</v>
+      </c>
+      <c r="R474">
+        <v>0.1</v>
+      </c>
+      <c r="S474">
+        <v>0.1</v>
       </c>
       <c r="U474">
         <v>1</v>
       </c>
       <c r="V474">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W474">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="X474" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="475" spans="1:27">
-      <c r="B475" t="s">
-        <v>556</v>
+      <c r="A475" t="s">
+        <v>560</v>
       </c>
       <c r="C475">
         <v>1</v>
       </c>
       <c r="D475" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="E475" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F475" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G475" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J475">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="K475">
-        <v>160</v>
+        <v>3700</v>
       </c>
       <c r="O475">
         <v>0.1</v>
@@ -22340,54 +22352,45 @@
         <v>1</v>
       </c>
       <c r="V475">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="W475">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="X475" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="476" spans="1:27">
-      <c r="A476" t="s">
-        <v>560</v>
+      <c r="B476" t="s">
+        <v>555</v>
       </c>
       <c r="C476">
         <v>1</v>
       </c>
       <c r="D476" t="s">
-        <v>154</v>
+        <v>285</v>
       </c>
       <c r="E476" t="s">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="F476" t="s">
-        <v>155</v>
-      </c>
-      <c r="G476" t="s">
-        <v>38</v>
-      </c>
-      <c r="J476">
-        <v>52</v>
+        <v>286</v>
+      </c>
+      <c r="H476">
+        <v>35</v>
       </c>
       <c r="K476">
-        <v>3700</v>
-      </c>
-      <c r="O476">
-        <v>0.1</v>
-      </c>
-      <c r="P476">
-        <v>0.1</v>
-      </c>
-      <c r="Q476">
-        <v>0.1</v>
-      </c>
-      <c r="R476">
-        <v>0.1</v>
-      </c>
-      <c r="S476">
-        <v>0.1</v>
+        <v>3300</v>
+      </c>
+      <c r="L476">
+        <v>0.12</v>
+      </c>
+      <c r="M476">
+        <v>0.12</v>
+      </c>
+      <c r="N476">
+        <v>0.12</v>
       </c>
       <c r="U476">
         <v>1</v>
@@ -22399,57 +22402,66 @@
         <v>50</v>
       </c>
       <c r="X476" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
     </row>
     <row r="477" spans="1:27">
+      <c r="A477" t="s">
+        <v>561</v>
+      </c>
       <c r="B477" t="s">
-        <v>555</v>
+        <v>690</v>
       </c>
       <c r="C477">
         <v>1</v>
       </c>
       <c r="D477" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="E477" t="s">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="F477" t="s">
-        <v>286</v>
-      </c>
-      <c r="H477">
-        <v>35</v>
+        <v>187</v>
+      </c>
+      <c r="G477" t="s">
+        <v>38</v>
+      </c>
+      <c r="J477">
+        <v>90</v>
       </c>
       <c r="K477">
-        <v>3300</v>
-      </c>
-      <c r="L477">
-        <v>0.12</v>
-      </c>
-      <c r="M477">
-        <v>0.12</v>
-      </c>
-      <c r="N477">
-        <v>0.12</v>
+        <v>18000</v>
+      </c>
+      <c r="O477">
+        <v>0.14</v>
+      </c>
+      <c r="P477">
+        <v>0.14</v>
+      </c>
+      <c r="Q477">
+        <v>0.14</v>
+      </c>
+      <c r="R477">
+        <v>0.14</v>
+      </c>
+      <c r="S477">
+        <v>0.14</v>
       </c>
       <c r="U477">
         <v>1</v>
       </c>
       <c r="V477">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="W477">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="X477" t="s">
-        <v>273</v>
+        <v>33</v>
       </c>
     </row>
     <row r="478" spans="1:27">
-      <c r="A478" t="s">
-        <v>561</v>
-      </c>
       <c r="B478" t="s">
         <v>691</v>
       </c>
@@ -22457,49 +22469,46 @@
         <v>1</v>
       </c>
       <c r="D478" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="E478" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F478" t="s">
-        <v>187</v>
-      </c>
-      <c r="G478" t="s">
-        <v>38</v>
-      </c>
-      <c r="J478">
-        <v>90</v>
+        <v>133</v>
+      </c>
+      <c r="H478">
+        <v>145</v>
       </c>
       <c r="K478">
-        <v>18000</v>
+        <v>3600</v>
       </c>
       <c r="O478">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="P478">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="Q478">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="R478">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="S478">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="U478">
         <v>1</v>
       </c>
       <c r="V478">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="W478">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="X478" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="479" spans="1:27">
@@ -22510,213 +22519,216 @@
         <v>1</v>
       </c>
       <c r="D479" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E479" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F479" t="s">
-        <v>133</v>
-      </c>
-      <c r="H479">
-        <v>145</v>
+        <v>109</v>
+      </c>
+      <c r="G479" t="s">
+        <v>41</v>
+      </c>
+      <c r="J479">
+        <v>22</v>
       </c>
       <c r="K479">
-        <v>3600</v>
+        <v>480</v>
       </c>
       <c r="O479">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="P479">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="Q479">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="R479">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="S479">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="U479">
         <v>1</v>
       </c>
       <c r="V479">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="W479">
+        <v>36</v>
+      </c>
+      <c r="X479" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="480" spans="1:27">
+      <c r="A480" t="s">
+        <v>539</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480" t="s">
+        <v>82</v>
+      </c>
+      <c r="E480" t="s">
         <v>50</v>
       </c>
-      <c r="X479" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="480" spans="1:27">
-      <c r="B480" t="s">
-        <v>693</v>
-      </c>
-      <c r="C480">
-        <v>1</v>
-      </c>
-      <c r="D480" t="s">
-        <v>108</v>
-      </c>
-      <c r="E480" t="s">
-        <v>41</v>
-      </c>
       <c r="F480" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="G480" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J480">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K480">
-        <v>480</v>
-      </c>
-      <c r="O480">
-        <v>0.05</v>
-      </c>
-      <c r="P480">
-        <v>0.05</v>
-      </c>
-      <c r="Q480">
-        <v>0.05</v>
-      </c>
-      <c r="R480">
-        <v>0.05</v>
-      </c>
-      <c r="S480">
-        <v>0.05</v>
+        <v>140</v>
       </c>
       <c r="U480">
         <v>1</v>
       </c>
       <c r="V480">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="W480">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="X480" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="481" spans="1:27">
-      <c r="A481" t="s">
-        <v>539</v>
+      <c r="B481" t="s">
+        <v>554</v>
       </c>
       <c r="C481">
         <v>1</v>
       </c>
       <c r="D481" t="s">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="E481" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="F481" t="s">
-        <v>83</v>
-      </c>
-      <c r="G481" t="s">
-        <v>50</v>
-      </c>
-      <c r="J481">
-        <v>5</v>
+        <v>302</v>
+      </c>
+      <c r="H481">
+        <v>90</v>
       </c>
       <c r="K481">
-        <v>140</v>
+        <v>750000</v>
+      </c>
+      <c r="L481">
+        <v>0.29</v>
+      </c>
+      <c r="M481">
+        <v>0.29</v>
+      </c>
+      <c r="N481">
+        <v>0.29</v>
       </c>
       <c r="U481">
         <v>1</v>
       </c>
       <c r="V481">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="W481">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="X481" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
     </row>
     <row r="482" spans="1:27">
       <c r="B482" t="s">
-        <v>554</v>
+        <v>693</v>
       </c>
       <c r="C482">
         <v>1</v>
       </c>
       <c r="D482" t="s">
-        <v>301</v>
+        <v>34</v>
       </c>
       <c r="E482" t="s">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c r="F482" t="s">
-        <v>302</v>
-      </c>
-      <c r="H482">
-        <v>90</v>
+        <v>36</v>
+      </c>
+      <c r="J482">
+        <v>1</v>
       </c>
       <c r="K482">
-        <v>750000</v>
-      </c>
-      <c r="L482">
-        <v>0.29</v>
-      </c>
-      <c r="M482">
-        <v>0.29</v>
-      </c>
-      <c r="N482">
-        <v>0.29</v>
+        <v>5</v>
       </c>
       <c r="U482">
         <v>1</v>
       </c>
       <c r="V482">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="W482">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="X482" t="s">
-        <v>273</v>
+        <v>33</v>
       </c>
     </row>
     <row r="483" spans="1:27">
-      <c r="B483" t="s">
-        <v>694</v>
+      <c r="A483" t="s">
+        <v>563</v>
       </c>
       <c r="C483">
         <v>1</v>
       </c>
       <c r="D483" t="s">
-        <v>34</v>
+        <v>436</v>
       </c>
       <c r="E483" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F483" t="s">
-        <v>36</v>
+        <v>437</v>
+      </c>
+      <c r="G483" t="s">
+        <v>44</v>
       </c>
       <c r="J483">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="K483">
-        <v>5</v>
+        <v>1300000</v>
+      </c>
+      <c r="O483">
+        <v>0.26</v>
+      </c>
+      <c r="P483">
+        <v>0.26</v>
+      </c>
+      <c r="Q483">
+        <v>0.26</v>
+      </c>
+      <c r="R483">
+        <v>0.26</v>
+      </c>
+      <c r="S483">
+        <v>0.26</v>
       </c>
       <c r="U483">
         <v>1</v>
       </c>
       <c r="V483">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="W483">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="X483" t="s">
         <v>33</v>
@@ -22724,52 +22736,55 @@
     </row>
     <row r="484" spans="1:27">
       <c r="A484" t="s">
-        <v>563</v>
+        <v>562</v>
+      </c>
+      <c r="B484" t="s">
+        <v>694</v>
       </c>
       <c r="C484">
         <v>1</v>
       </c>
       <c r="D484" t="s">
-        <v>436</v>
+        <v>138</v>
       </c>
       <c r="E484" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F484" t="s">
-        <v>437</v>
+        <v>139</v>
       </c>
       <c r="G484" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J484">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="K484">
-        <v>1300000</v>
+        <v>2500</v>
       </c>
       <c r="O484">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="P484">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="Q484">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="R484">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="S484">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="U484">
         <v>1</v>
       </c>
       <c r="V484">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="W484">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="X484" t="s">
         <v>33</v>
@@ -22777,199 +22792,199 @@
     </row>
     <row r="485" spans="1:27">
       <c r="A485" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="B485" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C485">
         <v>1</v>
       </c>
       <c r="D485" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="E485" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F485" t="s">
-        <v>139</v>
-      </c>
-      <c r="G485" t="s">
-        <v>38</v>
-      </c>
-      <c r="J485">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="H485">
+        <v>4</v>
       </c>
       <c r="K485">
-        <v>2500</v>
-      </c>
-      <c r="O485">
-        <v>0.08</v>
-      </c>
-      <c r="P485">
-        <v>0.08</v>
-      </c>
-      <c r="Q485">
-        <v>0.08</v>
-      </c>
-      <c r="R485">
-        <v>0.08</v>
-      </c>
-      <c r="S485">
-        <v>0.08</v>
+        <v>10</v>
       </c>
       <c r="U485">
         <v>1</v>
       </c>
       <c r="V485">
+        <v>1</v>
+      </c>
+      <c r="W485">
+        <v>5</v>
+      </c>
+      <c r="X485" t="s">
         <v>28</v>
-      </c>
-      <c r="W485">
-        <v>50</v>
-      </c>
-      <c r="X485" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="486" spans="1:27">
       <c r="A486" t="s">
-        <v>549</v>
-      </c>
-      <c r="B486" t="s">
-        <v>695</v>
+        <v>540</v>
       </c>
       <c r="C486">
         <v>1</v>
       </c>
       <c r="D486" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="E486" t="s">
+        <v>50</v>
+      </c>
+      <c r="F486" t="s">
+        <v>115</v>
+      </c>
+      <c r="G486" t="s">
+        <v>50</v>
+      </c>
+      <c r="J486">
+        <v>22</v>
+      </c>
+      <c r="K486">
+        <v>510</v>
+      </c>
+      <c r="O486">
+        <v>0.05</v>
+      </c>
+      <c r="P486">
+        <v>0.05</v>
+      </c>
+      <c r="Q486">
+        <v>0.05</v>
+      </c>
+      <c r="R486">
+        <v>0.05</v>
+      </c>
+      <c r="S486">
+        <v>0.05</v>
+      </c>
+      <c r="U486">
+        <v>1</v>
+      </c>
+      <c r="V486">
+        <v>18</v>
+      </c>
+      <c r="W486">
+        <v>36</v>
+      </c>
+      <c r="X486" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="487" spans="1:27">
+      <c r="B487" t="s">
+        <v>693</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487" t="s">
+        <v>470</v>
+      </c>
+      <c r="E487" t="s">
+        <v>31</v>
+      </c>
+      <c r="F487" t="s">
+        <v>471</v>
+      </c>
+      <c r="G487" t="s">
+        <v>31</v>
+      </c>
+      <c r="J487">
+        <v>400</v>
+      </c>
+      <c r="K487">
+        <v>9876000</v>
+      </c>
+      <c r="O487">
+        <v>0.6</v>
+      </c>
+      <c r="P487">
+        <v>0.6</v>
+      </c>
+      <c r="Q487">
+        <v>0.6</v>
+      </c>
+      <c r="R487">
+        <v>0.6</v>
+      </c>
+      <c r="S487">
+        <v>0.6</v>
+      </c>
+      <c r="U487">
+        <v>1</v>
+      </c>
+      <c r="V487">
+        <v>85</v>
+      </c>
+      <c r="W487">
+        <v>190</v>
+      </c>
+      <c r="X487" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="488" spans="1:27">
+      <c r="A488" t="s">
+        <v>543</v>
+      </c>
+      <c r="B488" t="s">
+        <v>542</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488" t="s">
+        <v>142</v>
+      </c>
+      <c r="E488" t="s">
+        <v>44</v>
+      </c>
+      <c r="F488" t="s">
+        <v>143</v>
+      </c>
+      <c r="G488" t="s">
+        <v>44</v>
+      </c>
+      <c r="J488">
+        <v>45</v>
+      </c>
+      <c r="K488">
+        <v>2600</v>
+      </c>
+      <c r="O488">
+        <v>0.08</v>
+      </c>
+      <c r="P488">
+        <v>0.08</v>
+      </c>
+      <c r="Q488">
+        <v>0.08</v>
+      </c>
+      <c r="R488">
+        <v>0.08</v>
+      </c>
+      <c r="S488">
+        <v>0.08</v>
+      </c>
+      <c r="U488">
+        <v>1</v>
+      </c>
+      <c r="V488">
         <v>28</v>
       </c>
-      <c r="F486" t="s">
-        <v>29</v>
-      </c>
-      <c r="H486">
-        <v>4</v>
-      </c>
-      <c r="K486">
-        <v>10</v>
-      </c>
-      <c r="U486">
-        <v>1</v>
-      </c>
-      <c r="V486">
-        <v>1</v>
-      </c>
-      <c r="W486">
-        <v>5</v>
-      </c>
-      <c r="X486" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="487" spans="1:27">
-      <c r="A487" t="s">
-        <v>540</v>
-      </c>
-      <c r="C487">
-        <v>1</v>
-      </c>
-      <c r="D487" t="s">
-        <v>114</v>
-      </c>
-      <c r="E487" t="s">
+      <c r="W488">
         <v>50</v>
-      </c>
-      <c r="F487" t="s">
-        <v>115</v>
-      </c>
-      <c r="G487" t="s">
-        <v>50</v>
-      </c>
-      <c r="J487">
-        <v>22</v>
-      </c>
-      <c r="K487">
-        <v>510</v>
-      </c>
-      <c r="O487">
-        <v>0.05</v>
-      </c>
-      <c r="P487">
-        <v>0.05</v>
-      </c>
-      <c r="Q487">
-        <v>0.05</v>
-      </c>
-      <c r="R487">
-        <v>0.05</v>
-      </c>
-      <c r="S487">
-        <v>0.05</v>
-      </c>
-      <c r="U487">
-        <v>1</v>
-      </c>
-      <c r="V487">
-        <v>18</v>
-      </c>
-      <c r="W487">
-        <v>36</v>
-      </c>
-      <c r="X487" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="488" spans="1:27">
-      <c r="B488" t="s">
-        <v>694</v>
-      </c>
-      <c r="C488">
-        <v>1</v>
-      </c>
-      <c r="D488" t="s">
-        <v>470</v>
-      </c>
-      <c r="E488" t="s">
-        <v>31</v>
-      </c>
-      <c r="F488" t="s">
-        <v>471</v>
-      </c>
-      <c r="G488" t="s">
-        <v>31</v>
-      </c>
-      <c r="J488">
-        <v>400</v>
-      </c>
-      <c r="K488">
-        <v>9876000</v>
-      </c>
-      <c r="O488">
-        <v>0.6</v>
-      </c>
-      <c r="P488">
-        <v>0.6</v>
-      </c>
-      <c r="Q488">
-        <v>0.6</v>
-      </c>
-      <c r="R488">
-        <v>0.6</v>
-      </c>
-      <c r="S488">
-        <v>0.6</v>
-      </c>
-      <c r="U488">
-        <v>1</v>
-      </c>
-      <c r="V488">
-        <v>85</v>
-      </c>
-      <c r="W488">
-        <v>190</v>
       </c>
       <c r="X488" t="s">
         <v>33</v>
@@ -22977,31 +22992,28 @@
     </row>
     <row r="489" spans="1:27">
       <c r="A489" t="s">
-        <v>543</v>
-      </c>
-      <c r="B489" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="C489">
         <v>1</v>
       </c>
       <c r="D489" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E489" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F489" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G489" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J489">
         <v>45</v>
       </c>
       <c r="K489">
-        <v>2600</v>
+        <v>2250</v>
       </c>
       <c r="O489">
         <v>0.08</v>
@@ -23033,414 +23045,414 @@
     </row>
     <row r="490" spans="1:27">
       <c r="A490" t="s">
-        <v>563</v>
+        <v>695</v>
+      </c>
+      <c r="B490" t="s">
+        <v>546</v>
       </c>
       <c r="C490">
         <v>1</v>
       </c>
       <c r="D490" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="E490" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F490" t="s">
-        <v>145</v>
-      </c>
-      <c r="G490" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="J490">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="K490">
-        <v>2250</v>
+        <v>75000</v>
       </c>
       <c r="O490">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="P490">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="Q490">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="R490">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="S490">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="U490">
         <v>1</v>
       </c>
       <c r="V490">
+        <v>50</v>
+      </c>
+      <c r="W490">
+        <v>100</v>
+      </c>
+      <c r="X490" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="491" spans="1:27">
+      <c r="B491" t="s">
+        <v>690</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491" t="s">
+        <v>100</v>
+      </c>
+      <c r="E491" t="s">
         <v>28</v>
       </c>
-      <c r="W490">
+      <c r="F491" t="s">
+        <v>101</v>
+      </c>
+      <c r="H491">
+        <v>80</v>
+      </c>
+      <c r="K491">
+        <v>750</v>
+      </c>
+      <c r="O491">
+        <v>0.18</v>
+      </c>
+      <c r="P491">
+        <v>0.18</v>
+      </c>
+      <c r="Q491">
+        <v>0.18</v>
+      </c>
+      <c r="R491">
+        <v>0.18</v>
+      </c>
+      <c r="S491">
+        <v>0.18</v>
+      </c>
+      <c r="U491">
+        <v>1</v>
+      </c>
+      <c r="V491">
+        <v>18</v>
+      </c>
+      <c r="W491">
+        <v>36</v>
+      </c>
+      <c r="X491" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="492" spans="1:27">
+      <c r="A492" t="s">
+        <v>550</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492" t="s">
+        <v>150</v>
+      </c>
+      <c r="E492" t="s">
+        <v>31</v>
+      </c>
+      <c r="F492" t="s">
+        <v>151</v>
+      </c>
+      <c r="G492" t="s">
+        <v>31</v>
+      </c>
+      <c r="J492">
+        <v>100</v>
+      </c>
+      <c r="K492">
+        <v>5750</v>
+      </c>
+      <c r="O492">
+        <v>0.28</v>
+      </c>
+      <c r="P492">
+        <v>0.28</v>
+      </c>
+      <c r="Q492">
+        <v>0.28</v>
+      </c>
+      <c r="R492">
+        <v>0.28</v>
+      </c>
+      <c r="S492">
+        <v>0.28</v>
+      </c>
+      <c r="U492">
+        <v>1</v>
+      </c>
+      <c r="V492">
+        <v>28</v>
+      </c>
+      <c r="W492">
         <v>50</v>
       </c>
-      <c r="X490" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="491" spans="1:27">
-      <c r="A491" t="s">
-        <v>696</v>
-      </c>
-      <c r="B491" t="s">
-        <v>546</v>
-      </c>
-      <c r="C491">
-        <v>1</v>
-      </c>
-      <c r="D491" t="s">
-        <v>214</v>
-      </c>
-      <c r="E491" t="s">
-        <v>35</v>
-      </c>
-      <c r="F491" t="s">
-        <v>215</v>
-      </c>
-      <c r="J491">
-        <v>130</v>
-      </c>
-      <c r="K491">
-        <v>75000</v>
-      </c>
-      <c r="O491">
-        <v>0.2</v>
-      </c>
-      <c r="P491">
-        <v>0.2</v>
-      </c>
-      <c r="Q491">
-        <v>0.2</v>
-      </c>
-      <c r="R491">
-        <v>0.2</v>
-      </c>
-      <c r="S491">
-        <v>0.2</v>
-      </c>
-      <c r="U491">
-        <v>1</v>
-      </c>
-      <c r="V491">
-        <v>50</v>
-      </c>
-      <c r="W491">
-        <v>100</v>
-      </c>
-      <c r="X491" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="492" spans="1:27">
-      <c r="B492" t="s">
-        <v>691</v>
-      </c>
-      <c r="C492">
-        <v>1</v>
-      </c>
-      <c r="D492" t="s">
-        <v>100</v>
-      </c>
-      <c r="E492" t="s">
+      <c r="X492" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="493" spans="1:27">
+      <c r="B493" t="s">
+        <v>567</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493" t="s">
+        <v>432</v>
+      </c>
+      <c r="E493" t="s">
+        <v>38</v>
+      </c>
+      <c r="F493" t="s">
+        <v>433</v>
+      </c>
+      <c r="G493" t="s">
+        <v>38</v>
+      </c>
+      <c r="J493">
+        <v>250</v>
+      </c>
+      <c r="K493">
+        <v>2200000</v>
+      </c>
+      <c r="O493">
+        <v>0.26</v>
+      </c>
+      <c r="P493">
+        <v>0.26</v>
+      </c>
+      <c r="Q493">
+        <v>0.26</v>
+      </c>
+      <c r="R493">
+        <v>0.26</v>
+      </c>
+      <c r="S493">
+        <v>0.26</v>
+      </c>
+      <c r="U493">
+        <v>1</v>
+      </c>
+      <c r="V493">
+        <v>75</v>
+      </c>
+      <c r="W493">
+        <v>180</v>
+      </c>
+      <c r="X493" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="494" spans="1:27">
+      <c r="A494" t="s">
+        <v>543</v>
+      </c>
+      <c r="B494" t="s">
+        <v>553</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494" t="s">
+        <v>164</v>
+      </c>
+      <c r="E494" t="s">
         <v>28</v>
       </c>
-      <c r="F492" t="s">
-        <v>101</v>
-      </c>
-      <c r="H492">
-        <v>80</v>
-      </c>
-      <c r="K492">
-        <v>750</v>
-      </c>
-      <c r="O492">
-        <v>0.18</v>
-      </c>
-      <c r="P492">
-        <v>0.18</v>
-      </c>
-      <c r="Q492">
-        <v>0.18</v>
-      </c>
-      <c r="R492">
-        <v>0.18</v>
-      </c>
-      <c r="S492">
-        <v>0.18</v>
-      </c>
-      <c r="U492">
-        <v>1</v>
-      </c>
-      <c r="V492">
-        <v>18</v>
-      </c>
-      <c r="W492">
+      <c r="F494" t="s">
+        <v>165</v>
+      </c>
+      <c r="H494">
+        <v>190</v>
+      </c>
+      <c r="K494">
+        <v>12000</v>
+      </c>
+      <c r="O494">
+        <v>0.25</v>
+      </c>
+      <c r="P494">
+        <v>0.25</v>
+      </c>
+      <c r="Q494">
+        <v>0.25</v>
+      </c>
+      <c r="R494">
+        <v>0.25</v>
+      </c>
+      <c r="S494">
+        <v>0.25</v>
+      </c>
+      <c r="U494">
+        <v>1</v>
+      </c>
+      <c r="V494">
         <v>36</v>
       </c>
-      <c r="X492" t="s">
+      <c r="W494">
+        <v>70</v>
+      </c>
+      <c r="X494" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="493" spans="1:27">
-      <c r="A493" t="s">
-        <v>550</v>
-      </c>
-      <c r="C493">
-        <v>1</v>
-      </c>
-      <c r="D493" t="s">
-        <v>150</v>
-      </c>
-      <c r="E493" t="s">
-        <v>31</v>
-      </c>
-      <c r="F493" t="s">
-        <v>151</v>
-      </c>
-      <c r="G493" t="s">
-        <v>31</v>
-      </c>
-      <c r="J493">
-        <v>100</v>
-      </c>
-      <c r="K493">
-        <v>5750</v>
-      </c>
-      <c r="O493">
-        <v>0.28</v>
-      </c>
-      <c r="P493">
-        <v>0.28</v>
-      </c>
-      <c r="Q493">
-        <v>0.28</v>
-      </c>
-      <c r="R493">
-        <v>0.28</v>
-      </c>
-      <c r="S493">
-        <v>0.28</v>
-      </c>
-      <c r="U493">
-        <v>1</v>
-      </c>
-      <c r="V493">
-        <v>28</v>
-      </c>
-      <c r="W493">
-        <v>50</v>
-      </c>
-      <c r="X493" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="494" spans="1:27">
-      <c r="B494" t="s">
-        <v>567</v>
-      </c>
-      <c r="C494">
-        <v>1</v>
-      </c>
-      <c r="D494" t="s">
-        <v>432</v>
-      </c>
-      <c r="E494" t="s">
-        <v>38</v>
-      </c>
-      <c r="F494" t="s">
-        <v>433</v>
-      </c>
-      <c r="G494" t="s">
-        <v>38</v>
-      </c>
-      <c r="J494">
-        <v>250</v>
-      </c>
-      <c r="K494">
-        <v>2200000</v>
-      </c>
-      <c r="O494">
-        <v>0.26</v>
-      </c>
-      <c r="P494">
-        <v>0.26</v>
-      </c>
-      <c r="Q494">
-        <v>0.26</v>
-      </c>
-      <c r="R494">
-        <v>0.26</v>
-      </c>
-      <c r="S494">
-        <v>0.26</v>
-      </c>
-      <c r="U494">
-        <v>1</v>
-      </c>
-      <c r="V494">
-        <v>75</v>
-      </c>
-      <c r="W494">
-        <v>180</v>
-      </c>
-      <c r="X494" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="495" spans="1:27">
       <c r="A495" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B495" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C495">
         <v>1</v>
       </c>
       <c r="D495" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="E495" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F495" t="s">
-        <v>165</v>
-      </c>
-      <c r="H495">
-        <v>190</v>
+        <v>237</v>
+      </c>
+      <c r="G495" t="s">
+        <v>47</v>
+      </c>
+      <c r="J495">
+        <v>150</v>
       </c>
       <c r="K495">
-        <v>12000</v>
+        <v>378000</v>
       </c>
       <c r="O495">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="P495">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="Q495">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="R495">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="S495">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="U495">
         <v>1</v>
       </c>
       <c r="V495">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="W495">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="X495" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="496" spans="1:27">
-      <c r="A496" t="s">
+      <c r="B496" t="s">
+        <v>558</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496" t="s">
+        <v>309</v>
+      </c>
+      <c r="E496" t="s">
+        <v>306</v>
+      </c>
+      <c r="F496" t="s">
+        <v>310</v>
+      </c>
+      <c r="H496">
+        <v>10</v>
+      </c>
+      <c r="K496">
+        <v>50</v>
+      </c>
+      <c r="U496">
+        <v>1</v>
+      </c>
+      <c r="V496">
+        <v>3</v>
+      </c>
+      <c r="W496">
+        <v>8</v>
+      </c>
+      <c r="X496" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="497" spans="1:27">
+      <c r="A497" t="s">
         <v>540</v>
       </c>
-      <c r="B496" t="s">
-        <v>555</v>
-      </c>
-      <c r="C496">
-        <v>1</v>
-      </c>
-      <c r="D496" t="s">
+      <c r="B497" t="s">
+        <v>538</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497" t="s">
         <v>236</v>
       </c>
-      <c r="E496" t="s">
+      <c r="E497" t="s">
         <v>47</v>
       </c>
-      <c r="F496" t="s">
+      <c r="F497" t="s">
         <v>237</v>
       </c>
-      <c r="G496" t="s">
+      <c r="G497" t="s">
         <v>47</v>
       </c>
-      <c r="J496">
+      <c r="J497">
         <v>150</v>
       </c>
-      <c r="K496">
+      <c r="K497">
         <v>378000</v>
       </c>
-      <c r="O496">
+      <c r="O497">
         <v>0.18</v>
       </c>
-      <c r="P496">
+      <c r="P497">
         <v>0.18</v>
       </c>
-      <c r="Q496">
+      <c r="Q497">
         <v>0.18</v>
       </c>
-      <c r="R496">
+      <c r="R497">
         <v>0.18</v>
       </c>
-      <c r="S496">
+      <c r="S497">
         <v>0.18</v>
       </c>
-      <c r="U496">
-        <v>1</v>
-      </c>
-      <c r="V496">
+      <c r="U497">
+        <v>1</v>
+      </c>
+      <c r="V497">
         <v>55</v>
       </c>
-      <c r="W496">
+      <c r="W497">
         <v>110</v>
       </c>
-      <c r="X496" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="497" spans="1:27">
-      <c r="B497" t="s">
-        <v>558</v>
-      </c>
-      <c r="C497">
-        <v>1</v>
-      </c>
-      <c r="D497" t="s">
-        <v>309</v>
-      </c>
-      <c r="E497" t="s">
-        <v>306</v>
-      </c>
-      <c r="F497" t="s">
-        <v>310</v>
-      </c>
-      <c r="H497">
-        <v>10</v>
-      </c>
-      <c r="K497">
-        <v>50</v>
-      </c>
-      <c r="U497">
-        <v>1</v>
-      </c>
-      <c r="V497">
-        <v>3</v>
-      </c>
-      <c r="W497">
-        <v>8</v>
-      </c>
       <c r="X497" t="s">
-        <v>308</v>
+        <v>33</v>
       </c>
     </row>
     <row r="498" spans="1:27">
-      <c r="A498" t="s">
-        <v>540</v>
-      </c>
       <c r="B498" t="s">
         <v>538</v>
       </c>
@@ -23448,701 +23460,686 @@
         <v>1</v>
       </c>
       <c r="D498" t="s">
-        <v>236</v>
+        <v>305</v>
       </c>
       <c r="E498" t="s">
-        <v>47</v>
+        <v>306</v>
       </c>
       <c r="F498" t="s">
-        <v>237</v>
-      </c>
-      <c r="G498" t="s">
-        <v>47</v>
-      </c>
-      <c r="J498">
-        <v>150</v>
+        <v>307</v>
+      </c>
+      <c r="H498">
+        <v>5</v>
       </c>
       <c r="K498">
-        <v>378000</v>
-      </c>
-      <c r="O498">
-        <v>0.18</v>
-      </c>
-      <c r="P498">
-        <v>0.18</v>
-      </c>
-      <c r="Q498">
-        <v>0.18</v>
-      </c>
-      <c r="R498">
-        <v>0.18</v>
-      </c>
-      <c r="S498">
-        <v>0.18</v>
+        <v>10</v>
       </c>
       <c r="U498">
         <v>1</v>
       </c>
       <c r="V498">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="W498">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="X498" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
     </row>
     <row r="499" spans="1:27">
       <c r="B499" t="s">
-        <v>538</v>
+        <v>690</v>
       </c>
       <c r="C499">
         <v>1</v>
       </c>
       <c r="D499" t="s">
-        <v>305</v>
+        <v>200</v>
       </c>
       <c r="E499" t="s">
-        <v>306</v>
+        <v>35</v>
       </c>
       <c r="F499" t="s">
-        <v>307</v>
-      </c>
-      <c r="H499">
-        <v>5</v>
+        <v>201</v>
+      </c>
+      <c r="J499">
+        <v>110</v>
       </c>
       <c r="K499">
-        <v>10</v>
+        <v>38000</v>
+      </c>
+      <c r="O499">
+        <v>0.19</v>
+      </c>
+      <c r="P499">
+        <v>0.19</v>
+      </c>
+      <c r="Q499">
+        <v>0.19</v>
+      </c>
+      <c r="R499">
+        <v>0.19</v>
+      </c>
+      <c r="S499">
+        <v>0.19</v>
       </c>
       <c r="U499">
         <v>1</v>
       </c>
       <c r="V499">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="W499">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="X499" t="s">
-        <v>308</v>
+        <v>33</v>
       </c>
     </row>
     <row r="500" spans="1:27">
       <c r="B500" t="s">
-        <v>691</v>
+        <v>542</v>
       </c>
       <c r="C500">
         <v>1</v>
       </c>
       <c r="D500" t="s">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="E500" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="F500" t="s">
-        <v>201</v>
-      </c>
-      <c r="J500">
-        <v>110</v>
+        <v>302</v>
+      </c>
+      <c r="H500">
+        <v>90</v>
       </c>
       <c r="K500">
-        <v>38000</v>
-      </c>
-      <c r="O500">
-        <v>0.19</v>
-      </c>
-      <c r="P500">
-        <v>0.19</v>
-      </c>
-      <c r="Q500">
-        <v>0.19</v>
-      </c>
-      <c r="R500">
-        <v>0.19</v>
-      </c>
-      <c r="S500">
-        <v>0.19</v>
+        <v>750000</v>
+      </c>
+      <c r="L500">
+        <v>0.29</v>
+      </c>
+      <c r="M500">
+        <v>0.29</v>
+      </c>
+      <c r="N500">
+        <v>0.29</v>
       </c>
       <c r="U500">
         <v>1</v>
       </c>
       <c r="V500">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="W500">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="X500" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
     </row>
     <row r="501" spans="1:27">
+      <c r="A501" t="s">
+        <v>540</v>
+      </c>
       <c r="B501" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C501">
         <v>1</v>
       </c>
       <c r="D501" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="E501" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="F501" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="H501">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K501">
-        <v>750000</v>
-      </c>
-      <c r="L501">
-        <v>0.29</v>
-      </c>
-      <c r="M501">
-        <v>0.29</v>
-      </c>
-      <c r="N501">
-        <v>0.29</v>
+        <v>18000</v>
       </c>
       <c r="U501">
         <v>1</v>
       </c>
       <c r="V501">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="W501">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="X501" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
     </row>
     <row r="502" spans="1:27">
       <c r="A502" t="s">
-        <v>540</v>
-      </c>
-      <c r="B502" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="C502">
         <v>1</v>
       </c>
       <c r="D502" t="s">
-        <v>323</v>
+        <v>90</v>
       </c>
       <c r="E502" t="s">
-        <v>306</v>
+        <v>38</v>
       </c>
       <c r="F502" t="s">
-        <v>324</v>
-      </c>
-      <c r="H502">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="J502">
+        <v>10</v>
       </c>
       <c r="K502">
-        <v>18000</v>
+        <v>220</v>
+      </c>
+      <c r="O502">
+        <v>0.03</v>
+      </c>
+      <c r="P502">
+        <v>0.03</v>
+      </c>
+      <c r="Q502">
+        <v>0.03</v>
+      </c>
+      <c r="R502">
+        <v>0.03</v>
+      </c>
+      <c r="S502">
+        <v>0.03</v>
       </c>
       <c r="U502">
         <v>1</v>
       </c>
       <c r="V502">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="W502">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="X502" t="s">
-        <v>308</v>
+        <v>33</v>
       </c>
     </row>
     <row r="503" spans="1:27">
       <c r="A503" t="s">
-        <v>549</v>
+        <v>548</v>
+      </c>
+      <c r="B503" t="s">
+        <v>538</v>
       </c>
       <c r="C503">
         <v>1</v>
       </c>
       <c r="D503" t="s">
-        <v>90</v>
+        <v>356</v>
       </c>
       <c r="E503" t="s">
-        <v>38</v>
+        <v>340</v>
       </c>
       <c r="F503" t="s">
-        <v>91</v>
-      </c>
-      <c r="J503">
-        <v>10</v>
+        <v>357</v>
+      </c>
+      <c r="I503">
+        <v>160</v>
       </c>
       <c r="K503">
-        <v>220</v>
-      </c>
-      <c r="O503">
-        <v>0.03</v>
-      </c>
-      <c r="P503">
-        <v>0.03</v>
-      </c>
-      <c r="Q503">
-        <v>0.03</v>
-      </c>
-      <c r="R503">
-        <v>0.03</v>
-      </c>
-      <c r="S503">
-        <v>0.03</v>
+        <v>13876</v>
       </c>
       <c r="U503">
         <v>1</v>
       </c>
       <c r="V503">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="W503">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="X503" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
     </row>
     <row r="504" spans="1:27">
       <c r="A504" t="s">
-        <v>548</v>
-      </c>
-      <c r="B504" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C504">
         <v>1</v>
       </c>
       <c r="D504" t="s">
-        <v>356</v>
+        <v>196</v>
       </c>
       <c r="E504" t="s">
-        <v>340</v>
+        <v>28</v>
       </c>
       <c r="F504" t="s">
-        <v>357</v>
-      </c>
-      <c r="I504">
-        <v>160</v>
+        <v>197</v>
+      </c>
+      <c r="H504">
+        <v>250</v>
       </c>
       <c r="K504">
-        <v>13876</v>
+        <v>50000</v>
+      </c>
+      <c r="O504">
+        <v>0.27</v>
+      </c>
+      <c r="P504">
+        <v>0.27</v>
+      </c>
+      <c r="Q504">
+        <v>0.27</v>
+      </c>
+      <c r="R504">
+        <v>0.27</v>
+      </c>
+      <c r="S504">
+        <v>0.27</v>
       </c>
       <c r="U504">
         <v>1</v>
       </c>
       <c r="V504">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="W504">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="X504" t="s">
-        <v>308</v>
+        <v>28</v>
       </c>
     </row>
     <row r="505" spans="1:27">
       <c r="A505" t="s">
-        <v>539</v>
+        <v>696</v>
       </c>
       <c r="C505">
         <v>1</v>
       </c>
       <c r="D505" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="E505" t="s">
         <v>28</v>
       </c>
       <c r="F505" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="H505">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="K505">
-        <v>50000</v>
+        <v>50</v>
       </c>
       <c r="O505">
-        <v>0.27</v>
+        <v>0.05</v>
       </c>
       <c r="P505">
-        <v>0.27</v>
+        <v>0.05</v>
       </c>
       <c r="Q505">
-        <v>0.27</v>
+        <v>0.05</v>
       </c>
       <c r="R505">
-        <v>0.27</v>
+        <v>0.05</v>
       </c>
       <c r="S505">
-        <v>0.27</v>
+        <v>0.05</v>
       </c>
       <c r="U505">
         <v>1</v>
       </c>
       <c r="V505">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="W505">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="X505" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="506" spans="1:27">
-      <c r="A506" t="s">
-        <v>697</v>
+      <c r="B506" t="s">
+        <v>556</v>
       </c>
       <c r="C506">
         <v>1</v>
       </c>
       <c r="D506" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="E506" t="s">
+        <v>31</v>
+      </c>
+      <c r="F506" t="s">
+        <v>151</v>
+      </c>
+      <c r="G506" t="s">
+        <v>31</v>
+      </c>
+      <c r="J506">
+        <v>100</v>
+      </c>
+      <c r="K506">
+        <v>5750</v>
+      </c>
+      <c r="O506">
+        <v>0.28</v>
+      </c>
+      <c r="P506">
+        <v>0.28</v>
+      </c>
+      <c r="Q506">
+        <v>0.28</v>
+      </c>
+      <c r="R506">
+        <v>0.28</v>
+      </c>
+      <c r="S506">
+        <v>0.28</v>
+      </c>
+      <c r="U506">
+        <v>1</v>
+      </c>
+      <c r="V506">
         <v>28</v>
       </c>
-      <c r="F506" t="s">
-        <v>53</v>
-      </c>
-      <c r="H506">
-        <v>8</v>
-      </c>
-      <c r="K506">
+      <c r="W506">
         <v>50</v>
       </c>
-      <c r="O506">
-        <v>0.05</v>
-      </c>
-      <c r="P506">
-        <v>0.05</v>
-      </c>
-      <c r="Q506">
-        <v>0.05</v>
-      </c>
-      <c r="R506">
-        <v>0.05</v>
-      </c>
-      <c r="S506">
-        <v>0.05</v>
-      </c>
-      <c r="U506">
-        <v>1</v>
-      </c>
-      <c r="V506">
-        <v>3</v>
-      </c>
-      <c r="W506">
-        <v>8</v>
-      </c>
       <c r="X506" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="507" spans="1:27">
+      <c r="A507" t="s">
+        <v>548</v>
+      </c>
+      <c r="B507" t="s">
+        <v>542</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+      <c r="D507" t="s">
+        <v>256</v>
+      </c>
+      <c r="E507" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="507" spans="1:27">
-      <c r="B507" t="s">
-        <v>556</v>
-      </c>
-      <c r="C507">
-        <v>1</v>
-      </c>
-      <c r="D507" t="s">
+      <c r="F507" t="s">
+        <v>257</v>
+      </c>
+      <c r="H507">
+        <v>450</v>
+      </c>
+      <c r="K507">
+        <v>1525000</v>
+      </c>
+      <c r="O507">
+        <v>0.37</v>
+      </c>
+      <c r="P507">
+        <v>0.37</v>
+      </c>
+      <c r="Q507">
+        <v>0.37</v>
+      </c>
+      <c r="R507">
+        <v>0.37</v>
+      </c>
+      <c r="S507">
+        <v>0.37</v>
+      </c>
+      <c r="U507">
+        <v>1</v>
+      </c>
+      <c r="V507">
+        <v>70</v>
+      </c>
+      <c r="W507">
         <v>150</v>
       </c>
-      <c r="E507" t="s">
-        <v>31</v>
-      </c>
-      <c r="F507" t="s">
-        <v>151</v>
-      </c>
-      <c r="G507" t="s">
-        <v>31</v>
-      </c>
-      <c r="J507">
-        <v>100</v>
-      </c>
-      <c r="K507">
-        <v>5750</v>
-      </c>
-      <c r="O507">
-        <v>0.28</v>
-      </c>
-      <c r="P507">
-        <v>0.28</v>
-      </c>
-      <c r="Q507">
-        <v>0.28</v>
-      </c>
-      <c r="R507">
-        <v>0.28</v>
-      </c>
-      <c r="S507">
-        <v>0.28</v>
-      </c>
-      <c r="U507">
-        <v>1</v>
-      </c>
-      <c r="V507">
+      <c r="X507" t="s">
         <v>28</v>
-      </c>
-      <c r="W507">
-        <v>50</v>
-      </c>
-      <c r="X507" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="508" spans="1:27">
       <c r="A508" t="s">
-        <v>548</v>
-      </c>
-      <c r="B508" t="s">
-        <v>542</v>
+        <v>689</v>
       </c>
       <c r="C508">
         <v>1</v>
       </c>
       <c r="D508" t="s">
-        <v>256</v>
+        <v>321</v>
       </c>
       <c r="E508" t="s">
+        <v>306</v>
+      </c>
+      <c r="F508" t="s">
+        <v>322</v>
+      </c>
+      <c r="H508">
+        <v>80</v>
+      </c>
+      <c r="K508">
+        <v>5600</v>
+      </c>
+      <c r="U508">
+        <v>1</v>
+      </c>
+      <c r="V508">
+        <v>30</v>
+      </c>
+      <c r="W508">
+        <v>60</v>
+      </c>
+      <c r="X508" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="509" spans="1:27">
+      <c r="B509" t="s">
+        <v>545</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509" t="s">
+        <v>134</v>
+      </c>
+      <c r="E509" t="s">
+        <v>31</v>
+      </c>
+      <c r="F509" t="s">
+        <v>135</v>
+      </c>
+      <c r="G509" t="s">
+        <v>31</v>
+      </c>
+      <c r="J509">
+        <v>80</v>
+      </c>
+      <c r="K509">
+        <v>3500</v>
+      </c>
+      <c r="O509">
+        <v>0.25</v>
+      </c>
+      <c r="P509">
+        <v>0.25</v>
+      </c>
+      <c r="Q509">
+        <v>0.25</v>
+      </c>
+      <c r="R509">
+        <v>0.25</v>
+      </c>
+      <c r="S509">
+        <v>0.25</v>
+      </c>
+      <c r="U509">
+        <v>1</v>
+      </c>
+      <c r="V509">
         <v>28</v>
       </c>
-      <c r="F508" t="s">
-        <v>257</v>
-      </c>
-      <c r="H508">
-        <v>450</v>
-      </c>
-      <c r="K508">
-        <v>1525000</v>
-      </c>
-      <c r="O508">
-        <v>0.37</v>
-      </c>
-      <c r="P508">
-        <v>0.37</v>
-      </c>
-      <c r="Q508">
-        <v>0.37</v>
-      </c>
-      <c r="R508">
-        <v>0.37</v>
-      </c>
-      <c r="S508">
-        <v>0.37</v>
-      </c>
-      <c r="U508">
-        <v>1</v>
-      </c>
-      <c r="V508">
-        <v>70</v>
-      </c>
-      <c r="W508">
-        <v>150</v>
-      </c>
-      <c r="X508" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="509" spans="1:27">
-      <c r="A509" t="s">
-        <v>689</v>
-      </c>
-      <c r="C509">
-        <v>1</v>
-      </c>
-      <c r="D509" t="s">
-        <v>321</v>
-      </c>
-      <c r="E509" t="s">
-        <v>306</v>
-      </c>
-      <c r="F509" t="s">
-        <v>322</v>
-      </c>
-      <c r="H509">
-        <v>80</v>
-      </c>
-      <c r="K509">
-        <v>5600</v>
-      </c>
-      <c r="U509">
-        <v>1</v>
-      </c>
-      <c r="V509">
-        <v>30</v>
-      </c>
       <c r="W509">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="X509" t="s">
-        <v>308</v>
+        <v>33</v>
       </c>
     </row>
     <row r="510" spans="1:27">
       <c r="B510" t="s">
-        <v>545</v>
+        <v>693</v>
       </c>
       <c r="C510">
         <v>1</v>
       </c>
       <c r="D510" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="E510" t="s">
         <v>31</v>
       </c>
       <c r="F510" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="G510" t="s">
         <v>31</v>
       </c>
       <c r="J510">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K510">
-        <v>3500</v>
+        <v>48000</v>
       </c>
       <c r="O510">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="P510">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="Q510">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="R510">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="S510">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="U510">
         <v>1</v>
       </c>
       <c r="V510">
+        <v>43</v>
+      </c>
+      <c r="W510">
+        <v>78</v>
+      </c>
+      <c r="X510" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="511" spans="1:27">
+      <c r="A511" t="s">
+        <v>561</v>
+      </c>
+      <c r="B511" t="s">
+        <v>546</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+      <c r="D511" t="s">
+        <v>210</v>
+      </c>
+      <c r="E511" t="s">
         <v>28</v>
       </c>
-      <c r="W510">
+      <c r="F511" t="s">
+        <v>211</v>
+      </c>
+      <c r="H511">
+        <v>280</v>
+      </c>
+      <c r="K511">
+        <v>125000</v>
+      </c>
+      <c r="O511">
+        <v>0.29</v>
+      </c>
+      <c r="P511">
+        <v>0.29</v>
+      </c>
+      <c r="Q511">
+        <v>0.29</v>
+      </c>
+      <c r="R511">
+        <v>0.29</v>
+      </c>
+      <c r="S511">
+        <v>0.29</v>
+      </c>
+      <c r="U511">
+        <v>1</v>
+      </c>
+      <c r="V511">
         <v>50</v>
       </c>
-      <c r="X510" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="511" spans="1:27">
-      <c r="B511" t="s">
-        <v>694</v>
-      </c>
-      <c r="C511">
-        <v>1</v>
-      </c>
-      <c r="D511" t="s">
-        <v>198</v>
-      </c>
-      <c r="E511" t="s">
-        <v>31</v>
-      </c>
-      <c r="F511" t="s">
-        <v>199</v>
-      </c>
-      <c r="G511" t="s">
-        <v>31</v>
-      </c>
-      <c r="J511">
-        <v>170</v>
-      </c>
-      <c r="K511">
-        <v>48000</v>
-      </c>
-      <c r="O511">
-        <v>0.33</v>
-      </c>
-      <c r="P511">
-        <v>0.33</v>
-      </c>
-      <c r="Q511">
-        <v>0.33</v>
-      </c>
-      <c r="R511">
-        <v>0.33</v>
-      </c>
-      <c r="S511">
-        <v>0.33</v>
-      </c>
-      <c r="U511">
-        <v>1</v>
-      </c>
-      <c r="V511">
-        <v>43</v>
-      </c>
       <c r="W511">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="X511" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="512" spans="1:27">
       <c r="A512" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="B512" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="C512">
         <v>1</v>
       </c>
       <c r="D512" t="s">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="E512" t="s">
         <v>28</v>
       </c>
       <c r="F512" t="s">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="H512">
-        <v>280</v>
+        <v>4</v>
       </c>
       <c r="K512">
-        <v>125000</v>
-      </c>
-      <c r="O512">
-        <v>0.29</v>
-      </c>
-      <c r="P512">
-        <v>0.29</v>
-      </c>
-      <c r="Q512">
-        <v>0.29</v>
-      </c>
-      <c r="R512">
-        <v>0.29</v>
-      </c>
-      <c r="S512">
-        <v>0.29</v>
+        <v>10</v>
       </c>
       <c r="U512">
         <v>1</v>
       </c>
       <c r="V512">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="W512">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="X512" t="s">
         <v>28</v>
@@ -24150,281 +24147,299 @@
     </row>
     <row r="513" spans="1:27">
       <c r="A513" t="s">
-        <v>550</v>
-      </c>
-      <c r="B513" t="s">
-        <v>555</v>
+        <v>695</v>
       </c>
       <c r="C513">
         <v>1</v>
       </c>
       <c r="D513" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="E513" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F513" t="s">
-        <v>29</v>
-      </c>
-      <c r="H513">
-        <v>4</v>
+        <v>129</v>
+      </c>
+      <c r="G513" t="s">
+        <v>47</v>
+      </c>
+      <c r="J513">
+        <v>30</v>
       </c>
       <c r="K513">
-        <v>10</v>
+        <v>945</v>
+      </c>
+      <c r="O513">
+        <v>0.06</v>
+      </c>
+      <c r="P513">
+        <v>0.06</v>
+      </c>
+      <c r="Q513">
+        <v>0.06</v>
+      </c>
+      <c r="R513">
+        <v>0.06</v>
+      </c>
+      <c r="S513">
+        <v>0.06</v>
       </c>
       <c r="U513">
         <v>1</v>
       </c>
       <c r="V513">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="W513">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="X513" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="514" spans="1:27">
       <c r="A514" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C514">
         <v>1</v>
       </c>
       <c r="D514" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="E514" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F514" t="s">
-        <v>129</v>
-      </c>
-      <c r="G514" t="s">
-        <v>47</v>
-      </c>
-      <c r="J514">
-        <v>30</v>
+        <v>165</v>
+      </c>
+      <c r="H514">
+        <v>190</v>
       </c>
       <c r="K514">
-        <v>945</v>
+        <v>12000</v>
       </c>
       <c r="O514">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="P514">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="Q514">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="R514">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="S514">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="U514">
         <v>1</v>
       </c>
       <c r="V514">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="W514">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="X514" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="515" spans="1:27">
-      <c r="A515" t="s">
-        <v>698</v>
+      <c r="B515" t="s">
+        <v>555</v>
       </c>
       <c r="C515">
         <v>1</v>
       </c>
       <c r="D515" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="E515" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F515" t="s">
-        <v>165</v>
-      </c>
-      <c r="H515">
-        <v>190</v>
+        <v>255</v>
+      </c>
+      <c r="G515" t="s">
+        <v>50</v>
+      </c>
+      <c r="J515">
+        <v>170</v>
       </c>
       <c r="K515">
-        <v>12000</v>
+        <v>534000</v>
       </c>
       <c r="O515">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="P515">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Q515">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="R515">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="S515">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="U515">
         <v>1</v>
       </c>
       <c r="V515">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="W515">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="X515" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="516" spans="1:27">
       <c r="B516" t="s">
-        <v>555</v>
+        <v>698</v>
       </c>
       <c r="C516">
         <v>1</v>
       </c>
       <c r="D516" t="s">
-        <v>254</v>
+        <v>49</v>
       </c>
       <c r="E516" t="s">
         <v>50</v>
       </c>
       <c r="F516" t="s">
-        <v>255</v>
+        <v>51</v>
       </c>
       <c r="G516" t="s">
         <v>50</v>
       </c>
       <c r="J516">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="K516">
-        <v>534000</v>
-      </c>
-      <c r="O516">
-        <v>0.2</v>
-      </c>
-      <c r="P516">
-        <v>0.2</v>
-      </c>
-      <c r="Q516">
-        <v>0.2</v>
-      </c>
-      <c r="R516">
-        <v>0.2</v>
-      </c>
-      <c r="S516">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="U516">
         <v>1</v>
       </c>
       <c r="V516">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="W516">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="X516" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="517" spans="1:27">
-      <c r="B517" t="s">
-        <v>699</v>
+      <c r="A517" t="s">
+        <v>563</v>
       </c>
       <c r="C517">
         <v>1</v>
       </c>
       <c r="D517" t="s">
-        <v>49</v>
+        <v>303</v>
       </c>
       <c r="E517" t="s">
+        <v>273</v>
+      </c>
+      <c r="F517" t="s">
+        <v>304</v>
+      </c>
+      <c r="H517">
+        <v>100</v>
+      </c>
+      <c r="K517">
+        <v>1345000</v>
+      </c>
+      <c r="L517">
+        <v>0.3</v>
+      </c>
+      <c r="M517">
+        <v>0.3</v>
+      </c>
+      <c r="N517">
+        <v>0.3</v>
+      </c>
+      <c r="U517">
+        <v>1</v>
+      </c>
+      <c r="V517">
+        <v>70</v>
+      </c>
+      <c r="W517">
+        <v>180</v>
+      </c>
+      <c r="X517" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="518" spans="1:27">
+      <c r="B518" t="s">
+        <v>551</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+      <c r="D518" t="s">
+        <v>144</v>
+      </c>
+      <c r="E518" t="s">
+        <v>47</v>
+      </c>
+      <c r="F518" t="s">
+        <v>145</v>
+      </c>
+      <c r="G518" t="s">
+        <v>47</v>
+      </c>
+      <c r="J518">
+        <v>45</v>
+      </c>
+      <c r="K518">
+        <v>2250</v>
+      </c>
+      <c r="O518">
+        <v>0.08</v>
+      </c>
+      <c r="P518">
+        <v>0.08</v>
+      </c>
+      <c r="Q518">
+        <v>0.08</v>
+      </c>
+      <c r="R518">
+        <v>0.08</v>
+      </c>
+      <c r="S518">
+        <v>0.08</v>
+      </c>
+      <c r="U518">
+        <v>1</v>
+      </c>
+      <c r="V518">
+        <v>28</v>
+      </c>
+      <c r="W518">
         <v>50</v>
       </c>
-      <c r="F517" t="s">
-        <v>51</v>
-      </c>
-      <c r="G517" t="s">
-        <v>50</v>
-      </c>
-      <c r="J517">
-        <v>1</v>
-      </c>
-      <c r="K517">
-        <v>5</v>
-      </c>
-      <c r="U517">
-        <v>1</v>
-      </c>
-      <c r="V517">
-        <v>1</v>
-      </c>
-      <c r="W517">
-        <v>5</v>
-      </c>
-      <c r="X517" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="518" spans="1:27">
-      <c r="A518" t="s">
-        <v>563</v>
-      </c>
-      <c r="C518">
-        <v>1</v>
-      </c>
-      <c r="D518" t="s">
-        <v>303</v>
-      </c>
-      <c r="E518" t="s">
-        <v>273</v>
-      </c>
-      <c r="F518" t="s">
-        <v>304</v>
-      </c>
-      <c r="H518">
-        <v>100</v>
-      </c>
-      <c r="K518">
-        <v>1345000</v>
-      </c>
-      <c r="L518">
-        <v>0.3</v>
-      </c>
-      <c r="M518">
-        <v>0.3</v>
-      </c>
-      <c r="N518">
-        <v>0.3</v>
-      </c>
-      <c r="U518">
-        <v>1</v>
-      </c>
-      <c r="V518">
-        <v>70</v>
-      </c>
-      <c r="W518">
-        <v>180</v>
-      </c>
       <c r="X518" t="s">
-        <v>273</v>
+        <v>33</v>
       </c>
     </row>
     <row r="519" spans="1:27">
+      <c r="A519" t="s">
+        <v>561</v>
+      </c>
       <c r="B519" t="s">
         <v>551</v>
       </c>
@@ -24432,37 +24447,37 @@
         <v>1</v>
       </c>
       <c r="D519" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E519" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F519" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G519" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J519">
         <v>45</v>
       </c>
       <c r="K519">
-        <v>2250</v>
+        <v>3800</v>
       </c>
       <c r="O519">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="P519">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="Q519">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="R519">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="S519">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="U519">
         <v>1</v>
@@ -24478,176 +24493,173 @@
       </c>
     </row>
     <row r="520" spans="1:27">
-      <c r="A520" t="s">
-        <v>561</v>
-      </c>
       <c r="B520" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C520">
         <v>1</v>
       </c>
       <c r="D520" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="E520" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F520" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="G520" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J520">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="K520">
-        <v>3800</v>
+        <v>9000</v>
       </c>
       <c r="O520">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="P520">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="Q520">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="R520">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="S520">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="U520">
         <v>1</v>
       </c>
       <c r="V520">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="W520">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X520" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="521" spans="1:27">
+      <c r="A521" t="s">
+        <v>689</v>
+      </c>
       <c r="B521" t="s">
-        <v>558</v>
+        <v>698</v>
       </c>
       <c r="C521">
         <v>1</v>
       </c>
       <c r="D521" t="s">
-        <v>176</v>
+        <v>321</v>
       </c>
       <c r="E521" t="s">
-        <v>47</v>
+        <v>306</v>
       </c>
       <c r="F521" t="s">
-        <v>177</v>
-      </c>
-      <c r="G521" t="s">
-        <v>47</v>
-      </c>
-      <c r="J521">
-        <v>75</v>
+        <v>322</v>
+      </c>
+      <c r="H521">
+        <v>80</v>
       </c>
       <c r="K521">
-        <v>9000</v>
-      </c>
-      <c r="O521">
-        <v>0.12</v>
-      </c>
-      <c r="P521">
-        <v>0.12</v>
-      </c>
-      <c r="Q521">
-        <v>0.12</v>
-      </c>
-      <c r="R521">
-        <v>0.12</v>
-      </c>
-      <c r="S521">
-        <v>0.12</v>
+        <v>5600</v>
       </c>
       <c r="U521">
         <v>1</v>
       </c>
       <c r="V521">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="W521">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="X521" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
     </row>
     <row r="522" spans="1:27">
       <c r="A522" t="s">
-        <v>689</v>
+        <v>561</v>
       </c>
       <c r="B522" t="s">
-        <v>699</v>
+        <v>546</v>
       </c>
       <c r="C522">
         <v>1</v>
       </c>
       <c r="D522" t="s">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="E522" t="s">
-        <v>306</v>
+        <v>28</v>
       </c>
       <c r="F522" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="H522">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="K522">
-        <v>5600</v>
+        <v>750000</v>
+      </c>
+      <c r="O522">
+        <v>0.35</v>
+      </c>
+      <c r="P522">
+        <v>0.35</v>
+      </c>
+      <c r="Q522">
+        <v>0.35</v>
+      </c>
+      <c r="R522">
+        <v>0.35</v>
+      </c>
+      <c r="S522">
+        <v>0.35</v>
       </c>
       <c r="U522">
         <v>1</v>
       </c>
       <c r="V522">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="W522">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="X522" t="s">
-        <v>308</v>
+        <v>28</v>
       </c>
     </row>
     <row r="523" spans="1:27">
       <c r="A523" t="s">
-        <v>561</v>
-      </c>
-      <c r="B523" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="C523">
         <v>1</v>
       </c>
       <c r="D523" t="s">
-        <v>240</v>
+        <v>476</v>
       </c>
       <c r="E523" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F523" t="s">
-        <v>241</v>
-      </c>
-      <c r="H523">
-        <v>380</v>
+        <v>477</v>
+      </c>
+      <c r="G523" t="s">
+        <v>41</v>
+      </c>
+      <c r="J523">
+        <v>300</v>
       </c>
       <c r="K523">
-        <v>750000</v>
+        <v>5467000</v>
       </c>
       <c r="O523">
         <v>0.35</v>
@@ -24668,448 +24680,448 @@
         <v>1</v>
       </c>
       <c r="V523">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="W523">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="X523" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="524" spans="1:27">
+      <c r="B524" t="s">
+        <v>554</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+      <c r="D524" t="s">
+        <v>212</v>
+      </c>
+      <c r="E524" t="s">
+        <v>31</v>
+      </c>
+      <c r="F524" t="s">
+        <v>213</v>
+      </c>
+      <c r="G524" t="s">
+        <v>31</v>
+      </c>
+      <c r="J524">
+        <v>190</v>
+      </c>
+      <c r="K524">
+        <v>125000</v>
+      </c>
+      <c r="O524">
+        <v>0.36</v>
+      </c>
+      <c r="P524">
+        <v>0.36</v>
+      </c>
+      <c r="Q524">
+        <v>0.36</v>
+      </c>
+      <c r="R524">
+        <v>0.36</v>
+      </c>
+      <c r="S524">
+        <v>0.36</v>
+      </c>
+      <c r="U524">
+        <v>1</v>
+      </c>
+      <c r="V524">
+        <v>50</v>
+      </c>
+      <c r="W524">
+        <v>100</v>
+      </c>
+      <c r="X524" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="525" spans="1:27">
+      <c r="A525" t="s">
+        <v>549</v>
+      </c>
+      <c r="B525" t="s">
+        <v>690</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+      <c r="D525" t="s">
+        <v>27</v>
+      </c>
+      <c r="E525" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="524" spans="1:27">
-      <c r="A524" t="s">
-        <v>566</v>
-      </c>
-      <c r="C524">
-        <v>1</v>
-      </c>
-      <c r="D524" t="s">
-        <v>476</v>
-      </c>
-      <c r="E524" t="s">
-        <v>41</v>
-      </c>
-      <c r="F524" t="s">
-        <v>477</v>
-      </c>
-      <c r="G524" t="s">
-        <v>41</v>
-      </c>
-      <c r="J524">
-        <v>300</v>
-      </c>
-      <c r="K524">
-        <v>5467000</v>
-      </c>
-      <c r="O524">
-        <v>0.35</v>
-      </c>
-      <c r="P524">
-        <v>0.35</v>
-      </c>
-      <c r="Q524">
-        <v>0.35</v>
-      </c>
-      <c r="R524">
-        <v>0.35</v>
-      </c>
-      <c r="S524">
-        <v>0.35</v>
-      </c>
-      <c r="U524">
-        <v>1</v>
-      </c>
-      <c r="V524">
-        <v>85</v>
-      </c>
-      <c r="W524">
-        <v>190</v>
-      </c>
-      <c r="X524" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="525" spans="1:27">
-      <c r="B525" t="s">
-        <v>554</v>
-      </c>
-      <c r="C525">
-        <v>1</v>
-      </c>
-      <c r="D525" t="s">
-        <v>212</v>
-      </c>
-      <c r="E525" t="s">
-        <v>31</v>
-      </c>
       <c r="F525" t="s">
-        <v>213</v>
-      </c>
-      <c r="G525" t="s">
-        <v>31</v>
-      </c>
-      <c r="J525">
-        <v>190</v>
+        <v>29</v>
+      </c>
+      <c r="H525">
+        <v>4</v>
       </c>
       <c r="K525">
-        <v>125000</v>
-      </c>
-      <c r="O525">
-        <v>0.36</v>
-      </c>
-      <c r="P525">
-        <v>0.36</v>
-      </c>
-      <c r="Q525">
-        <v>0.36</v>
-      </c>
-      <c r="R525">
-        <v>0.36</v>
-      </c>
-      <c r="S525">
-        <v>0.36</v>
+        <v>10</v>
       </c>
       <c r="U525">
         <v>1</v>
       </c>
       <c r="V525">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="W525">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="X525" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="526" spans="1:27">
       <c r="A526" t="s">
-        <v>549</v>
-      </c>
-      <c r="B526" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C526">
         <v>1</v>
       </c>
       <c r="D526" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="E526" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F526" t="s">
-        <v>29</v>
-      </c>
-      <c r="H526">
-        <v>4</v>
+        <v>103</v>
+      </c>
+      <c r="G526" t="s">
+        <v>31</v>
+      </c>
+      <c r="J526">
+        <v>40</v>
       </c>
       <c r="K526">
-        <v>10</v>
+        <v>750</v>
+      </c>
+      <c r="O526">
+        <v>0.18</v>
+      </c>
+      <c r="P526">
+        <v>0.18</v>
+      </c>
+      <c r="Q526">
+        <v>0.18</v>
+      </c>
+      <c r="R526">
+        <v>0.18</v>
+      </c>
+      <c r="S526">
+        <v>0.18</v>
       </c>
       <c r="U526">
         <v>1</v>
       </c>
       <c r="V526">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="W526">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="X526" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="527" spans="1:27">
-      <c r="A527" t="s">
-        <v>697</v>
+      <c r="B527" t="s">
+        <v>558</v>
       </c>
       <c r="C527">
         <v>1</v>
       </c>
       <c r="D527" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
       <c r="E527" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="F527" t="s">
-        <v>103</v>
-      </c>
-      <c r="G527" t="s">
-        <v>31</v>
-      </c>
-      <c r="J527">
-        <v>40</v>
+        <v>298</v>
+      </c>
+      <c r="H527">
+        <v>75</v>
       </c>
       <c r="K527">
-        <v>750</v>
-      </c>
-      <c r="O527">
-        <v>0.18</v>
-      </c>
-      <c r="P527">
-        <v>0.18</v>
-      </c>
-      <c r="Q527">
-        <v>0.18</v>
-      </c>
-      <c r="R527">
-        <v>0.18</v>
-      </c>
-      <c r="S527">
-        <v>0.18</v>
+        <v>133000</v>
+      </c>
+      <c r="L527">
+        <v>0.25</v>
+      </c>
+      <c r="M527">
+        <v>0.25</v>
+      </c>
+      <c r="N527">
+        <v>0.25</v>
       </c>
       <c r="U527">
         <v>1</v>
       </c>
       <c r="V527">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="W527">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="X527" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
     </row>
     <row r="528" spans="1:27">
       <c r="B528" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C528">
         <v>1</v>
       </c>
       <c r="D528" t="s">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="E528" t="s">
-        <v>273</v>
+        <v>28</v>
       </c>
       <c r="F528" t="s">
-        <v>298</v>
+        <v>133</v>
       </c>
       <c r="H528">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="K528">
-        <v>133000</v>
-      </c>
-      <c r="L528">
-        <v>0.25</v>
-      </c>
-      <c r="M528">
-        <v>0.25</v>
-      </c>
-      <c r="N528">
-        <v>0.25</v>
+        <v>3600</v>
+      </c>
+      <c r="O528">
+        <v>0.2</v>
+      </c>
+      <c r="P528">
+        <v>0.2</v>
+      </c>
+      <c r="Q528">
+        <v>0.2</v>
+      </c>
+      <c r="R528">
+        <v>0.2</v>
+      </c>
+      <c r="S528">
+        <v>0.2</v>
       </c>
       <c r="U528">
         <v>1</v>
       </c>
       <c r="V528">
+        <v>28</v>
+      </c>
+      <c r="W528">
         <v>50</v>
       </c>
-      <c r="W528">
+      <c r="X528" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="529" spans="1:27">
+      <c r="D529" t="s">
+        <v>699</v>
+      </c>
+      <c r="E529" t="s">
+        <v>50</v>
+      </c>
+      <c r="F529" t="s">
+        <v>631</v>
+      </c>
+      <c r="G529" t="s">
+        <v>50</v>
+      </c>
+      <c r="J529">
+        <v>300</v>
+      </c>
+      <c r="K529">
+        <v>35930000</v>
+      </c>
+      <c r="O529">
+        <v>0.49</v>
+      </c>
+      <c r="P529">
+        <v>0.49</v>
+      </c>
+      <c r="Q529">
+        <v>0.49</v>
+      </c>
+      <c r="R529">
+        <v>0.49</v>
+      </c>
+      <c r="S529">
+        <v>0.49</v>
+      </c>
+      <c r="U529">
+        <v>1</v>
+      </c>
+      <c r="V529">
+        <v>130</v>
+      </c>
+      <c r="W529">
+        <v>200</v>
+      </c>
+      <c r="X529" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="530" spans="1:27">
+      <c r="A530" t="s">
+        <v>560</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+      <c r="D530" t="s">
+        <v>214</v>
+      </c>
+      <c r="E530" t="s">
+        <v>35</v>
+      </c>
+      <c r="F530" t="s">
+        <v>215</v>
+      </c>
+      <c r="J530">
+        <v>130</v>
+      </c>
+      <c r="K530">
+        <v>75000</v>
+      </c>
+      <c r="O530">
+        <v>0.2</v>
+      </c>
+      <c r="P530">
+        <v>0.2</v>
+      </c>
+      <c r="Q530">
+        <v>0.2</v>
+      </c>
+      <c r="R530">
+        <v>0.2</v>
+      </c>
+      <c r="S530">
+        <v>0.2</v>
+      </c>
+      <c r="U530">
+        <v>1</v>
+      </c>
+      <c r="V530">
+        <v>50</v>
+      </c>
+      <c r="W530">
         <v>100</v>
       </c>
-      <c r="X528" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="529" spans="1:27">
-      <c r="B529" t="s">
-        <v>557</v>
-      </c>
-      <c r="C529">
-        <v>1</v>
-      </c>
-      <c r="D529" t="s">
-        <v>132</v>
-      </c>
-      <c r="E529" t="s">
+      <c r="X530" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="531" spans="1:27">
+      <c r="B531" t="s">
+        <v>700</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+      <c r="D531" t="s">
+        <v>256</v>
+      </c>
+      <c r="E531" t="s">
         <v>28</v>
       </c>
-      <c r="F529" t="s">
-        <v>133</v>
-      </c>
-      <c r="H529">
-        <v>145</v>
-      </c>
-      <c r="K529">
-        <v>3600</v>
-      </c>
-      <c r="O529">
-        <v>0.2</v>
-      </c>
-      <c r="P529">
-        <v>0.2</v>
-      </c>
-      <c r="Q529">
-        <v>0.2</v>
-      </c>
-      <c r="R529">
-        <v>0.2</v>
-      </c>
-      <c r="S529">
-        <v>0.2</v>
-      </c>
-      <c r="U529">
-        <v>1</v>
-      </c>
-      <c r="V529">
+      <c r="F531" t="s">
+        <v>257</v>
+      </c>
+      <c r="H531">
+        <v>450</v>
+      </c>
+      <c r="K531">
+        <v>1525000</v>
+      </c>
+      <c r="O531">
+        <v>0.37</v>
+      </c>
+      <c r="P531">
+        <v>0.37</v>
+      </c>
+      <c r="Q531">
+        <v>0.37</v>
+      </c>
+      <c r="R531">
+        <v>0.37</v>
+      </c>
+      <c r="S531">
+        <v>0.37</v>
+      </c>
+      <c r="U531">
+        <v>1</v>
+      </c>
+      <c r="V531">
+        <v>70</v>
+      </c>
+      <c r="W531">
+        <v>150</v>
+      </c>
+      <c r="X531" t="s">
         <v>28</v>
       </c>
-      <c r="W529">
-        <v>50</v>
-      </c>
-      <c r="X529" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="530" spans="1:27">
-      <c r="B530" t="s">
-        <v>565</v>
-      </c>
-      <c r="C530">
-        <v>1</v>
-      </c>
-      <c r="D530" t="s">
-        <v>690</v>
-      </c>
-      <c r="E530" t="s">
-        <v>44</v>
-      </c>
-      <c r="F530" t="s">
-        <v>267</v>
-      </c>
-      <c r="J530">
-        <v>200</v>
-      </c>
-      <c r="K530">
-        <v>760000</v>
-      </c>
-      <c r="O530">
-        <v>0.23</v>
-      </c>
-      <c r="P530">
-        <v>0.23</v>
-      </c>
-      <c r="Q530">
-        <v>0.23</v>
-      </c>
-      <c r="R530">
-        <v>0.23</v>
-      </c>
-      <c r="S530">
-        <v>0.23</v>
-      </c>
-      <c r="U530">
-        <v>1</v>
-      </c>
-      <c r="V530">
-        <v>70</v>
-      </c>
-      <c r="W530">
-        <v>130</v>
-      </c>
-      <c r="X530" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="531" spans="1:27">
-      <c r="D531" t="s">
-        <v>700</v>
-      </c>
-      <c r="E531" t="s">
-        <v>50</v>
-      </c>
-      <c r="F531" t="s">
-        <v>631</v>
-      </c>
-      <c r="G531" t="s">
-        <v>50</v>
-      </c>
-      <c r="J531">
-        <v>300</v>
-      </c>
-      <c r="K531">
-        <v>35930000</v>
-      </c>
-      <c r="O531">
-        <v>0.49</v>
-      </c>
-      <c r="P531">
-        <v>0.49</v>
-      </c>
-      <c r="Q531">
-        <v>0.49</v>
-      </c>
-      <c r="R531">
-        <v>0.49</v>
-      </c>
-      <c r="S531">
-        <v>0.49</v>
-      </c>
-      <c r="U531">
-        <v>1</v>
-      </c>
-      <c r="V531">
-        <v>130</v>
-      </c>
-      <c r="W531">
-        <v>200</v>
-      </c>
-      <c r="X531" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="532" spans="1:27">
-      <c r="A532" t="s">
-        <v>560</v>
+      <c r="B532" t="s">
+        <v>701</v>
       </c>
       <c r="C532">
         <v>1</v>
       </c>
       <c r="D532" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="E532" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F532" t="s">
-        <v>215</v>
+        <v>129</v>
+      </c>
+      <c r="G532" t="s">
+        <v>47</v>
       </c>
       <c r="J532">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="K532">
-        <v>75000</v>
+        <v>945</v>
       </c>
       <c r="O532">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="P532">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="Q532">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="R532">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="S532">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="U532">
         <v>1</v>
       </c>
       <c r="V532">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="W532">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="X532" t="s">
         <v>33</v>
@@ -25117,152 +25129,158 @@
     </row>
     <row r="533" spans="1:27">
       <c r="B533" t="s">
-        <v>701</v>
+        <v>542</v>
       </c>
       <c r="C533">
         <v>1</v>
       </c>
       <c r="D533" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="E533" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F533" t="s">
-        <v>257</v>
-      </c>
-      <c r="H533">
-        <v>450</v>
+        <v>201</v>
+      </c>
+      <c r="J533">
+        <v>110</v>
       </c>
       <c r="K533">
-        <v>1525000</v>
+        <v>38000</v>
       </c>
       <c r="O533">
-        <v>0.37</v>
+        <v>0.19</v>
       </c>
       <c r="P533">
-        <v>0.37</v>
+        <v>0.19</v>
       </c>
       <c r="Q533">
-        <v>0.37</v>
+        <v>0.19</v>
       </c>
       <c r="R533">
-        <v>0.37</v>
+        <v>0.19</v>
       </c>
       <c r="S533">
-        <v>0.37</v>
+        <v>0.19</v>
       </c>
       <c r="U533">
         <v>1</v>
       </c>
       <c r="V533">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="W533">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="X533" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="534" spans="1:27">
-      <c r="B534" t="s">
-        <v>702</v>
+      <c r="A534" t="s">
+        <v>543</v>
       </c>
       <c r="C534">
         <v>1</v>
       </c>
       <c r="D534" t="s">
+        <v>54</v>
+      </c>
+      <c r="E534" t="s">
+        <v>31</v>
+      </c>
+      <c r="F534" t="s">
+        <v>55</v>
+      </c>
+      <c r="G534" t="s">
+        <v>31</v>
+      </c>
+      <c r="J534">
+        <v>6</v>
+      </c>
+      <c r="K534">
+        <v>50</v>
+      </c>
+      <c r="O534">
+        <v>0.08</v>
+      </c>
+      <c r="P534">
+        <v>0.08</v>
+      </c>
+      <c r="Q534">
+        <v>0.08</v>
+      </c>
+      <c r="R534">
+        <v>0.08</v>
+      </c>
+      <c r="S534">
+        <v>0.08</v>
+      </c>
+      <c r="U534">
+        <v>1</v>
+      </c>
+      <c r="V534">
+        <v>3</v>
+      </c>
+      <c r="W534">
+        <v>8</v>
+      </c>
+      <c r="X534" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="535" spans="1:27">
+      <c r="A535" t="s">
+        <v>539</v>
+      </c>
+      <c r="B535" t="s">
+        <v>690</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+      <c r="D535" t="s">
         <v>128</v>
       </c>
-      <c r="E534" t="s">
+      <c r="E535" t="s">
         <v>47</v>
       </c>
-      <c r="F534" t="s">
+      <c r="F535" t="s">
         <v>129</v>
       </c>
-      <c r="G534" t="s">
+      <c r="G535" t="s">
         <v>47</v>
       </c>
-      <c r="J534">
+      <c r="J535">
         <v>30</v>
       </c>
-      <c r="K534">
+      <c r="K535">
         <v>945</v>
       </c>
-      <c r="O534">
+      <c r="O535">
         <v>0.06</v>
       </c>
-      <c r="P534">
+      <c r="P535">
         <v>0.06</v>
       </c>
-      <c r="Q534">
+      <c r="Q535">
         <v>0.06</v>
       </c>
-      <c r="R534">
+      <c r="R535">
         <v>0.06</v>
       </c>
-      <c r="S534">
+      <c r="S535">
         <v>0.06</v>
       </c>
-      <c r="U534">
-        <v>1</v>
-      </c>
-      <c r="V534">
+      <c r="U535">
+        <v>1</v>
+      </c>
+      <c r="V535">
         <v>24</v>
       </c>
-      <c r="W534">
+      <c r="W535">
         <v>40</v>
-      </c>
-      <c r="X534" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="535" spans="1:27">
-      <c r="B535" t="s">
-        <v>542</v>
-      </c>
-      <c r="C535">
-        <v>1</v>
-      </c>
-      <c r="D535" t="s">
-        <v>200</v>
-      </c>
-      <c r="E535" t="s">
-        <v>35</v>
-      </c>
-      <c r="F535" t="s">
-        <v>201</v>
-      </c>
-      <c r="J535">
-        <v>110</v>
-      </c>
-      <c r="K535">
-        <v>38000</v>
-      </c>
-      <c r="O535">
-        <v>0.19</v>
-      </c>
-      <c r="P535">
-        <v>0.19</v>
-      </c>
-      <c r="Q535">
-        <v>0.19</v>
-      </c>
-      <c r="R535">
-        <v>0.19</v>
-      </c>
-      <c r="S535">
-        <v>0.19</v>
-      </c>
-      <c r="U535">
-        <v>1</v>
-      </c>
-      <c r="V535">
-        <v>43</v>
-      </c>
-      <c r="W535">
-        <v>78</v>
       </c>
       <c r="X535" t="s">
         <v>33</v>

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="833">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -2505,6 +2505,15 @@
   </si>
   <si>
     <t>Demonic Enchantments</t>
+  </si>
+  <si>
+    <t>Chakra Alignment</t>
+  </si>
+  <si>
+    <t>Run Faster</t>
+  </si>
+  <si>
+    <t>Celestial Rings</t>
   </si>
 </sst>
 </file>
@@ -2843,7 +2852,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA626"/>
+  <dimension ref="A1:AA646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -29569,6 +29578,955 @@
         <v>308</v>
       </c>
     </row>
+    <row r="627" spans="1:27">
+      <c r="A627" t="s">
+        <v>830</v>
+      </c>
+      <c r="C627">
+        <v>1</v>
+      </c>
+      <c r="D627" t="s">
+        <v>642</v>
+      </c>
+      <c r="E627" t="s">
+        <v>273</v>
+      </c>
+      <c r="F627" t="s">
+        <v>643</v>
+      </c>
+      <c r="H627">
+        <v>180</v>
+      </c>
+      <c r="K627">
+        <v>28758000</v>
+      </c>
+      <c r="L627">
+        <v>0.45</v>
+      </c>
+      <c r="M627">
+        <v>0.45</v>
+      </c>
+      <c r="N627">
+        <v>0.45</v>
+      </c>
+      <c r="U627">
+        <v>1</v>
+      </c>
+      <c r="V627">
+        <v>100</v>
+      </c>
+      <c r="W627">
+        <v>200</v>
+      </c>
+      <c r="X627" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="628" spans="1:27">
+      <c r="B628" t="s">
+        <v>831</v>
+      </c>
+      <c r="C628">
+        <v>1</v>
+      </c>
+      <c r="D628" t="s">
+        <v>724</v>
+      </c>
+      <c r="E628" t="s">
+        <v>35</v>
+      </c>
+      <c r="F628" t="s">
+        <v>725</v>
+      </c>
+      <c r="J628">
+        <v>460</v>
+      </c>
+      <c r="K628">
+        <v>1250670000</v>
+      </c>
+      <c r="O628">
+        <v>0.62</v>
+      </c>
+      <c r="P628">
+        <v>0.62</v>
+      </c>
+      <c r="Q628">
+        <v>0.62</v>
+      </c>
+      <c r="R628">
+        <v>0.62</v>
+      </c>
+      <c r="S628">
+        <v>0.62</v>
+      </c>
+      <c r="U628">
+        <v>1</v>
+      </c>
+      <c r="V628">
+        <v>160</v>
+      </c>
+      <c r="W628">
+        <v>200</v>
+      </c>
+      <c r="X628" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="629" spans="1:27">
+      <c r="A629" t="s">
+        <v>825</v>
+      </c>
+      <c r="C629">
+        <v>1</v>
+      </c>
+      <c r="D629" t="s">
+        <v>740</v>
+      </c>
+      <c r="E629" t="s">
+        <v>41</v>
+      </c>
+      <c r="F629" t="s">
+        <v>741</v>
+      </c>
+      <c r="G629" t="s">
+        <v>41</v>
+      </c>
+      <c r="J629">
+        <v>460</v>
+      </c>
+      <c r="K629">
+        <v>560780000</v>
+      </c>
+      <c r="O629">
+        <v>0.58</v>
+      </c>
+      <c r="P629">
+        <v>0.58</v>
+      </c>
+      <c r="Q629">
+        <v>0.58</v>
+      </c>
+      <c r="R629">
+        <v>0.58</v>
+      </c>
+      <c r="S629">
+        <v>0.58</v>
+      </c>
+      <c r="U629">
+        <v>1</v>
+      </c>
+      <c r="V629">
+        <v>160</v>
+      </c>
+      <c r="W629">
+        <v>200</v>
+      </c>
+      <c r="X629" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="630" spans="1:27">
+      <c r="A630" t="s">
+        <v>440</v>
+      </c>
+      <c r="B630" t="s">
+        <v>452</v>
+      </c>
+      <c r="C630">
+        <v>1</v>
+      </c>
+      <c r="D630" t="s">
+        <v>52</v>
+      </c>
+      <c r="E630" t="s">
+        <v>28</v>
+      </c>
+      <c r="F630" t="s">
+        <v>53</v>
+      </c>
+      <c r="H630">
+        <v>8</v>
+      </c>
+      <c r="K630">
+        <v>50</v>
+      </c>
+      <c r="O630">
+        <v>0.05</v>
+      </c>
+      <c r="P630">
+        <v>0.05</v>
+      </c>
+      <c r="Q630">
+        <v>0.05</v>
+      </c>
+      <c r="R630">
+        <v>0.05</v>
+      </c>
+      <c r="S630">
+        <v>0.05</v>
+      </c>
+      <c r="U630">
+        <v>1</v>
+      </c>
+      <c r="V630">
+        <v>3</v>
+      </c>
+      <c r="W630">
+        <v>8</v>
+      </c>
+      <c r="X630" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="631" spans="1:27">
+      <c r="A631" t="s">
+        <v>445</v>
+      </c>
+      <c r="B631" t="s">
+        <v>432</v>
+      </c>
+      <c r="C631">
+        <v>1</v>
+      </c>
+      <c r="D631" t="s">
+        <v>297</v>
+      </c>
+      <c r="E631" t="s">
+        <v>273</v>
+      </c>
+      <c r="F631" t="s">
+        <v>298</v>
+      </c>
+      <c r="H631">
+        <v>75</v>
+      </c>
+      <c r="K631">
+        <v>133000</v>
+      </c>
+      <c r="L631">
+        <v>0.25</v>
+      </c>
+      <c r="M631">
+        <v>0.25</v>
+      </c>
+      <c r="N631">
+        <v>0.25</v>
+      </c>
+      <c r="U631">
+        <v>1</v>
+      </c>
+      <c r="V631">
+        <v>50</v>
+      </c>
+      <c r="W631">
+        <v>100</v>
+      </c>
+      <c r="X631" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="632" spans="1:27">
+      <c r="B632" t="s">
+        <v>431</v>
+      </c>
+      <c r="C632">
+        <v>1</v>
+      </c>
+      <c r="D632" t="s">
+        <v>486</v>
+      </c>
+      <c r="E632" t="s">
+        <v>44</v>
+      </c>
+      <c r="F632" t="s">
+        <v>487</v>
+      </c>
+      <c r="G632" t="s">
+        <v>44</v>
+      </c>
+      <c r="J632">
+        <v>270</v>
+      </c>
+      <c r="K632">
+        <v>2350000</v>
+      </c>
+      <c r="O632">
+        <v>0.3</v>
+      </c>
+      <c r="P632">
+        <v>0.3</v>
+      </c>
+      <c r="Q632">
+        <v>0.3</v>
+      </c>
+      <c r="R632">
+        <v>0.3</v>
+      </c>
+      <c r="S632">
+        <v>0.3</v>
+      </c>
+      <c r="U632">
+        <v>1</v>
+      </c>
+      <c r="V632">
+        <v>80</v>
+      </c>
+      <c r="W632">
+        <v>190</v>
+      </c>
+      <c r="X632" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="633" spans="1:27">
+      <c r="B633" t="s">
+        <v>452</v>
+      </c>
+      <c r="C633">
+        <v>1</v>
+      </c>
+      <c r="D633" t="s">
+        <v>68</v>
+      </c>
+      <c r="E633" t="s">
+        <v>28</v>
+      </c>
+      <c r="F633" t="s">
+        <v>69</v>
+      </c>
+      <c r="H633">
+        <v>16</v>
+      </c>
+      <c r="K633">
+        <v>160</v>
+      </c>
+      <c r="O633">
+        <v>0.08</v>
+      </c>
+      <c r="P633">
+        <v>0.08</v>
+      </c>
+      <c r="Q633">
+        <v>0.08</v>
+      </c>
+      <c r="R633">
+        <v>0.08</v>
+      </c>
+      <c r="S633">
+        <v>0.08</v>
+      </c>
+      <c r="U633">
+        <v>1</v>
+      </c>
+      <c r="V633">
+        <v>6</v>
+      </c>
+      <c r="W633">
+        <v>12</v>
+      </c>
+      <c r="X633" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="634" spans="1:27">
+      <c r="A634" t="s">
+        <v>440</v>
+      </c>
+      <c r="B634" t="s">
+        <v>452</v>
+      </c>
+      <c r="C634">
+        <v>1</v>
+      </c>
+      <c r="D634" t="s">
+        <v>68</v>
+      </c>
+      <c r="E634" t="s">
+        <v>28</v>
+      </c>
+      <c r="F634" t="s">
+        <v>69</v>
+      </c>
+      <c r="H634">
+        <v>16</v>
+      </c>
+      <c r="K634">
+        <v>160</v>
+      </c>
+      <c r="O634">
+        <v>0.08</v>
+      </c>
+      <c r="P634">
+        <v>0.08</v>
+      </c>
+      <c r="Q634">
+        <v>0.08</v>
+      </c>
+      <c r="R634">
+        <v>0.08</v>
+      </c>
+      <c r="S634">
+        <v>0.08</v>
+      </c>
+      <c r="U634">
+        <v>1</v>
+      </c>
+      <c r="V634">
+        <v>6</v>
+      </c>
+      <c r="W634">
+        <v>12</v>
+      </c>
+      <c r="X634" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="635" spans="1:27">
+      <c r="B635" t="s">
+        <v>446</v>
+      </c>
+      <c r="C635">
+        <v>1</v>
+      </c>
+      <c r="D635" t="s">
+        <v>305</v>
+      </c>
+      <c r="E635" t="s">
+        <v>306</v>
+      </c>
+      <c r="F635" t="s">
+        <v>307</v>
+      </c>
+      <c r="H635">
+        <v>5</v>
+      </c>
+      <c r="K635">
+        <v>10</v>
+      </c>
+      <c r="U635">
+        <v>1</v>
+      </c>
+      <c r="V635">
+        <v>1</v>
+      </c>
+      <c r="W635">
+        <v>5</v>
+      </c>
+      <c r="X635" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="636" spans="1:27">
+      <c r="B636" t="s">
+        <v>432</v>
+      </c>
+      <c r="C636">
+        <v>1</v>
+      </c>
+      <c r="D636" t="s">
+        <v>52</v>
+      </c>
+      <c r="E636" t="s">
+        <v>28</v>
+      </c>
+      <c r="F636" t="s">
+        <v>53</v>
+      </c>
+      <c r="H636">
+        <v>8</v>
+      </c>
+      <c r="K636">
+        <v>50</v>
+      </c>
+      <c r="O636">
+        <v>0.05</v>
+      </c>
+      <c r="P636">
+        <v>0.05</v>
+      </c>
+      <c r="Q636">
+        <v>0.05</v>
+      </c>
+      <c r="R636">
+        <v>0.05</v>
+      </c>
+      <c r="S636">
+        <v>0.05</v>
+      </c>
+      <c r="U636">
+        <v>1</v>
+      </c>
+      <c r="V636">
+        <v>3</v>
+      </c>
+      <c r="W636">
+        <v>8</v>
+      </c>
+      <c r="X636" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="637" spans="1:27">
+      <c r="B637" t="s">
+        <v>452</v>
+      </c>
+      <c r="C637">
+        <v>1</v>
+      </c>
+      <c r="D637" t="s">
+        <v>52</v>
+      </c>
+      <c r="E637" t="s">
+        <v>28</v>
+      </c>
+      <c r="F637" t="s">
+        <v>53</v>
+      </c>
+      <c r="H637">
+        <v>8</v>
+      </c>
+      <c r="K637">
+        <v>50</v>
+      </c>
+      <c r="O637">
+        <v>0.05</v>
+      </c>
+      <c r="P637">
+        <v>0.05</v>
+      </c>
+      <c r="Q637">
+        <v>0.05</v>
+      </c>
+      <c r="R637">
+        <v>0.05</v>
+      </c>
+      <c r="S637">
+        <v>0.05</v>
+      </c>
+      <c r="U637">
+        <v>1</v>
+      </c>
+      <c r="V637">
+        <v>3</v>
+      </c>
+      <c r="W637">
+        <v>8</v>
+      </c>
+      <c r="X637" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="638" spans="1:27">
+      <c r="B638" t="s">
+        <v>452</v>
+      </c>
+      <c r="C638">
+        <v>1</v>
+      </c>
+      <c r="D638" t="s">
+        <v>52</v>
+      </c>
+      <c r="E638" t="s">
+        <v>28</v>
+      </c>
+      <c r="F638" t="s">
+        <v>53</v>
+      </c>
+      <c r="H638">
+        <v>8</v>
+      </c>
+      <c r="K638">
+        <v>50</v>
+      </c>
+      <c r="O638">
+        <v>0.05</v>
+      </c>
+      <c r="P638">
+        <v>0.05</v>
+      </c>
+      <c r="Q638">
+        <v>0.05</v>
+      </c>
+      <c r="R638">
+        <v>0.05</v>
+      </c>
+      <c r="S638">
+        <v>0.05</v>
+      </c>
+      <c r="U638">
+        <v>1</v>
+      </c>
+      <c r="V638">
+        <v>3</v>
+      </c>
+      <c r="W638">
+        <v>8</v>
+      </c>
+      <c r="X638" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="639" spans="1:27">
+      <c r="B639" t="s">
+        <v>452</v>
+      </c>
+      <c r="C639">
+        <v>1</v>
+      </c>
+      <c r="D639" t="s">
+        <v>52</v>
+      </c>
+      <c r="E639" t="s">
+        <v>28</v>
+      </c>
+      <c r="F639" t="s">
+        <v>53</v>
+      </c>
+      <c r="H639">
+        <v>8</v>
+      </c>
+      <c r="K639">
+        <v>50</v>
+      </c>
+      <c r="O639">
+        <v>0.05</v>
+      </c>
+      <c r="P639">
+        <v>0.05</v>
+      </c>
+      <c r="Q639">
+        <v>0.05</v>
+      </c>
+      <c r="R639">
+        <v>0.05</v>
+      </c>
+      <c r="S639">
+        <v>0.05</v>
+      </c>
+      <c r="U639">
+        <v>1</v>
+      </c>
+      <c r="V639">
+        <v>3</v>
+      </c>
+      <c r="W639">
+        <v>8</v>
+      </c>
+      <c r="X639" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="640" spans="1:27">
+      <c r="B640" t="s">
+        <v>832</v>
+      </c>
+      <c r="C640">
+        <v>1</v>
+      </c>
+      <c r="D640" t="s">
+        <v>736</v>
+      </c>
+      <c r="E640" t="s">
+        <v>41</v>
+      </c>
+      <c r="F640" t="s">
+        <v>737</v>
+      </c>
+      <c r="G640" t="s">
+        <v>41</v>
+      </c>
+      <c r="J640">
+        <v>420</v>
+      </c>
+      <c r="K640">
+        <v>240700000</v>
+      </c>
+      <c r="O640">
+        <v>0.5</v>
+      </c>
+      <c r="P640">
+        <v>0.5</v>
+      </c>
+      <c r="Q640">
+        <v>0.5</v>
+      </c>
+      <c r="R640">
+        <v>0.5</v>
+      </c>
+      <c r="S640">
+        <v>0.5</v>
+      </c>
+      <c r="U640">
+        <v>1</v>
+      </c>
+      <c r="V640">
+        <v>140</v>
+      </c>
+      <c r="W640">
+        <v>200</v>
+      </c>
+      <c r="X640" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="641" spans="1:27">
+      <c r="B641" t="s">
+        <v>455</v>
+      </c>
+      <c r="C641">
+        <v>1</v>
+      </c>
+      <c r="D641" t="s">
+        <v>52</v>
+      </c>
+      <c r="E641" t="s">
+        <v>28</v>
+      </c>
+      <c r="F641" t="s">
+        <v>53</v>
+      </c>
+      <c r="H641">
+        <v>8</v>
+      </c>
+      <c r="K641">
+        <v>50</v>
+      </c>
+      <c r="O641">
+        <v>0.05</v>
+      </c>
+      <c r="P641">
+        <v>0.05</v>
+      </c>
+      <c r="Q641">
+        <v>0.05</v>
+      </c>
+      <c r="R641">
+        <v>0.05</v>
+      </c>
+      <c r="S641">
+        <v>0.05</v>
+      </c>
+      <c r="U641">
+        <v>1</v>
+      </c>
+      <c r="V641">
+        <v>3</v>
+      </c>
+      <c r="W641">
+        <v>8</v>
+      </c>
+      <c r="X641" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="642" spans="1:27">
+      <c r="A642" t="s">
+        <v>440</v>
+      </c>
+      <c r="B642" t="s">
+        <v>439</v>
+      </c>
+      <c r="C642">
+        <v>1</v>
+      </c>
+      <c r="D642" t="s">
+        <v>66</v>
+      </c>
+      <c r="E642" t="s">
+        <v>50</v>
+      </c>
+      <c r="F642" t="s">
+        <v>67</v>
+      </c>
+      <c r="G642" t="s">
+        <v>50</v>
+      </c>
+      <c r="J642">
+        <v>3</v>
+      </c>
+      <c r="K642">
+        <v>50</v>
+      </c>
+      <c r="U642">
+        <v>1</v>
+      </c>
+      <c r="V642">
+        <v>3</v>
+      </c>
+      <c r="W642">
+        <v>8</v>
+      </c>
+      <c r="X642" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="643" spans="1:27">
+      <c r="B643" t="s">
+        <v>456</v>
+      </c>
+      <c r="C643">
+        <v>1</v>
+      </c>
+      <c r="D643" t="s">
+        <v>52</v>
+      </c>
+      <c r="E643" t="s">
+        <v>28</v>
+      </c>
+      <c r="F643" t="s">
+        <v>53</v>
+      </c>
+      <c r="H643">
+        <v>8</v>
+      </c>
+      <c r="K643">
+        <v>50</v>
+      </c>
+      <c r="O643">
+        <v>0.05</v>
+      </c>
+      <c r="P643">
+        <v>0.05</v>
+      </c>
+      <c r="Q643">
+        <v>0.05</v>
+      </c>
+      <c r="R643">
+        <v>0.05</v>
+      </c>
+      <c r="S643">
+        <v>0.05</v>
+      </c>
+      <c r="U643">
+        <v>1</v>
+      </c>
+      <c r="V643">
+        <v>3</v>
+      </c>
+      <c r="W643">
+        <v>8</v>
+      </c>
+      <c r="X643" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="644" spans="1:27">
+      <c r="B644" t="s">
+        <v>455</v>
+      </c>
+      <c r="C644">
+        <v>1</v>
+      </c>
+      <c r="D644" t="s">
+        <v>46</v>
+      </c>
+      <c r="E644" t="s">
+        <v>47</v>
+      </c>
+      <c r="F644" t="s">
+        <v>48</v>
+      </c>
+      <c r="G644" t="s">
+        <v>47</v>
+      </c>
+      <c r="J644">
+        <v>1</v>
+      </c>
+      <c r="K644">
+        <v>10</v>
+      </c>
+      <c r="U644">
+        <v>1</v>
+      </c>
+      <c r="V644">
+        <v>1</v>
+      </c>
+      <c r="W644">
+        <v>5</v>
+      </c>
+      <c r="X644" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="645" spans="1:27">
+      <c r="B645" t="s">
+        <v>452</v>
+      </c>
+      <c r="C645">
+        <v>1</v>
+      </c>
+      <c r="D645" t="s">
+        <v>46</v>
+      </c>
+      <c r="E645" t="s">
+        <v>47</v>
+      </c>
+      <c r="F645" t="s">
+        <v>48</v>
+      </c>
+      <c r="G645" t="s">
+        <v>47</v>
+      </c>
+      <c r="J645">
+        <v>1</v>
+      </c>
+      <c r="K645">
+        <v>10</v>
+      </c>
+      <c r="U645">
+        <v>1</v>
+      </c>
+      <c r="V645">
+        <v>1</v>
+      </c>
+      <c r="W645">
+        <v>5</v>
+      </c>
+      <c r="X645" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="646" spans="1:27">
+      <c r="A646" t="s">
+        <v>440</v>
+      </c>
+      <c r="B646" t="s">
+        <v>452</v>
+      </c>
+      <c r="C646">
+        <v>1</v>
+      </c>
+      <c r="D646" t="s">
+        <v>46</v>
+      </c>
+      <c r="E646" t="s">
+        <v>47</v>
+      </c>
+      <c r="F646" t="s">
+        <v>48</v>
+      </c>
+      <c r="G646" t="s">
+        <v>47</v>
+      </c>
+      <c r="J646">
+        <v>1</v>
+      </c>
+      <c r="K646">
+        <v>10</v>
+      </c>
+      <c r="U646">
+        <v>1</v>
+      </c>
+      <c r="V646">
+        <v>1</v>
+      </c>
+      <c r="W646">
+        <v>5</v>
+      </c>
+      <c r="X646" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/1.1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EF4687-2F0F-584C-A265-D3BA5886651A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433EBCA3-1191-D64D-A5E0-4137B94A5E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="1303">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -4279,10 +4279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY614"/>
+  <dimension ref="A1:AY637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="AO614" sqref="AO614"/>
+    <sheetView tabSelected="1" topLeftCell="A570" workbookViewId="0">
+      <selection activeCell="A599" sqref="A599:XFD599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -49630,7 +49630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="3:51" x14ac:dyDescent="0.2">
+    <row r="593" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D593" t="s">
         <v>1263</v>
       </c>
@@ -49704,7 +49704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="3:51" x14ac:dyDescent="0.2">
+    <row r="594" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D594" t="s">
         <v>1265</v>
       </c>
@@ -49778,7 +49778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:51" x14ac:dyDescent="0.2">
+    <row r="595" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D595" t="s">
         <v>1267</v>
       </c>
@@ -49852,7 +49852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:51" x14ac:dyDescent="0.2">
+    <row r="596" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D596" t="s">
         <v>1269</v>
       </c>
@@ -49926,7 +49926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:51" x14ac:dyDescent="0.2">
+    <row r="597" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D597" t="s">
         <v>1271</v>
       </c>
@@ -50000,7 +50000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:51" x14ac:dyDescent="0.2">
+    <row r="598" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D598" t="s">
         <v>1273</v>
       </c>
@@ -50074,1325 +50074,3030 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="C599">
-        <v>1</v>
-      </c>
+    <row r="599" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D599" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E599" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F599" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H599">
+        <v>700</v>
+      </c>
+      <c r="K599">
+        <v>10000000</v>
+      </c>
+      <c r="Q599">
+        <v>0.18</v>
+      </c>
+      <c r="R599">
+        <v>0.18</v>
+      </c>
+      <c r="S599">
+        <v>0.18</v>
+      </c>
+      <c r="T599">
+        <v>0.18</v>
+      </c>
+      <c r="U599">
+        <v>0.18</v>
+      </c>
+      <c r="V599">
+        <v>0.18</v>
+      </c>
+      <c r="W599">
+        <v>0.18</v>
+      </c>
+      <c r="Y599">
+        <v>1</v>
+      </c>
+      <c r="AA599">
+        <v>86</v>
+      </c>
+      <c r="AB599">
+        <v>170</v>
+      </c>
+      <c r="AC599" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AF599">
+        <v>0</v>
+      </c>
+      <c r="AG599">
+        <v>0</v>
+      </c>
+      <c r="AH599">
+        <v>0</v>
+      </c>
+      <c r="AI599">
+        <v>0</v>
+      </c>
+      <c r="AJ599">
+        <v>0</v>
+      </c>
+      <c r="AO599">
+        <v>0</v>
+      </c>
+      <c r="AR599">
+        <v>0</v>
+      </c>
+      <c r="AT599">
+        <v>0</v>
+      </c>
+      <c r="AU599">
+        <v>0</v>
+      </c>
+      <c r="AW599">
+        <v>0</v>
+      </c>
+      <c r="AX599">
+        <v>0</v>
+      </c>
+      <c r="AY599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="D600" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E600" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F600" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H600">
+        <v>730</v>
+      </c>
+      <c r="K600">
+        <v>25000000</v>
+      </c>
+      <c r="T600">
+        <v>0.2</v>
+      </c>
+      <c r="Y600">
+        <v>1</v>
+      </c>
+      <c r="AA600">
+        <v>90</v>
+      </c>
+      <c r="AB600">
+        <v>170</v>
+      </c>
+      <c r="AC600" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AF600">
+        <v>0</v>
+      </c>
+      <c r="AG600">
+        <v>0</v>
+      </c>
+      <c r="AH600">
+        <v>0</v>
+      </c>
+      <c r="AI600">
+        <v>0</v>
+      </c>
+      <c r="AJ600">
+        <v>0</v>
+      </c>
+      <c r="AO600">
+        <v>0</v>
+      </c>
+      <c r="AR600">
+        <v>0</v>
+      </c>
+      <c r="AT600">
+        <v>0</v>
+      </c>
+      <c r="AU600">
+        <v>0</v>
+      </c>
+      <c r="AW600">
+        <v>0</v>
+      </c>
+      <c r="AX600">
+        <v>0</v>
+      </c>
+      <c r="AY600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="D601" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E601" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F601" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H601">
+        <v>730</v>
+      </c>
+      <c r="K601">
+        <v>25000000</v>
+      </c>
+      <c r="U601">
+        <v>0.2</v>
+      </c>
+      <c r="Y601">
+        <v>1</v>
+      </c>
+      <c r="AA601">
+        <v>90</v>
+      </c>
+      <c r="AB601">
+        <v>170</v>
+      </c>
+      <c r="AC601" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AF601">
+        <v>0</v>
+      </c>
+      <c r="AG601">
+        <v>0</v>
+      </c>
+      <c r="AH601">
+        <v>0</v>
+      </c>
+      <c r="AI601">
+        <v>0</v>
+      </c>
+      <c r="AJ601">
+        <v>0</v>
+      </c>
+      <c r="AO601">
+        <v>0</v>
+      </c>
+      <c r="AR601">
+        <v>0</v>
+      </c>
+      <c r="AT601">
+        <v>0</v>
+      </c>
+      <c r="AU601">
+        <v>0</v>
+      </c>
+      <c r="AW601">
+        <v>0</v>
+      </c>
+      <c r="AX601">
+        <v>0</v>
+      </c>
+      <c r="AY601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="D602" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E602" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F602" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H602">
+        <v>730</v>
+      </c>
+      <c r="K602">
+        <v>25000000</v>
+      </c>
+      <c r="S602">
+        <v>0.2</v>
+      </c>
+      <c r="Y602">
+        <v>1</v>
+      </c>
+      <c r="AA602">
+        <v>90</v>
+      </c>
+      <c r="AB602">
+        <v>170</v>
+      </c>
+      <c r="AC602" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AF602">
+        <v>0</v>
+      </c>
+      <c r="AG602">
+        <v>0</v>
+      </c>
+      <c r="AH602">
+        <v>0</v>
+      </c>
+      <c r="AI602">
+        <v>0</v>
+      </c>
+      <c r="AJ602">
+        <v>0</v>
+      </c>
+      <c r="AO602">
+        <v>0</v>
+      </c>
+      <c r="AR602">
+        <v>0</v>
+      </c>
+      <c r="AT602">
+        <v>0</v>
+      </c>
+      <c r="AU602">
+        <v>0</v>
+      </c>
+      <c r="AW602">
+        <v>0</v>
+      </c>
+      <c r="AX602">
+        <v>0</v>
+      </c>
+      <c r="AY602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="D603" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E603" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F603" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H603">
+        <v>730</v>
+      </c>
+      <c r="K603">
+        <v>25000000</v>
+      </c>
+      <c r="Q603">
+        <v>0.2</v>
+      </c>
+      <c r="Y603">
+        <v>1</v>
+      </c>
+      <c r="AA603">
+        <v>90</v>
+      </c>
+      <c r="AB603">
+        <v>170</v>
+      </c>
+      <c r="AC603" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AF603">
+        <v>0</v>
+      </c>
+      <c r="AG603">
+        <v>0</v>
+      </c>
+      <c r="AH603">
+        <v>0</v>
+      </c>
+      <c r="AI603">
+        <v>0</v>
+      </c>
+      <c r="AJ603">
+        <v>0</v>
+      </c>
+      <c r="AO603">
+        <v>0</v>
+      </c>
+      <c r="AR603">
+        <v>0</v>
+      </c>
+      <c r="AT603">
+        <v>0</v>
+      </c>
+      <c r="AU603">
+        <v>0</v>
+      </c>
+      <c r="AW603">
+        <v>0</v>
+      </c>
+      <c r="AX603">
+        <v>0</v>
+      </c>
+      <c r="AY603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="D604" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E604" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F604" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H604">
+        <v>730</v>
+      </c>
+      <c r="K604">
+        <v>25000000</v>
+      </c>
+      <c r="R604">
+        <v>0.2</v>
+      </c>
+      <c r="Y604">
+        <v>1</v>
+      </c>
+      <c r="AA604">
+        <v>90</v>
+      </c>
+      <c r="AB604">
+        <v>170</v>
+      </c>
+      <c r="AC604" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AF604">
+        <v>0</v>
+      </c>
+      <c r="AG604">
+        <v>0</v>
+      </c>
+      <c r="AH604">
+        <v>0</v>
+      </c>
+      <c r="AI604">
+        <v>0</v>
+      </c>
+      <c r="AJ604">
+        <v>0</v>
+      </c>
+      <c r="AO604">
+        <v>0</v>
+      </c>
+      <c r="AR604">
+        <v>0</v>
+      </c>
+      <c r="AT604">
+        <v>0</v>
+      </c>
+      <c r="AU604">
+        <v>0</v>
+      </c>
+      <c r="AW604">
+        <v>0</v>
+      </c>
+      <c r="AX604">
+        <v>0</v>
+      </c>
+      <c r="AY604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="D605" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E605" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F605" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H605">
+        <v>750</v>
+      </c>
+      <c r="K605">
+        <v>25000000</v>
+      </c>
+      <c r="L605">
+        <v>0</v>
+      </c>
+      <c r="M605">
+        <v>0</v>
+      </c>
+      <c r="W605">
+        <v>0.2</v>
+      </c>
+      <c r="Y605">
+        <v>1</v>
+      </c>
+      <c r="AA605">
+        <v>90</v>
+      </c>
+      <c r="AB605">
+        <v>170</v>
+      </c>
+      <c r="AC605" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AF605">
+        <v>0</v>
+      </c>
+      <c r="AG605">
+        <v>0</v>
+      </c>
+      <c r="AH605">
+        <v>0</v>
+      </c>
+      <c r="AI605">
+        <v>0</v>
+      </c>
+      <c r="AJ605">
+        <v>0</v>
+      </c>
+      <c r="AO605">
+        <v>0</v>
+      </c>
+      <c r="AR605">
+        <v>0</v>
+      </c>
+      <c r="AT605">
+        <v>0</v>
+      </c>
+      <c r="AU605">
+        <v>0</v>
+      </c>
+      <c r="AW605">
+        <v>0</v>
+      </c>
+      <c r="AX605">
+        <v>0</v>
+      </c>
+      <c r="AY605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="D606" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E606" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F606" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H606">
+        <v>750</v>
+      </c>
+      <c r="K606">
+        <v>25000000</v>
+      </c>
+      <c r="L606">
+        <v>0</v>
+      </c>
+      <c r="M606">
+        <v>0</v>
+      </c>
+      <c r="V606">
+        <v>0.2</v>
+      </c>
+      <c r="Y606">
+        <v>1</v>
+      </c>
+      <c r="AA606">
+        <v>90</v>
+      </c>
+      <c r="AB606">
+        <v>170</v>
+      </c>
+      <c r="AC606" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AF606">
+        <v>0</v>
+      </c>
+      <c r="AG606">
+        <v>0</v>
+      </c>
+      <c r="AH606">
+        <v>0</v>
+      </c>
+      <c r="AI606">
+        <v>0</v>
+      </c>
+      <c r="AJ606">
+        <v>0</v>
+      </c>
+      <c r="AO606">
+        <v>0</v>
+      </c>
+      <c r="AR606">
+        <v>0</v>
+      </c>
+      <c r="AT606">
+        <v>0</v>
+      </c>
+      <c r="AU606">
+        <v>0</v>
+      </c>
+      <c r="AW606">
+        <v>0</v>
+      </c>
+      <c r="AX606">
+        <v>0</v>
+      </c>
+      <c r="AY606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="D607" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E607" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F607" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H607">
+        <v>750</v>
+      </c>
+      <c r="K607">
+        <v>50000000</v>
+      </c>
+      <c r="Y607">
+        <v>1</v>
+      </c>
+      <c r="AA607">
+        <v>94</v>
+      </c>
+      <c r="AB607">
+        <v>170</v>
+      </c>
+      <c r="AC607" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AD607" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AE607">
+        <v>0.18</v>
+      </c>
+      <c r="AF607">
+        <v>0</v>
+      </c>
+      <c r="AG607">
+        <v>0</v>
+      </c>
+      <c r="AH607">
+        <v>0</v>
+      </c>
+      <c r="AI607">
+        <v>0</v>
+      </c>
+      <c r="AJ607">
+        <v>0</v>
+      </c>
+      <c r="AK607">
+        <v>0.18</v>
+      </c>
+      <c r="AO607">
+        <v>0</v>
+      </c>
+      <c r="AR607">
+        <v>0</v>
+      </c>
+      <c r="AT607">
+        <v>0</v>
+      </c>
+      <c r="AU607">
+        <v>0</v>
+      </c>
+      <c r="AW607">
+        <v>0</v>
+      </c>
+      <c r="AX607">
+        <v>0</v>
+      </c>
+      <c r="AY607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="4:51" x14ac:dyDescent="0.2">
+      <c r="D608" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E608" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F608" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H608">
+        <v>750</v>
+      </c>
+      <c r="K608">
+        <v>50000000</v>
+      </c>
+      <c r="Y608">
+        <v>1</v>
+      </c>
+      <c r="AA608">
+        <v>94</v>
+      </c>
+      <c r="AB608">
+        <v>170</v>
+      </c>
+      <c r="AC608" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AD608" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AE608">
+        <v>0.18</v>
+      </c>
+      <c r="AF608">
+        <v>0</v>
+      </c>
+      <c r="AG608">
+        <v>0</v>
+      </c>
+      <c r="AH608">
+        <v>0</v>
+      </c>
+      <c r="AI608">
+        <v>0</v>
+      </c>
+      <c r="AJ608">
+        <v>0</v>
+      </c>
+      <c r="AK608">
+        <v>0.18</v>
+      </c>
+      <c r="AO608">
+        <v>0</v>
+      </c>
+      <c r="AR608">
+        <v>0</v>
+      </c>
+      <c r="AT608">
+        <v>0</v>
+      </c>
+      <c r="AU608">
+        <v>0</v>
+      </c>
+      <c r="AW608">
+        <v>0</v>
+      </c>
+      <c r="AX608">
+        <v>0</v>
+      </c>
+      <c r="AY608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="D609" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E609" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F609" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H609">
+        <v>750</v>
+      </c>
+      <c r="K609">
+        <v>50000000</v>
+      </c>
+      <c r="Y609">
+        <v>1</v>
+      </c>
+      <c r="AA609">
+        <v>94</v>
+      </c>
+      <c r="AB609">
+        <v>170</v>
+      </c>
+      <c r="AC609" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AD609" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AE609">
+        <v>0.18</v>
+      </c>
+      <c r="AF609">
+        <v>0</v>
+      </c>
+      <c r="AG609">
+        <v>0</v>
+      </c>
+      <c r="AH609">
+        <v>0</v>
+      </c>
+      <c r="AI609">
+        <v>0</v>
+      </c>
+      <c r="AJ609">
+        <v>0</v>
+      </c>
+      <c r="AK609">
+        <v>0.18</v>
+      </c>
+      <c r="AO609">
+        <v>0</v>
+      </c>
+      <c r="AR609">
+        <v>0</v>
+      </c>
+      <c r="AT609">
+        <v>0</v>
+      </c>
+      <c r="AU609">
+        <v>0</v>
+      </c>
+      <c r="AW609">
+        <v>0</v>
+      </c>
+      <c r="AX609">
+        <v>0</v>
+      </c>
+      <c r="AY609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="D610" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E610" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F610" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H610">
+        <v>780</v>
+      </c>
+      <c r="K610">
+        <v>100000000</v>
+      </c>
+      <c r="L610">
+        <v>0</v>
+      </c>
+      <c r="M610">
+        <v>0</v>
+      </c>
+      <c r="Y610">
+        <v>1</v>
+      </c>
+      <c r="AA610">
+        <v>98</v>
+      </c>
+      <c r="AB610">
+        <v>170</v>
+      </c>
+      <c r="AC610" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AD610" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF610">
+        <v>0.26</v>
+      </c>
+      <c r="AG610">
+        <v>0</v>
+      </c>
+      <c r="AH610">
+        <v>0</v>
+      </c>
+      <c r="AI610">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AJ610">
+        <v>0</v>
+      </c>
+      <c r="AK610">
+        <v>0.27</v>
+      </c>
+      <c r="AO610">
+        <v>0</v>
+      </c>
+      <c r="AR610">
+        <v>0</v>
+      </c>
+      <c r="AT610">
+        <v>0</v>
+      </c>
+      <c r="AU610">
+        <v>0</v>
+      </c>
+      <c r="AW610">
+        <v>0</v>
+      </c>
+      <c r="AX610">
+        <v>0</v>
+      </c>
+      <c r="AY610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="D611" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E611" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F611" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H611">
+        <v>780</v>
+      </c>
+      <c r="K611">
+        <v>100000000</v>
+      </c>
+      <c r="L611">
+        <v>0</v>
+      </c>
+      <c r="M611">
+        <v>0</v>
+      </c>
+      <c r="N611">
+        <v>0</v>
+      </c>
+      <c r="Y611">
+        <v>1</v>
+      </c>
+      <c r="AA611">
+        <v>98</v>
+      </c>
+      <c r="AB611">
+        <v>170</v>
+      </c>
+      <c r="AC611" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AD611" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AF611">
+        <v>0.26</v>
+      </c>
+      <c r="AG611">
+        <v>0.26</v>
+      </c>
+      <c r="AH611">
+        <v>0</v>
+      </c>
+      <c r="AI611">
+        <v>0</v>
+      </c>
+      <c r="AJ611">
+        <v>0</v>
+      </c>
+      <c r="AK611">
+        <v>0.27</v>
+      </c>
+      <c r="AO611">
+        <v>0</v>
+      </c>
+      <c r="AR611">
+        <v>0</v>
+      </c>
+      <c r="AT611">
+        <v>0</v>
+      </c>
+      <c r="AU611">
+        <v>0</v>
+      </c>
+      <c r="AW611">
+        <v>0</v>
+      </c>
+      <c r="AX611">
+        <v>0</v>
+      </c>
+      <c r="AY611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="D612" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E612" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F612" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H612">
+        <v>780</v>
+      </c>
+      <c r="K612">
+        <v>100000000</v>
+      </c>
+      <c r="L612">
+        <v>0</v>
+      </c>
+      <c r="M612">
+        <v>0</v>
+      </c>
+      <c r="Y612">
+        <v>1</v>
+      </c>
+      <c r="AA612">
+        <v>98</v>
+      </c>
+      <c r="AB612">
+        <v>170</v>
+      </c>
+      <c r="AC612" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AD612" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AF612">
+        <v>0.26</v>
+      </c>
+      <c r="AG612">
+        <v>0</v>
+      </c>
+      <c r="AH612">
+        <v>0</v>
+      </c>
+      <c r="AI612">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AJ612">
+        <v>0</v>
+      </c>
+      <c r="AK612">
+        <v>0.27</v>
+      </c>
+      <c r="AO612">
+        <v>0</v>
+      </c>
+      <c r="AR612">
+        <v>0</v>
+      </c>
+      <c r="AT612">
+        <v>0</v>
+      </c>
+      <c r="AU612">
+        <v>0</v>
+      </c>
+      <c r="AW612">
+        <v>0</v>
+      </c>
+      <c r="AX612">
+        <v>0</v>
+      </c>
+      <c r="AY612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="D613" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E613" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F613" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H613">
+        <v>780</v>
+      </c>
+      <c r="K613">
+        <v>100000000</v>
+      </c>
+      <c r="L613">
+        <v>0</v>
+      </c>
+      <c r="M613">
+        <v>0</v>
+      </c>
+      <c r="Y613">
+        <v>1</v>
+      </c>
+      <c r="AA613">
+        <v>98</v>
+      </c>
+      <c r="AB613">
+        <v>170</v>
+      </c>
+      <c r="AC613" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AD613" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AF613">
+        <v>0.26</v>
+      </c>
+      <c r="AG613">
+        <v>0</v>
+      </c>
+      <c r="AH613">
+        <v>0.26</v>
+      </c>
+      <c r="AI613">
+        <v>0</v>
+      </c>
+      <c r="AJ613">
+        <v>0</v>
+      </c>
+      <c r="AK613">
+        <v>0.27</v>
+      </c>
+      <c r="AO613">
+        <v>0</v>
+      </c>
+      <c r="AR613">
+        <v>0</v>
+      </c>
+      <c r="AT613">
+        <v>0</v>
+      </c>
+      <c r="AU613">
+        <v>0</v>
+      </c>
+      <c r="AW613">
+        <v>0</v>
+      </c>
+      <c r="AX613">
+        <v>0</v>
+      </c>
+      <c r="AY613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="D614" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E614" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F614" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H614">
+        <v>780</v>
+      </c>
+      <c r="K614">
+        <v>100000000</v>
+      </c>
+      <c r="L614">
+        <v>0</v>
+      </c>
+      <c r="M614">
+        <v>0</v>
+      </c>
+      <c r="Y614">
+        <v>1</v>
+      </c>
+      <c r="AA614">
+        <v>98</v>
+      </c>
+      <c r="AB614">
+        <v>170</v>
+      </c>
+      <c r="AC614" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AD614" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AF614">
+        <v>0.26</v>
+      </c>
+      <c r="AG614">
+        <v>0.26</v>
+      </c>
+      <c r="AH614">
+        <v>0</v>
+      </c>
+      <c r="AI614">
+        <v>0</v>
+      </c>
+      <c r="AJ614">
+        <v>0</v>
+      </c>
+      <c r="AK614">
+        <v>0.27</v>
+      </c>
+      <c r="AO614">
+        <v>0</v>
+      </c>
+      <c r="AR614">
+        <v>0</v>
+      </c>
+      <c r="AT614">
+        <v>0</v>
+      </c>
+      <c r="AU614">
+        <v>0</v>
+      </c>
+      <c r="AW614">
+        <v>0</v>
+      </c>
+      <c r="AX614">
+        <v>0</v>
+      </c>
+      <c r="AY614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="D615" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E615" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F615" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H615">
+        <v>840</v>
+      </c>
+      <c r="K615">
+        <v>150000000</v>
+      </c>
+      <c r="L615">
+        <v>0</v>
+      </c>
+      <c r="M615">
+        <v>0</v>
+      </c>
+      <c r="Y615">
+        <v>1</v>
+      </c>
+      <c r="AA615">
+        <v>98</v>
+      </c>
+      <c r="AB615">
+        <v>170</v>
+      </c>
+      <c r="AC615" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AD615" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AF615">
+        <v>0.26</v>
+      </c>
+      <c r="AG615">
+        <v>0</v>
+      </c>
+      <c r="AH615">
+        <v>0</v>
+      </c>
+      <c r="AI615">
+        <v>0</v>
+      </c>
+      <c r="AJ615">
+        <v>0</v>
+      </c>
+      <c r="AK615">
+        <v>0.27</v>
+      </c>
+      <c r="AO615">
+        <v>0</v>
+      </c>
+      <c r="AR615">
+        <v>0</v>
+      </c>
+      <c r="AT615">
+        <v>0</v>
+      </c>
+      <c r="AU615">
+        <v>0</v>
+      </c>
+      <c r="AW615">
+        <v>0</v>
+      </c>
+      <c r="AX615">
+        <v>0</v>
+      </c>
+      <c r="AY615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="D616" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E616" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F616" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H616">
+        <v>840</v>
+      </c>
+      <c r="K616">
+        <v>150000000</v>
+      </c>
+      <c r="Y616">
+        <v>1</v>
+      </c>
+      <c r="AA616">
+        <v>104</v>
+      </c>
+      <c r="AB616">
+        <v>180</v>
+      </c>
+      <c r="AC616" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AD616" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE616">
+        <v>0.18</v>
+      </c>
+      <c r="AF616">
+        <v>0</v>
+      </c>
+      <c r="AG616">
+        <v>0</v>
+      </c>
+      <c r="AH616">
+        <v>0</v>
+      </c>
+      <c r="AI616">
+        <v>0</v>
+      </c>
+      <c r="AJ616">
+        <v>0</v>
+      </c>
+      <c r="AK616">
+        <v>0.2</v>
+      </c>
+      <c r="AO616">
+        <v>0</v>
+      </c>
+      <c r="AR616">
+        <v>0</v>
+      </c>
+      <c r="AT616">
+        <v>0</v>
+      </c>
+      <c r="AU616">
+        <v>0</v>
+      </c>
+      <c r="AW616">
+        <v>0</v>
+      </c>
+      <c r="AX616">
+        <v>0</v>
+      </c>
+      <c r="AY616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="D617" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E617" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F617" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H617">
+        <v>840</v>
+      </c>
+      <c r="K617">
+        <v>150000000</v>
+      </c>
+      <c r="Y617">
+        <v>1</v>
+      </c>
+      <c r="AA617">
+        <v>104</v>
+      </c>
+      <c r="AB617">
+        <v>180</v>
+      </c>
+      <c r="AC617" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AD617" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE617">
+        <v>0.18</v>
+      </c>
+      <c r="AF617">
+        <v>0</v>
+      </c>
+      <c r="AG617">
+        <v>0</v>
+      </c>
+      <c r="AH617">
+        <v>0</v>
+      </c>
+      <c r="AI617">
+        <v>0</v>
+      </c>
+      <c r="AJ617">
+        <v>0</v>
+      </c>
+      <c r="AK617">
+        <v>0.2</v>
+      </c>
+      <c r="AO617">
+        <v>0</v>
+      </c>
+      <c r="AR617">
+        <v>0</v>
+      </c>
+      <c r="AT617">
+        <v>0</v>
+      </c>
+      <c r="AU617">
+        <v>0</v>
+      </c>
+      <c r="AW617">
+        <v>0</v>
+      </c>
+      <c r="AX617">
+        <v>0</v>
+      </c>
+      <c r="AY617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="D618" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E618" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F618" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H618">
+        <v>840</v>
+      </c>
+      <c r="K618">
+        <v>150000000</v>
+      </c>
+      <c r="Y618">
+        <v>1</v>
+      </c>
+      <c r="AA618">
+        <v>104</v>
+      </c>
+      <c r="AB618">
+        <v>180</v>
+      </c>
+      <c r="AC618" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AD618" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE618">
+        <v>0.18</v>
+      </c>
+      <c r="AF618">
+        <v>0</v>
+      </c>
+      <c r="AG618">
+        <v>0</v>
+      </c>
+      <c r="AH618">
+        <v>0</v>
+      </c>
+      <c r="AI618">
+        <v>0</v>
+      </c>
+      <c r="AJ618">
+        <v>0</v>
+      </c>
+      <c r="AK618">
+        <v>0.2</v>
+      </c>
+      <c r="AO618">
+        <v>0</v>
+      </c>
+      <c r="AR618">
+        <v>0</v>
+      </c>
+      <c r="AT618">
+        <v>0</v>
+      </c>
+      <c r="AU618">
+        <v>0</v>
+      </c>
+      <c r="AW618">
+        <v>0</v>
+      </c>
+      <c r="AX618">
+        <v>0</v>
+      </c>
+      <c r="AY618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="D619" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E619" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F619" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H619">
+        <v>840</v>
+      </c>
+      <c r="K619">
+        <v>150000000</v>
+      </c>
+      <c r="Y619">
+        <v>1</v>
+      </c>
+      <c r="AA619">
+        <v>104</v>
+      </c>
+      <c r="AB619">
+        <v>180</v>
+      </c>
+      <c r="AC619" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AD619" t="s">
+        <v>530</v>
+      </c>
+      <c r="AE619">
+        <v>0.18</v>
+      </c>
+      <c r="AF619">
+        <v>0</v>
+      </c>
+      <c r="AG619">
+        <v>0</v>
+      </c>
+      <c r="AH619">
+        <v>0</v>
+      </c>
+      <c r="AI619">
+        <v>0</v>
+      </c>
+      <c r="AJ619">
+        <v>0</v>
+      </c>
+      <c r="AK619">
+        <v>0.2</v>
+      </c>
+      <c r="AO619">
+        <v>0</v>
+      </c>
+      <c r="AR619">
+        <v>0</v>
+      </c>
+      <c r="AT619">
+        <v>0</v>
+      </c>
+      <c r="AU619">
+        <v>0</v>
+      </c>
+      <c r="AW619">
+        <v>0</v>
+      </c>
+      <c r="AX619">
+        <v>0</v>
+      </c>
+      <c r="AY619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="D620" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E620" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F620" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H620">
+        <v>840</v>
+      </c>
+      <c r="K620">
+        <v>150000000</v>
+      </c>
+      <c r="Y620">
+        <v>1</v>
+      </c>
+      <c r="AA620">
+        <v>104</v>
+      </c>
+      <c r="AB620">
+        <v>180</v>
+      </c>
+      <c r="AC620" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AD620" t="s">
+        <v>533</v>
+      </c>
+      <c r="AE620">
+        <v>0.18</v>
+      </c>
+      <c r="AF620">
+        <v>0</v>
+      </c>
+      <c r="AG620">
+        <v>0</v>
+      </c>
+      <c r="AH620">
+        <v>0</v>
+      </c>
+      <c r="AI620">
+        <v>0</v>
+      </c>
+      <c r="AJ620">
+        <v>0</v>
+      </c>
+      <c r="AK620">
+        <v>0.2</v>
+      </c>
+      <c r="AO620">
+        <v>0</v>
+      </c>
+      <c r="AR620">
+        <v>0</v>
+      </c>
+      <c r="AT620">
+        <v>0</v>
+      </c>
+      <c r="AU620">
+        <v>0</v>
+      </c>
+      <c r="AW620">
+        <v>0</v>
+      </c>
+      <c r="AX620">
+        <v>0</v>
+      </c>
+      <c r="AY620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="D621" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E621" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F621" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H621">
+        <v>840</v>
+      </c>
+      <c r="K621">
+        <v>150000000</v>
+      </c>
+      <c r="Y621">
+        <v>1</v>
+      </c>
+      <c r="AA621">
+        <v>104</v>
+      </c>
+      <c r="AB621">
+        <v>180</v>
+      </c>
+      <c r="AC621" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AD621" t="s">
+        <v>518</v>
+      </c>
+      <c r="AE621">
+        <v>0.18</v>
+      </c>
+      <c r="AF621">
+        <v>0</v>
+      </c>
+      <c r="AG621">
+        <v>0</v>
+      </c>
+      <c r="AH621">
+        <v>0</v>
+      </c>
+      <c r="AI621">
+        <v>0</v>
+      </c>
+      <c r="AJ621">
+        <v>0</v>
+      </c>
+      <c r="AK621">
+        <v>0.2</v>
+      </c>
+      <c r="AO621">
+        <v>0</v>
+      </c>
+      <c r="AR621">
+        <v>0</v>
+      </c>
+      <c r="AT621">
+        <v>0</v>
+      </c>
+      <c r="AU621">
+        <v>0</v>
+      </c>
+      <c r="AW621">
+        <v>0</v>
+      </c>
+      <c r="AX621">
+        <v>0</v>
+      </c>
+      <c r="AY621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C622">
+        <v>1</v>
+      </c>
+      <c r="D622" t="s">
         <v>1275</v>
       </c>
-      <c r="E599" t="s">
+      <c r="E622" t="s">
         <v>1276</v>
       </c>
-      <c r="F599" t="s">
+      <c r="F622" t="s">
         <v>1277</v>
       </c>
-      <c r="K599">
-        <v>0</v>
-      </c>
-      <c r="L599">
+      <c r="K622">
+        <v>0</v>
+      </c>
+      <c r="L622">
         <v>200</v>
       </c>
-      <c r="M599">
+      <c r="M622">
         <v>8</v>
       </c>
-      <c r="Y599">
-        <v>1</v>
-      </c>
-      <c r="AA599">
-        <v>1</v>
-      </c>
-      <c r="AB599">
+      <c r="Y622">
+        <v>1</v>
+      </c>
+      <c r="AA622">
+        <v>1</v>
+      </c>
+      <c r="AB622">
         <v>10</v>
       </c>
-      <c r="AC599" t="s">
+      <c r="AC622" t="s">
         <v>1276</v>
       </c>
-      <c r="AF599">
-        <v>0</v>
-      </c>
-      <c r="AG599">
-        <v>0</v>
-      </c>
-      <c r="AH599">
-        <v>0</v>
-      </c>
-      <c r="AI599">
-        <v>0</v>
-      </c>
-      <c r="AJ599">
-        <v>0</v>
-      </c>
-      <c r="AL599">
-        <v>1</v>
-      </c>
-      <c r="AM599">
-        <v>1</v>
-      </c>
-      <c r="AO599">
-        <v>0</v>
-      </c>
-      <c r="AP599">
+      <c r="AF622">
+        <v>0</v>
+      </c>
+      <c r="AG622">
+        <v>0</v>
+      </c>
+      <c r="AH622">
+        <v>0</v>
+      </c>
+      <c r="AI622">
+        <v>0</v>
+      </c>
+      <c r="AJ622">
+        <v>0</v>
+      </c>
+      <c r="AL622">
+        <v>1</v>
+      </c>
+      <c r="AM622">
+        <v>1</v>
+      </c>
+      <c r="AO622">
+        <v>0</v>
+      </c>
+      <c r="AP622">
         <v>10</v>
       </c>
-      <c r="AQ599">
-        <v>1</v>
-      </c>
-      <c r="AR599">
+      <c r="AQ622">
+        <v>1</v>
+      </c>
+      <c r="AR622">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AT599">
-        <v>0</v>
-      </c>
-      <c r="AU599">
-        <v>0</v>
-      </c>
-      <c r="AW599">
-        <v>0</v>
-      </c>
-      <c r="AX599">
-        <v>0</v>
-      </c>
-      <c r="AY599">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="C600">
-        <v>1</v>
-      </c>
-      <c r="D600" t="s">
+      <c r="AT622">
+        <v>0</v>
+      </c>
+      <c r="AU622">
+        <v>0</v>
+      </c>
+      <c r="AW622">
+        <v>0</v>
+      </c>
+      <c r="AX622">
+        <v>0</v>
+      </c>
+      <c r="AY622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C623">
+        <v>1</v>
+      </c>
+      <c r="D623" t="s">
         <v>1278</v>
       </c>
-      <c r="E600" t="s">
+      <c r="E623" t="s">
         <v>1276</v>
       </c>
-      <c r="F600" t="s">
+      <c r="F623" t="s">
         <v>1294</v>
       </c>
-      <c r="K600">
-        <v>0</v>
-      </c>
-      <c r="L600">
+      <c r="K623">
+        <v>0</v>
+      </c>
+      <c r="L623">
         <v>500</v>
       </c>
-      <c r="M600">
+      <c r="M623">
         <v>12</v>
       </c>
-      <c r="Y600">
-        <v>1</v>
-      </c>
-      <c r="AA600">
+      <c r="Y623">
+        <v>1</v>
+      </c>
+      <c r="AA623">
         <v>3</v>
       </c>
-      <c r="AB600">
+      <c r="AB623">
         <v>10</v>
       </c>
-      <c r="AC600" t="s">
+      <c r="AC623" t="s">
         <v>1276</v>
       </c>
-      <c r="AF600">
-        <v>0</v>
-      </c>
-      <c r="AG600">
-        <v>0</v>
-      </c>
-      <c r="AH600">
-        <v>0</v>
-      </c>
-      <c r="AI600">
-        <v>0</v>
-      </c>
-      <c r="AJ600">
-        <v>0</v>
-      </c>
-      <c r="AL600">
-        <v>1</v>
-      </c>
-      <c r="AM600">
-        <v>1</v>
-      </c>
-      <c r="AO600">
-        <v>0</v>
-      </c>
-      <c r="AP600">
+      <c r="AF623">
+        <v>0</v>
+      </c>
+      <c r="AG623">
+        <v>0</v>
+      </c>
+      <c r="AH623">
+        <v>0</v>
+      </c>
+      <c r="AI623">
+        <v>0</v>
+      </c>
+      <c r="AJ623">
+        <v>0</v>
+      </c>
+      <c r="AL623">
+        <v>1</v>
+      </c>
+      <c r="AM623">
+        <v>1</v>
+      </c>
+      <c r="AO623">
+        <v>0</v>
+      </c>
+      <c r="AP623">
         <v>10</v>
       </c>
-      <c r="AR600">
-        <v>0</v>
-      </c>
-      <c r="AS600">
+      <c r="AR623">
+        <v>0</v>
+      </c>
+      <c r="AS623">
         <v>4</v>
       </c>
-      <c r="AT600">
+      <c r="AT623">
         <v>0.05</v>
       </c>
-      <c r="AU600">
+      <c r="AU623">
         <v>0.05</v>
       </c>
-      <c r="AW600">
-        <v>0</v>
-      </c>
-      <c r="AX600">
-        <v>0</v>
-      </c>
-      <c r="AY600">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="601" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="C601">
-        <v>1</v>
-      </c>
-      <c r="D601" t="s">
+      <c r="AW623">
+        <v>0</v>
+      </c>
+      <c r="AX623">
+        <v>0</v>
+      </c>
+      <c r="AY623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C624">
+        <v>1</v>
+      </c>
+      <c r="D624" t="s">
         <v>1279</v>
       </c>
-      <c r="E601" t="s">
+      <c r="E624" t="s">
         <v>1276</v>
       </c>
-      <c r="F601" t="s">
+      <c r="F624" t="s">
         <v>1280</v>
       </c>
-      <c r="K601">
-        <v>0</v>
-      </c>
-      <c r="L601">
+      <c r="K624">
+        <v>0</v>
+      </c>
+      <c r="L624">
         <v>500</v>
       </c>
-      <c r="M601">
+      <c r="M624">
         <v>12</v>
       </c>
-      <c r="Y601">
-        <v>1</v>
-      </c>
-      <c r="AA601">
+      <c r="Y624">
+        <v>1</v>
+      </c>
+      <c r="AA624">
         <v>3</v>
       </c>
-      <c r="AB601">
+      <c r="AB624">
         <v>10</v>
       </c>
-      <c r="AC601" t="s">
+      <c r="AC624" t="s">
         <v>1276</v>
       </c>
-      <c r="AF601">
-        <v>0</v>
-      </c>
-      <c r="AG601">
-        <v>0</v>
-      </c>
-      <c r="AH601">
-        <v>0</v>
-      </c>
-      <c r="AI601">
+      <c r="AF624">
+        <v>0</v>
+      </c>
+      <c r="AG624">
+        <v>0</v>
+      </c>
+      <c r="AH624">
+        <v>0</v>
+      </c>
+      <c r="AI624">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AJ601">
-        <v>0</v>
-      </c>
-      <c r="AL601">
-        <v>1</v>
-      </c>
-      <c r="AM601">
-        <v>1</v>
-      </c>
-      <c r="AO601">
-        <v>0</v>
-      </c>
-      <c r="AP601">
+      <c r="AJ624">
+        <v>0</v>
+      </c>
+      <c r="AL624">
+        <v>1</v>
+      </c>
+      <c r="AM624">
+        <v>1</v>
+      </c>
+      <c r="AO624">
+        <v>0</v>
+      </c>
+      <c r="AP624">
         <v>10</v>
       </c>
-      <c r="AR601">
-        <v>0</v>
-      </c>
-      <c r="AS601">
+      <c r="AR624">
+        <v>0</v>
+      </c>
+      <c r="AS624">
         <v>5</v>
       </c>
-      <c r="AT601">
-        <v>0</v>
-      </c>
-      <c r="AU601">
+      <c r="AT624">
+        <v>0</v>
+      </c>
+      <c r="AU624">
         <v>0.05</v>
       </c>
-      <c r="AW601">
-        <v>0</v>
-      </c>
-      <c r="AX601">
-        <v>0</v>
-      </c>
-      <c r="AY601">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="602" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="C602">
-        <v>1</v>
-      </c>
-      <c r="D602" t="s">
+      <c r="AW624">
+        <v>0</v>
+      </c>
+      <c r="AX624">
+        <v>0</v>
+      </c>
+      <c r="AY624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C625">
+        <v>1</v>
+      </c>
+      <c r="D625" t="s">
         <v>1281</v>
       </c>
-      <c r="E602" t="s">
+      <c r="E625" t="s">
         <v>1276</v>
       </c>
-      <c r="F602" t="s">
+      <c r="F625" t="s">
         <v>1282</v>
       </c>
-      <c r="K602">
-        <v>0</v>
-      </c>
-      <c r="L602">
+      <c r="K625">
+        <v>0</v>
+      </c>
+      <c r="L625">
         <v>500</v>
       </c>
-      <c r="M602">
+      <c r="M625">
         <v>12</v>
       </c>
-      <c r="Y602">
-        <v>1</v>
-      </c>
-      <c r="AA602">
+      <c r="Y625">
+        <v>1</v>
+      </c>
+      <c r="AA625">
         <v>3</v>
       </c>
-      <c r="AB602">
+      <c r="AB625">
         <v>10</v>
       </c>
-      <c r="AC602" t="s">
+      <c r="AC625" t="s">
         <v>1276</v>
       </c>
-      <c r="AF602">
-        <v>0</v>
-      </c>
-      <c r="AG602">
-        <v>0</v>
-      </c>
-      <c r="AH602">
-        <v>0</v>
-      </c>
-      <c r="AI602">
-        <v>0</v>
-      </c>
-      <c r="AJ602">
-        <v>0</v>
-      </c>
-      <c r="AL602">
-        <v>1</v>
-      </c>
-      <c r="AM602">
-        <v>1</v>
-      </c>
-      <c r="AO602">
-        <v>0</v>
-      </c>
-      <c r="AP602">
+      <c r="AF625">
+        <v>0</v>
+      </c>
+      <c r="AG625">
+        <v>0</v>
+      </c>
+      <c r="AH625">
+        <v>0</v>
+      </c>
+      <c r="AI625">
+        <v>0</v>
+      </c>
+      <c r="AJ625">
+        <v>0</v>
+      </c>
+      <c r="AL625">
+        <v>1</v>
+      </c>
+      <c r="AM625">
+        <v>1</v>
+      </c>
+      <c r="AO625">
+        <v>0</v>
+      </c>
+      <c r="AP625">
         <v>10</v>
       </c>
-      <c r="AR602">
-        <v>0</v>
-      </c>
-      <c r="AS602">
-        <v>0</v>
-      </c>
-      <c r="AT602">
+      <c r="AR625">
+        <v>0</v>
+      </c>
+      <c r="AS625">
+        <v>0</v>
+      </c>
+      <c r="AT625">
         <v>0.05</v>
       </c>
-      <c r="AU602">
+      <c r="AU625">
         <v>0.05</v>
       </c>
-      <c r="AW602">
-        <v>0</v>
-      </c>
-      <c r="AX602">
-        <v>0</v>
-      </c>
-      <c r="AY602">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="603" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="C603">
-        <v>1</v>
-      </c>
-      <c r="D603" t="s">
+      <c r="AW625">
+        <v>0</v>
+      </c>
+      <c r="AX625">
+        <v>0</v>
+      </c>
+      <c r="AY625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C626">
+        <v>1</v>
+      </c>
+      <c r="D626" t="s">
         <v>1283</v>
       </c>
-      <c r="E603" t="s">
+      <c r="E626" t="s">
         <v>1276</v>
       </c>
-      <c r="F603" t="s">
+      <c r="F626" t="s">
         <v>1284</v>
       </c>
-      <c r="K603">
-        <v>0</v>
-      </c>
-      <c r="L603">
+      <c r="K626">
+        <v>0</v>
+      </c>
+      <c r="L626">
         <v>500</v>
       </c>
-      <c r="M603">
+      <c r="M626">
         <v>12</v>
       </c>
-      <c r="Y603">
-        <v>1</v>
-      </c>
-      <c r="AA603">
+      <c r="Y626">
+        <v>1</v>
+      </c>
+      <c r="AA626">
         <v>3</v>
       </c>
-      <c r="AB603">
+      <c r="AB626">
         <v>10</v>
       </c>
-      <c r="AC603" t="s">
+      <c r="AC626" t="s">
         <v>1276</v>
       </c>
-      <c r="AF603">
-        <v>0</v>
-      </c>
-      <c r="AG603">
-        <v>0</v>
-      </c>
-      <c r="AH603">
-        <v>0</v>
-      </c>
-      <c r="AI603">
-        <v>0</v>
-      </c>
-      <c r="AJ603">
-        <v>0</v>
-      </c>
-      <c r="AL603">
-        <v>1</v>
-      </c>
-      <c r="AM603">
-        <v>1</v>
-      </c>
-      <c r="AO603">
-        <v>0</v>
-      </c>
-      <c r="AP603">
+      <c r="AF626">
+        <v>0</v>
+      </c>
+      <c r="AG626">
+        <v>0</v>
+      </c>
+      <c r="AH626">
+        <v>0</v>
+      </c>
+      <c r="AI626">
+        <v>0</v>
+      </c>
+      <c r="AJ626">
+        <v>0</v>
+      </c>
+      <c r="AL626">
+        <v>1</v>
+      </c>
+      <c r="AM626">
+        <v>1</v>
+      </c>
+      <c r="AO626">
+        <v>0</v>
+      </c>
+      <c r="AP626">
         <v>10</v>
       </c>
-      <c r="AR603">
-        <v>0</v>
-      </c>
-      <c r="AS603">
-        <v>1</v>
-      </c>
-      <c r="AT603">
+      <c r="AR626">
+        <v>0</v>
+      </c>
+      <c r="AS626">
+        <v>1</v>
+      </c>
+      <c r="AT626">
         <v>0.05</v>
       </c>
-      <c r="AU603">
+      <c r="AU626">
         <v>0.05</v>
       </c>
-      <c r="AW603">
-        <v>0</v>
-      </c>
-      <c r="AX603">
-        <v>0</v>
-      </c>
-      <c r="AY603">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="604" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="C604">
-        <v>1</v>
-      </c>
-      <c r="D604" t="s">
+      <c r="AW626">
+        <v>0</v>
+      </c>
+      <c r="AX626">
+        <v>0</v>
+      </c>
+      <c r="AY626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C627">
+        <v>1</v>
+      </c>
+      <c r="D627" t="s">
         <v>1285</v>
       </c>
-      <c r="E604" t="s">
+      <c r="E627" t="s">
         <v>1276</v>
       </c>
-      <c r="F604" t="s">
+      <c r="F627" t="s">
         <v>1286</v>
       </c>
-      <c r="K604">
-        <v>0</v>
-      </c>
-      <c r="L604">
+      <c r="K627">
+        <v>0</v>
+      </c>
+      <c r="L627">
         <v>500</v>
       </c>
-      <c r="M604">
+      <c r="M627">
         <v>12</v>
       </c>
-      <c r="Y604">
-        <v>1</v>
-      </c>
-      <c r="AA604">
+      <c r="Y627">
+        <v>1</v>
+      </c>
+      <c r="AA627">
         <v>3</v>
       </c>
-      <c r="AB604">
+      <c r="AB627">
         <v>10</v>
       </c>
-      <c r="AC604" t="s">
+      <c r="AC627" t="s">
         <v>1276</v>
       </c>
-      <c r="AF604">
-        <v>0</v>
-      </c>
-      <c r="AG604">
-        <v>0</v>
-      </c>
-      <c r="AH604">
-        <v>0</v>
-      </c>
-      <c r="AI604">
-        <v>0</v>
-      </c>
-      <c r="AJ604">
-        <v>0</v>
-      </c>
-      <c r="AL604">
-        <v>1</v>
-      </c>
-      <c r="AM604">
-        <v>1</v>
-      </c>
-      <c r="AO604">
-        <v>0</v>
-      </c>
-      <c r="AP604">
+      <c r="AF627">
+        <v>0</v>
+      </c>
+      <c r="AG627">
+        <v>0</v>
+      </c>
+      <c r="AH627">
+        <v>0</v>
+      </c>
+      <c r="AI627">
+        <v>0</v>
+      </c>
+      <c r="AJ627">
+        <v>0</v>
+      </c>
+      <c r="AL627">
+        <v>1</v>
+      </c>
+      <c r="AM627">
+        <v>1</v>
+      </c>
+      <c r="AO627">
+        <v>0</v>
+      </c>
+      <c r="AP627">
         <v>10</v>
       </c>
-      <c r="AR604">
-        <v>0</v>
-      </c>
-      <c r="AS604">
+      <c r="AR627">
+        <v>0</v>
+      </c>
+      <c r="AS627">
         <v>2</v>
       </c>
-      <c r="AT604">
+      <c r="AT627">
         <v>0.05</v>
       </c>
-      <c r="AU604">
+      <c r="AU627">
         <v>0.05</v>
       </c>
-      <c r="AW604">
-        <v>0</v>
-      </c>
-      <c r="AX604">
-        <v>0</v>
-      </c>
-      <c r="AY604">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="C605">
-        <v>1</v>
-      </c>
-      <c r="D605" t="s">
+      <c r="AW627">
+        <v>0</v>
+      </c>
+      <c r="AX627">
+        <v>0</v>
+      </c>
+      <c r="AY627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C628">
+        <v>1</v>
+      </c>
+      <c r="D628" t="s">
         <v>1287</v>
       </c>
-      <c r="E605" t="s">
+      <c r="E628" t="s">
         <v>1276</v>
       </c>
-      <c r="F605" t="s">
+      <c r="F628" t="s">
         <v>1288</v>
       </c>
-      <c r="K605">
-        <v>0</v>
-      </c>
-      <c r="L605">
+      <c r="K628">
+        <v>0</v>
+      </c>
+      <c r="L628">
         <v>500</v>
       </c>
-      <c r="M605">
+      <c r="M628">
         <v>12</v>
       </c>
-      <c r="Y605">
-        <v>1</v>
-      </c>
-      <c r="AA605">
+      <c r="Y628">
+        <v>1</v>
+      </c>
+      <c r="AA628">
         <v>3</v>
       </c>
-      <c r="AB605">
+      <c r="AB628">
         <v>10</v>
       </c>
-      <c r="AC605" t="s">
+      <c r="AC628" t="s">
         <v>1276</v>
       </c>
-      <c r="AF605">
-        <v>0</v>
-      </c>
-      <c r="AG605">
-        <v>0</v>
-      </c>
-      <c r="AH605">
-        <v>0</v>
-      </c>
-      <c r="AI605">
-        <v>0</v>
-      </c>
-      <c r="AJ605">
-        <v>0</v>
-      </c>
-      <c r="AL605">
-        <v>1</v>
-      </c>
-      <c r="AM605">
-        <v>1</v>
-      </c>
-      <c r="AO605">
-        <v>0</v>
-      </c>
-      <c r="AP605">
+      <c r="AF628">
+        <v>0</v>
+      </c>
+      <c r="AG628">
+        <v>0</v>
+      </c>
+      <c r="AH628">
+        <v>0</v>
+      </c>
+      <c r="AI628">
+        <v>0</v>
+      </c>
+      <c r="AJ628">
+        <v>0</v>
+      </c>
+      <c r="AL628">
+        <v>1</v>
+      </c>
+      <c r="AM628">
+        <v>1</v>
+      </c>
+      <c r="AO628">
+        <v>0</v>
+      </c>
+      <c r="AP628">
         <v>10</v>
       </c>
-      <c r="AR605">
-        <v>0</v>
-      </c>
-      <c r="AS605">
+      <c r="AR628">
+        <v>0</v>
+      </c>
+      <c r="AS628">
         <v>3</v>
       </c>
-      <c r="AT605">
+      <c r="AT628">
         <v>0.05</v>
       </c>
-      <c r="AU605">
+      <c r="AU628">
         <v>0.05</v>
       </c>
-      <c r="AW605">
-        <v>0</v>
-      </c>
-      <c r="AX605">
-        <v>0</v>
-      </c>
-      <c r="AY605">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="606" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="C606">
-        <v>1</v>
-      </c>
-      <c r="D606" t="s">
+      <c r="AW628">
+        <v>0</v>
+      </c>
+      <c r="AX628">
+        <v>0</v>
+      </c>
+      <c r="AY628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C629">
+        <v>1</v>
+      </c>
+      <c r="D629" t="s">
         <v>1289</v>
       </c>
-      <c r="E606" t="s">
+      <c r="E629" t="s">
         <v>1276</v>
       </c>
-      <c r="F606" t="s">
+      <c r="F629" t="s">
         <v>1290</v>
       </c>
-      <c r="K606">
-        <v>0</v>
-      </c>
-      <c r="L606">
+      <c r="K629">
+        <v>0</v>
+      </c>
+      <c r="L629">
         <v>700</v>
       </c>
-      <c r="M606">
+      <c r="M629">
         <v>16</v>
       </c>
-      <c r="Y606">
-        <v>1</v>
-      </c>
-      <c r="AA606">
+      <c r="Y629">
+        <v>1</v>
+      </c>
+      <c r="AA629">
         <v>5</v>
       </c>
-      <c r="AB606">
+      <c r="AB629">
         <v>10</v>
       </c>
-      <c r="AC606" t="s">
+      <c r="AC629" t="s">
         <v>1276</v>
       </c>
-      <c r="AF606">
-        <v>0</v>
-      </c>
-      <c r="AG606">
-        <v>0</v>
-      </c>
-      <c r="AH606">
-        <v>0</v>
-      </c>
-      <c r="AI606">
-        <v>0</v>
-      </c>
-      <c r="AJ606">
-        <v>0</v>
-      </c>
-      <c r="AL606">
-        <v>1</v>
-      </c>
-      <c r="AM606">
-        <v>1</v>
-      </c>
-      <c r="AN606">
-        <v>1</v>
-      </c>
-      <c r="AO606">
+      <c r="AF629">
+        <v>0</v>
+      </c>
+      <c r="AG629">
+        <v>0</v>
+      </c>
+      <c r="AH629">
+        <v>0</v>
+      </c>
+      <c r="AI629">
+        <v>0</v>
+      </c>
+      <c r="AJ629">
+        <v>0</v>
+      </c>
+      <c r="AL629">
+        <v>1</v>
+      </c>
+      <c r="AM629">
+        <v>1</v>
+      </c>
+      <c r="AN629">
+        <v>1</v>
+      </c>
+      <c r="AO629">
         <v>0.05</v>
       </c>
-      <c r="AR606">
-        <v>0</v>
-      </c>
-      <c r="AT606">
-        <v>0</v>
-      </c>
-      <c r="AU606">
-        <v>0</v>
-      </c>
-      <c r="AW606">
-        <v>0</v>
-      </c>
-      <c r="AX606">
-        <v>0</v>
-      </c>
-      <c r="AY606">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="607" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="C607">
-        <v>1</v>
-      </c>
-      <c r="D607" t="s">
+      <c r="AR629">
+        <v>0</v>
+      </c>
+      <c r="AT629">
+        <v>0</v>
+      </c>
+      <c r="AU629">
+        <v>0</v>
+      </c>
+      <c r="AW629">
+        <v>0</v>
+      </c>
+      <c r="AX629">
+        <v>0</v>
+      </c>
+      <c r="AY629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C630">
+        <v>1</v>
+      </c>
+      <c r="D630" t="s">
         <v>1291</v>
       </c>
-      <c r="E607" t="s">
+      <c r="E630" t="s">
         <v>1276</v>
       </c>
-      <c r="F607" t="s">
+      <c r="F630" t="s">
         <v>1292</v>
       </c>
-      <c r="K607">
-        <v>0</v>
-      </c>
-      <c r="L607">
+      <c r="K630">
+        <v>0</v>
+      </c>
+      <c r="L630">
         <v>1000</v>
       </c>
-      <c r="M607">
+      <c r="M630">
         <v>20</v>
       </c>
-      <c r="Y607">
-        <v>1</v>
-      </c>
-      <c r="AA607">
+      <c r="Y630">
+        <v>1</v>
+      </c>
+      <c r="AA630">
         <v>8</v>
       </c>
-      <c r="AB607">
+      <c r="AB630">
         <v>10</v>
       </c>
-      <c r="AC607" t="s">
+      <c r="AC630" t="s">
         <v>1276</v>
       </c>
-      <c r="AF607">
-        <v>0</v>
-      </c>
-      <c r="AG607">
-        <v>0</v>
-      </c>
-      <c r="AH607">
-        <v>0</v>
-      </c>
-      <c r="AI607">
-        <v>0</v>
-      </c>
-      <c r="AJ607">
-        <v>0</v>
-      </c>
-      <c r="AL607">
-        <v>1</v>
-      </c>
-      <c r="AM607">
-        <v>1</v>
-      </c>
-      <c r="AO607">
-        <v>0</v>
-      </c>
-      <c r="AP607">
+      <c r="AF630">
+        <v>0</v>
+      </c>
+      <c r="AG630">
+        <v>0</v>
+      </c>
+      <c r="AH630">
+        <v>0</v>
+      </c>
+      <c r="AI630">
+        <v>0</v>
+      </c>
+      <c r="AJ630">
+        <v>0</v>
+      </c>
+      <c r="AL630">
+        <v>1</v>
+      </c>
+      <c r="AM630">
+        <v>1</v>
+      </c>
+      <c r="AO630">
+        <v>0</v>
+      </c>
+      <c r="AP630">
         <v>15</v>
       </c>
-      <c r="AQ607">
-        <v>1</v>
-      </c>
-      <c r="AR607">
+      <c r="AQ630">
+        <v>1</v>
+      </c>
+      <c r="AR630">
         <v>0.01</v>
       </c>
-      <c r="AT607">
-        <v>0</v>
-      </c>
-      <c r="AU607">
-        <v>0</v>
-      </c>
-      <c r="AW607">
-        <v>0</v>
-      </c>
-      <c r="AX607">
-        <v>0</v>
-      </c>
-      <c r="AY607">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="608" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="C608">
-        <v>1</v>
-      </c>
-      <c r="D608" t="s">
+      <c r="AT630">
+        <v>0</v>
+      </c>
+      <c r="AU630">
+        <v>0</v>
+      </c>
+      <c r="AW630">
+        <v>0</v>
+      </c>
+      <c r="AX630">
+        <v>0</v>
+      </c>
+      <c r="AY630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C631">
+        <v>1</v>
+      </c>
+      <c r="D631" t="s">
         <v>1293</v>
       </c>
-      <c r="E608" t="s">
+      <c r="E631" t="s">
         <v>1276</v>
       </c>
-      <c r="F608" t="s">
+      <c r="F631" t="s">
         <v>1295</v>
       </c>
-      <c r="K608">
-        <v>0</v>
-      </c>
-      <c r="L608">
+      <c r="K631">
+        <v>0</v>
+      </c>
+      <c r="L631">
         <v>2500</v>
       </c>
-      <c r="M608">
+      <c r="M631">
         <v>24</v>
       </c>
-      <c r="Y608">
-        <v>1</v>
-      </c>
-      <c r="AA608">
+      <c r="Y631">
+        <v>1</v>
+      </c>
+      <c r="AA631">
         <v>10</v>
       </c>
-      <c r="AB608">
+      <c r="AB631">
         <v>10</v>
       </c>
-      <c r="AC608" t="s">
+      <c r="AC631" t="s">
         <v>1276</v>
       </c>
-      <c r="AF608">
-        <v>0</v>
-      </c>
-      <c r="AG608">
-        <v>0</v>
-      </c>
-      <c r="AH608">
-        <v>0</v>
-      </c>
-      <c r="AI608">
-        <v>0</v>
-      </c>
-      <c r="AJ608">
-        <v>0</v>
-      </c>
-      <c r="AL608">
-        <v>1</v>
-      </c>
-      <c r="AM608">
-        <v>1</v>
-      </c>
-      <c r="AO608">
-        <v>0</v>
-      </c>
-      <c r="AP608">
+      <c r="AF631">
+        <v>0</v>
+      </c>
+      <c r="AG631">
+        <v>0</v>
+      </c>
+      <c r="AH631">
+        <v>0</v>
+      </c>
+      <c r="AI631">
+        <v>0</v>
+      </c>
+      <c r="AJ631">
+        <v>0</v>
+      </c>
+      <c r="AL631">
+        <v>1</v>
+      </c>
+      <c r="AM631">
+        <v>1</v>
+      </c>
+      <c r="AO631">
+        <v>0</v>
+      </c>
+      <c r="AP631">
         <v>15</v>
       </c>
-      <c r="AR608">
-        <v>0</v>
-      </c>
-      <c r="AS608">
+      <c r="AR631">
+        <v>0</v>
+      </c>
+      <c r="AS631">
         <v>4</v>
       </c>
-      <c r="AT608">
+      <c r="AT631">
         <v>0.08</v>
       </c>
-      <c r="AU608">
+      <c r="AU631">
         <v>0.08</v>
       </c>
-      <c r="AW608">
-        <v>0</v>
-      </c>
-      <c r="AX608">
-        <v>0</v>
-      </c>
-      <c r="AY608">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="609" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="C609">
-        <v>1</v>
-      </c>
-      <c r="D609" t="s">
+      <c r="AW631">
+        <v>0</v>
+      </c>
+      <c r="AX631">
+        <v>0</v>
+      </c>
+      <c r="AY631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C632">
+        <v>1</v>
+      </c>
+      <c r="D632" t="s">
         <v>1296</v>
       </c>
-      <c r="E609" t="s">
+      <c r="E632" t="s">
         <v>1276</v>
       </c>
-      <c r="F609" t="s">
+      <c r="F632" t="s">
         <v>1280</v>
       </c>
-      <c r="K609">
-        <v>0</v>
-      </c>
-      <c r="L609">
+      <c r="K632">
+        <v>0</v>
+      </c>
+      <c r="L632">
         <v>2500</v>
       </c>
-      <c r="M609">
+      <c r="M632">
         <v>24</v>
       </c>
-      <c r="Y609">
-        <v>1</v>
-      </c>
-      <c r="AA609">
+      <c r="Y632">
+        <v>1</v>
+      </c>
+      <c r="AA632">
         <v>10</v>
       </c>
-      <c r="AB609">
+      <c r="AB632">
         <v>10</v>
       </c>
-      <c r="AC609" t="s">
+      <c r="AC632" t="s">
         <v>1276</v>
       </c>
-      <c r="AF609">
-        <v>0</v>
-      </c>
-      <c r="AG609">
-        <v>0</v>
-      </c>
-      <c r="AH609">
-        <v>0</v>
-      </c>
-      <c r="AI609">
+      <c r="AF632">
+        <v>0</v>
+      </c>
+      <c r="AG632">
+        <v>0</v>
+      </c>
+      <c r="AH632">
+        <v>0</v>
+      </c>
+      <c r="AI632">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AJ609">
-        <v>0</v>
-      </c>
-      <c r="AL609">
-        <v>1</v>
-      </c>
-      <c r="AM609">
-        <v>1</v>
-      </c>
-      <c r="AO609">
-        <v>0</v>
-      </c>
-      <c r="AP609">
+      <c r="AJ632">
+        <v>0</v>
+      </c>
+      <c r="AL632">
+        <v>1</v>
+      </c>
+      <c r="AM632">
+        <v>1</v>
+      </c>
+      <c r="AO632">
+        <v>0</v>
+      </c>
+      <c r="AP632">
         <v>15</v>
       </c>
-      <c r="AR609">
-        <v>0</v>
-      </c>
-      <c r="AS609">
+      <c r="AR632">
+        <v>0</v>
+      </c>
+      <c r="AS632">
         <v>5</v>
       </c>
-      <c r="AT609">
-        <v>0</v>
-      </c>
-      <c r="AU609">
+      <c r="AT632">
+        <v>0</v>
+      </c>
+      <c r="AU632">
         <v>0.08</v>
       </c>
-      <c r="AW609">
-        <v>0</v>
-      </c>
-      <c r="AX609">
-        <v>0</v>
-      </c>
-      <c r="AY609">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="610" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="C610">
-        <v>1</v>
-      </c>
-      <c r="D610" t="s">
+      <c r="AW632">
+        <v>0</v>
+      </c>
+      <c r="AX632">
+        <v>0</v>
+      </c>
+      <c r="AY632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C633">
+        <v>1</v>
+      </c>
+      <c r="D633" t="s">
         <v>1297</v>
       </c>
-      <c r="E610" t="s">
+      <c r="E633" t="s">
         <v>1276</v>
       </c>
-      <c r="F610" t="s">
+      <c r="F633" t="s">
         <v>1298</v>
       </c>
-      <c r="K610">
-        <v>0</v>
-      </c>
-      <c r="L610">
+      <c r="K633">
+        <v>0</v>
+      </c>
+      <c r="L633">
         <v>2500</v>
       </c>
-      <c r="M610">
+      <c r="M633">
         <v>24</v>
       </c>
-      <c r="Y610">
-        <v>1</v>
-      </c>
-      <c r="AA610">
+      <c r="Y633">
+        <v>1</v>
+      </c>
+      <c r="AA633">
         <v>10</v>
       </c>
-      <c r="AB610">
+      <c r="AB633">
         <v>10</v>
       </c>
-      <c r="AC610" t="s">
+      <c r="AC633" t="s">
         <v>1276</v>
       </c>
-      <c r="AF610">
-        <v>0</v>
-      </c>
-      <c r="AG610">
-        <v>0</v>
-      </c>
-      <c r="AH610">
-        <v>0</v>
-      </c>
-      <c r="AI610">
-        <v>0</v>
-      </c>
-      <c r="AJ610">
-        <v>0</v>
-      </c>
-      <c r="AL610">
-        <v>1</v>
-      </c>
-      <c r="AM610">
-        <v>1</v>
-      </c>
-      <c r="AO610">
-        <v>0</v>
-      </c>
-      <c r="AP610">
+      <c r="AF633">
+        <v>0</v>
+      </c>
+      <c r="AG633">
+        <v>0</v>
+      </c>
+      <c r="AH633">
+        <v>0</v>
+      </c>
+      <c r="AI633">
+        <v>0</v>
+      </c>
+      <c r="AJ633">
+        <v>0</v>
+      </c>
+      <c r="AL633">
+        <v>1</v>
+      </c>
+      <c r="AM633">
+        <v>1</v>
+      </c>
+      <c r="AO633">
+        <v>0</v>
+      </c>
+      <c r="AP633">
         <v>15</v>
       </c>
-      <c r="AR610">
-        <v>0</v>
-      </c>
-      <c r="AS610">
-        <v>0</v>
-      </c>
-      <c r="AT610">
+      <c r="AR633">
+        <v>0</v>
+      </c>
+      <c r="AS633">
+        <v>0</v>
+      </c>
+      <c r="AT633">
         <v>0.08</v>
       </c>
-      <c r="AU610">
+      <c r="AU633">
         <v>0.08</v>
       </c>
-      <c r="AW610">
-        <v>0</v>
-      </c>
-      <c r="AX610">
-        <v>0</v>
-      </c>
-      <c r="AY610">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="C611">
-        <v>1</v>
-      </c>
-      <c r="D611" t="s">
+      <c r="AW633">
+        <v>0</v>
+      </c>
+      <c r="AX633">
+        <v>0</v>
+      </c>
+      <c r="AY633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C634">
+        <v>1</v>
+      </c>
+      <c r="D634" t="s">
         <v>1299</v>
       </c>
-      <c r="E611" t="s">
+      <c r="E634" t="s">
         <v>1276</v>
       </c>
-      <c r="F611" t="s">
+      <c r="F634" t="s">
         <v>1284</v>
       </c>
-      <c r="K611">
-        <v>0</v>
-      </c>
-      <c r="L611">
+      <c r="K634">
+        <v>0</v>
+      </c>
+      <c r="L634">
         <v>2500</v>
       </c>
-      <c r="M611">
+      <c r="M634">
         <v>24</v>
       </c>
-      <c r="Y611">
-        <v>1</v>
-      </c>
-      <c r="AA611">
+      <c r="Y634">
+        <v>1</v>
+      </c>
+      <c r="AA634">
         <v>10</v>
       </c>
-      <c r="AB611">
+      <c r="AB634">
         <v>10</v>
       </c>
-      <c r="AC611" t="s">
+      <c r="AC634" t="s">
         <v>1276</v>
       </c>
-      <c r="AF611">
-        <v>0</v>
-      </c>
-      <c r="AG611">
-        <v>0</v>
-      </c>
-      <c r="AH611">
-        <v>0</v>
-      </c>
-      <c r="AI611">
-        <v>0</v>
-      </c>
-      <c r="AJ611">
-        <v>0</v>
-      </c>
-      <c r="AL611">
-        <v>1</v>
-      </c>
-      <c r="AM611">
-        <v>1</v>
-      </c>
-      <c r="AO611">
-        <v>0</v>
-      </c>
-      <c r="AP611">
+      <c r="AF634">
+        <v>0</v>
+      </c>
+      <c r="AG634">
+        <v>0</v>
+      </c>
+      <c r="AH634">
+        <v>0</v>
+      </c>
+      <c r="AI634">
+        <v>0</v>
+      </c>
+      <c r="AJ634">
+        <v>0</v>
+      </c>
+      <c r="AL634">
+        <v>1</v>
+      </c>
+      <c r="AM634">
+        <v>1</v>
+      </c>
+      <c r="AO634">
+        <v>0</v>
+      </c>
+      <c r="AP634">
         <v>15</v>
       </c>
-      <c r="AR611">
-        <v>0</v>
-      </c>
-      <c r="AS611">
-        <v>1</v>
-      </c>
-      <c r="AT611">
+      <c r="AR634">
+        <v>0</v>
+      </c>
+      <c r="AS634">
+        <v>1</v>
+      </c>
+      <c r="AT634">
         <v>0.08</v>
       </c>
-      <c r="AU611">
+      <c r="AU634">
         <v>0.08</v>
       </c>
-      <c r="AW611">
-        <v>0</v>
-      </c>
-      <c r="AX611">
-        <v>0</v>
-      </c>
-      <c r="AY611">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="C612">
-        <v>1</v>
-      </c>
-      <c r="D612" t="s">
+      <c r="AW634">
+        <v>0</v>
+      </c>
+      <c r="AX634">
+        <v>0</v>
+      </c>
+      <c r="AY634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C635">
+        <v>1</v>
+      </c>
+      <c r="D635" t="s">
         <v>1300</v>
       </c>
-      <c r="E612" t="s">
+      <c r="E635" t="s">
         <v>1276</v>
       </c>
-      <c r="F612" t="s">
+      <c r="F635" t="s">
         <v>1286</v>
       </c>
-      <c r="K612">
-        <v>0</v>
-      </c>
-      <c r="L612">
+      <c r="K635">
+        <v>0</v>
+      </c>
+      <c r="L635">
         <v>2500</v>
       </c>
-      <c r="M612">
+      <c r="M635">
         <v>24</v>
       </c>
-      <c r="Y612">
-        <v>1</v>
-      </c>
-      <c r="AA612">
+      <c r="Y635">
+        <v>1</v>
+      </c>
+      <c r="AA635">
         <v>10</v>
       </c>
-      <c r="AB612">
+      <c r="AB635">
         <v>10</v>
       </c>
-      <c r="AC612" t="s">
+      <c r="AC635" t="s">
         <v>1276</v>
       </c>
-      <c r="AF612">
-        <v>0</v>
-      </c>
-      <c r="AG612">
-        <v>0</v>
-      </c>
-      <c r="AH612">
-        <v>0</v>
-      </c>
-      <c r="AI612">
-        <v>0</v>
-      </c>
-      <c r="AJ612">
-        <v>0</v>
-      </c>
-      <c r="AL612">
-        <v>1</v>
-      </c>
-      <c r="AM612">
-        <v>1</v>
-      </c>
-      <c r="AO612">
-        <v>0</v>
-      </c>
-      <c r="AP612">
+      <c r="AF635">
+        <v>0</v>
+      </c>
+      <c r="AG635">
+        <v>0</v>
+      </c>
+      <c r="AH635">
+        <v>0</v>
+      </c>
+      <c r="AI635">
+        <v>0</v>
+      </c>
+      <c r="AJ635">
+        <v>0</v>
+      </c>
+      <c r="AL635">
+        <v>1</v>
+      </c>
+      <c r="AM635">
+        <v>1</v>
+      </c>
+      <c r="AO635">
+        <v>0</v>
+      </c>
+      <c r="AP635">
         <v>15</v>
       </c>
-      <c r="AR612">
-        <v>0</v>
-      </c>
-      <c r="AS612">
+      <c r="AR635">
+        <v>0</v>
+      </c>
+      <c r="AS635">
         <v>2</v>
       </c>
-      <c r="AT612">
+      <c r="AT635">
         <v>0.08</v>
       </c>
-      <c r="AU612">
+      <c r="AU635">
         <v>0.08</v>
       </c>
-      <c r="AW612">
-        <v>0</v>
-      </c>
-      <c r="AX612">
-        <v>0</v>
-      </c>
-      <c r="AY612">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="C613">
-        <v>1</v>
-      </c>
-      <c r="D613" t="s">
+      <c r="AW635">
+        <v>0</v>
+      </c>
+      <c r="AX635">
+        <v>0</v>
+      </c>
+      <c r="AY635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C636">
+        <v>1</v>
+      </c>
+      <c r="D636" t="s">
         <v>1301</v>
       </c>
-      <c r="E613" t="s">
+      <c r="E636" t="s">
         <v>1276</v>
       </c>
-      <c r="F613" t="s">
+      <c r="F636" t="s">
         <v>1288</v>
       </c>
-      <c r="K613">
-        <v>0</v>
-      </c>
-      <c r="L613">
+      <c r="K636">
+        <v>0</v>
+      </c>
+      <c r="L636">
         <v>2500</v>
       </c>
-      <c r="M613">
+      <c r="M636">
         <v>24</v>
       </c>
-      <c r="Y613">
-        <v>1</v>
-      </c>
-      <c r="AA613">
+      <c r="Y636">
+        <v>1</v>
+      </c>
+      <c r="AA636">
         <v>10</v>
       </c>
-      <c r="AB613">
+      <c r="AB636">
         <v>10</v>
       </c>
-      <c r="AC613" t="s">
+      <c r="AC636" t="s">
         <v>1276</v>
       </c>
-      <c r="AF613">
-        <v>0</v>
-      </c>
-      <c r="AG613">
-        <v>0</v>
-      </c>
-      <c r="AH613">
-        <v>0</v>
-      </c>
-      <c r="AI613">
-        <v>0</v>
-      </c>
-      <c r="AJ613">
-        <v>0</v>
-      </c>
-      <c r="AL613">
-        <v>1</v>
-      </c>
-      <c r="AM613">
-        <v>1</v>
-      </c>
-      <c r="AO613">
-        <v>0</v>
-      </c>
-      <c r="AP613">
+      <c r="AF636">
+        <v>0</v>
+      </c>
+      <c r="AG636">
+        <v>0</v>
+      </c>
+      <c r="AH636">
+        <v>0</v>
+      </c>
+      <c r="AI636">
+        <v>0</v>
+      </c>
+      <c r="AJ636">
+        <v>0</v>
+      </c>
+      <c r="AL636">
+        <v>1</v>
+      </c>
+      <c r="AM636">
+        <v>1</v>
+      </c>
+      <c r="AO636">
+        <v>0</v>
+      </c>
+      <c r="AP636">
         <v>15</v>
       </c>
-      <c r="AR613">
-        <v>0</v>
-      </c>
-      <c r="AS613">
+      <c r="AR636">
+        <v>0</v>
+      </c>
+      <c r="AS636">
         <v>3</v>
       </c>
-      <c r="AT613">
+      <c r="AT636">
         <v>0.08</v>
       </c>
-      <c r="AU613">
+      <c r="AU636">
         <v>0.08</v>
       </c>
-      <c r="AW613">
-        <v>0</v>
-      </c>
-      <c r="AX613">
-        <v>0</v>
-      </c>
-      <c r="AY613">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="614" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="C614">
-        <v>1</v>
-      </c>
-      <c r="D614" t="s">
+      <c r="AW636">
+        <v>0</v>
+      </c>
+      <c r="AX636">
+        <v>0</v>
+      </c>
+      <c r="AY636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C637">
+        <v>1</v>
+      </c>
+      <c r="D637" t="s">
         <v>1302</v>
       </c>
-      <c r="E614" t="s">
+      <c r="E637" t="s">
         <v>1276</v>
       </c>
-      <c r="F614" t="s">
+      <c r="F637" t="s">
         <v>1290</v>
       </c>
-      <c r="K614">
-        <v>0</v>
-      </c>
-      <c r="L614">
+      <c r="K637">
+        <v>0</v>
+      </c>
+      <c r="L637">
         <v>3000</v>
       </c>
-      <c r="M614">
+      <c r="M637">
         <v>32</v>
       </c>
-      <c r="Y614">
-        <v>1</v>
-      </c>
-      <c r="AA614">
+      <c r="Y637">
+        <v>1</v>
+      </c>
+      <c r="AA637">
         <v>15</v>
       </c>
-      <c r="AB614">
+      <c r="AB637">
         <v>10</v>
       </c>
-      <c r="AC614" t="s">
+      <c r="AC637" t="s">
         <v>1276</v>
       </c>
-      <c r="AF614">
-        <v>0</v>
-      </c>
-      <c r="AG614">
-        <v>0</v>
-      </c>
-      <c r="AH614">
-        <v>0</v>
-      </c>
-      <c r="AI614">
-        <v>0</v>
-      </c>
-      <c r="AJ614">
-        <v>0</v>
-      </c>
-      <c r="AL614">
-        <v>1</v>
-      </c>
-      <c r="AM614">
-        <v>1</v>
-      </c>
-      <c r="AN614">
-        <v>1</v>
-      </c>
-      <c r="AO614">
+      <c r="AF637">
+        <v>0</v>
+      </c>
+      <c r="AG637">
+        <v>0</v>
+      </c>
+      <c r="AH637">
+        <v>0</v>
+      </c>
+      <c r="AI637">
+        <v>0</v>
+      </c>
+      <c r="AJ637">
+        <v>0</v>
+      </c>
+      <c r="AL637">
+        <v>1</v>
+      </c>
+      <c r="AM637">
+        <v>1</v>
+      </c>
+      <c r="AN637">
+        <v>1</v>
+      </c>
+      <c r="AO637">
         <v>0.08</v>
       </c>
-      <c r="AR614">
-        <v>0</v>
-      </c>
-      <c r="AT614">
-        <v>0</v>
-      </c>
-      <c r="AU614">
-        <v>0</v>
-      </c>
-      <c r="AW614">
-        <v>0</v>
-      </c>
-      <c r="AX614">
-        <v>0</v>
-      </c>
-      <c r="AY614">
+      <c r="AR637">
+        <v>0</v>
+      </c>
+      <c r="AT637">
+        <v>0</v>
+      </c>
+      <c r="AU637">
+        <v>0</v>
+      </c>
+      <c r="AW637">
+        <v>0</v>
+      </c>
+      <c r="AX637">
+        <v>0</v>
+      </c>
+      <c r="AY637">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/1.1.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433EBCA3-1191-D64D-A5E0-4137B94A5E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25420747-DE27-2249-9324-6A8D75C7972A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="1311">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -3940,6 +3940,30 @@
   </si>
   <si>
     <t>Demonic Bomb</t>
+  </si>
+  <si>
+    <t>Demonic Blood</t>
+  </si>
+  <si>
+    <t>Alchemists Eye</t>
+  </si>
+  <si>
+    <t>Astral Mages Ink</t>
+  </si>
+  <si>
+    <t>Enhancement Dust</t>
+  </si>
+  <si>
+    <t>Crafters Crystal Ball</t>
+  </si>
+  <si>
+    <t>Postion of Inspiration</t>
+  </si>
+  <si>
+    <t>Disenchantment Candle</t>
+  </si>
+  <si>
+    <t>Deaths Cloud</t>
   </si>
 </sst>
 </file>
@@ -4279,10 +4303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY637"/>
+  <dimension ref="A1:AY645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A570" workbookViewId="0">
-      <selection activeCell="A599" sqref="A599:XFD599"/>
+    <sheetView tabSelected="1" topLeftCell="A597" workbookViewId="0">
+      <selection activeCell="AJ650" sqref="AJ650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -53050,7 +53074,7 @@
         <v>15</v>
       </c>
       <c r="AB637">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AC637" t="s">
         <v>1276</v>
@@ -53098,6 +53122,667 @@
         <v>0</v>
       </c>
       <c r="AY637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C638">
+        <v>1</v>
+      </c>
+      <c r="D638" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E638" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F638" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K638">
+        <v>0</v>
+      </c>
+      <c r="L638">
+        <v>5000</v>
+      </c>
+      <c r="M638">
+        <v>40</v>
+      </c>
+      <c r="Y638">
+        <v>1</v>
+      </c>
+      <c r="AA638">
+        <v>20</v>
+      </c>
+      <c r="AB638">
+        <v>40</v>
+      </c>
+      <c r="AC638" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AF638">
+        <v>0</v>
+      </c>
+      <c r="AG638">
+        <v>0</v>
+      </c>
+      <c r="AH638">
+        <v>0</v>
+      </c>
+      <c r="AI638">
+        <v>0</v>
+      </c>
+      <c r="AJ638">
+        <v>0</v>
+      </c>
+      <c r="AL638">
+        <v>1</v>
+      </c>
+      <c r="AM638">
+        <v>1</v>
+      </c>
+      <c r="AO638">
+        <v>0</v>
+      </c>
+      <c r="AP638">
+        <v>20</v>
+      </c>
+      <c r="AQ638">
+        <v>1</v>
+      </c>
+      <c r="AR638">
+        <v>0.05</v>
+      </c>
+      <c r="AT638">
+        <v>0</v>
+      </c>
+      <c r="AU638">
+        <v>0</v>
+      </c>
+      <c r="AW638">
+        <v>0</v>
+      </c>
+      <c r="AX638">
+        <v>0</v>
+      </c>
+      <c r="AY638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C639">
+        <v>1</v>
+      </c>
+      <c r="D639" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E639" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F639" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K639">
+        <v>0</v>
+      </c>
+      <c r="L639">
+        <v>10000</v>
+      </c>
+      <c r="M639">
+        <v>60</v>
+      </c>
+      <c r="Y639">
+        <v>1</v>
+      </c>
+      <c r="AA639">
+        <v>25</v>
+      </c>
+      <c r="AB639">
+        <v>40</v>
+      </c>
+      <c r="AC639" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AF639">
+        <v>0</v>
+      </c>
+      <c r="AG639">
+        <v>0</v>
+      </c>
+      <c r="AH639">
+        <v>0</v>
+      </c>
+      <c r="AI639">
+        <v>0</v>
+      </c>
+      <c r="AJ639">
+        <v>0</v>
+      </c>
+      <c r="AL639">
+        <v>1</v>
+      </c>
+      <c r="AM639">
+        <v>1</v>
+      </c>
+      <c r="AO639">
+        <v>0</v>
+      </c>
+      <c r="AP639">
+        <v>20</v>
+      </c>
+      <c r="AR639">
+        <v>0</v>
+      </c>
+      <c r="AS639">
+        <v>4</v>
+      </c>
+      <c r="AT639">
+        <v>0.1</v>
+      </c>
+      <c r="AU639">
+        <v>0.01</v>
+      </c>
+      <c r="AW639">
+        <v>0</v>
+      </c>
+      <c r="AX639">
+        <v>0</v>
+      </c>
+      <c r="AY639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C640">
+        <v>1</v>
+      </c>
+      <c r="D640" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E640" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F640" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K640">
+        <v>0</v>
+      </c>
+      <c r="L640">
+        <v>10000</v>
+      </c>
+      <c r="M640">
+        <v>60</v>
+      </c>
+      <c r="Y640">
+        <v>1</v>
+      </c>
+      <c r="AA640">
+        <v>25</v>
+      </c>
+      <c r="AB640">
+        <v>40</v>
+      </c>
+      <c r="AC640" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AF640">
+        <v>0</v>
+      </c>
+      <c r="AG640">
+        <v>0</v>
+      </c>
+      <c r="AH640">
+        <v>0</v>
+      </c>
+      <c r="AI640">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AJ640">
+        <v>0</v>
+      </c>
+      <c r="AL640">
+        <v>1</v>
+      </c>
+      <c r="AM640">
+        <v>1</v>
+      </c>
+      <c r="AO640">
+        <v>0</v>
+      </c>
+      <c r="AP640">
+        <v>20</v>
+      </c>
+      <c r="AR640">
+        <v>0</v>
+      </c>
+      <c r="AS640">
+        <v>5</v>
+      </c>
+      <c r="AT640">
+        <v>0</v>
+      </c>
+      <c r="AU640">
+        <v>0.01</v>
+      </c>
+      <c r="AW640">
+        <v>0</v>
+      </c>
+      <c r="AX640">
+        <v>0</v>
+      </c>
+      <c r="AY640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C641">
+        <v>1</v>
+      </c>
+      <c r="D641" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E641" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F641" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K641">
+        <v>0</v>
+      </c>
+      <c r="L641">
+        <v>10000</v>
+      </c>
+      <c r="M641">
+        <v>60</v>
+      </c>
+      <c r="Y641">
+        <v>1</v>
+      </c>
+      <c r="AA641">
+        <v>25</v>
+      </c>
+      <c r="AB641">
+        <v>40</v>
+      </c>
+      <c r="AC641" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AF641">
+        <v>0</v>
+      </c>
+      <c r="AG641">
+        <v>0</v>
+      </c>
+      <c r="AH641">
+        <v>0</v>
+      </c>
+      <c r="AI641">
+        <v>0</v>
+      </c>
+      <c r="AJ641">
+        <v>0</v>
+      </c>
+      <c r="AL641">
+        <v>1</v>
+      </c>
+      <c r="AM641">
+        <v>1</v>
+      </c>
+      <c r="AO641">
+        <v>0</v>
+      </c>
+      <c r="AP641">
+        <v>20</v>
+      </c>
+      <c r="AR641">
+        <v>0</v>
+      </c>
+      <c r="AS641">
+        <v>0</v>
+      </c>
+      <c r="AT641">
+        <v>0.01</v>
+      </c>
+      <c r="AU641">
+        <v>0.01</v>
+      </c>
+      <c r="AW641">
+        <v>0</v>
+      </c>
+      <c r="AX641">
+        <v>0</v>
+      </c>
+      <c r="AY641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C642">
+        <v>1</v>
+      </c>
+      <c r="D642" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E642" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F642" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K642">
+        <v>0</v>
+      </c>
+      <c r="L642">
+        <v>10000</v>
+      </c>
+      <c r="M642">
+        <v>60</v>
+      </c>
+      <c r="Y642">
+        <v>1</v>
+      </c>
+      <c r="AA642">
+        <v>25</v>
+      </c>
+      <c r="AB642">
+        <v>40</v>
+      </c>
+      <c r="AC642" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AF642">
+        <v>0</v>
+      </c>
+      <c r="AG642">
+        <v>0</v>
+      </c>
+      <c r="AH642">
+        <v>0</v>
+      </c>
+      <c r="AI642">
+        <v>0</v>
+      </c>
+      <c r="AJ642">
+        <v>0</v>
+      </c>
+      <c r="AL642">
+        <v>1</v>
+      </c>
+      <c r="AM642">
+        <v>1</v>
+      </c>
+      <c r="AO642">
+        <v>0</v>
+      </c>
+      <c r="AP642">
+        <v>20</v>
+      </c>
+      <c r="AR642">
+        <v>0</v>
+      </c>
+      <c r="AS642">
+        <v>1</v>
+      </c>
+      <c r="AT642">
+        <v>0.01</v>
+      </c>
+      <c r="AU642">
+        <v>0.01</v>
+      </c>
+      <c r="AW642">
+        <v>0</v>
+      </c>
+      <c r="AX642">
+        <v>0</v>
+      </c>
+      <c r="AY642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C643">
+        <v>1</v>
+      </c>
+      <c r="D643" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E643" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F643" t="s">
+        <v>1286</v>
+      </c>
+      <c r="K643">
+        <v>0</v>
+      </c>
+      <c r="L643">
+        <v>10000</v>
+      </c>
+      <c r="M643">
+        <v>60</v>
+      </c>
+      <c r="Y643">
+        <v>1</v>
+      </c>
+      <c r="AA643">
+        <v>25</v>
+      </c>
+      <c r="AB643">
+        <v>40</v>
+      </c>
+      <c r="AC643" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AF643">
+        <v>0</v>
+      </c>
+      <c r="AG643">
+        <v>0</v>
+      </c>
+      <c r="AH643">
+        <v>0</v>
+      </c>
+      <c r="AI643">
+        <v>0</v>
+      </c>
+      <c r="AJ643">
+        <v>0</v>
+      </c>
+      <c r="AL643">
+        <v>1</v>
+      </c>
+      <c r="AM643">
+        <v>1</v>
+      </c>
+      <c r="AO643">
+        <v>0</v>
+      </c>
+      <c r="AP643">
+        <v>20</v>
+      </c>
+      <c r="AR643">
+        <v>0</v>
+      </c>
+      <c r="AS643">
+        <v>2</v>
+      </c>
+      <c r="AT643">
+        <v>0.01</v>
+      </c>
+      <c r="AU643">
+        <v>0.01</v>
+      </c>
+      <c r="AW643">
+        <v>0</v>
+      </c>
+      <c r="AX643">
+        <v>0</v>
+      </c>
+      <c r="AY643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C644">
+        <v>1</v>
+      </c>
+      <c r="D644" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E644" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F644" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K644">
+        <v>0</v>
+      </c>
+      <c r="L644">
+        <v>10000</v>
+      </c>
+      <c r="M644">
+        <v>60</v>
+      </c>
+      <c r="Y644">
+        <v>1</v>
+      </c>
+      <c r="AA644">
+        <v>25</v>
+      </c>
+      <c r="AB644">
+        <v>40</v>
+      </c>
+      <c r="AC644" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AF644">
+        <v>0</v>
+      </c>
+      <c r="AG644">
+        <v>0</v>
+      </c>
+      <c r="AH644">
+        <v>0</v>
+      </c>
+      <c r="AI644">
+        <v>0</v>
+      </c>
+      <c r="AJ644">
+        <v>0</v>
+      </c>
+      <c r="AL644">
+        <v>1</v>
+      </c>
+      <c r="AM644">
+        <v>1</v>
+      </c>
+      <c r="AO644">
+        <v>0</v>
+      </c>
+      <c r="AP644">
+        <v>20</v>
+      </c>
+      <c r="AR644">
+        <v>0</v>
+      </c>
+      <c r="AS644">
+        <v>3</v>
+      </c>
+      <c r="AT644">
+        <v>0.01</v>
+      </c>
+      <c r="AU644">
+        <v>0.01</v>
+      </c>
+      <c r="AW644">
+        <v>0</v>
+      </c>
+      <c r="AX644">
+        <v>0</v>
+      </c>
+      <c r="AY644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C645">
+        <v>1</v>
+      </c>
+      <c r="D645" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E645" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F645" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K645">
+        <v>0</v>
+      </c>
+      <c r="L645">
+        <v>30000</v>
+      </c>
+      <c r="M645">
+        <v>100</v>
+      </c>
+      <c r="Y645">
+        <v>1</v>
+      </c>
+      <c r="AA645">
+        <v>30</v>
+      </c>
+      <c r="AB645">
+        <v>60</v>
+      </c>
+      <c r="AC645" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AF645">
+        <v>0</v>
+      </c>
+      <c r="AG645">
+        <v>0</v>
+      </c>
+      <c r="AH645">
+        <v>0</v>
+      </c>
+      <c r="AI645">
+        <v>0</v>
+      </c>
+      <c r="AJ645">
+        <v>0</v>
+      </c>
+      <c r="AL645">
+        <v>1</v>
+      </c>
+      <c r="AM645">
+        <v>1</v>
+      </c>
+      <c r="AN645">
+        <v>1</v>
+      </c>
+      <c r="AO645">
+        <v>0.1</v>
+      </c>
+      <c r="AR645">
+        <v>0</v>
+      </c>
+      <c r="AT645">
+        <v>0</v>
+      </c>
+      <c r="AU645">
+        <v>0</v>
+      </c>
+      <c r="AW645">
+        <v>0</v>
+      </c>
+      <c r="AX645">
+        <v>0</v>
+      </c>
+      <c r="AY645">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/1.1.0/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C8373D-137E-C043-B4E5-4398F02569CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId4"/>
+    <sheet name="Items" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2883" uniqueCount="1311">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -3953,14 +3969,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3971,28 +3982,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4282,72 +4302,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY622"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="AO172" workbookViewId="0">
+      <selection activeCell="BC218" sqref="BC218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="278" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="28" max="28" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="36" max="36" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="37" max="37" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="38" max="38" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="40" max="40" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="41" max="41" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="42" max="42" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="43" max="43" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="44" max="44" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="45" max="45" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="46" max="46" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="47" max="47" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="48" max="48" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="49" max="49" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="50" max="50" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="51" max="51" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="278" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="28" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="38" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4502,7 +4513,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>51</v>
       </c>
@@ -4570,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>54</v>
       </c>
@@ -4653,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>56</v>
       </c>
@@ -4736,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>58</v>
       </c>
@@ -4819,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>60</v>
       </c>
@@ -4902,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>62</v>
       </c>
@@ -4985,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>64</v>
       </c>
@@ -5068,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>66</v>
       </c>
@@ -5151,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>68</v>
       </c>
@@ -5231,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>70</v>
       </c>
@@ -5311,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>72</v>
       </c>
@@ -5391,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>74</v>
       </c>
@@ -5408,19 +5419,19 @@
         <v>7000</v>
       </c>
       <c r="Q13">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="R13">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="S13">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="T13">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="U13">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -5471,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>76</v>
       </c>
@@ -5551,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>78</v>
       </c>
@@ -5631,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>80</v>
       </c>
@@ -5711,7 +5722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>82</v>
       </c>
@@ -5791,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>84</v>
       </c>
@@ -5871,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>86</v>
       </c>
@@ -5951,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>88</v>
       </c>
@@ -6031,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>90</v>
       </c>
@@ -6111,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>92</v>
       </c>
@@ -6191,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>94</v>
       </c>
@@ -6271,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>96</v>
       </c>
@@ -6288,19 +6299,19 @@
         <v>1000000</v>
       </c>
       <c r="Q24">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R24">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S24">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T24">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U24">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y24">
         <v>1</v>
@@ -6351,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>98</v>
       </c>
@@ -6368,19 +6379,19 @@
         <v>10000000</v>
       </c>
       <c r="Q25">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R25">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S25">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T25">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U25">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y25">
         <v>1</v>
@@ -6431,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>100</v>
       </c>
@@ -6511,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>102</v>
       </c>
@@ -6591,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>104</v>
       </c>
@@ -6671,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>106</v>
       </c>
@@ -6751,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>108</v>
       </c>
@@ -6831,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>110</v>
       </c>
@@ -6911,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>112</v>
       </c>
@@ -6991,7 +7002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>114</v>
       </c>
@@ -7071,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>116</v>
       </c>
@@ -7151,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>118</v>
       </c>
@@ -7240,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>120</v>
       </c>
@@ -7329,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>122</v>
       </c>
@@ -7352,19 +7363,19 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R37">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S37">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T37">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U37">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y37">
         <v>1</v>
@@ -7418,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>124</v>
       </c>
@@ -7441,19 +7452,19 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="R38">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="S38">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="T38">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="U38">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Y38">
         <v>1</v>
@@ -7507,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>126</v>
       </c>
@@ -7578,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>130</v>
       </c>
@@ -7643,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="AW40">
-        <v>0.003</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="AX40">
         <v>0</v>
@@ -7652,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>132</v>
       </c>
@@ -7717,7 +7728,7 @@
         <v>1</v>
       </c>
       <c r="AW41">
-        <v>0.005</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AX41">
         <v>0</v>
@@ -7726,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:51">
+    <row r="42" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>134</v>
       </c>
@@ -7791,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AW42">
-        <v>0.008</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="AX42">
         <v>0</v>
@@ -7800,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:51">
+    <row r="43" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>136</v>
       </c>
@@ -7865,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="AW43">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AX43">
         <v>0</v>
@@ -7874,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:51">
+    <row r="44" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>138</v>
       </c>
@@ -7939,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="AW44">
-        <v>0.05</v>
+        <v>2E-3</v>
       </c>
       <c r="AX44">
         <v>0</v>
@@ -7948,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:51">
+    <row r="45" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>140</v>
       </c>
@@ -8013,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="AW45">
-        <v>0.07</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AX45">
         <v>0</v>
@@ -8022,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:51">
+    <row r="46" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>142</v>
       </c>
@@ -8087,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="AW46">
-        <v>0.08</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AX46">
         <v>0</v>
@@ -8096,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:51">
+    <row r="47" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>144</v>
       </c>
@@ -8158,7 +8169,7 @@
         <v>1</v>
       </c>
       <c r="AW47">
-        <v>0.09</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AX47">
         <v>0</v>
@@ -8167,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:51">
+    <row r="48" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>146</v>
       </c>
@@ -8229,7 +8240,7 @@
         <v>1</v>
       </c>
       <c r="AW48">
-        <v>0.1</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AX48">
         <v>0</v>
@@ -8238,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:51">
+    <row r="49" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>148</v>
       </c>
@@ -8255,7 +8266,7 @@
         <v>5000</v>
       </c>
       <c r="W49">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Y49">
         <v>1</v>
@@ -8300,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="AW49">
-        <v>0.12</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AX49">
         <v>0</v>
@@ -8309,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:51">
+    <row r="50" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>150</v>
       </c>
@@ -8371,7 +8382,7 @@
         <v>1</v>
       </c>
       <c r="AW50">
-        <v>0.15</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AX50">
         <v>0</v>
@@ -8380,7 +8391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:51">
+    <row r="51" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
         <v>152</v>
       </c>
@@ -8442,7 +8453,7 @@
         <v>1</v>
       </c>
       <c r="AW51">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="AX51">
         <v>0</v>
@@ -8451,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:51">
+    <row r="52" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
         <v>154</v>
       </c>
@@ -8513,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="AW52">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="AX52">
         <v>0</v>
@@ -8522,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:51">
+    <row r="53" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
         <v>156</v>
       </c>
@@ -8584,7 +8595,7 @@
         <v>1</v>
       </c>
       <c r="AW53">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="AX53">
         <v>0</v>
@@ -8593,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:51">
+    <row r="54" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>158</v>
       </c>
@@ -8655,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="AW54">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="AX54">
         <v>0</v>
@@ -8664,7 +8675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:51">
+    <row r="55" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>160</v>
       </c>
@@ -8726,7 +8737,7 @@
         <v>1</v>
       </c>
       <c r="AW55">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AX55">
         <v>0</v>
@@ -8735,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:51">
+    <row r="56" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
         <v>162</v>
       </c>
@@ -8797,7 +8808,7 @@
         <v>1</v>
       </c>
       <c r="AW56">
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="AX56">
         <v>0</v>
@@ -8806,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:51">
+    <row r="57" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>164</v>
       </c>
@@ -8868,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="AW57">
-        <v>0.35</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AX57">
         <v>0</v>
@@ -8877,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:51">
+    <row r="58" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>166</v>
       </c>
@@ -8939,7 +8950,7 @@
         <v>1</v>
       </c>
       <c r="AW58">
-        <v>0.37</v>
+        <v>0.16</v>
       </c>
       <c r="AX58">
         <v>0</v>
@@ -8948,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:51">
+    <row r="59" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>168</v>
       </c>
@@ -9010,7 +9021,7 @@
         <v>1</v>
       </c>
       <c r="AW59">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="AX59">
         <v>0</v>
@@ -9019,7 +9030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:51">
+    <row r="60" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
         <v>170</v>
       </c>
@@ -9036,7 +9047,7 @@
         <v>500000</v>
       </c>
       <c r="W60">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y60">
         <v>1</v>
@@ -9081,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="AW60">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="AX60">
         <v>0</v>
@@ -9090,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:51">
+    <row r="61" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
         <v>172</v>
       </c>
@@ -9107,7 +9118,7 @@
         <v>1000000</v>
       </c>
       <c r="W61">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y61">
         <v>1</v>
@@ -9152,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="AW61">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
       <c r="AX61">
         <v>0</v>
@@ -9161,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:51">
+    <row r="62" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
         <v>174</v>
       </c>
@@ -9223,7 +9234,7 @@
         <v>1</v>
       </c>
       <c r="AW62">
-        <v>0.47</v>
+        <v>0.24</v>
       </c>
       <c r="AX62">
         <v>0</v>
@@ -9232,7 +9243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:51">
+    <row r="63" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
         <v>176</v>
       </c>
@@ -9294,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="AW63">
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
       <c r="AX63">
         <v>0</v>
@@ -9303,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:51">
+    <row r="64" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
         <v>178</v>
       </c>
@@ -9365,7 +9376,7 @@
         <v>1</v>
       </c>
       <c r="AW64">
-        <v>0.52</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AX64">
         <v>0</v>
@@ -9374,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:51">
+    <row r="65" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
         <v>180</v>
       </c>
@@ -9436,7 +9447,7 @@
         <v>1</v>
       </c>
       <c r="AW65">
-        <v>0.54</v>
+        <v>0.3</v>
       </c>
       <c r="AX65">
         <v>0</v>
@@ -9445,7 +9456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:51">
+    <row r="66" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
         <v>182</v>
       </c>
@@ -9507,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="AW66">
-        <v>0.56</v>
+        <v>0.32</v>
       </c>
       <c r="AX66">
         <v>0</v>
@@ -9516,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:51">
+    <row r="67" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
         <v>184</v>
       </c>
@@ -9578,7 +9589,7 @@
         <v>1</v>
       </c>
       <c r="AW67">
-        <v>0.6</v>
+        <v>0.34</v>
       </c>
       <c r="AX67">
         <v>0</v>
@@ -9587,7 +9598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:51">
+    <row r="68" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
         <v>186</v>
       </c>
@@ -9649,7 +9660,7 @@
         <v>1</v>
       </c>
       <c r="AW68">
-        <v>0.62</v>
+        <v>0.36</v>
       </c>
       <c r="AX68">
         <v>0</v>
@@ -9658,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:51">
+    <row r="69" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
         <v>188</v>
       </c>
@@ -9720,7 +9731,7 @@
         <v>1</v>
       </c>
       <c r="AW69">
-        <v>0.65</v>
+        <v>0.38</v>
       </c>
       <c r="AX69">
         <v>0</v>
@@ -9729,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:51">
+    <row r="70" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
         <v>190</v>
       </c>
@@ -9791,7 +9802,7 @@
         <v>1</v>
       </c>
       <c r="AW70">
-        <v>0.68</v>
+        <v>0.4</v>
       </c>
       <c r="AX70">
         <v>0</v>
@@ -9800,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:51">
+    <row r="71" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
         <v>192</v>
       </c>
@@ -9862,7 +9873,7 @@
         <v>1</v>
       </c>
       <c r="AW71">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
       <c r="AX71">
         <v>0</v>
@@ -9871,7 +9882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:51">
+    <row r="72" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
         <v>194</v>
       </c>
@@ -9942,7 +9953,7 @@
         <v>1</v>
       </c>
       <c r="AW72">
-        <v>0.73</v>
+        <v>0.44</v>
       </c>
       <c r="AX72">
         <v>0</v>
@@ -9951,7 +9962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:51">
+    <row r="73" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
         <v>196</v>
       </c>
@@ -10022,7 +10033,7 @@
         <v>1</v>
       </c>
       <c r="AW73">
-        <v>0.75</v>
+        <v>0.46</v>
       </c>
       <c r="AX73">
         <v>0</v>
@@ -10031,7 +10042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:51">
+    <row r="74" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
         <v>198</v>
       </c>
@@ -10054,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="W74">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y74">
         <v>1</v>
@@ -10102,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="AW74">
-        <v>0.78</v>
+        <v>0.48</v>
       </c>
       <c r="AX74">
         <v>0</v>
@@ -10111,7 +10122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:51">
+    <row r="75" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
         <v>200</v>
       </c>
@@ -10134,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="W75">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Y75">
         <v>1</v>
@@ -10182,7 +10193,7 @@
         <v>1</v>
       </c>
       <c r="AW75">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AX75">
         <v>0</v>
@@ -10191,7 +10202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:51">
+    <row r="76" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
         <v>202</v>
       </c>
@@ -10262,7 +10273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:51">
+    <row r="77" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
         <v>205</v>
       </c>
@@ -10333,7 +10344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:51">
+    <row r="78" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
         <v>207</v>
       </c>
@@ -10404,7 +10415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:51">
+    <row r="79" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
         <v>209</v>
       </c>
@@ -10475,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:51">
+    <row r="80" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
         <v>211</v>
       </c>
@@ -10546,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:51">
+    <row r="81" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>213</v>
       </c>
@@ -10617,7 +10628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:51">
+    <row r="82" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>215</v>
       </c>
@@ -10688,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:51">
+    <row r="83" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
         <v>217</v>
       </c>
@@ -10759,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:51">
+    <row r="84" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
         <v>219</v>
       </c>
@@ -10827,7 +10838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:51">
+    <row r="85" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
         <v>221</v>
       </c>
@@ -10895,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:51">
+    <row r="86" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
         <v>223</v>
       </c>
@@ -10912,7 +10923,7 @@
         <v>5000</v>
       </c>
       <c r="W86">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Y86">
         <v>1</v>
@@ -10963,7 +10974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:51">
+    <row r="87" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
         <v>225</v>
       </c>
@@ -11031,7 +11042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:51">
+    <row r="88" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
         <v>227</v>
       </c>
@@ -11099,7 +11110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:51">
+    <row r="89" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
         <v>229</v>
       </c>
@@ -11167,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:51">
+    <row r="90" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
         <v>231</v>
       </c>
@@ -11235,7 +11246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:51">
+    <row r="91" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
         <v>233</v>
       </c>
@@ -11303,7 +11314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:51">
+    <row r="92" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
         <v>235</v>
       </c>
@@ -11371,7 +11382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:51">
+    <row r="93" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
         <v>237</v>
       </c>
@@ -11439,7 +11450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:51">
+    <row r="94" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
         <v>239</v>
       </c>
@@ -11507,7 +11518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:51">
+    <row r="95" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
         <v>241</v>
       </c>
@@ -11575,7 +11586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:51">
+    <row r="96" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
         <v>243</v>
       </c>
@@ -11643,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:51">
+    <row r="97" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
         <v>245</v>
       </c>
@@ -11660,7 +11671,7 @@
         <v>500000</v>
       </c>
       <c r="W97">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y97">
         <v>1</v>
@@ -11711,7 +11722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:51">
+    <row r="98" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
         <v>247</v>
       </c>
@@ -11728,7 +11739,7 @@
         <v>1000000</v>
       </c>
       <c r="W98">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y98">
         <v>1</v>
@@ -11779,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:51">
+    <row r="99" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
         <v>249</v>
       </c>
@@ -11847,7 +11858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:51">
+    <row r="100" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
         <v>251</v>
       </c>
@@ -11915,7 +11926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:51">
+    <row r="101" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
         <v>253</v>
       </c>
@@ -11983,7 +11994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:51">
+    <row r="102" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
         <v>255</v>
       </c>
@@ -12051,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:51">
+    <row r="103" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
         <v>257</v>
       </c>
@@ -12119,7 +12130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:51">
+    <row r="104" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
         <v>259</v>
       </c>
@@ -12187,7 +12198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:51">
+    <row r="105" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
         <v>261</v>
       </c>
@@ -12255,7 +12266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:51">
+    <row r="106" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
         <v>263</v>
       </c>
@@ -12323,7 +12334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:51">
+    <row r="107" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
         <v>265</v>
       </c>
@@ -12391,7 +12402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:51">
+    <row r="108" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
         <v>267</v>
       </c>
@@ -12462,7 +12473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:51">
+    <row r="109" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
         <v>269</v>
       </c>
@@ -12539,7 +12550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:51">
+    <row r="110" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
         <v>271</v>
       </c>
@@ -12616,7 +12627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:51">
+    <row r="111" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
         <v>273</v>
       </c>
@@ -12639,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="W111">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y111">
         <v>1</v>
@@ -12693,7 +12704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:51">
+    <row r="112" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
         <v>275</v>
       </c>
@@ -12716,7 +12727,7 @@
         <v>0</v>
       </c>
       <c r="W112">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Y112">
         <v>1</v>
@@ -12770,7 +12781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:51">
+    <row r="113" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
         <v>277</v>
       </c>
@@ -12841,7 +12852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:51">
+    <row r="114" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
         <v>281</v>
       </c>
@@ -12912,7 +12923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:51">
+    <row r="115" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
         <v>283</v>
       </c>
@@ -12983,7 +12994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:51">
+    <row r="116" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
         <v>285</v>
       </c>
@@ -13075,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:51">
+    <row r="117" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
         <v>287</v>
       </c>
@@ -13167,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:51">
+    <row r="118" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
         <v>289</v>
       </c>
@@ -13259,7 +13270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:51">
+    <row r="119" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
         <v>291</v>
       </c>
@@ -13351,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:51">
+    <row r="120" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
         <v>293</v>
       </c>
@@ -13443,7 +13454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:51">
+    <row r="121" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
         <v>295</v>
       </c>
@@ -13532,7 +13543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:51">
+    <row r="122" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
         <v>297</v>
       </c>
@@ -13552,25 +13563,25 @@
         <v>3000</v>
       </c>
       <c r="Q122">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R122">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S122">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T122">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U122">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V122">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W122">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y122">
         <v>1</v>
@@ -13621,7 +13632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:51">
+    <row r="123" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
         <v>299</v>
       </c>
@@ -13641,25 +13652,25 @@
         <v>5000</v>
       </c>
       <c r="Q123">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R123">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S123">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T123">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U123">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V123">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W123">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y123">
         <v>1</v>
@@ -13710,7 +13721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:51">
+    <row r="124" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
         <v>301</v>
       </c>
@@ -13799,7 +13810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:51">
+    <row r="125" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
         <v>303</v>
       </c>
@@ -13888,7 +13899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:51">
+    <row r="126" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
         <v>305</v>
       </c>
@@ -13977,7 +13988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:51">
+    <row r="127" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
         <v>307</v>
       </c>
@@ -14066,7 +14077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:51">
+    <row r="128" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
         <v>308</v>
       </c>
@@ -14155,7 +14166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:51">
+    <row r="129" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
         <v>310</v>
       </c>
@@ -14244,7 +14255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:51">
+    <row r="130" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
         <v>312</v>
       </c>
@@ -14333,7 +14344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:51">
+    <row r="131" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
         <v>314</v>
       </c>
@@ -14422,7 +14433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:51">
+    <row r="132" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
         <v>316</v>
       </c>
@@ -14511,7 +14522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:51">
+    <row r="133" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
         <v>318</v>
       </c>
@@ -14600,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:51">
+    <row r="134" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
         <v>320</v>
       </c>
@@ -14689,7 +14700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:51">
+    <row r="135" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
         <v>322</v>
       </c>
@@ -14778,7 +14789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:51">
+    <row r="136" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
         <v>324</v>
       </c>
@@ -14867,7 +14878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:51">
+    <row r="137" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
         <v>326</v>
       </c>
@@ -14887,25 +14898,25 @@
         <v>25000000</v>
       </c>
       <c r="Q137">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R137">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S137">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="T137">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U137">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V137">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W137">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y137">
         <v>1</v>
@@ -14956,7 +14967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:51">
+    <row r="138" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
         <v>328</v>
       </c>
@@ -14976,25 +14987,25 @@
         <v>40000000</v>
       </c>
       <c r="Q138">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R138">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S138">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T138">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U138">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V138">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W138">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y138">
         <v>1</v>
@@ -15045,7 +15056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:51">
+    <row r="139" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
         <v>330</v>
       </c>
@@ -15134,7 +15145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:51">
+    <row r="140" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
         <v>332</v>
       </c>
@@ -15223,7 +15234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:51">
+    <row r="141" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
         <v>334</v>
       </c>
@@ -15312,7 +15323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:51">
+    <row r="142" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
         <v>336</v>
       </c>
@@ -15401,7 +15412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:51">
+    <row r="143" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
         <v>338</v>
       </c>
@@ -15490,7 +15501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:51">
+    <row r="144" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
         <v>339</v>
       </c>
@@ -15579,7 +15590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:51">
+    <row r="145" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
         <v>341</v>
       </c>
@@ -15668,7 +15679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:51">
+    <row r="146" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
         <v>343</v>
       </c>
@@ -15766,7 +15777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:51">
+    <row r="147" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
         <v>345</v>
       </c>
@@ -15864,7 +15875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:51">
+    <row r="148" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
         <v>347</v>
       </c>
@@ -15962,7 +15973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:51">
+    <row r="149" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
         <v>349</v>
       </c>
@@ -16060,7 +16071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:51">
+    <row r="150" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
         <v>351</v>
       </c>
@@ -16128,7 +16139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:51">
+    <row r="151" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
         <v>354</v>
       </c>
@@ -16199,7 +16210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:51">
+    <row r="152" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
         <v>356</v>
       </c>
@@ -16270,7 +16281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:51">
+    <row r="153" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
         <v>358</v>
       </c>
@@ -16341,7 +16352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:51">
+    <row r="154" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
         <v>360</v>
       </c>
@@ -16412,7 +16423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:51">
+    <row r="155" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
         <v>362</v>
       </c>
@@ -16483,7 +16494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:51">
+    <row r="156" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
         <v>364</v>
       </c>
@@ -16554,7 +16565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:51">
+    <row r="157" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
         <v>366</v>
       </c>
@@ -16625,7 +16636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:51">
+    <row r="158" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
         <v>368</v>
       </c>
@@ -16693,7 +16704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:51">
+    <row r="159" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
         <v>370</v>
       </c>
@@ -16761,7 +16772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:51">
+    <row r="160" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
         <v>372</v>
       </c>
@@ -16829,7 +16840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:51">
+    <row r="161" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
         <v>374</v>
       </c>
@@ -16897,7 +16908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:51">
+    <row r="162" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
         <v>376</v>
       </c>
@@ -16914,7 +16925,7 @@
         <v>10000</v>
       </c>
       <c r="P162">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Y162">
         <v>1</v>
@@ -16965,7 +16976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:51">
+    <row r="163" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
         <v>378</v>
       </c>
@@ -17033,7 +17044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:51">
+    <row r="164" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
         <v>380</v>
       </c>
@@ -17101,7 +17112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:51">
+    <row r="165" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
         <v>382</v>
       </c>
@@ -17169,7 +17180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:51">
+    <row r="166" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
         <v>384</v>
       </c>
@@ -17237,7 +17248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:51">
+    <row r="167" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
         <v>386</v>
       </c>
@@ -17305,7 +17316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:51">
+    <row r="168" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
         <v>388</v>
       </c>
@@ -17373,7 +17384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:51">
+    <row r="169" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
         <v>390</v>
       </c>
@@ -17441,7 +17452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:51">
+    <row r="170" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
         <v>392</v>
       </c>
@@ -17509,7 +17520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:51">
+    <row r="171" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
         <v>394</v>
       </c>
@@ -17526,7 +17537,7 @@
         <v>500000</v>
       </c>
       <c r="P171">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y171">
         <v>1</v>
@@ -17577,7 +17588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:51">
+    <row r="172" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
         <v>396</v>
       </c>
@@ -17594,7 +17605,7 @@
         <v>1000000</v>
       </c>
       <c r="P172">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y172">
         <v>1</v>
@@ -17645,7 +17656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:51">
+    <row r="173" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
         <v>398</v>
       </c>
@@ -17713,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:51">
+    <row r="174" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
         <v>400</v>
       </c>
@@ -17781,7 +17792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:51">
+    <row r="175" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
         <v>402</v>
       </c>
@@ -17849,7 +17860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:51">
+    <row r="176" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
         <v>404</v>
       </c>
@@ -17917,7 +17928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:51">
+    <row r="177" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
         <v>406</v>
       </c>
@@ -17985,7 +17996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:51">
+    <row r="178" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
         <v>408</v>
       </c>
@@ -18053,7 +18064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:51">
+    <row r="179" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
         <v>410</v>
       </c>
@@ -18121,7 +18132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:51">
+    <row r="180" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
         <v>412</v>
       </c>
@@ -18189,7 +18200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:51">
+    <row r="181" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
         <v>414</v>
       </c>
@@ -18257,7 +18268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:51">
+    <row r="182" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
         <v>416</v>
       </c>
@@ -18325,7 +18336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:51">
+    <row r="183" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
         <v>418</v>
       </c>
@@ -18402,7 +18413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:51">
+    <row r="184" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
         <v>420</v>
       </c>
@@ -18479,7 +18490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:51">
+    <row r="185" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
         <v>422</v>
       </c>
@@ -18502,7 +18513,7 @@
         <v>0</v>
       </c>
       <c r="P185">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y185">
         <v>1</v>
@@ -18556,7 +18567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:51">
+    <row r="186" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
         <v>424</v>
       </c>
@@ -18579,7 +18590,7 @@
         <v>0</v>
       </c>
       <c r="P186">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Y186">
         <v>1</v>
@@ -18633,7 +18644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:51">
+    <row r="187" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
         <v>426</v>
       </c>
@@ -18701,7 +18712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:51">
+    <row r="188" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
         <v>429</v>
       </c>
@@ -18763,13 +18774,13 @@
         <v>0</v>
       </c>
       <c r="AX188">
-        <v>0.001</v>
+        <v>1E-4</v>
       </c>
       <c r="AY188">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="189" spans="1:51">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="189" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
         <v>431</v>
       </c>
@@ -18840,13 +18851,13 @@
         <v>0</v>
       </c>
       <c r="AX189">
-        <v>0.003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AY189">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="190" spans="1:51">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="190" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
         <v>433</v>
       </c>
@@ -18917,13 +18928,13 @@
         <v>0</v>
       </c>
       <c r="AX190">
-        <v>0.005</v>
+        <v>1.00000000000001E-3</v>
       </c>
       <c r="AY190">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="191" spans="1:51">
+        <v>1.00000000000001E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
         <v>435</v>
       </c>
@@ -18994,13 +19005,13 @@
         <v>0</v>
       </c>
       <c r="AX191">
-        <v>0.008</v>
+        <v>2.00000000000001E-3</v>
       </c>
       <c r="AY191">
-        <v>0.008</v>
-      </c>
-    </row>
-    <row r="192" spans="1:51">
+        <v>2.00000000000001E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
         <v>437</v>
       </c>
@@ -19071,13 +19082,13 @@
         <v>0</v>
       </c>
       <c r="AX192">
-        <v>0.01</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AY192">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="193" spans="1:51">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
         <v>439</v>
       </c>
@@ -19148,13 +19159,13 @@
         <v>0</v>
       </c>
       <c r="AX193">
-        <v>0.03</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AY193">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="194" spans="1:51">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
         <v>441</v>
       </c>
@@ -19171,13 +19182,13 @@
         <v>1000</v>
       </c>
       <c r="N194">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O194">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P194">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y194">
         <v>1</v>
@@ -19225,13 +19236,13 @@
         <v>0</v>
       </c>
       <c r="AX194">
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AY194">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="195" spans="1:51">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
         <v>443</v>
       </c>
@@ -19299,13 +19310,13 @@
         <v>0</v>
       </c>
       <c r="AX195">
-        <v>0.1</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AY195">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:51">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
         <v>445</v>
       </c>
@@ -19373,13 +19384,13 @@
         <v>0</v>
       </c>
       <c r="AX196">
-        <v>0.15</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AY196">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="197" spans="1:51">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
         <v>447</v>
       </c>
@@ -19447,13 +19458,13 @@
         <v>0</v>
       </c>
       <c r="AX197">
-        <v>0.18</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY197">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="198" spans="1:51">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
         <v>449</v>
       </c>
@@ -19521,13 +19532,13 @@
         <v>0</v>
       </c>
       <c r="AX198">
-        <v>0.2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AY198">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:51">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
         <v>451</v>
       </c>
@@ -19595,13 +19606,13 @@
         <v>0</v>
       </c>
       <c r="AX199">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AY199">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="200" spans="1:51">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="200" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D200" t="s">
         <v>453</v>
       </c>
@@ -19669,13 +19680,13 @@
         <v>0</v>
       </c>
       <c r="AX200">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="AY200">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="201" spans="1:51">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="201" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D201" t="s">
         <v>455</v>
       </c>
@@ -19692,13 +19703,13 @@
         <v>30000</v>
       </c>
       <c r="N201">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O201">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="P201">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Y201">
         <v>1</v>
@@ -19743,13 +19754,13 @@
         <v>0</v>
       </c>
       <c r="AX201">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="AY201">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:51">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="202" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
         <v>457</v>
       </c>
@@ -19817,13 +19828,13 @@
         <v>0</v>
       </c>
       <c r="AX202">
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
       <c r="AY202">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="203" spans="1:51">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="203" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D203" t="s">
         <v>459</v>
       </c>
@@ -19891,13 +19902,13 @@
         <v>0</v>
       </c>
       <c r="AX203">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="AY203">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="204" spans="1:51">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="204" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
         <v>461</v>
       </c>
@@ -19965,13 +19976,13 @@
         <v>0</v>
       </c>
       <c r="AX204">
-        <v>0.38</v>
+        <v>0.12</v>
       </c>
       <c r="AY204">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="205" spans="1:51">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="205" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
         <v>463</v>
       </c>
@@ -20039,13 +20050,13 @@
         <v>0</v>
       </c>
       <c r="AX205">
-        <v>0.4</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AY205">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:51">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D206" t="s">
         <v>465</v>
       </c>
@@ -20113,13 +20124,13 @@
         <v>0</v>
       </c>
       <c r="AX206">
-        <v>0.42</v>
+        <v>0.16</v>
       </c>
       <c r="AY206">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="207" spans="1:51">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="207" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
         <v>467</v>
       </c>
@@ -20187,13 +20198,13 @@
         <v>0</v>
       </c>
       <c r="AX207">
-        <v>0.45</v>
+        <v>0.18</v>
       </c>
       <c r="AY207">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="208" spans="1:51">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="208" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D208" t="s">
         <v>469</v>
       </c>
@@ -20261,13 +20272,13 @@
         <v>0</v>
       </c>
       <c r="AX208">
-        <v>0.48</v>
+        <v>0.2</v>
       </c>
       <c r="AY208">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="209" spans="1:51">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="209" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D209" t="s">
         <v>471</v>
       </c>
@@ -20335,13 +20346,13 @@
         <v>0</v>
       </c>
       <c r="AX209">
-        <v>0.51</v>
+        <v>0.22</v>
       </c>
       <c r="AY209">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="210" spans="1:51">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="210" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D210" t="s">
         <v>473</v>
       </c>
@@ -20409,13 +20420,13 @@
         <v>0</v>
       </c>
       <c r="AX210">
-        <v>0.52</v>
+        <v>0.24</v>
       </c>
       <c r="AY210">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="211" spans="1:51">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="211" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D211" t="s">
         <v>475</v>
       </c>
@@ -20432,13 +20443,13 @@
         <v>25000000</v>
       </c>
       <c r="N211">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O211">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P211">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y211">
         <v>1</v>
@@ -20483,13 +20494,13 @@
         <v>0</v>
       </c>
       <c r="AX211">
-        <v>0.54</v>
+        <v>0.26</v>
       </c>
       <c r="AY211">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="212" spans="1:51">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="212" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D212" t="s">
         <v>477</v>
       </c>
@@ -20506,13 +20517,13 @@
         <v>40000000</v>
       </c>
       <c r="N212">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O212">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="P212">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y212">
         <v>1</v>
@@ -20557,13 +20568,13 @@
         <v>0</v>
       </c>
       <c r="AX212">
-        <v>0.58</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AY212">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="213" spans="1:51">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="213" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D213" t="s">
         <v>479</v>
       </c>
@@ -20631,13 +20642,13 @@
         <v>0</v>
       </c>
       <c r="AX213">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AY213">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="214" spans="1:51">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="214" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D214" t="s">
         <v>481</v>
       </c>
@@ -20705,13 +20716,13 @@
         <v>0</v>
       </c>
       <c r="AX214">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="AY214">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="215" spans="1:51">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="215" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D215" t="s">
         <v>483</v>
       </c>
@@ -20788,13 +20799,13 @@
         <v>0</v>
       </c>
       <c r="AX215">
-        <v>0.67</v>
+        <v>0.34</v>
       </c>
       <c r="AY215">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="216" spans="1:51">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="216" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D216" t="s">
         <v>485</v>
       </c>
@@ -20877,13 +20888,13 @@
         <v>0</v>
       </c>
       <c r="AX216">
-        <v>0.69</v>
+        <v>0.36</v>
       </c>
       <c r="AY216">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="217" spans="1:51">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="217" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D217" t="s">
         <v>487</v>
       </c>
@@ -20957,13 +20968,13 @@
         <v>0</v>
       </c>
       <c r="AX217">
-        <v>0.7</v>
+        <v>0.38</v>
       </c>
       <c r="AY217">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="218" spans="1:51">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="218" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D218" t="s">
         <v>489</v>
       </c>
@@ -21031,13 +21042,13 @@
         <v>0</v>
       </c>
       <c r="AX218">
-        <v>0.72</v>
+        <v>0.4</v>
       </c>
       <c r="AY218">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="219" spans="1:51">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="219" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D219" t="s">
         <v>491</v>
       </c>
@@ -21105,13 +21116,13 @@
         <v>0</v>
       </c>
       <c r="AX219">
-        <v>0.75</v>
+        <v>0.42</v>
       </c>
       <c r="AY219">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="220" spans="1:51">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="220" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D220" t="s">
         <v>493</v>
       </c>
@@ -21185,13 +21196,13 @@
         <v>0</v>
       </c>
       <c r="AX220">
-        <v>0.78</v>
+        <v>0.44</v>
       </c>
       <c r="AY220">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="221" spans="1:51">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="221" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D221" t="s">
         <v>495</v>
       </c>
@@ -21265,13 +21276,13 @@
         <v>0</v>
       </c>
       <c r="AX221">
-        <v>0.8</v>
+        <v>0.46</v>
       </c>
       <c r="AY221">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="222" spans="1:51">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="222" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D222" t="s">
         <v>497</v>
       </c>
@@ -21345,13 +21356,13 @@
         <v>0</v>
       </c>
       <c r="AX222">
-        <v>0.83</v>
+        <v>0.48</v>
       </c>
       <c r="AY222">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="223" spans="1:51">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="223" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D223" t="s">
         <v>499</v>
       </c>
@@ -21425,13 +21436,13 @@
         <v>0</v>
       </c>
       <c r="AX223">
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
       <c r="AY223">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="224" spans="1:51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="224" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D224" t="s">
         <v>501</v>
       </c>
@@ -21490,7 +21501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:51">
+    <row r="225" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D225" t="s">
         <v>505</v>
       </c>
@@ -21546,7 +21557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:51">
+    <row r="226" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D226" t="s">
         <v>507</v>
       </c>
@@ -21602,7 +21613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:51">
+    <row r="227" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D227" t="s">
         <v>510</v>
       </c>
@@ -21658,7 +21669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:51">
+    <row r="228" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D228" t="s">
         <v>512</v>
       </c>
@@ -21714,7 +21725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:51">
+    <row r="229" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D229" t="s">
         <v>514</v>
       </c>
@@ -21779,7 +21790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:51">
+    <row r="230" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D230" t="s">
         <v>517</v>
       </c>
@@ -21844,7 +21855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:51">
+    <row r="231" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D231" t="s">
         <v>520</v>
       </c>
@@ -21909,7 +21920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:51">
+    <row r="232" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D232" t="s">
         <v>523</v>
       </c>
@@ -21974,7 +21985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:51">
+    <row r="233" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D233" t="s">
         <v>526</v>
       </c>
@@ -22039,7 +22050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:51">
+    <row r="234" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D234" t="s">
         <v>529</v>
       </c>
@@ -22101,7 +22112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:51">
+    <row r="235" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D235" t="s">
         <v>532</v>
       </c>
@@ -22157,7 +22168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:51">
+    <row r="236" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D236" t="s">
         <v>534</v>
       </c>
@@ -22210,7 +22221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:51">
+    <row r="237" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D237" t="s">
         <v>537</v>
       </c>
@@ -22227,7 +22238,7 @@
         <v>522</v>
       </c>
       <c r="AE237">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AF237">
         <v>0</v>
@@ -22269,7 +22280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:51">
+    <row r="238" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D238" t="s">
         <v>539</v>
       </c>
@@ -22328,7 +22339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:51">
+    <row r="239" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D239" t="s">
         <v>541</v>
       </c>
@@ -22381,7 +22392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:51">
+    <row r="240" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D240" t="s">
         <v>544</v>
       </c>
@@ -22440,7 +22451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:51">
+    <row r="241" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D241" t="s">
         <v>546</v>
       </c>
@@ -22499,7 +22510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:51">
+    <row r="242" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D242" t="s">
         <v>548</v>
       </c>
@@ -22558,7 +22569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:51">
+    <row r="243" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D243" t="s">
         <v>550</v>
       </c>
@@ -22575,7 +22586,7 @@
         <v>516</v>
       </c>
       <c r="AE243">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AF243">
         <v>0</v>
@@ -22617,7 +22628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:51">
+    <row r="244" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D244" t="s">
         <v>552</v>
       </c>
@@ -22688,7 +22699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:51">
+    <row r="245" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D245" t="s">
         <v>555</v>
       </c>
@@ -22759,7 +22770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:51">
+    <row r="246" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D246" t="s">
         <v>557</v>
       </c>
@@ -22830,7 +22841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:51">
+    <row r="247" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D247" t="s">
         <v>559</v>
       </c>
@@ -22922,7 +22933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:51">
+    <row r="248" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D248" t="s">
         <v>561</v>
       </c>
@@ -23014,7 +23025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:51">
+    <row r="249" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D249" t="s">
         <v>563</v>
       </c>
@@ -23106,7 +23117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:51">
+    <row r="250" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D250" t="s">
         <v>565</v>
       </c>
@@ -23198,7 +23209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:51">
+    <row r="251" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D251" t="s">
         <v>567</v>
       </c>
@@ -23290,7 +23301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:51">
+    <row r="252" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D252" t="s">
         <v>569</v>
       </c>
@@ -23379,7 +23390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:51">
+    <row r="253" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D253" t="s">
         <v>571</v>
       </c>
@@ -23399,25 +23410,25 @@
         <v>3000</v>
       </c>
       <c r="Q253">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R253">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S253">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T253">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U253">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V253">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W253">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y253">
         <v>1</v>
@@ -23468,7 +23479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:51">
+    <row r="254" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D254" t="s">
         <v>573</v>
       </c>
@@ -23488,25 +23499,25 @@
         <v>5000</v>
       </c>
       <c r="Q254">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R254">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S254">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T254">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U254">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V254">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W254">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y254">
         <v>1</v>
@@ -23557,7 +23568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:51">
+    <row r="255" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D255" t="s">
         <v>575</v>
       </c>
@@ -23646,7 +23657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:51">
+    <row r="256" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D256" t="s">
         <v>577</v>
       </c>
@@ -23735,7 +23746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:51">
+    <row r="257" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D257" t="s">
         <v>579</v>
       </c>
@@ -23824,7 +23835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:51">
+    <row r="258" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D258" t="s">
         <v>581</v>
       </c>
@@ -23913,7 +23924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:51">
+    <row r="259" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D259" t="s">
         <v>583</v>
       </c>
@@ -24002,7 +24013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:51">
+    <row r="260" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D260" t="s">
         <v>585</v>
       </c>
@@ -24091,7 +24102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:51">
+    <row r="261" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D261" t="s">
         <v>587</v>
       </c>
@@ -24180,7 +24191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:51">
+    <row r="262" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D262" t="s">
         <v>589</v>
       </c>
@@ -24269,7 +24280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:51">
+    <row r="263" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D263" t="s">
         <v>591</v>
       </c>
@@ -24358,7 +24369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:51">
+    <row r="264" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D264" t="s">
         <v>593</v>
       </c>
@@ -24447,7 +24458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:51">
+    <row r="265" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D265" t="s">
         <v>595</v>
       </c>
@@ -24536,7 +24547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:51">
+    <row r="266" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D266" t="s">
         <v>597</v>
       </c>
@@ -24625,7 +24636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:51">
+    <row r="267" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D267" t="s">
         <v>599</v>
       </c>
@@ -24714,7 +24725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:51">
+    <row r="268" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D268" t="s">
         <v>601</v>
       </c>
@@ -24734,25 +24745,25 @@
         <v>25000000</v>
       </c>
       <c r="Q268">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R268">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S268">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="T268">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U268">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V268">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W268">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y268">
         <v>1</v>
@@ -24803,7 +24814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:51">
+    <row r="269" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D269" t="s">
         <v>603</v>
       </c>
@@ -24823,25 +24834,25 @@
         <v>40000000</v>
       </c>
       <c r="Q269">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R269">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S269">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T269">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U269">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V269">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W269">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y269">
         <v>1</v>
@@ -24892,7 +24903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:51">
+    <row r="270" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D270" t="s">
         <v>605</v>
       </c>
@@ -24981,7 +24992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:51">
+    <row r="271" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D271" t="s">
         <v>607</v>
       </c>
@@ -25070,7 +25081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:51">
+    <row r="272" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D272" t="s">
         <v>609</v>
       </c>
@@ -25159,7 +25170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:51">
+    <row r="273" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D273" t="s">
         <v>611</v>
       </c>
@@ -25248,7 +25259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:51">
+    <row r="274" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D274" t="s">
         <v>613</v>
       </c>
@@ -25337,7 +25348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:51">
+    <row r="275" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D275" t="s">
         <v>615</v>
       </c>
@@ -25426,7 +25437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:51">
+    <row r="276" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D276" t="s">
         <v>617</v>
       </c>
@@ -25518,7 +25529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:51">
+    <row r="277" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D277" t="s">
         <v>619</v>
       </c>
@@ -25616,7 +25627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:51">
+    <row r="278" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D278" t="s">
         <v>621</v>
       </c>
@@ -25714,7 +25725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:51">
+    <row r="279" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D279" t="s">
         <v>623</v>
       </c>
@@ -25812,7 +25823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:51">
+    <row r="280" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D280" t="s">
         <v>625</v>
       </c>
@@ -25910,7 +25921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:51">
+    <row r="281" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D281" t="s">
         <v>627</v>
       </c>
@@ -25981,7 +25992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:51">
+    <row r="282" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D282" t="s">
         <v>630</v>
       </c>
@@ -26052,7 +26063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:51">
+    <row r="283" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D283" t="s">
         <v>632</v>
       </c>
@@ -26123,7 +26134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:51">
+    <row r="284" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D284" t="s">
         <v>634</v>
       </c>
@@ -26215,7 +26226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:51">
+    <row r="285" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D285" t="s">
         <v>636</v>
       </c>
@@ -26307,7 +26318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:51">
+    <row r="286" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D286" t="s">
         <v>638</v>
       </c>
@@ -26399,7 +26410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:51">
+    <row r="287" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D287" t="s">
         <v>640</v>
       </c>
@@ -26491,7 +26502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:51">
+    <row r="288" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D288" t="s">
         <v>642</v>
       </c>
@@ -26583,7 +26594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:51">
+    <row r="289" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D289" t="s">
         <v>644</v>
       </c>
@@ -26672,7 +26683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:51">
+    <row r="290" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D290" t="s">
         <v>646</v>
       </c>
@@ -26692,25 +26703,25 @@
         <v>3000</v>
       </c>
       <c r="Q290">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R290">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S290">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T290">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U290">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V290">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W290">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y290">
         <v>1</v>
@@ -26761,7 +26772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:51">
+    <row r="291" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D291" t="s">
         <v>648</v>
       </c>
@@ -26796,10 +26807,10 @@
         <v>0.16</v>
       </c>
       <c r="V291">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W291">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y291">
         <v>1</v>
@@ -26850,7 +26861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:51">
+    <row r="292" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D292" t="s">
         <v>650</v>
       </c>
@@ -26939,7 +26950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:51">
+    <row r="293" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D293" t="s">
         <v>652</v>
       </c>
@@ -27028,7 +27039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:51">
+    <row r="294" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D294" t="s">
         <v>654</v>
       </c>
@@ -27117,7 +27128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:51">
+    <row r="295" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D295" t="s">
         <v>656</v>
       </c>
@@ -27206,7 +27217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:51">
+    <row r="296" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D296" t="s">
         <v>658</v>
       </c>
@@ -27295,7 +27306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:51">
+    <row r="297" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D297" t="s">
         <v>660</v>
       </c>
@@ -27384,7 +27395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:51">
+    <row r="298" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D298" t="s">
         <v>662</v>
       </c>
@@ -27473,7 +27484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:51">
+    <row r="299" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D299" t="s">
         <v>664</v>
       </c>
@@ -27562,7 +27573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:51">
+    <row r="300" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D300" t="s">
         <v>666</v>
       </c>
@@ -27651,7 +27662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:51">
+    <row r="301" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D301" t="s">
         <v>668</v>
       </c>
@@ -27740,7 +27751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:51">
+    <row r="302" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D302" t="s">
         <v>670</v>
       </c>
@@ -27829,7 +27840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:51">
+    <row r="303" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D303" t="s">
         <v>672</v>
       </c>
@@ -27849,19 +27860,19 @@
         <v>1000000</v>
       </c>
       <c r="Q303">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R303">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S303">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="T303">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U303">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V303">
         <v>0.49</v>
@@ -27918,7 +27929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:51">
+    <row r="304" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D304" t="s">
         <v>674</v>
       </c>
@@ -27938,19 +27949,19 @@
         <v>10000000</v>
       </c>
       <c r="Q304">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R304">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S304">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T304">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U304">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V304">
         <v>0.5</v>
@@ -28007,7 +28018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:51">
+    <row r="305" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D305" t="s">
         <v>676</v>
       </c>
@@ -28042,10 +28053,10 @@
         <v>0.62</v>
       </c>
       <c r="V305">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W305">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y305">
         <v>1</v>
@@ -28096,7 +28107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:51">
+    <row r="306" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D306" t="s">
         <v>678</v>
       </c>
@@ -28131,10 +28142,10 @@
         <v>0.65</v>
       </c>
       <c r="V306">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W306">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y306">
         <v>1</v>
@@ -28185,7 +28196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:51">
+    <row r="307" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D307" t="s">
         <v>680</v>
       </c>
@@ -28274,7 +28285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:51">
+    <row r="308" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D308" t="s">
         <v>682</v>
       </c>
@@ -28363,7 +28374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:51">
+    <row r="309" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D309" t="s">
         <v>684</v>
       </c>
@@ -28452,7 +28463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:51">
+    <row r="310" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D310" t="s">
         <v>686</v>
       </c>
@@ -28541,7 +28552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:51">
+    <row r="311" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D311" t="s">
         <v>688</v>
       </c>
@@ -28630,7 +28641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:51">
+    <row r="312" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D312" t="s">
         <v>690</v>
       </c>
@@ -28719,7 +28730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:51">
+    <row r="313" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D313" t="s">
         <v>692</v>
       </c>
@@ -28808,7 +28819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:51">
+    <row r="314" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D314" t="s">
         <v>694</v>
       </c>
@@ -28906,7 +28917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:51">
+    <row r="315" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D315" t="s">
         <v>696</v>
       </c>
@@ -29004,7 +29015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:51">
+    <row r="316" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D316" t="s">
         <v>698</v>
       </c>
@@ -29102,7 +29113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:51">
+    <row r="317" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D317" t="s">
         <v>700</v>
       </c>
@@ -29200,7 +29211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:51">
+    <row r="318" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D318" t="s">
         <v>702</v>
       </c>
@@ -29271,7 +29282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:51">
+    <row r="319" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D319" t="s">
         <v>705</v>
       </c>
@@ -29342,7 +29353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:51">
+    <row r="320" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D320" t="s">
         <v>707</v>
       </c>
@@ -29413,7 +29424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:51">
+    <row r="321" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D321" t="s">
         <v>709</v>
       </c>
@@ -29505,7 +29516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:51">
+    <row r="322" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D322" t="s">
         <v>711</v>
       </c>
@@ -29597,7 +29608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:51">
+    <row r="323" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D323" t="s">
         <v>713</v>
       </c>
@@ -29689,7 +29700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:51">
+    <row r="324" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D324" t="s">
         <v>715</v>
       </c>
@@ -29784,7 +29795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:51">
+    <row r="325" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D325" t="s">
         <v>717</v>
       </c>
@@ -29876,7 +29887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:51">
+    <row r="326" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D326" t="s">
         <v>719</v>
       </c>
@@ -29965,7 +29976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:51">
+    <row r="327" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D327" t="s">
         <v>721</v>
       </c>
@@ -29985,25 +29996,25 @@
         <v>3000</v>
       </c>
       <c r="Q327">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R327">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S327">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T327">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U327">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V327">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W327">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y327">
         <v>1</v>
@@ -30054,7 +30065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:51">
+    <row r="328" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D328" t="s">
         <v>723</v>
       </c>
@@ -30074,25 +30085,25 @@
         <v>5000</v>
       </c>
       <c r="Q328">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R328">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S328">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T328">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U328">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V328">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W328">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y328">
         <v>1</v>
@@ -30143,7 +30154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:51">
+    <row r="329" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D329" t="s">
         <v>725</v>
       </c>
@@ -30232,7 +30243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:51">
+    <row r="330" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D330" t="s">
         <v>727</v>
       </c>
@@ -30321,7 +30332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:51">
+    <row r="331" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D331" t="s">
         <v>729</v>
       </c>
@@ -30410,7 +30421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:51">
+    <row r="332" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D332" t="s">
         <v>731</v>
       </c>
@@ -30499,7 +30510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:51">
+    <row r="333" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D333" t="s">
         <v>733</v>
       </c>
@@ -30588,7 +30599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:51">
+    <row r="334" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D334" t="s">
         <v>735</v>
       </c>
@@ -30677,7 +30688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:51">
+    <row r="335" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D335" t="s">
         <v>737</v>
       </c>
@@ -30766,7 +30777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:51">
+    <row r="336" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D336" t="s">
         <v>739</v>
       </c>
@@ -30855,7 +30866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:51">
+    <row r="337" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D337" t="s">
         <v>741</v>
       </c>
@@ -30944,7 +30955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:51">
+    <row r="338" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D338" t="s">
         <v>743</v>
       </c>
@@ -31033,7 +31044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:51">
+    <row r="339" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D339" t="s">
         <v>745</v>
       </c>
@@ -31122,7 +31133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:51">
+    <row r="340" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D340" t="s">
         <v>746</v>
       </c>
@@ -31211,7 +31222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:51">
+    <row r="341" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D341" t="s">
         <v>748</v>
       </c>
@@ -31231,19 +31242,19 @@
         <v>10000000</v>
       </c>
       <c r="Q341">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R341">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S341">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="T341">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U341">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V341">
         <v>0.5</v>
@@ -31300,7 +31311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:51">
+    <row r="342" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D342" t="s">
         <v>750</v>
       </c>
@@ -31320,25 +31331,25 @@
         <v>25000000</v>
       </c>
       <c r="Q342">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R342">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S342">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T342">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U342">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V342">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W342">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y342">
         <v>1</v>
@@ -31389,7 +31400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:51">
+    <row r="343" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D343" t="s">
         <v>752</v>
       </c>
@@ -31424,10 +31435,10 @@
         <v>0.62</v>
       </c>
       <c r="V343">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W343">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y343">
         <v>1</v>
@@ -31478,7 +31489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:51">
+    <row r="344" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D344" t="s">
         <v>754</v>
       </c>
@@ -31567,7 +31578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:51">
+    <row r="345" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D345" t="s">
         <v>756</v>
       </c>
@@ -31656,7 +31667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:51">
+    <row r="346" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D346" t="s">
         <v>758</v>
       </c>
@@ -31745,7 +31756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:51">
+    <row r="347" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D347" t="s">
         <v>760</v>
       </c>
@@ -31834,7 +31845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:51">
+    <row r="348" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D348" t="s">
         <v>762</v>
       </c>
@@ -31923,7 +31934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:51">
+    <row r="349" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D349" t="s">
         <v>764</v>
       </c>
@@ -32012,7 +32023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:51">
+    <row r="350" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D350" t="s">
         <v>766</v>
       </c>
@@ -32101,7 +32112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:51">
+    <row r="351" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D351" t="s">
         <v>768</v>
       </c>
@@ -32199,7 +32210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:51">
+    <row r="352" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D352" t="s">
         <v>770</v>
       </c>
@@ -32297,7 +32308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:51">
+    <row r="353" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D353" t="s">
         <v>772</v>
       </c>
@@ -32395,7 +32406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:51">
+    <row r="354" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D354" t="s">
         <v>774</v>
       </c>
@@ -32493,7 +32504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:51">
+    <row r="355" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D355" t="s">
         <v>776</v>
       </c>
@@ -32564,7 +32575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:51">
+    <row r="356" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D356" t="s">
         <v>779</v>
       </c>
@@ -32635,7 +32646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:51">
+    <row r="357" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D357" t="s">
         <v>781</v>
       </c>
@@ -32706,7 +32717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:51">
+    <row r="358" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D358" t="s">
         <v>783</v>
       </c>
@@ -32798,7 +32809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:51">
+    <row r="359" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D359" t="s">
         <v>785</v>
       </c>
@@ -32890,7 +32901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:51">
+    <row r="360" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D360" t="s">
         <v>787</v>
       </c>
@@ -32982,7 +32993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:51">
+    <row r="361" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D361" t="s">
         <v>789</v>
       </c>
@@ -33074,7 +33085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:51">
+    <row r="362" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D362" t="s">
         <v>791</v>
       </c>
@@ -33166,7 +33177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:51">
+    <row r="363" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D363" t="s">
         <v>793</v>
       </c>
@@ -33255,7 +33266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:51">
+    <row r="364" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D364" t="s">
         <v>795</v>
       </c>
@@ -33275,25 +33286,25 @@
         <v>3000</v>
       </c>
       <c r="Q364">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R364">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S364">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T364">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U364">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V364">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W364">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y364">
         <v>1</v>
@@ -33344,7 +33355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:51">
+    <row r="365" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D365" t="s">
         <v>797</v>
       </c>
@@ -33364,25 +33375,25 @@
         <v>5000</v>
       </c>
       <c r="Q365">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R365">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S365">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T365">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U365">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V365">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W365">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y365">
         <v>1</v>
@@ -33433,7 +33444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:51">
+    <row r="366" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D366" t="s">
         <v>799</v>
       </c>
@@ -33522,7 +33533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:51">
+    <row r="367" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D367" t="s">
         <v>801</v>
       </c>
@@ -33611,7 +33622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:51">
+    <row r="368" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D368" t="s">
         <v>803</v>
       </c>
@@ -33700,7 +33711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:51">
+    <row r="369" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D369" t="s">
         <v>805</v>
       </c>
@@ -33789,7 +33800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:51">
+    <row r="370" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D370" t="s">
         <v>807</v>
       </c>
@@ -33878,7 +33889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:51">
+    <row r="371" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D371" t="s">
         <v>809</v>
       </c>
@@ -33967,7 +33978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:51">
+    <row r="372" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D372" t="s">
         <v>811</v>
       </c>
@@ -34056,7 +34067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:51">
+    <row r="373" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D373" t="s">
         <v>813</v>
       </c>
@@ -34145,7 +34156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:51">
+    <row r="374" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D374" t="s">
         <v>815</v>
       </c>
@@ -34234,7 +34245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:51">
+    <row r="375" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D375" t="s">
         <v>817</v>
       </c>
@@ -34323,7 +34334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:51">
+    <row r="376" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D376" t="s">
         <v>819</v>
       </c>
@@ -34412,7 +34423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:51">
+    <row r="377" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D377" t="s">
         <v>821</v>
       </c>
@@ -34501,7 +34512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:51">
+    <row r="378" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D378" t="s">
         <v>823</v>
       </c>
@@ -34590,7 +34601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:51">
+    <row r="379" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D379" t="s">
         <v>825</v>
       </c>
@@ -34610,25 +34621,25 @@
         <v>25000000</v>
       </c>
       <c r="Q379">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R379">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S379">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="T379">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U379">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V379">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W379">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y379">
         <v>1</v>
@@ -34679,7 +34690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:51">
+    <row r="380" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D380" t="s">
         <v>827</v>
       </c>
@@ -34699,25 +34710,25 @@
         <v>40000000</v>
       </c>
       <c r="Q380">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R380">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S380">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T380">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U380">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V380">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W380">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y380">
         <v>1</v>
@@ -34768,7 +34779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:51">
+    <row r="381" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D381" t="s">
         <v>829</v>
       </c>
@@ -34857,7 +34868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:51">
+    <row r="382" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D382" t="s">
         <v>831</v>
       </c>
@@ -34946,7 +34957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:51">
+    <row r="383" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D383" t="s">
         <v>833</v>
       </c>
@@ -35035,7 +35046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:51">
+    <row r="384" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D384" t="s">
         <v>835</v>
       </c>
@@ -35124,7 +35135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:51">
+    <row r="385" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D385" t="s">
         <v>837</v>
       </c>
@@ -35213,7 +35224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:51">
+    <row r="386" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D386" t="s">
         <v>839</v>
       </c>
@@ -35302,7 +35313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:51">
+    <row r="387" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D387" t="s">
         <v>841</v>
       </c>
@@ -35391,7 +35402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:51">
+    <row r="388" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D388" t="s">
         <v>843</v>
       </c>
@@ -35489,7 +35500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:51">
+    <row r="389" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D389" t="s">
         <v>845</v>
       </c>
@@ -35587,7 +35598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:51">
+    <row r="390" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D390" t="s">
         <v>847</v>
       </c>
@@ -35685,7 +35696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:51">
+    <row r="391" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D391" t="s">
         <v>849</v>
       </c>
@@ -35783,7 +35794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:51">
+    <row r="392" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D392" t="s">
         <v>851</v>
       </c>
@@ -35860,7 +35871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:51">
+    <row r="393" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D393" t="s">
         <v>854</v>
       </c>
@@ -35907,7 +35918,7 @@
         <v>52</v>
       </c>
       <c r="AF393">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AG393">
         <v>0</v>
@@ -35916,7 +35927,7 @@
         <v>0</v>
       </c>
       <c r="AI393">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="AJ393">
         <v>0</v>
@@ -35943,7 +35954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:51">
+    <row r="394" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D394" t="s">
         <v>856</v>
       </c>
@@ -35990,7 +36001,7 @@
         <v>52</v>
       </c>
       <c r="AF394">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG394">
         <v>0</v>
@@ -35999,7 +36010,7 @@
         <v>0</v>
       </c>
       <c r="AI394">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="AJ394">
         <v>0</v>
@@ -36026,7 +36037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:51">
+    <row r="395" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D395" t="s">
         <v>858</v>
       </c>
@@ -36073,7 +36084,7 @@
         <v>52</v>
       </c>
       <c r="AF395">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AG395">
         <v>0</v>
@@ -36082,7 +36093,7 @@
         <v>0</v>
       </c>
       <c r="AI395">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AJ395">
         <v>0</v>
@@ -36109,7 +36120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:51">
+    <row r="396" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D396" t="s">
         <v>860</v>
       </c>
@@ -36156,7 +36167,7 @@
         <v>52</v>
       </c>
       <c r="AF396">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AG396">
         <v>0</v>
@@ -36165,7 +36176,7 @@
         <v>0</v>
       </c>
       <c r="AI396">
-        <v>0.0009</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="AJ396">
         <v>0</v>
@@ -36192,7 +36203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:51">
+    <row r="397" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D397" t="s">
         <v>862</v>
       </c>
@@ -36239,7 +36250,7 @@
         <v>52</v>
       </c>
       <c r="AF397">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AG397">
         <v>0</v>
@@ -36248,7 +36259,7 @@
         <v>0</v>
       </c>
       <c r="AI397">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AJ397">
         <v>0</v>
@@ -36275,7 +36286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:51">
+    <row r="398" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D398" t="s">
         <v>864</v>
       </c>
@@ -36325,7 +36336,7 @@
         <v>0</v>
       </c>
       <c r="AI398">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AJ398">
         <v>0</v>
@@ -36352,7 +36363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:51">
+    <row r="399" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D399" t="s">
         <v>866</v>
       </c>
@@ -36393,7 +36404,7 @@
         <v>52</v>
       </c>
       <c r="AF399">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AG399">
         <v>0</v>
@@ -36402,7 +36413,7 @@
         <v>0</v>
       </c>
       <c r="AI399">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AJ399">
         <v>0</v>
@@ -36429,7 +36440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:51">
+    <row r="400" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D400" t="s">
         <v>868</v>
       </c>
@@ -36467,7 +36478,7 @@
         <v>52</v>
       </c>
       <c r="AF400">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG400">
         <v>0</v>
@@ -36476,7 +36487,7 @@
         <v>0</v>
       </c>
       <c r="AI400">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AJ400">
         <v>0</v>
@@ -36503,7 +36514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:51">
+    <row r="401" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D401" t="s">
         <v>870</v>
       </c>
@@ -36541,7 +36552,7 @@
         <v>52</v>
       </c>
       <c r="AF401">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AG401">
         <v>0</v>
@@ -36550,7 +36561,7 @@
         <v>0</v>
       </c>
       <c r="AI401">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AJ401">
         <v>0</v>
@@ -36577,7 +36588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:51">
+    <row r="402" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D402" t="s">
         <v>872</v>
       </c>
@@ -36615,7 +36626,7 @@
         <v>52</v>
       </c>
       <c r="AF402">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AG402">
         <v>0</v>
@@ -36624,7 +36635,7 @@
         <v>0</v>
       </c>
       <c r="AI402">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AJ402">
         <v>0</v>
@@ -36651,7 +36662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:51">
+    <row r="403" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D403" t="s">
         <v>874</v>
       </c>
@@ -36671,10 +36682,10 @@
         <v>7000</v>
       </c>
       <c r="S403">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V403">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Y403">
         <v>1</v>
@@ -36689,7 +36700,7 @@
         <v>52</v>
       </c>
       <c r="AF403">
-        <v>0.029</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AG403">
         <v>0</v>
@@ -36698,7 +36709,7 @@
         <v>0</v>
       </c>
       <c r="AI403">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AJ403">
         <v>0</v>
@@ -36725,7 +36736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:51">
+    <row r="404" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D404" t="s">
         <v>876</v>
       </c>
@@ -36772,7 +36783,7 @@
         <v>0</v>
       </c>
       <c r="AI404">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AJ404">
         <v>0</v>
@@ -36799,7 +36810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:51">
+    <row r="405" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D405" t="s">
         <v>878</v>
       </c>
@@ -36837,7 +36848,7 @@
         <v>52</v>
       </c>
       <c r="AF405">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG405">
         <v>0</v>
@@ -36846,7 +36857,7 @@
         <v>0</v>
       </c>
       <c r="AI405">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AJ405">
         <v>0</v>
@@ -36873,7 +36884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:51">
+    <row r="406" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D406" t="s">
         <v>880</v>
       </c>
@@ -36911,7 +36922,7 @@
         <v>52</v>
       </c>
       <c r="AF406">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AG406">
         <v>0</v>
@@ -36947,7 +36958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:51">
+    <row r="407" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D407" t="s">
         <v>882</v>
       </c>
@@ -36985,7 +36996,7 @@
         <v>52</v>
       </c>
       <c r="AF407">
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AG407">
         <v>0</v>
@@ -36994,7 +37005,7 @@
         <v>0</v>
       </c>
       <c r="AI407">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AJ407">
         <v>0</v>
@@ -37021,7 +37032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:51">
+    <row r="408" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D408" t="s">
         <v>884</v>
       </c>
@@ -37059,7 +37070,7 @@
         <v>52</v>
       </c>
       <c r="AF408">
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AG408">
         <v>0</v>
@@ -37068,7 +37079,7 @@
         <v>0</v>
       </c>
       <c r="AI408">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AJ408">
         <v>0</v>
@@ -37095,7 +37106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:51">
+    <row r="409" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D409" t="s">
         <v>886</v>
       </c>
@@ -37133,7 +37144,7 @@
         <v>52</v>
       </c>
       <c r="AF409">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AG409">
         <v>0</v>
@@ -37142,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="AI409">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AJ409">
         <v>0</v>
@@ -37169,7 +37180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:51">
+    <row r="410" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D410" t="s">
         <v>888</v>
       </c>
@@ -37207,7 +37218,7 @@
         <v>52</v>
       </c>
       <c r="AF410">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AG410">
         <v>0</v>
@@ -37216,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="AI410">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AJ410">
         <v>0</v>
@@ -37243,7 +37254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:51">
+    <row r="411" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D411" t="s">
         <v>890</v>
       </c>
@@ -37281,7 +37292,7 @@
         <v>52</v>
       </c>
       <c r="AF411">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AG411">
         <v>0</v>
@@ -37317,7 +37328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:51">
+    <row r="412" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D412" t="s">
         <v>892</v>
       </c>
@@ -37364,7 +37375,7 @@
         <v>0</v>
       </c>
       <c r="AI412">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AJ412">
         <v>0</v>
@@ -37391,7 +37402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:51">
+    <row r="413" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D413" t="s">
         <v>894</v>
       </c>
@@ -37429,7 +37440,7 @@
         <v>52</v>
       </c>
       <c r="AF413">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AG413">
         <v>0</v>
@@ -37438,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="AI413">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AJ413">
         <v>0</v>
@@ -37465,7 +37476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:51">
+    <row r="414" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D414" t="s">
         <v>896</v>
       </c>
@@ -37485,10 +37496,10 @@
         <v>1000000</v>
       </c>
       <c r="S414">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V414">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y414">
         <v>1</v>
@@ -37503,7 +37514,7 @@
         <v>52</v>
       </c>
       <c r="AF414">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AG414">
         <v>0</v>
@@ -37512,7 +37523,7 @@
         <v>0</v>
       </c>
       <c r="AI414">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AJ414">
         <v>0</v>
@@ -37539,7 +37550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:51">
+    <row r="415" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D415" t="s">
         <v>898</v>
       </c>
@@ -37559,10 +37570,10 @@
         <v>10000000</v>
       </c>
       <c r="S415">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V415">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y415">
         <v>1</v>
@@ -37577,7 +37588,7 @@
         <v>52</v>
       </c>
       <c r="AF415">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AG415">
         <v>0</v>
@@ -37586,7 +37597,7 @@
         <v>0</v>
       </c>
       <c r="AI415">
-        <v>0.029</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AJ415">
         <v>0</v>
@@ -37613,7 +37624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:51">
+    <row r="416" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D416" t="s">
         <v>899</v>
       </c>
@@ -37651,7 +37662,7 @@
         <v>52</v>
       </c>
       <c r="AF416">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="AG416">
         <v>0</v>
@@ -37687,7 +37698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:51">
+    <row r="417" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D417" t="s">
         <v>901</v>
       </c>
@@ -37725,7 +37736,7 @@
         <v>52</v>
       </c>
       <c r="AF417">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AG417">
         <v>0</v>
@@ -37734,7 +37745,7 @@
         <v>0</v>
       </c>
       <c r="AI417">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AJ417">
         <v>0</v>
@@ -37761,7 +37772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:51">
+    <row r="418" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D418" t="s">
         <v>903</v>
       </c>
@@ -37799,7 +37810,7 @@
         <v>52</v>
       </c>
       <c r="AF418">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="AG418">
         <v>0</v>
@@ -37808,7 +37819,7 @@
         <v>0</v>
       </c>
       <c r="AI418">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AJ418">
         <v>0</v>
@@ -37835,7 +37846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:51">
+    <row r="419" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D419" t="s">
         <v>905</v>
       </c>
@@ -37873,7 +37884,7 @@
         <v>52</v>
       </c>
       <c r="AF419">
-        <v>0.073</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="AG419">
         <v>0</v>
@@ -37882,7 +37893,7 @@
         <v>0</v>
       </c>
       <c r="AI419">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AJ419">
         <v>0</v>
@@ -37909,7 +37920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:51">
+    <row r="420" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D420" t="s">
         <v>907</v>
       </c>
@@ -37947,7 +37958,7 @@
         <v>52</v>
       </c>
       <c r="AF420">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AG420">
         <v>0</v>
@@ -37956,7 +37967,7 @@
         <v>0</v>
       </c>
       <c r="AI420">
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AJ420">
         <v>0</v>
@@ -37983,7 +37994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:51">
+    <row r="421" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D421" t="s">
         <v>909</v>
       </c>
@@ -38057,7 +38068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:51">
+    <row r="422" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D422" t="s">
         <v>911</v>
       </c>
@@ -38095,7 +38106,7 @@
         <v>52</v>
       </c>
       <c r="AF422">
-        <v>0.083</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AG422">
         <v>0</v>
@@ -38104,7 +38115,7 @@
         <v>0</v>
       </c>
       <c r="AI422">
-        <v>0.041</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AJ422">
         <v>0</v>
@@ -38131,7 +38142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:51">
+    <row r="423" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D423" t="s">
         <v>913</v>
       </c>
@@ -38169,7 +38180,7 @@
         <v>52</v>
       </c>
       <c r="AF423">
-        <v>0.086</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="AG423">
         <v>0</v>
@@ -38178,7 +38189,7 @@
         <v>0</v>
       </c>
       <c r="AI423">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AJ423">
         <v>0</v>
@@ -38205,7 +38216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:51">
+    <row r="424" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D424" t="s">
         <v>915</v>
       </c>
@@ -38252,7 +38263,7 @@
         <v>0</v>
       </c>
       <c r="AI424">
-        <v>0.044</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AJ424">
         <v>0</v>
@@ -38279,7 +38290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:51">
+    <row r="425" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D425" t="s">
         <v>917</v>
       </c>
@@ -38332,7 +38343,7 @@
         <v>0</v>
       </c>
       <c r="AI425">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AJ425">
         <v>0</v>
@@ -38362,7 +38373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:51">
+    <row r="426" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D426" t="s">
         <v>919</v>
       </c>
@@ -38445,7 +38456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:51">
+    <row r="427" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D427" t="s">
         <v>921</v>
       </c>
@@ -38471,10 +38482,10 @@
         <v>0</v>
       </c>
       <c r="S427">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V427">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y427">
         <v>1</v>
@@ -38489,7 +38500,7 @@
         <v>52</v>
       </c>
       <c r="AF427">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AG427">
         <v>0</v>
@@ -38498,7 +38509,7 @@
         <v>0</v>
       </c>
       <c r="AI427">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="AJ427">
         <v>0</v>
@@ -38528,7 +38539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:51">
+    <row r="428" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D428" t="s">
         <v>923</v>
       </c>
@@ -38554,10 +38565,10 @@
         <v>0</v>
       </c>
       <c r="S428">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="V428">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Y428">
         <v>1</v>
@@ -38581,7 +38592,7 @@
         <v>0</v>
       </c>
       <c r="AI428">
-        <v>0.054</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="AJ428">
         <v>0</v>
@@ -38611,7 +38622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:51">
+    <row r="429" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D429" t="s">
         <v>925</v>
       </c>
@@ -38682,7 +38693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:51">
+    <row r="430" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D430" t="s">
         <v>928</v>
       </c>
@@ -38774,7 +38785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:51">
+    <row r="431" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D431" t="s">
         <v>930</v>
       </c>
@@ -38866,7 +38877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:51">
+    <row r="432" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D432" t="s">
         <v>932</v>
       </c>
@@ -38958,7 +38969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:51">
+    <row r="433" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D433" t="s">
         <v>934</v>
       </c>
@@ -39050,7 +39061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:51">
+    <row r="434" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D434" t="s">
         <v>936</v>
       </c>
@@ -39142,7 +39153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:51">
+    <row r="435" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D435" t="s">
         <v>938</v>
       </c>
@@ -39234,7 +39245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:51">
+    <row r="436" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D436" t="s">
         <v>940</v>
       </c>
@@ -39254,25 +39265,25 @@
         <v>1000</v>
       </c>
       <c r="Q436">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R436">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="S436">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="T436">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="U436">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="V436">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="W436">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Y436">
         <v>1</v>
@@ -39326,7 +39337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:51">
+    <row r="437" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D437" t="s">
         <v>942</v>
       </c>
@@ -39415,7 +39426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:51">
+    <row r="438" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D438" t="s">
         <v>944</v>
       </c>
@@ -39504,7 +39515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:51">
+    <row r="439" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D439" t="s">
         <v>946</v>
       </c>
@@ -39593,7 +39604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:51">
+    <row r="440" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D440" t="s">
         <v>948</v>
       </c>
@@ -39682,7 +39693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:51">
+    <row r="441" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D441" t="s">
         <v>950</v>
       </c>
@@ -39771,7 +39782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:51">
+    <row r="442" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D442" t="s">
         <v>952</v>
       </c>
@@ -39860,7 +39871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:51">
+    <row r="443" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D443" t="s">
         <v>954</v>
       </c>
@@ -39949,7 +39960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:51">
+    <row r="444" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D444" t="s">
         <v>956</v>
       </c>
@@ -40038,7 +40049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:51">
+    <row r="445" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D445" t="s">
         <v>958</v>
       </c>
@@ -40058,25 +40069,25 @@
         <v>120000</v>
       </c>
       <c r="Q445">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R445">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S445">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T445">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U445">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V445">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W445">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y445">
         <v>1</v>
@@ -40127,7 +40138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:51">
+    <row r="446" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D446" t="s">
         <v>960</v>
       </c>
@@ -40216,7 +40227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:51">
+    <row r="447" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D447" t="s">
         <v>962</v>
       </c>
@@ -40305,7 +40316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:51">
+    <row r="448" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D448" t="s">
         <v>964</v>
       </c>
@@ -40394,7 +40405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:51">
+    <row r="449" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D449" t="s">
         <v>966</v>
       </c>
@@ -40483,7 +40494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:51">
+    <row r="450" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D450" t="s">
         <v>968</v>
       </c>
@@ -40572,7 +40583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:51">
+    <row r="451" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D451" t="s">
         <v>970</v>
       </c>
@@ -40661,7 +40672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:51">
+    <row r="452" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D452" t="s">
         <v>972</v>
       </c>
@@ -40750,7 +40761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:51">
+    <row r="453" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D453" t="s">
         <v>974</v>
       </c>
@@ -40839,7 +40850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:51">
+    <row r="454" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D454" t="s">
         <v>976</v>
       </c>
@@ -40928,7 +40939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:51">
+    <row r="455" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D455" t="s">
         <v>978</v>
       </c>
@@ -41017,7 +41028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:51">
+    <row r="456" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D456" t="s">
         <v>980</v>
       </c>
@@ -41106,7 +41117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:51">
+    <row r="457" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D457" t="s">
         <v>982</v>
       </c>
@@ -41195,7 +41206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:51">
+    <row r="458" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D458" t="s">
         <v>984</v>
       </c>
@@ -41284,7 +41295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:51">
+    <row r="459" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D459" t="s">
         <v>986</v>
       </c>
@@ -41373,7 +41384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:51">
+    <row r="460" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D460" t="s">
         <v>988</v>
       </c>
@@ -41462,7 +41473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:51">
+    <row r="461" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D461" t="s">
         <v>990</v>
       </c>
@@ -41551,7 +41562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:51">
+    <row r="462" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D462" t="s">
         <v>992</v>
       </c>
@@ -41577,25 +41588,25 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R462">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S462">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T462">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U462">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V462">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W462">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y462">
         <v>1</v>
@@ -41649,7 +41660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:51">
+    <row r="463" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D463" t="s">
         <v>994</v>
       </c>
@@ -41675,25 +41686,25 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="R463">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="S463">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="T463">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="U463">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="V463">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="W463">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Y463">
         <v>1</v>
@@ -41747,7 +41758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:51">
+    <row r="464" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D464" t="s">
         <v>996</v>
       </c>
@@ -41845,7 +41856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:51">
+    <row r="465" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D465" t="s">
         <v>998</v>
       </c>
@@ -41943,7 +41954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:51">
+    <row r="466" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D466" t="s">
         <v>1000</v>
       </c>
@@ -42026,7 +42037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:51">
+    <row r="467" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D467" t="s">
         <v>1003</v>
       </c>
@@ -42067,7 +42078,7 @@
         <v>1005</v>
       </c>
       <c r="AF467">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AG467">
         <v>0</v>
@@ -42106,7 +42117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:51">
+    <row r="468" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D468" t="s">
         <v>1006</v>
       </c>
@@ -42147,10 +42158,10 @@
         <v>1008</v>
       </c>
       <c r="AF468">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AG468">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AH468">
         <v>0</v>
@@ -42186,7 +42197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:51">
+    <row r="469" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D469" t="s">
         <v>1009</v>
       </c>
@@ -42227,13 +42238,13 @@
         <v>1011</v>
       </c>
       <c r="AF469">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AG469">
         <v>0</v>
       </c>
       <c r="AH469">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AI469">
         <v>0</v>
@@ -42266,7 +42277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:51">
+    <row r="470" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D470" t="s">
         <v>1012</v>
       </c>
@@ -42307,7 +42318,7 @@
         <v>1014</v>
       </c>
       <c r="AF470">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AG470">
         <v>0</v>
@@ -42316,7 +42327,7 @@
         <v>0</v>
       </c>
       <c r="AI470">
-        <v>0.0004</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="AJ470">
         <v>0</v>
@@ -42346,7 +42357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:51">
+    <row r="471" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D471" t="s">
         <v>1015</v>
       </c>
@@ -42390,10 +42401,10 @@
         <v>1017</v>
       </c>
       <c r="AF471">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AG471">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AH471">
         <v>0</v>
@@ -42429,7 +42440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:51">
+    <row r="472" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D472" t="s">
         <v>1018</v>
       </c>
@@ -42470,7 +42481,7 @@
         <v>1020</v>
       </c>
       <c r="AF472">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AG472">
         <v>0</v>
@@ -42479,7 +42490,7 @@
         <v>0</v>
       </c>
       <c r="AI472">
-        <v>0.0004</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="AJ472">
         <v>0</v>
@@ -42509,7 +42520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:51">
+    <row r="473" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D473" t="s">
         <v>1021</v>
       </c>
@@ -42586,7 +42597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:51">
+    <row r="474" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D474" t="s">
         <v>1023</v>
       </c>
@@ -42663,7 +42674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:51">
+    <row r="475" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D475" t="s">
         <v>1025</v>
       </c>
@@ -42734,7 +42745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:51">
+    <row r="476" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D476" t="s">
         <v>1027</v>
       </c>
@@ -42805,7 +42816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:51">
+    <row r="477" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D477" t="s">
         <v>1029</v>
       </c>
@@ -42876,7 +42887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:51">
+    <row r="478" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D478" t="s">
         <v>1031</v>
       </c>
@@ -42947,7 +42958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:51">
+    <row r="479" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D479" t="s">
         <v>1033</v>
       </c>
@@ -43018,7 +43029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:51">
+    <row r="480" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D480" t="s">
         <v>1035</v>
       </c>
@@ -43092,7 +43103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:51">
+    <row r="481" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D481" t="s">
         <v>1038</v>
       </c>
@@ -43166,7 +43177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:51">
+    <row r="482" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D482" t="s">
         <v>1041</v>
       </c>
@@ -43240,7 +43251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:51">
+    <row r="483" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D483" t="s">
         <v>1044</v>
       </c>
@@ -43278,7 +43289,7 @@
         <v>1020</v>
       </c>
       <c r="AF483">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG483">
         <v>0</v>
@@ -43287,7 +43298,7 @@
         <v>0</v>
       </c>
       <c r="AI483">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AJ483">
         <v>0</v>
@@ -43317,7 +43328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:51">
+    <row r="484" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D484" t="s">
         <v>1046</v>
       </c>
@@ -43358,10 +43369,10 @@
         <v>1017</v>
       </c>
       <c r="AF484">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG484">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AH484">
         <v>0</v>
@@ -43397,7 +43408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:51">
+    <row r="485" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D485" t="s">
         <v>1048</v>
       </c>
@@ -43435,7 +43446,7 @@
         <v>1014</v>
       </c>
       <c r="AF485">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG485">
         <v>0</v>
@@ -43444,7 +43455,7 @@
         <v>0</v>
       </c>
       <c r="AI485">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AJ485">
         <v>0</v>
@@ -43474,7 +43485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:51">
+    <row r="486" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D486" t="s">
         <v>1050</v>
       </c>
@@ -43512,13 +43523,13 @@
         <v>1011</v>
       </c>
       <c r="AF486">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG486">
         <v>0</v>
       </c>
       <c r="AH486">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AI486">
         <v>0</v>
@@ -43551,7 +43562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:51">
+    <row r="487" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D487" t="s">
         <v>1052</v>
       </c>
@@ -43589,10 +43600,10 @@
         <v>1008</v>
       </c>
       <c r="AF487">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG487">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AH487">
         <v>0</v>
@@ -43628,7 +43639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:51">
+    <row r="488" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D488" t="s">
         <v>1054</v>
       </c>
@@ -43666,7 +43677,7 @@
         <v>1005</v>
       </c>
       <c r="AF488">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG488">
         <v>0</v>
@@ -43705,7 +43716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:51">
+    <row r="489" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D489" t="s">
         <v>1056</v>
       </c>
@@ -43779,7 +43790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:51">
+    <row r="490" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D490" t="s">
         <v>1058</v>
       </c>
@@ -43853,7 +43864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:51">
+    <row r="491" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D491" t="s">
         <v>1060</v>
       </c>
@@ -43927,7 +43938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:51">
+    <row r="492" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D492" t="s">
         <v>1062</v>
       </c>
@@ -44001,7 +44012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:51">
+    <row r="493" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D493" t="s">
         <v>1064</v>
       </c>
@@ -44075,7 +44086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:51">
+    <row r="494" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D494" t="s">
         <v>1066</v>
       </c>
@@ -44149,7 +44160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:51">
+    <row r="495" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D495" t="s">
         <v>1068</v>
       </c>
@@ -44235,7 +44246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:51">
+    <row r="496" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D496" t="s">
         <v>1070</v>
       </c>
@@ -44282,7 +44293,7 @@
         <v>0</v>
       </c>
       <c r="AI496">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AJ496">
         <v>0</v>
@@ -44312,7 +44323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:51">
+    <row r="497" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D497" t="s">
         <v>1072</v>
       </c>
@@ -44392,7 +44403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:51">
+    <row r="498" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D498" t="s">
         <v>1074</v>
       </c>
@@ -44439,7 +44450,7 @@
         <v>0</v>
       </c>
       <c r="AI498">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AJ498">
         <v>0</v>
@@ -44469,7 +44480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:51">
+    <row r="499" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D499" t="s">
         <v>1076</v>
       </c>
@@ -44546,7 +44557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:51">
+    <row r="500" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D500" t="s">
         <v>1078</v>
       </c>
@@ -44623,7 +44634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:51">
+    <row r="501" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D501" t="s">
         <v>1080</v>
       </c>
@@ -44700,7 +44711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:51">
+    <row r="502" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D502" t="s">
         <v>1082</v>
       </c>
@@ -44774,7 +44785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:51">
+    <row r="503" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D503" t="s">
         <v>1084</v>
       </c>
@@ -44848,7 +44859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:51">
+    <row r="504" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D504" t="s">
         <v>1086</v>
       </c>
@@ -44916,7 +44927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:51">
+    <row r="505" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D505" t="s">
         <v>1088</v>
       </c>
@@ -44984,7 +44995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:51">
+    <row r="506" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D506" t="s">
         <v>1090</v>
       </c>
@@ -45052,7 +45063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:51">
+    <row r="507" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D507" t="s">
         <v>1092</v>
       </c>
@@ -45120,7 +45131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:51">
+    <row r="508" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D508" t="s">
         <v>1094</v>
       </c>
@@ -45188,7 +45199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:51">
+    <row r="509" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D509" t="s">
         <v>1096</v>
       </c>
@@ -45262,7 +45273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:51">
+    <row r="510" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D510" t="s">
         <v>1098</v>
       </c>
@@ -45336,7 +45347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:51">
+    <row r="511" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D511" t="s">
         <v>1100</v>
       </c>
@@ -45410,7 +45421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:51">
+    <row r="512" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D512" t="s">
         <v>1102</v>
       </c>
@@ -45457,7 +45468,7 @@
         <v>0</v>
       </c>
       <c r="AI512">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AJ512">
         <v>0</v>
@@ -45487,7 +45498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:51">
+    <row r="513" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D513" t="s">
         <v>1104</v>
       </c>
@@ -45567,7 +45578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:51">
+    <row r="514" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D514" t="s">
         <v>1106</v>
       </c>
@@ -45614,7 +45625,7 @@
         <v>0</v>
       </c>
       <c r="AI514">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AJ514">
         <v>0</v>
@@ -45644,7 +45655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:51">
+    <row r="515" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D515" t="s">
         <v>1108</v>
       </c>
@@ -45721,7 +45732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:51">
+    <row r="516" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D516" t="s">
         <v>1110</v>
       </c>
@@ -45798,7 +45809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:51">
+    <row r="517" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D517" t="s">
         <v>1112</v>
       </c>
@@ -45875,7 +45886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:51">
+    <row r="518" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D518" t="s">
         <v>1114</v>
       </c>
@@ -45949,7 +45960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:51">
+    <row r="519" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D519" t="s">
         <v>1116</v>
       </c>
@@ -46023,7 +46034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:51">
+    <row r="520" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D520" t="s">
         <v>1118</v>
       </c>
@@ -46097,7 +46108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:51">
+    <row r="521" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D521" t="s">
         <v>1120</v>
       </c>
@@ -46171,7 +46182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:51">
+    <row r="522" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D522" t="s">
         <v>1122</v>
       </c>
@@ -46245,7 +46256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:51">
+    <row r="523" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D523" t="s">
         <v>1124</v>
       </c>
@@ -46319,7 +46330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:51">
+    <row r="524" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D524" t="s">
         <v>1126</v>
       </c>
@@ -46366,7 +46377,7 @@
         <v>0</v>
       </c>
       <c r="AI524">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AJ524">
         <v>0</v>
@@ -46396,7 +46407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:51">
+    <row r="525" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D525" t="s">
         <v>1128</v>
       </c>
@@ -46476,7 +46487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:51">
+    <row r="526" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D526" t="s">
         <v>1130</v>
       </c>
@@ -46523,7 +46534,7 @@
         <v>0</v>
       </c>
       <c r="AI526">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AJ526">
         <v>0</v>
@@ -46553,7 +46564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:51">
+    <row r="527" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D527" t="s">
         <v>1132</v>
       </c>
@@ -46630,7 +46641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:51">
+    <row r="528" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D528" t="s">
         <v>1134</v>
       </c>
@@ -46707,7 +46718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:51">
+    <row r="529" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D529" t="s">
         <v>1136</v>
       </c>
@@ -46781,7 +46792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:51">
+    <row r="530" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D530" t="s">
         <v>1138</v>
       </c>
@@ -46855,7 +46866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:51">
+    <row r="531" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D531" t="s">
         <v>1140</v>
       </c>
@@ -46932,7 +46943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:51">
+    <row r="532" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D532" t="s">
         <v>1142</v>
       </c>
@@ -47018,7 +47029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:51">
+    <row r="533" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D533" t="s">
         <v>1144</v>
       </c>
@@ -47086,7 +47097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:51">
+    <row r="534" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D534" t="s">
         <v>1146</v>
       </c>
@@ -47154,7 +47165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:51">
+    <row r="535" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D535" t="s">
         <v>1148</v>
       </c>
@@ -47222,7 +47233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:51">
+    <row r="536" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D536" t="s">
         <v>1150</v>
       </c>
@@ -47290,7 +47301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:51">
+    <row r="537" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D537" t="s">
         <v>1152</v>
       </c>
@@ -47358,7 +47369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:51">
+    <row r="538" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D538" t="s">
         <v>1154</v>
       </c>
@@ -47405,7 +47416,7 @@
         <v>0</v>
       </c>
       <c r="AI538">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AJ538">
         <v>0</v>
@@ -47435,7 +47446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:51">
+    <row r="539" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D539" t="s">
         <v>1156</v>
       </c>
@@ -47515,7 +47526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:51">
+    <row r="540" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D540" t="s">
         <v>1158</v>
       </c>
@@ -47562,7 +47573,7 @@
         <v>0</v>
       </c>
       <c r="AI540">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AJ540">
         <v>0</v>
@@ -47592,7 +47603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:51">
+    <row r="541" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D541" t="s">
         <v>1160</v>
       </c>
@@ -47669,7 +47680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:51">
+    <row r="542" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D542" t="s">
         <v>1162</v>
       </c>
@@ -47746,7 +47757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:51">
+    <row r="543" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D543" t="s">
         <v>1164</v>
       </c>
@@ -47823,7 +47834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:51">
+    <row r="544" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D544" t="s">
         <v>1166</v>
       </c>
@@ -47897,7 +47908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:51">
+    <row r="545" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D545" t="s">
         <v>1168</v>
       </c>
@@ -47971,7 +47982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:51">
+    <row r="546" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D546" t="s">
         <v>1170</v>
       </c>
@@ -48045,7 +48056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:51">
+    <row r="547" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D547" t="s">
         <v>1172</v>
       </c>
@@ -48119,7 +48130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:51">
+    <row r="548" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D548" t="s">
         <v>1174</v>
       </c>
@@ -48193,7 +48204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:51">
+    <row r="549" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D549" t="s">
         <v>1176</v>
       </c>
@@ -48267,7 +48278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:51">
+    <row r="550" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D550" t="s">
         <v>1178</v>
       </c>
@@ -48341,7 +48352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:51">
+    <row r="551" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D551" t="s">
         <v>1180</v>
       </c>
@@ -48415,7 +48426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:51">
+    <row r="552" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D552" t="s">
         <v>1182</v>
       </c>
@@ -48489,7 +48500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:51">
+    <row r="553" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D553" t="s">
         <v>1184</v>
       </c>
@@ -48575,7 +48586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:51">
+    <row r="554" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D554" t="s">
         <v>1186</v>
       </c>
@@ -48592,7 +48603,7 @@
         <v>260000</v>
       </c>
       <c r="Q554">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y554">
         <v>1</v>
@@ -48643,7 +48654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:51">
+    <row r="555" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D555" t="s">
         <v>1188</v>
       </c>
@@ -48660,7 +48671,7 @@
         <v>260000</v>
       </c>
       <c r="S555">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y555">
         <v>1</v>
@@ -48711,7 +48722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:51">
+    <row r="556" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D556" t="s">
         <v>1190</v>
       </c>
@@ -48728,7 +48739,7 @@
         <v>260000</v>
       </c>
       <c r="R556">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y556">
         <v>1</v>
@@ -48779,7 +48790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:51">
+    <row r="557" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D557" t="s">
         <v>1192</v>
       </c>
@@ -48796,7 +48807,7 @@
         <v>260000</v>
       </c>
       <c r="U557">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y557">
         <v>1</v>
@@ -48847,7 +48858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:51">
+    <row r="558" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D558" t="s">
         <v>1194</v>
       </c>
@@ -48864,7 +48875,7 @@
         <v>260000</v>
       </c>
       <c r="T558">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y558">
         <v>1</v>
@@ -48915,7 +48926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:51">
+    <row r="559" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D559" t="s">
         <v>1196</v>
       </c>
@@ -48938,7 +48949,7 @@
         <v>0</v>
       </c>
       <c r="W559">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y559">
         <v>1</v>
@@ -48989,7 +49000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:51">
+    <row r="560" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D560" t="s">
         <v>1198</v>
       </c>
@@ -49012,7 +49023,7 @@
         <v>0</v>
       </c>
       <c r="V560">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y560">
         <v>1</v>
@@ -49063,7 +49074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:51">
+    <row r="561" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D561" t="s">
         <v>1199</v>
       </c>
@@ -49137,7 +49148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:51">
+    <row r="562" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D562" t="s">
         <v>1201</v>
       </c>
@@ -49211,7 +49222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:51">
+    <row r="563" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D563" t="s">
         <v>1203</v>
       </c>
@@ -49285,7 +49296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:51">
+    <row r="564" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D564" t="s">
         <v>1205</v>
       </c>
@@ -49359,7 +49370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:51">
+    <row r="565" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D565" t="s">
         <v>1207</v>
       </c>
@@ -49433,7 +49444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:51">
+    <row r="566" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D566" t="s">
         <v>1209</v>
       </c>
@@ -49507,7 +49518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:51">
+    <row r="567" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D567" t="s">
         <v>1211</v>
       </c>
@@ -49581,7 +49592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:51">
+    <row r="568" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D568" t="s">
         <v>1213</v>
       </c>
@@ -49655,7 +49666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:51">
+    <row r="569" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D569" t="s">
         <v>1215</v>
       </c>
@@ -49729,7 +49740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:51">
+    <row r="570" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D570" t="s">
         <v>1217</v>
       </c>
@@ -49776,7 +49787,7 @@
         <v>0</v>
       </c>
       <c r="AI570">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AJ570">
         <v>0</v>
@@ -49806,7 +49817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:51">
+    <row r="571" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D571" t="s">
         <v>1219</v>
       </c>
@@ -49886,7 +49897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:51">
+    <row r="572" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D572" t="s">
         <v>1221</v>
       </c>
@@ -49933,7 +49944,7 @@
         <v>0</v>
       </c>
       <c r="AI572">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AJ572">
         <v>0</v>
@@ -49963,7 +49974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:51">
+    <row r="573" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D573" t="s">
         <v>1223</v>
       </c>
@@ -50040,7 +50051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:51">
+    <row r="574" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D574" t="s">
         <v>1225</v>
       </c>
@@ -50117,7 +50128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:51">
+    <row r="575" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D575" t="s">
         <v>1227</v>
       </c>
@@ -50194,7 +50205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:51">
+    <row r="576" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D576" t="s">
         <v>1229</v>
       </c>
@@ -50280,7 +50291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:51">
+    <row r="577" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D577" t="s">
         <v>1231</v>
       </c>
@@ -50348,7 +50359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:51">
+    <row r="578" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D578" t="s">
         <v>1233</v>
       </c>
@@ -50416,7 +50427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:51">
+    <row r="579" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D579" t="s">
         <v>1235</v>
       </c>
@@ -50484,7 +50495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:51">
+    <row r="580" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D580" t="s">
         <v>1237</v>
       </c>
@@ -50552,7 +50563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:51">
+    <row r="581" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D581" t="s">
         <v>1239</v>
       </c>
@@ -50620,7 +50631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:51">
+    <row r="582" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D582" t="s">
         <v>1241</v>
       </c>
@@ -50694,7 +50705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:51">
+    <row r="583" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D583" t="s">
         <v>1243</v>
       </c>
@@ -50768,7 +50779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:51">
+    <row r="584" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D584" t="s">
         <v>1245</v>
       </c>
@@ -50842,7 +50853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:51">
+    <row r="585" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D585" t="s">
         <v>1247</v>
       </c>
@@ -50916,7 +50927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:51">
+    <row r="586" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D586" t="s">
         <v>1249</v>
       </c>
@@ -50990,7 +51001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:51">
+    <row r="587" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D587" t="s">
         <v>1251</v>
       </c>
@@ -51037,7 +51048,7 @@
         <v>0</v>
       </c>
       <c r="AI587">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AJ587">
         <v>0</v>
@@ -51067,7 +51078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:51">
+    <row r="588" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D588" t="s">
         <v>1253</v>
       </c>
@@ -51147,7 +51158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:51">
+    <row r="589" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D589" t="s">
         <v>1255</v>
       </c>
@@ -51194,7 +51205,7 @@
         <v>0</v>
       </c>
       <c r="AI589">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AJ589">
         <v>0</v>
@@ -51224,7 +51235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:51">
+    <row r="590" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D590" t="s">
         <v>1257</v>
       </c>
@@ -51301,7 +51312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:51">
+    <row r="591" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D591" t="s">
         <v>1259</v>
       </c>
@@ -51378,7 +51389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:51">
+    <row r="592" spans="4:51" x14ac:dyDescent="0.2">
       <c r="D592" t="s">
         <v>1261</v>
       </c>
@@ -51452,7 +51463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:51">
+    <row r="593" spans="3:51" x14ac:dyDescent="0.2">
       <c r="D593" t="s">
         <v>1263</v>
       </c>
@@ -51526,7 +51537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:51">
+    <row r="594" spans="3:51" x14ac:dyDescent="0.2">
       <c r="D594" t="s">
         <v>1265</v>
       </c>
@@ -51600,7 +51611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:51">
+    <row r="595" spans="3:51" x14ac:dyDescent="0.2">
       <c r="D595" t="s">
         <v>1267</v>
       </c>
@@ -51674,7 +51685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:51">
+    <row r="596" spans="3:51" x14ac:dyDescent="0.2">
       <c r="D596" t="s">
         <v>1269</v>
       </c>
@@ -51748,7 +51759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:51">
+    <row r="597" spans="3:51" x14ac:dyDescent="0.2">
       <c r="D597" t="s">
         <v>1271</v>
       </c>
@@ -51822,7 +51833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:51">
+    <row r="598" spans="3:51" x14ac:dyDescent="0.2">
       <c r="D598" t="s">
         <v>1273</v>
       </c>
@@ -51899,7 +51910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:51">
+    <row r="599" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C599">
         <v>1</v>
       </c>
@@ -51967,7 +51978,7 @@
         <v>1</v>
       </c>
       <c r="AR599">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AT599">
         <v>0</v>
@@ -51985,7 +51996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:51">
+    <row r="600" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C600">
         <v>1</v>
       </c>
@@ -52071,7 +52082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:51">
+    <row r="601" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C601">
         <v>1</v>
       </c>
@@ -52157,7 +52168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:51">
+    <row r="602" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C602">
         <v>1</v>
       </c>
@@ -52243,7 +52254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:51">
+    <row r="603" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C603">
         <v>1</v>
       </c>
@@ -52329,7 +52340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:51">
+    <row r="604" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C604">
         <v>1</v>
       </c>
@@ -52415,7 +52426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:51">
+    <row r="605" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C605">
         <v>1</v>
       </c>
@@ -52462,7 +52473,7 @@
         <v>0</v>
       </c>
       <c r="AI605">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AJ605">
         <v>0</v>
@@ -52501,7 +52512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:51">
+    <row r="606" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C606">
         <v>1</v>
       </c>
@@ -52584,7 +52595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:51">
+    <row r="607" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C607">
         <v>1</v>
       </c>
@@ -52670,7 +52681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:51">
+    <row r="608" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C608">
         <v>1</v>
       </c>
@@ -52756,7 +52767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:51">
+    <row r="609" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C609">
         <v>1</v>
       </c>
@@ -52803,7 +52814,7 @@
         <v>0</v>
       </c>
       <c r="AI609">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AJ609">
         <v>0</v>
@@ -52842,7 +52853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:51">
+    <row r="610" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C610">
         <v>1</v>
       </c>
@@ -52928,7 +52939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:51">
+    <row r="611" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C611">
         <v>1</v>
       </c>
@@ -53014,7 +53025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:51">
+    <row r="612" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C612">
         <v>1</v>
       </c>
@@ -53100,7 +53111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:51">
+    <row r="613" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C613">
         <v>1</v>
       </c>
@@ -53186,7 +53197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:51">
+    <row r="614" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C614">
         <v>1</v>
       </c>
@@ -53269,7 +53280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:51">
+    <row r="615" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C615">
         <v>1</v>
       </c>
@@ -53355,7 +53366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:51">
+    <row r="616" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C616">
         <v>1</v>
       </c>
@@ -53441,7 +53452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:51">
+    <row r="617" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C617">
         <v>1</v>
       </c>
@@ -53488,7 +53499,7 @@
         <v>0</v>
       </c>
       <c r="AI617">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AJ617">
         <v>0</v>
@@ -53527,7 +53538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:51">
+    <row r="618" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C618">
         <v>1</v>
       </c>
@@ -53613,7 +53624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:51">
+    <row r="619" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C619">
         <v>1</v>
       </c>
@@ -53699,7 +53710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:51">
+    <row r="620" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C620">
         <v>1</v>
       </c>
@@ -53785,7 +53796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:51">
+    <row r="621" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C621">
         <v>1</v>
       </c>
@@ -53871,7 +53882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:51">
+    <row r="622" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C622">
         <v>1</v>
       </c>
@@ -53955,17 +53966,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1333">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -3951,6 +3951,30 @@
   </si>
   <si>
     <t>Deaths Cloud</t>
+  </si>
+  <si>
+    <t>Quick Feet</t>
+  </si>
+  <si>
+    <t>Move across the land quickly child. The creatures are chasing you.</t>
+  </si>
+  <si>
+    <t>Shattered Shards</t>
+  </si>
+  <si>
+    <t>With this, all your training skills will increase by a % for a specific amount of time.</t>
+  </si>
+  <si>
+    <t>Golden Illusions</t>
+  </si>
+  <si>
+    <t>Create illusions out of gold dust child. These can make you seem stronger and more attuned then you might be.</t>
+  </si>
+  <si>
+    <t>Broken Mirror</t>
+  </si>
+  <si>
+    <t>Look into this broken mirror child. Do you see it? Do you feel it? The strength you need to survive.</t>
   </si>
   <si>
     <t>Bland Potion</t>
@@ -4328,7 +4352,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AY629"/>
+  <dimension ref="A1:AY633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5144,9 +5168,6 @@
       <c r="Y9">
         <v>1</v>
       </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
       <c r="AA9">
         <v>30</v>
       </c>
@@ -8086,9 +8107,6 @@
       <c r="Y46">
         <v>1</v>
       </c>
-      <c r="Z46">
-        <v>1</v>
-      </c>
       <c r="AA46">
         <v>30</v>
       </c>
@@ -10820,9 +10838,6 @@
       <c r="Y84">
         <v>1</v>
       </c>
-      <c r="Z84">
-        <v>1</v>
-      </c>
       <c r="AA84">
         <v>30</v>
       </c>
@@ -13475,9 +13490,6 @@
       <c r="Y120">
         <v>1</v>
       </c>
-      <c r="Z120">
-        <v>1</v>
-      </c>
       <c r="AA120">
         <v>28</v>
       </c>
@@ -14167,19 +14179,19 @@
         <v>30000</v>
       </c>
       <c r="Q128">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="R128">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="S128">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="T128">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="U128">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="V128">
         <v>0.35</v>
@@ -16853,9 +16865,6 @@
       <c r="Y159">
         <v>1</v>
       </c>
-      <c r="Z159">
-        <v>1</v>
-      </c>
       <c r="AA159">
         <v>28</v>
       </c>
@@ -19459,9 +19468,6 @@
       <c r="Y196">
         <v>1</v>
       </c>
-      <c r="Z196">
-        <v>1</v>
-      </c>
       <c r="AA196">
         <v>30</v>
       </c>
@@ -22571,8 +22577,44 @@
       <c r="AE240">
         <v>0.45</v>
       </c>
+      <c r="AF240">
+        <v>0</v>
+      </c>
+      <c r="AG240">
+        <v>0</v>
+      </c>
+      <c r="AH240">
+        <v>0</v>
+      </c>
+      <c r="AI240">
+        <v>0</v>
+      </c>
+      <c r="AJ240">
+        <v>0</v>
+      </c>
       <c r="AK240">
         <v>0.45</v>
+      </c>
+      <c r="AO240">
+        <v>0</v>
+      </c>
+      <c r="AR240">
+        <v>0</v>
+      </c>
+      <c r="AT240">
+        <v>0</v>
+      </c>
+      <c r="AU240">
+        <v>0</v>
+      </c>
+      <c r="AW240">
+        <v>0</v>
+      </c>
+      <c r="AX240">
+        <v>0</v>
+      </c>
+      <c r="AY240">
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:51">
@@ -22603,8 +22645,44 @@
       <c r="AE241">
         <v>0.45</v>
       </c>
+      <c r="AF241">
+        <v>0</v>
+      </c>
+      <c r="AG241">
+        <v>0</v>
+      </c>
+      <c r="AH241">
+        <v>0</v>
+      </c>
+      <c r="AI241">
+        <v>0</v>
+      </c>
+      <c r="AJ241">
+        <v>0</v>
+      </c>
       <c r="AK241">
         <v>0.45</v>
+      </c>
+      <c r="AO241">
+        <v>0</v>
+      </c>
+      <c r="AR241">
+        <v>0</v>
+      </c>
+      <c r="AT241">
+        <v>0</v>
+      </c>
+      <c r="AU241">
+        <v>0</v>
+      </c>
+      <c r="AW241">
+        <v>0</v>
+      </c>
+      <c r="AX241">
+        <v>0</v>
+      </c>
+      <c r="AY241">
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:51">
@@ -22632,6 +22710,42 @@
       <c r="X242" t="s">
         <v>551</v>
       </c>
+      <c r="AF242">
+        <v>0</v>
+      </c>
+      <c r="AG242">
+        <v>0</v>
+      </c>
+      <c r="AH242">
+        <v>0</v>
+      </c>
+      <c r="AI242">
+        <v>0</v>
+      </c>
+      <c r="AJ242">
+        <v>0</v>
+      </c>
+      <c r="AO242">
+        <v>0</v>
+      </c>
+      <c r="AR242">
+        <v>0</v>
+      </c>
+      <c r="AT242">
+        <v>0</v>
+      </c>
+      <c r="AU242">
+        <v>0</v>
+      </c>
+      <c r="AW242">
+        <v>0</v>
+      </c>
+      <c r="AX242">
+        <v>0</v>
+      </c>
+      <c r="AY242">
+        <v>0</v>
+      </c>
     </row>
     <row r="243" spans="1:51">
       <c r="D243" t="s">
@@ -23706,9 +23820,6 @@
       <c r="Y257">
         <v>1</v>
       </c>
-      <c r="Z257">
-        <v>1</v>
-      </c>
       <c r="AA257">
         <v>28</v>
       </c>
@@ -27062,9 +27173,6 @@
       <c r="Y294">
         <v>1</v>
       </c>
-      <c r="Z294">
-        <v>1</v>
-      </c>
       <c r="AA294">
         <v>28</v>
       </c>
@@ -30418,9 +30526,6 @@
       <c r="Y331">
         <v>1</v>
       </c>
-      <c r="Z331">
-        <v>1</v>
-      </c>
       <c r="AA331">
         <v>28</v>
       </c>
@@ -31911,19 +32016,19 @@
         <v>35930000</v>
       </c>
       <c r="Q348">
-        <v>0.62</v>
+        <v>0.49</v>
       </c>
       <c r="R348">
-        <v>0.62</v>
+        <v>0.49</v>
       </c>
       <c r="S348">
-        <v>0.62</v>
+        <v>0.49</v>
       </c>
       <c r="T348">
-        <v>0.62</v>
+        <v>0.49</v>
       </c>
       <c r="U348">
-        <v>0.62</v>
+        <v>0.49</v>
       </c>
       <c r="V348">
         <v>0.62</v>
@@ -33854,9 +33959,6 @@
       <c r="Y369">
         <v>1</v>
       </c>
-      <c r="Z369">
-        <v>1</v>
-      </c>
       <c r="AA369">
         <v>28</v>
       </c>
@@ -37138,9 +37240,6 @@
       <c r="Y406">
         <v>1</v>
       </c>
-      <c r="Z406">
-        <v>1</v>
-      </c>
       <c r="AA406">
         <v>30</v>
       </c>
@@ -40056,9 +40155,6 @@
       <c r="Y443">
         <v>1</v>
       </c>
-      <c r="Z443">
-        <v>1</v>
-      </c>
       <c r="AA443">
         <v>28</v>
       </c>
@@ -43322,9 +43418,6 @@
       <c r="Y480">
         <v>1</v>
       </c>
-      <c r="Z480">
-        <v>1</v>
-      </c>
       <c r="AA480">
         <v>3</v>
       </c>
@@ -43399,9 +43492,6 @@
       <c r="Y481">
         <v>1</v>
       </c>
-      <c r="Z481">
-        <v>1</v>
-      </c>
       <c r="AA481">
         <v>3</v>
       </c>
@@ -43470,9 +43560,6 @@
       <c r="Y482">
         <v>1</v>
       </c>
-      <c r="Z482">
-        <v>1</v>
-      </c>
       <c r="AA482">
         <v>3</v>
       </c>
@@ -43541,9 +43628,6 @@
       <c r="Y483">
         <v>1</v>
       </c>
-      <c r="Z483">
-        <v>1</v>
-      </c>
       <c r="AA483">
         <v>3</v>
       </c>
@@ -43612,9 +43696,6 @@
       <c r="Y484">
         <v>1</v>
       </c>
-      <c r="Z484">
-        <v>1</v>
-      </c>
       <c r="AA484">
         <v>3</v>
       </c>
@@ -43683,9 +43764,6 @@
       <c r="Y485">
         <v>1</v>
       </c>
-      <c r="Z485">
-        <v>1</v>
-      </c>
       <c r="AA485">
         <v>3</v>
       </c>
@@ -43754,9 +43832,6 @@
       <c r="Y486">
         <v>1</v>
       </c>
-      <c r="Z486">
-        <v>1</v>
-      </c>
       <c r="AA486">
         <v>3</v>
       </c>
@@ -53899,40 +53974,31 @@
         <v>0</v>
       </c>
       <c r="L620">
-        <v>200</v>
+        <v>3500</v>
       </c>
       <c r="M620">
-        <v>8</v>
+        <v>120</v>
+      </c>
+      <c r="V620">
+        <v>0</v>
+      </c>
+      <c r="W620">
+        <v>0</v>
       </c>
       <c r="Y620">
         <v>1</v>
       </c>
-      <c r="Z620">
-        <v>1</v>
-      </c>
       <c r="AA620">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="AB620">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="AC620" t="s">
         <v>1290</v>
       </c>
-      <c r="AF620">
-        <v>0</v>
-      </c>
-      <c r="AG620">
-        <v>0</v>
-      </c>
-      <c r="AH620">
-        <v>0</v>
-      </c>
-      <c r="AI620">
-        <v>0</v>
-      </c>
       <c r="AJ620">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AL620">
         <v>1</v>
@@ -53940,31 +54006,16 @@
       <c r="AM620">
         <v>1</v>
       </c>
-      <c r="AO620">
-        <v>0</v>
-      </c>
       <c r="AP620">
-        <v>10</v>
-      </c>
-      <c r="AQ620">
-        <v>1</v>
-      </c>
-      <c r="AR620">
-        <v>0.008</v>
+        <v>22</v>
+      </c>
+      <c r="AS620">
+        <v>6</v>
       </c>
       <c r="AT620">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AU620">
-        <v>0</v>
-      </c>
-      <c r="AW620">
-        <v>0</v>
-      </c>
-      <c r="AX620">
-        <v>0</v>
-      </c>
-      <c r="AY620">
         <v>0</v>
       </c>
     </row>
@@ -53985,40 +54036,43 @@
         <v>0</v>
       </c>
       <c r="L621">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="M621">
-        <v>12</v>
+        <v>150</v>
+      </c>
+      <c r="V621">
+        <v>0</v>
+      </c>
+      <c r="W621">
+        <v>0</v>
       </c>
       <c r="Y621">
         <v>1</v>
       </c>
-      <c r="Z621">
-        <v>1</v>
-      </c>
       <c r="AA621">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="AB621">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="AC621" t="s">
         <v>1290</v>
       </c>
       <c r="AF621">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG621">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AH621">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AI621">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AJ621">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AL621">
         <v>1</v>
@@ -54026,32 +54080,17 @@
       <c r="AM621">
         <v>1</v>
       </c>
-      <c r="AO621">
-        <v>0</v>
-      </c>
       <c r="AP621">
-        <v>10</v>
-      </c>
-      <c r="AR621">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AS621">
         <v>0</v>
       </c>
       <c r="AT621">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="AU621">
-        <v>0.05</v>
-      </c>
-      <c r="AW621">
-        <v>0</v>
-      </c>
-      <c r="AX621">
-        <v>0</v>
-      </c>
-      <c r="AY621">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="622" spans="1:51">
@@ -54065,79 +54104,58 @@
         <v>1290</v>
       </c>
       <c r="F622" t="s">
-        <v>1295</v>
+        <v>1317</v>
       </c>
       <c r="K622">
         <v>0</v>
       </c>
       <c r="L622">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="M622">
-        <v>12</v>
+        <v>200</v>
+      </c>
+      <c r="V622">
+        <v>0</v>
+      </c>
+      <c r="W622">
+        <v>0</v>
       </c>
       <c r="Y622">
         <v>1</v>
       </c>
-      <c r="Z622">
-        <v>1</v>
-      </c>
       <c r="AA622">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="AB622">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="AC622" t="s">
         <v>1290</v>
       </c>
-      <c r="AF622">
-        <v>0</v>
-      </c>
-      <c r="AG622">
-        <v>0</v>
-      </c>
-      <c r="AH622">
-        <v>0</v>
-      </c>
-      <c r="AI622">
-        <v>0</v>
-      </c>
-      <c r="AJ622">
-        <v>0</v>
-      </c>
       <c r="AL622">
         <v>1</v>
       </c>
       <c r="AM622">
         <v>1</v>
       </c>
-      <c r="AO622">
-        <v>0</v>
-      </c>
       <c r="AP622">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="AQ622">
+        <v>1</v>
       </c>
       <c r="AR622">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AS622">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT622">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="AU622">
-        <v>0.05</v>
-      </c>
-      <c r="AW622">
-        <v>0</v>
-      </c>
-      <c r="AX622">
-        <v>0</v>
-      </c>
-      <c r="AY622">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="623" spans="1:51">
@@ -54145,52 +54163,55 @@
         <v>1</v>
       </c>
       <c r="D623" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="E623" t="s">
         <v>1290</v>
       </c>
       <c r="F623" t="s">
-        <v>1297</v>
+        <v>1319</v>
       </c>
       <c r="K623">
         <v>0</v>
       </c>
       <c r="L623">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="M623">
-        <v>12</v>
+        <v>300</v>
+      </c>
+      <c r="V623">
+        <v>0</v>
+      </c>
+      <c r="W623">
+        <v>0</v>
       </c>
       <c r="Y623">
         <v>1</v>
       </c>
-      <c r="Z623">
-        <v>1</v>
-      </c>
       <c r="AA623">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AB623">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="AC623" t="s">
         <v>1290</v>
       </c>
       <c r="AF623">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG623">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH623">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI623">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ623">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL623">
         <v>1</v>
@@ -54198,31 +54219,22 @@
       <c r="AM623">
         <v>1</v>
       </c>
-      <c r="AO623">
-        <v>0</v>
-      </c>
       <c r="AP623">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="AQ623">
+        <v>1</v>
       </c>
       <c r="AR623">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AS623">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT623">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AU623">
-        <v>0.05</v>
-      </c>
-      <c r="AW623">
-        <v>0</v>
-      </c>
-      <c r="AX623">
-        <v>0</v>
-      </c>
-      <c r="AY623">
         <v>0</v>
       </c>
     </row>
@@ -54231,22 +54243,22 @@
         <v>1</v>
       </c>
       <c r="D624" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="E624" t="s">
         <v>1290</v>
       </c>
       <c r="F624" t="s">
-        <v>1299</v>
+        <v>1321</v>
       </c>
       <c r="K624">
         <v>0</v>
       </c>
       <c r="L624">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M624">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y624">
         <v>1</v>
@@ -54255,7 +54267,7 @@
         <v>1</v>
       </c>
       <c r="AA624">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB624">
         <v>10</v>
@@ -54290,17 +54302,17 @@
       <c r="AP624">
         <v>10</v>
       </c>
+      <c r="AQ624">
+        <v>1</v>
+      </c>
       <c r="AR624">
-        <v>0</v>
-      </c>
-      <c r="AS624">
-        <v>3</v>
+        <v>0.008</v>
       </c>
       <c r="AT624">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AU624">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AW624">
         <v>0</v>
@@ -54317,13 +54329,13 @@
         <v>1</v>
       </c>
       <c r="D625" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="E625" t="s">
         <v>1290</v>
       </c>
       <c r="F625" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="K625">
         <v>0</v>
@@ -54380,7 +54392,7 @@
         <v>0</v>
       </c>
       <c r="AS625">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT625">
         <v>0.05</v>
@@ -54403,13 +54415,13 @@
         <v>1</v>
       </c>
       <c r="D626" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="E626" t="s">
         <v>1290</v>
       </c>
       <c r="F626" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="K626">
         <v>0</v>
@@ -54445,7 +54457,7 @@
         <v>0</v>
       </c>
       <c r="AI626">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AJ626">
         <v>0</v>
@@ -54466,10 +54478,10 @@
         <v>0</v>
       </c>
       <c r="AS626">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AT626">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AU626">
         <v>0.05</v>
@@ -54489,22 +54501,22 @@
         <v>1</v>
       </c>
       <c r="D627" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="E627" t="s">
         <v>1290</v>
       </c>
       <c r="F627" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="K627">
         <v>0</v>
       </c>
       <c r="L627">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M627">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y627">
         <v>1</v>
@@ -54513,7 +54525,7 @@
         <v>1</v>
       </c>
       <c r="AA627">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB627">
         <v>10</v>
@@ -54542,20 +54554,23 @@
       <c r="AM627">
         <v>1</v>
       </c>
-      <c r="AN627">
-        <v>1</v>
-      </c>
       <c r="AO627">
+        <v>0</v>
+      </c>
+      <c r="AP627">
+        <v>10</v>
+      </c>
+      <c r="AR627">
+        <v>0</v>
+      </c>
+      <c r="AS627">
+        <v>2</v>
+      </c>
+      <c r="AT627">
         <v>0.05</v>
       </c>
-      <c r="AR627">
-        <v>0</v>
-      </c>
-      <c r="AT627">
-        <v>0</v>
-      </c>
       <c r="AU627">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW627">
         <v>0</v>
@@ -54572,22 +54587,22 @@
         <v>1</v>
       </c>
       <c r="D628" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="E628" t="s">
         <v>1290</v>
       </c>
       <c r="F628" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="K628">
         <v>0</v>
       </c>
       <c r="L628">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M628">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Y628">
         <v>1</v>
@@ -54596,7 +54611,7 @@
         <v>1</v>
       </c>
       <c r="AA628">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB628">
         <v>10</v>
@@ -54629,19 +54644,19 @@
         <v>0</v>
       </c>
       <c r="AP628">
-        <v>15</v>
-      </c>
-      <c r="AQ628">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AR628">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="AS628">
+        <v>3</v>
       </c>
       <c r="AT628">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AU628">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW628">
         <v>0</v>
@@ -54658,22 +54673,22 @@
         <v>1</v>
       </c>
       <c r="D629" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="E629" t="s">
         <v>1290</v>
       </c>
       <c r="F629" t="s">
-        <v>1305</v>
+        <v>1328</v>
       </c>
       <c r="K629">
         <v>0</v>
       </c>
       <c r="L629">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="M629">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Y629">
         <v>1</v>
@@ -54682,7 +54697,7 @@
         <v>1</v>
       </c>
       <c r="AA629">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AB629">
         <v>10</v>
@@ -54715,7 +54730,7 @@
         <v>0</v>
       </c>
       <c r="AP629">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AR629">
         <v>0</v>
@@ -54724,18 +54739,359 @@
         <v>4</v>
       </c>
       <c r="AT629">
+        <v>0.05</v>
+      </c>
+      <c r="AU629">
+        <v>0.05</v>
+      </c>
+      <c r="AW629">
+        <v>0</v>
+      </c>
+      <c r="AX629">
+        <v>0</v>
+      </c>
+      <c r="AY629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:51">
+      <c r="C630">
+        <v>1</v>
+      </c>
+      <c r="D630" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E630" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F630" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K630">
+        <v>0</v>
+      </c>
+      <c r="L630">
+        <v>500</v>
+      </c>
+      <c r="M630">
+        <v>12</v>
+      </c>
+      <c r="Y630">
+        <v>1</v>
+      </c>
+      <c r="Z630">
+        <v>1</v>
+      </c>
+      <c r="AA630">
+        <v>3</v>
+      </c>
+      <c r="AB630">
+        <v>10</v>
+      </c>
+      <c r="AC630" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AF630">
+        <v>0</v>
+      </c>
+      <c r="AG630">
+        <v>0</v>
+      </c>
+      <c r="AH630">
+        <v>0</v>
+      </c>
+      <c r="AI630">
+        <v>0.005</v>
+      </c>
+      <c r="AJ630">
+        <v>0</v>
+      </c>
+      <c r="AL630">
+        <v>1</v>
+      </c>
+      <c r="AM630">
+        <v>1</v>
+      </c>
+      <c r="AO630">
+        <v>0</v>
+      </c>
+      <c r="AP630">
+        <v>10</v>
+      </c>
+      <c r="AR630">
+        <v>0</v>
+      </c>
+      <c r="AS630">
+        <v>5</v>
+      </c>
+      <c r="AT630">
+        <v>0</v>
+      </c>
+      <c r="AU630">
+        <v>0.05</v>
+      </c>
+      <c r="AW630">
+        <v>0</v>
+      </c>
+      <c r="AX630">
+        <v>0</v>
+      </c>
+      <c r="AY630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:51">
+      <c r="C631">
+        <v>1</v>
+      </c>
+      <c r="D631" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E631" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F631" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K631">
+        <v>0</v>
+      </c>
+      <c r="L631">
+        <v>700</v>
+      </c>
+      <c r="M631">
+        <v>16</v>
+      </c>
+      <c r="Y631">
+        <v>1</v>
+      </c>
+      <c r="Z631">
+        <v>1</v>
+      </c>
+      <c r="AA631">
+        <v>5</v>
+      </c>
+      <c r="AB631">
+        <v>10</v>
+      </c>
+      <c r="AC631" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AF631">
+        <v>0</v>
+      </c>
+      <c r="AG631">
+        <v>0</v>
+      </c>
+      <c r="AH631">
+        <v>0</v>
+      </c>
+      <c r="AI631">
+        <v>0</v>
+      </c>
+      <c r="AJ631">
+        <v>0</v>
+      </c>
+      <c r="AL631">
+        <v>1</v>
+      </c>
+      <c r="AM631">
+        <v>1</v>
+      </c>
+      <c r="AN631">
+        <v>1</v>
+      </c>
+      <c r="AO631">
+        <v>0.05</v>
+      </c>
+      <c r="AR631">
+        <v>0</v>
+      </c>
+      <c r="AT631">
+        <v>0</v>
+      </c>
+      <c r="AU631">
+        <v>0</v>
+      </c>
+      <c r="AW631">
+        <v>0</v>
+      </c>
+      <c r="AX631">
+        <v>0</v>
+      </c>
+      <c r="AY631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:51">
+      <c r="C632">
+        <v>1</v>
+      </c>
+      <c r="D632" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E632" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F632" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K632">
+        <v>0</v>
+      </c>
+      <c r="L632">
+        <v>1000</v>
+      </c>
+      <c r="M632">
+        <v>20</v>
+      </c>
+      <c r="Y632">
+        <v>1</v>
+      </c>
+      <c r="Z632">
+        <v>1</v>
+      </c>
+      <c r="AA632">
+        <v>8</v>
+      </c>
+      <c r="AB632">
+        <v>10</v>
+      </c>
+      <c r="AC632" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AF632">
+        <v>0</v>
+      </c>
+      <c r="AG632">
+        <v>0</v>
+      </c>
+      <c r="AH632">
+        <v>0</v>
+      </c>
+      <c r="AI632">
+        <v>0</v>
+      </c>
+      <c r="AJ632">
+        <v>0</v>
+      </c>
+      <c r="AL632">
+        <v>1</v>
+      </c>
+      <c r="AM632">
+        <v>1</v>
+      </c>
+      <c r="AO632">
+        <v>0</v>
+      </c>
+      <c r="AP632">
+        <v>15</v>
+      </c>
+      <c r="AQ632">
+        <v>1</v>
+      </c>
+      <c r="AR632">
+        <v>0.01</v>
+      </c>
+      <c r="AT632">
+        <v>0</v>
+      </c>
+      <c r="AU632">
+        <v>0</v>
+      </c>
+      <c r="AW632">
+        <v>0</v>
+      </c>
+      <c r="AX632">
+        <v>0</v>
+      </c>
+      <c r="AY632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:51">
+      <c r="C633">
+        <v>1</v>
+      </c>
+      <c r="D633" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E633" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F633" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K633">
+        <v>0</v>
+      </c>
+      <c r="L633">
+        <v>2500</v>
+      </c>
+      <c r="M633">
+        <v>24</v>
+      </c>
+      <c r="Y633">
+        <v>1</v>
+      </c>
+      <c r="Z633">
+        <v>1</v>
+      </c>
+      <c r="AA633">
+        <v>10</v>
+      </c>
+      <c r="AB633">
+        <v>10</v>
+      </c>
+      <c r="AC633" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AF633">
+        <v>0</v>
+      </c>
+      <c r="AG633">
+        <v>0</v>
+      </c>
+      <c r="AH633">
+        <v>0</v>
+      </c>
+      <c r="AI633">
+        <v>0</v>
+      </c>
+      <c r="AJ633">
+        <v>0</v>
+      </c>
+      <c r="AL633">
+        <v>1</v>
+      </c>
+      <c r="AM633">
+        <v>1</v>
+      </c>
+      <c r="AO633">
+        <v>0</v>
+      </c>
+      <c r="AP633">
+        <v>15</v>
+      </c>
+      <c r="AR633">
+        <v>0</v>
+      </c>
+      <c r="AS633">
+        <v>4</v>
+      </c>
+      <c r="AT633">
         <v>0.08</v>
       </c>
-      <c r="AU629">
+      <c r="AU633">
         <v>0.08</v>
       </c>
-      <c r="AW629">
-        <v>0</v>
-      </c>
-      <c r="AX629">
-        <v>0</v>
-      </c>
-      <c r="AY629">
+      <c r="AW633">
+        <v>0</v>
+      </c>
+      <c r="AX633">
+        <v>0</v>
+      </c>
+      <c r="AY633">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C84CEFC-4498-DA4C-AE95-E5372CF18987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId4"/>
+    <sheet name="Items" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="1343">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -4049,14 +4065,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -4067,28 +4078,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4378,76 +4398,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC636"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:U38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="307" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="28" max="28" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="36" max="36" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="37" max="37" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="38" max="38" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="40" max="40" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="41" max="41" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="42" max="42" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="43" max="43" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="44" max="44" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="45" max="45" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="46" max="46" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="47" max="47" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="48" max="48" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="49" max="49" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="50" max="50" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="51" max="51" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="52" max="52" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="53" max="53" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="54" max="54" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="55" max="55" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="307" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="28" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="38" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="26" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4614,7 +4625,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>55</v>
       </c>
@@ -4694,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>58</v>
       </c>
@@ -4710,21 +4721,6 @@
       <c r="K3">
         <v>25</v>
       </c>
-      <c r="Q3">
-        <v>0.05</v>
-      </c>
-      <c r="R3">
-        <v>0.05</v>
-      </c>
-      <c r="S3">
-        <v>0.05</v>
-      </c>
-      <c r="T3">
-        <v>0.05</v>
-      </c>
-      <c r="U3">
-        <v>0.05</v>
-      </c>
       <c r="Y3">
         <v>1</v>
       </c>
@@ -4789,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>60</v>
       </c>
@@ -4805,21 +4801,6 @@
       <c r="K4">
         <v>75</v>
       </c>
-      <c r="Q4">
-        <v>0.08</v>
-      </c>
-      <c r="R4">
-        <v>0.08</v>
-      </c>
-      <c r="S4">
-        <v>0.08</v>
-      </c>
-      <c r="T4">
-        <v>0.08</v>
-      </c>
-      <c r="U4">
-        <v>0.08</v>
-      </c>
       <c r="Y4">
         <v>1</v>
       </c>
@@ -4884,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>62</v>
       </c>
@@ -4900,21 +4881,6 @@
       <c r="K5">
         <v>150</v>
       </c>
-      <c r="Q5">
-        <v>0.16</v>
-      </c>
-      <c r="R5">
-        <v>0.16</v>
-      </c>
-      <c r="S5">
-        <v>0.16</v>
-      </c>
-      <c r="T5">
-        <v>0.16</v>
-      </c>
-      <c r="U5">
-        <v>0.16</v>
-      </c>
       <c r="Y5">
         <v>1</v>
       </c>
@@ -4979,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>64</v>
       </c>
@@ -4995,21 +4961,6 @@
       <c r="K6">
         <v>250</v>
       </c>
-      <c r="Q6">
-        <v>0.18</v>
-      </c>
-      <c r="R6">
-        <v>0.18</v>
-      </c>
-      <c r="S6">
-        <v>0.18</v>
-      </c>
-      <c r="T6">
-        <v>0.18</v>
-      </c>
-      <c r="U6">
-        <v>0.18</v>
-      </c>
       <c r="Y6">
         <v>1</v>
       </c>
@@ -5074,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>66</v>
       </c>
@@ -5090,21 +5041,6 @@
       <c r="K7">
         <v>500</v>
       </c>
-      <c r="Q7">
-        <v>0.19</v>
-      </c>
-      <c r="R7">
-        <v>0.19</v>
-      </c>
-      <c r="S7">
-        <v>0.19</v>
-      </c>
-      <c r="T7">
-        <v>0.19</v>
-      </c>
-      <c r="U7">
-        <v>0.19</v>
-      </c>
       <c r="Y7">
         <v>1</v>
       </c>
@@ -5169,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>68</v>
       </c>
@@ -5185,21 +5121,6 @@
       <c r="K8">
         <v>750</v>
       </c>
-      <c r="Q8">
-        <v>0.2</v>
-      </c>
-      <c r="R8">
-        <v>0.2</v>
-      </c>
-      <c r="S8">
-        <v>0.2</v>
-      </c>
-      <c r="T8">
-        <v>0.2</v>
-      </c>
-      <c r="U8">
-        <v>0.2</v>
-      </c>
       <c r="Y8">
         <v>1</v>
       </c>
@@ -5264,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>70</v>
       </c>
@@ -5280,21 +5201,6 @@
       <c r="K9">
         <v>1000</v>
       </c>
-      <c r="Q9">
-        <v>0.22</v>
-      </c>
-      <c r="R9">
-        <v>0.22</v>
-      </c>
-      <c r="S9">
-        <v>0.22</v>
-      </c>
-      <c r="T9">
-        <v>0.22</v>
-      </c>
-      <c r="U9">
-        <v>0.22</v>
-      </c>
       <c r="Y9">
         <v>1</v>
       </c>
@@ -5356,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>72</v>
       </c>
@@ -5372,21 +5278,6 @@
       <c r="K10">
         <v>1500</v>
       </c>
-      <c r="Q10">
-        <v>0.25</v>
-      </c>
-      <c r="R10">
-        <v>0.25</v>
-      </c>
-      <c r="S10">
-        <v>0.25</v>
-      </c>
-      <c r="T10">
-        <v>0.25</v>
-      </c>
-      <c r="U10">
-        <v>0.25</v>
-      </c>
       <c r="Y10">
         <v>1</v>
       </c>
@@ -5448,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>74</v>
       </c>
@@ -5464,21 +5355,6 @@
       <c r="K11">
         <v>3000</v>
       </c>
-      <c r="Q11">
-        <v>0.27</v>
-      </c>
-      <c r="R11">
-        <v>0.27</v>
-      </c>
-      <c r="S11">
-        <v>0.27</v>
-      </c>
-      <c r="T11">
-        <v>0.27</v>
-      </c>
-      <c r="U11">
-        <v>0.27</v>
-      </c>
       <c r="Y11">
         <v>1</v>
       </c>
@@ -5540,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>76</v>
       </c>
@@ -5556,21 +5432,6 @@
       <c r="K12">
         <v>5000</v>
       </c>
-      <c r="Q12">
-        <v>0.27</v>
-      </c>
-      <c r="R12">
-        <v>0.27</v>
-      </c>
-      <c r="S12">
-        <v>0.27</v>
-      </c>
-      <c r="T12">
-        <v>0.27</v>
-      </c>
-      <c r="U12">
-        <v>0.27</v>
-      </c>
       <c r="Y12">
         <v>1</v>
       </c>
@@ -5632,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>78</v>
       </c>
@@ -5648,21 +5509,6 @@
       <c r="K13">
         <v>7000</v>
       </c>
-      <c r="Q13">
-        <v>0.29</v>
-      </c>
-      <c r="R13">
-        <v>0.29</v>
-      </c>
-      <c r="S13">
-        <v>0.29</v>
-      </c>
-      <c r="T13">
-        <v>0.29</v>
-      </c>
-      <c r="U13">
-        <v>0.29</v>
-      </c>
       <c r="Y13">
         <v>1</v>
       </c>
@@ -5724,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>80</v>
       </c>
@@ -5740,21 +5586,6 @@
       <c r="K14">
         <v>10000</v>
       </c>
-      <c r="Q14">
-        <v>0.3</v>
-      </c>
-      <c r="R14">
-        <v>0.3</v>
-      </c>
-      <c r="S14">
-        <v>0.3</v>
-      </c>
-      <c r="T14">
-        <v>0.3</v>
-      </c>
-      <c r="U14">
-        <v>0.3</v>
-      </c>
       <c r="Y14">
         <v>1</v>
       </c>
@@ -5816,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>82</v>
       </c>
@@ -5832,21 +5663,6 @@
       <c r="K15">
         <v>15000</v>
       </c>
-      <c r="Q15">
-        <v>0.35</v>
-      </c>
-      <c r="R15">
-        <v>0.35</v>
-      </c>
-      <c r="S15">
-        <v>0.35</v>
-      </c>
-      <c r="T15">
-        <v>0.35</v>
-      </c>
-      <c r="U15">
-        <v>0.35</v>
-      </c>
       <c r="Y15">
         <v>1</v>
       </c>
@@ -5908,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>84</v>
       </c>
@@ -5924,21 +5740,6 @@
       <c r="K16">
         <v>30000</v>
       </c>
-      <c r="Q16">
-        <v>0.37</v>
-      </c>
-      <c r="R16">
-        <v>0.37</v>
-      </c>
-      <c r="S16">
-        <v>0.37</v>
-      </c>
-      <c r="T16">
-        <v>0.37</v>
-      </c>
-      <c r="U16">
-        <v>0.37</v>
-      </c>
       <c r="Y16">
         <v>1</v>
       </c>
@@ -6000,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:55">
+    <row r="17" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>86</v>
       </c>
@@ -6016,21 +5817,6 @@
       <c r="K17">
         <v>60000</v>
       </c>
-      <c r="Q17">
-        <v>0.38</v>
-      </c>
-      <c r="R17">
-        <v>0.38</v>
-      </c>
-      <c r="S17">
-        <v>0.38</v>
-      </c>
-      <c r="T17">
-        <v>0.38</v>
-      </c>
-      <c r="U17">
-        <v>0.38</v>
-      </c>
       <c r="Y17">
         <v>1</v>
       </c>
@@ -6092,7 +5878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:55">
+    <row r="18" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>88</v>
       </c>
@@ -6108,21 +5894,6 @@
       <c r="K18">
         <v>120000</v>
       </c>
-      <c r="Q18">
-        <v>0.38</v>
-      </c>
-      <c r="R18">
-        <v>0.38</v>
-      </c>
-      <c r="S18">
-        <v>0.38</v>
-      </c>
-      <c r="T18">
-        <v>0.38</v>
-      </c>
-      <c r="U18">
-        <v>0.38</v>
-      </c>
       <c r="Y18">
         <v>1</v>
       </c>
@@ -6184,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:55">
+    <row r="19" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>90</v>
       </c>
@@ -6200,21 +5971,6 @@
       <c r="K19">
         <v>180000</v>
       </c>
-      <c r="Q19">
-        <v>0.42</v>
-      </c>
-      <c r="R19">
-        <v>0.42</v>
-      </c>
-      <c r="S19">
-        <v>0.42</v>
-      </c>
-      <c r="T19">
-        <v>0.42</v>
-      </c>
-      <c r="U19">
-        <v>0.42</v>
-      </c>
       <c r="Y19">
         <v>1</v>
       </c>
@@ -6276,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:55">
+    <row r="20" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>92</v>
       </c>
@@ -6292,21 +6048,6 @@
       <c r="K20">
         <v>240000</v>
       </c>
-      <c r="Q20">
-        <v>0.45</v>
-      </c>
-      <c r="R20">
-        <v>0.45</v>
-      </c>
-      <c r="S20">
-        <v>0.45</v>
-      </c>
-      <c r="T20">
-        <v>0.45</v>
-      </c>
-      <c r="U20">
-        <v>0.45</v>
-      </c>
       <c r="Y20">
         <v>1</v>
       </c>
@@ -6368,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:55">
+    <row r="21" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>94</v>
       </c>
@@ -6384,21 +6125,6 @@
       <c r="K21">
         <v>260000</v>
       </c>
-      <c r="Q21">
-        <v>0.48</v>
-      </c>
-      <c r="R21">
-        <v>0.48</v>
-      </c>
-      <c r="S21">
-        <v>0.48</v>
-      </c>
-      <c r="T21">
-        <v>0.48</v>
-      </c>
-      <c r="U21">
-        <v>0.48</v>
-      </c>
       <c r="Y21">
         <v>1</v>
       </c>
@@ -6460,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:55">
+    <row r="22" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>96</v>
       </c>
@@ -6476,21 +6202,6 @@
       <c r="K22">
         <v>350000</v>
       </c>
-      <c r="Q22">
-        <v>0.5</v>
-      </c>
-      <c r="R22">
-        <v>0.5</v>
-      </c>
-      <c r="S22">
-        <v>0.5</v>
-      </c>
-      <c r="T22">
-        <v>0.5</v>
-      </c>
-      <c r="U22">
-        <v>0.5</v>
-      </c>
       <c r="Y22">
         <v>1</v>
       </c>
@@ -6552,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:55">
+    <row r="23" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>98</v>
       </c>
@@ -6568,21 +6279,6 @@
       <c r="K23">
         <v>500000</v>
       </c>
-      <c r="Q23">
-        <v>0.53</v>
-      </c>
-      <c r="R23">
-        <v>0.53</v>
-      </c>
-      <c r="S23">
-        <v>0.53</v>
-      </c>
-      <c r="T23">
-        <v>0.53</v>
-      </c>
-      <c r="U23">
-        <v>0.53</v>
-      </c>
       <c r="Y23">
         <v>1</v>
       </c>
@@ -6644,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:55">
+    <row r="24" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>100</v>
       </c>
@@ -6660,21 +6356,6 @@
       <c r="K24">
         <v>1000000</v>
       </c>
-      <c r="Q24">
-        <v>0.58</v>
-      </c>
-      <c r="R24">
-        <v>0.58</v>
-      </c>
-      <c r="S24">
-        <v>0.58</v>
-      </c>
-      <c r="T24">
-        <v>0.58</v>
-      </c>
-      <c r="U24">
-        <v>0.58</v>
-      </c>
       <c r="Y24">
         <v>1</v>
       </c>
@@ -6736,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:55">
+    <row r="25" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>102</v>
       </c>
@@ -6752,21 +6433,6 @@
       <c r="K25">
         <v>10000000</v>
       </c>
-      <c r="Q25">
-        <v>0.58</v>
-      </c>
-      <c r="R25">
-        <v>0.58</v>
-      </c>
-      <c r="S25">
-        <v>0.58</v>
-      </c>
-      <c r="T25">
-        <v>0.58</v>
-      </c>
-      <c r="U25">
-        <v>0.58</v>
-      </c>
       <c r="Y25">
         <v>1</v>
       </c>
@@ -6828,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:55">
+    <row r="26" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>104</v>
       </c>
@@ -6844,21 +6510,6 @@
       <c r="K26">
         <v>25000000</v>
       </c>
-      <c r="Q26">
-        <v>0.62</v>
-      </c>
-      <c r="R26">
-        <v>0.62</v>
-      </c>
-      <c r="S26">
-        <v>0.62</v>
-      </c>
-      <c r="T26">
-        <v>0.62</v>
-      </c>
-      <c r="U26">
-        <v>0.62</v>
-      </c>
       <c r="Y26">
         <v>1</v>
       </c>
@@ -6920,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:55">
+    <row r="27" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>106</v>
       </c>
@@ -6936,21 +6587,6 @@
       <c r="K27">
         <v>40000000</v>
       </c>
-      <c r="Q27">
-        <v>0.65</v>
-      </c>
-      <c r="R27">
-        <v>0.65</v>
-      </c>
-      <c r="S27">
-        <v>0.65</v>
-      </c>
-      <c r="T27">
-        <v>0.65</v>
-      </c>
-      <c r="U27">
-        <v>0.65</v>
-      </c>
       <c r="Y27">
         <v>1</v>
       </c>
@@ -7012,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:55">
+    <row r="28" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>108</v>
       </c>
@@ -7028,21 +6664,6 @@
       <c r="K28">
         <v>65000000</v>
       </c>
-      <c r="Q28">
-        <v>0.68</v>
-      </c>
-      <c r="R28">
-        <v>0.68</v>
-      </c>
-      <c r="S28">
-        <v>0.68</v>
-      </c>
-      <c r="T28">
-        <v>0.68</v>
-      </c>
-      <c r="U28">
-        <v>0.68</v>
-      </c>
       <c r="Y28">
         <v>1</v>
       </c>
@@ -7104,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:55">
+    <row r="29" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>110</v>
       </c>
@@ -7120,21 +6741,6 @@
       <c r="K29">
         <v>100000000</v>
       </c>
-      <c r="Q29">
-        <v>0.73</v>
-      </c>
-      <c r="R29">
-        <v>0.73</v>
-      </c>
-      <c r="S29">
-        <v>0.73</v>
-      </c>
-      <c r="T29">
-        <v>0.73</v>
-      </c>
-      <c r="U29">
-        <v>0.73</v>
-      </c>
       <c r="Y29">
         <v>1</v>
       </c>
@@ -7196,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:55">
+    <row r="30" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>112</v>
       </c>
@@ -7212,21 +6818,6 @@
       <c r="K30">
         <v>160000000</v>
       </c>
-      <c r="Q30">
-        <v>0.75</v>
-      </c>
-      <c r="R30">
-        <v>0.75</v>
-      </c>
-      <c r="S30">
-        <v>0.75</v>
-      </c>
-      <c r="T30">
-        <v>0.75</v>
-      </c>
-      <c r="U30">
-        <v>0.75</v>
-      </c>
       <c r="Y30">
         <v>1</v>
       </c>
@@ -7288,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:55">
+    <row r="31" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>114</v>
       </c>
@@ -7304,21 +6895,6 @@
       <c r="K31">
         <v>250000000</v>
       </c>
-      <c r="Q31">
-        <v>0.8</v>
-      </c>
-      <c r="R31">
-        <v>0.8</v>
-      </c>
-      <c r="S31">
-        <v>0.8</v>
-      </c>
-      <c r="T31">
-        <v>0.8</v>
-      </c>
-      <c r="U31">
-        <v>0.8</v>
-      </c>
       <c r="Y31">
         <v>1</v>
       </c>
@@ -7380,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:55">
+    <row r="32" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>116</v>
       </c>
@@ -7396,21 +6972,6 @@
       <c r="K32">
         <v>500000000</v>
       </c>
-      <c r="Q32">
-        <v>0.83</v>
-      </c>
-      <c r="R32">
-        <v>0.83</v>
-      </c>
-      <c r="S32">
-        <v>0.83</v>
-      </c>
-      <c r="T32">
-        <v>0.83</v>
-      </c>
-      <c r="U32">
-        <v>0.83</v>
-      </c>
       <c r="Y32">
         <v>1</v>
       </c>
@@ -7472,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:55">
+    <row r="33" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>118</v>
       </c>
@@ -7488,21 +7049,6 @@
       <c r="K33">
         <v>1000000000</v>
       </c>
-      <c r="Q33">
-        <v>0.86</v>
-      </c>
-      <c r="R33">
-        <v>0.86</v>
-      </c>
-      <c r="S33">
-        <v>0.86</v>
-      </c>
-      <c r="T33">
-        <v>0.86</v>
-      </c>
-      <c r="U33">
-        <v>0.86</v>
-      </c>
       <c r="Y33">
         <v>1</v>
       </c>
@@ -7564,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:55">
+    <row r="34" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>120</v>
       </c>
@@ -7580,21 +7126,6 @@
       <c r="K34">
         <v>2000000000</v>
       </c>
-      <c r="Q34">
-        <v>0.9</v>
-      </c>
-      <c r="R34">
-        <v>0.9</v>
-      </c>
-      <c r="S34">
-        <v>0.9</v>
-      </c>
-      <c r="T34">
-        <v>0.9</v>
-      </c>
-      <c r="U34">
-        <v>0.9</v>
-      </c>
       <c r="Y34">
         <v>1</v>
       </c>
@@ -7656,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:55">
+    <row r="35" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>122</v>
       </c>
@@ -7678,21 +7209,6 @@
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-      <c r="R35">
-        <v>1</v>
-      </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
-      <c r="T35">
-        <v>1</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
       <c r="Y35">
         <v>1</v>
       </c>
@@ -7757,7 +7273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:55">
+    <row r="36" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>124</v>
       </c>
@@ -7779,21 +7295,6 @@
       <c r="M36">
         <v>0</v>
       </c>
-      <c r="Q36">
-        <v>1.05</v>
-      </c>
-      <c r="R36">
-        <v>1.05</v>
-      </c>
-      <c r="S36">
-        <v>1.05</v>
-      </c>
-      <c r="T36">
-        <v>1.05</v>
-      </c>
-      <c r="U36">
-        <v>1.05</v>
-      </c>
       <c r="Y36">
         <v>1</v>
       </c>
@@ -7858,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:55">
+    <row r="37" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>126</v>
       </c>
@@ -7880,21 +7381,6 @@
       <c r="M37">
         <v>0</v>
       </c>
-      <c r="Q37">
-        <v>1.1</v>
-      </c>
-      <c r="R37">
-        <v>1.1</v>
-      </c>
-      <c r="S37">
-        <v>1.1</v>
-      </c>
-      <c r="T37">
-        <v>1.1</v>
-      </c>
-      <c r="U37">
-        <v>1.1</v>
-      </c>
       <c r="Y37">
         <v>1</v>
       </c>
@@ -7959,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:55">
+    <row r="38" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>128</v>
       </c>
@@ -7981,21 +7467,6 @@
       <c r="M38">
         <v>0</v>
       </c>
-      <c r="Q38">
-        <v>1.15</v>
-      </c>
-      <c r="R38">
-        <v>1.15</v>
-      </c>
-      <c r="S38">
-        <v>1.15</v>
-      </c>
-      <c r="T38">
-        <v>1.15</v>
-      </c>
-      <c r="U38">
-        <v>1.15</v>
-      </c>
       <c r="Y38">
         <v>1</v>
       </c>
@@ -8060,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:55">
+    <row r="39" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>130</v>
       </c>
@@ -8143,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:55">
+    <row r="40" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>134</v>
       </c>
@@ -8208,7 +7679,7 @@
         <v>1</v>
       </c>
       <c r="AW40">
-        <v>0.0007</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="AX40">
         <v>0</v>
@@ -8229,7 +7700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:55">
+    <row r="41" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>136</v>
       </c>
@@ -8294,7 +7765,7 @@
         <v>1</v>
       </c>
       <c r="AW41">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AX41">
         <v>0</v>
@@ -8315,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:55">
+    <row r="42" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>138</v>
       </c>
@@ -8380,7 +7851,7 @@
         <v>1</v>
       </c>
       <c r="AW42">
-        <v>0.0009</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="AX42">
         <v>0</v>
@@ -8401,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:55">
+    <row r="43" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>140</v>
       </c>
@@ -8466,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="AW43">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AX43">
         <v>0</v>
@@ -8487,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:55">
+    <row r="44" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>142</v>
       </c>
@@ -8552,7 +8023,7 @@
         <v>1</v>
       </c>
       <c r="AW44">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AX44">
         <v>0</v>
@@ -8573,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:55">
+    <row r="45" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>144</v>
       </c>
@@ -8638,7 +8109,7 @@
         <v>1</v>
       </c>
       <c r="AW45">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AX45">
         <v>0</v>
@@ -8659,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:55">
+    <row r="46" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>146</v>
       </c>
@@ -8721,7 +8192,7 @@
         <v>1</v>
       </c>
       <c r="AW46">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AX46">
         <v>0</v>
@@ -8742,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:55">
+    <row r="47" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>148</v>
       </c>
@@ -8804,7 +8275,7 @@
         <v>1</v>
       </c>
       <c r="AW47">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AX47">
         <v>0</v>
@@ -8825,7 +8296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:55">
+    <row r="48" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>150</v>
       </c>
@@ -8887,7 +8358,7 @@
         <v>1</v>
       </c>
       <c r="AW48">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AX48">
         <v>0</v>
@@ -8908,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:55">
+    <row r="49" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>152</v>
       </c>
@@ -8925,7 +8396,7 @@
         <v>5000</v>
       </c>
       <c r="W49">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Y49">
         <v>1</v>
@@ -8970,7 +8441,7 @@
         <v>1</v>
       </c>
       <c r="AW49">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AX49">
         <v>0</v>
@@ -8991,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:55">
+    <row r="50" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>154</v>
       </c>
@@ -9053,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="AW50">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AX50">
         <v>0</v>
@@ -9074,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:55">
+    <row r="51" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
         <v>156</v>
       </c>
@@ -9157,7 +8628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:55">
+    <row r="52" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
         <v>158</v>
       </c>
@@ -9240,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:55">
+    <row r="53" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
         <v>160</v>
       </c>
@@ -9323,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:55">
+    <row r="54" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>162</v>
       </c>
@@ -9406,7 +8877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:55">
+    <row r="55" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>164</v>
       </c>
@@ -9489,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:55">
+    <row r="56" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
         <v>166</v>
       </c>
@@ -9572,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:55">
+    <row r="57" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>168</v>
       </c>
@@ -9634,7 +9105,7 @@
         <v>1</v>
       </c>
       <c r="AW57">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AX57">
         <v>0</v>
@@ -9655,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:55">
+    <row r="58" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>170</v>
       </c>
@@ -9738,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:55">
+    <row r="59" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>172</v>
       </c>
@@ -9821,7 +9292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:55">
+    <row r="60" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
         <v>174</v>
       </c>
@@ -9838,7 +9309,7 @@
         <v>500000</v>
       </c>
       <c r="W60">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y60">
         <v>1</v>
@@ -9904,7 +9375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:55">
+    <row r="61" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
         <v>176</v>
       </c>
@@ -9921,7 +9392,7 @@
         <v>1000000</v>
       </c>
       <c r="W61">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y61">
         <v>1</v>
@@ -9987,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:55">
+    <row r="62" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
         <v>178</v>
       </c>
@@ -10070,7 +9541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:55">
+    <row r="63" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
         <v>180</v>
       </c>
@@ -10153,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:55">
+    <row r="64" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
         <v>182</v>
       </c>
@@ -10215,7 +9686,7 @@
         <v>1</v>
       </c>
       <c r="AW64">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AX64">
         <v>0</v>
@@ -10236,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:55">
+    <row r="65" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
         <v>184</v>
       </c>
@@ -10319,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:55">
+    <row r="66" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
         <v>186</v>
       </c>
@@ -10402,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:55">
+    <row r="67" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
         <v>188</v>
       </c>
@@ -10485,7 +9956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:55">
+    <row r="68" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
         <v>190</v>
       </c>
@@ -10568,7 +10039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:55">
+    <row r="69" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
         <v>192</v>
       </c>
@@ -10651,7 +10122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:55">
+    <row r="70" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
         <v>194</v>
       </c>
@@ -10734,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:55">
+    <row r="71" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
         <v>196</v>
       </c>
@@ -10814,7 +10285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:55">
+    <row r="72" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
         <v>198</v>
       </c>
@@ -10897,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:55">
+    <row r="73" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
         <v>200</v>
       </c>
@@ -10989,7 +10460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:55">
+    <row r="74" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
         <v>202</v>
       </c>
@@ -11081,7 +10552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:55">
+    <row r="75" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
         <v>204</v>
       </c>
@@ -11104,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="W75">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y75">
         <v>1</v>
@@ -11173,7 +10644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:55">
+    <row r="76" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
         <v>206</v>
       </c>
@@ -11196,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="W76">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Y76">
         <v>1</v>
@@ -11265,7 +10736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:55">
+    <row r="77" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
         <v>208</v>
       </c>
@@ -11348,7 +10819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:55">
+    <row r="78" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
         <v>211</v>
       </c>
@@ -11431,7 +10902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:55">
+    <row r="79" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
         <v>213</v>
       </c>
@@ -11514,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:55">
+    <row r="80" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
         <v>215</v>
       </c>
@@ -11597,7 +11068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:55">
+    <row r="81" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>217</v>
       </c>
@@ -11680,7 +11151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:55">
+    <row r="82" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>219</v>
       </c>
@@ -11763,7 +11234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:55">
+    <row r="83" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
         <v>221</v>
       </c>
@@ -11846,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:55">
+    <row r="84" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
         <v>223</v>
       </c>
@@ -11926,7 +11397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:55">
+    <row r="85" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
         <v>225</v>
       </c>
@@ -12006,7 +11477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:55">
+    <row r="86" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
         <v>227</v>
       </c>
@@ -12086,7 +11557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:55">
+    <row r="87" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
         <v>229</v>
       </c>
@@ -12103,7 +11574,7 @@
         <v>5000</v>
       </c>
       <c r="W87">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Y87">
         <v>1</v>
@@ -12166,7 +11637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:55">
+    <row r="88" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
         <v>231</v>
       </c>
@@ -12246,7 +11717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:55">
+    <row r="89" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
         <v>233</v>
       </c>
@@ -12326,7 +11797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:55">
+    <row r="90" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
         <v>235</v>
       </c>
@@ -12406,7 +11877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:55">
+    <row r="91" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
         <v>237</v>
       </c>
@@ -12486,7 +11957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:55">
+    <row r="92" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
         <v>239</v>
       </c>
@@ -12566,7 +12037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:55">
+    <row r="93" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
         <v>241</v>
       </c>
@@ -12646,7 +12117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:55">
+    <row r="94" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
         <v>243</v>
       </c>
@@ -12726,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:55">
+    <row r="95" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
         <v>245</v>
       </c>
@@ -12806,7 +12277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:55">
+    <row r="96" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
         <v>247</v>
       </c>
@@ -12886,7 +12357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:55">
+    <row r="97" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
         <v>249</v>
       </c>
@@ -12966,7 +12437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:55">
+    <row r="98" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
         <v>251</v>
       </c>
@@ -12983,7 +12454,7 @@
         <v>500000</v>
       </c>
       <c r="W98">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y98">
         <v>1</v>
@@ -13046,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:55">
+    <row r="99" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
         <v>253</v>
       </c>
@@ -13063,7 +12534,7 @@
         <v>1000000</v>
       </c>
       <c r="W99">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y99">
         <v>1</v>
@@ -13126,7 +12597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:55">
+    <row r="100" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
         <v>255</v>
       </c>
@@ -13206,7 +12677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:55">
+    <row r="101" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
         <v>257</v>
       </c>
@@ -13286,7 +12757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:55">
+    <row r="102" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
         <v>259</v>
       </c>
@@ -13366,7 +12837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:55">
+    <row r="103" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
         <v>261</v>
       </c>
@@ -13446,7 +12917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:55">
+    <row r="104" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
         <v>263</v>
       </c>
@@ -13526,7 +12997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:55">
+    <row r="105" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
         <v>265</v>
       </c>
@@ -13606,7 +13077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:55">
+    <row r="106" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
         <v>267</v>
       </c>
@@ -13686,7 +13157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:55">
+    <row r="107" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
         <v>269</v>
       </c>
@@ -13766,7 +13237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:55">
+    <row r="108" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
         <v>271</v>
       </c>
@@ -13846,7 +13317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:55">
+    <row r="109" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
         <v>273</v>
       </c>
@@ -13929,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:55">
+    <row r="110" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
         <v>275</v>
       </c>
@@ -14018,7 +13489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:55">
+    <row r="111" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
         <v>277</v>
       </c>
@@ -14107,7 +13578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:55">
+    <row r="112" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
         <v>279</v>
       </c>
@@ -14130,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="W112">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y112">
         <v>1</v>
@@ -14196,7 +13667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:55">
+    <row r="113" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
         <v>281</v>
       </c>
@@ -14219,7 +13690,7 @@
         <v>0</v>
       </c>
       <c r="W113">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Y113">
         <v>1</v>
@@ -14285,7 +13756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:55">
+    <row r="114" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
         <v>283</v>
       </c>
@@ -14389,7 +13860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:55">
+    <row r="115" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
         <v>287</v>
       </c>
@@ -14493,7 +13964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:55">
+    <row r="116" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
         <v>289</v>
       </c>
@@ -14597,7 +14068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:55">
+    <row r="117" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
         <v>291</v>
       </c>
@@ -14701,7 +14172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:55">
+    <row r="118" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
         <v>293</v>
       </c>
@@ -14805,7 +14276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:55">
+    <row r="119" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
         <v>295</v>
       </c>
@@ -14909,7 +14380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:55">
+    <row r="120" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
         <v>297</v>
       </c>
@@ -15010,7 +14481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:55">
+    <row r="121" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
         <v>299</v>
       </c>
@@ -15030,25 +14501,25 @@
         <v>1500</v>
       </c>
       <c r="Q121">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R121">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S121">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T121">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U121">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V121">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W121">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y121">
         <v>1</v>
@@ -15111,7 +14582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:55">
+    <row r="122" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
         <v>301</v>
       </c>
@@ -15212,7 +14683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:55">
+    <row r="123" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
         <v>303</v>
       </c>
@@ -15313,7 +14784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:55">
+    <row r="124" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
         <v>305</v>
       </c>
@@ -15414,7 +14885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:55">
+    <row r="125" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
         <v>307</v>
       </c>
@@ -15515,7 +14986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:55">
+    <row r="126" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
         <v>309</v>
       </c>
@@ -15616,7 +15087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:55">
+    <row r="127" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
         <v>311</v>
       </c>
@@ -15717,7 +15188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:55">
+    <row r="128" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
         <v>313</v>
       </c>
@@ -15818,7 +15289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:55">
+    <row r="129" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
         <v>313</v>
       </c>
@@ -15913,7 +15384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:55">
+    <row r="130" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
         <v>314</v>
       </c>
@@ -16014,7 +15485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:55">
+    <row r="131" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
         <v>316</v>
       </c>
@@ -16115,7 +15586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:55">
+    <row r="132" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
         <v>318</v>
       </c>
@@ -16216,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:55">
+    <row r="133" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
         <v>320</v>
       </c>
@@ -16317,7 +15788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:55">
+    <row r="134" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
         <v>322</v>
       </c>
@@ -16418,7 +15889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:55">
+    <row r="135" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
         <v>324</v>
       </c>
@@ -16519,7 +15990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:55">
+    <row r="136" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
         <v>326</v>
       </c>
@@ -16539,25 +16010,25 @@
         <v>500000</v>
       </c>
       <c r="Q136">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R136">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S136">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="T136">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U136">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V136">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W136">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y136">
         <v>1</v>
@@ -16620,7 +16091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:55">
+    <row r="137" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
         <v>328</v>
       </c>
@@ -16640,25 +16111,25 @@
         <v>1000000</v>
       </c>
       <c r="Q137">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R137">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S137">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T137">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U137">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V137">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W137">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y137">
         <v>1</v>
@@ -16721,7 +16192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:55">
+    <row r="138" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
         <v>330</v>
       </c>
@@ -16822,7 +16293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:55">
+    <row r="139" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
         <v>332</v>
       </c>
@@ -16923,7 +16394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:55">
+    <row r="140" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
         <v>334</v>
       </c>
@@ -17024,7 +16495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:55">
+    <row r="141" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
         <v>336</v>
       </c>
@@ -17125,7 +16596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:55">
+    <row r="142" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
         <v>338</v>
       </c>
@@ -17226,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:55">
+    <row r="143" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
         <v>340</v>
       </c>
@@ -17327,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:55">
+    <row r="144" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
         <v>342</v>
       </c>
@@ -17428,7 +16899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:55">
+    <row r="145" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
         <v>344</v>
       </c>
@@ -17529,7 +17000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:55">
+    <row r="146" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
         <v>345</v>
       </c>
@@ -17630,7 +17101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:55">
+    <row r="147" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
         <v>347</v>
       </c>
@@ -17731,7 +17202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:55">
+    <row r="148" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
         <v>349</v>
       </c>
@@ -17841,7 +17312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:55">
+    <row r="149" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
         <v>351</v>
       </c>
@@ -17951,7 +17422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:55">
+    <row r="150" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
         <v>353</v>
       </c>
@@ -18061,7 +17532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:55">
+    <row r="151" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
         <v>355</v>
       </c>
@@ -18171,7 +17642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:55">
+    <row r="152" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
         <v>357</v>
       </c>
@@ -18188,25 +17659,25 @@
         <v>10</v>
       </c>
       <c r="Q152">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R152">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S152">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T152">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U152">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V152">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W152">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y152">
         <v>1</v>
@@ -18272,7 +17743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:55">
+    <row r="153" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
         <v>360</v>
       </c>
@@ -18355,7 +17826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:55">
+    <row r="154" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
         <v>362</v>
       </c>
@@ -18438,7 +17909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:55">
+    <row r="155" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
         <v>364</v>
       </c>
@@ -18521,7 +17992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:55">
+    <row r="156" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
         <v>366</v>
       </c>
@@ -18604,7 +18075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:55">
+    <row r="157" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
         <v>368</v>
       </c>
@@ -18687,7 +18158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:55">
+    <row r="158" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
         <v>370</v>
       </c>
@@ -18773,7 +18244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:55">
+    <row r="159" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
         <v>373</v>
       </c>
@@ -18853,7 +18324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:55">
+    <row r="160" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
         <v>375</v>
       </c>
@@ -18933,7 +18404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:55">
+    <row r="161" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
         <v>377</v>
       </c>
@@ -19013,7 +18484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:55">
+    <row r="162" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
         <v>379</v>
       </c>
@@ -19093,7 +18564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:55">
+    <row r="163" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
         <v>381</v>
       </c>
@@ -19173,7 +18644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:55">
+    <row r="164" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
         <v>383</v>
       </c>
@@ -19190,7 +18661,7 @@
         <v>10000</v>
       </c>
       <c r="P164">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Y164">
         <v>1</v>
@@ -19253,7 +18724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:55">
+    <row r="165" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
         <v>385</v>
       </c>
@@ -19333,7 +18804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:55">
+    <row r="166" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
         <v>387</v>
       </c>
@@ -19413,7 +18884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:55">
+    <row r="167" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
         <v>389</v>
       </c>
@@ -19493,7 +18964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:55">
+    <row r="168" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
         <v>391</v>
       </c>
@@ -19573,7 +19044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:55">
+    <row r="169" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
         <v>393</v>
       </c>
@@ -19653,7 +19124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:55">
+    <row r="170" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
         <v>395</v>
       </c>
@@ -19733,7 +19204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:55">
+    <row r="171" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
         <v>397</v>
       </c>
@@ -19813,7 +19284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:55">
+    <row r="172" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
         <v>399</v>
       </c>
@@ -19893,7 +19364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:55">
+    <row r="173" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
         <v>401</v>
       </c>
@@ -19910,7 +19381,7 @@
         <v>500000</v>
       </c>
       <c r="P173">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y173">
         <v>1</v>
@@ -19973,7 +19444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:55">
+    <row r="174" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
         <v>403</v>
       </c>
@@ -19990,7 +19461,7 @@
         <v>1000000</v>
       </c>
       <c r="P174">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y174">
         <v>1</v>
@@ -20053,7 +19524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:55">
+    <row r="175" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
         <v>405</v>
       </c>
@@ -20133,7 +19604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:55">
+    <row r="176" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
         <v>407</v>
       </c>
@@ -20213,7 +19684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:55">
+    <row r="177" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
         <v>409</v>
       </c>
@@ -20293,7 +19764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:55">
+    <row r="178" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
         <v>411</v>
       </c>
@@ -20373,7 +19844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:55">
+    <row r="179" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
         <v>413</v>
       </c>
@@ -20453,7 +19924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:55">
+    <row r="180" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
         <v>415</v>
       </c>
@@ -20533,7 +20004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:55">
+    <row r="181" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
         <v>417</v>
       </c>
@@ -20613,7 +20084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:55">
+    <row r="182" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
         <v>419</v>
       </c>
@@ -20693,7 +20164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:55">
+    <row r="183" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
         <v>421</v>
       </c>
@@ -20773,7 +20244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:55">
+    <row r="184" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
         <v>423</v>
       </c>
@@ -20853,7 +20324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:55">
+    <row r="185" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
         <v>425</v>
       </c>
@@ -20942,7 +20413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:55">
+    <row r="186" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
         <v>427</v>
       </c>
@@ -21031,7 +20502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:55">
+    <row r="187" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
         <v>429</v>
       </c>
@@ -21054,7 +20525,7 @@
         <v>0</v>
       </c>
       <c r="P187">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y187">
         <v>1</v>
@@ -21120,7 +20591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:55">
+    <row r="188" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
         <v>431</v>
       </c>
@@ -21143,7 +20614,7 @@
         <v>0</v>
       </c>
       <c r="P188">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Y188">
         <v>1</v>
@@ -21209,7 +20680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:55">
+    <row r="189" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
         <v>433</v>
       </c>
@@ -21289,7 +20760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:55">
+    <row r="190" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
         <v>436</v>
       </c>
@@ -21351,16 +20822,16 @@
         <v>0</v>
       </c>
       <c r="AX190">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="AY190">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="AZ190">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="BA190">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="BB190">
         <v>0</v>
@@ -21369,7 +20840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:55">
+    <row r="191" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
         <v>438</v>
       </c>
@@ -21440,16 +20911,16 @@
         <v>0</v>
       </c>
       <c r="AX191">
-        <v>0.0003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AY191">
-        <v>0.0003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AZ191">
-        <v>0.0003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="BA191">
-        <v>0.0003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="BB191">
         <v>0</v>
@@ -21458,7 +20929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:55">
+    <row r="192" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
         <v>440</v>
       </c>
@@ -21529,16 +21000,16 @@
         <v>0</v>
       </c>
       <c r="AX192">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AY192">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AZ192">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="BA192">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="BB192">
         <v>0</v>
@@ -21547,7 +21018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:55">
+    <row r="193" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
         <v>442</v>
       </c>
@@ -21618,16 +21089,16 @@
         <v>0</v>
       </c>
       <c r="AX193">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AY193">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AZ193">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="BA193">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="BB193">
         <v>0</v>
@@ -21636,7 +21107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:55">
+    <row r="194" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
         <v>444</v>
       </c>
@@ -21707,16 +21178,16 @@
         <v>0</v>
       </c>
       <c r="AX194">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AY194">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AZ194">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="BA194">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="BB194">
         <v>0</v>
@@ -21725,7 +21196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:55">
+    <row r="195" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
         <v>446</v>
       </c>
@@ -21796,16 +21267,16 @@
         <v>0</v>
       </c>
       <c r="AX195">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AY195">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AZ195">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="BA195">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="BB195">
         <v>0</v>
@@ -21814,7 +21285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:55">
+    <row r="196" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
         <v>448</v>
       </c>
@@ -21831,13 +21302,13 @@
         <v>1000</v>
       </c>
       <c r="N196">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O196">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P196">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y196">
         <v>1</v>
@@ -21882,16 +21353,16 @@
         <v>0</v>
       </c>
       <c r="AX196">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AY196">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AZ196">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="BA196">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="BB196">
         <v>0</v>
@@ -21900,7 +21371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:55">
+    <row r="197" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
         <v>450</v>
       </c>
@@ -21968,16 +21439,16 @@
         <v>0</v>
       </c>
       <c r="AX197">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AY197">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AZ197">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="BA197">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="BB197">
         <v>0</v>
@@ -21986,7 +21457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:55">
+    <row r="198" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
         <v>452</v>
       </c>
@@ -22054,16 +21525,16 @@
         <v>0</v>
       </c>
       <c r="AX198">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AY198">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AZ198">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="BA198">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="BB198">
         <v>0</v>
@@ -22072,7 +21543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:55">
+    <row r="199" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
         <v>454</v>
       </c>
@@ -22140,16 +21611,16 @@
         <v>0</v>
       </c>
       <c r="AX199">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY199">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AZ199">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="BA199">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="BB199">
         <v>0</v>
@@ -22158,7 +21629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:55">
+    <row r="200" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D200" t="s">
         <v>456</v>
       </c>
@@ -22226,16 +21697,16 @@
         <v>0</v>
       </c>
       <c r="AX200">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AY200">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AZ200">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="BA200">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="BB200">
         <v>0</v>
@@ -22244,7 +21715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:55">
+    <row r="201" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D201" t="s">
         <v>458</v>
       </c>
@@ -22330,7 +21801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:55">
+    <row r="202" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
         <v>460</v>
       </c>
@@ -22416,7 +21887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:55">
+    <row r="203" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D203" t="s">
         <v>462</v>
       </c>
@@ -22433,13 +21904,13 @@
         <v>30000</v>
       </c>
       <c r="N203">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O203">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="P203">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Y203">
         <v>1</v>
@@ -22502,7 +21973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:55">
+    <row r="204" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
         <v>464</v>
       </c>
@@ -22588,7 +22059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:55">
+    <row r="205" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
         <v>466</v>
       </c>
@@ -22674,7 +22145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:55">
+    <row r="206" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D206" t="s">
         <v>468</v>
       </c>
@@ -22760,7 +22231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:55">
+    <row r="207" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
         <v>470</v>
       </c>
@@ -22828,16 +22299,16 @@
         <v>0</v>
       </c>
       <c r="AX207">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AY207">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AZ207">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BA207">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BB207">
         <v>0</v>
@@ -22846,7 +22317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:55">
+    <row r="208" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D208" t="s">
         <v>472</v>
       </c>
@@ -22932,7 +22403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:55">
+    <row r="209" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D209" t="s">
         <v>474</v>
       </c>
@@ -23018,7 +22489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:55">
+    <row r="210" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D210" t="s">
         <v>476</v>
       </c>
@@ -23104,7 +22575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:55">
+    <row r="211" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D211" t="s">
         <v>478</v>
       </c>
@@ -23190,7 +22661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:55">
+    <row r="212" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D212" t="s">
         <v>480</v>
       </c>
@@ -23276,7 +22747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:55">
+    <row r="213" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D213" t="s">
         <v>482</v>
       </c>
@@ -23293,13 +22764,13 @@
         <v>25000000</v>
       </c>
       <c r="N213">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O213">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P213">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y213">
         <v>1</v>
@@ -23362,7 +22833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:55">
+    <row r="214" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D214" t="s">
         <v>484</v>
       </c>
@@ -23379,13 +22850,13 @@
         <v>40000000</v>
       </c>
       <c r="N214">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O214">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="P214">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y214">
         <v>1</v>
@@ -23430,16 +22901,16 @@
         <v>0</v>
       </c>
       <c r="AX214">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AY214">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AZ214">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="BA214">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="BB214">
         <v>0</v>
@@ -23448,7 +22919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:55">
+    <row r="215" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D215" t="s">
         <v>486</v>
       </c>
@@ -23534,7 +23005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:55">
+    <row r="216" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D216" t="s">
         <v>488</v>
       </c>
@@ -23620,7 +23091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:55">
+    <row r="217" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D217" t="s">
         <v>490</v>
       </c>
@@ -23715,7 +23186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:55">
+    <row r="218" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D218" t="s">
         <v>492</v>
       </c>
@@ -23816,7 +23287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:55">
+    <row r="219" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D219" t="s">
         <v>494</v>
       </c>
@@ -23908,7 +23379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:55">
+    <row r="220" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D220" t="s">
         <v>496</v>
       </c>
@@ -23994,7 +23465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:55">
+    <row r="221" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D221" t="s">
         <v>498</v>
       </c>
@@ -24080,7 +23551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:55">
+    <row r="222" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D222" t="s">
         <v>500</v>
       </c>
@@ -24172,7 +23643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:55">
+    <row r="223" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D223" t="s">
         <v>502</v>
       </c>
@@ -24264,7 +23735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:55">
+    <row r="224" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D224" t="s">
         <v>504</v>
       </c>
@@ -24356,7 +23827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:55">
+    <row r="225" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D225" t="s">
         <v>506</v>
       </c>
@@ -24448,7 +23919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:55">
+    <row r="226" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D226" t="s">
         <v>508</v>
       </c>
@@ -24519,7 +23990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:55">
+    <row r="227" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D227" t="s">
         <v>512</v>
       </c>
@@ -24587,7 +24058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:55">
+    <row r="228" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D228" t="s">
         <v>514</v>
       </c>
@@ -24655,7 +24126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:55">
+    <row r="229" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D229" t="s">
         <v>517</v>
       </c>
@@ -24723,7 +24194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:55">
+    <row r="230" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D230" t="s">
         <v>519</v>
       </c>
@@ -24791,7 +24262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:55">
+    <row r="231" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D231" t="s">
         <v>521</v>
       </c>
@@ -24868,7 +24339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:55">
+    <row r="232" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D232" t="s">
         <v>524</v>
       </c>
@@ -24945,7 +24416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:55">
+    <row r="233" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D233" t="s">
         <v>527</v>
       </c>
@@ -25022,7 +24493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:55">
+    <row r="234" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D234" t="s">
         <v>530</v>
       </c>
@@ -25099,7 +24570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:55">
+    <row r="235" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D235" t="s">
         <v>533</v>
       </c>
@@ -25176,7 +24647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:55">
+    <row r="236" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D236" t="s">
         <v>536</v>
       </c>
@@ -25250,7 +24721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:55">
+    <row r="237" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D237" t="s">
         <v>539</v>
       </c>
@@ -25318,7 +24789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:55">
+    <row r="238" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D238" t="s">
         <v>541</v>
       </c>
@@ -25383,7 +24854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:55">
+    <row r="239" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D239" t="s">
         <v>544</v>
       </c>
@@ -25415,7 +24886,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="240" spans="1:55">
+    <row r="240" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D240" t="s">
         <v>547</v>
       </c>
@@ -25447,7 +24918,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="241" spans="1:55">
+    <row r="241" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D241" t="s">
         <v>549</v>
       </c>
@@ -25479,7 +24950,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="242" spans="1:55">
+    <row r="242" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D242" t="s">
         <v>551</v>
       </c>
@@ -25553,7 +25024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:55">
+    <row r="243" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D243" t="s">
         <v>553</v>
       </c>
@@ -25633,7 +25104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:55">
+    <row r="244" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D244" t="s">
         <v>556</v>
       </c>
@@ -25713,7 +25184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:55">
+    <row r="245" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D245" t="s">
         <v>559</v>
       </c>
@@ -25781,7 +25252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:55">
+    <row r="246" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D246" t="s">
         <v>562</v>
       </c>
@@ -25852,7 +25323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:55">
+    <row r="247" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D247" t="s">
         <v>564</v>
       </c>
@@ -25923,7 +25394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:55">
+    <row r="248" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D248" t="s">
         <v>566</v>
       </c>
@@ -25988,7 +25459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:55">
+    <row r="249" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D249" t="s">
         <v>569</v>
       </c>
@@ -26059,7 +25530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:55">
+    <row r="250" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D250" t="s">
         <v>571</v>
       </c>
@@ -26130,7 +25601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:55">
+    <row r="251" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D251" t="s">
         <v>573</v>
       </c>
@@ -26201,7 +25672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:55">
+    <row r="252" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D252" t="s">
         <v>575</v>
       </c>
@@ -26272,7 +25743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:55">
+    <row r="253" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D253" t="s">
         <v>577</v>
       </c>
@@ -26355,7 +25826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:55">
+    <row r="254" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D254" t="s">
         <v>579</v>
       </c>
@@ -26459,7 +25930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:55">
+    <row r="255" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D255" t="s">
         <v>581</v>
       </c>
@@ -26563,7 +26034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:55">
+    <row r="256" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D256" t="s">
         <v>583</v>
       </c>
@@ -26667,7 +26138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:55">
+    <row r="257" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D257" t="s">
         <v>585</v>
       </c>
@@ -26771,7 +26242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:55">
+    <row r="258" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D258" t="s">
         <v>587</v>
       </c>
@@ -26875,7 +26346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:55">
+    <row r="259" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D259" t="s">
         <v>589</v>
       </c>
@@ -26979,7 +26450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:55">
+    <row r="260" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D260" t="s">
         <v>591</v>
       </c>
@@ -27080,7 +26551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:55">
+    <row r="261" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D261" t="s">
         <v>593</v>
       </c>
@@ -27100,25 +26571,25 @@
         <v>1500</v>
       </c>
       <c r="Q261">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R261">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S261">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T261">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U261">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V261">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W261">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y261">
         <v>1</v>
@@ -27181,7 +26652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:55">
+    <row r="262" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D262" t="s">
         <v>595</v>
       </c>
@@ -27282,7 +26753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:55">
+    <row r="263" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D263" t="s">
         <v>597</v>
       </c>
@@ -27383,7 +26854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:55">
+    <row r="264" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D264" t="s">
         <v>599</v>
       </c>
@@ -27484,7 +26955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:55">
+    <row r="265" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D265" t="s">
         <v>601</v>
       </c>
@@ -27585,7 +27056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:55">
+    <row r="266" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D266" t="s">
         <v>603</v>
       </c>
@@ -27686,7 +27157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:55">
+    <row r="267" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D267" t="s">
         <v>605</v>
       </c>
@@ -27787,7 +27258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:55">
+    <row r="268" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D268" t="s">
         <v>607</v>
       </c>
@@ -27888,7 +27359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:55">
+    <row r="269" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D269" t="s">
         <v>609</v>
       </c>
@@ -27989,7 +27460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:55">
+    <row r="270" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D270" t="s">
         <v>611</v>
       </c>
@@ -28090,7 +27561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:55">
+    <row r="271" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D271" t="s">
         <v>613</v>
       </c>
@@ -28191,7 +27662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:55">
+    <row r="272" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D272" t="s">
         <v>615</v>
       </c>
@@ -28292,7 +27763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:55">
+    <row r="273" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D273" t="s">
         <v>617</v>
       </c>
@@ -28393,7 +27864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:55">
+    <row r="274" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D274" t="s">
         <v>619</v>
       </c>
@@ -28494,7 +27965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:55">
+    <row r="275" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D275" t="s">
         <v>621</v>
       </c>
@@ -28595,7 +28066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:55">
+    <row r="276" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D276" t="s">
         <v>623</v>
       </c>
@@ -28696,7 +28167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:55">
+    <row r="277" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D277" t="s">
         <v>625</v>
       </c>
@@ -28716,25 +28187,25 @@
         <v>25000000</v>
       </c>
       <c r="Q277">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R277">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S277">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="T277">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U277">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V277">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W277">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y277">
         <v>1</v>
@@ -28797,7 +28268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:55">
+    <row r="278" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D278" t="s">
         <v>627</v>
       </c>
@@ -28817,25 +28288,25 @@
         <v>40000000</v>
       </c>
       <c r="Q278">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R278">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S278">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T278">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U278">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V278">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W278">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y278">
         <v>1</v>
@@ -28898,7 +28369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:55">
+    <row r="279" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D279" t="s">
         <v>629</v>
       </c>
@@ -28999,7 +28470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:55">
+    <row r="280" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D280" t="s">
         <v>631</v>
       </c>
@@ -29100,7 +28571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:55">
+    <row r="281" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D281" t="s">
         <v>633</v>
       </c>
@@ -29201,7 +28672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:55">
+    <row r="282" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D282" t="s">
         <v>635</v>
       </c>
@@ -29302,7 +28773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:55">
+    <row r="283" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D283" t="s">
         <v>637</v>
       </c>
@@ -29403,7 +28874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:55">
+    <row r="284" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D284" t="s">
         <v>639</v>
       </c>
@@ -29504,7 +28975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:55">
+    <row r="285" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D285" t="s">
         <v>641</v>
       </c>
@@ -29608,7 +29079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:55">
+    <row r="286" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D286" t="s">
         <v>643</v>
       </c>
@@ -29718,7 +29189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:55">
+    <row r="287" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D287" t="s">
         <v>645</v>
       </c>
@@ -29828,7 +29299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:55">
+    <row r="288" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D288" t="s">
         <v>647</v>
       </c>
@@ -29938,7 +29409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:55">
+    <row r="289" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D289" t="s">
         <v>649</v>
       </c>
@@ -30048,7 +29519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:55">
+    <row r="290" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D290" t="s">
         <v>651</v>
       </c>
@@ -30152,7 +29623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:55">
+    <row r="291" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D291" t="s">
         <v>654</v>
       </c>
@@ -30256,7 +29727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:55">
+    <row r="292" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D292" t="s">
         <v>656</v>
       </c>
@@ -30360,7 +29831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:55">
+    <row r="293" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D293" t="s">
         <v>658</v>
       </c>
@@ -30464,7 +29935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:55">
+    <row r="294" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D294" t="s">
         <v>660</v>
       </c>
@@ -30568,7 +30039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:55">
+    <row r="295" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D295" t="s">
         <v>662</v>
       </c>
@@ -30672,7 +30143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:55">
+    <row r="296" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D296" t="s">
         <v>664</v>
       </c>
@@ -30776,7 +30247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:55">
+    <row r="297" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D297" t="s">
         <v>666</v>
       </c>
@@ -30796,25 +30267,25 @@
         <v>1000</v>
       </c>
       <c r="Q297">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R297">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S297">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T297">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U297">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V297">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W297">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y297">
         <v>1</v>
@@ -30877,7 +30348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:55">
+    <row r="298" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D298" t="s">
         <v>668</v>
       </c>
@@ -30978,7 +30449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:55">
+    <row r="299" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D299" t="s">
         <v>670</v>
       </c>
@@ -31079,7 +30550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:55">
+    <row r="300" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D300" t="s">
         <v>672</v>
       </c>
@@ -31180,7 +30651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:55">
+    <row r="301" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D301" t="s">
         <v>674</v>
       </c>
@@ -31281,7 +30752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:55">
+    <row r="302" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D302" t="s">
         <v>676</v>
       </c>
@@ -31382,7 +30853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:55">
+    <row r="303" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D303" t="s">
         <v>678</v>
       </c>
@@ -31483,7 +30954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:55">
+    <row r="304" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D304" t="s">
         <v>680</v>
       </c>
@@ -31584,7 +31055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:55">
+    <row r="305" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D305" t="s">
         <v>682</v>
       </c>
@@ -31685,7 +31156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:55">
+    <row r="306" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D306" t="s">
         <v>684</v>
       </c>
@@ -31786,7 +31257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:55">
+    <row r="307" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D307" t="s">
         <v>686</v>
       </c>
@@ -31887,7 +31358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:55">
+    <row r="308" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D308" t="s">
         <v>688</v>
       </c>
@@ -31988,7 +31459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:55">
+    <row r="309" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D309" t="s">
         <v>690</v>
       </c>
@@ -32089,7 +31560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:55">
+    <row r="310" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D310" t="s">
         <v>692</v>
       </c>
@@ -32190,7 +31661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:55">
+    <row r="311" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D311" t="s">
         <v>694</v>
       </c>
@@ -32291,7 +31762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:55">
+    <row r="312" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D312" t="s">
         <v>696</v>
       </c>
@@ -32392,7 +31863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:55">
+    <row r="313" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D313" t="s">
         <v>698</v>
       </c>
@@ -32412,25 +31883,25 @@
         <v>10000000</v>
       </c>
       <c r="Q313">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R313">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S313">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="T313">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U313">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V313">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W313">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y313">
         <v>1</v>
@@ -32493,7 +31964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:55">
+    <row r="314" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D314" t="s">
         <v>700</v>
       </c>
@@ -32513,25 +31984,25 @@
         <v>25000000</v>
       </c>
       <c r="Q314">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R314">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S314">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T314">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U314">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V314">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W314">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y314">
         <v>1</v>
@@ -32594,7 +32065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:55">
+    <row r="315" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D315" t="s">
         <v>702</v>
       </c>
@@ -32695,7 +32166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:55">
+    <row r="316" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D316" t="s">
         <v>704</v>
       </c>
@@ -32796,7 +32267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:55">
+    <row r="317" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D317" t="s">
         <v>706</v>
       </c>
@@ -32897,7 +32368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:55">
+    <row r="318" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D318" t="s">
         <v>708</v>
       </c>
@@ -32998,7 +32469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:55">
+    <row r="319" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D319" t="s">
         <v>710</v>
       </c>
@@ -33099,7 +32570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:55">
+    <row r="320" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D320" t="s">
         <v>712</v>
       </c>
@@ -33200,7 +32671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:55">
+    <row r="321" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D321" t="s">
         <v>714</v>
       </c>
@@ -33301,7 +32772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:55">
+    <row r="322" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D322" t="s">
         <v>716</v>
       </c>
@@ -33402,7 +32873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:55">
+    <row r="323" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D323" t="s">
         <v>718</v>
       </c>
@@ -33512,7 +32983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:55">
+    <row r="324" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D324" t="s">
         <v>720</v>
       </c>
@@ -33622,7 +33093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:55">
+    <row r="325" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D325" t="s">
         <v>722</v>
       </c>
@@ -33732,7 +33203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:55">
+    <row r="326" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D326" t="s">
         <v>724</v>
       </c>
@@ -33842,7 +33313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:55">
+    <row r="327" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D327" t="s">
         <v>726</v>
       </c>
@@ -33946,7 +33417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:55">
+    <row r="328" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D328" t="s">
         <v>729</v>
       </c>
@@ -34050,7 +33521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:55">
+    <row r="329" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D329" t="s">
         <v>731</v>
       </c>
@@ -34154,7 +33625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:55">
+    <row r="330" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D330" t="s">
         <v>733</v>
       </c>
@@ -34258,7 +33729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:55">
+    <row r="331" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D331" t="s">
         <v>735</v>
       </c>
@@ -34362,7 +33833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:55">
+    <row r="332" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D332" t="s">
         <v>737</v>
       </c>
@@ -34466,7 +33937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:55">
+    <row r="333" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D333" t="s">
         <v>739</v>
       </c>
@@ -34573,7 +34044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:55">
+    <row r="334" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D334" t="s">
         <v>741</v>
       </c>
@@ -34593,25 +34064,25 @@
         <v>1000</v>
       </c>
       <c r="Q334">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R334">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S334">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T334">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U334">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V334">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W334">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y334">
         <v>1</v>
@@ -34674,7 +34145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:55">
+    <row r="335" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D335" t="s">
         <v>743</v>
       </c>
@@ -34775,7 +34246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:55">
+    <row r="336" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D336" t="s">
         <v>745</v>
       </c>
@@ -34876,7 +34347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:55">
+    <row r="337" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D337" t="s">
         <v>747</v>
       </c>
@@ -34977,7 +34448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:55">
+    <row r="338" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D338" t="s">
         <v>749</v>
       </c>
@@ -35078,7 +34549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:55">
+    <row r="339" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D339" t="s">
         <v>751</v>
       </c>
@@ -35179,7 +34650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:55">
+    <row r="340" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D340" t="s">
         <v>753</v>
       </c>
@@ -35280,7 +34751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:55">
+    <row r="341" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D341" t="s">
         <v>755</v>
       </c>
@@ -35381,7 +34852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:55">
+    <row r="342" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D342" t="s">
         <v>757</v>
       </c>
@@ -35482,7 +34953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:55">
+    <row r="343" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D343" t="s">
         <v>759</v>
       </c>
@@ -35583,7 +35054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:55">
+    <row r="344" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D344" t="s">
         <v>761</v>
       </c>
@@ -35684,7 +35155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:55">
+    <row r="345" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D345" t="s">
         <v>763</v>
       </c>
@@ -35785,7 +35256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:55">
+    <row r="346" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D346" t="s">
         <v>765</v>
       </c>
@@ -35886,7 +35357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:55">
+    <row r="347" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D347" t="s">
         <v>767</v>
       </c>
@@ -35987,7 +35458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:55">
+    <row r="348" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D348" t="s">
         <v>769</v>
       </c>
@@ -36088,7 +35559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:55">
+    <row r="349" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D349" t="s">
         <v>771</v>
       </c>
@@ -36189,7 +35660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:55">
+    <row r="350" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D350" t="s">
         <v>773</v>
       </c>
@@ -36209,25 +35680,25 @@
         <v>25000000</v>
       </c>
       <c r="Q350">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R350">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S350">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="T350">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U350">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V350">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W350">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y350">
         <v>1</v>
@@ -36290,7 +35761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:55">
+    <row r="351" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D351" t="s">
         <v>775</v>
       </c>
@@ -36391,7 +35862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:55">
+    <row r="352" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D352" t="s">
         <v>775</v>
       </c>
@@ -36486,7 +35957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:55">
+    <row r="353" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D353" t="s">
         <v>776</v>
       </c>
@@ -36587,7 +36058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:55">
+    <row r="354" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D354" t="s">
         <v>778</v>
       </c>
@@ -36688,7 +36159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:55">
+    <row r="355" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D355" t="s">
         <v>780</v>
       </c>
@@ -36789,7 +36260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:55">
+    <row r="356" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D356" t="s">
         <v>782</v>
       </c>
@@ -36890,7 +36361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:55">
+    <row r="357" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D357" t="s">
         <v>784</v>
       </c>
@@ -36991,7 +36462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:55">
+    <row r="358" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D358" t="s">
         <v>786</v>
       </c>
@@ -37092,7 +36563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:55">
+    <row r="359" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D359" t="s">
         <v>788</v>
       </c>
@@ -37193,7 +36664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:55">
+    <row r="360" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D360" t="s">
         <v>790</v>
       </c>
@@ -37294,7 +36765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:55">
+    <row r="361" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D361" t="s">
         <v>792</v>
       </c>
@@ -37404,7 +36875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:55">
+    <row r="362" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D362" t="s">
         <v>794</v>
       </c>
@@ -37514,7 +36985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:55">
+    <row r="363" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D363" t="s">
         <v>796</v>
       </c>
@@ -37624,7 +37095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:55">
+    <row r="364" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D364" t="s">
         <v>798</v>
       </c>
@@ -37734,7 +37205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:55">
+    <row r="365" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D365" t="s">
         <v>800</v>
       </c>
@@ -37838,7 +37309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:55">
+    <row r="366" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D366" t="s">
         <v>803</v>
       </c>
@@ -37942,7 +37413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:55">
+    <row r="367" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D367" t="s">
         <v>805</v>
       </c>
@@ -38046,7 +37517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:55">
+    <row r="368" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D368" t="s">
         <v>807</v>
       </c>
@@ -38150,7 +37621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:55">
+    <row r="369" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D369" t="s">
         <v>809</v>
       </c>
@@ -38254,7 +37725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:55">
+    <row r="370" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D370" t="s">
         <v>811</v>
       </c>
@@ -38358,7 +37829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:55">
+    <row r="371" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D371" t="s">
         <v>813</v>
       </c>
@@ -38462,7 +37933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:55">
+    <row r="372" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D372" t="s">
         <v>815</v>
       </c>
@@ -38482,25 +37953,25 @@
         <v>1000</v>
       </c>
       <c r="Q372">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R372">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S372">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T372">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U372">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V372">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W372">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y372">
         <v>1</v>
@@ -38563,7 +38034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:55">
+    <row r="373" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D373" t="s">
         <v>817</v>
       </c>
@@ -38664,7 +38135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:55">
+    <row r="374" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D374" t="s">
         <v>819</v>
       </c>
@@ -38765,7 +38236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:55">
+    <row r="375" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D375" t="s">
         <v>821</v>
       </c>
@@ -38866,7 +38337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:55">
+    <row r="376" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D376" t="s">
         <v>823</v>
       </c>
@@ -38967,7 +38438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:55">
+    <row r="377" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D377" t="s">
         <v>825</v>
       </c>
@@ -39068,7 +38539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:55">
+    <row r="378" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D378" t="s">
         <v>827</v>
       </c>
@@ -39169,7 +38640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:55">
+    <row r="379" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D379" t="s">
         <v>829</v>
       </c>
@@ -39270,7 +38741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:55">
+    <row r="380" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D380" t="s">
         <v>831</v>
       </c>
@@ -39371,7 +38842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:55">
+    <row r="381" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D381" t="s">
         <v>833</v>
       </c>
@@ -39472,7 +38943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:55">
+    <row r="382" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D382" t="s">
         <v>835</v>
       </c>
@@ -39573,7 +39044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:55">
+    <row r="383" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D383" t="s">
         <v>837</v>
       </c>
@@ -39674,7 +39145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:55">
+    <row r="384" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D384" t="s">
         <v>839</v>
       </c>
@@ -39775,7 +39246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:55">
+    <row r="385" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D385" t="s">
         <v>841</v>
       </c>
@@ -39876,7 +39347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:55">
+    <row r="386" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D386" t="s">
         <v>843</v>
       </c>
@@ -39977,7 +39448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:55">
+    <row r="387" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D387" t="s">
         <v>845</v>
       </c>
@@ -40078,7 +39549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:55">
+    <row r="388" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D388" t="s">
         <v>847</v>
       </c>
@@ -40098,25 +39569,25 @@
         <v>10000000</v>
       </c>
       <c r="Q388">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R388">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S388">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="T388">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U388">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V388">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W388">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y388">
         <v>1</v>
@@ -40179,7 +39650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:55">
+    <row r="389" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D389" t="s">
         <v>849</v>
       </c>
@@ -40199,25 +39670,25 @@
         <v>25000000</v>
       </c>
       <c r="Q389">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R389">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S389">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T389">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U389">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V389">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W389">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y389">
         <v>1</v>
@@ -40280,7 +39751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:55">
+    <row r="390" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D390" t="s">
         <v>851</v>
       </c>
@@ -40381,7 +39852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:55">
+    <row r="391" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D391" t="s">
         <v>853</v>
       </c>
@@ -40482,7 +39953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:55">
+    <row r="392" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D392" t="s">
         <v>855</v>
       </c>
@@ -40583,7 +40054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:55">
+    <row r="393" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D393" t="s">
         <v>857</v>
       </c>
@@ -40684,7 +40155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:55">
+    <row r="394" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D394" t="s">
         <v>859</v>
       </c>
@@ -40785,7 +40256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:55">
+    <row r="395" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D395" t="s">
         <v>861</v>
       </c>
@@ -40886,7 +40357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:55">
+    <row r="396" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D396" t="s">
         <v>863</v>
       </c>
@@ -40987,7 +40458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:55">
+    <row r="397" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D397" t="s">
         <v>865</v>
       </c>
@@ -41088,7 +40559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:55">
+    <row r="398" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D398" t="s">
         <v>867</v>
       </c>
@@ -41198,7 +40669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:55">
+    <row r="399" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D399" t="s">
         <v>869</v>
       </c>
@@ -41308,7 +40779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:55">
+    <row r="400" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D400" t="s">
         <v>871</v>
       </c>
@@ -41418,7 +40889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:55">
+    <row r="401" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D401" t="s">
         <v>873</v>
       </c>
@@ -41528,7 +40999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:55">
+    <row r="402" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D402" t="s">
         <v>875</v>
       </c>
@@ -41638,7 +41109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:55">
+    <row r="403" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D403" t="s">
         <v>878</v>
       </c>
@@ -41685,7 +41156,7 @@
         <v>56</v>
       </c>
       <c r="AF403">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AG403">
         <v>0</v>
@@ -41694,7 +41165,7 @@
         <v>0</v>
       </c>
       <c r="AI403">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="AJ403">
         <v>0</v>
@@ -41733,7 +41204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:55">
+    <row r="404" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D404" t="s">
         <v>880</v>
       </c>
@@ -41780,7 +41251,7 @@
         <v>56</v>
       </c>
       <c r="AF404">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG404">
         <v>0</v>
@@ -41789,7 +41260,7 @@
         <v>0</v>
       </c>
       <c r="AI404">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="AJ404">
         <v>0</v>
@@ -41828,7 +41299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:55">
+    <row r="405" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D405" t="s">
         <v>882</v>
       </c>
@@ -41875,7 +41346,7 @@
         <v>56</v>
       </c>
       <c r="AF405">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AG405">
         <v>0</v>
@@ -41884,7 +41355,7 @@
         <v>0</v>
       </c>
       <c r="AI405">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AJ405">
         <v>0</v>
@@ -41923,7 +41394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:55">
+    <row r="406" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D406" t="s">
         <v>884</v>
       </c>
@@ -41970,7 +41441,7 @@
         <v>56</v>
       </c>
       <c r="AF406">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AG406">
         <v>0</v>
@@ -41979,7 +41450,7 @@
         <v>0</v>
       </c>
       <c r="AI406">
-        <v>0.0009</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="AJ406">
         <v>0</v>
@@ -42018,7 +41489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:55">
+    <row r="407" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D407" t="s">
         <v>886</v>
       </c>
@@ -42065,7 +41536,7 @@
         <v>56</v>
       </c>
       <c r="AF407">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AG407">
         <v>0</v>
@@ -42074,7 +41545,7 @@
         <v>0</v>
       </c>
       <c r="AI407">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AJ407">
         <v>0</v>
@@ -42113,7 +41584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:55">
+    <row r="408" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D408" t="s">
         <v>888</v>
       </c>
@@ -42163,7 +41634,7 @@
         <v>0</v>
       </c>
       <c r="AI408">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AJ408">
         <v>0</v>
@@ -42202,7 +41673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:55">
+    <row r="409" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D409" t="s">
         <v>890</v>
       </c>
@@ -42240,7 +41711,7 @@
         <v>56</v>
       </c>
       <c r="AF409">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AG409">
         <v>0</v>
@@ -42249,7 +41720,7 @@
         <v>0</v>
       </c>
       <c r="AI409">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AJ409">
         <v>0</v>
@@ -42288,7 +41759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:55">
+    <row r="410" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D410" t="s">
         <v>892</v>
       </c>
@@ -42326,7 +41797,7 @@
         <v>56</v>
       </c>
       <c r="AF410">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG410">
         <v>0</v>
@@ -42335,7 +41806,7 @@
         <v>0</v>
       </c>
       <c r="AI410">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AJ410">
         <v>0</v>
@@ -42374,7 +41845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:55">
+    <row r="411" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D411" t="s">
         <v>894</v>
       </c>
@@ -42412,7 +41883,7 @@
         <v>56</v>
       </c>
       <c r="AF411">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AG411">
         <v>0</v>
@@ -42421,7 +41892,7 @@
         <v>0</v>
       </c>
       <c r="AI411">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AJ411">
         <v>0</v>
@@ -42460,7 +41931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:55">
+    <row r="412" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D412" t="s">
         <v>896</v>
       </c>
@@ -42498,7 +41969,7 @@
         <v>56</v>
       </c>
       <c r="AF412">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AG412">
         <v>0</v>
@@ -42507,7 +41978,7 @@
         <v>0</v>
       </c>
       <c r="AI412">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AJ412">
         <v>0</v>
@@ -42546,7 +42017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:55">
+    <row r="413" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D413" t="s">
         <v>898</v>
       </c>
@@ -42566,10 +42037,10 @@
         <v>7000</v>
       </c>
       <c r="S413">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V413">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Y413">
         <v>1</v>
@@ -42584,7 +42055,7 @@
         <v>56</v>
       </c>
       <c r="AF413">
-        <v>0.029</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AG413">
         <v>0</v>
@@ -42593,7 +42064,7 @@
         <v>0</v>
       </c>
       <c r="AI413">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AJ413">
         <v>0</v>
@@ -42632,7 +42103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:55">
+    <row r="414" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D414" t="s">
         <v>900</v>
       </c>
@@ -42679,7 +42150,7 @@
         <v>0</v>
       </c>
       <c r="AI414">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AJ414">
         <v>0</v>
@@ -42718,7 +42189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:55">
+    <row r="415" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D415" t="s">
         <v>902</v>
       </c>
@@ -42756,7 +42227,7 @@
         <v>56</v>
       </c>
       <c r="AF415">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG415">
         <v>0</v>
@@ -42765,7 +42236,7 @@
         <v>0</v>
       </c>
       <c r="AI415">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AJ415">
         <v>0</v>
@@ -42804,7 +42275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:55">
+    <row r="416" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D416" t="s">
         <v>904</v>
       </c>
@@ -42842,7 +42313,7 @@
         <v>56</v>
       </c>
       <c r="AF416">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AG416">
         <v>0</v>
@@ -42890,7 +42361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:55">
+    <row r="417" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D417" t="s">
         <v>906</v>
       </c>
@@ -42928,7 +42399,7 @@
         <v>56</v>
       </c>
       <c r="AF417">
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AG417">
         <v>0</v>
@@ -42937,7 +42408,7 @@
         <v>0</v>
       </c>
       <c r="AI417">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AJ417">
         <v>0</v>
@@ -42976,7 +42447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:55">
+    <row r="418" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D418" t="s">
         <v>908</v>
       </c>
@@ -43014,7 +42485,7 @@
         <v>56</v>
       </c>
       <c r="AF418">
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AG418">
         <v>0</v>
@@ -43023,7 +42494,7 @@
         <v>0</v>
       </c>
       <c r="AI418">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AJ418">
         <v>0</v>
@@ -43062,7 +42533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:55">
+    <row r="419" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D419" t="s">
         <v>910</v>
       </c>
@@ -43100,7 +42571,7 @@
         <v>56</v>
       </c>
       <c r="AF419">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AG419">
         <v>0</v>
@@ -43109,7 +42580,7 @@
         <v>0</v>
       </c>
       <c r="AI419">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AJ419">
         <v>0</v>
@@ -43148,7 +42619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:55">
+    <row r="420" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D420" t="s">
         <v>912</v>
       </c>
@@ -43186,7 +42657,7 @@
         <v>56</v>
       </c>
       <c r="AF420">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AG420">
         <v>0</v>
@@ -43195,7 +42666,7 @@
         <v>0</v>
       </c>
       <c r="AI420">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AJ420">
         <v>0</v>
@@ -43234,7 +42705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:55">
+    <row r="421" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D421" t="s">
         <v>914</v>
       </c>
@@ -43272,7 +42743,7 @@
         <v>56</v>
       </c>
       <c r="AF421">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AG421">
         <v>0</v>
@@ -43320,7 +42791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:55">
+    <row r="422" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D422" t="s">
         <v>916</v>
       </c>
@@ -43367,7 +42838,7 @@
         <v>0</v>
       </c>
       <c r="AI422">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AJ422">
         <v>0</v>
@@ -43406,7 +42877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:55">
+    <row r="423" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D423" t="s">
         <v>918</v>
       </c>
@@ -43444,7 +42915,7 @@
         <v>56</v>
       </c>
       <c r="AF423">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AG423">
         <v>0</v>
@@ -43453,7 +42924,7 @@
         <v>0</v>
       </c>
       <c r="AI423">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AJ423">
         <v>0</v>
@@ -43492,7 +42963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:55">
+    <row r="424" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D424" t="s">
         <v>920</v>
       </c>
@@ -43512,10 +42983,10 @@
         <v>1000000</v>
       </c>
       <c r="S424">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V424">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y424">
         <v>1</v>
@@ -43530,7 +43001,7 @@
         <v>56</v>
       </c>
       <c r="AF424">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AG424">
         <v>0</v>
@@ -43539,7 +43010,7 @@
         <v>0</v>
       </c>
       <c r="AI424">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AJ424">
         <v>0</v>
@@ -43578,7 +43049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:55">
+    <row r="425" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D425" t="s">
         <v>922</v>
       </c>
@@ -43598,10 +43069,10 @@
         <v>10000000</v>
       </c>
       <c r="S425">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V425">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y425">
         <v>1</v>
@@ -43616,7 +43087,7 @@
         <v>56</v>
       </c>
       <c r="AF425">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AG425">
         <v>0</v>
@@ -43625,7 +43096,7 @@
         <v>0</v>
       </c>
       <c r="AI425">
-        <v>0.029</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AJ425">
         <v>0</v>
@@ -43664,7 +43135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:55">
+    <row r="426" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D426" t="s">
         <v>923</v>
       </c>
@@ -43702,7 +43173,7 @@
         <v>56</v>
       </c>
       <c r="AF426">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="AG426">
         <v>0</v>
@@ -43750,7 +43221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:55">
+    <row r="427" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D427" t="s">
         <v>925</v>
       </c>
@@ -43788,7 +43259,7 @@
         <v>56</v>
       </c>
       <c r="AF427">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AG427">
         <v>0</v>
@@ -43797,7 +43268,7 @@
         <v>0</v>
       </c>
       <c r="AI427">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AJ427">
         <v>0</v>
@@ -43836,7 +43307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:55">
+    <row r="428" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D428" t="s">
         <v>927</v>
       </c>
@@ -43874,7 +43345,7 @@
         <v>56</v>
       </c>
       <c r="AF428">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="AG428">
         <v>0</v>
@@ -43883,7 +43354,7 @@
         <v>0</v>
       </c>
       <c r="AI428">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AJ428">
         <v>0</v>
@@ -43922,7 +43393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:55">
+    <row r="429" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D429" t="s">
         <v>929</v>
       </c>
@@ -43960,7 +43431,7 @@
         <v>56</v>
       </c>
       <c r="AF429">
-        <v>0.073</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="AG429">
         <v>0</v>
@@ -43969,7 +43440,7 @@
         <v>0</v>
       </c>
       <c r="AI429">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AJ429">
         <v>0</v>
@@ -44008,7 +43479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:55">
+    <row r="430" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D430" t="s">
         <v>931</v>
       </c>
@@ -44046,7 +43517,7 @@
         <v>56</v>
       </c>
       <c r="AF430">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AG430">
         <v>0</v>
@@ -44055,7 +43526,7 @@
         <v>0</v>
       </c>
       <c r="AI430">
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AJ430">
         <v>0</v>
@@ -44094,7 +43565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:55">
+    <row r="431" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D431" t="s">
         <v>933</v>
       </c>
@@ -44180,7 +43651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:55">
+    <row r="432" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D432" t="s">
         <v>935</v>
       </c>
@@ -44218,7 +43689,7 @@
         <v>56</v>
       </c>
       <c r="AF432">
-        <v>0.083</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AG432">
         <v>0</v>
@@ -44227,7 +43698,7 @@
         <v>0</v>
       </c>
       <c r="AI432">
-        <v>0.041</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AJ432">
         <v>0</v>
@@ -44266,7 +43737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:55">
+    <row r="433" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D433" t="s">
         <v>937</v>
       </c>
@@ -44304,7 +43775,7 @@
         <v>56</v>
       </c>
       <c r="AF433">
-        <v>0.086</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="AG433">
         <v>0</v>
@@ -44313,7 +43784,7 @@
         <v>0</v>
       </c>
       <c r="AI433">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AJ433">
         <v>0</v>
@@ -44352,7 +43823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:55">
+    <row r="434" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D434" t="s">
         <v>939</v>
       </c>
@@ -44399,7 +43870,7 @@
         <v>0</v>
       </c>
       <c r="AI434">
-        <v>0.044</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AJ434">
         <v>0</v>
@@ -44438,7 +43909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:55">
+    <row r="435" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D435" t="s">
         <v>941</v>
       </c>
@@ -44491,7 +43962,7 @@
         <v>0</v>
       </c>
       <c r="AI435">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AJ435">
         <v>0</v>
@@ -44533,7 +44004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:55">
+    <row r="436" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D436" t="s">
         <v>943</v>
       </c>
@@ -44628,7 +44099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:55">
+    <row r="437" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D437" t="s">
         <v>945</v>
       </c>
@@ -44654,10 +44125,10 @@
         <v>0</v>
       </c>
       <c r="S437">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V437">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y437">
         <v>1</v>
@@ -44672,7 +44143,7 @@
         <v>56</v>
       </c>
       <c r="AF437">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AG437">
         <v>0</v>
@@ -44681,7 +44152,7 @@
         <v>0</v>
       </c>
       <c r="AI437">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="AJ437">
         <v>0</v>
@@ -44723,7 +44194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:55">
+    <row r="438" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D438" t="s">
         <v>947</v>
       </c>
@@ -44749,10 +44220,10 @@
         <v>0</v>
       </c>
       <c r="S438">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="V438">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Y438">
         <v>1</v>
@@ -44776,7 +44247,7 @@
         <v>0</v>
       </c>
       <c r="AI438">
-        <v>0.054</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="AJ438">
         <v>0</v>
@@ -44818,7 +44289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:55">
+    <row r="439" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D439" t="s">
         <v>949</v>
       </c>
@@ -44922,7 +44393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:55">
+    <row r="440" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D440" t="s">
         <v>952</v>
       </c>
@@ -45026,7 +44497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:55">
+    <row r="441" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D441" t="s">
         <v>954</v>
       </c>
@@ -45130,7 +44601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:55">
+    <row r="442" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D442" t="s">
         <v>956</v>
       </c>
@@ -45234,7 +44705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:55">
+    <row r="443" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D443" t="s">
         <v>958</v>
       </c>
@@ -45338,7 +44809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:55">
+    <row r="444" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D444" t="s">
         <v>960</v>
       </c>
@@ -45442,7 +44913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:55">
+    <row r="445" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D445" t="s">
         <v>962</v>
       </c>
@@ -45546,7 +45017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:55">
+    <row r="446" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D446" t="s">
         <v>964</v>
       </c>
@@ -45566,25 +45037,25 @@
         <v>1000</v>
       </c>
       <c r="Q446">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R446">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S446">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T446">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U446">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V446">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W446">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y446">
         <v>1</v>
@@ -45647,7 +45118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:55">
+    <row r="447" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D447" t="s">
         <v>966</v>
       </c>
@@ -45748,7 +45219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:55">
+    <row r="448" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D448" t="s">
         <v>968</v>
       </c>
@@ -45849,7 +45320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:55">
+    <row r="449" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D449" t="s">
         <v>970</v>
       </c>
@@ -45950,7 +45421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:55">
+    <row r="450" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D450" t="s">
         <v>972</v>
       </c>
@@ -46051,7 +45522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:55">
+    <row r="451" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D451" t="s">
         <v>974</v>
       </c>
@@ -46152,7 +45623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:55">
+    <row r="452" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D452" t="s">
         <v>976</v>
       </c>
@@ -46253,7 +45724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:55">
+    <row r="453" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D453" t="s">
         <v>978</v>
       </c>
@@ -46354,7 +45825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:55">
+    <row r="454" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D454" t="s">
         <v>980</v>
       </c>
@@ -46455,7 +45926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:55">
+    <row r="455" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D455" t="s">
         <v>982</v>
       </c>
@@ -46556,7 +46027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:55">
+    <row r="456" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D456" t="s">
         <v>984</v>
       </c>
@@ -46657,7 +46128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:55">
+    <row r="457" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D457" t="s">
         <v>986</v>
       </c>
@@ -46758,7 +46229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:55">
+    <row r="458" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D458" t="s">
         <v>988</v>
       </c>
@@ -46859,7 +46330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:55">
+    <row r="459" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D459" t="s">
         <v>990</v>
       </c>
@@ -46960,7 +46431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:55">
+    <row r="460" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D460" t="s">
         <v>992</v>
       </c>
@@ -47061,7 +46532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:55">
+    <row r="461" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D461" t="s">
         <v>994</v>
       </c>
@@ -47162,7 +46633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:55">
+    <row r="462" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D462" t="s">
         <v>996</v>
       </c>
@@ -47182,25 +46653,25 @@
         <v>10000000</v>
       </c>
       <c r="Q462">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R462">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S462">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="T462">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U462">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V462">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W462">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y462">
         <v>1</v>
@@ -47263,7 +46734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:55">
+    <row r="463" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D463" t="s">
         <v>998</v>
       </c>
@@ -47283,25 +46754,25 @@
         <v>25000000</v>
       </c>
       <c r="Q463">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R463">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S463">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T463">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U463">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V463">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W463">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y463">
         <v>1</v>
@@ -47364,7 +46835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:55">
+    <row r="464" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D464" t="s">
         <v>1000</v>
       </c>
@@ -47465,7 +46936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:55">
+    <row r="465" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D465" t="s">
         <v>1002</v>
       </c>
@@ -47566,7 +47037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:55">
+    <row r="466" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D466" t="s">
         <v>1004</v>
       </c>
@@ -47667,7 +47138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:55">
+    <row r="467" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D467" t="s">
         <v>1006</v>
       </c>
@@ -47768,7 +47239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:55">
+    <row r="468" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D468" t="s">
         <v>1008</v>
       </c>
@@ -47869,7 +47340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:55">
+    <row r="469" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D469" t="s">
         <v>1010</v>
       </c>
@@ -47970,7 +47441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:55">
+    <row r="470" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D470" t="s">
         <v>1012</v>
       </c>
@@ -48071,7 +47542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:55">
+    <row r="471" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D471" t="s">
         <v>1014</v>
       </c>
@@ -48172,7 +47643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:55">
+    <row r="472" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D472" t="s">
         <v>1016</v>
       </c>
@@ -48282,7 +47753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:55">
+    <row r="473" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D473" t="s">
         <v>1018</v>
       </c>
@@ -48392,7 +47863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:55">
+    <row r="474" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D474" t="s">
         <v>1020</v>
       </c>
@@ -48502,7 +47973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:55">
+    <row r="475" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D475" t="s">
         <v>1022</v>
       </c>
@@ -48612,7 +48083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:55">
+    <row r="476" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D476" t="s">
         <v>1024</v>
       </c>
@@ -48713,7 +48184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:55">
+    <row r="477" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D477" t="s">
         <v>1027</v>
       </c>
@@ -48754,7 +48225,7 @@
         <v>1029</v>
       </c>
       <c r="AF477">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AG477">
         <v>0</v>
@@ -48805,7 +48276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:55">
+    <row r="478" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D478" t="s">
         <v>1030</v>
       </c>
@@ -48846,10 +48317,10 @@
         <v>1032</v>
       </c>
       <c r="AF478">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AG478">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AH478">
         <v>0</v>
@@ -48897,7 +48368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:55">
+    <row r="479" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D479" t="s">
         <v>1033</v>
       </c>
@@ -48938,13 +48409,13 @@
         <v>1035</v>
       </c>
       <c r="AF479">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AG479">
         <v>0</v>
       </c>
       <c r="AH479">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AI479">
         <v>0</v>
@@ -48989,7 +48460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:55">
+    <row r="480" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D480" t="s">
         <v>1036</v>
       </c>
@@ -49030,7 +48501,7 @@
         <v>1038</v>
       </c>
       <c r="AF480">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AG480">
         <v>0</v>
@@ -49039,7 +48510,7 @@
         <v>0</v>
       </c>
       <c r="AI480">
-        <v>0.0004</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="AJ480">
         <v>0</v>
@@ -49081,7 +48552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:55">
+    <row r="481" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D481" t="s">
         <v>1039</v>
       </c>
@@ -49125,10 +48596,10 @@
         <v>1041</v>
       </c>
       <c r="AF481">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AG481">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AH481">
         <v>0</v>
@@ -49176,7 +48647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:55">
+    <row r="482" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D482" t="s">
         <v>1042</v>
       </c>
@@ -49217,7 +48688,7 @@
         <v>1044</v>
       </c>
       <c r="AF482">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AG482">
         <v>0</v>
@@ -49226,7 +48697,7 @@
         <v>0</v>
       </c>
       <c r="AI482">
-        <v>0.0004</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="AJ482">
         <v>0</v>
@@ -49268,7 +48739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:55">
+    <row r="483" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D483" t="s">
         <v>1045</v>
       </c>
@@ -49354,7 +48825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:55">
+    <row r="484" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D484" t="s">
         <v>1047</v>
       </c>
@@ -49440,7 +48911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:55">
+    <row r="485" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D485" t="s">
         <v>1049</v>
       </c>
@@ -49520,7 +48991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:55">
+    <row r="486" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D486" t="s">
         <v>1051</v>
       </c>
@@ -49600,7 +49071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:55">
+    <row r="487" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D487" t="s">
         <v>1053</v>
       </c>
@@ -49680,7 +49151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:55">
+    <row r="488" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D488" t="s">
         <v>1055</v>
       </c>
@@ -49760,7 +49231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:55">
+    <row r="489" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D489" t="s">
         <v>1057</v>
       </c>
@@ -49840,7 +49311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:55">
+    <row r="490" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D490" t="s">
         <v>1059</v>
       </c>
@@ -49926,7 +49397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:55">
+    <row r="491" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D491" t="s">
         <v>1062</v>
       </c>
@@ -50012,7 +49483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:55">
+    <row r="492" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D492" t="s">
         <v>1065</v>
       </c>
@@ -50098,7 +49569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:55">
+    <row r="493" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D493" t="s">
         <v>1068</v>
       </c>
@@ -50136,7 +49607,7 @@
         <v>1044</v>
       </c>
       <c r="AF493">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG493">
         <v>0</v>
@@ -50145,7 +49616,7 @@
         <v>0</v>
       </c>
       <c r="AI493">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AJ493">
         <v>0</v>
@@ -50187,7 +49658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:55">
+    <row r="494" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D494" t="s">
         <v>1070</v>
       </c>
@@ -50228,10 +49699,10 @@
         <v>1041</v>
       </c>
       <c r="AF494">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG494">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AH494">
         <v>0</v>
@@ -50279,7 +49750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:55">
+    <row r="495" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D495" t="s">
         <v>1072</v>
       </c>
@@ -50317,7 +49788,7 @@
         <v>1038</v>
       </c>
       <c r="AF495">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG495">
         <v>0</v>
@@ -50326,7 +49797,7 @@
         <v>0</v>
       </c>
       <c r="AI495">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AJ495">
         <v>0</v>
@@ -50368,7 +49839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:55">
+    <row r="496" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D496" t="s">
         <v>1074</v>
       </c>
@@ -50406,13 +49877,13 @@
         <v>1035</v>
       </c>
       <c r="AF496">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG496">
         <v>0</v>
       </c>
       <c r="AH496">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AI496">
         <v>0</v>
@@ -50457,7 +49928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:55">
+    <row r="497" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D497" t="s">
         <v>1076</v>
       </c>
@@ -50495,10 +49966,10 @@
         <v>1032</v>
       </c>
       <c r="AF497">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG497">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AH497">
         <v>0</v>
@@ -50546,7 +50017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:55">
+    <row r="498" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D498" t="s">
         <v>1078</v>
       </c>
@@ -50584,7 +50055,7 @@
         <v>1029</v>
       </c>
       <c r="AF498">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG498">
         <v>0</v>
@@ -50635,7 +50106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:55">
+    <row r="499" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D499" t="s">
         <v>1080</v>
       </c>
@@ -50721,7 +50192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:55">
+    <row r="500" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D500" t="s">
         <v>1082</v>
       </c>
@@ -50807,7 +50278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:55">
+    <row r="501" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D501" t="s">
         <v>1084</v>
       </c>
@@ -50893,7 +50364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:55">
+    <row r="502" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D502" t="s">
         <v>1086</v>
       </c>
@@ -50979,7 +50450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:55">
+    <row r="503" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D503" t="s">
         <v>1088</v>
       </c>
@@ -51065,7 +50536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:55">
+    <row r="504" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D504" t="s">
         <v>1090</v>
       </c>
@@ -51151,7 +50622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:55">
+    <row r="505" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D505" t="s">
         <v>1092</v>
       </c>
@@ -51249,7 +50720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:55">
+    <row r="506" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D506" t="s">
         <v>1094</v>
       </c>
@@ -51296,7 +50767,7 @@
         <v>0</v>
       </c>
       <c r="AI506">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AJ506">
         <v>0</v>
@@ -51338,7 +50809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:55">
+    <row r="507" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D507" t="s">
         <v>1096</v>
       </c>
@@ -51430,7 +50901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:55">
+    <row r="508" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D508" t="s">
         <v>1098</v>
       </c>
@@ -51477,7 +50948,7 @@
         <v>0</v>
       </c>
       <c r="AI508">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AJ508">
         <v>0</v>
@@ -51519,7 +50990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:55">
+    <row r="509" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D509" t="s">
         <v>1100</v>
       </c>
@@ -51608,7 +51079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:55">
+    <row r="510" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D510" t="s">
         <v>1102</v>
       </c>
@@ -51697,7 +51168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:55">
+    <row r="511" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D511" t="s">
         <v>1104</v>
       </c>
@@ -51786,7 +51257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:55">
+    <row r="512" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D512" t="s">
         <v>1106</v>
       </c>
@@ -51872,7 +51343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:55">
+    <row r="513" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D513" t="s">
         <v>1108</v>
       </c>
@@ -51958,7 +51429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:55">
+    <row r="514" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D514" t="s">
         <v>1110</v>
       </c>
@@ -52038,7 +51509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:55">
+    <row r="515" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D515" t="s">
         <v>1112</v>
       </c>
@@ -52118,7 +51589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:55">
+    <row r="516" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D516" t="s">
         <v>1114</v>
       </c>
@@ -52198,7 +51669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:55">
+    <row r="517" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D517" t="s">
         <v>1116</v>
       </c>
@@ -52278,7 +51749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:55">
+    <row r="518" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D518" t="s">
         <v>1118</v>
       </c>
@@ -52358,7 +51829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:55">
+    <row r="519" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D519" t="s">
         <v>1120</v>
       </c>
@@ -52444,7 +51915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:55">
+    <row r="520" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D520" t="s">
         <v>1122</v>
       </c>
@@ -52530,7 +52001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:55">
+    <row r="521" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D521" t="s">
         <v>1124</v>
       </c>
@@ -52616,7 +52087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:55">
+    <row r="522" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D522" t="s">
         <v>1126</v>
       </c>
@@ -52663,7 +52134,7 @@
         <v>0</v>
       </c>
       <c r="AI522">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AJ522">
         <v>0</v>
@@ -52705,7 +52176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:55">
+    <row r="523" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D523" t="s">
         <v>1128</v>
       </c>
@@ -52797,7 +52268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:55">
+    <row r="524" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D524" t="s">
         <v>1130</v>
       </c>
@@ -52844,7 +52315,7 @@
         <v>0</v>
       </c>
       <c r="AI524">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AJ524">
         <v>0</v>
@@ -52886,7 +52357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:55">
+    <row r="525" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D525" t="s">
         <v>1132</v>
       </c>
@@ -52975,7 +52446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:55">
+    <row r="526" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D526" t="s">
         <v>1134</v>
       </c>
@@ -53064,7 +52535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:55">
+    <row r="527" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D527" t="s">
         <v>1136</v>
       </c>
@@ -53153,7 +52624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:55">
+    <row r="528" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D528" t="s">
         <v>1138</v>
       </c>
@@ -53239,7 +52710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:55">
+    <row r="529" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D529" t="s">
         <v>1140</v>
       </c>
@@ -53325,7 +52796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:55">
+    <row r="530" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D530" t="s">
         <v>1142</v>
       </c>
@@ -53411,7 +52882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:55">
+    <row r="531" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D531" t="s">
         <v>1144</v>
       </c>
@@ -53497,7 +52968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:55">
+    <row r="532" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D532" t="s">
         <v>1146</v>
       </c>
@@ -53583,7 +53054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:55">
+    <row r="533" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D533" t="s">
         <v>1148</v>
       </c>
@@ -53669,7 +53140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:55">
+    <row r="534" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D534" t="s">
         <v>1150</v>
       </c>
@@ -53716,7 +53187,7 @@
         <v>0</v>
       </c>
       <c r="AI534">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AJ534">
         <v>0</v>
@@ -53758,7 +53229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:55">
+    <row r="535" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D535" t="s">
         <v>1152</v>
       </c>
@@ -53850,7 +53321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:55">
+    <row r="536" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D536" t="s">
         <v>1154</v>
       </c>
@@ -53897,7 +53368,7 @@
         <v>0</v>
       </c>
       <c r="AI536">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AJ536">
         <v>0</v>
@@ -53939,7 +53410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:55">
+    <row r="537" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D537" t="s">
         <v>1156</v>
       </c>
@@ -54028,7 +53499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:55">
+    <row r="538" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D538" t="s">
         <v>1158</v>
       </c>
@@ -54117,7 +53588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:55">
+    <row r="539" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D539" t="s">
         <v>1160</v>
       </c>
@@ -54203,7 +53674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:55">
+    <row r="540" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D540" t="s">
         <v>1162</v>
       </c>
@@ -54289,7 +53760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:55">
+    <row r="541" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D541" t="s">
         <v>1164</v>
       </c>
@@ -54378,7 +53849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:55">
+    <row r="542" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D542" t="s">
         <v>1166</v>
       </c>
@@ -54476,7 +53947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:55">
+    <row r="543" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D543" t="s">
         <v>1168</v>
       </c>
@@ -54556,7 +54027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:55">
+    <row r="544" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D544" t="s">
         <v>1170</v>
       </c>
@@ -54636,7 +54107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:55">
+    <row r="545" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D545" t="s">
         <v>1172</v>
       </c>
@@ -54716,7 +54187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:55">
+    <row r="546" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D546" t="s">
         <v>1174</v>
       </c>
@@ -54796,7 +54267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:55">
+    <row r="547" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D547" t="s">
         <v>1176</v>
       </c>
@@ -54876,7 +54347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:55">
+    <row r="548" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D548" t="s">
         <v>1178</v>
       </c>
@@ -54923,7 +54394,7 @@
         <v>0</v>
       </c>
       <c r="AI548">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AJ548">
         <v>0</v>
@@ -54965,7 +54436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:55">
+    <row r="549" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D549" t="s">
         <v>1180</v>
       </c>
@@ -55057,7 +54528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:55">
+    <row r="550" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D550" t="s">
         <v>1182</v>
       </c>
@@ -55104,7 +54575,7 @@
         <v>0</v>
       </c>
       <c r="AI550">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AJ550">
         <v>0</v>
@@ -55146,7 +54617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:55">
+    <row r="551" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D551" t="s">
         <v>1184</v>
       </c>
@@ -55235,7 +54706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:55">
+    <row r="552" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D552" t="s">
         <v>1186</v>
       </c>
@@ -55324,7 +54795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:55">
+    <row r="553" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D553" t="s">
         <v>1188</v>
       </c>
@@ -55413,7 +54884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:55">
+    <row r="554" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D554" t="s">
         <v>1190</v>
       </c>
@@ -55499,7 +54970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:55">
+    <row r="555" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D555" t="s">
         <v>1192</v>
       </c>
@@ -55585,7 +55056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:55">
+    <row r="556" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D556" t="s">
         <v>1194</v>
       </c>
@@ -55671,7 +55142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:55">
+    <row r="557" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D557" t="s">
         <v>1196</v>
       </c>
@@ -55757,7 +55228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:55">
+    <row r="558" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D558" t="s">
         <v>1198</v>
       </c>
@@ -55843,7 +55314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:55">
+    <row r="559" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D559" t="s">
         <v>1200</v>
       </c>
@@ -55929,7 +55400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:55">
+    <row r="560" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D560" t="s">
         <v>1202</v>
       </c>
@@ -56015,7 +55486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:55">
+    <row r="561" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D561" t="s">
         <v>1204</v>
       </c>
@@ -56101,7 +55572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:55">
+    <row r="562" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D562" t="s">
         <v>1206</v>
       </c>
@@ -56187,7 +55658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:55">
+    <row r="563" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D563" t="s">
         <v>1208</v>
       </c>
@@ -56285,7 +55756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:55">
+    <row r="564" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D564" t="s">
         <v>1210</v>
       </c>
@@ -56302,7 +55773,7 @@
         <v>260000</v>
       </c>
       <c r="Q564">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y564">
         <v>1</v>
@@ -56365,7 +55836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:55">
+    <row r="565" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D565" t="s">
         <v>1212</v>
       </c>
@@ -56382,7 +55853,7 @@
         <v>260000</v>
       </c>
       <c r="S565">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y565">
         <v>1</v>
@@ -56445,7 +55916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:55">
+    <row r="566" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D566" t="s">
         <v>1214</v>
       </c>
@@ -56462,7 +55933,7 @@
         <v>260000</v>
       </c>
       <c r="R566">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y566">
         <v>1</v>
@@ -56525,7 +55996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:55">
+    <row r="567" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D567" t="s">
         <v>1216</v>
       </c>
@@ -56542,7 +56013,7 @@
         <v>260000</v>
       </c>
       <c r="U567">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y567">
         <v>1</v>
@@ -56605,7 +56076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:55">
+    <row r="568" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D568" t="s">
         <v>1218</v>
       </c>
@@ -56622,7 +56093,7 @@
         <v>260000</v>
       </c>
       <c r="T568">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y568">
         <v>1</v>
@@ -56685,7 +56156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:55">
+    <row r="569" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D569" t="s">
         <v>1220</v>
       </c>
@@ -56708,7 +56179,7 @@
         <v>0</v>
       </c>
       <c r="W569">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y569">
         <v>1</v>
@@ -56771,7 +56242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:55">
+    <row r="570" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D570" t="s">
         <v>1222</v>
       </c>
@@ -56794,7 +56265,7 @@
         <v>0</v>
       </c>
       <c r="V570">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y570">
         <v>1</v>
@@ -56857,7 +56328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:55">
+    <row r="571" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D571" t="s">
         <v>1223</v>
       </c>
@@ -56943,7 +56414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:55">
+    <row r="572" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D572" t="s">
         <v>1225</v>
       </c>
@@ -57029,7 +56500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:55">
+    <row r="573" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D573" t="s">
         <v>1227</v>
       </c>
@@ -57115,7 +56586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:55">
+    <row r="574" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D574" t="s">
         <v>1229</v>
       </c>
@@ -57201,7 +56672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:55">
+    <row r="575" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D575" t="s">
         <v>1231</v>
       </c>
@@ -57287,7 +56758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:55">
+    <row r="576" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D576" t="s">
         <v>1233</v>
       </c>
@@ -57373,7 +56844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:55">
+    <row r="577" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D577" t="s">
         <v>1235</v>
       </c>
@@ -57459,7 +56930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:55">
+    <row r="578" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D578" t="s">
         <v>1237</v>
       </c>
@@ -57545,7 +57016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:55">
+    <row r="579" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D579" t="s">
         <v>1239</v>
       </c>
@@ -57631,7 +57102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:55">
+    <row r="580" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D580" t="s">
         <v>1241</v>
       </c>
@@ -57678,7 +57149,7 @@
         <v>0</v>
       </c>
       <c r="AI580">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AJ580">
         <v>0</v>
@@ -57720,7 +57191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:55">
+    <row r="581" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D581" t="s">
         <v>1243</v>
       </c>
@@ -57812,7 +57283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:55">
+    <row r="582" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D582" t="s">
         <v>1245</v>
       </c>
@@ -57859,7 +57330,7 @@
         <v>0</v>
       </c>
       <c r="AI582">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AJ582">
         <v>0</v>
@@ -57901,7 +57372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:55">
+    <row r="583" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D583" t="s">
         <v>1247</v>
       </c>
@@ -57990,7 +57461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:55">
+    <row r="584" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D584" t="s">
         <v>1249</v>
       </c>
@@ -58079,7 +57550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:55">
+    <row r="585" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D585" t="s">
         <v>1251</v>
       </c>
@@ -58168,7 +57639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:55">
+    <row r="586" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D586" t="s">
         <v>1253</v>
       </c>
@@ -58266,7 +57737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:55">
+    <row r="587" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D587" t="s">
         <v>1255</v>
       </c>
@@ -58346,7 +57817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:55">
+    <row r="588" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D588" t="s">
         <v>1257</v>
       </c>
@@ -58426,7 +57897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:55">
+    <row r="589" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D589" t="s">
         <v>1259</v>
       </c>
@@ -58506,7 +57977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:55">
+    <row r="590" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D590" t="s">
         <v>1261</v>
       </c>
@@ -58586,7 +58057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:55">
+    <row r="591" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D591" t="s">
         <v>1263</v>
       </c>
@@ -58666,7 +58137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:55">
+    <row r="592" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D592" t="s">
         <v>1265</v>
       </c>
@@ -58752,7 +58223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:55">
+    <row r="593" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D593" t="s">
         <v>1267</v>
       </c>
@@ -58838,7 +58309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:55">
+    <row r="594" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D594" t="s">
         <v>1269</v>
       </c>
@@ -58924,7 +58395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:55">
+    <row r="595" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D595" t="s">
         <v>1271</v>
       </c>
@@ -59010,7 +58481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:55">
+    <row r="596" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D596" t="s">
         <v>1273</v>
       </c>
@@ -59096,7 +58567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:55">
+    <row r="597" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D597" t="s">
         <v>1275</v>
       </c>
@@ -59143,7 +58614,7 @@
         <v>0</v>
       </c>
       <c r="AI597">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AJ597">
         <v>0</v>
@@ -59185,7 +58656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:55">
+    <row r="598" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D598" t="s">
         <v>1277</v>
       </c>
@@ -59277,7 +58748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:55">
+    <row r="599" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D599" t="s">
         <v>1279</v>
       </c>
@@ -59324,7 +58795,7 @@
         <v>0</v>
       </c>
       <c r="AI599">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AJ599">
         <v>0</v>
@@ -59366,7 +58837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:55">
+    <row r="600" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D600" t="s">
         <v>1281</v>
       </c>
@@ -59455,7 +58926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:55">
+    <row r="601" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D601" t="s">
         <v>1283</v>
       </c>
@@ -59544,7 +59015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:55">
+    <row r="602" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D602" t="s">
         <v>1285</v>
       </c>
@@ -59633,7 +59104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:55">
+    <row r="603" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D603" t="s">
         <v>1287</v>
       </c>
@@ -59719,7 +59190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:55">
+    <row r="604" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D604" t="s">
         <v>1289</v>
       </c>
@@ -59805,7 +59276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:55">
+    <row r="605" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D605" t="s">
         <v>1291</v>
       </c>
@@ -59891,7 +59362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:55">
+    <row r="606" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D606" t="s">
         <v>1293</v>
       </c>
@@ -59977,7 +59448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:55">
+    <row r="607" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D607" t="s">
         <v>1295</v>
       </c>
@@ -60063,7 +59534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:55">
+    <row r="608" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D608" t="s">
         <v>1297</v>
       </c>
@@ -60149,7 +59620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:55">
+    <row r="609" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C609">
         <v>1</v>
       </c>
@@ -60247,7 +59718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:55">
+    <row r="610" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C610">
         <v>1</v>
       </c>
@@ -60294,7 +59765,7 @@
         <v>0</v>
       </c>
       <c r="AI610">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AJ610">
         <v>0</v>
@@ -60345,7 +59816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:55">
+    <row r="611" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C611">
         <v>1</v>
       </c>
@@ -60443,7 +59914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:55">
+    <row r="612" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C612">
         <v>1</v>
       </c>
@@ -60541,7 +60012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:55">
+    <row r="613" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C613">
         <v>1</v>
       </c>
@@ -60639,7 +60110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:55">
+    <row r="614" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C614">
         <v>1</v>
       </c>
@@ -60737,7 +60208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:55">
+    <row r="615" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C615">
         <v>1</v>
       </c>
@@ -60832,7 +60303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:55">
+    <row r="616" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C616">
         <v>1</v>
       </c>
@@ -60930,7 +60401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:55">
+    <row r="617" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C617">
         <v>1</v>
       </c>
@@ -61028,7 +60499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:55">
+    <row r="618" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C618">
         <v>1</v>
       </c>
@@ -61126,7 +60597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:55">
+    <row r="619" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C619">
         <v>1</v>
       </c>
@@ -61224,7 +60695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:55">
+    <row r="620" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C620">
         <v>1</v>
       </c>
@@ -61322,7 +60793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:55">
+    <row r="621" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C621">
         <v>1</v>
       </c>
@@ -61420,7 +60891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:55">
+    <row r="622" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C622">
         <v>1</v>
       </c>
@@ -61518,7 +60989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:55">
+    <row r="623" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C623">
         <v>1</v>
       </c>
@@ -61613,7 +61084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:55">
+    <row r="624" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C624">
         <v>1</v>
       </c>
@@ -61711,7 +61182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:55">
+    <row r="625" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C625">
         <v>1</v>
       </c>
@@ -61806,7 +61277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:55">
+    <row r="626" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C626">
         <v>1</v>
       </c>
@@ -61853,7 +61324,7 @@
         <v>0</v>
       </c>
       <c r="AI626">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AJ626">
         <v>0</v>
@@ -61904,7 +61375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:55">
+    <row r="627" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C627">
         <v>1</v>
       </c>
@@ -62002,7 +61473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:55">
+    <row r="628" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C628">
         <v>1</v>
       </c>
@@ -62076,7 +61547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:55">
+    <row r="629" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C629">
         <v>1</v>
       </c>
@@ -62162,7 +61633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:55">
+    <row r="630" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C630">
         <v>1</v>
       </c>
@@ -62239,7 +61710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:55">
+    <row r="631" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C631">
         <v>1</v>
       </c>
@@ -62331,7 +61802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:55">
+    <row r="632" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C632">
         <v>1</v>
       </c>
@@ -62429,7 +61900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:55">
+    <row r="633" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C633">
         <v>1</v>
       </c>
@@ -62527,7 +61998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:55">
+    <row r="634" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C634">
         <v>1</v>
       </c>
@@ -62574,7 +62045,7 @@
         <v>0</v>
       </c>
       <c r="AI634">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AJ634">
         <v>0</v>
@@ -62625,7 +62096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:55">
+    <row r="635" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C635">
         <v>1</v>
       </c>
@@ -62693,7 +62164,7 @@
         <v>1</v>
       </c>
       <c r="AR635">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AT635">
         <v>0</v>
@@ -62723,7 +62194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:55">
+    <row r="636" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C636">
         <v>1</v>
       </c>
@@ -62822,17 +62293,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C84CEFC-4498-DA4C-AE95-E5372CF18987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10424159-D07B-E94D-99AE-F067C9F3771B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4401,8 +4401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:U38"/>
+    <sheetView tabSelected="1" topLeftCell="F184" workbookViewId="0">
+      <selection activeCell="R193" sqref="R193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4721,6 +4721,21 @@
       <c r="K3">
         <v>25</v>
       </c>
+      <c r="Q3">
+        <v>0.05</v>
+      </c>
+      <c r="R3">
+        <v>0.05</v>
+      </c>
+      <c r="S3">
+        <v>0.05</v>
+      </c>
+      <c r="T3">
+        <v>0.05</v>
+      </c>
+      <c r="U3">
+        <v>0.05</v>
+      </c>
       <c r="Y3">
         <v>1</v>
       </c>
@@ -4801,6 +4816,21 @@
       <c r="K4">
         <v>75</v>
       </c>
+      <c r="Q4">
+        <v>0.08</v>
+      </c>
+      <c r="R4">
+        <v>0.08</v>
+      </c>
+      <c r="S4">
+        <v>0.08</v>
+      </c>
+      <c r="T4">
+        <v>0.08</v>
+      </c>
+      <c r="U4">
+        <v>0.08</v>
+      </c>
       <c r="Y4">
         <v>1</v>
       </c>
@@ -4881,6 +4911,21 @@
       <c r="K5">
         <v>150</v>
       </c>
+      <c r="Q5">
+        <v>0.16</v>
+      </c>
+      <c r="R5">
+        <v>0.16</v>
+      </c>
+      <c r="S5">
+        <v>0.16</v>
+      </c>
+      <c r="T5">
+        <v>0.16</v>
+      </c>
+      <c r="U5">
+        <v>0.16</v>
+      </c>
       <c r="Y5">
         <v>1</v>
       </c>
@@ -4961,6 +5006,21 @@
       <c r="K6">
         <v>250</v>
       </c>
+      <c r="Q6">
+        <v>0.18</v>
+      </c>
+      <c r="R6">
+        <v>0.18</v>
+      </c>
+      <c r="S6">
+        <v>0.18</v>
+      </c>
+      <c r="T6">
+        <v>0.18</v>
+      </c>
+      <c r="U6">
+        <v>0.18</v>
+      </c>
       <c r="Y6">
         <v>1</v>
       </c>
@@ -5041,6 +5101,21 @@
       <c r="K7">
         <v>500</v>
       </c>
+      <c r="Q7">
+        <v>0.19</v>
+      </c>
+      <c r="R7">
+        <v>0.19</v>
+      </c>
+      <c r="S7">
+        <v>0.19</v>
+      </c>
+      <c r="T7">
+        <v>0.19</v>
+      </c>
+      <c r="U7">
+        <v>0.19</v>
+      </c>
       <c r="Y7">
         <v>1</v>
       </c>
@@ -5121,6 +5196,21 @@
       <c r="K8">
         <v>750</v>
       </c>
+      <c r="Q8">
+        <v>0.2</v>
+      </c>
+      <c r="R8">
+        <v>0.2</v>
+      </c>
+      <c r="S8">
+        <v>0.2</v>
+      </c>
+      <c r="T8">
+        <v>0.2</v>
+      </c>
+      <c r="U8">
+        <v>0.2</v>
+      </c>
       <c r="Y8">
         <v>1</v>
       </c>
@@ -5201,6 +5291,21 @@
       <c r="K9">
         <v>1000</v>
       </c>
+      <c r="Q9">
+        <v>0.22</v>
+      </c>
+      <c r="R9">
+        <v>0.22</v>
+      </c>
+      <c r="S9">
+        <v>0.22</v>
+      </c>
+      <c r="T9">
+        <v>0.22</v>
+      </c>
+      <c r="U9">
+        <v>0.22</v>
+      </c>
       <c r="Y9">
         <v>1</v>
       </c>
@@ -5278,6 +5383,21 @@
       <c r="K10">
         <v>1500</v>
       </c>
+      <c r="Q10">
+        <v>0.25</v>
+      </c>
+      <c r="R10">
+        <v>0.25</v>
+      </c>
+      <c r="S10">
+        <v>0.25</v>
+      </c>
+      <c r="T10">
+        <v>0.25</v>
+      </c>
+      <c r="U10">
+        <v>0.25</v>
+      </c>
       <c r="Y10">
         <v>1</v>
       </c>
@@ -5355,6 +5475,21 @@
       <c r="K11">
         <v>3000</v>
       </c>
+      <c r="Q11">
+        <v>0.27</v>
+      </c>
+      <c r="R11">
+        <v>0.27</v>
+      </c>
+      <c r="S11">
+        <v>0.27</v>
+      </c>
+      <c r="T11">
+        <v>0.27</v>
+      </c>
+      <c r="U11">
+        <v>0.27</v>
+      </c>
       <c r="Y11">
         <v>1</v>
       </c>
@@ -5432,6 +5567,21 @@
       <c r="K12">
         <v>5000</v>
       </c>
+      <c r="Q12">
+        <v>0.27</v>
+      </c>
+      <c r="R12">
+        <v>0.27</v>
+      </c>
+      <c r="S12">
+        <v>0.27</v>
+      </c>
+      <c r="T12">
+        <v>0.27</v>
+      </c>
+      <c r="U12">
+        <v>0.27</v>
+      </c>
       <c r="Y12">
         <v>1</v>
       </c>
@@ -5509,6 +5659,21 @@
       <c r="K13">
         <v>7000</v>
       </c>
+      <c r="Q13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U13">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="Y13">
         <v>1</v>
       </c>
@@ -5586,6 +5751,21 @@
       <c r="K14">
         <v>10000</v>
       </c>
+      <c r="Q14">
+        <v>0.3</v>
+      </c>
+      <c r="R14">
+        <v>0.3</v>
+      </c>
+      <c r="S14">
+        <v>0.3</v>
+      </c>
+      <c r="T14">
+        <v>0.3</v>
+      </c>
+      <c r="U14">
+        <v>0.3</v>
+      </c>
       <c r="Y14">
         <v>1</v>
       </c>
@@ -5663,6 +5843,21 @@
       <c r="K15">
         <v>15000</v>
       </c>
+      <c r="Q15">
+        <v>0.35</v>
+      </c>
+      <c r="R15">
+        <v>0.35</v>
+      </c>
+      <c r="S15">
+        <v>0.35</v>
+      </c>
+      <c r="T15">
+        <v>0.35</v>
+      </c>
+      <c r="U15">
+        <v>0.35</v>
+      </c>
       <c r="Y15">
         <v>1</v>
       </c>
@@ -5740,6 +5935,21 @@
       <c r="K16">
         <v>30000</v>
       </c>
+      <c r="Q16">
+        <v>0.37</v>
+      </c>
+      <c r="R16">
+        <v>0.37</v>
+      </c>
+      <c r="S16">
+        <v>0.37</v>
+      </c>
+      <c r="T16">
+        <v>0.37</v>
+      </c>
+      <c r="U16">
+        <v>0.37</v>
+      </c>
       <c r="Y16">
         <v>1</v>
       </c>
@@ -5817,6 +6027,21 @@
       <c r="K17">
         <v>60000</v>
       </c>
+      <c r="Q17">
+        <v>0.38</v>
+      </c>
+      <c r="R17">
+        <v>0.38</v>
+      </c>
+      <c r="S17">
+        <v>0.38</v>
+      </c>
+      <c r="T17">
+        <v>0.38</v>
+      </c>
+      <c r="U17">
+        <v>0.38</v>
+      </c>
       <c r="Y17">
         <v>1</v>
       </c>
@@ -5894,6 +6119,21 @@
       <c r="K18">
         <v>120000</v>
       </c>
+      <c r="Q18">
+        <v>0.38</v>
+      </c>
+      <c r="R18">
+        <v>0.38</v>
+      </c>
+      <c r="S18">
+        <v>0.38</v>
+      </c>
+      <c r="T18">
+        <v>0.38</v>
+      </c>
+      <c r="U18">
+        <v>0.38</v>
+      </c>
       <c r="Y18">
         <v>1</v>
       </c>
@@ -5971,6 +6211,21 @@
       <c r="K19">
         <v>180000</v>
       </c>
+      <c r="Q19">
+        <v>0.42</v>
+      </c>
+      <c r="R19">
+        <v>0.42</v>
+      </c>
+      <c r="S19">
+        <v>0.42</v>
+      </c>
+      <c r="T19">
+        <v>0.42</v>
+      </c>
+      <c r="U19">
+        <v>0.42</v>
+      </c>
       <c r="Y19">
         <v>1</v>
       </c>
@@ -6048,6 +6303,21 @@
       <c r="K20">
         <v>240000</v>
       </c>
+      <c r="Q20">
+        <v>0.45</v>
+      </c>
+      <c r="R20">
+        <v>0.45</v>
+      </c>
+      <c r="S20">
+        <v>0.45</v>
+      </c>
+      <c r="T20">
+        <v>0.45</v>
+      </c>
+      <c r="U20">
+        <v>0.45</v>
+      </c>
       <c r="Y20">
         <v>1</v>
       </c>
@@ -6125,6 +6395,21 @@
       <c r="K21">
         <v>260000</v>
       </c>
+      <c r="Q21">
+        <v>0.48</v>
+      </c>
+      <c r="R21">
+        <v>0.48</v>
+      </c>
+      <c r="S21">
+        <v>0.48</v>
+      </c>
+      <c r="T21">
+        <v>0.48</v>
+      </c>
+      <c r="U21">
+        <v>0.48</v>
+      </c>
       <c r="Y21">
         <v>1</v>
       </c>
@@ -6202,6 +6487,21 @@
       <c r="K22">
         <v>350000</v>
       </c>
+      <c r="Q22">
+        <v>0.5</v>
+      </c>
+      <c r="R22">
+        <v>0.5</v>
+      </c>
+      <c r="S22">
+        <v>0.5</v>
+      </c>
+      <c r="T22">
+        <v>0.5</v>
+      </c>
+      <c r="U22">
+        <v>0.5</v>
+      </c>
       <c r="Y22">
         <v>1</v>
       </c>
@@ -6279,6 +6579,21 @@
       <c r="K23">
         <v>500000</v>
       </c>
+      <c r="Q23">
+        <v>0.53</v>
+      </c>
+      <c r="R23">
+        <v>0.53</v>
+      </c>
+      <c r="S23">
+        <v>0.53</v>
+      </c>
+      <c r="T23">
+        <v>0.53</v>
+      </c>
+      <c r="U23">
+        <v>0.53</v>
+      </c>
       <c r="Y23">
         <v>1</v>
       </c>
@@ -6356,6 +6671,21 @@
       <c r="K24">
         <v>1000000</v>
       </c>
+      <c r="Q24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="S24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U24">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="Y24">
         <v>1</v>
       </c>
@@ -6433,6 +6763,21 @@
       <c r="K25">
         <v>10000000</v>
       </c>
+      <c r="Q25">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R25">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="S25">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T25">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U25">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="Y25">
         <v>1</v>
       </c>
@@ -6510,6 +6855,21 @@
       <c r="K26">
         <v>25000000</v>
       </c>
+      <c r="Q26">
+        <v>0.62</v>
+      </c>
+      <c r="R26">
+        <v>0.62</v>
+      </c>
+      <c r="S26">
+        <v>0.62</v>
+      </c>
+      <c r="T26">
+        <v>0.62</v>
+      </c>
+      <c r="U26">
+        <v>0.62</v>
+      </c>
       <c r="Y26">
         <v>1</v>
       </c>
@@ -6587,6 +6947,21 @@
       <c r="K27">
         <v>40000000</v>
       </c>
+      <c r="Q27">
+        <v>0.65</v>
+      </c>
+      <c r="R27">
+        <v>0.65</v>
+      </c>
+      <c r="S27">
+        <v>0.65</v>
+      </c>
+      <c r="T27">
+        <v>0.65</v>
+      </c>
+      <c r="U27">
+        <v>0.65</v>
+      </c>
       <c r="Y27">
         <v>1</v>
       </c>
@@ -6664,6 +7039,21 @@
       <c r="K28">
         <v>65000000</v>
       </c>
+      <c r="Q28">
+        <v>0.68</v>
+      </c>
+      <c r="R28">
+        <v>0.68</v>
+      </c>
+      <c r="S28">
+        <v>0.68</v>
+      </c>
+      <c r="T28">
+        <v>0.68</v>
+      </c>
+      <c r="U28">
+        <v>0.68</v>
+      </c>
       <c r="Y28">
         <v>1</v>
       </c>
@@ -6741,6 +7131,21 @@
       <c r="K29">
         <v>100000000</v>
       </c>
+      <c r="Q29">
+        <v>0.73</v>
+      </c>
+      <c r="R29">
+        <v>0.73</v>
+      </c>
+      <c r="S29">
+        <v>0.73</v>
+      </c>
+      <c r="T29">
+        <v>0.73</v>
+      </c>
+      <c r="U29">
+        <v>0.73</v>
+      </c>
       <c r="Y29">
         <v>1</v>
       </c>
@@ -6818,6 +7223,21 @@
       <c r="K30">
         <v>160000000</v>
       </c>
+      <c r="Q30">
+        <v>0.75</v>
+      </c>
+      <c r="R30">
+        <v>0.75</v>
+      </c>
+      <c r="S30">
+        <v>0.75</v>
+      </c>
+      <c r="T30">
+        <v>0.75</v>
+      </c>
+      <c r="U30">
+        <v>0.75</v>
+      </c>
       <c r="Y30">
         <v>1</v>
       </c>
@@ -6895,6 +7315,21 @@
       <c r="K31">
         <v>250000000</v>
       </c>
+      <c r="Q31">
+        <v>0.8</v>
+      </c>
+      <c r="R31">
+        <v>0.8</v>
+      </c>
+      <c r="S31">
+        <v>0.8</v>
+      </c>
+      <c r="T31">
+        <v>0.8</v>
+      </c>
+      <c r="U31">
+        <v>0.8</v>
+      </c>
       <c r="Y31">
         <v>1</v>
       </c>
@@ -6972,6 +7407,21 @@
       <c r="K32">
         <v>500000000</v>
       </c>
+      <c r="Q32">
+        <v>0.83</v>
+      </c>
+      <c r="R32">
+        <v>0.83</v>
+      </c>
+      <c r="S32">
+        <v>0.83</v>
+      </c>
+      <c r="T32">
+        <v>0.83</v>
+      </c>
+      <c r="U32">
+        <v>0.83</v>
+      </c>
       <c r="Y32">
         <v>1</v>
       </c>
@@ -7049,6 +7499,21 @@
       <c r="K33">
         <v>1000000000</v>
       </c>
+      <c r="Q33">
+        <v>0.86</v>
+      </c>
+      <c r="R33">
+        <v>0.86</v>
+      </c>
+      <c r="S33">
+        <v>0.86</v>
+      </c>
+      <c r="T33">
+        <v>0.86</v>
+      </c>
+      <c r="U33">
+        <v>0.86</v>
+      </c>
       <c r="Y33">
         <v>1</v>
       </c>
@@ -7126,6 +7591,21 @@
       <c r="K34">
         <v>2000000000</v>
       </c>
+      <c r="Q34">
+        <v>0.9</v>
+      </c>
+      <c r="R34">
+        <v>0.9</v>
+      </c>
+      <c r="S34">
+        <v>0.9</v>
+      </c>
+      <c r="T34">
+        <v>0.9</v>
+      </c>
+      <c r="U34">
+        <v>0.9</v>
+      </c>
       <c r="Y34">
         <v>1</v>
       </c>
@@ -7209,6 +7689,21 @@
       <c r="M35">
         <v>0</v>
       </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
       <c r="Y35">
         <v>1</v>
       </c>
@@ -7295,6 +7790,21 @@
       <c r="M36">
         <v>0</v>
       </c>
+      <c r="Q36">
+        <v>1.05</v>
+      </c>
+      <c r="R36">
+        <v>1.05</v>
+      </c>
+      <c r="S36">
+        <v>1.05</v>
+      </c>
+      <c r="T36">
+        <v>1.05</v>
+      </c>
+      <c r="U36">
+        <v>1.05</v>
+      </c>
       <c r="Y36">
         <v>1</v>
       </c>
@@ -7381,6 +7891,21 @@
       <c r="M37">
         <v>0</v>
       </c>
+      <c r="Q37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U37">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="Y37">
         <v>1</v>
       </c>
@@ -7467,6 +7992,21 @@
       <c r="M38">
         <v>0</v>
       </c>
+      <c r="Q38">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R38">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="S38">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="T38">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="U38">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="Y38">
         <v>1</v>
       </c>
@@ -10913,7 +11453,7 @@
         <v>214</v>
       </c>
       <c r="H79">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="K79">
         <v>75</v>
@@ -10996,7 +11536,7 @@
         <v>216</v>
       </c>
       <c r="H80">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="K80">
         <v>150</v>
@@ -11079,7 +11619,7 @@
         <v>218</v>
       </c>
       <c r="H81">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="K81">
         <v>250</v>
@@ -11162,7 +11702,7 @@
         <v>220</v>
       </c>
       <c r="H82">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K82">
         <v>500</v>
@@ -11245,7 +11785,7 @@
         <v>222</v>
       </c>
       <c r="H83">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="K83">
         <v>750</v>
@@ -11328,7 +11868,7 @@
         <v>224</v>
       </c>
       <c r="H84">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="K84">
         <v>1000</v>
@@ -11408,7 +11948,7 @@
         <v>226</v>
       </c>
       <c r="H85">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K85">
         <v>1500</v>
@@ -11488,7 +12028,7 @@
         <v>228</v>
       </c>
       <c r="H86">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="K86">
         <v>3000</v>
@@ -11568,7 +12108,7 @@
         <v>230</v>
       </c>
       <c r="H87">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="K87">
         <v>5000</v>
@@ -11648,7 +12188,7 @@
         <v>232</v>
       </c>
       <c r="H88">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="K88">
         <v>7000</v>
@@ -11728,7 +12268,7 @@
         <v>234</v>
       </c>
       <c r="H89">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="K89">
         <v>10000</v>
@@ -11808,7 +12348,7 @@
         <v>236</v>
       </c>
       <c r="H90">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="K90">
         <v>15000</v>
@@ -11888,7 +12428,7 @@
         <v>238</v>
       </c>
       <c r="H91">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="K91">
         <v>30000</v>
@@ -11968,7 +12508,7 @@
         <v>240</v>
       </c>
       <c r="H92">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K92">
         <v>60000</v>
@@ -12048,7 +12588,7 @@
         <v>242</v>
       </c>
       <c r="H93">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="K93">
         <v>120000</v>
@@ -12128,7 +12668,7 @@
         <v>244</v>
       </c>
       <c r="H94">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K94">
         <v>180000</v>
@@ -12208,7 +12748,7 @@
         <v>246</v>
       </c>
       <c r="H95">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="K95">
         <v>240000</v>
@@ -12288,7 +12828,7 @@
         <v>248</v>
       </c>
       <c r="H96">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K96">
         <v>260000</v>
@@ -12368,7 +12908,7 @@
         <v>250</v>
       </c>
       <c r="H97">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K97">
         <v>350000</v>
@@ -12448,7 +12988,7 @@
         <v>252</v>
       </c>
       <c r="H98">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="K98">
         <v>500000</v>
@@ -12528,7 +13068,7 @@
         <v>254</v>
       </c>
       <c r="H99">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K99">
         <v>1000000</v>
@@ -12608,7 +13148,7 @@
         <v>256</v>
       </c>
       <c r="H100">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="K100">
         <v>10000000</v>
@@ -12688,7 +13228,7 @@
         <v>258</v>
       </c>
       <c r="H101">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="K101">
         <v>25000000</v>
@@ -12768,7 +13308,7 @@
         <v>260</v>
       </c>
       <c r="H102">
-        <v>480</v>
+        <v>580</v>
       </c>
       <c r="K102">
         <v>40000000</v>
@@ -12928,7 +13468,7 @@
         <v>264</v>
       </c>
       <c r="H104">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="K104">
         <v>100000000</v>
@@ -13008,7 +13548,7 @@
         <v>266</v>
       </c>
       <c r="H105">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="K105">
         <v>160000000</v>
@@ -13088,7 +13628,7 @@
         <v>268</v>
       </c>
       <c r="H106">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="K106">
         <v>250000000</v>
@@ -13168,7 +13708,7 @@
         <v>270</v>
       </c>
       <c r="H107">
-        <v>660</v>
+        <v>900</v>
       </c>
       <c r="K107">
         <v>500000000</v>
@@ -13248,7 +13788,7 @@
         <v>272</v>
       </c>
       <c r="H108">
-        <v>750</v>
+        <v>925</v>
       </c>
       <c r="K108">
         <v>1000000000</v>
@@ -13328,7 +13868,7 @@
         <v>274</v>
       </c>
       <c r="H109">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -13411,7 +13951,7 @@
         <v>276</v>
       </c>
       <c r="H110">
-        <v>825</v>
+        <v>950</v>
       </c>
       <c r="K110">
         <v>2100000000</v>
@@ -13500,7 +14040,7 @@
         <v>278</v>
       </c>
       <c r="H111">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="K111">
         <v>2200000000</v>
@@ -13589,7 +14129,7 @@
         <v>280</v>
       </c>
       <c r="H112">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K112">
         <v>2300000000</v>
@@ -13678,7 +14218,7 @@
         <v>282</v>
       </c>
       <c r="H113">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="K113">
         <v>2400000000</v>
@@ -20691,7 +21231,7 @@
         <v>435</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K189">
         <v>10</v>
@@ -20771,7 +21311,7 @@
         <v>437</v>
       </c>
       <c r="H190">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K190">
         <v>25</v>
@@ -20851,16 +21391,16 @@
         <v>439</v>
       </c>
       <c r="H191">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K191">
         <v>75</v>
       </c>
       <c r="N191">
-        <v>0.02</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="O191">
-        <v>0.02</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P191">
         <v>0.02</v>
@@ -20940,16 +21480,16 @@
         <v>441</v>
       </c>
       <c r="H192">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K192">
         <v>150</v>
       </c>
       <c r="N192">
-        <v>0.05</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="O192">
-        <v>0.05</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="P192">
         <v>0.05</v>
@@ -21029,16 +21569,16 @@
         <v>443</v>
       </c>
       <c r="H193">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="K193">
         <v>250</v>
       </c>
       <c r="N193">
-        <v>0.08</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="O193">
-        <v>0.08</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="P193">
         <v>0.08</v>
@@ -21118,16 +21658,16 @@
         <v>445</v>
       </c>
       <c r="H194">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="K194">
         <v>500</v>
       </c>
       <c r="N194">
-        <v>0.1</v>
+        <v>1.8E-3</v>
       </c>
       <c r="O194">
-        <v>0.1</v>
+        <v>1.8E-3</v>
       </c>
       <c r="P194">
         <v>0.1</v>
@@ -21207,16 +21747,16 @@
         <v>447</v>
       </c>
       <c r="H195">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="K195">
         <v>750</v>
       </c>
       <c r="N195">
-        <v>0.12</v>
+        <v>1.9E-3</v>
       </c>
       <c r="O195">
-        <v>0.12</v>
+        <v>1.9E-3</v>
       </c>
       <c r="P195">
         <v>0.12</v>
@@ -21296,16 +21836,16 @@
         <v>449</v>
       </c>
       <c r="H196">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K196">
         <v>1000</v>
       </c>
       <c r="N196">
-        <v>0.14000000000000001</v>
+        <v>2E-3</v>
       </c>
       <c r="O196">
-        <v>0.14000000000000001</v>
+        <v>2E-3</v>
       </c>
       <c r="P196">
         <v>0.14000000000000001</v>
@@ -21382,16 +21922,16 @@
         <v>451</v>
       </c>
       <c r="H197">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="K197">
         <v>1500</v>
       </c>
       <c r="N197">
-        <v>0.16</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="O197">
-        <v>0.16</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="P197">
         <v>0.16</v>
@@ -21468,16 +22008,16 @@
         <v>453</v>
       </c>
       <c r="H198">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="K198">
         <v>3000</v>
       </c>
       <c r="N198">
-        <v>0.18</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="O198">
-        <v>0.18</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="P198">
         <v>0.18</v>
@@ -21554,16 +22094,16 @@
         <v>455</v>
       </c>
       <c r="H199">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="K199">
         <v>5000</v>
       </c>
       <c r="N199">
-        <v>0.2</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="O199">
-        <v>0.2</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="P199">
         <v>0.2</v>
@@ -21640,16 +22180,16 @@
         <v>457</v>
       </c>
       <c r="H200">
-        <v>70</v>
+        <v>280</v>
       </c>
       <c r="K200">
         <v>7000</v>
       </c>
       <c r="N200">
-        <v>0.22</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="O200">
-        <v>0.22</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="P200">
         <v>0.22</v>
@@ -21726,16 +22266,16 @@
         <v>459</v>
       </c>
       <c r="H201">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="K201">
         <v>10000</v>
       </c>
       <c r="N201">
-        <v>0.25</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="O201">
-        <v>0.25</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="P201">
         <v>0.25</v>
@@ -21812,16 +22352,16 @@
         <v>461</v>
       </c>
       <c r="H202">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="K202">
         <v>15000</v>
       </c>
       <c r="N202">
-        <v>0.27</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O202">
-        <v>0.27</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="P202">
         <v>0.27</v>
@@ -21898,16 +22438,16 @@
         <v>463</v>
       </c>
       <c r="H203">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="K203">
         <v>30000</v>
       </c>
       <c r="N203">
-        <v>0.28999999999999998</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="O203">
-        <v>0.28999999999999998</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="P203">
         <v>0.28999999999999998</v>
@@ -21984,16 +22524,16 @@
         <v>465</v>
       </c>
       <c r="H204">
-        <v>100</v>
+        <v>475</v>
       </c>
       <c r="K204">
         <v>60000</v>
       </c>
       <c r="N204">
-        <v>0.3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="O204">
-        <v>0.3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="P204">
         <v>0.3</v>
@@ -22070,16 +22610,16 @@
         <v>467</v>
       </c>
       <c r="H205">
-        <v>110</v>
+        <v>490</v>
       </c>
       <c r="K205">
         <v>120000</v>
       </c>
       <c r="N205">
-        <v>0.35</v>
+        <v>3.8E-3</v>
       </c>
       <c r="O205">
-        <v>0.35</v>
+        <v>3.8E-3</v>
       </c>
       <c r="P205">
         <v>0.35</v>
@@ -22156,16 +22696,16 @@
         <v>469</v>
       </c>
       <c r="H206">
-        <v>120</v>
+        <v>520</v>
       </c>
       <c r="K206">
         <v>180000</v>
       </c>
       <c r="N206">
-        <v>0.38</v>
+        <v>3.8E-3</v>
       </c>
       <c r="O206">
-        <v>0.38</v>
+        <v>3.8E-3</v>
       </c>
       <c r="P206">
         <v>0.38</v>
@@ -22242,16 +22782,16 @@
         <v>471</v>
       </c>
       <c r="H207">
-        <v>140</v>
+        <v>540</v>
       </c>
       <c r="K207">
         <v>240000</v>
       </c>
       <c r="N207">
-        <v>0.4</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="O207">
-        <v>0.4</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="P207">
         <v>0.4</v>
@@ -22328,16 +22868,16 @@
         <v>473</v>
       </c>
       <c r="H208">
-        <v>160</v>
+        <v>560</v>
       </c>
       <c r="K208">
         <v>260000</v>
       </c>
       <c r="N208">
-        <v>0.43</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="O208">
-        <v>0.43</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="P208">
         <v>0.43</v>
@@ -22414,16 +22954,16 @@
         <v>475</v>
       </c>
       <c r="H209">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="K209">
         <v>350000</v>
       </c>
       <c r="N209">
-        <v>0.45</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="O209">
-        <v>0.45</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="P209">
         <v>0.45</v>
@@ -22500,16 +23040,16 @@
         <v>477</v>
       </c>
       <c r="H210">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K210">
         <v>500000</v>
       </c>
       <c r="N210">
-        <v>0.48</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O210">
-        <v>0.48</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P210">
         <v>0.48</v>
@@ -22586,16 +23126,16 @@
         <v>479</v>
       </c>
       <c r="H211">
-        <v>220</v>
+        <v>620</v>
       </c>
       <c r="K211">
         <v>1000000</v>
       </c>
       <c r="N211">
-        <v>0.5</v>
+        <v>5.3E-3</v>
       </c>
       <c r="O211">
-        <v>0.5</v>
+        <v>5.3E-3</v>
       </c>
       <c r="P211">
         <v>0.5</v>
@@ -22672,16 +23212,16 @@
         <v>481</v>
       </c>
       <c r="H212">
-        <v>240</v>
+        <v>630</v>
       </c>
       <c r="K212">
         <v>10000000</v>
       </c>
       <c r="N212">
-        <v>0.53</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="O212">
-        <v>0.53</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="P212">
         <v>0.53</v>
@@ -22758,16 +23298,16 @@
         <v>483</v>
       </c>
       <c r="H213">
-        <v>270</v>
+        <v>640</v>
       </c>
       <c r="K213">
         <v>25000000</v>
       </c>
       <c r="N213">
-        <v>0.55000000000000004</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="O213">
-        <v>0.55000000000000004</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="P213">
         <v>0.55000000000000004</v>
@@ -22844,16 +23384,16 @@
         <v>485</v>
       </c>
       <c r="H214">
-        <v>320</v>
+        <v>660</v>
       </c>
       <c r="K214">
         <v>40000000</v>
       </c>
       <c r="N214">
-        <v>0.57999999999999996</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="O214">
-        <v>0.57999999999999996</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="P214">
         <v>0.57999999999999996</v>
@@ -22930,16 +23470,16 @@
         <v>487</v>
       </c>
       <c r="H215">
-        <v>345</v>
+        <v>680</v>
       </c>
       <c r="K215">
         <v>65000000</v>
       </c>
       <c r="N215">
-        <v>0.62</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="O215">
-        <v>0.62</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="P215">
         <v>0.62</v>
@@ -23016,16 +23556,16 @@
         <v>489</v>
       </c>
       <c r="H216">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K216">
         <v>100000000</v>
       </c>
       <c r="N216">
-        <v>0.65</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="O216">
-        <v>0.65</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="P216">
         <v>0.65</v>
@@ -23102,16 +23642,16 @@
         <v>491</v>
       </c>
       <c r="H217">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="K217">
         <v>160000000</v>
       </c>
       <c r="N217">
-        <v>0.7</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="O217">
-        <v>0.7</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="P217">
         <v>0.7</v>
@@ -23197,16 +23737,16 @@
         <v>493</v>
       </c>
       <c r="H218">
-        <v>470</v>
+        <v>730</v>
       </c>
       <c r="K218">
         <v>250000000</v>
       </c>
       <c r="N218">
-        <v>0.73</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="O218">
-        <v>0.73</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="P218">
         <v>0.73</v>
@@ -23298,16 +23838,16 @@
         <v>495</v>
       </c>
       <c r="H219">
-        <v>500</v>
+        <v>740</v>
       </c>
       <c r="K219">
         <v>500000000</v>
       </c>
       <c r="N219">
-        <v>0.75</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="O219">
-        <v>0.75</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="P219">
         <v>0.75</v>
@@ -23390,16 +23930,16 @@
         <v>497</v>
       </c>
       <c r="H220">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K220">
         <v>1000000000</v>
       </c>
       <c r="N220">
-        <v>0.78</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="O220">
-        <v>0.78</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="P220">
         <v>0.78</v>
@@ -23476,16 +24016,16 @@
         <v>499</v>
       </c>
       <c r="H221">
-        <v>650</v>
+        <v>845</v>
       </c>
       <c r="K221">
         <v>2000000000</v>
       </c>
       <c r="N221">
-        <v>0.82</v>
+        <v>8.6E-3</v>
       </c>
       <c r="O221">
-        <v>0.82</v>
+        <v>8.6E-3</v>
       </c>
       <c r="P221">
         <v>0.82</v>
@@ -23562,7 +24102,7 @@
         <v>501</v>
       </c>
       <c r="H222">
-        <v>680</v>
+        <v>900</v>
       </c>
       <c r="K222">
         <v>2100000000</v>
@@ -23574,7 +24114,10 @@
         <v>0</v>
       </c>
       <c r="N222">
-        <v>0.85</v>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O222">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="P222">
         <v>0.85</v>
@@ -23654,7 +24197,7 @@
         <v>503</v>
       </c>
       <c r="H223">
-        <v>720</v>
+        <v>950</v>
       </c>
       <c r="K223">
         <v>2200000000</v>
@@ -23666,7 +24209,10 @@
         <v>0</v>
       </c>
       <c r="N223">
-        <v>0.9</v>
+        <v>0.01</v>
+      </c>
+      <c r="O223">
+        <v>0.01</v>
       </c>
       <c r="P223">
         <v>0.9</v>
@@ -23746,7 +24292,7 @@
         <v>505</v>
       </c>
       <c r="H224">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="K224">
         <v>2300000000</v>
@@ -23758,7 +24304,10 @@
         <v>0</v>
       </c>
       <c r="N224">
-        <v>0.93</v>
+        <v>1.2E-2</v>
+      </c>
+      <c r="O224">
+        <v>1.2E-2</v>
       </c>
       <c r="P224">
         <v>0.93</v>
@@ -23838,7 +24387,7 @@
         <v>507</v>
       </c>
       <c r="H225">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K225">
         <v>2400000000</v>
@@ -23850,7 +24399,10 @@
         <v>0</v>
       </c>
       <c r="N225">
-        <v>0.95</v>
+        <v>1.4E-2</v>
+      </c>
+      <c r="O225">
+        <v>1.4E-2</v>
       </c>
       <c r="P225">
         <v>0.95</v>
@@ -41156,7 +41708,7 @@
         <v>56</v>
       </c>
       <c r="AF403">
-        <v>5.0000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="AG403">
         <v>0</v>
@@ -41251,7 +41803,7 @@
         <v>56</v>
       </c>
       <c r="AF404">
-        <v>8.0000000000000002E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AG404">
         <v>0</v>
@@ -41346,7 +41898,7 @@
         <v>56</v>
       </c>
       <c r="AF405">
-        <v>1.6E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="AG405">
         <v>0</v>
@@ -41441,7 +41993,7 @@
         <v>56</v>
       </c>
       <c r="AF406">
-        <v>1.7999999999999999E-2</v>
+        <v>1.8E-3</v>
       </c>
       <c r="AG406">
         <v>0</v>
@@ -41536,7 +42088,7 @@
         <v>56</v>
       </c>
       <c r="AF407">
-        <v>1.9E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="AG407">
         <v>0</v>
@@ -41625,7 +42177,7 @@
         <v>56</v>
       </c>
       <c r="AF408">
-        <v>0.02</v>
+        <v>2E-3</v>
       </c>
       <c r="AG408">
         <v>0</v>
@@ -41711,7 +42263,7 @@
         <v>56</v>
       </c>
       <c r="AF409">
-        <v>2.1999999999999999E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="AG409">
         <v>0</v>
@@ -41797,7 +42349,7 @@
         <v>56</v>
       </c>
       <c r="AF410">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="AG410">
         <v>0</v>
@@ -41883,7 +42435,7 @@
         <v>56</v>
       </c>
       <c r="AF411">
-        <v>2.7E-2</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="AG411">
         <v>0</v>
@@ -41969,7 +42521,7 @@
         <v>56</v>
       </c>
       <c r="AF412">
-        <v>2.7E-2</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="AG412">
         <v>0</v>
@@ -42055,7 +42607,7 @@
         <v>56</v>
       </c>
       <c r="AF413">
-        <v>2.9000000000000001E-2</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="AG413">
         <v>0</v>
@@ -42141,7 +42693,7 @@
         <v>56</v>
       </c>
       <c r="AF414">
-        <v>0.03</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AG414">
         <v>0</v>
@@ -42227,7 +42779,7 @@
         <v>56</v>
       </c>
       <c r="AF415">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="AG415">
         <v>0</v>
@@ -42313,7 +42865,7 @@
         <v>56</v>
       </c>
       <c r="AF416">
-        <v>3.6999999999999998E-2</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="AG416">
         <v>0</v>
@@ -42399,7 +42951,7 @@
         <v>56</v>
       </c>
       <c r="AF417">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8E-3</v>
       </c>
       <c r="AG417">
         <v>0</v>
@@ -42485,7 +43037,7 @@
         <v>56</v>
       </c>
       <c r="AF418">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8E-3</v>
       </c>
       <c r="AG418">
         <v>0</v>
@@ -42571,7 +43123,7 @@
         <v>56</v>
       </c>
       <c r="AF419">
-        <v>4.2000000000000003E-2</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="AG419">
         <v>0</v>
@@ -42657,7 +43209,7 @@
         <v>56</v>
       </c>
       <c r="AF420">
-        <v>4.4999999999999998E-2</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="AG420">
         <v>0</v>
@@ -42743,7 +43295,7 @@
         <v>56</v>
       </c>
       <c r="AF421">
-        <v>4.8000000000000001E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="AG421">
         <v>0</v>
@@ -42829,7 +43381,7 @@
         <v>56</v>
       </c>
       <c r="AF422">
-        <v>0.5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AG422">
         <v>0</v>
@@ -42915,7 +43467,7 @@
         <v>56</v>
       </c>
       <c r="AF423">
-        <v>5.2999999999999999E-2</v>
+        <v>5.3E-3</v>
       </c>
       <c r="AG423">
         <v>0</v>
@@ -43001,7 +43553,7 @@
         <v>56</v>
       </c>
       <c r="AF424">
-        <v>5.8000000000000003E-2</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="AG424">
         <v>0</v>
@@ -43087,7 +43639,7 @@
         <v>56</v>
       </c>
       <c r="AF425">
-        <v>5.8000000000000003E-2</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="AG425">
         <v>0</v>
@@ -43173,7 +43725,7 @@
         <v>56</v>
       </c>
       <c r="AF426">
-        <v>6.2E-2</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="AG426">
         <v>0</v>
@@ -43259,7 +43811,7 @@
         <v>56</v>
       </c>
       <c r="AF427">
-        <v>6.5000000000000002E-2</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="AG427">
         <v>0</v>
@@ -43345,7 +43897,7 @@
         <v>56</v>
       </c>
       <c r="AF428">
-        <v>6.8000000000000005E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="AG428">
         <v>0</v>
@@ -43431,7 +43983,7 @@
         <v>56</v>
       </c>
       <c r="AF429">
-        <v>7.2999999999999995E-2</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="AG429">
         <v>0</v>
@@ -43517,7 +44069,7 @@
         <v>56</v>
       </c>
       <c r="AF430">
-        <v>7.4999999999999997E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="AG430">
         <v>0</v>
@@ -43603,7 +44155,7 @@
         <v>56</v>
       </c>
       <c r="AF431">
-        <v>0.08</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG431">
         <v>0</v>
@@ -43689,7 +44241,7 @@
         <v>56</v>
       </c>
       <c r="AF432">
-        <v>8.3000000000000004E-2</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="AG432">
         <v>0</v>
@@ -43775,7 +44327,7 @@
         <v>56</v>
       </c>
       <c r="AF433">
-        <v>8.5999999999999993E-2</v>
+        <v>8.6E-3</v>
       </c>
       <c r="AG433">
         <v>0</v>
@@ -43861,7 +44413,7 @@
         <v>56</v>
       </c>
       <c r="AF434">
-        <v>0.09</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AG434">
         <v>0</v>
@@ -43953,7 +44505,7 @@
         <v>56</v>
       </c>
       <c r="AF435">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AG435">
         <v>0</v>
@@ -44048,7 +44600,7 @@
         <v>56</v>
       </c>
       <c r="AF436">
-        <v>0.12</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AG436">
         <v>0</v>
@@ -44143,7 +44695,7 @@
         <v>56</v>
       </c>
       <c r="AF437">
-        <v>0.14000000000000001</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AG437">
         <v>0</v>
@@ -44238,7 +44790,7 @@
         <v>56</v>
       </c>
       <c r="AF438">
-        <v>0.15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AG438">
         <v>0</v>
@@ -52736,7 +53288,7 @@
         <v>40</v>
       </c>
       <c r="AC529" t="s">
-        <v>286</v>
+        <v>1025</v>
       </c>
       <c r="AD529" t="s">
         <v>532</v>
@@ -52763,15 +53315,6 @@
         <v>0.08</v>
       </c>
       <c r="AO529">
-        <v>0</v>
-      </c>
-      <c r="AR529">
-        <v>0</v>
-      </c>
-      <c r="AT529">
-        <v>0</v>
-      </c>
-      <c r="AU529">
         <v>0</v>
       </c>
       <c r="AW529">

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E22CF1-165D-2446-8DF3-99F7214D204A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6F4906-1BE8-B94E-B650-7BA5F092F5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4416,8 +4416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G136" workbookViewId="0">
-      <selection activeCell="R152" sqref="R152"/>
+    <sheetView tabSelected="1" topLeftCell="F73" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8097,7 +8097,7 @@
         <v>132</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K39">
         <v>10</v>
@@ -8180,7 +8180,7 @@
         <v>135</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K40">
         <v>25</v>
@@ -8266,7 +8266,7 @@
         <v>137</v>
       </c>
       <c r="I41">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="K41">
         <v>75</v>
@@ -8352,7 +8352,7 @@
         <v>139</v>
       </c>
       <c r="I42">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="K42">
         <v>150</v>
@@ -8438,7 +8438,7 @@
         <v>141</v>
       </c>
       <c r="I43">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K43">
         <v>250</v>
@@ -8524,7 +8524,7 @@
         <v>143</v>
       </c>
       <c r="I44">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K44">
         <v>500</v>
@@ -8610,7 +8610,7 @@
         <v>145</v>
       </c>
       <c r="I45">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="K45">
         <v>750</v>
@@ -8696,7 +8696,7 @@
         <v>147</v>
       </c>
       <c r="I46">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="K46">
         <v>1000</v>
@@ -8779,7 +8779,7 @@
         <v>149</v>
       </c>
       <c r="I47">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K47">
         <v>1500</v>
@@ -8862,7 +8862,7 @@
         <v>151</v>
       </c>
       <c r="I48">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="K48">
         <v>3000</v>
@@ -8945,7 +8945,7 @@
         <v>153</v>
       </c>
       <c r="I49">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="K49">
         <v>5000</v>
@@ -9028,7 +9028,7 @@
         <v>155</v>
       </c>
       <c r="I50">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="K50">
         <v>7000</v>
@@ -9111,7 +9111,7 @@
         <v>157</v>
       </c>
       <c r="I51">
-        <v>245</v>
+        <v>340</v>
       </c>
       <c r="K51">
         <v>10000</v>
@@ -9194,7 +9194,7 @@
         <v>159</v>
       </c>
       <c r="I52">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="K52">
         <v>15000</v>
@@ -9277,7 +9277,7 @@
         <v>161</v>
       </c>
       <c r="I53">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="K53">
         <v>30000</v>
@@ -9360,7 +9360,7 @@
         <v>163</v>
       </c>
       <c r="I54">
-        <v>300</v>
+        <v>475</v>
       </c>
       <c r="K54">
         <v>60000</v>
@@ -9443,7 +9443,7 @@
         <v>165</v>
       </c>
       <c r="I55">
-        <v>310</v>
+        <v>490</v>
       </c>
       <c r="K55">
         <v>120000</v>
@@ -9526,7 +9526,7 @@
         <v>167</v>
       </c>
       <c r="I56">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K56">
         <v>180000</v>
@@ -9609,7 +9609,7 @@
         <v>169</v>
       </c>
       <c r="I57">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="K57">
         <v>240000</v>
@@ -9692,7 +9692,7 @@
         <v>171</v>
       </c>
       <c r="I58">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K58">
         <v>260000</v>
@@ -9775,7 +9775,7 @@
         <v>173</v>
       </c>
       <c r="I59">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="K59">
         <v>350000</v>
@@ -9858,7 +9858,7 @@
         <v>175</v>
       </c>
       <c r="I60">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="K60">
         <v>500000</v>
@@ -9941,7 +9941,7 @@
         <v>177</v>
       </c>
       <c r="I61">
-        <v>480</v>
+        <v>620</v>
       </c>
       <c r="K61">
         <v>1000000</v>
@@ -10024,7 +10024,7 @@
         <v>179</v>
       </c>
       <c r="I62">
-        <v>500</v>
+        <v>630</v>
       </c>
       <c r="K62">
         <v>10000000</v>
@@ -10107,7 +10107,7 @@
         <v>181</v>
       </c>
       <c r="I63">
-        <v>540</v>
+        <v>640</v>
       </c>
       <c r="K63">
         <v>25000000</v>
@@ -10190,7 +10190,7 @@
         <v>183</v>
       </c>
       <c r="I64">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="K64">
         <v>40000000</v>
@@ -10273,7 +10273,7 @@
         <v>185</v>
       </c>
       <c r="I65">
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="K65">
         <v>65000000</v>
@@ -10356,7 +10356,7 @@
         <v>187</v>
       </c>
       <c r="I66">
-        <v>630</v>
+        <v>700</v>
       </c>
       <c r="K66">
         <v>100000000</v>
@@ -10439,7 +10439,7 @@
         <v>189</v>
       </c>
       <c r="I67">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="K67">
         <v>160000000</v>
@@ -10522,7 +10522,7 @@
         <v>191</v>
       </c>
       <c r="I68">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="K68">
         <v>250000000</v>
@@ -10605,7 +10605,7 @@
         <v>193</v>
       </c>
       <c r="I69">
-        <v>900</v>
+        <v>740</v>
       </c>
       <c r="K69">
         <v>500000000</v>
@@ -10688,7 +10688,7 @@
         <v>195</v>
       </c>
       <c r="I70">
-        <v>925</v>
+        <v>800</v>
       </c>
       <c r="K70">
         <v>1000000000</v>
@@ -10771,7 +10771,7 @@
         <v>197</v>
       </c>
       <c r="I71">
-        <v>950</v>
+        <v>845</v>
       </c>
       <c r="K71">
         <v>2000000000</v>
@@ -10851,7 +10851,7 @@
         <v>199</v>
       </c>
       <c r="I72">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="K72">
         <v>2000000000</v>
@@ -10934,7 +10934,7 @@
         <v>201</v>
       </c>
       <c r="I73">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="K73">
         <v>2100000000</v>
@@ -11026,7 +11026,7 @@
         <v>203</v>
       </c>
       <c r="I74">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K74">
         <v>2200000000</v>
@@ -11118,7 +11118,7 @@
         <v>205</v>
       </c>
       <c r="I75">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K75">
         <v>2300000000</v>
@@ -11210,7 +11210,7 @@
         <v>207</v>
       </c>
       <c r="I76">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="K76">
         <v>2400000000</v>
@@ -11302,7 +11302,7 @@
         <v>210</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K77">
         <v>10</v>
@@ -11385,7 +11385,7 @@
         <v>212</v>
       </c>
       <c r="H78">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K78">
         <v>25</v>
@@ -11468,7 +11468,7 @@
         <v>214</v>
       </c>
       <c r="H79">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="K79">
         <v>75</v>
@@ -11551,7 +11551,7 @@
         <v>216</v>
       </c>
       <c r="H80">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="K80">
         <v>150</v>
@@ -11634,7 +11634,7 @@
         <v>218</v>
       </c>
       <c r="H81">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K81">
         <v>250</v>
@@ -11717,7 +11717,7 @@
         <v>220</v>
       </c>
       <c r="H82">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K82">
         <v>500</v>
@@ -11800,7 +11800,7 @@
         <v>222</v>
       </c>
       <c r="H83">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="K83">
         <v>750</v>
@@ -11883,7 +11883,7 @@
         <v>224</v>
       </c>
       <c r="H84">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="K84">
         <v>1000</v>
@@ -11963,7 +11963,7 @@
         <v>226</v>
       </c>
       <c r="H85">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K85">
         <v>1500</v>
@@ -12043,7 +12043,7 @@
         <v>228</v>
       </c>
       <c r="H86">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="K86">
         <v>3000</v>
@@ -12123,7 +12123,7 @@
         <v>230</v>
       </c>
       <c r="H87">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="K87">
         <v>5000</v>
@@ -12203,7 +12203,7 @@
         <v>232</v>
       </c>
       <c r="H88">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="K88">
         <v>7000</v>
@@ -12283,7 +12283,7 @@
         <v>234</v>
       </c>
       <c r="H89">
-        <v>245</v>
+        <v>340</v>
       </c>
       <c r="K89">
         <v>10000</v>
@@ -12363,7 +12363,7 @@
         <v>236</v>
       </c>
       <c r="H90">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="K90">
         <v>15000</v>
@@ -12443,7 +12443,7 @@
         <v>238</v>
       </c>
       <c r="H91">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="K91">
         <v>30000</v>
@@ -12523,7 +12523,7 @@
         <v>240</v>
       </c>
       <c r="H92">
-        <v>300</v>
+        <v>475</v>
       </c>
       <c r="K92">
         <v>60000</v>
@@ -12603,7 +12603,7 @@
         <v>242</v>
       </c>
       <c r="H93">
-        <v>310</v>
+        <v>490</v>
       </c>
       <c r="K93">
         <v>120000</v>
@@ -12683,7 +12683,7 @@
         <v>244</v>
       </c>
       <c r="H94">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K94">
         <v>180000</v>
@@ -12763,7 +12763,7 @@
         <v>246</v>
       </c>
       <c r="H95">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="K95">
         <v>240000</v>
@@ -12843,7 +12843,7 @@
         <v>248</v>
       </c>
       <c r="H96">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K96">
         <v>260000</v>
@@ -12923,7 +12923,7 @@
         <v>250</v>
       </c>
       <c r="H97">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="K97">
         <v>350000</v>
@@ -13003,7 +13003,7 @@
         <v>252</v>
       </c>
       <c r="H98">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="K98">
         <v>500000</v>
@@ -13083,7 +13083,7 @@
         <v>254</v>
       </c>
       <c r="H99">
-        <v>480</v>
+        <v>620</v>
       </c>
       <c r="K99">
         <v>1000000</v>
@@ -13163,7 +13163,7 @@
         <v>256</v>
       </c>
       <c r="H100">
-        <v>500</v>
+        <v>630</v>
       </c>
       <c r="K100">
         <v>10000000</v>
@@ -13243,7 +13243,7 @@
         <v>258</v>
       </c>
       <c r="H101">
-        <v>540</v>
+        <v>640</v>
       </c>
       <c r="K101">
         <v>25000000</v>
@@ -13323,7 +13323,7 @@
         <v>260</v>
       </c>
       <c r="H102">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="K102">
         <v>40000000</v>
@@ -13403,7 +13403,7 @@
         <v>262</v>
       </c>
       <c r="H103">
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="K103">
         <v>65000000</v>
@@ -13483,7 +13483,7 @@
         <v>264</v>
       </c>
       <c r="H104">
-        <v>630</v>
+        <v>700</v>
       </c>
       <c r="K104">
         <v>100000000</v>
@@ -13563,7 +13563,7 @@
         <v>266</v>
       </c>
       <c r="H105">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="K105">
         <v>160000000</v>
@@ -13643,7 +13643,7 @@
         <v>268</v>
       </c>
       <c r="H106">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="K106">
         <v>250000000</v>
@@ -13723,7 +13723,7 @@
         <v>270</v>
       </c>
       <c r="H107">
-        <v>900</v>
+        <v>740</v>
       </c>
       <c r="K107">
         <v>500000000</v>
@@ -13803,7 +13803,7 @@
         <v>272</v>
       </c>
       <c r="H108">
-        <v>925</v>
+        <v>800</v>
       </c>
       <c r="K108">
         <v>1000000000</v>
@@ -13883,10 +13883,7 @@
         <v>274</v>
       </c>
       <c r="H109">
-        <v>950</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="K109">
         <v>2000000000</v>
@@ -13966,7 +13963,7 @@
         <v>276</v>
       </c>
       <c r="H110">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="K110">
         <v>2100000000</v>
@@ -14055,7 +14052,7 @@
         <v>278</v>
       </c>
       <c r="H111">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="K111">
         <v>2200000000</v>
@@ -14144,7 +14141,7 @@
         <v>280</v>
       </c>
       <c r="H112">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K112">
         <v>2300000000</v>
@@ -14233,7 +14230,7 @@
         <v>282</v>
       </c>
       <c r="H113">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K113">
         <v>2400000000</v>

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6F4906-1BE8-B94E-B650-7BA5F092F5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19FD7E0-F5EC-3144-B3AC-D77681DBF827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4416,8 +4416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F73" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+    <sheetView tabSelected="1" topLeftCell="I17" workbookViewId="0">
+      <selection activeCell="T113" sqref="T113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4739,16 +4739,7 @@
       <c r="Q3">
         <v>0.05</v>
       </c>
-      <c r="R3">
-        <v>0.05</v>
-      </c>
       <c r="S3">
-        <v>0.05</v>
-      </c>
-      <c r="T3">
-        <v>0.05</v>
-      </c>
-      <c r="U3">
         <v>0.05</v>
       </c>
       <c r="Y3">
@@ -4834,16 +4825,7 @@
       <c r="Q4">
         <v>0.08</v>
       </c>
-      <c r="R4">
-        <v>0.08</v>
-      </c>
       <c r="S4">
-        <v>0.08</v>
-      </c>
-      <c r="T4">
-        <v>0.08</v>
-      </c>
-      <c r="U4">
         <v>0.08</v>
       </c>
       <c r="Y4">
@@ -4929,16 +4911,7 @@
       <c r="Q5">
         <v>0.16</v>
       </c>
-      <c r="R5">
-        <v>0.16</v>
-      </c>
       <c r="S5">
-        <v>0.16</v>
-      </c>
-      <c r="T5">
-        <v>0.16</v>
-      </c>
-      <c r="U5">
         <v>0.16</v>
       </c>
       <c r="Y5">
@@ -5024,16 +4997,7 @@
       <c r="Q6">
         <v>0.18</v>
       </c>
-      <c r="R6">
-        <v>0.18</v>
-      </c>
       <c r="S6">
-        <v>0.18</v>
-      </c>
-      <c r="T6">
-        <v>0.18</v>
-      </c>
-      <c r="U6">
         <v>0.18</v>
       </c>
       <c r="Y6">
@@ -5119,16 +5083,7 @@
       <c r="Q7">
         <v>0.19</v>
       </c>
-      <c r="R7">
-        <v>0.19</v>
-      </c>
       <c r="S7">
-        <v>0.19</v>
-      </c>
-      <c r="T7">
-        <v>0.19</v>
-      </c>
-      <c r="U7">
         <v>0.19</v>
       </c>
       <c r="Y7">
@@ -5214,16 +5169,7 @@
       <c r="Q8">
         <v>0.2</v>
       </c>
-      <c r="R8">
-        <v>0.2</v>
-      </c>
       <c r="S8">
-        <v>0.2</v>
-      </c>
-      <c r="T8">
-        <v>0.2</v>
-      </c>
-      <c r="U8">
         <v>0.2</v>
       </c>
       <c r="Y8">
@@ -5309,16 +5255,7 @@
       <c r="Q9">
         <v>0.22</v>
       </c>
-      <c r="R9">
-        <v>0.22</v>
-      </c>
       <c r="S9">
-        <v>0.22</v>
-      </c>
-      <c r="T9">
-        <v>0.22</v>
-      </c>
-      <c r="U9">
         <v>0.22</v>
       </c>
       <c r="Y9">
@@ -5401,16 +5338,7 @@
       <c r="Q10">
         <v>0.25</v>
       </c>
-      <c r="R10">
-        <v>0.25</v>
-      </c>
       <c r="S10">
-        <v>0.25</v>
-      </c>
-      <c r="T10">
-        <v>0.25</v>
-      </c>
-      <c r="U10">
         <v>0.25</v>
       </c>
       <c r="Y10">
@@ -5493,16 +5421,7 @@
       <c r="Q11">
         <v>0.27</v>
       </c>
-      <c r="R11">
-        <v>0.27</v>
-      </c>
       <c r="S11">
-        <v>0.27</v>
-      </c>
-      <c r="T11">
-        <v>0.27</v>
-      </c>
-      <c r="U11">
         <v>0.27</v>
       </c>
       <c r="Y11">
@@ -5585,16 +5504,7 @@
       <c r="Q12">
         <v>0.27</v>
       </c>
-      <c r="R12">
-        <v>0.27</v>
-      </c>
       <c r="S12">
-        <v>0.27</v>
-      </c>
-      <c r="T12">
-        <v>0.27</v>
-      </c>
-      <c r="U12">
         <v>0.27</v>
       </c>
       <c r="Y12">
@@ -5677,16 +5587,7 @@
       <c r="Q13">
         <v>0.28999999999999998</v>
       </c>
-      <c r="R13">
-        <v>0.28999999999999998</v>
-      </c>
       <c r="S13">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="T13">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="U13">
         <v>0.28999999999999998</v>
       </c>
       <c r="Y13">
@@ -5769,16 +5670,7 @@
       <c r="Q14">
         <v>0.3</v>
       </c>
-      <c r="R14">
-        <v>0.3</v>
-      </c>
       <c r="S14">
-        <v>0.3</v>
-      </c>
-      <c r="T14">
-        <v>0.3</v>
-      </c>
-      <c r="U14">
         <v>0.3</v>
       </c>
       <c r="Y14">
@@ -5861,16 +5753,7 @@
       <c r="Q15">
         <v>0.35</v>
       </c>
-      <c r="R15">
-        <v>0.35</v>
-      </c>
       <c r="S15">
-        <v>0.35</v>
-      </c>
-      <c r="T15">
-        <v>0.35</v>
-      </c>
-      <c r="U15">
         <v>0.35</v>
       </c>
       <c r="Y15">
@@ -5953,16 +5836,7 @@
       <c r="Q16">
         <v>0.37</v>
       </c>
-      <c r="R16">
-        <v>0.37</v>
-      </c>
       <c r="S16">
-        <v>0.37</v>
-      </c>
-      <c r="T16">
-        <v>0.37</v>
-      </c>
-      <c r="U16">
         <v>0.37</v>
       </c>
       <c r="Y16">
@@ -6045,16 +5919,7 @@
       <c r="Q17">
         <v>0.38</v>
       </c>
-      <c r="R17">
-        <v>0.38</v>
-      </c>
       <c r="S17">
-        <v>0.38</v>
-      </c>
-      <c r="T17">
-        <v>0.38</v>
-      </c>
-      <c r="U17">
         <v>0.38</v>
       </c>
       <c r="Y17">
@@ -6137,16 +6002,7 @@
       <c r="Q18">
         <v>0.38</v>
       </c>
-      <c r="R18">
-        <v>0.38</v>
-      </c>
       <c r="S18">
-        <v>0.38</v>
-      </c>
-      <c r="T18">
-        <v>0.38</v>
-      </c>
-      <c r="U18">
         <v>0.38</v>
       </c>
       <c r="Y18">
@@ -6229,16 +6085,7 @@
       <c r="Q19">
         <v>0.42</v>
       </c>
-      <c r="R19">
-        <v>0.42</v>
-      </c>
       <c r="S19">
-        <v>0.42</v>
-      </c>
-      <c r="T19">
-        <v>0.42</v>
-      </c>
-      <c r="U19">
         <v>0.42</v>
       </c>
       <c r="Y19">
@@ -6321,16 +6168,7 @@
       <c r="Q20">
         <v>0.45</v>
       </c>
-      <c r="R20">
-        <v>0.45</v>
-      </c>
       <c r="S20">
-        <v>0.45</v>
-      </c>
-      <c r="T20">
-        <v>0.45</v>
-      </c>
-      <c r="U20">
         <v>0.45</v>
       </c>
       <c r="Y20">
@@ -6413,16 +6251,7 @@
       <c r="Q21">
         <v>0.48</v>
       </c>
-      <c r="R21">
-        <v>0.48</v>
-      </c>
       <c r="S21">
-        <v>0.48</v>
-      </c>
-      <c r="T21">
-        <v>0.48</v>
-      </c>
-      <c r="U21">
         <v>0.48</v>
       </c>
       <c r="Y21">
@@ -6505,16 +6334,7 @@
       <c r="Q22">
         <v>0.5</v>
       </c>
-      <c r="R22">
-        <v>0.5</v>
-      </c>
       <c r="S22">
-        <v>0.5</v>
-      </c>
-      <c r="T22">
-        <v>0.5</v>
-      </c>
-      <c r="U22">
         <v>0.5</v>
       </c>
       <c r="Y22">
@@ -6597,16 +6417,7 @@
       <c r="Q23">
         <v>0.53</v>
       </c>
-      <c r="R23">
-        <v>0.53</v>
-      </c>
       <c r="S23">
-        <v>0.53</v>
-      </c>
-      <c r="T23">
-        <v>0.53</v>
-      </c>
-      <c r="U23">
         <v>0.53</v>
       </c>
       <c r="Y23">
@@ -6689,16 +6500,7 @@
       <c r="Q24">
         <v>0.57999999999999996</v>
       </c>
-      <c r="R24">
-        <v>0.57999999999999996</v>
-      </c>
       <c r="S24">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="T24">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="U24">
         <v>0.57999999999999996</v>
       </c>
       <c r="Y24">
@@ -6781,16 +6583,7 @@
       <c r="Q25">
         <v>0.57999999999999996</v>
       </c>
-      <c r="R25">
-        <v>0.57999999999999996</v>
-      </c>
       <c r="S25">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="T25">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="U25">
         <v>0.57999999999999996</v>
       </c>
       <c r="Y25">
@@ -6873,16 +6666,7 @@
       <c r="Q26">
         <v>0.62</v>
       </c>
-      <c r="R26">
-        <v>0.62</v>
-      </c>
       <c r="S26">
-        <v>0.62</v>
-      </c>
-      <c r="T26">
-        <v>0.62</v>
-      </c>
-      <c r="U26">
         <v>0.62</v>
       </c>
       <c r="Y26">
@@ -6965,16 +6749,7 @@
       <c r="Q27">
         <v>0.65</v>
       </c>
-      <c r="R27">
-        <v>0.65</v>
-      </c>
       <c r="S27">
-        <v>0.65</v>
-      </c>
-      <c r="T27">
-        <v>0.65</v>
-      </c>
-      <c r="U27">
         <v>0.65</v>
       </c>
       <c r="Y27">
@@ -7057,16 +6832,7 @@
       <c r="Q28">
         <v>0.68</v>
       </c>
-      <c r="R28">
-        <v>0.68</v>
-      </c>
       <c r="S28">
-        <v>0.68</v>
-      </c>
-      <c r="T28">
-        <v>0.68</v>
-      </c>
-      <c r="U28">
         <v>0.68</v>
       </c>
       <c r="Y28">
@@ -7149,16 +6915,7 @@
       <c r="Q29">
         <v>0.73</v>
       </c>
-      <c r="R29">
-        <v>0.73</v>
-      </c>
       <c r="S29">
-        <v>0.73</v>
-      </c>
-      <c r="T29">
-        <v>0.73</v>
-      </c>
-      <c r="U29">
         <v>0.73</v>
       </c>
       <c r="Y29">
@@ -7241,16 +6998,7 @@
       <c r="Q30">
         <v>0.75</v>
       </c>
-      <c r="R30">
-        <v>0.75</v>
-      </c>
       <c r="S30">
-        <v>0.75</v>
-      </c>
-      <c r="T30">
-        <v>0.75</v>
-      </c>
-      <c r="U30">
         <v>0.75</v>
       </c>
       <c r="Y30">
@@ -7333,16 +7081,7 @@
       <c r="Q31">
         <v>0.8</v>
       </c>
-      <c r="R31">
-        <v>0.8</v>
-      </c>
       <c r="S31">
-        <v>0.8</v>
-      </c>
-      <c r="T31">
-        <v>0.8</v>
-      </c>
-      <c r="U31">
         <v>0.8</v>
       </c>
       <c r="Y31">
@@ -7425,16 +7164,7 @@
       <c r="Q32">
         <v>0.83</v>
       </c>
-      <c r="R32">
-        <v>0.83</v>
-      </c>
       <c r="S32">
-        <v>0.83</v>
-      </c>
-      <c r="T32">
-        <v>0.83</v>
-      </c>
-      <c r="U32">
         <v>0.83</v>
       </c>
       <c r="Y32">
@@ -7517,16 +7247,7 @@
       <c r="Q33">
         <v>0.86</v>
       </c>
-      <c r="R33">
-        <v>0.86</v>
-      </c>
       <c r="S33">
-        <v>0.86</v>
-      </c>
-      <c r="T33">
-        <v>0.86</v>
-      </c>
-      <c r="U33">
         <v>0.86</v>
       </c>
       <c r="Y33">
@@ -7609,16 +7330,7 @@
       <c r="Q34">
         <v>0.9</v>
       </c>
-      <c r="R34">
-        <v>0.9</v>
-      </c>
       <c r="S34">
-        <v>0.9</v>
-      </c>
-      <c r="T34">
-        <v>0.9</v>
-      </c>
-      <c r="U34">
         <v>0.9</v>
       </c>
       <c r="Y34">
@@ -7707,16 +7419,7 @@
       <c r="Q35">
         <v>1</v>
       </c>
-      <c r="R35">
-        <v>1</v>
-      </c>
       <c r="S35">
-        <v>1</v>
-      </c>
-      <c r="T35">
-        <v>1</v>
-      </c>
-      <c r="U35">
         <v>1</v>
       </c>
       <c r="Y35">
@@ -7808,16 +7511,7 @@
       <c r="Q36">
         <v>1.05</v>
       </c>
-      <c r="R36">
-        <v>1.05</v>
-      </c>
       <c r="S36">
-        <v>1.05</v>
-      </c>
-      <c r="T36">
-        <v>1.05</v>
-      </c>
-      <c r="U36">
         <v>1.05</v>
       </c>
       <c r="Y36">
@@ -7909,16 +7603,7 @@
       <c r="Q37">
         <v>1.1000000000000001</v>
       </c>
-      <c r="R37">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="S37">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="T37">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U37">
         <v>1.1000000000000001</v>
       </c>
       <c r="Y37">
@@ -8010,16 +7695,7 @@
       <c r="Q38">
         <v>1.1499999999999999</v>
       </c>
-      <c r="R38">
-        <v>1.1499999999999999</v>
-      </c>
       <c r="S38">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="T38">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="U38">
         <v>1.1499999999999999</v>
       </c>
       <c r="Y38">
@@ -8102,6 +7778,9 @@
       <c r="K39">
         <v>10</v>
       </c>
+      <c r="T39">
+        <v>0.05</v>
+      </c>
       <c r="W39">
         <v>0.05</v>
       </c>
@@ -8185,6 +7864,9 @@
       <c r="K40">
         <v>25</v>
       </c>
+      <c r="T40">
+        <v>0.08</v>
+      </c>
       <c r="W40">
         <v>0.08</v>
       </c>
@@ -8271,6 +7953,9 @@
       <c r="K41">
         <v>75</v>
       </c>
+      <c r="T41">
+        <v>0.16</v>
+      </c>
       <c r="W41">
         <v>0.16</v>
       </c>
@@ -8357,6 +8042,9 @@
       <c r="K42">
         <v>150</v>
       </c>
+      <c r="T42">
+        <v>0.18</v>
+      </c>
       <c r="W42">
         <v>0.18</v>
       </c>
@@ -8443,6 +8131,9 @@
       <c r="K43">
         <v>250</v>
       </c>
+      <c r="T43">
+        <v>0.19</v>
+      </c>
       <c r="W43">
         <v>0.19</v>
       </c>
@@ -8529,6 +8220,9 @@
       <c r="K44">
         <v>500</v>
       </c>
+      <c r="T44">
+        <v>0.2</v>
+      </c>
       <c r="W44">
         <v>0.2</v>
       </c>
@@ -8615,6 +8309,9 @@
       <c r="K45">
         <v>750</v>
       </c>
+      <c r="T45">
+        <v>0.22</v>
+      </c>
       <c r="W45">
         <v>0.22</v>
       </c>
@@ -8701,6 +8398,9 @@
       <c r="K46">
         <v>1000</v>
       </c>
+      <c r="T46">
+        <v>0.25</v>
+      </c>
       <c r="W46">
         <v>0.25</v>
       </c>
@@ -8784,6 +8484,9 @@
       <c r="K47">
         <v>1500</v>
       </c>
+      <c r="T47">
+        <v>0.27</v>
+      </c>
       <c r="W47">
         <v>0.27</v>
       </c>
@@ -8867,6 +8570,9 @@
       <c r="K48">
         <v>3000</v>
       </c>
+      <c r="T48">
+        <v>0.27</v>
+      </c>
       <c r="W48">
         <v>0.27</v>
       </c>
@@ -8950,6 +8656,9 @@
       <c r="K49">
         <v>5000</v>
       </c>
+      <c r="T49">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="W49">
         <v>0.28999999999999998</v>
       </c>
@@ -9033,6 +8742,9 @@
       <c r="K50">
         <v>7000</v>
       </c>
+      <c r="T50">
+        <v>0.3</v>
+      </c>
       <c r="W50">
         <v>0.3</v>
       </c>
@@ -9116,6 +8828,9 @@
       <c r="K51">
         <v>10000</v>
       </c>
+      <c r="T51">
+        <v>0.35</v>
+      </c>
       <c r="W51">
         <v>0.35</v>
       </c>
@@ -9199,6 +8914,9 @@
       <c r="K52">
         <v>15000</v>
       </c>
+      <c r="T52">
+        <v>0.37</v>
+      </c>
       <c r="W52">
         <v>0.37</v>
       </c>
@@ -9282,6 +9000,9 @@
       <c r="K53">
         <v>30000</v>
       </c>
+      <c r="T53">
+        <v>0.38</v>
+      </c>
       <c r="W53">
         <v>0.38</v>
       </c>
@@ -9365,6 +9086,9 @@
       <c r="K54">
         <v>60000</v>
       </c>
+      <c r="T54">
+        <v>0.38</v>
+      </c>
       <c r="W54">
         <v>0.38</v>
       </c>
@@ -9448,6 +9172,9 @@
       <c r="K55">
         <v>120000</v>
       </c>
+      <c r="T55">
+        <v>0.42</v>
+      </c>
       <c r="W55">
         <v>0.42</v>
       </c>
@@ -9531,6 +9258,9 @@
       <c r="K56">
         <v>180000</v>
       </c>
+      <c r="T56">
+        <v>0.45</v>
+      </c>
       <c r="W56">
         <v>0.45</v>
       </c>
@@ -9614,6 +9344,9 @@
       <c r="K57">
         <v>240000</v>
       </c>
+      <c r="T57">
+        <v>0.48</v>
+      </c>
       <c r="W57">
         <v>0.48</v>
       </c>
@@ -9697,6 +9430,9 @@
       <c r="K58">
         <v>260000</v>
       </c>
+      <c r="T58">
+        <v>0.5</v>
+      </c>
       <c r="W58">
         <v>0.5</v>
       </c>
@@ -9780,6 +9516,9 @@
       <c r="K59">
         <v>350000</v>
       </c>
+      <c r="T59">
+        <v>0.53</v>
+      </c>
       <c r="W59">
         <v>0.53</v>
       </c>
@@ -9863,6 +9602,9 @@
       <c r="K60">
         <v>500000</v>
       </c>
+      <c r="T60">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="W60">
         <v>0.57999999999999996</v>
       </c>
@@ -9946,6 +9688,9 @@
       <c r="K61">
         <v>1000000</v>
       </c>
+      <c r="T61">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="W61">
         <v>0.57999999999999996</v>
       </c>
@@ -10029,6 +9774,9 @@
       <c r="K62">
         <v>10000000</v>
       </c>
+      <c r="T62">
+        <v>0.62</v>
+      </c>
       <c r="W62">
         <v>0.62</v>
       </c>
@@ -10112,6 +9860,9 @@
       <c r="K63">
         <v>25000000</v>
       </c>
+      <c r="T63">
+        <v>0.65</v>
+      </c>
       <c r="W63">
         <v>0.65</v>
       </c>
@@ -10195,6 +9946,9 @@
       <c r="K64">
         <v>40000000</v>
       </c>
+      <c r="T64">
+        <v>0.68</v>
+      </c>
       <c r="W64">
         <v>0.68</v>
       </c>
@@ -10278,6 +10032,9 @@
       <c r="K65">
         <v>65000000</v>
       </c>
+      <c r="T65">
+        <v>0.73</v>
+      </c>
       <c r="W65">
         <v>0.73</v>
       </c>
@@ -10361,6 +10118,9 @@
       <c r="K66">
         <v>100000000</v>
       </c>
+      <c r="T66">
+        <v>0.75</v>
+      </c>
       <c r="W66">
         <v>0.75</v>
       </c>
@@ -10444,6 +10204,9 @@
       <c r="K67">
         <v>160000000</v>
       </c>
+      <c r="T67">
+        <v>0.8</v>
+      </c>
       <c r="W67">
         <v>0.8</v>
       </c>
@@ -10527,6 +10290,9 @@
       <c r="K68">
         <v>250000000</v>
       </c>
+      <c r="T68">
+        <v>0.83</v>
+      </c>
       <c r="W68">
         <v>0.83</v>
       </c>
@@ -10610,6 +10376,9 @@
       <c r="K69">
         <v>500000000</v>
       </c>
+      <c r="T69">
+        <v>0.86</v>
+      </c>
       <c r="W69">
         <v>0.86</v>
       </c>
@@ -10693,6 +10462,9 @@
       <c r="K70">
         <v>1000000000</v>
       </c>
+      <c r="T70">
+        <v>0.9</v>
+      </c>
       <c r="W70">
         <v>0.9</v>
       </c>
@@ -10776,6 +10548,9 @@
       <c r="K71">
         <v>2000000000</v>
       </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
       <c r="W71">
         <v>0.91</v>
       </c>
@@ -10856,6 +10631,9 @@
       <c r="K72">
         <v>2000000000</v>
       </c>
+      <c r="T72">
+        <v>1.05</v>
+      </c>
       <c r="W72">
         <v>0.92</v>
       </c>
@@ -10945,6 +10723,9 @@
       <c r="M73">
         <v>0</v>
       </c>
+      <c r="T73">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="W73">
         <v>1.02</v>
       </c>
@@ -11037,6 +10818,9 @@
       <c r="M74">
         <v>0</v>
       </c>
+      <c r="T74">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="W74">
         <v>1.05</v>
       </c>
@@ -11129,6 +10913,9 @@
       <c r="M75">
         <v>0</v>
       </c>
+      <c r="T75">
+        <v>1.2</v>
+      </c>
       <c r="W75">
         <v>1.1000000000000001</v>
       </c>
@@ -11221,6 +11008,9 @@
       <c r="M76">
         <v>0</v>
       </c>
+      <c r="T76">
+        <v>1.25</v>
+      </c>
       <c r="W76">
         <v>1.1499999999999999</v>
       </c>
@@ -11307,6 +11097,9 @@
       <c r="K77">
         <v>10</v>
       </c>
+      <c r="T77">
+        <v>0.05</v>
+      </c>
       <c r="W77">
         <v>0.05</v>
       </c>
@@ -11390,6 +11183,9 @@
       <c r="K78">
         <v>25</v>
       </c>
+      <c r="T78">
+        <v>0.08</v>
+      </c>
       <c r="W78">
         <v>0.08</v>
       </c>
@@ -11473,6 +11269,9 @@
       <c r="K79">
         <v>75</v>
       </c>
+      <c r="T79">
+        <v>0.16</v>
+      </c>
       <c r="W79">
         <v>0.16</v>
       </c>
@@ -11556,6 +11355,9 @@
       <c r="K80">
         <v>150</v>
       </c>
+      <c r="T80">
+        <v>0.18</v>
+      </c>
       <c r="W80">
         <v>0.18</v>
       </c>
@@ -11639,6 +11441,9 @@
       <c r="K81">
         <v>250</v>
       </c>
+      <c r="T81">
+        <v>0.19</v>
+      </c>
       <c r="W81">
         <v>0.19</v>
       </c>
@@ -11722,6 +11527,9 @@
       <c r="K82">
         <v>500</v>
       </c>
+      <c r="T82">
+        <v>0.2</v>
+      </c>
       <c r="W82">
         <v>0.2</v>
       </c>
@@ -11805,6 +11613,9 @@
       <c r="K83">
         <v>750</v>
       </c>
+      <c r="T83">
+        <v>0.22</v>
+      </c>
       <c r="W83">
         <v>0.22</v>
       </c>
@@ -11888,6 +11699,9 @@
       <c r="K84">
         <v>1000</v>
       </c>
+      <c r="T84">
+        <v>0.25</v>
+      </c>
       <c r="W84">
         <v>0.25</v>
       </c>
@@ -11968,6 +11782,9 @@
       <c r="K85">
         <v>1500</v>
       </c>
+      <c r="T85">
+        <v>0.27</v>
+      </c>
       <c r="W85">
         <v>0.27</v>
       </c>
@@ -12048,6 +11865,9 @@
       <c r="K86">
         <v>3000</v>
       </c>
+      <c r="T86">
+        <v>0.27</v>
+      </c>
       <c r="W86">
         <v>0.27</v>
       </c>
@@ -12128,6 +11948,9 @@
       <c r="K87">
         <v>5000</v>
       </c>
+      <c r="T87">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="W87">
         <v>0.28999999999999998</v>
       </c>
@@ -12208,6 +12031,9 @@
       <c r="K88">
         <v>7000</v>
       </c>
+      <c r="T88">
+        <v>0.3</v>
+      </c>
       <c r="W88">
         <v>0.3</v>
       </c>
@@ -12288,6 +12114,9 @@
       <c r="K89">
         <v>10000</v>
       </c>
+      <c r="T89">
+        <v>0.35</v>
+      </c>
       <c r="W89">
         <v>0.35</v>
       </c>
@@ -12368,6 +12197,9 @@
       <c r="K90">
         <v>15000</v>
       </c>
+      <c r="T90">
+        <v>0.37</v>
+      </c>
       <c r="W90">
         <v>0.37</v>
       </c>
@@ -12448,6 +12280,9 @@
       <c r="K91">
         <v>30000</v>
       </c>
+      <c r="T91">
+        <v>0.38</v>
+      </c>
       <c r="W91">
         <v>0.38</v>
       </c>
@@ -12528,6 +12363,9 @@
       <c r="K92">
         <v>60000</v>
       </c>
+      <c r="T92">
+        <v>0.38</v>
+      </c>
       <c r="W92">
         <v>0.38</v>
       </c>
@@ -12608,6 +12446,9 @@
       <c r="K93">
         <v>120000</v>
       </c>
+      <c r="T93">
+        <v>0.42</v>
+      </c>
       <c r="W93">
         <v>0.42</v>
       </c>
@@ -12688,6 +12529,9 @@
       <c r="K94">
         <v>180000</v>
       </c>
+      <c r="T94">
+        <v>0.45</v>
+      </c>
       <c r="W94">
         <v>0.45</v>
       </c>
@@ -12768,6 +12612,9 @@
       <c r="K95">
         <v>240000</v>
       </c>
+      <c r="T95">
+        <v>0.48</v>
+      </c>
       <c r="W95">
         <v>0.48</v>
       </c>
@@ -12848,6 +12695,9 @@
       <c r="K96">
         <v>260000</v>
       </c>
+      <c r="T96">
+        <v>0.5</v>
+      </c>
       <c r="W96">
         <v>0.5</v>
       </c>
@@ -12928,6 +12778,9 @@
       <c r="K97">
         <v>350000</v>
       </c>
+      <c r="T97">
+        <v>0.53</v>
+      </c>
       <c r="W97">
         <v>0.53</v>
       </c>
@@ -13008,6 +12861,9 @@
       <c r="K98">
         <v>500000</v>
       </c>
+      <c r="T98">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="W98">
         <v>0.57999999999999996</v>
       </c>
@@ -13088,6 +12944,9 @@
       <c r="K99">
         <v>1000000</v>
       </c>
+      <c r="T99">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="W99">
         <v>0.57999999999999996</v>
       </c>
@@ -13168,6 +13027,9 @@
       <c r="K100">
         <v>10000000</v>
       </c>
+      <c r="T100">
+        <v>0.62</v>
+      </c>
       <c r="W100">
         <v>0.62</v>
       </c>
@@ -13248,6 +13110,9 @@
       <c r="K101">
         <v>25000000</v>
       </c>
+      <c r="T101">
+        <v>0.65</v>
+      </c>
       <c r="W101">
         <v>0.65</v>
       </c>
@@ -13328,6 +13193,9 @@
       <c r="K102">
         <v>40000000</v>
       </c>
+      <c r="T102">
+        <v>0.68</v>
+      </c>
       <c r="W102">
         <v>0.68</v>
       </c>
@@ -13408,6 +13276,9 @@
       <c r="K103">
         <v>65000000</v>
       </c>
+      <c r="T103">
+        <v>0.73</v>
+      </c>
       <c r="W103">
         <v>0.73</v>
       </c>
@@ -13488,6 +13359,9 @@
       <c r="K104">
         <v>100000000</v>
       </c>
+      <c r="T104">
+        <v>0.75</v>
+      </c>
       <c r="W104">
         <v>0.75</v>
       </c>
@@ -13568,6 +13442,9 @@
       <c r="K105">
         <v>160000000</v>
       </c>
+      <c r="T105">
+        <v>0.8</v>
+      </c>
       <c r="W105">
         <v>0.8</v>
       </c>
@@ -13648,6 +13525,9 @@
       <c r="K106">
         <v>250000000</v>
       </c>
+      <c r="T106">
+        <v>0.83</v>
+      </c>
       <c r="W106">
         <v>0.83</v>
       </c>
@@ -13728,6 +13608,9 @@
       <c r="K107">
         <v>500000000</v>
       </c>
+      <c r="T107">
+        <v>0.86</v>
+      </c>
       <c r="W107">
         <v>0.86</v>
       </c>
@@ -13808,6 +13691,9 @@
       <c r="K108">
         <v>1000000000</v>
       </c>
+      <c r="T108">
+        <v>0.9</v>
+      </c>
       <c r="W108">
         <v>0.9</v>
       </c>
@@ -13888,6 +13774,9 @@
       <c r="K109">
         <v>2000000000</v>
       </c>
+      <c r="T109">
+        <v>1</v>
+      </c>
       <c r="W109">
         <v>0.92</v>
       </c>
@@ -13974,6 +13863,9 @@
       <c r="M110">
         <v>0</v>
       </c>
+      <c r="T110">
+        <v>1.05</v>
+      </c>
       <c r="W110">
         <v>1.02</v>
       </c>
@@ -14063,6 +13955,9 @@
       <c r="M111">
         <v>0</v>
       </c>
+      <c r="T111">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="W111">
         <v>1.05</v>
       </c>
@@ -14152,6 +14047,9 @@
       <c r="M112">
         <v>0</v>
       </c>
+      <c r="T112">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="W112">
         <v>1.1000000000000001</v>
       </c>
@@ -14240,6 +14138,9 @@
       </c>
       <c r="M113">
         <v>0</v>
+      </c>
+      <c r="T113">
+        <v>1.2</v>
       </c>
       <c r="W113">
         <v>1.1499999999999999</v>

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1352">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -1556,7 +1556,10 @@
     <t>Lifes Flail</t>
   </si>
   <si>
-    <t>Life is a fickle thing my child. It can be taken from you in a heart beat. They say there is an ocean of life stealing liquid deep in the dungeons depths. This is a gift for The River Man. Give it to him.</t>
+    <t>Will grant you access to the Shadow Plane. All you have to do is use traverse.</t>
+  </si>
+  <si>
+    <t>shadow-plane</t>
   </si>
   <si>
     <t>Torch</t>
@@ -24907,8 +24910,8 @@
       <c r="M227">
         <v>0</v>
       </c>
-      <c r="Z227">
-        <v>1</v>
+      <c r="X227" t="s">
+        <v>514</v>
       </c>
       <c r="AF227">
         <v>0</v>
@@ -24926,15 +24929,6 @@
         <v>0</v>
       </c>
       <c r="AO227">
-        <v>0</v>
-      </c>
-      <c r="AR227">
-        <v>0</v>
-      </c>
-      <c r="AT227">
-        <v>0</v>
-      </c>
-      <c r="AU227">
         <v>0</v>
       </c>
       <c r="AW227">
@@ -24961,13 +24955,13 @@
     </row>
     <row r="228" spans="1:55">
       <c r="D228" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E228" t="s">
         <v>509</v>
       </c>
       <c r="F228" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L228">
         <v>0</v>
@@ -24976,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="X228" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF228">
         <v>0</v>
@@ -25029,13 +25023,13 @@
     </row>
     <row r="229" spans="1:55">
       <c r="D229" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E229" t="s">
         <v>509</v>
       </c>
       <c r="F229" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L229">
         <v>0</v>
@@ -25097,13 +25091,13 @@
     </row>
     <row r="230" spans="1:55">
       <c r="D230" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E230" t="s">
         <v>509</v>
       </c>
       <c r="F230" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L230">
         <v>0</v>
@@ -25165,13 +25159,13 @@
     </row>
     <row r="231" spans="1:55">
       <c r="D231" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E231" t="s">
         <v>509</v>
       </c>
       <c r="F231" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L231">
         <v>0</v>
@@ -25183,7 +25177,7 @@
         <v>1</v>
       </c>
       <c r="AD231" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AE231">
         <v>0.5</v>
@@ -25242,13 +25236,13 @@
     </row>
     <row r="232" spans="1:55">
       <c r="D232" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E232" t="s">
         <v>509</v>
       </c>
       <c r="F232" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L232">
         <v>0</v>
@@ -25260,7 +25254,7 @@
         <v>1</v>
       </c>
       <c r="AD232" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AE232">
         <v>0.5</v>
@@ -25319,13 +25313,13 @@
     </row>
     <row r="233" spans="1:55">
       <c r="D233" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E233" t="s">
         <v>509</v>
       </c>
       <c r="F233" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L233">
         <v>0</v>
@@ -25337,7 +25331,7 @@
         <v>1</v>
       </c>
       <c r="AD233" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AE233">
         <v>0.5</v>
@@ -25396,13 +25390,13 @@
     </row>
     <row r="234" spans="1:55">
       <c r="D234" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E234" t="s">
         <v>509</v>
       </c>
       <c r="F234" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L234">
         <v>0</v>
@@ -25414,7 +25408,7 @@
         <v>1</v>
       </c>
       <c r="AD234" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AE234">
         <v>0.5</v>
@@ -25473,13 +25467,13 @@
     </row>
     <row r="235" spans="1:55">
       <c r="D235" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E235" t="s">
         <v>509</v>
       </c>
       <c r="F235" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L235">
         <v>0</v>
@@ -25491,7 +25485,7 @@
         <v>1</v>
       </c>
       <c r="AD235" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AE235">
         <v>0.5</v>
@@ -25550,13 +25544,13 @@
     </row>
     <row r="236" spans="1:55">
       <c r="D236" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E236" t="s">
         <v>509</v>
       </c>
       <c r="F236" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L236">
         <v>0</v>
@@ -25565,7 +25559,7 @@
         <v>0</v>
       </c>
       <c r="AD236" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AE236">
         <v>0.5</v>
@@ -25624,13 +25618,13 @@
     </row>
     <row r="237" spans="1:55">
       <c r="D237" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E237" t="s">
         <v>509</v>
       </c>
       <c r="F237" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L237">
         <v>0</v>
@@ -25692,16 +25686,16 @@
     </row>
     <row r="238" spans="1:55">
       <c r="D238" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E238" t="s">
         <v>509</v>
       </c>
       <c r="F238" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="X238" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Z238">
         <v>1</v>
@@ -25757,13 +25751,13 @@
     </row>
     <row r="239" spans="1:55">
       <c r="D239" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E239" t="s">
         <v>509</v>
       </c>
       <c r="F239" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L239">
         <v>0</v>
@@ -25778,18 +25772,18 @@
         <v>0</v>
       </c>
       <c r="X239" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="240" spans="1:55">
       <c r="D240" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E240" t="s">
         <v>509</v>
       </c>
       <c r="F240" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L240">
         <v>0</v>
@@ -25804,18 +25798,18 @@
         <v>0</v>
       </c>
       <c r="X240" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="241" spans="1:55">
       <c r="D241" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E241" t="s">
         <v>509</v>
       </c>
       <c r="F241" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L241">
         <v>0</v>
@@ -25832,13 +25826,13 @@
     </row>
     <row r="242" spans="1:55">
       <c r="D242" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E242" t="s">
         <v>509</v>
       </c>
       <c r="F242" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L242">
         <v>0</v>
@@ -25853,7 +25847,7 @@
         <v>0</v>
       </c>
       <c r="X242" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="BB242">
         <v>1</v>
@@ -25864,13 +25858,13 @@
     </row>
     <row r="243" spans="1:55">
       <c r="D243" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E243" t="s">
         <v>509</v>
       </c>
       <c r="F243" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L243">
         <v>0</v>
@@ -25885,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="X243" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="BB243">
         <v>0.75</v>
@@ -25896,13 +25890,13 @@
     </row>
     <row r="244" spans="1:55">
       <c r="D244" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E244" t="s">
         <v>509</v>
       </c>
       <c r="F244" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L244">
         <v>0</v>
@@ -25917,7 +25911,7 @@
         <v>0</v>
       </c>
       <c r="X244" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="BB244">
         <v>0.5</v>
@@ -25928,13 +25922,13 @@
     </row>
     <row r="245" spans="1:55">
       <c r="D245" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E245" t="s">
         <v>509</v>
       </c>
       <c r="F245" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L245">
         <v>0</v>
@@ -25949,7 +25943,7 @@
         <v>0</v>
       </c>
       <c r="X245" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AF245">
         <v>0</v>
@@ -26002,13 +25996,13 @@
     </row>
     <row r="246" spans="1:55">
       <c r="D246" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E246" t="s">
         <v>509</v>
       </c>
       <c r="F246" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L246">
         <v>0</v>
@@ -26023,7 +26017,7 @@
         <v>0</v>
       </c>
       <c r="AD246" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AE246">
         <v>0.45</v>
@@ -26082,13 +26076,13 @@
     </row>
     <row r="247" spans="1:55">
       <c r="D247" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E247" t="s">
         <v>509</v>
       </c>
       <c r="F247" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L247">
         <v>0</v>
@@ -26103,7 +26097,7 @@
         <v>0</v>
       </c>
       <c r="AD247" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AE247">
         <v>0.45</v>
@@ -26162,13 +26156,13 @@
     </row>
     <row r="248" spans="1:55">
       <c r="D248" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E248" t="s">
         <v>509</v>
       </c>
       <c r="F248" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L248">
         <v>0</v>
@@ -26177,7 +26171,7 @@
         <v>0</v>
       </c>
       <c r="X248" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AF248">
         <v>0</v>
@@ -26230,19 +26224,19 @@
     </row>
     <row r="249" spans="1:55">
       <c r="D249" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E249" t="s">
         <v>509</v>
       </c>
       <c r="F249" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Z249">
         <v>1</v>
       </c>
       <c r="AD249" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AE249">
         <v>0.15</v>
@@ -26301,19 +26295,19 @@
     </row>
     <row r="250" spans="1:55">
       <c r="D250" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E250" t="s">
         <v>509</v>
       </c>
       <c r="F250" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Z250">
         <v>1</v>
       </c>
       <c r="AD250" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AE250">
         <v>0.15</v>
@@ -26372,16 +26366,16 @@
     </row>
     <row r="251" spans="1:55">
       <c r="D251" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E251" t="s">
         <v>509</v>
       </c>
       <c r="F251" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="X251" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Z251">
         <v>1</v>
@@ -26437,19 +26431,19 @@
     </row>
     <row r="252" spans="1:55">
       <c r="D252" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E252" t="s">
         <v>509</v>
       </c>
       <c r="F252" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Z252">
         <v>1</v>
       </c>
       <c r="AD252" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AE252">
         <v>0.15</v>
@@ -26508,19 +26502,19 @@
     </row>
     <row r="253" spans="1:55">
       <c r="D253" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E253" t="s">
         <v>509</v>
       </c>
       <c r="F253" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Z253">
         <v>1</v>
       </c>
       <c r="AD253" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AE253">
         <v>0.15</v>
@@ -26579,19 +26573,19 @@
     </row>
     <row r="254" spans="1:55">
       <c r="D254" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E254" t="s">
         <v>509</v>
       </c>
       <c r="F254" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Z254">
         <v>1</v>
       </c>
       <c r="AD254" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AE254">
         <v>0.15</v>
@@ -26650,19 +26644,19 @@
     </row>
     <row r="255" spans="1:55">
       <c r="D255" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E255" t="s">
         <v>509</v>
       </c>
       <c r="F255" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Z255">
         <v>1</v>
       </c>
       <c r="AD255" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AE255">
         <v>0.15</v>
@@ -26721,13 +26715,13 @@
     </row>
     <row r="256" spans="1:55">
       <c r="D256" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E256" t="s">
         <v>372</v>
       </c>
       <c r="F256" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G256" t="s">
         <v>372</v>
@@ -26804,13 +26798,13 @@
     </row>
     <row r="257" spans="1:55">
       <c r="D257" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E257" t="s">
         <v>372</v>
       </c>
       <c r="F257" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G257" t="s">
         <v>372</v>
@@ -26908,13 +26902,13 @@
     </row>
     <row r="258" spans="1:55">
       <c r="D258" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E258" t="s">
         <v>372</v>
       </c>
       <c r="F258" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G258" t="s">
         <v>372</v>
@@ -27012,13 +27006,13 @@
     </row>
     <row r="259" spans="1:55">
       <c r="D259" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E259" t="s">
         <v>372</v>
       </c>
       <c r="F259" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G259" t="s">
         <v>372</v>
@@ -27116,13 +27110,13 @@
     </row>
     <row r="260" spans="1:55">
       <c r="D260" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E260" t="s">
         <v>372</v>
       </c>
       <c r="F260" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G260" t="s">
         <v>372</v>
@@ -27220,13 +27214,13 @@
     </row>
     <row r="261" spans="1:55">
       <c r="D261" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E261" t="s">
         <v>372</v>
       </c>
       <c r="F261" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G261" t="s">
         <v>372</v>
@@ -27324,13 +27318,13 @@
     </row>
     <row r="262" spans="1:55">
       <c r="D262" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E262" t="s">
         <v>372</v>
       </c>
       <c r="F262" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G262" t="s">
         <v>372</v>
@@ -27428,13 +27422,13 @@
     </row>
     <row r="263" spans="1:55">
       <c r="D263" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E263" t="s">
         <v>372</v>
       </c>
       <c r="F263" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G263" t="s">
         <v>372</v>
@@ -27529,13 +27523,13 @@
     </row>
     <row r="264" spans="1:55">
       <c r="D264" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E264" t="s">
         <v>372</v>
       </c>
       <c r="F264" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G264" t="s">
         <v>372</v>
@@ -27630,13 +27624,13 @@
     </row>
     <row r="265" spans="1:55">
       <c r="D265" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E265" t="s">
         <v>372</v>
       </c>
       <c r="F265" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G265" t="s">
         <v>372</v>
@@ -27731,13 +27725,13 @@
     </row>
     <row r="266" spans="1:55">
       <c r="D266" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E266" t="s">
         <v>372</v>
       </c>
       <c r="F266" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G266" t="s">
         <v>372</v>
@@ -27832,13 +27826,13 @@
     </row>
     <row r="267" spans="1:55">
       <c r="D267" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E267" t="s">
         <v>372</v>
       </c>
       <c r="F267" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G267" t="s">
         <v>372</v>
@@ -27933,13 +27927,13 @@
     </row>
     <row r="268" spans="1:55">
       <c r="D268" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E268" t="s">
         <v>372</v>
       </c>
       <c r="F268" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G268" t="s">
         <v>372</v>
@@ -28034,13 +28028,13 @@
     </row>
     <row r="269" spans="1:55">
       <c r="D269" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E269" t="s">
         <v>372</v>
       </c>
       <c r="F269" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G269" t="s">
         <v>372</v>
@@ -28135,13 +28129,13 @@
     </row>
     <row r="270" spans="1:55">
       <c r="D270" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E270" t="s">
         <v>372</v>
       </c>
       <c r="F270" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G270" t="s">
         <v>372</v>
@@ -28236,13 +28230,13 @@
     </row>
     <row r="271" spans="1:55">
       <c r="D271" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E271" t="s">
         <v>372</v>
       </c>
       <c r="F271" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G271" t="s">
         <v>372</v>
@@ -28337,13 +28331,13 @@
     </row>
     <row r="272" spans="1:55">
       <c r="D272" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E272" t="s">
         <v>372</v>
       </c>
       <c r="F272" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G272" t="s">
         <v>372</v>
@@ -28438,13 +28432,13 @@
     </row>
     <row r="273" spans="1:55">
       <c r="D273" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E273" t="s">
         <v>372</v>
       </c>
       <c r="F273" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G273" t="s">
         <v>372</v>
@@ -28539,13 +28533,13 @@
     </row>
     <row r="274" spans="1:55">
       <c r="D274" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E274" t="s">
         <v>372</v>
       </c>
       <c r="F274" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G274" t="s">
         <v>372</v>
@@ -28640,13 +28634,13 @@
     </row>
     <row r="275" spans="1:55">
       <c r="D275" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E275" t="s">
         <v>372</v>
       </c>
       <c r="F275" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G275" t="s">
         <v>372</v>
@@ -28741,13 +28735,13 @@
     </row>
     <row r="276" spans="1:55">
       <c r="D276" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E276" t="s">
         <v>372</v>
       </c>
       <c r="F276" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G276" t="s">
         <v>372</v>
@@ -28842,13 +28836,13 @@
     </row>
     <row r="277" spans="1:55">
       <c r="D277" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E277" t="s">
         <v>372</v>
       </c>
       <c r="F277" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G277" t="s">
         <v>372</v>
@@ -28943,13 +28937,13 @@
     </row>
     <row r="278" spans="1:55">
       <c r="D278" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E278" t="s">
         <v>372</v>
       </c>
       <c r="F278" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G278" t="s">
         <v>372</v>
@@ -29044,13 +29038,13 @@
     </row>
     <row r="279" spans="1:55">
       <c r="D279" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E279" t="s">
         <v>372</v>
       </c>
       <c r="F279" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G279" t="s">
         <v>372</v>
@@ -29145,13 +29139,13 @@
     </row>
     <row r="280" spans="1:55">
       <c r="D280" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E280" t="s">
         <v>372</v>
       </c>
       <c r="F280" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G280" t="s">
         <v>372</v>
@@ -29246,13 +29240,13 @@
     </row>
     <row r="281" spans="1:55">
       <c r="D281" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E281" t="s">
         <v>372</v>
       </c>
       <c r="F281" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G281" t="s">
         <v>372</v>
@@ -29347,13 +29341,13 @@
     </row>
     <row r="282" spans="1:55">
       <c r="D282" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E282" t="s">
         <v>372</v>
       </c>
       <c r="F282" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G282" t="s">
         <v>372</v>
@@ -29448,13 +29442,13 @@
     </row>
     <row r="283" spans="1:55">
       <c r="D283" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E283" t="s">
         <v>372</v>
       </c>
       <c r="F283" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G283" t="s">
         <v>372</v>
@@ -29549,13 +29543,13 @@
     </row>
     <row r="284" spans="1:55">
       <c r="D284" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E284" t="s">
         <v>372</v>
       </c>
       <c r="F284" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G284" t="s">
         <v>372</v>
@@ -29650,13 +29644,13 @@
     </row>
     <row r="285" spans="1:55">
       <c r="D285" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E285" t="s">
         <v>372</v>
       </c>
       <c r="F285" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G285" t="s">
         <v>372</v>
@@ -29751,13 +29745,13 @@
     </row>
     <row r="286" spans="1:55">
       <c r="D286" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E286" t="s">
         <v>372</v>
       </c>
       <c r="F286" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G286" t="s">
         <v>372</v>
@@ -29852,13 +29846,13 @@
     </row>
     <row r="287" spans="1:55">
       <c r="D287" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E287" t="s">
         <v>372</v>
       </c>
       <c r="F287" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G287" t="s">
         <v>372</v>
@@ -29953,13 +29947,13 @@
     </row>
     <row r="288" spans="1:55">
       <c r="D288" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E288" t="s">
         <v>372</v>
       </c>
       <c r="F288" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G288" t="s">
         <v>372</v>
@@ -30057,13 +30051,13 @@
     </row>
     <row r="289" spans="1:55">
       <c r="D289" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E289" t="s">
         <v>372</v>
       </c>
       <c r="F289" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G289" t="s">
         <v>372</v>
@@ -30167,13 +30161,13 @@
     </row>
     <row r="290" spans="1:55">
       <c r="D290" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E290" t="s">
         <v>372</v>
       </c>
       <c r="F290" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G290" t="s">
         <v>372</v>
@@ -30277,13 +30271,13 @@
     </row>
     <row r="291" spans="1:55">
       <c r="D291" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E291" t="s">
         <v>372</v>
       </c>
       <c r="F291" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G291" t="s">
         <v>372</v>
@@ -30387,13 +30381,13 @@
     </row>
     <row r="292" spans="1:55">
       <c r="D292" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E292" t="s">
         <v>372</v>
       </c>
       <c r="F292" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G292" t="s">
         <v>372</v>
@@ -30497,16 +30491,16 @@
     </row>
     <row r="293" spans="1:55">
       <c r="D293" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E293" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F293" t="s">
+        <v>662</v>
+      </c>
+      <c r="G293" t="s">
         <v>661</v>
-      </c>
-      <c r="G293" t="s">
-        <v>660</v>
       </c>
       <c r="J293">
         <v>1</v>
@@ -30601,16 +30595,16 @@
     </row>
     <row r="294" spans="1:55">
       <c r="D294" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E294" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F294" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G294" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J294">
         <v>3</v>
@@ -30705,16 +30699,16 @@
     </row>
     <row r="295" spans="1:55">
       <c r="D295" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E295" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F295" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G295" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J295">
         <v>5</v>
@@ -30809,16 +30803,16 @@
     </row>
     <row r="296" spans="1:55">
       <c r="D296" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E296" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F296" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G296" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J296">
         <v>10</v>
@@ -30913,16 +30907,16 @@
     </row>
     <row r="297" spans="1:55">
       <c r="D297" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E297" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F297" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G297" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J297">
         <v>22</v>
@@ -31017,16 +31011,16 @@
     </row>
     <row r="298" spans="1:55">
       <c r="D298" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E298" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F298" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G298" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J298">
         <v>30</v>
@@ -31121,16 +31115,16 @@
     </row>
     <row r="299" spans="1:55">
       <c r="D299" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E299" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F299" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G299" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J299">
         <v>45</v>
@@ -31225,16 +31219,16 @@
     </row>
     <row r="300" spans="1:55">
       <c r="D300" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E300" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F300" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G300" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J300">
         <v>45</v>
@@ -31326,16 +31320,16 @@
     </row>
     <row r="301" spans="1:55">
       <c r="D301" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E301" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F301" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G301" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J301">
         <v>75</v>
@@ -31427,16 +31421,16 @@
     </row>
     <row r="302" spans="1:55">
       <c r="D302" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E302" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F302" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G302" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J302">
         <v>90</v>
@@ -31528,16 +31522,16 @@
     </row>
     <row r="303" spans="1:55">
       <c r="D303" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E303" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F303" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G303" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J303">
         <v>130</v>
@@ -31629,16 +31623,16 @@
     </row>
     <row r="304" spans="1:55">
       <c r="D304" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E304" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F304" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G304" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J304">
         <v>150</v>
@@ -31730,16 +31724,16 @@
     </row>
     <row r="305" spans="1:55">
       <c r="D305" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E305" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F305" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G305" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J305">
         <v>170</v>
@@ -31831,16 +31825,16 @@
     </row>
     <row r="306" spans="1:55">
       <c r="D306" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E306" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F306" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G306" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J306">
         <v>200</v>
@@ -31932,16 +31926,16 @@
     </row>
     <row r="307" spans="1:55">
       <c r="D307" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E307" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F307" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G307" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J307">
         <v>250</v>
@@ -32033,16 +32027,16 @@
     </row>
     <row r="308" spans="1:55">
       <c r="D308" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E308" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F308" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G308" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J308">
         <v>270</v>
@@ -32134,16 +32128,16 @@
     </row>
     <row r="309" spans="1:55">
       <c r="D309" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E309" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F309" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G309" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J309">
         <v>300</v>
@@ -32235,16 +32229,16 @@
     </row>
     <row r="310" spans="1:55">
       <c r="D310" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E310" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F310" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G310" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J310">
         <v>350</v>
@@ -32336,16 +32330,16 @@
     </row>
     <row r="311" spans="1:55">
       <c r="D311" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E311" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F311" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G311" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J311">
         <v>360</v>
@@ -32437,16 +32431,16 @@
     </row>
     <row r="312" spans="1:55">
       <c r="D312" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E312" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F312" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G312" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J312">
         <v>380</v>
@@ -32538,16 +32532,16 @@
     </row>
     <row r="313" spans="1:55">
       <c r="D313" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E313" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F313" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G313" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J313">
         <v>400</v>
@@ -32639,16 +32633,16 @@
     </row>
     <row r="314" spans="1:55">
       <c r="D314" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E314" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F314" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G314" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J314">
         <v>420</v>
@@ -32740,16 +32734,16 @@
     </row>
     <row r="315" spans="1:55">
       <c r="D315" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E315" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F315" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G315" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J315">
         <v>440</v>
@@ -32841,16 +32835,16 @@
     </row>
     <row r="316" spans="1:55">
       <c r="D316" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E316" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F316" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G316" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J316">
         <v>460</v>
@@ -32942,16 +32936,16 @@
     </row>
     <row r="317" spans="1:55">
       <c r="D317" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E317" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F317" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G317" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J317">
         <v>476</v>
@@ -33043,16 +33037,16 @@
     </row>
     <row r="318" spans="1:55">
       <c r="D318" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E318" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F318" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G318" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J318">
         <v>500</v>
@@ -33144,16 +33138,16 @@
     </row>
     <row r="319" spans="1:55">
       <c r="D319" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E319" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F319" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G319" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J319">
         <v>520</v>
@@ -33245,16 +33239,16 @@
     </row>
     <row r="320" spans="1:55">
       <c r="D320" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E320" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F320" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G320" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J320">
         <v>530</v>
@@ -33346,16 +33340,16 @@
     </row>
     <row r="321" spans="1:55">
       <c r="D321" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E321" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F321" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G321" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J321">
         <v>560</v>
@@ -33447,16 +33441,16 @@
     </row>
     <row r="322" spans="1:55">
       <c r="D322" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E322" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F322" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G322" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J322">
         <v>570</v>
@@ -33548,16 +33542,16 @@
     </row>
     <row r="323" spans="1:55">
       <c r="D323" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E323" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F323" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G323" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J323">
         <v>600</v>
@@ -33649,16 +33643,16 @@
     </row>
     <row r="324" spans="1:55">
       <c r="D324" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E324" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F324" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G324" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J324">
         <v>630</v>
@@ -33750,16 +33744,16 @@
     </row>
     <row r="325" spans="1:55">
       <c r="D325" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E325" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F325" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G325" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J325">
         <v>650</v>
@@ -33851,16 +33845,16 @@
     </row>
     <row r="326" spans="1:55">
       <c r="D326" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E326" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F326" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G326" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J326">
         <v>680</v>
@@ -33961,16 +33955,16 @@
     </row>
     <row r="327" spans="1:55">
       <c r="D327" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E327" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F327" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G327" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J327">
         <v>720</v>
@@ -34071,16 +34065,16 @@
     </row>
     <row r="328" spans="1:55">
       <c r="D328" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E328" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F328" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G328" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J328">
         <v>750</v>
@@ -34181,16 +34175,16 @@
     </row>
     <row r="329" spans="1:55">
       <c r="D329" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E329" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F329" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G329" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J329">
         <v>775</v>
@@ -34291,16 +34285,16 @@
     </row>
     <row r="330" spans="1:55">
       <c r="D330" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E330" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F330" t="s">
+        <v>737</v>
+      </c>
+      <c r="G330" t="s">
         <v>736</v>
-      </c>
-      <c r="G330" t="s">
-        <v>735</v>
       </c>
       <c r="J330">
         <v>1</v>
@@ -34395,16 +34389,16 @@
     </row>
     <row r="331" spans="1:55">
       <c r="D331" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E331" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F331" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G331" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J331">
         <v>3</v>
@@ -34499,16 +34493,16 @@
     </row>
     <row r="332" spans="1:55">
       <c r="D332" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E332" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F332" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G332" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J332">
         <v>5</v>
@@ -34603,16 +34597,16 @@
     </row>
     <row r="333" spans="1:55">
       <c r="D333" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E333" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F333" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G333" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J333">
         <v>10</v>
@@ -34707,16 +34701,16 @@
     </row>
     <row r="334" spans="1:55">
       <c r="D334" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E334" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F334" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G334" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J334">
         <v>22</v>
@@ -34811,16 +34805,16 @@
     </row>
     <row r="335" spans="1:55">
       <c r="D335" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E335" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F335" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G335" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J335">
         <v>30</v>
@@ -34915,16 +34909,16 @@
     </row>
     <row r="336" spans="1:55">
       <c r="D336" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E336" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F336" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G336" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J336">
         <v>45</v>
@@ -35022,16 +35016,16 @@
     </row>
     <row r="337" spans="1:55">
       <c r="D337" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E337" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F337" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G337" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J337">
         <v>45</v>
@@ -35123,16 +35117,16 @@
     </row>
     <row r="338" spans="1:55">
       <c r="D338" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E338" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F338" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G338" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J338">
         <v>75</v>
@@ -35224,16 +35218,16 @@
     </row>
     <row r="339" spans="1:55">
       <c r="D339" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E339" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F339" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G339" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J339">
         <v>90</v>
@@ -35325,16 +35319,16 @@
     </row>
     <row r="340" spans="1:55">
       <c r="D340" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E340" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F340" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G340" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J340">
         <v>110</v>
@@ -35426,16 +35420,16 @@
     </row>
     <row r="341" spans="1:55">
       <c r="D341" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E341" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F341" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G341" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J341">
         <v>130</v>
@@ -35527,16 +35521,16 @@
     </row>
     <row r="342" spans="1:55">
       <c r="D342" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E342" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F342" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G342" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J342">
         <v>150</v>
@@ -35628,16 +35622,16 @@
     </row>
     <row r="343" spans="1:55">
       <c r="D343" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E343" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F343" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G343" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J343">
         <v>170</v>
@@ -35729,16 +35723,16 @@
     </row>
     <row r="344" spans="1:55">
       <c r="D344" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E344" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F344" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G344" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J344">
         <v>200</v>
@@ -35830,16 +35824,16 @@
     </row>
     <row r="345" spans="1:55">
       <c r="D345" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E345" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F345" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G345" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J345">
         <v>270</v>
@@ -35931,16 +35925,16 @@
     </row>
     <row r="346" spans="1:55">
       <c r="D346" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E346" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F346" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G346" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J346">
         <v>300</v>
@@ -36032,16 +36026,16 @@
     </row>
     <row r="347" spans="1:55">
       <c r="D347" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E347" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F347" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G347" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J347">
         <v>350</v>
@@ -36133,16 +36127,16 @@
     </row>
     <row r="348" spans="1:55">
       <c r="D348" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E348" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F348" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G348" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J348">
         <v>360</v>
@@ -36234,16 +36228,16 @@
     </row>
     <row r="349" spans="1:55">
       <c r="D349" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E349" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F349" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G349" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J349">
         <v>380</v>
@@ -36335,16 +36329,16 @@
     </row>
     <row r="350" spans="1:55">
       <c r="D350" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E350" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F350" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G350" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J350">
         <v>300</v>
@@ -36436,16 +36430,16 @@
     </row>
     <row r="351" spans="1:55">
       <c r="D351" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E351" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F351" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G351" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J351">
         <v>420</v>
@@ -36537,16 +36531,16 @@
     </row>
     <row r="352" spans="1:55">
       <c r="D352" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E352" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F352" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G352" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J352">
         <v>440</v>
@@ -36638,16 +36632,16 @@
     </row>
     <row r="353" spans="1:55">
       <c r="D353" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E353" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F353" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G353" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J353">
         <v>460</v>
@@ -36739,16 +36733,16 @@
     </row>
     <row r="354" spans="1:55">
       <c r="D354" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E354" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F354" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G354" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J354">
         <v>300</v>
@@ -36840,16 +36834,16 @@
     </row>
     <row r="355" spans="1:55">
       <c r="D355" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E355" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F355" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G355" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J355">
         <v>300</v>
@@ -36935,16 +36929,16 @@
     </row>
     <row r="356" spans="1:55">
       <c r="D356" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E356" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F356" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G356" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J356">
         <v>476</v>
@@ -37036,16 +37030,16 @@
     </row>
     <row r="357" spans="1:55">
       <c r="D357" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E357" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F357" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G357" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J357">
         <v>500</v>
@@ -37137,16 +37131,16 @@
     </row>
     <row r="358" spans="1:55">
       <c r="D358" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E358" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F358" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G358" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J358">
         <v>500</v>
@@ -37238,16 +37232,16 @@
     </row>
     <row r="359" spans="1:55">
       <c r="D359" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E359" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F359" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G359" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J359">
         <v>520</v>
@@ -37339,16 +37333,16 @@
     </row>
     <row r="360" spans="1:55">
       <c r="D360" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E360" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F360" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G360" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J360">
         <v>530</v>
@@ -37440,16 +37434,16 @@
     </row>
     <row r="361" spans="1:55">
       <c r="D361" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E361" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F361" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G361" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J361">
         <v>560</v>
@@ -37541,16 +37535,16 @@
     </row>
     <row r="362" spans="1:55">
       <c r="D362" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E362" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F362" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G362" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J362">
         <v>580</v>
@@ -37642,16 +37636,16 @@
     </row>
     <row r="363" spans="1:55">
       <c r="D363" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E363" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F363" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G363" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J363">
         <v>600</v>
@@ -37743,16 +37737,16 @@
     </row>
     <row r="364" spans="1:55">
       <c r="D364" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E364" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F364" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G364" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J364">
         <v>650</v>
@@ -37853,16 +37847,16 @@
     </row>
     <row r="365" spans="1:55">
       <c r="D365" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E365" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F365" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G365" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J365">
         <v>675</v>
@@ -37963,16 +37957,16 @@
     </row>
     <row r="366" spans="1:55">
       <c r="D366" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E366" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F366" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G366" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J366">
         <v>725</v>
@@ -38073,16 +38067,16 @@
     </row>
     <row r="367" spans="1:55">
       <c r="D367" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E367" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F367" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G367" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J367">
         <v>750</v>
@@ -38183,16 +38177,16 @@
     </row>
     <row r="368" spans="1:55">
       <c r="D368" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E368" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F368" t="s">
+        <v>811</v>
+      </c>
+      <c r="G368" t="s">
         <v>810</v>
-      </c>
-      <c r="G368" t="s">
-        <v>809</v>
       </c>
       <c r="J368">
         <v>1</v>
@@ -38287,16 +38281,16 @@
     </row>
     <row r="369" spans="1:55">
       <c r="D369" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E369" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F369" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G369" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J369">
         <v>3</v>
@@ -38391,16 +38385,16 @@
     </row>
     <row r="370" spans="1:55">
       <c r="D370" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E370" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F370" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G370" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J370">
         <v>5</v>
@@ -38495,16 +38489,16 @@
     </row>
     <row r="371" spans="1:55">
       <c r="D371" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E371" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F371" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G371" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J371">
         <v>10</v>
@@ -38599,16 +38593,16 @@
     </row>
     <row r="372" spans="1:55">
       <c r="D372" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E372" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F372" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G372" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J372">
         <v>22</v>
@@ -38703,16 +38697,16 @@
     </row>
     <row r="373" spans="1:55">
       <c r="D373" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E373" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F373" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G373" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J373">
         <v>30</v>
@@ -38807,16 +38801,16 @@
     </row>
     <row r="374" spans="1:55">
       <c r="D374" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E374" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F374" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="G374" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J374">
         <v>45</v>
@@ -38911,16 +38905,16 @@
     </row>
     <row r="375" spans="1:55">
       <c r="D375" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E375" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F375" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G375" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J375">
         <v>45</v>
@@ -39012,16 +39006,16 @@
     </row>
     <row r="376" spans="1:55">
       <c r="D376" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E376" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F376" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G376" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J376">
         <v>75</v>
@@ -39113,16 +39107,16 @@
     </row>
     <row r="377" spans="1:55">
       <c r="D377" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E377" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F377" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G377" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J377">
         <v>90</v>
@@ -39214,16 +39208,16 @@
     </row>
     <row r="378" spans="1:55">
       <c r="D378" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E378" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F378" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G378" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J378">
         <v>110</v>
@@ -39315,16 +39309,16 @@
     </row>
     <row r="379" spans="1:55">
       <c r="D379" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E379" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F379" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G379" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J379">
         <v>130</v>
@@ -39416,16 +39410,16 @@
     </row>
     <row r="380" spans="1:55">
       <c r="D380" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E380" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F380" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G380" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J380">
         <v>150</v>
@@ -39517,16 +39511,16 @@
     </row>
     <row r="381" spans="1:55">
       <c r="D381" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E381" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F381" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G381" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J381">
         <v>170</v>
@@ -39618,16 +39612,16 @@
     </row>
     <row r="382" spans="1:55">
       <c r="D382" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E382" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F382" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G382" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J382">
         <v>200</v>
@@ -39719,16 +39713,16 @@
     </row>
     <row r="383" spans="1:55">
       <c r="D383" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E383" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F383" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G383" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J383">
         <v>250</v>
@@ -39820,16 +39814,16 @@
     </row>
     <row r="384" spans="1:55">
       <c r="D384" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E384" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F384" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G384" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J384">
         <v>270</v>
@@ -39921,16 +39915,16 @@
     </row>
     <row r="385" spans="1:55">
       <c r="D385" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E385" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F385" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G385" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J385">
         <v>300</v>
@@ -40022,16 +40016,16 @@
     </row>
     <row r="386" spans="1:55">
       <c r="D386" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E386" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F386" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G386" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J386">
         <v>325</v>
@@ -40123,16 +40117,16 @@
     </row>
     <row r="387" spans="1:55">
       <c r="D387" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E387" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F387" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G387" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J387">
         <v>350</v>
@@ -40224,16 +40218,16 @@
     </row>
     <row r="388" spans="1:55">
       <c r="D388" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E388" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F388" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G388" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J388">
         <v>360</v>
@@ -40325,16 +40319,16 @@
     </row>
     <row r="389" spans="1:55">
       <c r="D389" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E389" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F389" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G389" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J389">
         <v>380</v>
@@ -40426,16 +40420,16 @@
     </row>
     <row r="390" spans="1:55">
       <c r="D390" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E390" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F390" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G390" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J390">
         <v>400</v>
@@ -40527,16 +40521,16 @@
     </row>
     <row r="391" spans="1:55">
       <c r="D391" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E391" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F391" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G391" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J391">
         <v>420</v>
@@ -40628,16 +40622,16 @@
     </row>
     <row r="392" spans="1:55">
       <c r="D392" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E392" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F392" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G392" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J392">
         <v>440</v>
@@ -40729,16 +40723,16 @@
     </row>
     <row r="393" spans="1:55">
       <c r="D393" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E393" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F393" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G393" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J393">
         <v>460</v>
@@ -40830,16 +40824,16 @@
     </row>
     <row r="394" spans="1:55">
       <c r="D394" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E394" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F394" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G394" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J394">
         <v>476</v>
@@ -40931,16 +40925,16 @@
     </row>
     <row r="395" spans="1:55">
       <c r="D395" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E395" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F395" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G395" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J395">
         <v>520</v>
@@ -41032,16 +41026,16 @@
     </row>
     <row r="396" spans="1:55">
       <c r="D396" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E396" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F396" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G396" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J396">
         <v>730</v>
@@ -41133,16 +41127,16 @@
     </row>
     <row r="397" spans="1:55">
       <c r="D397" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E397" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F397" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G397" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J397">
         <v>560</v>
@@ -41234,16 +41228,16 @@
     </row>
     <row r="398" spans="1:55">
       <c r="D398" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E398" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F398" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G398" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J398">
         <v>570</v>
@@ -41335,16 +41329,16 @@
     </row>
     <row r="399" spans="1:55">
       <c r="D399" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E399" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F399" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G399" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J399">
         <v>580</v>
@@ -41436,16 +41430,16 @@
     </row>
     <row r="400" spans="1:55">
       <c r="D400" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E400" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F400" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G400" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J400">
         <v>600</v>
@@ -41537,16 +41531,16 @@
     </row>
     <row r="401" spans="1:55">
       <c r="D401" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E401" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F401" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G401" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J401">
         <v>650</v>
@@ -41647,16 +41641,16 @@
     </row>
     <row r="402" spans="1:55">
       <c r="D402" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E402" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F402" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G402" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J402">
         <v>675</v>
@@ -41757,16 +41751,16 @@
     </row>
     <row r="403" spans="1:55">
       <c r="D403" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E403" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F403" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G403" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J403">
         <v>700</v>
@@ -41867,16 +41861,16 @@
     </row>
     <row r="404" spans="1:55">
       <c r="D404" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E404" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F404" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G404" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J404">
         <v>730</v>
@@ -41977,16 +41971,16 @@
     </row>
     <row r="405" spans="1:55">
       <c r="D405" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E405" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F405" t="s">
+        <v>886</v>
+      </c>
+      <c r="G405" t="s">
         <v>885</v>
-      </c>
-      <c r="G405" t="s">
-        <v>884</v>
       </c>
       <c r="H405">
         <v>4</v>
@@ -42087,16 +42081,16 @@
     </row>
     <row r="406" spans="1:55">
       <c r="D406" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E406" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F406" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G406" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H406">
         <v>8</v>
@@ -42182,16 +42176,16 @@
     </row>
     <row r="407" spans="1:55">
       <c r="D407" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E407" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F407" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G407" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H407">
         <v>16</v>
@@ -42277,16 +42271,16 @@
     </row>
     <row r="408" spans="1:55">
       <c r="D408" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E408" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F408" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="G408" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H408">
         <v>40</v>
@@ -42372,16 +42366,16 @@
     </row>
     <row r="409" spans="1:55">
       <c r="D409" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E409" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F409" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G409" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H409">
         <v>80</v>
@@ -42467,16 +42461,16 @@
     </row>
     <row r="410" spans="1:55">
       <c r="D410" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E410" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F410" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G410" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H410">
         <v>120</v>
@@ -42562,16 +42556,16 @@
     </row>
     <row r="411" spans="1:55">
       <c r="D411" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E411" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F411" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G411" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H411">
         <v>145</v>
@@ -42651,16 +42645,16 @@
     </row>
     <row r="412" spans="1:55">
       <c r="D412" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E412" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F412" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G412" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H412">
         <v>160</v>
@@ -42737,16 +42731,16 @@
     </row>
     <row r="413" spans="1:55">
       <c r="D413" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E413" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F413" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G413" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H413">
         <v>190</v>
@@ -42823,16 +42817,16 @@
     </row>
     <row r="414" spans="1:55">
       <c r="D414" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E414" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F414" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G414" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H414">
         <v>220</v>
@@ -42909,16 +42903,16 @@
     </row>
     <row r="415" spans="1:55">
       <c r="D415" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E415" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F415" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G415" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H415">
         <v>250</v>
@@ -42995,16 +42989,16 @@
     </row>
     <row r="416" spans="1:55">
       <c r="D416" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E416" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F416" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G416" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H416">
         <v>280</v>
@@ -43081,16 +43075,16 @@
     </row>
     <row r="417" spans="1:55">
       <c r="D417" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E417" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F417" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G417" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H417">
         <v>340</v>
@@ -43167,16 +43161,16 @@
     </row>
     <row r="418" spans="1:55">
       <c r="D418" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E418" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F418" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G418" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H418">
         <v>380</v>
@@ -43253,16 +43247,16 @@
     </row>
     <row r="419" spans="1:55">
       <c r="D419" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E419" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F419" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G419" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H419">
         <v>450</v>
@@ -43339,16 +43333,16 @@
     </row>
     <row r="420" spans="1:55">
       <c r="D420" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E420" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F420" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G420" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H420">
         <v>475</v>
@@ -43425,16 +43419,16 @@
     </row>
     <row r="421" spans="1:55">
       <c r="D421" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E421" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F421" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G421" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H421">
         <v>490</v>
@@ -43511,16 +43505,16 @@
     </row>
     <row r="422" spans="1:55">
       <c r="D422" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E422" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F422" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G422" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H422">
         <v>520</v>
@@ -43597,16 +43591,16 @@
     </row>
     <row r="423" spans="1:55">
       <c r="D423" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E423" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F423" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="G423" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H423">
         <v>540</v>
@@ -43683,16 +43677,16 @@
     </row>
     <row r="424" spans="1:55">
       <c r="D424" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E424" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F424" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="G424" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H424">
         <v>560</v>
@@ -43769,16 +43763,16 @@
     </row>
     <row r="425" spans="1:55">
       <c r="D425" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E425" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F425" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G425" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H425">
         <v>580</v>
@@ -43855,16 +43849,16 @@
     </row>
     <row r="426" spans="1:55">
       <c r="D426" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E426" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F426" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G426" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H426">
         <v>600</v>
@@ -43941,16 +43935,16 @@
     </row>
     <row r="427" spans="1:55">
       <c r="D427" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E427" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F427" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G427" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H427">
         <v>620</v>
@@ -44027,16 +44021,16 @@
     </row>
     <row r="428" spans="1:55">
       <c r="D428" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E428" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F428" t="s">
         <v>103</v>
       </c>
       <c r="G428" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H428">
         <v>630</v>
@@ -44113,16 +44107,16 @@
     </row>
     <row r="429" spans="1:55">
       <c r="D429" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E429" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F429" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="G429" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H429">
         <v>640</v>
@@ -44199,16 +44193,16 @@
     </row>
     <row r="430" spans="1:55">
       <c r="D430" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E430" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F430" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="G430" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H430">
         <v>660</v>
@@ -44285,16 +44279,16 @@
     </row>
     <row r="431" spans="1:55">
       <c r="D431" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E431" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F431" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G431" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H431">
         <v>680</v>
@@ -44371,16 +44365,16 @@
     </row>
     <row r="432" spans="1:55">
       <c r="D432" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E432" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F432" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="G432" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H432">
         <v>700</v>
@@ -44457,16 +44451,16 @@
     </row>
     <row r="433" spans="1:55">
       <c r="D433" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E433" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F433" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G433" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H433">
         <v>720</v>
@@ -44543,16 +44537,16 @@
     </row>
     <row r="434" spans="1:55">
       <c r="D434" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E434" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F434" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="G434" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H434">
         <v>730</v>
@@ -44629,16 +44623,16 @@
     </row>
     <row r="435" spans="1:55">
       <c r="D435" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E435" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F435" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G435" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H435">
         <v>740</v>
@@ -44715,16 +44709,16 @@
     </row>
     <row r="436" spans="1:55">
       <c r="D436" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E436" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F436" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G436" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H436">
         <v>800</v>
@@ -44801,16 +44795,16 @@
     </row>
     <row r="437" spans="1:55">
       <c r="D437" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E437" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F437" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="G437" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H437">
         <v>845</v>
@@ -44887,16 +44881,16 @@
     </row>
     <row r="438" spans="1:55">
       <c r="D438" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E438" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F438" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="G438" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H438">
         <v>900</v>
@@ -44982,16 +44976,16 @@
     </row>
     <row r="439" spans="1:55">
       <c r="D439" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E439" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F439" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="G439" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H439">
         <v>950</v>
@@ -45077,16 +45071,16 @@
     </row>
     <row r="440" spans="1:55">
       <c r="D440" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E440" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F440" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="G440" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H440">
         <v>1000</v>
@@ -45172,16 +45166,16 @@
     </row>
     <row r="441" spans="1:55">
       <c r="D441" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E441" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F441" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G441" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H441">
         <v>1100</v>
@@ -45267,16 +45261,16 @@
     </row>
     <row r="442" spans="1:55">
       <c r="D442" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E442" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F442" t="s">
+        <v>960</v>
+      </c>
+      <c r="G442" t="s">
         <v>959</v>
-      </c>
-      <c r="G442" t="s">
-        <v>958</v>
       </c>
       <c r="J442">
         <v>4</v>
@@ -45371,16 +45365,16 @@
     </row>
     <row r="443" spans="1:55">
       <c r="D443" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E443" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F443" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="G443" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J443">
         <v>6</v>
@@ -45475,16 +45469,16 @@
     </row>
     <row r="444" spans="1:55">
       <c r="D444" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E444" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F444" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G444" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J444">
         <v>10</v>
@@ -45579,16 +45573,16 @@
     </row>
     <row r="445" spans="1:55">
       <c r="D445" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E445" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F445" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G445" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J445">
         <v>20</v>
@@ -45683,16 +45677,16 @@
     </row>
     <row r="446" spans="1:55">
       <c r="D446" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E446" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F446" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="G446" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J446">
         <v>40</v>
@@ -45787,16 +45781,16 @@
     </row>
     <row r="447" spans="1:55">
       <c r="D447" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E447" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F447" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="G447" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J447">
         <v>60</v>
@@ -45891,16 +45885,16 @@
     </row>
     <row r="448" spans="1:55">
       <c r="D448" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E448" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F448" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="G448" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J448">
         <v>80</v>
@@ -45995,16 +45989,16 @@
     </row>
     <row r="449" spans="1:55">
       <c r="D449" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E449" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F449" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="G449" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J449">
         <v>100</v>
@@ -46096,16 +46090,16 @@
     </row>
     <row r="450" spans="1:55">
       <c r="D450" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E450" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F450" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G450" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J450">
         <v>130</v>
@@ -46197,16 +46191,16 @@
     </row>
     <row r="451" spans="1:55">
       <c r="D451" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E451" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F451" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="G451" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J451">
         <v>150</v>
@@ -46298,16 +46292,16 @@
     </row>
     <row r="452" spans="1:55">
       <c r="D452" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E452" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F452" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="G452" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J452">
         <v>170</v>
@@ -46399,16 +46393,16 @@
     </row>
     <row r="453" spans="1:55">
       <c r="D453" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E453" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F453" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="G453" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J453">
         <v>190</v>
@@ -46500,16 +46494,16 @@
     </row>
     <row r="454" spans="1:55">
       <c r="D454" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E454" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F454" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="G454" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J454">
         <v>230</v>
@@ -46601,16 +46595,16 @@
     </row>
     <row r="455" spans="1:55">
       <c r="D455" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E455" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F455" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G455" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J455">
         <v>230</v>
@@ -46702,16 +46696,16 @@
     </row>
     <row r="456" spans="1:55">
       <c r="D456" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E456" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F456" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="G456" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J456">
         <v>360</v>
@@ -46803,16 +46797,16 @@
     </row>
     <row r="457" spans="1:55">
       <c r="D457" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E457" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F457" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G457" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J457">
         <v>370</v>
@@ -46904,16 +46898,16 @@
     </row>
     <row r="458" spans="1:55">
       <c r="D458" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E458" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F458" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="G458" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J458">
         <v>380</v>
@@ -47005,16 +46999,16 @@
     </row>
     <row r="459" spans="1:55">
       <c r="D459" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E459" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F459" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G459" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J459">
         <v>400</v>
@@ -47106,16 +47100,16 @@
     </row>
     <row r="460" spans="1:55">
       <c r="D460" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E460" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F460" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G460" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J460">
         <v>425</v>
@@ -47207,16 +47201,16 @@
     </row>
     <row r="461" spans="1:55">
       <c r="D461" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E461" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F461" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="G461" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J461">
         <v>450</v>
@@ -47308,16 +47302,16 @@
     </row>
     <row r="462" spans="1:55">
       <c r="D462" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E462" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F462" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="G462" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J462">
         <v>500</v>
@@ -47409,16 +47403,16 @@
     </row>
     <row r="463" spans="1:55">
       <c r="D463" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E463" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F463" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G463" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J463">
         <v>460</v>
@@ -47510,16 +47504,16 @@
     </row>
     <row r="464" spans="1:55">
       <c r="D464" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E464" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F464" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G464" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J464">
         <v>480</v>
@@ -47611,16 +47605,16 @@
     </row>
     <row r="465" spans="1:55">
       <c r="D465" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E465" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F465" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="G465" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J465">
         <v>520</v>
@@ -47712,16 +47706,16 @@
     </row>
     <row r="466" spans="1:55">
       <c r="D466" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E466" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F466" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="G466" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J466">
         <v>530</v>
@@ -47813,16 +47807,16 @@
     </row>
     <row r="467" spans="1:55">
       <c r="D467" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E467" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F467" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="G467" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J467">
         <v>550</v>
@@ -47914,16 +47908,16 @@
     </row>
     <row r="468" spans="1:55">
       <c r="D468" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E468" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F468" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="G468" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J468">
         <v>560</v>
@@ -48015,16 +48009,16 @@
     </row>
     <row r="469" spans="1:55">
       <c r="D469" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E469" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F469" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="G469" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J469">
         <v>600</v>
@@ -48116,16 +48110,16 @@
     </row>
     <row r="470" spans="1:55">
       <c r="D470" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E470" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F470" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G470" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J470">
         <v>610</v>
@@ -48217,16 +48211,16 @@
     </row>
     <row r="471" spans="1:55">
       <c r="D471" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E471" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F471" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="G471" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J471">
         <v>730</v>
@@ -48318,16 +48312,16 @@
     </row>
     <row r="472" spans="1:55">
       <c r="D472" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E472" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F472" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="G472" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J472">
         <v>740</v>
@@ -48419,16 +48413,16 @@
     </row>
     <row r="473" spans="1:55">
       <c r="D473" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E473" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F473" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="G473" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J473">
         <v>760</v>
@@ -48520,16 +48514,16 @@
     </row>
     <row r="474" spans="1:55">
       <c r="D474" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E474" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F474" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="G474" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J474">
         <v>770</v>
@@ -48621,16 +48615,16 @@
     </row>
     <row r="475" spans="1:55">
       <c r="D475" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E475" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F475" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="G475" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J475">
         <v>800</v>
@@ -48731,16 +48725,16 @@
     </row>
     <row r="476" spans="1:55">
       <c r="D476" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E476" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F476" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="G476" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J476">
         <v>875</v>
@@ -48841,16 +48835,16 @@
     </row>
     <row r="477" spans="1:55">
       <c r="D477" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E477" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F477" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="G477" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J477">
         <v>925</v>
@@ -48951,16 +48945,16 @@
     </row>
     <row r="478" spans="1:55">
       <c r="D478" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E478" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F478" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="G478" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J478">
         <v>950</v>
@@ -49061,13 +49055,13 @@
     </row>
     <row r="479" spans="1:55">
       <c r="D479" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E479" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F479" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H479">
         <v>2</v>
@@ -49109,7 +49103,7 @@
         <v>5</v>
       </c>
       <c r="AC479" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF479">
         <v>0</v>
@@ -49162,13 +49156,13 @@
     </row>
     <row r="480" spans="1:55">
       <c r="D480" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E480" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F480" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H480">
         <v>3</v>
@@ -49195,10 +49189,10 @@
         <v>10</v>
       </c>
       <c r="AC480" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD480" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AF480">
         <v>0.004</v>
@@ -49254,13 +49248,13 @@
     </row>
     <row r="481" spans="1:55">
       <c r="D481" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E481" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F481" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H481">
         <v>3</v>
@@ -49287,10 +49281,10 @@
         <v>10</v>
       </c>
       <c r="AC481" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD481" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AF481">
         <v>0.004</v>
@@ -49346,13 +49340,13 @@
     </row>
     <row r="482" spans="1:55">
       <c r="D482" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E482" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F482" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H482">
         <v>3</v>
@@ -49379,10 +49373,10 @@
         <v>10</v>
       </c>
       <c r="AC482" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD482" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AF482">
         <v>0.004</v>
@@ -49438,13 +49432,13 @@
     </row>
     <row r="483" spans="1:55">
       <c r="D483" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E483" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F483" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H483">
         <v>3</v>
@@ -49471,10 +49465,10 @@
         <v>10</v>
       </c>
       <c r="AC483" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD483" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="AF483">
         <v>0.004</v>
@@ -49530,13 +49524,13 @@
     </row>
     <row r="484" spans="1:55">
       <c r="D484" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E484" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F484" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H484">
         <v>3</v>
@@ -49566,10 +49560,10 @@
         <v>10</v>
       </c>
       <c r="AC484" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD484" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="AF484">
         <v>0.004</v>
@@ -49625,13 +49619,13 @@
     </row>
     <row r="485" spans="1:55">
       <c r="D485" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E485" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F485" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H485">
         <v>3</v>
@@ -49658,10 +49652,10 @@
         <v>10</v>
       </c>
       <c r="AC485" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD485" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="AF485">
         <v>0.004</v>
@@ -49717,13 +49711,13 @@
     </row>
     <row r="486" spans="1:55">
       <c r="D486" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E486" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F486" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H486">
         <v>5</v>
@@ -49750,7 +49744,7 @@
         <v>10</v>
       </c>
       <c r="AC486" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF486">
         <v>0</v>
@@ -49803,13 +49797,13 @@
     </row>
     <row r="487" spans="1:55">
       <c r="D487" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E487" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F487" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H487">
         <v>5</v>
@@ -49836,7 +49830,7 @@
         <v>10</v>
       </c>
       <c r="AC487" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF487">
         <v>0</v>
@@ -49889,13 +49883,13 @@
     </row>
     <row r="488" spans="1:55">
       <c r="D488" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E488" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F488" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H488">
         <v>5</v>
@@ -49916,7 +49910,7 @@
         <v>10</v>
       </c>
       <c r="AC488" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF488">
         <v>0</v>
@@ -49969,13 +49963,13 @@
     </row>
     <row r="489" spans="1:55">
       <c r="D489" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E489" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F489" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H489">
         <v>5</v>
@@ -49996,7 +49990,7 @@
         <v>10</v>
       </c>
       <c r="AC489" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF489">
         <v>0</v>
@@ -50049,13 +50043,13 @@
     </row>
     <row r="490" spans="1:55">
       <c r="D490" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E490" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F490" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H490">
         <v>5</v>
@@ -50076,7 +50070,7 @@
         <v>10</v>
       </c>
       <c r="AC490" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF490">
         <v>0</v>
@@ -50129,13 +50123,13 @@
     </row>
     <row r="491" spans="1:55">
       <c r="D491" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E491" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F491" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H491">
         <v>5</v>
@@ -50156,7 +50150,7 @@
         <v>10</v>
       </c>
       <c r="AC491" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF491">
         <v>0</v>
@@ -50209,13 +50203,13 @@
     </row>
     <row r="492" spans="1:55">
       <c r="D492" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E492" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F492" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H492">
         <v>5</v>
@@ -50236,7 +50230,7 @@
         <v>10</v>
       </c>
       <c r="AC492" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF492">
         <v>0</v>
@@ -50289,13 +50283,13 @@
     </row>
     <row r="493" spans="1:55">
       <c r="D493" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E493" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F493" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H493">
         <v>12</v>
@@ -50313,10 +50307,10 @@
         <v>12</v>
       </c>
       <c r="AC493" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD493" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="AE493">
         <v>0.05</v>
@@ -50375,13 +50369,13 @@
     </row>
     <row r="494" spans="1:55">
       <c r="D494" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E494" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F494" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H494">
         <v>12</v>
@@ -50399,10 +50393,10 @@
         <v>12</v>
       </c>
       <c r="AC494" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD494" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="AE494">
         <v>0.05</v>
@@ -50461,13 +50455,13 @@
     </row>
     <row r="495" spans="1:55">
       <c r="D495" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E495" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F495" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H495">
         <v>12</v>
@@ -50485,10 +50479,10 @@
         <v>12</v>
       </c>
       <c r="AC495" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD495" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AE495">
         <v>0.05</v>
@@ -50547,13 +50541,13 @@
     </row>
     <row r="496" spans="1:55">
       <c r="D496" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E496" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F496" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H496">
         <v>14</v>
@@ -50577,10 +50571,10 @@
         <v>20</v>
       </c>
       <c r="AC496" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD496" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="AF496">
         <v>0.008</v>
@@ -50636,13 +50630,13 @@
     </row>
     <row r="497" spans="1:55">
       <c r="D497" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E497" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F497" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H497">
         <v>14</v>
@@ -50669,10 +50663,10 @@
         <v>20</v>
       </c>
       <c r="AC497" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD497" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="AF497">
         <v>0.008</v>
@@ -50728,13 +50722,13 @@
     </row>
     <row r="498" spans="1:55">
       <c r="D498" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E498" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F498" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H498">
         <v>14</v>
@@ -50758,10 +50752,10 @@
         <v>20</v>
       </c>
       <c r="AC498" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD498" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="AF498">
         <v>0.008</v>
@@ -50817,13 +50811,13 @@
     </row>
     <row r="499" spans="1:55">
       <c r="D499" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E499" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F499" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H499">
         <v>14</v>
@@ -50847,10 +50841,10 @@
         <v>20</v>
       </c>
       <c r="AC499" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD499" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AF499">
         <v>0.008</v>
@@ -50906,13 +50900,13 @@
     </row>
     <row r="500" spans="1:55">
       <c r="D500" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E500" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F500" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H500">
         <v>14</v>
@@ -50936,10 +50930,10 @@
         <v>20</v>
       </c>
       <c r="AC500" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD500" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AF500">
         <v>0.008</v>
@@ -50995,13 +50989,13 @@
     </row>
     <row r="501" spans="1:55">
       <c r="D501" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E501" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F501" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H501">
         <v>14</v>
@@ -51025,10 +51019,10 @@
         <v>20</v>
       </c>
       <c r="AC501" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD501" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AF501">
         <v>0.008</v>
@@ -51084,13 +51078,13 @@
     </row>
     <row r="502" spans="1:55">
       <c r="D502" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="E502" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F502" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H502">
         <v>18</v>
@@ -51108,10 +51102,10 @@
         <v>20</v>
       </c>
       <c r="AC502" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD502" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AE502">
         <v>0.05</v>
@@ -51170,13 +51164,13 @@
     </row>
     <row r="503" spans="1:55">
       <c r="D503" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E503" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F503" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H503">
         <v>18</v>
@@ -51194,10 +51188,10 @@
         <v>20</v>
       </c>
       <c r="AC503" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD503" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AE503">
         <v>0.05</v>
@@ -51256,13 +51250,13 @@
     </row>
     <row r="504" spans="1:55">
       <c r="D504" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="E504" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F504" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H504">
         <v>18</v>
@@ -51280,10 +51274,10 @@
         <v>20</v>
       </c>
       <c r="AC504" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD504" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AE504">
         <v>0.05</v>
@@ -51342,13 +51336,13 @@
     </row>
     <row r="505" spans="1:55">
       <c r="D505" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E505" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F505" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H505">
         <v>18</v>
@@ -51366,10 +51360,10 @@
         <v>20</v>
       </c>
       <c r="AC505" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD505" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AE505">
         <v>0.05</v>
@@ -51428,13 +51422,13 @@
     </row>
     <row r="506" spans="1:55">
       <c r="D506" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="E506" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F506" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H506">
         <v>18</v>
@@ -51452,10 +51446,10 @@
         <v>20</v>
       </c>
       <c r="AC506" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD506" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AE506">
         <v>0.05</v>
@@ -51514,13 +51508,13 @@
     </row>
     <row r="507" spans="1:55">
       <c r="D507" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E507" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F507" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H507">
         <v>18</v>
@@ -51538,10 +51532,10 @@
         <v>20</v>
       </c>
       <c r="AC507" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD507" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AE507">
         <v>0.05</v>
@@ -51600,13 +51594,13 @@
     </row>
     <row r="508" spans="1:55">
       <c r="D508" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="E508" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F508" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H508">
         <v>18</v>
@@ -51645,7 +51639,7 @@
         <v>20</v>
       </c>
       <c r="AC508" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF508">
         <v>0</v>
@@ -51698,13 +51692,13 @@
     </row>
     <row r="509" spans="1:55">
       <c r="D509" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="E509" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F509" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H509">
         <v>20</v>
@@ -51728,10 +51722,10 @@
         <v>20</v>
       </c>
       <c r="AC509" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD509" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="AF509">
         <v>0.01</v>
@@ -51787,13 +51781,13 @@
     </row>
     <row r="510" spans="1:55">
       <c r="D510" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="E510" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F510" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H510">
         <v>20</v>
@@ -51820,10 +51814,10 @@
         <v>20</v>
       </c>
       <c r="AC510" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD510" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="AF510">
         <v>0.01</v>
@@ -51879,13 +51873,13 @@
     </row>
     <row r="511" spans="1:55">
       <c r="D511" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="E511" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F511" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H511">
         <v>20</v>
@@ -51909,10 +51903,10 @@
         <v>20</v>
       </c>
       <c r="AC511" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD511" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="AF511">
         <v>0.01</v>
@@ -51968,13 +51962,13 @@
     </row>
     <row r="512" spans="1:55">
       <c r="D512" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="E512" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F512" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H512">
         <v>20</v>
@@ -51998,10 +51992,10 @@
         <v>20</v>
       </c>
       <c r="AC512" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD512" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AF512">
         <v>0.01</v>
@@ -52057,13 +52051,13 @@
     </row>
     <row r="513" spans="1:55">
       <c r="D513" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="E513" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F513" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H513">
         <v>20</v>
@@ -52087,10 +52081,10 @@
         <v>20</v>
       </c>
       <c r="AC513" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD513" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AF513">
         <v>0.01</v>
@@ -52146,13 +52140,13 @@
     </row>
     <row r="514" spans="1:55">
       <c r="D514" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="E514" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F514" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H514">
         <v>20</v>
@@ -52176,10 +52170,10 @@
         <v>20</v>
       </c>
       <c r="AC514" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD514" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AF514">
         <v>0.01</v>
@@ -52235,13 +52229,13 @@
     </row>
     <row r="515" spans="1:55">
       <c r="D515" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="E515" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F515" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H515">
         <v>22</v>
@@ -52268,7 +52262,7 @@
         <v>10</v>
       </c>
       <c r="AC515" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF515">
         <v>0</v>
@@ -52321,13 +52315,13 @@
     </row>
     <row r="516" spans="1:55">
       <c r="D516" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E516" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F516" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H516">
         <v>22</v>
@@ -52354,7 +52348,7 @@
         <v>10</v>
       </c>
       <c r="AC516" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF516">
         <v>0</v>
@@ -52407,13 +52401,13 @@
     </row>
     <row r="517" spans="1:55">
       <c r="D517" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E517" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F517" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H517">
         <v>22</v>
@@ -52434,7 +52428,7 @@
         <v>25</v>
       </c>
       <c r="AC517" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF517">
         <v>0</v>
@@ -52487,13 +52481,13 @@
     </row>
     <row r="518" spans="1:55">
       <c r="D518" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="E518" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F518" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H518">
         <v>22</v>
@@ -52514,7 +52508,7 @@
         <v>25</v>
       </c>
       <c r="AC518" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF518">
         <v>0</v>
@@ -52567,13 +52561,13 @@
     </row>
     <row r="519" spans="1:55">
       <c r="D519" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="E519" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F519" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H519">
         <v>22</v>
@@ -52594,7 +52588,7 @@
         <v>25</v>
       </c>
       <c r="AC519" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF519">
         <v>0</v>
@@ -52647,13 +52641,13 @@
     </row>
     <row r="520" spans="1:55">
       <c r="D520" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="E520" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F520" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H520">
         <v>22</v>
@@ -52674,7 +52668,7 @@
         <v>25</v>
       </c>
       <c r="AC520" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF520">
         <v>0</v>
@@ -52727,13 +52721,13 @@
     </row>
     <row r="521" spans="1:55">
       <c r="D521" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E521" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F521" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H521">
         <v>22</v>
@@ -52754,7 +52748,7 @@
         <v>25</v>
       </c>
       <c r="AC521" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF521">
         <v>0</v>
@@ -52807,13 +52801,13 @@
     </row>
     <row r="522" spans="1:55">
       <c r="D522" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="E522" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F522" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H522">
         <v>35</v>
@@ -52831,10 +52825,10 @@
         <v>30</v>
       </c>
       <c r="AC522" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD522" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="AE522">
         <v>0.08</v>
@@ -52893,13 +52887,13 @@
     </row>
     <row r="523" spans="1:55">
       <c r="D523" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="E523" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F523" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H523">
         <v>35</v>
@@ -52917,10 +52911,10 @@
         <v>30</v>
       </c>
       <c r="AC523" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD523" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="AE523">
         <v>0.08</v>
@@ -52979,13 +52973,13 @@
     </row>
     <row r="524" spans="1:55">
       <c r="D524" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E524" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F524" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H524">
         <v>35</v>
@@ -53003,10 +52997,10 @@
         <v>30</v>
       </c>
       <c r="AC524" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD524" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AE524">
         <v>0.08</v>
@@ -53065,13 +53059,13 @@
     </row>
     <row r="525" spans="1:55">
       <c r="D525" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="E525" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F525" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H525">
         <v>40</v>
@@ -53095,10 +53089,10 @@
         <v>40</v>
       </c>
       <c r="AC525" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD525" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="AF525">
         <v>0.05</v>
@@ -53154,13 +53148,13 @@
     </row>
     <row r="526" spans="1:55">
       <c r="D526" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="E526" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F526" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H526">
         <v>40</v>
@@ -53187,10 +53181,10 @@
         <v>40</v>
       </c>
       <c r="AC526" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD526" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="AF526">
         <v>0.05</v>
@@ -53246,13 +53240,13 @@
     </row>
     <row r="527" spans="1:55">
       <c r="D527" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="E527" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F527" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H527">
         <v>40</v>
@@ -53276,10 +53270,10 @@
         <v>40</v>
       </c>
       <c r="AC527" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD527" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="AF527">
         <v>0.05</v>
@@ -53335,13 +53329,13 @@
     </row>
     <row r="528" spans="1:55">
       <c r="D528" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="E528" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F528" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H528">
         <v>40</v>
@@ -53365,10 +53359,10 @@
         <v>40</v>
       </c>
       <c r="AC528" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD528" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AF528">
         <v>0.05</v>
@@ -53424,13 +53418,13 @@
     </row>
     <row r="529" spans="1:55">
       <c r="D529" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="E529" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F529" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H529">
         <v>40</v>
@@ -53454,10 +53448,10 @@
         <v>40</v>
       </c>
       <c r="AC529" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD529" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AF529">
         <v>0.05</v>
@@ -53513,13 +53507,13 @@
     </row>
     <row r="530" spans="1:55">
       <c r="D530" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E530" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F530" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H530">
         <v>40</v>
@@ -53543,10 +53537,10 @@
         <v>40</v>
       </c>
       <c r="AC530" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD530" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AF530">
         <v>0.05</v>
@@ -53602,13 +53596,13 @@
     </row>
     <row r="531" spans="1:55">
       <c r="D531" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="E531" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F531" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H531">
         <v>50</v>
@@ -53626,10 +53620,10 @@
         <v>40</v>
       </c>
       <c r="AC531" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD531" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AE531">
         <v>0.08</v>
@@ -53688,13 +53682,13 @@
     </row>
     <row r="532" spans="1:55">
       <c r="D532" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="E532" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F532" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H532">
         <v>50</v>
@@ -53712,10 +53706,10 @@
         <v>40</v>
       </c>
       <c r="AC532" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD532" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AE532">
         <v>0.08</v>
@@ -53765,13 +53759,13 @@
     </row>
     <row r="533" spans="1:55">
       <c r="D533" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="E533" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F533" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H533">
         <v>50</v>
@@ -53789,10 +53783,10 @@
         <v>60</v>
       </c>
       <c r="AC533" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD533" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AE533">
         <v>0.08</v>
@@ -53851,13 +53845,13 @@
     </row>
     <row r="534" spans="1:55">
       <c r="D534" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="E534" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F534" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H534">
         <v>50</v>
@@ -53875,10 +53869,10 @@
         <v>40</v>
       </c>
       <c r="AC534" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD534" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AE534">
         <v>0.08</v>
@@ -53937,13 +53931,13 @@
     </row>
     <row r="535" spans="1:55">
       <c r="D535" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="E535" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F535" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H535">
         <v>50</v>
@@ -53961,10 +53955,10 @@
         <v>40</v>
       </c>
       <c r="AC535" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD535" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AE535">
         <v>0.08</v>
@@ -54023,13 +54017,13 @@
     </row>
     <row r="536" spans="1:55">
       <c r="D536" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="E536" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F536" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H536">
         <v>50</v>
@@ -54047,10 +54041,10 @@
         <v>40</v>
       </c>
       <c r="AC536" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD536" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AE536">
         <v>0.08</v>
@@ -54109,13 +54103,13 @@
     </row>
     <row r="537" spans="1:55">
       <c r="D537" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="E537" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F537" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H537">
         <v>60</v>
@@ -54139,10 +54133,10 @@
         <v>40</v>
       </c>
       <c r="AC537" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD537" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="AF537">
         <v>0.08</v>
@@ -54198,13 +54192,13 @@
     </row>
     <row r="538" spans="1:55">
       <c r="D538" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="E538" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F538" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H538">
         <v>60</v>
@@ -54231,10 +54225,10 @@
         <v>40</v>
       </c>
       <c r="AC538" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD538" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="AF538">
         <v>0.08</v>
@@ -54290,13 +54284,13 @@
     </row>
     <row r="539" spans="1:55">
       <c r="D539" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="E539" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F539" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H539">
         <v>60</v>
@@ -54320,10 +54314,10 @@
         <v>40</v>
       </c>
       <c r="AC539" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD539" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="AF539">
         <v>0.08</v>
@@ -54379,13 +54373,13 @@
     </row>
     <row r="540" spans="1:55">
       <c r="D540" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E540" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F540" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H540">
         <v>60</v>
@@ -54409,10 +54403,10 @@
         <v>40</v>
       </c>
       <c r="AC540" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD540" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AF540">
         <v>0.08</v>
@@ -54468,13 +54462,13 @@
     </row>
     <row r="541" spans="1:55">
       <c r="D541" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="E541" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F541" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H541">
         <v>60</v>
@@ -54498,10 +54492,10 @@
         <v>40</v>
       </c>
       <c r="AC541" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD541" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AF541">
         <v>0.08</v>
@@ -54557,13 +54551,13 @@
     </row>
     <row r="542" spans="1:55">
       <c r="D542" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E542" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F542" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H542">
         <v>60</v>
@@ -54590,7 +54584,7 @@
         <v>40</v>
       </c>
       <c r="AC542" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF542">
         <v>0</v>
@@ -54643,13 +54637,13 @@
     </row>
     <row r="543" spans="1:55">
       <c r="D543" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="E543" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F543" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H543">
         <v>60</v>
@@ -54676,7 +54670,7 @@
         <v>40</v>
       </c>
       <c r="AC543" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF543">
         <v>0</v>
@@ -54729,13 +54723,13 @@
     </row>
     <row r="544" spans="1:55">
       <c r="D544" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="E544" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F544" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H544">
         <v>60</v>
@@ -54759,10 +54753,10 @@
         <v>40</v>
       </c>
       <c r="AC544" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD544" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AF544">
         <v>0.08</v>
@@ -54818,13 +54812,13 @@
     </row>
     <row r="545" spans="1:55">
       <c r="D545" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="E545" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F545" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H545">
         <v>75</v>
@@ -54863,7 +54857,7 @@
         <v>50</v>
       </c>
       <c r="AC545" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF545">
         <v>0</v>
@@ -54916,13 +54910,13 @@
     </row>
     <row r="546" spans="1:55">
       <c r="D546" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="E546" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F546" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H546">
         <v>75</v>
@@ -54943,7 +54937,7 @@
         <v>50</v>
       </c>
       <c r="AC546" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF546">
         <v>0</v>
@@ -54996,13 +54990,13 @@
     </row>
     <row r="547" spans="1:55">
       <c r="D547" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="E547" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F547" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H547">
         <v>75</v>
@@ -55023,7 +55017,7 @@
         <v>50</v>
       </c>
       <c r="AC547" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF547">
         <v>0</v>
@@ -55076,13 +55070,13 @@
     </row>
     <row r="548" spans="1:55">
       <c r="D548" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="E548" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F548" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H548">
         <v>75</v>
@@ -55103,7 +55097,7 @@
         <v>50</v>
       </c>
       <c r="AC548" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF548">
         <v>0</v>
@@ -55156,13 +55150,13 @@
     </row>
     <row r="549" spans="1:55">
       <c r="D549" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="E549" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F549" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="H549">
         <v>75</v>
@@ -55183,7 +55177,7 @@
         <v>50</v>
       </c>
       <c r="AC549" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF549">
         <v>0</v>
@@ -55236,13 +55230,13 @@
     </row>
     <row r="550" spans="1:55">
       <c r="D550" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="E550" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F550" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H550">
         <v>75</v>
@@ -55263,7 +55257,7 @@
         <v>50</v>
       </c>
       <c r="AC550" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF550">
         <v>0</v>
@@ -55316,13 +55310,13 @@
     </row>
     <row r="551" spans="1:55">
       <c r="D551" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="E551" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F551" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="H551">
         <v>100</v>
@@ -55346,10 +55340,10 @@
         <v>60</v>
       </c>
       <c r="AC551" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD551" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="AF551">
         <v>0.12</v>
@@ -55405,13 +55399,13 @@
     </row>
     <row r="552" spans="1:55">
       <c r="D552" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="E552" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F552" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H552">
         <v>100</v>
@@ -55438,10 +55432,10 @@
         <v>60</v>
       </c>
       <c r="AC552" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD552" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="AF552">
         <v>0.12</v>
@@ -55497,13 +55491,13 @@
     </row>
     <row r="553" spans="1:55">
       <c r="D553" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="E553" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F553" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="H553">
         <v>100</v>
@@ -55527,10 +55521,10 @@
         <v>60</v>
       </c>
       <c r="AC553" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD553" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="AF553">
         <v>0.12</v>
@@ -55586,13 +55580,13 @@
     </row>
     <row r="554" spans="1:55">
       <c r="D554" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="E554" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F554" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H554">
         <v>100</v>
@@ -55616,10 +55610,10 @@
         <v>60</v>
       </c>
       <c r="AC554" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD554" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AF554">
         <v>0.12</v>
@@ -55675,13 +55669,13 @@
     </row>
     <row r="555" spans="1:55">
       <c r="D555" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="E555" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F555" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H555">
         <v>100</v>
@@ -55705,10 +55699,10 @@
         <v>60</v>
       </c>
       <c r="AC555" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD555" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AF555">
         <v>0.12</v>
@@ -55764,13 +55758,13 @@
     </row>
     <row r="556" spans="1:55">
       <c r="D556" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E556" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F556" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H556">
         <v>100</v>
@@ -55794,10 +55788,10 @@
         <v>60</v>
       </c>
       <c r="AC556" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD556" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AF556">
         <v>0.12</v>
@@ -55853,13 +55847,13 @@
     </row>
     <row r="557" spans="1:55">
       <c r="D557" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="E557" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F557" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H557">
         <v>150</v>
@@ -55877,10 +55871,10 @@
         <v>60</v>
       </c>
       <c r="AC557" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD557" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="AE557">
         <v>0.1</v>
@@ -55939,13 +55933,13 @@
     </row>
     <row r="558" spans="1:55">
       <c r="D558" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="E558" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F558" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H558">
         <v>150</v>
@@ -55963,10 +55957,10 @@
         <v>60</v>
       </c>
       <c r="AC558" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD558" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="AE558">
         <v>0.1</v>
@@ -56025,13 +56019,13 @@
     </row>
     <row r="559" spans="1:55">
       <c r="D559" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E559" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F559" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H559">
         <v>150</v>
@@ -56049,10 +56043,10 @@
         <v>60</v>
       </c>
       <c r="AC559" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD559" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AE559">
         <v>0.1</v>
@@ -56111,13 +56105,13 @@
     </row>
     <row r="560" spans="1:55">
       <c r="D560" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="E560" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F560" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H560">
         <v>300</v>
@@ -56135,10 +56129,10 @@
         <v>80</v>
       </c>
       <c r="AC560" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD560" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AE560">
         <v>0.1</v>
@@ -56197,13 +56191,13 @@
     </row>
     <row r="561" spans="1:55">
       <c r="D561" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="E561" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F561" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H561">
         <v>300</v>
@@ -56221,10 +56215,10 @@
         <v>70</v>
       </c>
       <c r="AC561" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD561" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AE561">
         <v>0.1</v>
@@ -56283,13 +56277,13 @@
     </row>
     <row r="562" spans="1:55">
       <c r="D562" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="E562" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F562" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H562">
         <v>300</v>
@@ -56307,10 +56301,10 @@
         <v>60</v>
       </c>
       <c r="AC562" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD562" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AE562">
         <v>0.1</v>
@@ -56369,13 +56363,13 @@
     </row>
     <row r="563" spans="1:55">
       <c r="D563" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="E563" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F563" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H563">
         <v>300</v>
@@ -56393,10 +56387,10 @@
         <v>60</v>
       </c>
       <c r="AC563" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD563" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AE563">
         <v>0.1</v>
@@ -56455,13 +56449,13 @@
     </row>
     <row r="564" spans="1:55">
       <c r="D564" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E564" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F564" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H564">
         <v>300</v>
@@ -56479,10 +56473,10 @@
         <v>60</v>
       </c>
       <c r="AC564" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD564" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AE564">
         <v>0.1</v>
@@ -56541,13 +56535,13 @@
     </row>
     <row r="565" spans="1:55">
       <c r="D565" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="E565" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F565" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H565">
         <v>300</v>
@@ -56565,10 +56559,10 @@
         <v>60</v>
       </c>
       <c r="AC565" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD565" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AE565">
         <v>0.1</v>
@@ -56627,13 +56621,13 @@
     </row>
     <row r="566" spans="1:55">
       <c r="D566" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="E566" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F566" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H566">
         <v>350</v>
@@ -56672,7 +56666,7 @@
         <v>80</v>
       </c>
       <c r="AC566" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF566">
         <v>0</v>
@@ -56725,13 +56719,13 @@
     </row>
     <row r="567" spans="1:55">
       <c r="D567" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E567" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F567" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H567">
         <v>350</v>
@@ -56752,7 +56746,7 @@
         <v>80</v>
       </c>
       <c r="AC567" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF567">
         <v>0</v>
@@ -56805,13 +56799,13 @@
     </row>
     <row r="568" spans="1:55">
       <c r="D568" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="E568" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F568" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H568">
         <v>350</v>
@@ -56832,7 +56826,7 @@
         <v>80</v>
       </c>
       <c r="AC568" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF568">
         <v>0</v>
@@ -56885,13 +56879,13 @@
     </row>
     <row r="569" spans="1:55">
       <c r="D569" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="E569" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F569" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H569">
         <v>350</v>
@@ -56912,7 +56906,7 @@
         <v>80</v>
       </c>
       <c r="AC569" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF569">
         <v>0</v>
@@ -56965,13 +56959,13 @@
     </row>
     <row r="570" spans="1:55">
       <c r="D570" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="E570" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F570" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H570">
         <v>350</v>
@@ -56992,7 +56986,7 @@
         <v>80</v>
       </c>
       <c r="AC570" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF570">
         <v>0</v>
@@ -57045,13 +57039,13 @@
     </row>
     <row r="571" spans="1:55">
       <c r="D571" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="E571" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F571" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H571">
         <v>350</v>
@@ -57072,7 +57066,7 @@
         <v>80</v>
       </c>
       <c r="AC571" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF571">
         <v>0</v>
@@ -57125,13 +57119,13 @@
     </row>
     <row r="572" spans="1:55">
       <c r="D572" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="E572" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F572" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H572">
         <v>350</v>
@@ -57158,7 +57152,7 @@
         <v>80</v>
       </c>
       <c r="AC572" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF572">
         <v>0</v>
@@ -57211,13 +57205,13 @@
     </row>
     <row r="573" spans="1:55">
       <c r="D573" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="E573" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F573" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H573">
         <v>350</v>
@@ -57244,7 +57238,7 @@
         <v>80</v>
       </c>
       <c r="AC573" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF573">
         <v>0</v>
@@ -57297,13 +57291,13 @@
     </row>
     <row r="574" spans="1:55">
       <c r="D574" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="E574" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F574" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H574">
         <v>450</v>
@@ -57321,10 +57315,10 @@
         <v>90</v>
       </c>
       <c r="AC574" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD574" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="AE574">
         <v>0.12</v>
@@ -57383,13 +57377,13 @@
     </row>
     <row r="575" spans="1:55">
       <c r="D575" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="E575" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F575" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H575">
         <v>450</v>
@@ -57407,10 +57401,10 @@
         <v>90</v>
       </c>
       <c r="AC575" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD575" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="AE575">
         <v>0.12</v>
@@ -57469,13 +57463,13 @@
     </row>
     <row r="576" spans="1:55">
       <c r="D576" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="E576" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F576" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H576">
         <v>450</v>
@@ -57493,10 +57487,10 @@
         <v>90</v>
       </c>
       <c r="AC576" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD576" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AE576">
         <v>0.12</v>
@@ -57555,13 +57549,13 @@
     </row>
     <row r="577" spans="1:55">
       <c r="D577" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="E577" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F577" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H577">
         <v>525</v>
@@ -57579,10 +57573,10 @@
         <v>100</v>
       </c>
       <c r="AC577" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD577" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AE577">
         <v>0.12</v>
@@ -57641,13 +57635,13 @@
     </row>
     <row r="578" spans="1:55">
       <c r="D578" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="E578" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F578" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H578">
         <v>525</v>
@@ -57665,10 +57659,10 @@
         <v>100</v>
       </c>
       <c r="AC578" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD578" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AE578">
         <v>0.12</v>
@@ -57727,13 +57721,13 @@
     </row>
     <row r="579" spans="1:55">
       <c r="D579" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="E579" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F579" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H579">
         <v>525</v>
@@ -57751,10 +57745,10 @@
         <v>100</v>
       </c>
       <c r="AC579" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD579" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AE579">
         <v>0.12</v>
@@ -57813,13 +57807,13 @@
     </row>
     <row r="580" spans="1:55">
       <c r="D580" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E580" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F580" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H580">
         <v>525</v>
@@ -57837,10 +57831,10 @@
         <v>100</v>
       </c>
       <c r="AC580" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD580" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AE580">
         <v>0.12</v>
@@ -57899,13 +57893,13 @@
     </row>
     <row r="581" spans="1:55">
       <c r="D581" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="E581" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F581" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H581">
         <v>525</v>
@@ -57923,10 +57917,10 @@
         <v>100</v>
       </c>
       <c r="AC581" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD581" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AE581">
         <v>0.12</v>
@@ -57985,13 +57979,13 @@
     </row>
     <row r="582" spans="1:55">
       <c r="D582" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="E582" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F582" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H582">
         <v>525</v>
@@ -58009,10 +58003,10 @@
         <v>100</v>
       </c>
       <c r="AC582" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD582" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AE582">
         <v>0.12</v>
@@ -58071,13 +58065,13 @@
     </row>
     <row r="583" spans="1:55">
       <c r="D583" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="E583" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F583" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H583">
         <v>600</v>
@@ -58101,10 +58095,10 @@
         <v>100</v>
       </c>
       <c r="AC583" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD583" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="AF583">
         <v>0.21</v>
@@ -58160,13 +58154,13 @@
     </row>
     <row r="584" spans="1:55">
       <c r="D584" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E584" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F584" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H584">
         <v>600</v>
@@ -58193,10 +58187,10 @@
         <v>100</v>
       </c>
       <c r="AC584" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD584" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="AF584">
         <v>0.21</v>
@@ -58252,13 +58246,13 @@
     </row>
     <row r="585" spans="1:55">
       <c r="D585" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E585" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F585" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H585">
         <v>600</v>
@@ -58282,10 +58276,10 @@
         <v>100</v>
       </c>
       <c r="AC585" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD585" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="AF585">
         <v>0.21</v>
@@ -58341,13 +58335,13 @@
     </row>
     <row r="586" spans="1:55">
       <c r="D586" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="E586" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F586" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H586">
         <v>600</v>
@@ -58371,10 +58365,10 @@
         <v>100</v>
       </c>
       <c r="AC586" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD586" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AF586">
         <v>0.21</v>
@@ -58430,13 +58424,13 @@
     </row>
     <row r="587" spans="1:55">
       <c r="D587" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="E587" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F587" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H587">
         <v>600</v>
@@ -58460,10 +58454,10 @@
         <v>100</v>
       </c>
       <c r="AC587" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD587" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AF587">
         <v>0.21</v>
@@ -58519,13 +58513,13 @@
     </row>
     <row r="588" spans="1:55">
       <c r="D588" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="E588" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F588" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="H588">
         <v>600</v>
@@ -58549,10 +58543,10 @@
         <v>100</v>
       </c>
       <c r="AC588" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD588" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AF588">
         <v>0.21</v>
@@ -58608,13 +58602,13 @@
     </row>
     <row r="589" spans="1:55">
       <c r="D589" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="E589" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F589" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H589">
         <v>700</v>
@@ -58653,7 +58647,7 @@
         <v>170</v>
       </c>
       <c r="AC589" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF589">
         <v>0</v>
@@ -58706,13 +58700,13 @@
     </row>
     <row r="590" spans="1:55">
       <c r="D590" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="E590" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F590" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H590">
         <v>730</v>
@@ -58733,7 +58727,7 @@
         <v>170</v>
       </c>
       <c r="AC590" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF590">
         <v>0</v>
@@ -58786,13 +58780,13 @@
     </row>
     <row r="591" spans="1:55">
       <c r="D591" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="E591" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F591" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H591">
         <v>730</v>
@@ -58813,7 +58807,7 @@
         <v>170</v>
       </c>
       <c r="AC591" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF591">
         <v>0</v>
@@ -58866,13 +58860,13 @@
     </row>
     <row r="592" spans="1:55">
       <c r="D592" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="E592" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F592" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H592">
         <v>730</v>
@@ -58893,7 +58887,7 @@
         <v>170</v>
       </c>
       <c r="AC592" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF592">
         <v>0</v>
@@ -58946,13 +58940,13 @@
     </row>
     <row r="593" spans="1:55">
       <c r="D593" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="E593" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F593" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H593">
         <v>730</v>
@@ -58973,7 +58967,7 @@
         <v>170</v>
       </c>
       <c r="AC593" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF593">
         <v>0</v>
@@ -59026,13 +59020,13 @@
     </row>
     <row r="594" spans="1:55">
       <c r="D594" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="E594" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F594" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H594">
         <v>730</v>
@@ -59053,7 +59047,7 @@
         <v>170</v>
       </c>
       <c r="AC594" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF594">
         <v>0</v>
@@ -59106,13 +59100,13 @@
     </row>
     <row r="595" spans="1:55">
       <c r="D595" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="E595" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F595" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H595">
         <v>750</v>
@@ -59139,7 +59133,7 @@
         <v>170</v>
       </c>
       <c r="AC595" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF595">
         <v>0</v>
@@ -59192,13 +59186,13 @@
     </row>
     <row r="596" spans="1:55">
       <c r="D596" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="E596" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F596" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H596">
         <v>750</v>
@@ -59225,7 +59219,7 @@
         <v>170</v>
       </c>
       <c r="AC596" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF596">
         <v>0</v>
@@ -59278,13 +59272,13 @@
     </row>
     <row r="597" spans="1:55">
       <c r="D597" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="E597" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F597" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H597">
         <v>750</v>
@@ -59302,10 +59296,10 @@
         <v>170</v>
       </c>
       <c r="AC597" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD597" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="AE597">
         <v>0.18</v>
@@ -59364,13 +59358,13 @@
     </row>
     <row r="598" spans="1:55">
       <c r="D598" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="E598" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F598" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H598">
         <v>750</v>
@@ -59388,10 +59382,10 @@
         <v>170</v>
       </c>
       <c r="AC598" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD598" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="AE598">
         <v>0.18</v>
@@ -59450,13 +59444,13 @@
     </row>
     <row r="599" spans="1:55">
       <c r="D599" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="E599" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F599" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H599">
         <v>750</v>
@@ -59474,10 +59468,10 @@
         <v>170</v>
       </c>
       <c r="AC599" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD599" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AE599">
         <v>0.18</v>
@@ -59536,13 +59530,13 @@
     </row>
     <row r="600" spans="1:55">
       <c r="D600" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E600" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F600" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H600">
         <v>780</v>
@@ -59566,10 +59560,10 @@
         <v>170</v>
       </c>
       <c r="AC600" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD600" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="AF600">
         <v>0.26</v>
@@ -59625,13 +59619,13 @@
     </row>
     <row r="601" spans="1:55">
       <c r="D601" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="E601" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F601" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H601">
         <v>780</v>
@@ -59658,10 +59652,10 @@
         <v>170</v>
       </c>
       <c r="AC601" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD601" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="AF601">
         <v>0.26</v>
@@ -59717,13 +59711,13 @@
     </row>
     <row r="602" spans="1:55">
       <c r="D602" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E602" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F602" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H602">
         <v>780</v>
@@ -59747,10 +59741,10 @@
         <v>170</v>
       </c>
       <c r="AC602" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD602" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="AF602">
         <v>0.26</v>
@@ -59806,13 +59800,13 @@
     </row>
     <row r="603" spans="1:55">
       <c r="D603" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="E603" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F603" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H603">
         <v>780</v>
@@ -59836,10 +59830,10 @@
         <v>170</v>
       </c>
       <c r="AC603" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD603" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AF603">
         <v>0.26</v>
@@ -59895,13 +59889,13 @@
     </row>
     <row r="604" spans="1:55">
       <c r="D604" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="E604" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F604" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H604">
         <v>780</v>
@@ -59925,10 +59919,10 @@
         <v>170</v>
       </c>
       <c r="AC604" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD604" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AF604">
         <v>0.26</v>
@@ -59984,13 +59978,13 @@
     </row>
     <row r="605" spans="1:55">
       <c r="D605" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="E605" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F605" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H605">
         <v>840</v>
@@ -60014,10 +60008,10 @@
         <v>170</v>
       </c>
       <c r="AC605" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD605" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AF605">
         <v>0.26</v>
@@ -60073,13 +60067,13 @@
     </row>
     <row r="606" spans="1:55">
       <c r="D606" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="E606" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F606" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H606">
         <v>840</v>
@@ -60097,10 +60091,10 @@
         <v>180</v>
       </c>
       <c r="AC606" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD606" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AE606">
         <v>0.18</v>
@@ -60159,13 +60153,13 @@
     </row>
     <row r="607" spans="1:55">
       <c r="D607" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="E607" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F607" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H607">
         <v>840</v>
@@ -60183,10 +60177,10 @@
         <v>180</v>
       </c>
       <c r="AC607" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD607" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AE607">
         <v>0.18</v>
@@ -60245,13 +60239,13 @@
     </row>
     <row r="608" spans="1:55">
       <c r="D608" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="E608" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F608" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H608">
         <v>840</v>
@@ -60269,10 +60263,10 @@
         <v>180</v>
       </c>
       <c r="AC608" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD608" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AE608">
         <v>0.18</v>
@@ -60331,13 +60325,13 @@
     </row>
     <row r="609" spans="1:55">
       <c r="D609" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="E609" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F609" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H609">
         <v>840</v>
@@ -60355,10 +60349,10 @@
         <v>180</v>
       </c>
       <c r="AC609" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD609" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AE609">
         <v>0.18</v>
@@ -60417,13 +60411,13 @@
     </row>
     <row r="610" spans="1:55">
       <c r="D610" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="E610" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F610" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H610">
         <v>840</v>
@@ -60441,10 +60435,10 @@
         <v>180</v>
       </c>
       <c r="AC610" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD610" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AE610">
         <v>0.18</v>
@@ -60503,13 +60497,13 @@
     </row>
     <row r="611" spans="1:55">
       <c r="D611" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="E611" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F611" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H611">
         <v>840</v>
@@ -60527,10 +60521,10 @@
         <v>180</v>
       </c>
       <c r="AC611" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD611" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AE611">
         <v>0.18</v>
@@ -60592,13 +60586,13 @@
         <v>1</v>
       </c>
       <c r="D612" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="E612" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F612" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="K612">
         <v>0</v>
@@ -60622,7 +60616,7 @@
         <v>10</v>
       </c>
       <c r="AC612" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF612">
         <v>0</v>
@@ -60690,13 +60684,13 @@
         <v>1</v>
       </c>
       <c r="D613" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="E613" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F613" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="K613">
         <v>0</v>
@@ -60720,7 +60714,7 @@
         <v>10</v>
       </c>
       <c r="AC613" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF613">
         <v>0</v>
@@ -60788,13 +60782,13 @@
         <v>1</v>
       </c>
       <c r="D614" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="E614" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F614" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K614">
         <v>0</v>
@@ -60818,7 +60812,7 @@
         <v>10</v>
       </c>
       <c r="AC614" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF614">
         <v>0</v>
@@ -60886,13 +60880,13 @@
         <v>1</v>
       </c>
       <c r="D615" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="E615" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F615" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K615">
         <v>0</v>
@@ -60916,7 +60910,7 @@
         <v>40</v>
       </c>
       <c r="AC615" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF615">
         <v>0</v>
@@ -60981,13 +60975,13 @@
         <v>1</v>
       </c>
       <c r="D616" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="E616" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F616" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="K616">
         <v>0</v>
@@ -61011,7 +61005,7 @@
         <v>40</v>
       </c>
       <c r="AC616" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF616">
         <v>0</v>
@@ -61079,13 +61073,13 @@
         <v>1</v>
       </c>
       <c r="D617" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="E617" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F617" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="K617">
         <v>0</v>
@@ -61109,7 +61103,7 @@
         <v>40</v>
       </c>
       <c r="AC617" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF617">
         <v>0</v>
@@ -61177,13 +61171,13 @@
         <v>1</v>
       </c>
       <c r="D618" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="E618" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F618" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="K618">
         <v>0</v>
@@ -61207,7 +61201,7 @@
         <v>40</v>
       </c>
       <c r="AC618" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF618">
         <v>0</v>
@@ -61275,13 +61269,13 @@
         <v>1</v>
       </c>
       <c r="D619" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="E619" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F619" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K619">
         <v>0</v>
@@ -61305,7 +61299,7 @@
         <v>40</v>
       </c>
       <c r="AC619" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF619">
         <v>0</v>
@@ -61373,13 +61367,13 @@
         <v>1</v>
       </c>
       <c r="D620" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="E620" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F620" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="K620">
         <v>0</v>
@@ -61403,7 +61397,7 @@
         <v>10</v>
       </c>
       <c r="AC620" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF620">
         <v>0</v>
@@ -61471,13 +61465,13 @@
         <v>1</v>
       </c>
       <c r="D621" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="E621" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F621" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="K621">
         <v>0</v>
@@ -61501,7 +61495,7 @@
         <v>40</v>
       </c>
       <c r="AC621" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF621">
         <v>0</v>
@@ -61569,13 +61563,13 @@
         <v>1</v>
       </c>
       <c r="D622" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="E622" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F622" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K622">
         <v>0</v>
@@ -61599,7 +61593,7 @@
         <v>40</v>
       </c>
       <c r="AC622" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF622">
         <v>0</v>
@@ -61667,13 +61661,13 @@
         <v>1</v>
       </c>
       <c r="D623" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="E623" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F623" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K623">
         <v>0</v>
@@ -61697,7 +61691,7 @@
         <v>60</v>
       </c>
       <c r="AC623" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF623">
         <v>0</v>
@@ -61762,13 +61756,13 @@
         <v>1</v>
       </c>
       <c r="D624" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E624" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F624" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K624">
         <v>0</v>
@@ -61792,7 +61786,7 @@
         <v>10</v>
       </c>
       <c r="AC624" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF624">
         <v>0</v>
@@ -61860,13 +61854,13 @@
         <v>1</v>
       </c>
       <c r="D625" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="E625" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F625" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="K625">
         <v>0</v>
@@ -61890,7 +61884,7 @@
         <v>10</v>
       </c>
       <c r="AC625" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF625">
         <v>0</v>
@@ -61958,13 +61952,13 @@
         <v>1</v>
       </c>
       <c r="D626" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="E626" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F626" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="K626">
         <v>0</v>
@@ -61988,7 +61982,7 @@
         <v>10</v>
       </c>
       <c r="AC626" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF626">
         <v>0</v>
@@ -62056,13 +62050,13 @@
         <v>1</v>
       </c>
       <c r="D627" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="E627" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F627" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="K627">
         <v>0</v>
@@ -62086,7 +62080,7 @@
         <v>10</v>
       </c>
       <c r="AC627" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF627">
         <v>0</v>
@@ -62154,13 +62148,13 @@
         <v>1</v>
       </c>
       <c r="D628" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="E628" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F628" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="K628">
         <v>0</v>
@@ -62190,7 +62184,7 @@
         <v>70</v>
       </c>
       <c r="AC628" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AJ628">
         <v>0.03</v>
@@ -62231,13 +62225,13 @@
         <v>1</v>
       </c>
       <c r="D629" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="E629" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F629" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="K629">
         <v>0</v>
@@ -62267,7 +62261,7 @@
         <v>70</v>
       </c>
       <c r="AC629" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF629">
         <v>0.25</v>
@@ -62320,13 +62314,13 @@
         <v>1</v>
       </c>
       <c r="D630" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="E630" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F630" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="K630">
         <v>0</v>
@@ -62356,7 +62350,7 @@
         <v>70</v>
       </c>
       <c r="AC630" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AL630">
         <v>1</v>
@@ -62400,13 +62394,13 @@
         <v>1</v>
       </c>
       <c r="D631" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="E631" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F631" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="K631">
         <v>0</v>
@@ -62436,7 +62430,7 @@
         <v>70</v>
       </c>
       <c r="AC631" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF631">
         <v>0.5</v>
@@ -62495,13 +62489,13 @@
         <v>1</v>
       </c>
       <c r="D632" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="E632" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F632" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="K632">
         <v>0</v>
@@ -62525,7 +62519,7 @@
         <v>10</v>
       </c>
       <c r="AC632" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF632">
         <v>0</v>
@@ -62590,13 +62584,13 @@
         <v>1</v>
       </c>
       <c r="D633" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="E633" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F633" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="K633">
         <v>0</v>
@@ -62620,7 +62614,7 @@
         <v>10</v>
       </c>
       <c r="AC633" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF633">
         <v>0</v>
@@ -62688,13 +62682,13 @@
         <v>1</v>
       </c>
       <c r="D634" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="E634" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F634" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="K634">
         <v>0</v>
@@ -62718,7 +62712,7 @@
         <v>10</v>
       </c>
       <c r="AC634" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF634">
         <v>0</v>
@@ -62786,13 +62780,13 @@
         <v>1</v>
       </c>
       <c r="D635" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="E635" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F635" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K635">
         <v>0</v>
@@ -62816,7 +62810,7 @@
         <v>10</v>
       </c>
       <c r="AC635" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF635">
         <v>0</v>
@@ -62884,13 +62878,13 @@
         <v>1</v>
       </c>
       <c r="D636" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="E636" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F636" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="K636">
         <v>0</v>
@@ -62914,7 +62908,7 @@
         <v>10</v>
       </c>
       <c r="AC636" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF636">
         <v>0</v>
@@ -62982,13 +62976,13 @@
         <v>1</v>
       </c>
       <c r="D637" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="E637" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F637" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="K637">
         <v>0</v>
@@ -63012,7 +63006,7 @@
         <v>40</v>
       </c>
       <c r="AC637" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF637">
         <v>0</v>
@@ -63080,13 +63074,13 @@
         <v>1</v>
       </c>
       <c r="D638" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="E638" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F638" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="K638">
         <v>0</v>
@@ -63110,7 +63104,7 @@
         <v>10</v>
       </c>
       <c r="AC638" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF638">
         <v>0</v>
@@ -63178,13 +63172,13 @@
         <v>1</v>
       </c>
       <c r="D639" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="E639" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F639" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="K639">
         <v>0</v>
@@ -63208,7 +63202,7 @@
         <v>10</v>
       </c>
       <c r="AC639" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AF639">
         <v>0</v>

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91AD37C-9760-D94C-A9A3-16EB6DECD73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId4"/>
+    <sheet name="Items" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="1352">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -4076,14 +4092,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -4094,28 +4105,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4405,76 +4425,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC638"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="G64" workbookViewId="0">
+      <selection activeCell="U77" sqref="U77:U113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="324" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="28" max="28" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="36" max="36" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="37" max="37" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="38" max="38" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="40" max="40" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="41" max="41" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="42" max="42" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="43" max="43" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="44" max="44" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="45" max="45" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="46" max="46" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="47" max="47" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="48" max="48" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="49" max="49" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="50" max="50" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="51" max="51" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="52" max="52" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="53" max="53" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="54" max="54" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="55" max="55" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="324" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="28" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="38" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="26" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4641,7 +4652,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>55</v>
       </c>
@@ -4721,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>58</v>
       </c>
@@ -4816,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>60</v>
       </c>
@@ -4911,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>62</v>
       </c>
@@ -5006,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>64</v>
       </c>
@@ -5101,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>66</v>
       </c>
@@ -5196,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>68</v>
       </c>
@@ -5291,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>70</v>
       </c>
@@ -5383,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>72</v>
       </c>
@@ -5475,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>74</v>
       </c>
@@ -5567,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>76</v>
       </c>
@@ -5659,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>78</v>
       </c>
@@ -5676,19 +5687,19 @@
         <v>7000</v>
       </c>
       <c r="Q13">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="R13">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="S13">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="T13">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="U13">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -5751,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>80</v>
       </c>
@@ -5843,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>82</v>
       </c>
@@ -5935,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>84</v>
       </c>
@@ -6027,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:55">
+    <row r="17" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>86</v>
       </c>
@@ -6119,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:55">
+    <row r="18" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>88</v>
       </c>
@@ -6211,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:55">
+    <row r="19" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>90</v>
       </c>
@@ -6303,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:55">
+    <row r="20" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>92</v>
       </c>
@@ -6395,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:55">
+    <row r="21" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>94</v>
       </c>
@@ -6487,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:55">
+    <row r="22" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>96</v>
       </c>
@@ -6579,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:55">
+    <row r="23" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>98</v>
       </c>
@@ -6671,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:55">
+    <row r="24" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>100</v>
       </c>
@@ -6688,19 +6699,19 @@
         <v>1000000</v>
       </c>
       <c r="Q24">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R24">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S24">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T24">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U24">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y24">
         <v>1</v>
@@ -6763,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:55">
+    <row r="25" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>102</v>
       </c>
@@ -6780,19 +6791,19 @@
         <v>10000000</v>
       </c>
       <c r="Q25">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R25">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S25">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T25">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U25">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y25">
         <v>1</v>
@@ -6855,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:55">
+    <row r="26" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>104</v>
       </c>
@@ -6947,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:55">
+    <row r="27" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>106</v>
       </c>
@@ -7039,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:55">
+    <row r="28" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>108</v>
       </c>
@@ -7131,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:55">
+    <row r="29" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>110</v>
       </c>
@@ -7223,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:55">
+    <row r="30" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>112</v>
       </c>
@@ -7315,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:55">
+    <row r="31" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>114</v>
       </c>
@@ -7407,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:55">
+    <row r="32" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>116</v>
       </c>
@@ -7499,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:55">
+    <row r="33" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>118</v>
       </c>
@@ -7591,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:55">
+    <row r="34" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>120</v>
       </c>
@@ -7683,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:55">
+    <row r="35" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>122</v>
       </c>
@@ -7784,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:55">
+    <row r="36" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>124</v>
       </c>
@@ -7885,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:55">
+    <row r="37" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>126</v>
       </c>
@@ -7908,19 +7919,19 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R37">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S37">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T37">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U37">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y37">
         <v>1</v>
@@ -7986,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:55">
+    <row r="38" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>128</v>
       </c>
@@ -8009,19 +8020,19 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="R38">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="S38">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="T38">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="U38">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Y38">
         <v>1</v>
@@ -8087,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:55">
+    <row r="39" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>130</v>
       </c>
@@ -8173,7 +8184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:55">
+    <row r="40" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>134</v>
       </c>
@@ -8241,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="AW40">
-        <v>0.0007</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="AX40">
         <v>0</v>
@@ -8262,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:55">
+    <row r="41" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>136</v>
       </c>
@@ -8330,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="AW41">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AX41">
         <v>0</v>
@@ -8351,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:55">
+    <row r="42" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>138</v>
       </c>
@@ -8419,7 +8430,7 @@
         <v>1</v>
       </c>
       <c r="AW42">
-        <v>0.0009</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="AX42">
         <v>0</v>
@@ -8440,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:55">
+    <row r="43" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>140</v>
       </c>
@@ -8508,7 +8519,7 @@
         <v>1</v>
       </c>
       <c r="AW43">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AX43">
         <v>0</v>
@@ -8529,7 +8540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:55">
+    <row r="44" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>142</v>
       </c>
@@ -8597,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="AW44">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AX44">
         <v>0</v>
@@ -8618,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:55">
+    <row r="45" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>144</v>
       </c>
@@ -8686,7 +8697,7 @@
         <v>1</v>
       </c>
       <c r="AW45">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AX45">
         <v>0</v>
@@ -8707,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:55">
+    <row r="46" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>146</v>
       </c>
@@ -8772,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="AW46">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AX46">
         <v>0</v>
@@ -8793,7 +8804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:55">
+    <row r="47" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>148</v>
       </c>
@@ -8858,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="AW47">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AX47">
         <v>0</v>
@@ -8879,7 +8890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:55">
+    <row r="48" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>150</v>
       </c>
@@ -8944,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="AW48">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AX48">
         <v>0</v>
@@ -8965,7 +8976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:55">
+    <row r="49" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>152</v>
       </c>
@@ -8982,10 +8993,10 @@
         <v>5000</v>
       </c>
       <c r="T49">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="W49">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Y49">
         <v>1</v>
@@ -9030,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="AW49">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AX49">
         <v>0</v>
@@ -9051,7 +9062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:55">
+    <row r="50" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>154</v>
       </c>
@@ -9116,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="AW50">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AX50">
         <v>0</v>
@@ -9137,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:55">
+    <row r="51" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
         <v>156</v>
       </c>
@@ -9223,7 +9234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:55">
+    <row r="52" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
         <v>158</v>
       </c>
@@ -9309,7 +9320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:55">
+    <row r="53" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
         <v>160</v>
       </c>
@@ -9395,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:55">
+    <row r="54" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>162</v>
       </c>
@@ -9481,7 +9492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:55">
+    <row r="55" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>164</v>
       </c>
@@ -9567,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:55">
+    <row r="56" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
         <v>166</v>
       </c>
@@ -9653,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:55">
+    <row r="57" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>168</v>
       </c>
@@ -9718,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="AW57">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AX57">
         <v>0</v>
@@ -9739,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:55">
+    <row r="58" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>170</v>
       </c>
@@ -9825,7 +9836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:55">
+    <row r="59" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>172</v>
       </c>
@@ -9911,7 +9922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:55">
+    <row r="60" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
         <v>174</v>
       </c>
@@ -9928,10 +9939,10 @@
         <v>500000</v>
       </c>
       <c r="T60">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W60">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y60">
         <v>1</v>
@@ -9997,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:55">
+    <row r="61" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
         <v>176</v>
       </c>
@@ -10014,10 +10025,10 @@
         <v>1000000</v>
       </c>
       <c r="T61">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W61">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y61">
         <v>1</v>
@@ -10083,7 +10094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:55">
+    <row r="62" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
         <v>178</v>
       </c>
@@ -10169,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:55">
+    <row r="63" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
         <v>180</v>
       </c>
@@ -10255,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:55">
+    <row r="64" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
         <v>182</v>
       </c>
@@ -10320,7 +10331,7 @@
         <v>1</v>
       </c>
       <c r="AW64">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AX64">
         <v>0</v>
@@ -10341,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:55">
+    <row r="65" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
         <v>184</v>
       </c>
@@ -10427,7 +10438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:55">
+    <row r="66" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
         <v>186</v>
       </c>
@@ -10513,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:55">
+    <row r="67" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
         <v>188</v>
       </c>
@@ -10599,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:55">
+    <row r="68" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
         <v>190</v>
       </c>
@@ -10685,7 +10696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:55">
+    <row r="69" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
         <v>192</v>
       </c>
@@ -10771,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:55">
+    <row r="70" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
         <v>194</v>
       </c>
@@ -10857,7 +10868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:55">
+    <row r="71" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
         <v>196</v>
       </c>
@@ -10940,7 +10951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:55">
+    <row r="72" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
         <v>198</v>
       </c>
@@ -11026,7 +11037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:55">
+    <row r="73" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
         <v>200</v>
       </c>
@@ -11049,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="T73">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W73">
         <v>1.02</v>
@@ -11121,7 +11132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:55">
+    <row r="74" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
         <v>202</v>
       </c>
@@ -11144,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="T74">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="W74">
         <v>1.05</v>
@@ -11216,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:55">
+    <row r="75" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
         <v>204</v>
       </c>
@@ -11242,7 +11253,7 @@
         <v>1.2</v>
       </c>
       <c r="W75">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y75">
         <v>1</v>
@@ -11311,7 +11322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:55">
+    <row r="76" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
         <v>206</v>
       </c>
@@ -11337,7 +11348,7 @@
         <v>1.25</v>
       </c>
       <c r="W76">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Y76">
         <v>1</v>
@@ -11406,7 +11417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:55">
+    <row r="77" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
         <v>208</v>
       </c>
@@ -11422,7 +11433,7 @@
       <c r="K77">
         <v>10</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <v>0.05</v>
       </c>
       <c r="W77">
@@ -11492,7 +11503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:55">
+    <row r="78" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
         <v>211</v>
       </c>
@@ -11508,7 +11519,7 @@
       <c r="K78">
         <v>25</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <v>0.08</v>
       </c>
       <c r="W78">
@@ -11578,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:55">
+    <row r="79" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
         <v>213</v>
       </c>
@@ -11594,7 +11605,7 @@
       <c r="K79">
         <v>75</v>
       </c>
-      <c r="T79">
+      <c r="U79">
         <v>0.16</v>
       </c>
       <c r="W79">
@@ -11664,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:55">
+    <row r="80" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
         <v>215</v>
       </c>
@@ -11680,7 +11691,7 @@
       <c r="K80">
         <v>150</v>
       </c>
-      <c r="T80">
+      <c r="U80">
         <v>0.18</v>
       </c>
       <c r="W80">
@@ -11750,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:55">
+    <row r="81" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>217</v>
       </c>
@@ -11766,7 +11777,7 @@
       <c r="K81">
         <v>250</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <v>0.19</v>
       </c>
       <c r="W81">
@@ -11836,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:55">
+    <row r="82" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>219</v>
       </c>
@@ -11852,7 +11863,7 @@
       <c r="K82">
         <v>500</v>
       </c>
-      <c r="T82">
+      <c r="U82">
         <v>0.2</v>
       </c>
       <c r="W82">
@@ -11922,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:55">
+    <row r="83" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
         <v>221</v>
       </c>
@@ -11938,7 +11949,7 @@
       <c r="K83">
         <v>750</v>
       </c>
-      <c r="T83">
+      <c r="U83">
         <v>0.22</v>
       </c>
       <c r="W83">
@@ -12008,7 +12019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:55">
+    <row r="84" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
         <v>223</v>
       </c>
@@ -12024,7 +12035,7 @@
       <c r="K84">
         <v>1000</v>
       </c>
-      <c r="T84">
+      <c r="U84">
         <v>0.25</v>
       </c>
       <c r="W84">
@@ -12091,7 +12102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:55">
+    <row r="85" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
         <v>225</v>
       </c>
@@ -12107,7 +12118,7 @@
       <c r="K85">
         <v>1500</v>
       </c>
-      <c r="T85">
+      <c r="U85">
         <v>0.27</v>
       </c>
       <c r="W85">
@@ -12174,7 +12185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:55">
+    <row r="86" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
         <v>227</v>
       </c>
@@ -12190,7 +12201,7 @@
       <c r="K86">
         <v>3000</v>
       </c>
-      <c r="T86">
+      <c r="U86">
         <v>0.27</v>
       </c>
       <c r="W86">
@@ -12257,7 +12268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:55">
+    <row r="87" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
         <v>229</v>
       </c>
@@ -12273,11 +12284,11 @@
       <c r="K87">
         <v>5000</v>
       </c>
-      <c r="T87">
-        <v>0.29</v>
+      <c r="U87">
+        <v>0.28999999999999998</v>
       </c>
       <c r="W87">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Y87">
         <v>1</v>
@@ -12340,7 +12351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:55">
+    <row r="88" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
         <v>231</v>
       </c>
@@ -12356,7 +12367,7 @@
       <c r="K88">
         <v>7000</v>
       </c>
-      <c r="T88">
+      <c r="U88">
         <v>0.3</v>
       </c>
       <c r="W88">
@@ -12423,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:55">
+    <row r="89" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
         <v>233</v>
       </c>
@@ -12439,7 +12450,7 @@
       <c r="K89">
         <v>10000</v>
       </c>
-      <c r="T89">
+      <c r="U89">
         <v>0.35</v>
       </c>
       <c r="W89">
@@ -12506,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:55">
+    <row r="90" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
         <v>235</v>
       </c>
@@ -12522,7 +12533,7 @@
       <c r="K90">
         <v>15000</v>
       </c>
-      <c r="T90">
+      <c r="U90">
         <v>0.37</v>
       </c>
       <c r="W90">
@@ -12589,7 +12600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:55">
+    <row r="91" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
         <v>237</v>
       </c>
@@ -12605,7 +12616,7 @@
       <c r="K91">
         <v>30000</v>
       </c>
-      <c r="T91">
+      <c r="U91">
         <v>0.38</v>
       </c>
       <c r="W91">
@@ -12672,7 +12683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:55">
+    <row r="92" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
         <v>239</v>
       </c>
@@ -12688,7 +12699,7 @@
       <c r="K92">
         <v>60000</v>
       </c>
-      <c r="T92">
+      <c r="U92">
         <v>0.38</v>
       </c>
       <c r="W92">
@@ -12755,7 +12766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:55">
+    <row r="93" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
         <v>241</v>
       </c>
@@ -12771,7 +12782,7 @@
       <c r="K93">
         <v>120000</v>
       </c>
-      <c r="T93">
+      <c r="U93">
         <v>0.42</v>
       </c>
       <c r="W93">
@@ -12838,7 +12849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:55">
+    <row r="94" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
         <v>243</v>
       </c>
@@ -12854,7 +12865,7 @@
       <c r="K94">
         <v>180000</v>
       </c>
-      <c r="T94">
+      <c r="U94">
         <v>0.45</v>
       </c>
       <c r="W94">
@@ -12921,7 +12932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:55">
+    <row r="95" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
         <v>245</v>
       </c>
@@ -12937,7 +12948,7 @@
       <c r="K95">
         <v>240000</v>
       </c>
-      <c r="T95">
+      <c r="U95">
         <v>0.48</v>
       </c>
       <c r="W95">
@@ -13004,7 +13015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:55">
+    <row r="96" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
         <v>247</v>
       </c>
@@ -13020,7 +13031,7 @@
       <c r="K96">
         <v>260000</v>
       </c>
-      <c r="T96">
+      <c r="U96">
         <v>0.5</v>
       </c>
       <c r="W96">
@@ -13087,7 +13098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:55">
+    <row r="97" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
         <v>249</v>
       </c>
@@ -13103,7 +13114,7 @@
       <c r="K97">
         <v>350000</v>
       </c>
-      <c r="T97">
+      <c r="U97">
         <v>0.53</v>
       </c>
       <c r="W97">
@@ -13170,7 +13181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:55">
+    <row r="98" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
         <v>251</v>
       </c>
@@ -13186,11 +13197,11 @@
       <c r="K98">
         <v>500000</v>
       </c>
-      <c r="T98">
-        <v>0.58</v>
+      <c r="U98">
+        <v>0.57999999999999996</v>
       </c>
       <c r="W98">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y98">
         <v>1</v>
@@ -13253,7 +13264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:55">
+    <row r="99" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
         <v>253</v>
       </c>
@@ -13269,11 +13280,11 @@
       <c r="K99">
         <v>1000000</v>
       </c>
-      <c r="T99">
-        <v>0.58</v>
+      <c r="U99">
+        <v>0.57999999999999996</v>
       </c>
       <c r="W99">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y99">
         <v>1</v>
@@ -13336,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:55">
+    <row r="100" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
         <v>255</v>
       </c>
@@ -13352,7 +13363,7 @@
       <c r="K100">
         <v>10000000</v>
       </c>
-      <c r="T100">
+      <c r="U100">
         <v>0.62</v>
       </c>
       <c r="W100">
@@ -13419,7 +13430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:55">
+    <row r="101" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
         <v>257</v>
       </c>
@@ -13435,7 +13446,7 @@
       <c r="K101">
         <v>25000000</v>
       </c>
-      <c r="T101">
+      <c r="U101">
         <v>0.65</v>
       </c>
       <c r="W101">
@@ -13502,7 +13513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:55">
+    <row r="102" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
         <v>259</v>
       </c>
@@ -13518,7 +13529,7 @@
       <c r="K102">
         <v>40000000</v>
       </c>
-      <c r="T102">
+      <c r="U102">
         <v>0.68</v>
       </c>
       <c r="W102">
@@ -13585,7 +13596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:55">
+    <row r="103" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
         <v>261</v>
       </c>
@@ -13601,7 +13612,7 @@
       <c r="K103">
         <v>65000000</v>
       </c>
-      <c r="T103">
+      <c r="U103">
         <v>0.73</v>
       </c>
       <c r="W103">
@@ -13668,7 +13679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:55">
+    <row r="104" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
         <v>263</v>
       </c>
@@ -13684,7 +13695,7 @@
       <c r="K104">
         <v>100000000</v>
       </c>
-      <c r="T104">
+      <c r="U104">
         <v>0.75</v>
       </c>
       <c r="W104">
@@ -13751,7 +13762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:55">
+    <row r="105" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
         <v>265</v>
       </c>
@@ -13767,7 +13778,7 @@
       <c r="K105">
         <v>160000000</v>
       </c>
-      <c r="T105">
+      <c r="U105">
         <v>0.8</v>
       </c>
       <c r="W105">
@@ -13834,7 +13845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:55">
+    <row r="106" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
         <v>267</v>
       </c>
@@ -13850,7 +13861,7 @@
       <c r="K106">
         <v>250000000</v>
       </c>
-      <c r="T106">
+      <c r="U106">
         <v>0.83</v>
       </c>
       <c r="W106">
@@ -13917,7 +13928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:55">
+    <row r="107" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
         <v>269</v>
       </c>
@@ -13933,7 +13944,7 @@
       <c r="K107">
         <v>500000000</v>
       </c>
-      <c r="T107">
+      <c r="U107">
         <v>0.86</v>
       </c>
       <c r="W107">
@@ -14000,7 +14011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:55">
+    <row r="108" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
         <v>271</v>
       </c>
@@ -14016,7 +14027,7 @@
       <c r="K108">
         <v>1000000000</v>
       </c>
-      <c r="T108">
+      <c r="U108">
         <v>0.9</v>
       </c>
       <c r="W108">
@@ -14083,7 +14094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:55">
+    <row r="109" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
         <v>273</v>
       </c>
@@ -14102,7 +14113,7 @@
       <c r="K109">
         <v>2000000000</v>
       </c>
-      <c r="T109">
+      <c r="U109">
         <v>1</v>
       </c>
       <c r="W109">
@@ -14169,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:55">
+    <row r="110" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
         <v>275</v>
       </c>
@@ -14191,7 +14202,7 @@
       <c r="M110">
         <v>0</v>
       </c>
-      <c r="T110">
+      <c r="U110">
         <v>1.05</v>
       </c>
       <c r="W110">
@@ -14261,7 +14272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:55">
+    <row r="111" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
         <v>277</v>
       </c>
@@ -14283,8 +14294,8 @@
       <c r="M111">
         <v>0</v>
       </c>
-      <c r="T111">
-        <v>1.1</v>
+      <c r="U111">
+        <v>1.1000000000000001</v>
       </c>
       <c r="W111">
         <v>1.05</v>
@@ -14353,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:55">
+    <row r="112" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
         <v>279</v>
       </c>
@@ -14375,11 +14386,11 @@
       <c r="M112">
         <v>0</v>
       </c>
-      <c r="T112">
-        <v>1.15</v>
+      <c r="U112">
+        <v>1.1499999999999999</v>
       </c>
       <c r="W112">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y112">
         <v>1</v>
@@ -14445,7 +14456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:55">
+    <row r="113" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
         <v>281</v>
       </c>
@@ -14467,11 +14478,11 @@
       <c r="M113">
         <v>0</v>
       </c>
-      <c r="T113">
+      <c r="U113">
         <v>1.2</v>
       </c>
       <c r="W113">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Y113">
         <v>1</v>
@@ -14537,7 +14548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:55">
+    <row r="114" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
         <v>283</v>
       </c>
@@ -14641,7 +14652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:55">
+    <row r="115" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
         <v>287</v>
       </c>
@@ -14745,7 +14756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:55">
+    <row r="116" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
         <v>289</v>
       </c>
@@ -14849,7 +14860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:55">
+    <row r="117" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
         <v>291</v>
       </c>
@@ -14953,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:55">
+    <row r="118" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
         <v>293</v>
       </c>
@@ -15057,7 +15068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:55">
+    <row r="119" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
         <v>295</v>
       </c>
@@ -15161,7 +15172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:55">
+    <row r="120" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
         <v>297</v>
       </c>
@@ -15262,7 +15273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:55">
+    <row r="121" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
         <v>299</v>
       </c>
@@ -15282,25 +15293,25 @@
         <v>1500</v>
       </c>
       <c r="Q121">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R121">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S121">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T121">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U121">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V121">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W121">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y121">
         <v>1</v>
@@ -15363,7 +15374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:55">
+    <row r="122" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
         <v>301</v>
       </c>
@@ -15464,7 +15475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:55">
+    <row r="123" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
         <v>303</v>
       </c>
@@ -15565,7 +15576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:55">
+    <row r="124" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
         <v>305</v>
       </c>
@@ -15666,7 +15677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:55">
+    <row r="125" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
         <v>307</v>
       </c>
@@ -15767,7 +15778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:55">
+    <row r="126" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
         <v>309</v>
       </c>
@@ -15868,7 +15879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:55">
+    <row r="127" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
         <v>311</v>
       </c>
@@ -15969,7 +15980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:55">
+    <row r="128" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
         <v>313</v>
       </c>
@@ -16070,7 +16081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:55">
+    <row r="129" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
         <v>313</v>
       </c>
@@ -16165,7 +16176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:55">
+    <row r="130" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
         <v>314</v>
       </c>
@@ -16266,7 +16277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:55">
+    <row r="131" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
         <v>316</v>
       </c>
@@ -16367,7 +16378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:55">
+    <row r="132" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
         <v>318</v>
       </c>
@@ -16468,7 +16479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:55">
+    <row r="133" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
         <v>320</v>
       </c>
@@ -16569,7 +16580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:55">
+    <row r="134" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
         <v>322</v>
       </c>
@@ -16670,7 +16681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:55">
+    <row r="135" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
         <v>324</v>
       </c>
@@ -16771,7 +16782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:55">
+    <row r="136" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
         <v>326</v>
       </c>
@@ -16791,25 +16802,25 @@
         <v>500000</v>
       </c>
       <c r="Q136">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R136">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S136">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="T136">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U136">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V136">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W136">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y136">
         <v>1</v>
@@ -16872,7 +16883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:55">
+    <row r="137" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
         <v>328</v>
       </c>
@@ -16892,25 +16903,25 @@
         <v>1000000</v>
       </c>
       <c r="Q137">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R137">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S137">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T137">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U137">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V137">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W137">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y137">
         <v>1</v>
@@ -16973,7 +16984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:55">
+    <row r="138" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
         <v>330</v>
       </c>
@@ -17074,7 +17085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:55">
+    <row r="139" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
         <v>332</v>
       </c>
@@ -17175,7 +17186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:55">
+    <row r="140" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
         <v>334</v>
       </c>
@@ -17276,7 +17287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:55">
+    <row r="141" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
         <v>336</v>
       </c>
@@ -17377,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:55">
+    <row r="142" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
         <v>338</v>
       </c>
@@ -17478,7 +17489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:55">
+    <row r="143" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
         <v>340</v>
       </c>
@@ -17579,7 +17590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:55">
+    <row r="144" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
         <v>342</v>
       </c>
@@ -17680,7 +17691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:55">
+    <row r="145" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
         <v>344</v>
       </c>
@@ -17781,7 +17792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:55">
+    <row r="146" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
         <v>345</v>
       </c>
@@ -17882,7 +17893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:55">
+    <row r="147" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
         <v>347</v>
       </c>
@@ -17983,7 +17994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:55">
+    <row r="148" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
         <v>349</v>
       </c>
@@ -18093,7 +18104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:55">
+    <row r="149" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
         <v>351</v>
       </c>
@@ -18203,7 +18214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:55">
+    <row r="150" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
         <v>353</v>
       </c>
@@ -18313,7 +18324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:55">
+    <row r="151" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
         <v>355</v>
       </c>
@@ -18423,7 +18434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:55">
+    <row r="152" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
         <v>357</v>
       </c>
@@ -18443,25 +18454,25 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R152">
         <v>0</v>
       </c>
       <c r="S152">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T152">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U152">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V152">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W152">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y152">
         <v>1</v>
@@ -18527,7 +18538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:55">
+    <row r="153" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
         <v>360</v>
       </c>
@@ -18613,7 +18624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:55">
+    <row r="154" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
         <v>362</v>
       </c>
@@ -18699,7 +18710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:55">
+    <row r="155" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
         <v>364</v>
       </c>
@@ -18785,7 +18796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:55">
+    <row r="156" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
         <v>366</v>
       </c>
@@ -18871,7 +18882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:55">
+    <row r="157" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
         <v>368</v>
       </c>
@@ -18957,7 +18968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:55">
+    <row r="158" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
         <v>370</v>
       </c>
@@ -19046,7 +19057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:55">
+    <row r="159" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
         <v>373</v>
       </c>
@@ -19129,7 +19140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:55">
+    <row r="160" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
         <v>375</v>
       </c>
@@ -19149,7 +19160,7 @@
         <v>0.2</v>
       </c>
       <c r="R160">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y160">
         <v>1</v>
@@ -19212,7 +19223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:55">
+    <row r="161" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
         <v>377</v>
       </c>
@@ -19295,7 +19306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:55">
+    <row r="162" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
         <v>379</v>
       </c>
@@ -19378,7 +19389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:55">
+    <row r="163" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
         <v>381</v>
       </c>
@@ -19461,7 +19472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:55">
+    <row r="164" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
         <v>383</v>
       </c>
@@ -19478,7 +19489,7 @@
         <v>10000</v>
       </c>
       <c r="P164">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R164">
         <v>0.23</v>
@@ -19544,7 +19555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:55">
+    <row r="165" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
         <v>385</v>
       </c>
@@ -19627,7 +19638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:55">
+    <row r="166" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
         <v>387</v>
       </c>
@@ -19710,7 +19721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:55">
+    <row r="167" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
         <v>389</v>
       </c>
@@ -19793,7 +19804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:55">
+    <row r="168" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
         <v>391</v>
       </c>
@@ -19876,7 +19887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:55">
+    <row r="169" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
         <v>393</v>
       </c>
@@ -19959,7 +19970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:55">
+    <row r="170" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
         <v>395</v>
       </c>
@@ -20042,7 +20053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:55">
+    <row r="171" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
         <v>397</v>
       </c>
@@ -20125,7 +20136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:55">
+    <row r="172" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
         <v>399</v>
       </c>
@@ -20208,7 +20219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:55">
+    <row r="173" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
         <v>401</v>
       </c>
@@ -20225,7 +20236,7 @@
         <v>500000</v>
       </c>
       <c r="P173">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R173">
         <v>0.49</v>
@@ -20291,7 +20302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:55">
+    <row r="174" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
         <v>403</v>
       </c>
@@ -20308,7 +20319,7 @@
         <v>1000000</v>
       </c>
       <c r="P174">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R174">
         <v>0.5</v>
@@ -20374,7 +20385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:55">
+    <row r="175" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
         <v>405</v>
       </c>
@@ -20394,7 +20405,7 @@
         <v>0.6</v>
       </c>
       <c r="R175">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y175">
         <v>1</v>
@@ -20457,7 +20468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:55">
+    <row r="176" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
         <v>407</v>
       </c>
@@ -20477,7 +20488,7 @@
         <v>0.63</v>
       </c>
       <c r="R176">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y176">
         <v>1</v>
@@ -20540,7 +20551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:55">
+    <row r="177" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
         <v>409</v>
       </c>
@@ -20623,7 +20634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:55">
+    <row r="178" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
         <v>411</v>
       </c>
@@ -20706,7 +20717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:55">
+    <row r="179" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
         <v>413</v>
       </c>
@@ -20789,7 +20800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:55">
+    <row r="180" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
         <v>415</v>
       </c>
@@ -20872,7 +20883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:55">
+    <row r="181" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
         <v>417</v>
       </c>
@@ -20955,7 +20966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:55">
+    <row r="182" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
         <v>419</v>
       </c>
@@ -21038,7 +21049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:55">
+    <row r="183" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
         <v>421</v>
       </c>
@@ -21121,7 +21132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:55">
+    <row r="184" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
         <v>423</v>
       </c>
@@ -21204,7 +21215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:55">
+    <row r="185" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
         <v>425</v>
       </c>
@@ -21296,7 +21307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:55">
+    <row r="186" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
         <v>427</v>
       </c>
@@ -21388,7 +21399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:55">
+    <row r="187" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
         <v>429</v>
       </c>
@@ -21411,7 +21422,7 @@
         <v>0</v>
       </c>
       <c r="P187">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R187">
         <v>0.9</v>
@@ -21480,7 +21491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:55">
+    <row r="188" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
         <v>431</v>
       </c>
@@ -21503,7 +21514,7 @@
         <v>0</v>
       </c>
       <c r="P188">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="R188">
         <v>1</v>
@@ -21572,7 +21583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:55">
+    <row r="189" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
         <v>433</v>
       </c>
@@ -21652,7 +21663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:55">
+    <row r="190" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
         <v>436</v>
       </c>
@@ -21714,16 +21725,16 @@
         <v>0</v>
       </c>
       <c r="AX190">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="AY190">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="AZ190">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="BA190">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="BB190">
         <v>0</v>
@@ -21732,7 +21743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:55">
+    <row r="191" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
         <v>438</v>
       </c>
@@ -21749,10 +21760,10 @@
         <v>75</v>
       </c>
       <c r="N191">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="O191">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P191">
         <v>0.02</v>
@@ -21803,16 +21814,16 @@
         <v>0</v>
       </c>
       <c r="AX191">
-        <v>0.0003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AY191">
-        <v>0.0003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AZ191">
-        <v>0.0003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="BA191">
-        <v>0.0003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="BB191">
         <v>0</v>
@@ -21821,7 +21832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:55">
+    <row r="192" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
         <v>440</v>
       </c>
@@ -21838,10 +21849,10 @@
         <v>150</v>
       </c>
       <c r="N192">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="O192">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="P192">
         <v>0.05</v>
@@ -21892,16 +21903,16 @@
         <v>0</v>
       </c>
       <c r="AX192">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AY192">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AZ192">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="BA192">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="BB192">
         <v>0</v>
@@ -21910,7 +21921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:55">
+    <row r="193" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
         <v>442</v>
       </c>
@@ -21927,10 +21938,10 @@
         <v>250</v>
       </c>
       <c r="N193">
-        <v>0.0016</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="O193">
-        <v>0.0016</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="P193">
         <v>0.08</v>
@@ -21981,16 +21992,16 @@
         <v>0</v>
       </c>
       <c r="AX193">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AY193">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AZ193">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="BA193">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="BB193">
         <v>0</v>
@@ -21999,7 +22010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:55">
+    <row r="194" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
         <v>444</v>
       </c>
@@ -22016,10 +22027,10 @@
         <v>500</v>
       </c>
       <c r="N194">
-        <v>0.0018</v>
+        <v>1.8E-3</v>
       </c>
       <c r="O194">
-        <v>0.0018</v>
+        <v>1.8E-3</v>
       </c>
       <c r="P194">
         <v>0.1</v>
@@ -22070,16 +22081,16 @@
         <v>0</v>
       </c>
       <c r="AX194">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AY194">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AZ194">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="BA194">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="BB194">
         <v>0</v>
@@ -22088,7 +22099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:55">
+    <row r="195" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
         <v>446</v>
       </c>
@@ -22105,10 +22116,10 @@
         <v>750</v>
       </c>
       <c r="N195">
-        <v>0.0019</v>
+        <v>1.9E-3</v>
       </c>
       <c r="O195">
-        <v>0.0019</v>
+        <v>1.9E-3</v>
       </c>
       <c r="P195">
         <v>0.12</v>
@@ -22159,16 +22170,16 @@
         <v>0</v>
       </c>
       <c r="AX195">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AY195">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AZ195">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="BA195">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="BB195">
         <v>0</v>
@@ -22177,7 +22188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:55">
+    <row r="196" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
         <v>448</v>
       </c>
@@ -22194,13 +22205,13 @@
         <v>1000</v>
       </c>
       <c r="N196">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="O196">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="P196">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y196">
         <v>1</v>
@@ -22245,16 +22256,16 @@
         <v>0</v>
       </c>
       <c r="AX196">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AY196">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AZ196">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="BA196">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="BB196">
         <v>0</v>
@@ -22263,7 +22274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:55">
+    <row r="197" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
         <v>450</v>
       </c>
@@ -22280,10 +22291,10 @@
         <v>1500</v>
       </c>
       <c r="N197">
-        <v>0.0022</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="O197">
-        <v>0.0022</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="P197">
         <v>0.16</v>
@@ -22331,16 +22342,16 @@
         <v>0</v>
       </c>
       <c r="AX197">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AY197">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AZ197">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="BA197">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="BB197">
         <v>0</v>
@@ -22349,7 +22360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:55">
+    <row r="198" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
         <v>452</v>
       </c>
@@ -22366,10 +22377,10 @@
         <v>3000</v>
       </c>
       <c r="N198">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="O198">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="P198">
         <v>0.18</v>
@@ -22417,16 +22428,16 @@
         <v>0</v>
       </c>
       <c r="AX198">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AY198">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AZ198">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="BA198">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="BB198">
         <v>0</v>
@@ -22435,7 +22446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:55">
+    <row r="199" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
         <v>454</v>
       </c>
@@ -22452,10 +22463,10 @@
         <v>5000</v>
       </c>
       <c r="N199">
-        <v>0.0027</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="O199">
-        <v>0.0027</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="P199">
         <v>0.2</v>
@@ -22503,16 +22514,16 @@
         <v>0</v>
       </c>
       <c r="AX199">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY199">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AZ199">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="BA199">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="BB199">
         <v>0</v>
@@ -22521,7 +22532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:55">
+    <row r="200" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D200" t="s">
         <v>456</v>
       </c>
@@ -22538,10 +22549,10 @@
         <v>7000</v>
       </c>
       <c r="N200">
-        <v>0.0027</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="O200">
-        <v>0.0027</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="P200">
         <v>0.22</v>
@@ -22589,16 +22600,16 @@
         <v>0</v>
       </c>
       <c r="AX200">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AY200">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AZ200">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="BA200">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="BB200">
         <v>0</v>
@@ -22607,7 +22618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:55">
+    <row r="201" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D201" t="s">
         <v>458</v>
       </c>
@@ -22624,10 +22635,10 @@
         <v>10000</v>
       </c>
       <c r="N201">
-        <v>0.0029</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="O201">
-        <v>0.0029</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="P201">
         <v>0.25</v>
@@ -22693,7 +22704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:55">
+    <row r="202" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
         <v>460</v>
       </c>
@@ -22710,10 +22721,10 @@
         <v>15000</v>
       </c>
       <c r="N202">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O202">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="P202">
         <v>0.27</v>
@@ -22779,7 +22790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:55">
+    <row r="203" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D203" t="s">
         <v>462</v>
       </c>
@@ -22796,13 +22807,13 @@
         <v>30000</v>
       </c>
       <c r="N203">
-        <v>0.0035</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="O203">
-        <v>0.0035</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="P203">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Y203">
         <v>1</v>
@@ -22865,7 +22876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:55">
+    <row r="204" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
         <v>464</v>
       </c>
@@ -22882,10 +22893,10 @@
         <v>60000</v>
       </c>
       <c r="N204">
-        <v>0.0037</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="O204">
-        <v>0.0037</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="P204">
         <v>0.3</v>
@@ -22951,7 +22962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:55">
+    <row r="205" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
         <v>466</v>
       </c>
@@ -22968,10 +22979,10 @@
         <v>120000</v>
       </c>
       <c r="N205">
-        <v>0.0038</v>
+        <v>3.8E-3</v>
       </c>
       <c r="O205">
-        <v>0.0038</v>
+        <v>3.8E-3</v>
       </c>
       <c r="P205">
         <v>0.35</v>
@@ -23037,7 +23048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:55">
+    <row r="206" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D206" t="s">
         <v>468</v>
       </c>
@@ -23054,10 +23065,10 @@
         <v>180000</v>
       </c>
       <c r="N206">
-        <v>0.0038</v>
+        <v>3.8E-3</v>
       </c>
       <c r="O206">
-        <v>0.0038</v>
+        <v>3.8E-3</v>
       </c>
       <c r="P206">
         <v>0.38</v>
@@ -23123,7 +23134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:55">
+    <row r="207" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
         <v>470</v>
       </c>
@@ -23140,10 +23151,10 @@
         <v>240000</v>
       </c>
       <c r="N207">
-        <v>0.0042</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="O207">
-        <v>0.0042</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="P207">
         <v>0.4</v>
@@ -23191,16 +23202,16 @@
         <v>0</v>
       </c>
       <c r="AX207">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AY207">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AZ207">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BA207">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BB207">
         <v>0</v>
@@ -23209,7 +23220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:55">
+    <row r="208" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D208" t="s">
         <v>472</v>
       </c>
@@ -23226,10 +23237,10 @@
         <v>260000</v>
       </c>
       <c r="N208">
-        <v>0.0045</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="O208">
-        <v>0.0045</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="P208">
         <v>0.43</v>
@@ -23295,7 +23306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:55">
+    <row r="209" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D209" t="s">
         <v>474</v>
       </c>
@@ -23312,10 +23323,10 @@
         <v>350000</v>
       </c>
       <c r="N209">
-        <v>0.0048</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="O209">
-        <v>0.0048</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="P209">
         <v>0.45</v>
@@ -23381,7 +23392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:55">
+    <row r="210" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D210" t="s">
         <v>476</v>
       </c>
@@ -23398,10 +23409,10 @@
         <v>500000</v>
       </c>
       <c r="N210">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O210">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P210">
         <v>0.48</v>
@@ -23467,7 +23478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:55">
+    <row r="211" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D211" t="s">
         <v>478</v>
       </c>
@@ -23484,10 +23495,10 @@
         <v>1000000</v>
       </c>
       <c r="N211">
-        <v>0.0053</v>
+        <v>5.3E-3</v>
       </c>
       <c r="O211">
-        <v>0.0053</v>
+        <v>5.3E-3</v>
       </c>
       <c r="P211">
         <v>0.5</v>
@@ -23553,7 +23564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:55">
+    <row r="212" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D212" t="s">
         <v>480</v>
       </c>
@@ -23570,10 +23581,10 @@
         <v>10000000</v>
       </c>
       <c r="N212">
-        <v>0.0058</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="O212">
-        <v>0.0058</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="P212">
         <v>0.53</v>
@@ -23639,7 +23650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:55">
+    <row r="213" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D213" t="s">
         <v>482</v>
       </c>
@@ -23656,13 +23667,13 @@
         <v>25000000</v>
       </c>
       <c r="N213">
-        <v>0.0058</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="O213">
-        <v>0.0058</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="P213">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y213">
         <v>1</v>
@@ -23725,7 +23736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:55">
+    <row r="214" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D214" t="s">
         <v>484</v>
       </c>
@@ -23742,13 +23753,13 @@
         <v>40000000</v>
       </c>
       <c r="N214">
-        <v>0.0062</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="O214">
-        <v>0.0062</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="P214">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y214">
         <v>1</v>
@@ -23793,16 +23804,16 @@
         <v>0</v>
       </c>
       <c r="AX214">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AY214">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AZ214">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="BA214">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="BB214">
         <v>0</v>
@@ -23811,7 +23822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:55">
+    <row r="215" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D215" t="s">
         <v>486</v>
       </c>
@@ -23828,10 +23839,10 @@
         <v>65000000</v>
       </c>
       <c r="N215">
-        <v>0.0065</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="O215">
-        <v>0.0065</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="P215">
         <v>0.62</v>
@@ -23897,7 +23908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:55">
+    <row r="216" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D216" t="s">
         <v>488</v>
       </c>
@@ -23914,10 +23925,10 @@
         <v>100000000</v>
       </c>
       <c r="N216">
-        <v>0.0068</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="O216">
-        <v>0.0068</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="P216">
         <v>0.65</v>
@@ -23983,7 +23994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:55">
+    <row r="217" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D217" t="s">
         <v>490</v>
       </c>
@@ -24000,10 +24011,10 @@
         <v>160000000</v>
       </c>
       <c r="N217">
-        <v>0.0073</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="O217">
-        <v>0.0073</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="P217">
         <v>0.7</v>
@@ -24078,7 +24089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:55">
+    <row r="218" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D218" t="s">
         <v>492</v>
       </c>
@@ -24095,10 +24106,10 @@
         <v>250000000</v>
       </c>
       <c r="N218">
-        <v>0.0075</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="O218">
-        <v>0.0075</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="P218">
         <v>0.73</v>
@@ -24179,7 +24190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:55">
+    <row r="219" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D219" t="s">
         <v>494</v>
       </c>
@@ -24196,10 +24207,10 @@
         <v>500000000</v>
       </c>
       <c r="N219">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="O219">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="P219">
         <v>0.75</v>
@@ -24271,7 +24282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:55">
+    <row r="220" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D220" t="s">
         <v>496</v>
       </c>
@@ -24288,10 +24299,10 @@
         <v>1000000000</v>
       </c>
       <c r="N220">
-        <v>0.0083</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="O220">
-        <v>0.0083</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="P220">
         <v>0.78</v>
@@ -24357,7 +24368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:55">
+    <row r="221" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D221" t="s">
         <v>498</v>
       </c>
@@ -24374,10 +24385,10 @@
         <v>2000000000</v>
       </c>
       <c r="N221">
-        <v>0.0086</v>
+        <v>8.6E-3</v>
       </c>
       <c r="O221">
-        <v>0.0086</v>
+        <v>8.6E-3</v>
       </c>
       <c r="P221">
         <v>0.82</v>
@@ -24443,7 +24454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:55">
+    <row r="222" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D222" t="s">
         <v>500</v>
       </c>
@@ -24466,10 +24477,10 @@
         <v>0</v>
       </c>
       <c r="N222">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="O222">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="P222">
         <v>0.85</v>
@@ -24538,7 +24549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:55">
+    <row r="223" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D223" t="s">
         <v>502</v>
       </c>
@@ -24633,7 +24644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:55">
+    <row r="224" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D224" t="s">
         <v>504</v>
       </c>
@@ -24656,10 +24667,10 @@
         <v>0</v>
       </c>
       <c r="N224">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O224">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="P224">
         <v>0.93</v>
@@ -24728,7 +24739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:55">
+    <row r="225" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D225" t="s">
         <v>506</v>
       </c>
@@ -24751,10 +24762,10 @@
         <v>0</v>
       </c>
       <c r="N225">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="O225">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="P225">
         <v>0.95</v>
@@ -24823,7 +24834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:55">
+    <row r="226" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D226" t="s">
         <v>508</v>
       </c>
@@ -24894,7 +24905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:55">
+    <row r="227" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D227" t="s">
         <v>512</v>
       </c>
@@ -24962,7 +24973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:55">
+    <row r="228" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D228" t="s">
         <v>515</v>
       </c>
@@ -25030,7 +25041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:55">
+    <row r="229" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D229" t="s">
         <v>518</v>
       </c>
@@ -25098,7 +25109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:55">
+    <row r="230" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D230" t="s">
         <v>520</v>
       </c>
@@ -25166,7 +25177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:55">
+    <row r="231" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D231" t="s">
         <v>522</v>
       </c>
@@ -25243,7 +25254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:55">
+    <row r="232" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D232" t="s">
         <v>525</v>
       </c>
@@ -25320,7 +25331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:55">
+    <row r="233" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D233" t="s">
         <v>528</v>
       </c>
@@ -25397,7 +25408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:55">
+    <row r="234" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D234" t="s">
         <v>531</v>
       </c>
@@ -25474,7 +25485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:55">
+    <row r="235" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D235" t="s">
         <v>534</v>
       </c>
@@ -25551,7 +25562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:55">
+    <row r="236" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D236" t="s">
         <v>537</v>
       </c>
@@ -25625,7 +25636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:55">
+    <row r="237" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D237" t="s">
         <v>540</v>
       </c>
@@ -25693,7 +25704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:55">
+    <row r="238" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D238" t="s">
         <v>542</v>
       </c>
@@ -25758,7 +25769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:55">
+    <row r="239" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D239" t="s">
         <v>545</v>
       </c>
@@ -25832,7 +25843,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="240" spans="1:55">
+    <row r="240" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D240" t="s">
         <v>548</v>
       </c>
@@ -25906,7 +25917,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="241" spans="1:55">
+    <row r="241" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D241" t="s">
         <v>550</v>
       </c>
@@ -25980,7 +25991,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="242" spans="1:55">
+    <row r="242" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D242" t="s">
         <v>552</v>
       </c>
@@ -26051,7 +26062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:55">
+    <row r="243" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D243" t="s">
         <v>554</v>
       </c>
@@ -26125,7 +26136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:55">
+    <row r="244" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D244" t="s">
         <v>557</v>
       </c>
@@ -26199,7 +26210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:55">
+    <row r="245" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D245" t="s">
         <v>560</v>
       </c>
@@ -26273,7 +26284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:55">
+    <row r="246" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D246" t="s">
         <v>562</v>
       </c>
@@ -26353,7 +26364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:55">
+    <row r="247" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D247" t="s">
         <v>565</v>
       </c>
@@ -26433,7 +26444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:55">
+    <row r="248" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D248" t="s">
         <v>568</v>
       </c>
@@ -26501,7 +26512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:55">
+    <row r="249" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D249" t="s">
         <v>571</v>
       </c>
@@ -26572,7 +26583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:55">
+    <row r="250" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D250" t="s">
         <v>573</v>
       </c>
@@ -26643,7 +26654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:55">
+    <row r="251" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D251" t="s">
         <v>575</v>
       </c>
@@ -26708,7 +26719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:55">
+    <row r="252" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D252" t="s">
         <v>578</v>
       </c>
@@ -26779,7 +26790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:55">
+    <row r="253" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D253" t="s">
         <v>580</v>
       </c>
@@ -26850,7 +26861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:55">
+    <row r="254" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D254" t="s">
         <v>582</v>
       </c>
@@ -26921,7 +26932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:55">
+    <row r="255" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D255" t="s">
         <v>584</v>
       </c>
@@ -26992,7 +27003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:55">
+    <row r="256" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D256" t="s">
         <v>586</v>
       </c>
@@ -27075,7 +27086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:55">
+    <row r="257" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D257" t="s">
         <v>588</v>
       </c>
@@ -27179,7 +27190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:55">
+    <row r="258" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D258" t="s">
         <v>590</v>
       </c>
@@ -27283,7 +27294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:55">
+    <row r="259" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D259" t="s">
         <v>592</v>
       </c>
@@ -27387,7 +27398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:55">
+    <row r="260" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D260" t="s">
         <v>594</v>
       </c>
@@ -27491,7 +27502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:55">
+    <row r="261" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D261" t="s">
         <v>596</v>
       </c>
@@ -27595,7 +27606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:55">
+    <row r="262" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D262" t="s">
         <v>598</v>
       </c>
@@ -27699,7 +27710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:55">
+    <row r="263" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D263" t="s">
         <v>600</v>
       </c>
@@ -27800,7 +27811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:55">
+    <row r="264" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D264" t="s">
         <v>602</v>
       </c>
@@ -27820,25 +27831,25 @@
         <v>1500</v>
       </c>
       <c r="Q264">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R264">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S264">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T264">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U264">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V264">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W264">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y264">
         <v>1</v>
@@ -27901,7 +27912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:55">
+    <row r="265" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D265" t="s">
         <v>604</v>
       </c>
@@ -28002,7 +28013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:55">
+    <row r="266" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D266" t="s">
         <v>606</v>
       </c>
@@ -28103,7 +28114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:55">
+    <row r="267" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D267" t="s">
         <v>608</v>
       </c>
@@ -28204,7 +28215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:55">
+    <row r="268" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D268" t="s">
         <v>610</v>
       </c>
@@ -28305,7 +28316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:55">
+    <row r="269" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D269" t="s">
         <v>612</v>
       </c>
@@ -28406,7 +28417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:55">
+    <row r="270" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D270" t="s">
         <v>614</v>
       </c>
@@ -28507,7 +28518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:55">
+    <row r="271" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D271" t="s">
         <v>616</v>
       </c>
@@ -28608,7 +28619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:55">
+    <row r="272" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D272" t="s">
         <v>618</v>
       </c>
@@ -28709,7 +28720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:55">
+    <row r="273" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D273" t="s">
         <v>620</v>
       </c>
@@ -28810,7 +28821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:55">
+    <row r="274" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D274" t="s">
         <v>622</v>
       </c>
@@ -28911,7 +28922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:55">
+    <row r="275" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D275" t="s">
         <v>624</v>
       </c>
@@ -29012,7 +29023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:55">
+    <row r="276" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D276" t="s">
         <v>626</v>
       </c>
@@ -29113,7 +29124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:55">
+    <row r="277" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D277" t="s">
         <v>628</v>
       </c>
@@ -29214,7 +29225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:55">
+    <row r="278" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D278" t="s">
         <v>630</v>
       </c>
@@ -29315,7 +29326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:55">
+    <row r="279" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D279" t="s">
         <v>632</v>
       </c>
@@ -29416,7 +29427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:55">
+    <row r="280" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D280" t="s">
         <v>634</v>
       </c>
@@ -29436,25 +29447,25 @@
         <v>25000000</v>
       </c>
       <c r="Q280">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R280">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S280">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="T280">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U280">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V280">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W280">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y280">
         <v>1</v>
@@ -29517,7 +29528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:55">
+    <row r="281" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D281" t="s">
         <v>636</v>
       </c>
@@ -29537,25 +29548,25 @@
         <v>40000000</v>
       </c>
       <c r="Q281">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R281">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S281">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T281">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U281">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V281">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W281">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y281">
         <v>1</v>
@@ -29618,7 +29629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:55">
+    <row r="282" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D282" t="s">
         <v>638</v>
       </c>
@@ -29719,7 +29730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:55">
+    <row r="283" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D283" t="s">
         <v>640</v>
       </c>
@@ -29820,7 +29831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:55">
+    <row r="284" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D284" t="s">
         <v>642</v>
       </c>
@@ -29921,7 +29932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:55">
+    <row r="285" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D285" t="s">
         <v>644</v>
       </c>
@@ -30022,7 +30033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:55">
+    <row r="286" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D286" t="s">
         <v>646</v>
       </c>
@@ -30123,7 +30134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:55">
+    <row r="287" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D287" t="s">
         <v>648</v>
       </c>
@@ -30224,7 +30235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:55">
+    <row r="288" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D288" t="s">
         <v>650</v>
       </c>
@@ -30328,7 +30339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:55">
+    <row r="289" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D289" t="s">
         <v>652</v>
       </c>
@@ -30438,7 +30449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:55">
+    <row r="290" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D290" t="s">
         <v>654</v>
       </c>
@@ -30548,7 +30559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:55">
+    <row r="291" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D291" t="s">
         <v>656</v>
       </c>
@@ -30658,7 +30669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:55">
+    <row r="292" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D292" t="s">
         <v>658</v>
       </c>
@@ -30768,7 +30779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:55">
+    <row r="293" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D293" t="s">
         <v>660</v>
       </c>
@@ -30872,7 +30883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:55">
+    <row r="294" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D294" t="s">
         <v>663</v>
       </c>
@@ -30976,7 +30987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:55">
+    <row r="295" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D295" t="s">
         <v>665</v>
       </c>
@@ -31080,7 +31091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:55">
+    <row r="296" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D296" t="s">
         <v>667</v>
       </c>
@@ -31184,7 +31195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:55">
+    <row r="297" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D297" t="s">
         <v>669</v>
       </c>
@@ -31288,7 +31299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:55">
+    <row r="298" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D298" t="s">
         <v>671</v>
       </c>
@@ -31392,7 +31403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:55">
+    <row r="299" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D299" t="s">
         <v>673</v>
       </c>
@@ -31496,7 +31507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:55">
+    <row r="300" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D300" t="s">
         <v>675</v>
       </c>
@@ -31516,25 +31527,25 @@
         <v>1000</v>
       </c>
       <c r="Q300">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R300">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S300">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T300">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U300">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V300">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W300">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y300">
         <v>1</v>
@@ -31597,7 +31608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:55">
+    <row r="301" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D301" t="s">
         <v>677</v>
       </c>
@@ -31698,7 +31709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:55">
+    <row r="302" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D302" t="s">
         <v>679</v>
       </c>
@@ -31799,7 +31810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:55">
+    <row r="303" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D303" t="s">
         <v>681</v>
       </c>
@@ -31900,7 +31911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:55">
+    <row r="304" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D304" t="s">
         <v>683</v>
       </c>
@@ -32001,7 +32012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:55">
+    <row r="305" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D305" t="s">
         <v>685</v>
       </c>
@@ -32102,7 +32113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:55">
+    <row r="306" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D306" t="s">
         <v>687</v>
       </c>
@@ -32203,7 +32214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:55">
+    <row r="307" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D307" t="s">
         <v>689</v>
       </c>
@@ -32304,7 +32315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:55">
+    <row r="308" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D308" t="s">
         <v>691</v>
       </c>
@@ -32405,7 +32416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:55">
+    <row r="309" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D309" t="s">
         <v>693</v>
       </c>
@@ -32506,7 +32517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:55">
+    <row r="310" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D310" t="s">
         <v>695</v>
       </c>
@@ -32607,7 +32618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:55">
+    <row r="311" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D311" t="s">
         <v>697</v>
       </c>
@@ -32708,7 +32719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:55">
+    <row r="312" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D312" t="s">
         <v>699</v>
       </c>
@@ -32809,7 +32820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:55">
+    <row r="313" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D313" t="s">
         <v>701</v>
       </c>
@@ -32910,7 +32921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:55">
+    <row r="314" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D314" t="s">
         <v>703</v>
       </c>
@@ -33011,7 +33022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:55">
+    <row r="315" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D315" t="s">
         <v>705</v>
       </c>
@@ -33112,7 +33123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:55">
+    <row r="316" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D316" t="s">
         <v>707</v>
       </c>
@@ -33132,25 +33143,25 @@
         <v>10000000</v>
       </c>
       <c r="Q316">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R316">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S316">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="T316">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U316">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V316">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W316">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y316">
         <v>1</v>
@@ -33213,7 +33224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:55">
+    <row r="317" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D317" t="s">
         <v>709</v>
       </c>
@@ -33233,25 +33244,25 @@
         <v>25000000</v>
       </c>
       <c r="Q317">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R317">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S317">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T317">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U317">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V317">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W317">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y317">
         <v>1</v>
@@ -33314,7 +33325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:55">
+    <row r="318" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D318" t="s">
         <v>711</v>
       </c>
@@ -33415,7 +33426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:55">
+    <row r="319" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D319" t="s">
         <v>713</v>
       </c>
@@ -33516,7 +33527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:55">
+    <row r="320" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D320" t="s">
         <v>715</v>
       </c>
@@ -33617,7 +33628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:55">
+    <row r="321" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D321" t="s">
         <v>717</v>
       </c>
@@ -33718,7 +33729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:55">
+    <row r="322" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D322" t="s">
         <v>719</v>
       </c>
@@ -33819,7 +33830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:55">
+    <row r="323" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D323" t="s">
         <v>721</v>
       </c>
@@ -33920,7 +33931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:55">
+    <row r="324" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D324" t="s">
         <v>723</v>
       </c>
@@ -34021,7 +34032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:55">
+    <row r="325" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D325" t="s">
         <v>725</v>
       </c>
@@ -34122,7 +34133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:55">
+    <row r="326" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D326" t="s">
         <v>727</v>
       </c>
@@ -34232,7 +34243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:55">
+    <row r="327" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D327" t="s">
         <v>729</v>
       </c>
@@ -34342,7 +34353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:55">
+    <row r="328" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D328" t="s">
         <v>731</v>
       </c>
@@ -34452,7 +34463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:55">
+    <row r="329" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D329" t="s">
         <v>733</v>
       </c>
@@ -34562,7 +34573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:55">
+    <row r="330" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D330" t="s">
         <v>735</v>
       </c>
@@ -34666,7 +34677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:55">
+    <row r="331" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D331" t="s">
         <v>738</v>
       </c>
@@ -34770,7 +34781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:55">
+    <row r="332" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D332" t="s">
         <v>740</v>
       </c>
@@ -34874,7 +34885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:55">
+    <row r="333" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D333" t="s">
         <v>742</v>
       </c>
@@ -34978,7 +34989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:55">
+    <row r="334" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D334" t="s">
         <v>744</v>
       </c>
@@ -35082,7 +35093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:55">
+    <row r="335" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D335" t="s">
         <v>746</v>
       </c>
@@ -35186,7 +35197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:55">
+    <row r="336" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D336" t="s">
         <v>748</v>
       </c>
@@ -35293,7 +35304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:55">
+    <row r="337" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D337" t="s">
         <v>750</v>
       </c>
@@ -35313,25 +35324,25 @@
         <v>1000</v>
       </c>
       <c r="Q337">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R337">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S337">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T337">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U337">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V337">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W337">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y337">
         <v>1</v>
@@ -35394,7 +35405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:55">
+    <row r="338" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D338" t="s">
         <v>752</v>
       </c>
@@ -35495,7 +35506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:55">
+    <row r="339" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D339" t="s">
         <v>754</v>
       </c>
@@ -35596,7 +35607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:55">
+    <row r="340" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D340" t="s">
         <v>756</v>
       </c>
@@ -35697,7 +35708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:55">
+    <row r="341" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D341" t="s">
         <v>758</v>
       </c>
@@ -35798,7 +35809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:55">
+    <row r="342" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D342" t="s">
         <v>760</v>
       </c>
@@ -35899,7 +35910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:55">
+    <row r="343" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D343" t="s">
         <v>762</v>
       </c>
@@ -36000,7 +36011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:55">
+    <row r="344" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D344" t="s">
         <v>764</v>
       </c>
@@ -36101,7 +36112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:55">
+    <row r="345" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D345" t="s">
         <v>766</v>
       </c>
@@ -36202,7 +36213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:55">
+    <row r="346" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D346" t="s">
         <v>768</v>
       </c>
@@ -36303,7 +36314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:55">
+    <row r="347" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D347" t="s">
         <v>770</v>
       </c>
@@ -36404,7 +36415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:55">
+    <row r="348" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D348" t="s">
         <v>772</v>
       </c>
@@ -36505,7 +36516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:55">
+    <row r="349" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D349" t="s">
         <v>774</v>
       </c>
@@ -36606,7 +36617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:55">
+    <row r="350" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D350" t="s">
         <v>776</v>
       </c>
@@ -36707,7 +36718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:55">
+    <row r="351" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D351" t="s">
         <v>778</v>
       </c>
@@ -36808,7 +36819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:55">
+    <row r="352" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D352" t="s">
         <v>780</v>
       </c>
@@ -36909,7 +36920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:55">
+    <row r="353" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D353" t="s">
         <v>782</v>
       </c>
@@ -36929,25 +36940,25 @@
         <v>25000000</v>
       </c>
       <c r="Q353">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R353">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S353">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="T353">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U353">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V353">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W353">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y353">
         <v>1</v>
@@ -37010,7 +37021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:55">
+    <row r="354" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D354" t="s">
         <v>784</v>
       </c>
@@ -37111,7 +37122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:55">
+    <row r="355" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D355" t="s">
         <v>785</v>
       </c>
@@ -37212,7 +37223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:55">
+    <row r="356" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D356" t="s">
         <v>787</v>
       </c>
@@ -37313,7 +37324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:55">
+    <row r="357" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D357" t="s">
         <v>789</v>
       </c>
@@ -37414,7 +37425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:55">
+    <row r="358" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D358" t="s">
         <v>791</v>
       </c>
@@ -37515,7 +37526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:55">
+    <row r="359" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D359" t="s">
         <v>793</v>
       </c>
@@ -37616,7 +37627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:55">
+    <row r="360" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D360" t="s">
         <v>795</v>
       </c>
@@ -37717,7 +37728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:55">
+    <row r="361" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D361" t="s">
         <v>797</v>
       </c>
@@ -37818,7 +37829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:55">
+    <row r="362" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D362" t="s">
         <v>799</v>
       </c>
@@ -37919,7 +37930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:55">
+    <row r="363" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D363" t="s">
         <v>801</v>
       </c>
@@ -38029,7 +38040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:55">
+    <row r="364" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D364" t="s">
         <v>803</v>
       </c>
@@ -38139,7 +38150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:55">
+    <row r="365" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D365" t="s">
         <v>805</v>
       </c>
@@ -38249,7 +38260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:55">
+    <row r="366" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D366" t="s">
         <v>807</v>
       </c>
@@ -38359,7 +38370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:55">
+    <row r="367" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D367" t="s">
         <v>809</v>
       </c>
@@ -38463,7 +38474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:55">
+    <row r="368" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D368" t="s">
         <v>812</v>
       </c>
@@ -38567,7 +38578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:55">
+    <row r="369" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D369" t="s">
         <v>814</v>
       </c>
@@ -38671,7 +38682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:55">
+    <row r="370" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D370" t="s">
         <v>816</v>
       </c>
@@ -38775,7 +38786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:55">
+    <row r="371" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D371" t="s">
         <v>818</v>
       </c>
@@ -38879,7 +38890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:55">
+    <row r="372" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D372" t="s">
         <v>820</v>
       </c>
@@ -38983,7 +38994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:55">
+    <row r="373" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D373" t="s">
         <v>822</v>
       </c>
@@ -39087,7 +39098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:55">
+    <row r="374" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D374" t="s">
         <v>824</v>
       </c>
@@ -39107,25 +39118,25 @@
         <v>1000</v>
       </c>
       <c r="Q374">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R374">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S374">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T374">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U374">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V374">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W374">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y374">
         <v>1</v>
@@ -39188,7 +39199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:55">
+    <row r="375" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D375" t="s">
         <v>826</v>
       </c>
@@ -39289,7 +39300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:55">
+    <row r="376" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D376" t="s">
         <v>828</v>
       </c>
@@ -39390,7 +39401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:55">
+    <row r="377" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D377" t="s">
         <v>830</v>
       </c>
@@ -39491,7 +39502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:55">
+    <row r="378" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D378" t="s">
         <v>832</v>
       </c>
@@ -39592,7 +39603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:55">
+    <row r="379" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D379" t="s">
         <v>834</v>
       </c>
@@ -39693,7 +39704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:55">
+    <row r="380" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D380" t="s">
         <v>836</v>
       </c>
@@ -39794,7 +39805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:55">
+    <row r="381" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D381" t="s">
         <v>838</v>
       </c>
@@ -39895,7 +39906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:55">
+    <row r="382" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D382" t="s">
         <v>840</v>
       </c>
@@ -39996,7 +40007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:55">
+    <row r="383" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D383" t="s">
         <v>842</v>
       </c>
@@ -40097,7 +40108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:55">
+    <row r="384" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D384" t="s">
         <v>844</v>
       </c>
@@ -40198,7 +40209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:55">
+    <row r="385" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D385" t="s">
         <v>846</v>
       </c>
@@ -40299,7 +40310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:55">
+    <row r="386" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D386" t="s">
         <v>848</v>
       </c>
@@ -40400,7 +40411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:55">
+    <row r="387" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D387" t="s">
         <v>850</v>
       </c>
@@ -40501,7 +40512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:55">
+    <row r="388" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D388" t="s">
         <v>852</v>
       </c>
@@ -40602,7 +40613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:55">
+    <row r="389" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D389" t="s">
         <v>854</v>
       </c>
@@ -40703,7 +40714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:55">
+    <row r="390" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D390" t="s">
         <v>856</v>
       </c>
@@ -40723,25 +40734,25 @@
         <v>10000000</v>
       </c>
       <c r="Q390">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R390">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S390">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="T390">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U390">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V390">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W390">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y390">
         <v>1</v>
@@ -40804,7 +40815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:55">
+    <row r="391" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D391" t="s">
         <v>858</v>
       </c>
@@ -40824,25 +40835,25 @@
         <v>25000000</v>
       </c>
       <c r="Q391">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R391">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S391">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T391">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U391">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V391">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W391">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y391">
         <v>1</v>
@@ -40905,7 +40916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:55">
+    <row r="392" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D392" t="s">
         <v>860</v>
       </c>
@@ -41006,7 +41017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:55">
+    <row r="393" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D393" t="s">
         <v>862</v>
       </c>
@@ -41107,7 +41118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:55">
+    <row r="394" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D394" t="s">
         <v>864</v>
       </c>
@@ -41208,7 +41219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:55">
+    <row r="395" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D395" t="s">
         <v>866</v>
       </c>
@@ -41309,7 +41320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:55">
+    <row r="396" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D396" t="s">
         <v>868</v>
       </c>
@@ -41410,7 +41421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:55">
+    <row r="397" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D397" t="s">
         <v>870</v>
       </c>
@@ -41511,7 +41522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:55">
+    <row r="398" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D398" t="s">
         <v>872</v>
       </c>
@@ -41612,7 +41623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:55">
+    <row r="399" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D399" t="s">
         <v>874</v>
       </c>
@@ -41713,7 +41724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:55">
+    <row r="400" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D400" t="s">
         <v>876</v>
       </c>
@@ -41823,7 +41834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:55">
+    <row r="401" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D401" t="s">
         <v>878</v>
       </c>
@@ -41933,7 +41944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:55">
+    <row r="402" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D402" t="s">
         <v>880</v>
       </c>
@@ -42043,7 +42054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:55">
+    <row r="403" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D403" t="s">
         <v>882</v>
       </c>
@@ -42153,7 +42164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:55">
+    <row r="404" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D404" t="s">
         <v>884</v>
       </c>
@@ -42263,7 +42274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:55">
+    <row r="405" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D405" t="s">
         <v>887</v>
       </c>
@@ -42310,7 +42321,7 @@
         <v>56</v>
       </c>
       <c r="AF405">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AG405">
         <v>0</v>
@@ -42319,7 +42330,7 @@
         <v>0</v>
       </c>
       <c r="AI405">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="AJ405">
         <v>0</v>
@@ -42358,7 +42369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:55">
+    <row r="406" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D406" t="s">
         <v>889</v>
       </c>
@@ -42405,7 +42416,7 @@
         <v>56</v>
       </c>
       <c r="AF406">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG406">
         <v>0</v>
@@ -42414,7 +42425,7 @@
         <v>0</v>
       </c>
       <c r="AI406">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="AJ406">
         <v>0</v>
@@ -42453,7 +42464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:55">
+    <row r="407" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D407" t="s">
         <v>891</v>
       </c>
@@ -42500,7 +42511,7 @@
         <v>56</v>
       </c>
       <c r="AF407">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AG407">
         <v>0</v>
@@ -42509,7 +42520,7 @@
         <v>0</v>
       </c>
       <c r="AI407">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AJ407">
         <v>0</v>
@@ -42548,7 +42559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:55">
+    <row r="408" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D408" t="s">
         <v>893</v>
       </c>
@@ -42595,7 +42606,7 @@
         <v>56</v>
       </c>
       <c r="AF408">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AG408">
         <v>0</v>
@@ -42604,7 +42615,7 @@
         <v>0</v>
       </c>
       <c r="AI408">
-        <v>0.0009</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="AJ408">
         <v>0</v>
@@ -42643,7 +42654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:55">
+    <row r="409" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D409" t="s">
         <v>895</v>
       </c>
@@ -42690,7 +42701,7 @@
         <v>56</v>
       </c>
       <c r="AF409">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AG409">
         <v>0</v>
@@ -42699,7 +42710,7 @@
         <v>0</v>
       </c>
       <c r="AI409">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AJ409">
         <v>0</v>
@@ -42738,7 +42749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:55">
+    <row r="410" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D410" t="s">
         <v>897</v>
       </c>
@@ -42788,7 +42799,7 @@
         <v>0</v>
       </c>
       <c r="AI410">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AJ410">
         <v>0</v>
@@ -42827,7 +42838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:55">
+    <row r="411" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D411" t="s">
         <v>899</v>
       </c>
@@ -42865,7 +42876,7 @@
         <v>56</v>
       </c>
       <c r="AF411">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AG411">
         <v>0</v>
@@ -42874,7 +42885,7 @@
         <v>0</v>
       </c>
       <c r="AI411">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AJ411">
         <v>0</v>
@@ -42913,7 +42924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:55">
+    <row r="412" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D412" t="s">
         <v>901</v>
       </c>
@@ -42951,7 +42962,7 @@
         <v>56</v>
       </c>
       <c r="AF412">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG412">
         <v>0</v>
@@ -42960,7 +42971,7 @@
         <v>0</v>
       </c>
       <c r="AI412">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AJ412">
         <v>0</v>
@@ -42999,7 +43010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:55">
+    <row r="413" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D413" t="s">
         <v>903</v>
       </c>
@@ -43037,7 +43048,7 @@
         <v>56</v>
       </c>
       <c r="AF413">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AG413">
         <v>0</v>
@@ -43046,7 +43057,7 @@
         <v>0</v>
       </c>
       <c r="AI413">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AJ413">
         <v>0</v>
@@ -43085,7 +43096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:55">
+    <row r="414" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D414" t="s">
         <v>905</v>
       </c>
@@ -43123,7 +43134,7 @@
         <v>56</v>
       </c>
       <c r="AF414">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG414">
         <v>0</v>
@@ -43132,7 +43143,7 @@
         <v>0</v>
       </c>
       <c r="AI414">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AJ414">
         <v>0</v>
@@ -43171,7 +43182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:55">
+    <row r="415" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D415" t="s">
         <v>907</v>
       </c>
@@ -43191,10 +43202,10 @@
         <v>7000</v>
       </c>
       <c r="S415">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V415">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Y415">
         <v>1</v>
@@ -43209,7 +43220,7 @@
         <v>56</v>
       </c>
       <c r="AF415">
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AG415">
         <v>0</v>
@@ -43218,7 +43229,7 @@
         <v>0</v>
       </c>
       <c r="AI415">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AJ415">
         <v>0</v>
@@ -43257,7 +43268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:55">
+    <row r="416" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D416" t="s">
         <v>909</v>
       </c>
@@ -43295,7 +43306,7 @@
         <v>56</v>
       </c>
       <c r="AF416">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AG416">
         <v>0</v>
@@ -43304,7 +43315,7 @@
         <v>0</v>
       </c>
       <c r="AI416">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AJ416">
         <v>0</v>
@@ -43343,7 +43354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:55">
+    <row r="417" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D417" t="s">
         <v>911</v>
       </c>
@@ -43381,7 +43392,7 @@
         <v>56</v>
       </c>
       <c r="AF417">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AG417">
         <v>0</v>
@@ -43390,7 +43401,7 @@
         <v>0</v>
       </c>
       <c r="AI417">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AJ417">
         <v>0</v>
@@ -43429,7 +43440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:55">
+    <row r="418" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D418" t="s">
         <v>913</v>
       </c>
@@ -43467,7 +43478,7 @@
         <v>56</v>
       </c>
       <c r="AF418">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AG418">
         <v>0</v>
@@ -43515,7 +43526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:55">
+    <row r="419" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D419" t="s">
         <v>915</v>
       </c>
@@ -43553,7 +43564,7 @@
         <v>56</v>
       </c>
       <c r="AF419">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AG419">
         <v>0</v>
@@ -43562,7 +43573,7 @@
         <v>0</v>
       </c>
       <c r="AI419">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AJ419">
         <v>0</v>
@@ -43601,7 +43612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:55">
+    <row r="420" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D420" t="s">
         <v>917</v>
       </c>
@@ -43648,7 +43659,7 @@
         <v>0</v>
       </c>
       <c r="AI420">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AJ420">
         <v>0</v>
@@ -43687,7 +43698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:55">
+    <row r="421" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D421" t="s">
         <v>919</v>
       </c>
@@ -43725,7 +43736,7 @@
         <v>56</v>
       </c>
       <c r="AF421">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AG421">
         <v>0</v>
@@ -43734,7 +43745,7 @@
         <v>0</v>
       </c>
       <c r="AI421">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AJ421">
         <v>0</v>
@@ -43773,7 +43784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:55">
+    <row r="422" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D422" t="s">
         <v>921</v>
       </c>
@@ -43811,7 +43822,7 @@
         <v>56</v>
       </c>
       <c r="AF422">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AG422">
         <v>0</v>
@@ -43820,7 +43831,7 @@
         <v>0</v>
       </c>
       <c r="AI422">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AJ422">
         <v>0</v>
@@ -43859,7 +43870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:55">
+    <row r="423" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D423" t="s">
         <v>923</v>
       </c>
@@ -43897,7 +43908,7 @@
         <v>56</v>
       </c>
       <c r="AF423">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AG423">
         <v>0</v>
@@ -43945,7 +43956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:55">
+    <row r="424" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D424" t="s">
         <v>925</v>
       </c>
@@ -43983,7 +43994,7 @@
         <v>56</v>
       </c>
       <c r="AF424">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="AG424">
         <v>0</v>
@@ -43992,7 +44003,7 @@
         <v>0</v>
       </c>
       <c r="AI424">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AJ424">
         <v>0</v>
@@ -44031,7 +44042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:55">
+    <row r="425" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D425" t="s">
         <v>927</v>
       </c>
@@ -44069,7 +44080,7 @@
         <v>56</v>
       </c>
       <c r="AF425">
-        <v>0.083</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AG425">
         <v>0</v>
@@ -44078,7 +44089,7 @@
         <v>0</v>
       </c>
       <c r="AI425">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AJ425">
         <v>0</v>
@@ -44117,7 +44128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:55">
+    <row r="426" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D426" t="s">
         <v>929</v>
       </c>
@@ -44137,10 +44148,10 @@
         <v>1000000</v>
       </c>
       <c r="S426">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V426">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y426">
         <v>1</v>
@@ -44155,7 +44166,7 @@
         <v>56</v>
       </c>
       <c r="AF426">
-        <v>0.088</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="AG426">
         <v>0</v>
@@ -44164,7 +44175,7 @@
         <v>0</v>
       </c>
       <c r="AI426">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AJ426">
         <v>0</v>
@@ -44203,7 +44214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:55">
+    <row r="427" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D427" t="s">
         <v>931</v>
       </c>
@@ -44223,10 +44234,10 @@
         <v>10000000</v>
       </c>
       <c r="S427">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V427">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y427">
         <v>1</v>
@@ -44241,7 +44252,7 @@
         <v>56</v>
       </c>
       <c r="AF427">
-        <v>0.096</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="AG427">
         <v>0</v>
@@ -44250,7 +44261,7 @@
         <v>0</v>
       </c>
       <c r="AI427">
-        <v>0.029</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AJ427">
         <v>0</v>
@@ -44289,7 +44300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:55">
+    <row r="428" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D428" t="s">
         <v>932</v>
       </c>
@@ -44375,7 +44386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:55">
+    <row r="429" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D429" t="s">
         <v>934</v>
       </c>
@@ -44422,7 +44433,7 @@
         <v>0</v>
       </c>
       <c r="AI429">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AJ429">
         <v>0</v>
@@ -44461,7 +44472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:55">
+    <row r="430" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D430" t="s">
         <v>936</v>
       </c>
@@ -44508,7 +44519,7 @@
         <v>0</v>
       </c>
       <c r="AI430">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AJ430">
         <v>0</v>
@@ -44547,7 +44558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:55">
+    <row r="431" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D431" t="s">
         <v>938</v>
       </c>
@@ -44594,7 +44605,7 @@
         <v>0</v>
       </c>
       <c r="AI431">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AJ431">
         <v>0</v>
@@ -44633,7 +44644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:55">
+    <row r="432" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D432" t="s">
         <v>940</v>
       </c>
@@ -44680,7 +44691,7 @@
         <v>0</v>
       </c>
       <c r="AI432">
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AJ432">
         <v>0</v>
@@ -44719,7 +44730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:55">
+    <row r="433" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D433" t="s">
         <v>942</v>
       </c>
@@ -44805,7 +44816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:55">
+    <row r="434" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D434" t="s">
         <v>944</v>
       </c>
@@ -44852,7 +44863,7 @@
         <v>0</v>
       </c>
       <c r="AI434">
-        <v>0.041</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AJ434">
         <v>0</v>
@@ -44891,7 +44902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:55">
+    <row r="435" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D435" t="s">
         <v>946</v>
       </c>
@@ -44938,7 +44949,7 @@
         <v>0</v>
       </c>
       <c r="AI435">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AJ435">
         <v>0</v>
@@ -44977,7 +44988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:55">
+    <row r="436" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D436" t="s">
         <v>948</v>
       </c>
@@ -45024,7 +45035,7 @@
         <v>0</v>
       </c>
       <c r="AI436">
-        <v>0.044</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AJ436">
         <v>0</v>
@@ -45063,7 +45074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:55">
+    <row r="437" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D437" t="s">
         <v>950</v>
       </c>
@@ -45116,7 +45127,7 @@
         <v>0</v>
       </c>
       <c r="AI437">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AJ437">
         <v>0</v>
@@ -45158,7 +45169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:55">
+    <row r="438" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D438" t="s">
         <v>952</v>
       </c>
@@ -45202,7 +45213,7 @@
         <v>56</v>
       </c>
       <c r="AF438">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AG438">
         <v>0</v>
@@ -45253,7 +45264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:55">
+    <row r="439" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D439" t="s">
         <v>954</v>
       </c>
@@ -45279,10 +45290,10 @@
         <v>0</v>
       </c>
       <c r="S439">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V439">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y439">
         <v>1</v>
@@ -45297,7 +45308,7 @@
         <v>56</v>
       </c>
       <c r="AF439">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AG439">
         <v>0</v>
@@ -45306,7 +45317,7 @@
         <v>0</v>
       </c>
       <c r="AI439">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="AJ439">
         <v>0</v>
@@ -45348,7 +45359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:55">
+    <row r="440" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D440" t="s">
         <v>956</v>
       </c>
@@ -45374,10 +45385,10 @@
         <v>0</v>
       </c>
       <c r="S440">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="V440">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Y440">
         <v>1</v>
@@ -45401,7 +45412,7 @@
         <v>0</v>
       </c>
       <c r="AI440">
-        <v>0.054</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="AJ440">
         <v>0</v>
@@ -45443,7 +45454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:55">
+    <row r="441" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D441" t="s">
         <v>958</v>
       </c>
@@ -45547,7 +45558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:55">
+    <row r="442" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D442" t="s">
         <v>961</v>
       </c>
@@ -45651,7 +45662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:55">
+    <row r="443" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D443" t="s">
         <v>963</v>
       </c>
@@ -45755,7 +45766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:55">
+    <row r="444" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D444" t="s">
         <v>965</v>
       </c>
@@ -45859,7 +45870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:55">
+    <row r="445" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D445" t="s">
         <v>967</v>
       </c>
@@ -45963,7 +45974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:55">
+    <row r="446" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D446" t="s">
         <v>969</v>
       </c>
@@ -46067,7 +46078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:55">
+    <row r="447" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D447" t="s">
         <v>971</v>
       </c>
@@ -46171,7 +46182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:55">
+    <row r="448" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D448" t="s">
         <v>973</v>
       </c>
@@ -46191,25 +46202,25 @@
         <v>1000</v>
       </c>
       <c r="Q448">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R448">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S448">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T448">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U448">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V448">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W448">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y448">
         <v>1</v>
@@ -46272,7 +46283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:55">
+    <row r="449" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D449" t="s">
         <v>975</v>
       </c>
@@ -46373,7 +46384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:55">
+    <row r="450" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D450" t="s">
         <v>977</v>
       </c>
@@ -46474,7 +46485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:55">
+    <row r="451" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D451" t="s">
         <v>979</v>
       </c>
@@ -46575,7 +46586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:55">
+    <row r="452" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D452" t="s">
         <v>981</v>
       </c>
@@ -46676,7 +46687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:55">
+    <row r="453" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D453" t="s">
         <v>983</v>
       </c>
@@ -46777,7 +46788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:55">
+    <row r="454" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D454" t="s">
         <v>985</v>
       </c>
@@ -46878,7 +46889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:55">
+    <row r="455" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D455" t="s">
         <v>987</v>
       </c>
@@ -46979,7 +46990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:55">
+    <row r="456" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D456" t="s">
         <v>989</v>
       </c>
@@ -47080,7 +47091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:55">
+    <row r="457" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D457" t="s">
         <v>991</v>
       </c>
@@ -47181,7 +47192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:55">
+    <row r="458" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D458" t="s">
         <v>993</v>
       </c>
@@ -47282,7 +47293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:55">
+    <row r="459" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D459" t="s">
         <v>995</v>
       </c>
@@ -47383,7 +47394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:55">
+    <row r="460" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D460" t="s">
         <v>997</v>
       </c>
@@ -47484,7 +47495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:55">
+    <row r="461" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D461" t="s">
         <v>999</v>
       </c>
@@ -47585,7 +47596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:55">
+    <row r="462" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D462" t="s">
         <v>1001</v>
       </c>
@@ -47686,7 +47697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:55">
+    <row r="463" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D463" t="s">
         <v>1003</v>
       </c>
@@ -47787,7 +47798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:55">
+    <row r="464" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D464" t="s">
         <v>1005</v>
       </c>
@@ -47807,25 +47818,25 @@
         <v>10000000</v>
       </c>
       <c r="Q464">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R464">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S464">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="T464">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U464">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V464">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W464">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y464">
         <v>1</v>
@@ -47888,7 +47899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:55">
+    <row r="465" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D465" t="s">
         <v>1007</v>
       </c>
@@ -47908,25 +47919,25 @@
         <v>25000000</v>
       </c>
       <c r="Q465">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R465">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S465">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T465">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U465">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V465">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W465">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y465">
         <v>1</v>
@@ -47989,7 +48000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:55">
+    <row r="466" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D466" t="s">
         <v>1009</v>
       </c>
@@ -48090,7 +48101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:55">
+    <row r="467" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D467" t="s">
         <v>1011</v>
       </c>
@@ -48191,7 +48202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:55">
+    <row r="468" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D468" t="s">
         <v>1013</v>
       </c>
@@ -48292,7 +48303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:55">
+    <row r="469" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D469" t="s">
         <v>1015</v>
       </c>
@@ -48393,7 +48404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:55">
+    <row r="470" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D470" t="s">
         <v>1017</v>
       </c>
@@ -48494,7 +48505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:55">
+    <row r="471" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D471" t="s">
         <v>1019</v>
       </c>
@@ -48595,7 +48606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:55">
+    <row r="472" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D472" t="s">
         <v>1021</v>
       </c>
@@ -48696,7 +48707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:55">
+    <row r="473" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D473" t="s">
         <v>1023</v>
       </c>
@@ -48797,7 +48808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:55">
+    <row r="474" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D474" t="s">
         <v>1025</v>
       </c>
@@ -48907,7 +48918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:55">
+    <row r="475" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D475" t="s">
         <v>1027</v>
       </c>
@@ -49017,7 +49028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:55">
+    <row r="476" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D476" t="s">
         <v>1029</v>
       </c>
@@ -49127,7 +49138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:55">
+    <row r="477" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D477" t="s">
         <v>1031</v>
       </c>
@@ -49237,7 +49248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:55">
+    <row r="478" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D478" t="s">
         <v>1033</v>
       </c>
@@ -49338,7 +49349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:55">
+    <row r="479" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D479" t="s">
         <v>1036</v>
       </c>
@@ -49379,7 +49390,7 @@
         <v>1038</v>
       </c>
       <c r="AF479">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AG479">
         <v>0</v>
@@ -49430,7 +49441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:55">
+    <row r="480" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D480" t="s">
         <v>1039</v>
       </c>
@@ -49471,10 +49482,10 @@
         <v>1041</v>
       </c>
       <c r="AF480">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AG480">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AH480">
         <v>0</v>
@@ -49522,7 +49533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:55">
+    <row r="481" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D481" t="s">
         <v>1042</v>
       </c>
@@ -49563,13 +49574,13 @@
         <v>1044</v>
       </c>
       <c r="AF481">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AG481">
         <v>0</v>
       </c>
       <c r="AH481">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AI481">
         <v>0</v>
@@ -49614,7 +49625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:55">
+    <row r="482" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D482" t="s">
         <v>1045</v>
       </c>
@@ -49655,7 +49666,7 @@
         <v>1047</v>
       </c>
       <c r="AF482">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AG482">
         <v>0</v>
@@ -49664,7 +49675,7 @@
         <v>0</v>
       </c>
       <c r="AI482">
-        <v>0.0004</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="AJ482">
         <v>0</v>
@@ -49706,7 +49717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:55">
+    <row r="483" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D483" t="s">
         <v>1048</v>
       </c>
@@ -49750,10 +49761,10 @@
         <v>1050</v>
       </c>
       <c r="AF483">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AG483">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AH483">
         <v>0</v>
@@ -49801,7 +49812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:55">
+    <row r="484" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D484" t="s">
         <v>1051</v>
       </c>
@@ -49842,7 +49853,7 @@
         <v>1053</v>
       </c>
       <c r="AF484">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AG484">
         <v>0</v>
@@ -49851,7 +49862,7 @@
         <v>0</v>
       </c>
       <c r="AI484">
-        <v>0.0004</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="AJ484">
         <v>0</v>
@@ -49893,7 +49904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:55">
+    <row r="485" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D485" t="s">
         <v>1054</v>
       </c>
@@ -49979,7 +49990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:55">
+    <row r="486" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D486" t="s">
         <v>1056</v>
       </c>
@@ -50065,7 +50076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:55">
+    <row r="487" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D487" t="s">
         <v>1058</v>
       </c>
@@ -50145,7 +50156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:55">
+    <row r="488" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D488" t="s">
         <v>1060</v>
       </c>
@@ -50225,7 +50236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:55">
+    <row r="489" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D489" t="s">
         <v>1062</v>
       </c>
@@ -50305,7 +50316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:55">
+    <row r="490" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D490" t="s">
         <v>1064</v>
       </c>
@@ -50385,7 +50396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:55">
+    <row r="491" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D491" t="s">
         <v>1066</v>
       </c>
@@ -50465,7 +50476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:55">
+    <row r="492" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D492" t="s">
         <v>1068</v>
       </c>
@@ -50551,7 +50562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:55">
+    <row r="493" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D493" t="s">
         <v>1071</v>
       </c>
@@ -50637,7 +50648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:55">
+    <row r="494" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D494" t="s">
         <v>1074</v>
       </c>
@@ -50723,7 +50734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:55">
+    <row r="495" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D495" t="s">
         <v>1077</v>
       </c>
@@ -50761,7 +50772,7 @@
         <v>1053</v>
       </c>
       <c r="AF495">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG495">
         <v>0</v>
@@ -50770,7 +50781,7 @@
         <v>0</v>
       </c>
       <c r="AI495">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AJ495">
         <v>0</v>
@@ -50812,7 +50823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:55">
+    <row r="496" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D496" t="s">
         <v>1079</v>
       </c>
@@ -50853,10 +50864,10 @@
         <v>1050</v>
       </c>
       <c r="AF496">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG496">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AH496">
         <v>0</v>
@@ -50904,7 +50915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:55">
+    <row r="497" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D497" t="s">
         <v>1081</v>
       </c>
@@ -50942,7 +50953,7 @@
         <v>1047</v>
       </c>
       <c r="AF497">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG497">
         <v>0</v>
@@ -50951,7 +50962,7 @@
         <v>0</v>
       </c>
       <c r="AI497">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AJ497">
         <v>0</v>
@@ -50993,7 +51004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:55">
+    <row r="498" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D498" t="s">
         <v>1083</v>
       </c>
@@ -51031,13 +51042,13 @@
         <v>1044</v>
       </c>
       <c r="AF498">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG498">
         <v>0</v>
       </c>
       <c r="AH498">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AI498">
         <v>0</v>
@@ -51082,7 +51093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:55">
+    <row r="499" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D499" t="s">
         <v>1085</v>
       </c>
@@ -51120,10 +51131,10 @@
         <v>1041</v>
       </c>
       <c r="AF499">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG499">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AH499">
         <v>0</v>
@@ -51171,7 +51182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:55">
+    <row r="500" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D500" t="s">
         <v>1087</v>
       </c>
@@ -51209,7 +51220,7 @@
         <v>1038</v>
       </c>
       <c r="AF500">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG500">
         <v>0</v>
@@ -51260,7 +51271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:55">
+    <row r="501" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D501" t="s">
         <v>1089</v>
       </c>
@@ -51346,7 +51357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:55">
+    <row r="502" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D502" t="s">
         <v>1091</v>
       </c>
@@ -51432,7 +51443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:55">
+    <row r="503" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D503" t="s">
         <v>1093</v>
       </c>
@@ -51518,7 +51529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:55">
+    <row r="504" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D504" t="s">
         <v>1095</v>
       </c>
@@ -51604,7 +51615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:55">
+    <row r="505" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D505" t="s">
         <v>1097</v>
       </c>
@@ -51690,7 +51701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:55">
+    <row r="506" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D506" t="s">
         <v>1099</v>
       </c>
@@ -51776,7 +51787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:55">
+    <row r="507" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D507" t="s">
         <v>1101</v>
       </c>
@@ -51874,7 +51885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:55">
+    <row r="508" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D508" t="s">
         <v>1103</v>
       </c>
@@ -51921,7 +51932,7 @@
         <v>0</v>
       </c>
       <c r="AI508">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AJ508">
         <v>0</v>
@@ -51963,7 +51974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:55">
+    <row r="509" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D509" t="s">
         <v>1105</v>
       </c>
@@ -52055,7 +52066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:55">
+    <row r="510" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D510" t="s">
         <v>1107</v>
       </c>
@@ -52102,7 +52113,7 @@
         <v>0</v>
       </c>
       <c r="AI510">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AJ510">
         <v>0</v>
@@ -52144,7 +52155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:55">
+    <row r="511" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D511" t="s">
         <v>1109</v>
       </c>
@@ -52233,7 +52244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:55">
+    <row r="512" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D512" t="s">
         <v>1111</v>
       </c>
@@ -52322,7 +52333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:55">
+    <row r="513" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D513" t="s">
         <v>1113</v>
       </c>
@@ -52411,7 +52422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:55">
+    <row r="514" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D514" t="s">
         <v>1115</v>
       </c>
@@ -52497,7 +52508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:55">
+    <row r="515" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D515" t="s">
         <v>1117</v>
       </c>
@@ -52583,7 +52594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:55">
+    <row r="516" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D516" t="s">
         <v>1119</v>
       </c>
@@ -52663,7 +52674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:55">
+    <row r="517" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D517" t="s">
         <v>1121</v>
       </c>
@@ -52743,7 +52754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:55">
+    <row r="518" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D518" t="s">
         <v>1123</v>
       </c>
@@ -52823,7 +52834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:55">
+    <row r="519" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D519" t="s">
         <v>1125</v>
       </c>
@@ -52903,7 +52914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:55">
+    <row r="520" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D520" t="s">
         <v>1127</v>
       </c>
@@ -52983,7 +52994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:55">
+    <row r="521" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D521" t="s">
         <v>1129</v>
       </c>
@@ -53069,7 +53080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:55">
+    <row r="522" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D522" t="s">
         <v>1131</v>
       </c>
@@ -53155,7 +53166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:55">
+    <row r="523" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D523" t="s">
         <v>1133</v>
       </c>
@@ -53241,7 +53252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:55">
+    <row r="524" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D524" t="s">
         <v>1135</v>
       </c>
@@ -53288,7 +53299,7 @@
         <v>0</v>
       </c>
       <c r="AI524">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AJ524">
         <v>0</v>
@@ -53330,7 +53341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:55">
+    <row r="525" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D525" t="s">
         <v>1137</v>
       </c>
@@ -53422,7 +53433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:55">
+    <row r="526" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D526" t="s">
         <v>1139</v>
       </c>
@@ -53469,7 +53480,7 @@
         <v>0</v>
       </c>
       <c r="AI526">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AJ526">
         <v>0</v>
@@ -53511,7 +53522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:55">
+    <row r="527" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D527" t="s">
         <v>1141</v>
       </c>
@@ -53600,7 +53611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:55">
+    <row r="528" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D528" t="s">
         <v>1143</v>
       </c>
@@ -53689,7 +53700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:55">
+    <row r="529" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D529" t="s">
         <v>1145</v>
       </c>
@@ -53778,7 +53789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:55">
+    <row r="530" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D530" t="s">
         <v>1147</v>
       </c>
@@ -53864,7 +53875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:55">
+    <row r="531" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D531" t="s">
         <v>1149</v>
       </c>
@@ -53941,7 +53952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:55">
+    <row r="532" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D532" t="s">
         <v>1151</v>
       </c>
@@ -54027,7 +54038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:55">
+    <row r="533" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D533" t="s">
         <v>1153</v>
       </c>
@@ -54113,7 +54124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:55">
+    <row r="534" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D534" t="s">
         <v>1155</v>
       </c>
@@ -54199,7 +54210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:55">
+    <row r="535" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D535" t="s">
         <v>1157</v>
       </c>
@@ -54285,7 +54296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:55">
+    <row r="536" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D536" t="s">
         <v>1159</v>
       </c>
@@ -54332,7 +54343,7 @@
         <v>0</v>
       </c>
       <c r="AI536">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AJ536">
         <v>0</v>
@@ -54374,7 +54385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:55">
+    <row r="537" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D537" t="s">
         <v>1161</v>
       </c>
@@ -54466,7 +54477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:55">
+    <row r="538" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D538" t="s">
         <v>1163</v>
       </c>
@@ -54513,7 +54524,7 @@
         <v>0</v>
       </c>
       <c r="AI538">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AJ538">
         <v>0</v>
@@ -54555,7 +54566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:55">
+    <row r="539" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D539" t="s">
         <v>1165</v>
       </c>
@@ -54644,7 +54655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:55">
+    <row r="540" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D540" t="s">
         <v>1167</v>
       </c>
@@ -54733,7 +54744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:55">
+    <row r="541" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D541" t="s">
         <v>1169</v>
       </c>
@@ -54819,7 +54830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:55">
+    <row r="542" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D542" t="s">
         <v>1171</v>
       </c>
@@ -54905,7 +54916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:55">
+    <row r="543" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D543" t="s">
         <v>1173</v>
       </c>
@@ -54994,7 +55005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:55">
+    <row r="544" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D544" t="s">
         <v>1175</v>
       </c>
@@ -55092,7 +55103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:55">
+    <row r="545" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D545" t="s">
         <v>1177</v>
       </c>
@@ -55172,7 +55183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:55">
+    <row r="546" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D546" t="s">
         <v>1179</v>
       </c>
@@ -55252,7 +55263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:55">
+    <row r="547" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D547" t="s">
         <v>1181</v>
       </c>
@@ -55332,7 +55343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:55">
+    <row r="548" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D548" t="s">
         <v>1183</v>
       </c>
@@ -55412,7 +55423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:55">
+    <row r="549" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D549" t="s">
         <v>1185</v>
       </c>
@@ -55492,7 +55503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:55">
+    <row r="550" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D550" t="s">
         <v>1187</v>
       </c>
@@ -55539,7 +55550,7 @@
         <v>0</v>
       </c>
       <c r="AI550">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AJ550">
         <v>0</v>
@@ -55581,7 +55592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:55">
+    <row r="551" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D551" t="s">
         <v>1189</v>
       </c>
@@ -55673,7 +55684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:55">
+    <row r="552" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D552" t="s">
         <v>1191</v>
       </c>
@@ -55720,7 +55731,7 @@
         <v>0</v>
       </c>
       <c r="AI552">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AJ552">
         <v>0</v>
@@ -55762,7 +55773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:55">
+    <row r="553" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D553" t="s">
         <v>1193</v>
       </c>
@@ -55851,7 +55862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:55">
+    <row r="554" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D554" t="s">
         <v>1195</v>
       </c>
@@ -55940,7 +55951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:55">
+    <row r="555" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D555" t="s">
         <v>1197</v>
       </c>
@@ -56029,7 +56040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:55">
+    <row r="556" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D556" t="s">
         <v>1199</v>
       </c>
@@ -56115,7 +56126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:55">
+    <row r="557" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D557" t="s">
         <v>1201</v>
       </c>
@@ -56201,7 +56212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:55">
+    <row r="558" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D558" t="s">
         <v>1203</v>
       </c>
@@ -56287,7 +56298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:55">
+    <row r="559" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D559" t="s">
         <v>1205</v>
       </c>
@@ -56373,7 +56384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:55">
+    <row r="560" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D560" t="s">
         <v>1207</v>
       </c>
@@ -56459,7 +56470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:55">
+    <row r="561" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D561" t="s">
         <v>1209</v>
       </c>
@@ -56545,7 +56556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:55">
+    <row r="562" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D562" t="s">
         <v>1211</v>
       </c>
@@ -56631,7 +56642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:55">
+    <row r="563" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D563" t="s">
         <v>1213</v>
       </c>
@@ -56717,7 +56728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:55">
+    <row r="564" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D564" t="s">
         <v>1215</v>
       </c>
@@ -56803,7 +56814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:55">
+    <row r="565" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D565" t="s">
         <v>1217</v>
       </c>
@@ -56901,7 +56912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:55">
+    <row r="566" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D566" t="s">
         <v>1219</v>
       </c>
@@ -56918,7 +56929,7 @@
         <v>260000</v>
       </c>
       <c r="Q566">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y566">
         <v>1</v>
@@ -56981,7 +56992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:55">
+    <row r="567" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D567" t="s">
         <v>1221</v>
       </c>
@@ -56998,7 +57009,7 @@
         <v>260000</v>
       </c>
       <c r="S567">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y567">
         <v>1</v>
@@ -57061,7 +57072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:55">
+    <row r="568" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D568" t="s">
         <v>1223</v>
       </c>
@@ -57078,7 +57089,7 @@
         <v>260000</v>
       </c>
       <c r="R568">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y568">
         <v>1</v>
@@ -57141,7 +57152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:55">
+    <row r="569" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D569" t="s">
         <v>1225</v>
       </c>
@@ -57158,7 +57169,7 @@
         <v>260000</v>
       </c>
       <c r="U569">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y569">
         <v>1</v>
@@ -57221,7 +57232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:55">
+    <row r="570" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D570" t="s">
         <v>1227</v>
       </c>
@@ -57238,7 +57249,7 @@
         <v>260000</v>
       </c>
       <c r="T570">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y570">
         <v>1</v>
@@ -57301,7 +57312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:55">
+    <row r="571" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D571" t="s">
         <v>1229</v>
       </c>
@@ -57324,7 +57335,7 @@
         <v>0</v>
       </c>
       <c r="W571">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y571">
         <v>1</v>
@@ -57387,7 +57398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:55">
+    <row r="572" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D572" t="s">
         <v>1231</v>
       </c>
@@ -57410,7 +57421,7 @@
         <v>0</v>
       </c>
       <c r="V572">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y572">
         <v>1</v>
@@ -57473,7 +57484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:55">
+    <row r="573" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D573" t="s">
         <v>1232</v>
       </c>
@@ -57559,7 +57570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:55">
+    <row r="574" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D574" t="s">
         <v>1234</v>
       </c>
@@ -57645,7 +57656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:55">
+    <row r="575" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D575" t="s">
         <v>1236</v>
       </c>
@@ -57731,7 +57742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:55">
+    <row r="576" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D576" t="s">
         <v>1238</v>
       </c>
@@ -57817,7 +57828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:55">
+    <row r="577" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D577" t="s">
         <v>1240</v>
       </c>
@@ -57903,7 +57914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:55">
+    <row r="578" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D578" t="s">
         <v>1242</v>
       </c>
@@ -57989,7 +58000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:55">
+    <row r="579" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D579" t="s">
         <v>1244</v>
       </c>
@@ -58075,7 +58086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:55">
+    <row r="580" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D580" t="s">
         <v>1246</v>
       </c>
@@ -58161,7 +58172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:55">
+    <row r="581" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D581" t="s">
         <v>1248</v>
       </c>
@@ -58247,7 +58258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:55">
+    <row r="582" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D582" t="s">
         <v>1250</v>
       </c>
@@ -58294,7 +58305,7 @@
         <v>0</v>
       </c>
       <c r="AI582">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AJ582">
         <v>0</v>
@@ -58336,7 +58347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:55">
+    <row r="583" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D583" t="s">
         <v>1252</v>
       </c>
@@ -58428,7 +58439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:55">
+    <row r="584" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D584" t="s">
         <v>1254</v>
       </c>
@@ -58475,7 +58486,7 @@
         <v>0</v>
       </c>
       <c r="AI584">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AJ584">
         <v>0</v>
@@ -58517,7 +58528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:55">
+    <row r="585" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D585" t="s">
         <v>1256</v>
       </c>
@@ -58606,7 +58617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:55">
+    <row r="586" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D586" t="s">
         <v>1258</v>
       </c>
@@ -58695,7 +58706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:55">
+    <row r="587" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D587" t="s">
         <v>1260</v>
       </c>
@@ -58784,7 +58795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:55">
+    <row r="588" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D588" t="s">
         <v>1262</v>
       </c>
@@ -58882,7 +58893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:55">
+    <row r="589" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D589" t="s">
         <v>1264</v>
       </c>
@@ -58962,7 +58973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:55">
+    <row r="590" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D590" t="s">
         <v>1266</v>
       </c>
@@ -59042,7 +59053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:55">
+    <row r="591" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D591" t="s">
         <v>1268</v>
       </c>
@@ -59122,7 +59133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:55">
+    <row r="592" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D592" t="s">
         <v>1270</v>
       </c>
@@ -59202,7 +59213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:55">
+    <row r="593" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D593" t="s">
         <v>1272</v>
       </c>
@@ -59282,7 +59293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:55">
+    <row r="594" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D594" t="s">
         <v>1274</v>
       </c>
@@ -59368,7 +59379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:55">
+    <row r="595" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D595" t="s">
         <v>1276</v>
       </c>
@@ -59454,7 +59465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:55">
+    <row r="596" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D596" t="s">
         <v>1278</v>
       </c>
@@ -59540,7 +59551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:55">
+    <row r="597" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D597" t="s">
         <v>1280</v>
       </c>
@@ -59626,7 +59637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:55">
+    <row r="598" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D598" t="s">
         <v>1282</v>
       </c>
@@ -59712,7 +59723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:55">
+    <row r="599" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D599" t="s">
         <v>1284</v>
       </c>
@@ -59759,7 +59770,7 @@
         <v>0</v>
       </c>
       <c r="AI599">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AJ599">
         <v>0</v>
@@ -59801,7 +59812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:55">
+    <row r="600" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D600" t="s">
         <v>1286</v>
       </c>
@@ -59893,7 +59904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:55">
+    <row r="601" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D601" t="s">
         <v>1288</v>
       </c>
@@ -59940,7 +59951,7 @@
         <v>0</v>
       </c>
       <c r="AI601">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AJ601">
         <v>0</v>
@@ -59982,7 +59993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:55">
+    <row r="602" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D602" t="s">
         <v>1290</v>
       </c>
@@ -60071,7 +60082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:55">
+    <row r="603" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D603" t="s">
         <v>1292</v>
       </c>
@@ -60160,7 +60171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:55">
+    <row r="604" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D604" t="s">
         <v>1294</v>
       </c>
@@ -60249,7 +60260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:55">
+    <row r="605" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D605" t="s">
         <v>1296</v>
       </c>
@@ -60335,7 +60346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:55">
+    <row r="606" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D606" t="s">
         <v>1298</v>
       </c>
@@ -60421,7 +60432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:55">
+    <row r="607" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D607" t="s">
         <v>1300</v>
       </c>
@@ -60507,7 +60518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:55">
+    <row r="608" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D608" t="s">
         <v>1302</v>
       </c>
@@ -60593,7 +60604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:55">
+    <row r="609" spans="3:55" x14ac:dyDescent="0.2">
       <c r="D609" t="s">
         <v>1304</v>
       </c>
@@ -60679,7 +60690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:55">
+    <row r="610" spans="3:55" x14ac:dyDescent="0.2">
       <c r="D610" t="s">
         <v>1306</v>
       </c>
@@ -60765,7 +60776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:55">
+    <row r="611" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C611">
         <v>1</v>
       </c>
@@ -60860,7 +60871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:55">
+    <row r="612" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C612">
         <v>1</v>
       </c>
@@ -60958,7 +60969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:55">
+    <row r="613" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C613">
         <v>1</v>
       </c>
@@ -61056,7 +61067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:55">
+    <row r="614" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C614">
         <v>1</v>
       </c>
@@ -61103,7 +61114,7 @@
         <v>0</v>
       </c>
       <c r="AI614">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AJ614">
         <v>0</v>
@@ -61154,7 +61165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:55">
+    <row r="615" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C615">
         <v>1</v>
       </c>
@@ -61252,7 +61263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:55">
+    <row r="616" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C616">
         <v>1</v>
       </c>
@@ -61350,7 +61361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:55">
+    <row r="617" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C617">
         <v>1</v>
       </c>
@@ -61448,7 +61459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:55">
+    <row r="618" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C618">
         <v>1</v>
       </c>
@@ -61546,7 +61557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:55">
+    <row r="619" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C619">
         <v>1</v>
       </c>
@@ -61641,7 +61652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:55">
+    <row r="620" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C620">
         <v>1</v>
       </c>
@@ -61739,7 +61750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:55">
+    <row r="621" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C621">
         <v>1</v>
       </c>
@@ -61837,7 +61848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:55">
+    <row r="622" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C622">
         <v>1</v>
       </c>
@@ -61935,7 +61946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:55">
+    <row r="623" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C623">
         <v>1</v>
       </c>
@@ -62033,7 +62044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:55">
+    <row r="624" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C624">
         <v>1</v>
       </c>
@@ -62137,7 +62148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:55">
+    <row r="625" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C625">
         <v>1</v>
       </c>
@@ -62241,7 +62252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:55">
+    <row r="626" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C626">
         <v>1</v>
       </c>
@@ -62348,7 +62359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:55">
+    <row r="627" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C627">
         <v>1</v>
       </c>
@@ -62455,7 +62466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:55">
+    <row r="628" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C628">
         <v>1</v>
       </c>
@@ -62502,7 +62513,7 @@
         <v>0</v>
       </c>
       <c r="AI628">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AJ628">
         <v>0</v>
@@ -62553,7 +62564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:55">
+    <row r="629" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C629">
         <v>1</v>
       </c>
@@ -62651,7 +62662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:55">
+    <row r="630" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C630">
         <v>1</v>
       </c>
@@ -62749,7 +62760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:55">
+    <row r="631" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C631">
         <v>1</v>
       </c>
@@ -62844,7 +62855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:55">
+    <row r="632" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C632">
         <v>1</v>
       </c>
@@ -62891,7 +62902,7 @@
         <v>0</v>
       </c>
       <c r="AI632">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AJ632">
         <v>0</v>
@@ -62942,7 +62953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:55">
+    <row r="633" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C633">
         <v>1</v>
       </c>
@@ -63040,7 +63051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:55">
+    <row r="634" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C634">
         <v>1</v>
       </c>
@@ -63138,7 +63149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:55">
+    <row r="635" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C635">
         <v>1</v>
       </c>
@@ -63206,7 +63217,7 @@
         <v>1</v>
       </c>
       <c r="AR635">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AT635">
         <v>0</v>
@@ -63236,7 +63247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:55">
+    <row r="636" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C636">
         <v>1</v>
       </c>
@@ -63334,7 +63345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:55">
+    <row r="637" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C637">
         <v>1</v>
       </c>
@@ -63432,7 +63443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:55">
+    <row r="638" spans="3:55" x14ac:dyDescent="0.2">
       <c r="C638">
         <v>1</v>
       </c>
@@ -63531,17 +63542,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91AD37C-9760-D94C-A9A3-16EB6DECD73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId1"/>
+    <sheet name="Items" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1352">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -1668,49 +1652,49 @@
     <t>labyrinth</t>
   </si>
   <si>
+    <t>Grain of sand</t>
+  </si>
+  <si>
+    <t>With this item, you have a 2% chance out of a 1000 to get a Gold Dust Rush. That is your character must roll higher than 980 to get the rush on a successful disenchant. There are no bonuses applied to the character roll. Should you succeed you will get 5% of your gold dust back as a rush.</t>
+  </si>
+  <si>
+    <t>gold-dust-rush</t>
+  </si>
+  <si>
+    <t>Sash of the Heavens</t>
+  </si>
+  <si>
+    <t>Allows your character to continue leveling past level 1000 up to the new max.</t>
+  </si>
+  <si>
+    <t>continue-leveling</t>
+  </si>
+  <si>
+    <t>Leather Sash</t>
+  </si>
+  <si>
+    <t>Take this sash, along with 50k Gold dust to the Labyrinth Oracle to get the Sash of the Heavens, which will then allow your character to level past level 1000</t>
+  </si>
+  <si>
+    <t>Dead Kings Crown</t>
+  </si>
+  <si>
+    <t>Not only are your affixes irresistible to the enemy, but now you have a 100% chance to void and a 85% chance to devoid.</t>
+  </si>
+  <si>
+    <t>affixes-irresistible</t>
+  </si>
+  <si>
+    <t>Eye of the Beholder</t>
+  </si>
+  <si>
+    <t>With this item, not only are your enchantments irresistible to the enemy but now you have a 75% to void the enemy and a 50% to devoid the enemy, check the item details of this quest item for more information on devoid and void.</t>
+  </si>
+  <si>
     <t>Shadow Plane Grimoire</t>
   </si>
   <si>
     <t>By upgrading the Creepy Baby Doll Quest item, not only will your affixes be irresistible, but you will now have a 50% chance to void an enemy as well as a 15% chance to devoid an enemy. Check the section on void and devoid in the item details for further info.</t>
-  </si>
-  <si>
-    <t>affixes-irresistible</t>
-  </si>
-  <si>
-    <t>Eye of the Beholder</t>
-  </si>
-  <si>
-    <t>With this item, not only are your enchantments irresistible to the enemy but now you have a 75% to void the enemy and a 50% to devoid the enemy, check the item details of this quest item for more information on devoid and void.</t>
-  </si>
-  <si>
-    <t>Dead Kings Crown</t>
-  </si>
-  <si>
-    <t>Not only are your affixes irresistible to the enemy, but now you have a 100% chance to void and a 85% chance to devoid.</t>
-  </si>
-  <si>
-    <t>Leather Sash</t>
-  </si>
-  <si>
-    <t>Take this sash, along with 50k Gold dust to the Labyrinth Oracle to get the Sash of the Heavens, which will then allow your character to level past level 1000</t>
-  </si>
-  <si>
-    <t>Sash of the Heavens</t>
-  </si>
-  <si>
-    <t>Allows your character to continue leveling past level 1000 up to the new max.</t>
-  </si>
-  <si>
-    <t>continue-leveling</t>
-  </si>
-  <si>
-    <t>Grain of sand</t>
-  </si>
-  <si>
-    <t>With this item, you have a 25% chance to take what you have for gold dust after you successfully disenchant the item and use your disenchanting skill bonus as interest towards the total amount you have. The more gold dust you have, the more you get if you trigger this rush.</t>
-  </si>
-  <si>
-    <t>gold-dust-rush</t>
   </si>
   <si>
     <t>Creepy Baby Doll</t>
@@ -4092,9 +4076,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -4105,37 +4094,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -4425,67 +4405,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:BC638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G64" workbookViewId="0">
-      <selection activeCell="U77" sqref="U77:U113"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="324" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="28" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="38" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="26" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="342" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="32" max="32" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="34" max="34" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="36" max="36" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="37" max="37" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="38" max="38" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="39" max="39" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="40" max="40" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="41" max="41" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="42" max="42" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="43" max="43" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="44" max="44" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="45" max="45" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="46" max="46" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="47" max="47" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="48" max="48" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="49" max="49" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="50" max="50" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="51" max="51" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="52" max="52" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="53" max="53" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="54" max="54" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="55" max="55" width="22" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4652,7 +4641,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55">
       <c r="D2" t="s">
         <v>55</v>
       </c>
@@ -4732,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55">
       <c r="D3" t="s">
         <v>58</v>
       </c>
@@ -4827,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55">
       <c r="D4" t="s">
         <v>60</v>
       </c>
@@ -4922,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55">
       <c r="D5" t="s">
         <v>62</v>
       </c>
@@ -5017,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55">
       <c r="D6" t="s">
         <v>64</v>
       </c>
@@ -5112,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55">
       <c r="D7" t="s">
         <v>66</v>
       </c>
@@ -5207,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55">
       <c r="D8" t="s">
         <v>68</v>
       </c>
@@ -5302,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55">
       <c r="D9" t="s">
         <v>70</v>
       </c>
@@ -5394,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55">
       <c r="D10" t="s">
         <v>72</v>
       </c>
@@ -5486,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55">
       <c r="D11" t="s">
         <v>74</v>
       </c>
@@ -5578,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55">
       <c r="D12" t="s">
         <v>76</v>
       </c>
@@ -5670,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55">
       <c r="D13" t="s">
         <v>78</v>
       </c>
@@ -5687,19 +5676,19 @@
         <v>7000</v>
       </c>
       <c r="Q13">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="R13">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="S13">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="T13">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="U13">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -5762,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55">
       <c r="D14" t="s">
         <v>80</v>
       </c>
@@ -5854,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55">
       <c r="D15" t="s">
         <v>82</v>
       </c>
@@ -5946,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55">
       <c r="D16" t="s">
         <v>84</v>
       </c>
@@ -6038,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55">
       <c r="D17" t="s">
         <v>86</v>
       </c>
@@ -6130,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:55">
       <c r="D18" t="s">
         <v>88</v>
       </c>
@@ -6222,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55">
       <c r="D19" t="s">
         <v>90</v>
       </c>
@@ -6314,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:55">
       <c r="D20" t="s">
         <v>92</v>
       </c>
@@ -6406,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:55">
       <c r="D21" t="s">
         <v>94</v>
       </c>
@@ -6498,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:55">
       <c r="D22" t="s">
         <v>96</v>
       </c>
@@ -6590,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:55">
       <c r="D23" t="s">
         <v>98</v>
       </c>
@@ -6682,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:55">
       <c r="D24" t="s">
         <v>100</v>
       </c>
@@ -6699,19 +6688,19 @@
         <v>1000000</v>
       </c>
       <c r="Q24">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="R24">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="S24">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="T24">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="U24">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y24">
         <v>1</v>
@@ -6774,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:55">
       <c r="D25" t="s">
         <v>102</v>
       </c>
@@ -6791,19 +6780,19 @@
         <v>10000000</v>
       </c>
       <c r="Q25">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="R25">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="S25">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="T25">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="U25">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y25">
         <v>1</v>
@@ -6866,7 +6855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:55">
       <c r="D26" t="s">
         <v>104</v>
       </c>
@@ -6958,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:55">
       <c r="D27" t="s">
         <v>106</v>
       </c>
@@ -7050,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:55">
       <c r="D28" t="s">
         <v>108</v>
       </c>
@@ -7142,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55">
       <c r="D29" t="s">
         <v>110</v>
       </c>
@@ -7234,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:55">
       <c r="D30" t="s">
         <v>112</v>
       </c>
@@ -7326,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:55">
       <c r="D31" t="s">
         <v>114</v>
       </c>
@@ -7418,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:55">
       <c r="D32" t="s">
         <v>116</v>
       </c>
@@ -7510,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:55">
       <c r="D33" t="s">
         <v>118</v>
       </c>
@@ -7602,7 +7591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:55">
       <c r="D34" t="s">
         <v>120</v>
       </c>
@@ -7694,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:55">
       <c r="D35" t="s">
         <v>122</v>
       </c>
@@ -7795,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55">
       <c r="D36" t="s">
         <v>124</v>
       </c>
@@ -7896,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55">
       <c r="D37" t="s">
         <v>126</v>
       </c>
@@ -7919,19 +7908,19 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="R37">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="S37">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="T37">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="U37">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Y37">
         <v>1</v>
@@ -7997,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:55">
       <c r="D38" t="s">
         <v>128</v>
       </c>
@@ -8020,19 +8009,19 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="R38">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="S38">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="T38">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="U38">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="Y38">
         <v>1</v>
@@ -8098,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55">
       <c r="D39" t="s">
         <v>130</v>
       </c>
@@ -8184,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55">
       <c r="D40" t="s">
         <v>134</v>
       </c>
@@ -8252,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="AW40">
-        <v>6.9999999999999999E-4</v>
+        <v>0.0007</v>
       </c>
       <c r="AX40">
         <v>0</v>
@@ -8273,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55">
       <c r="D41" t="s">
         <v>136</v>
       </c>
@@ -8341,7 +8330,7 @@
         <v>1</v>
       </c>
       <c r="AW41">
-        <v>8.0000000000000004E-4</v>
+        <v>0.0008</v>
       </c>
       <c r="AX41">
         <v>0</v>
@@ -8362,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55">
       <c r="D42" t="s">
         <v>138</v>
       </c>
@@ -8430,7 +8419,7 @@
         <v>1</v>
       </c>
       <c r="AW42">
-        <v>8.9999999999999998E-4</v>
+        <v>0.0009</v>
       </c>
       <c r="AX42">
         <v>0</v>
@@ -8451,7 +8440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55">
       <c r="D43" t="s">
         <v>140</v>
       </c>
@@ -8519,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="AW43">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AX43">
         <v>0</v>
@@ -8540,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:55">
       <c r="D44" t="s">
         <v>142</v>
       </c>
@@ -8608,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="AW44">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AX44">
         <v>0</v>
@@ -8629,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:55">
       <c r="D45" t="s">
         <v>144</v>
       </c>
@@ -8697,7 +8686,7 @@
         <v>1</v>
       </c>
       <c r="AW45">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AX45">
         <v>0</v>
@@ -8718,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:55">
       <c r="D46" t="s">
         <v>146</v>
       </c>
@@ -8783,7 +8772,7 @@
         <v>1</v>
       </c>
       <c r="AW46">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AX46">
         <v>0</v>
@@ -8804,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:55">
       <c r="D47" t="s">
         <v>148</v>
       </c>
@@ -8869,7 +8858,7 @@
         <v>1</v>
       </c>
       <c r="AW47">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AX47">
         <v>0</v>
@@ -8890,7 +8879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:55">
       <c r="D48" t="s">
         <v>150</v>
       </c>
@@ -8955,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="AW48">
-        <v>6.0000000000000001E-3</v>
+        <v>0.006</v>
       </c>
       <c r="AX48">
         <v>0</v>
@@ -8976,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:55">
       <c r="D49" t="s">
         <v>152</v>
       </c>
@@ -8993,10 +8982,10 @@
         <v>5000</v>
       </c>
       <c r="T49">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="W49">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="Y49">
         <v>1</v>
@@ -9041,7 +9030,7 @@
         <v>1</v>
       </c>
       <c r="AW49">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="AX49">
         <v>0</v>
@@ -9062,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:55">
       <c r="D50" t="s">
         <v>154</v>
       </c>
@@ -9127,7 +9116,7 @@
         <v>1</v>
       </c>
       <c r="AW50">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AX50">
         <v>0</v>
@@ -9148,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:55">
       <c r="D51" t="s">
         <v>156</v>
       </c>
@@ -9234,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:55">
       <c r="D52" t="s">
         <v>158</v>
       </c>
@@ -9320,7 +9309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:55">
       <c r="D53" t="s">
         <v>160</v>
       </c>
@@ -9406,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:55">
       <c r="D54" t="s">
         <v>162</v>
       </c>
@@ -9492,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:55">
       <c r="D55" t="s">
         <v>164</v>
       </c>
@@ -9578,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:55">
       <c r="D56" t="s">
         <v>166</v>
       </c>
@@ -9664,7 +9653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:55">
       <c r="D57" t="s">
         <v>168</v>
       </c>
@@ -9729,7 +9718,7 @@
         <v>1</v>
       </c>
       <c r="AW57">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AX57">
         <v>0</v>
@@ -9750,7 +9739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:55">
       <c r="D58" t="s">
         <v>170</v>
       </c>
@@ -9836,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:55">
       <c r="D59" t="s">
         <v>172</v>
       </c>
@@ -9922,7 +9911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:55">
       <c r="D60" t="s">
         <v>174</v>
       </c>
@@ -9939,10 +9928,10 @@
         <v>500000</v>
       </c>
       <c r="T60">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="W60">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y60">
         <v>1</v>
@@ -10008,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:55">
       <c r="D61" t="s">
         <v>176</v>
       </c>
@@ -10025,10 +10014,10 @@
         <v>1000000</v>
       </c>
       <c r="T61">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="W61">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y61">
         <v>1</v>
@@ -10094,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:55">
       <c r="D62" t="s">
         <v>178</v>
       </c>
@@ -10180,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:55">
       <c r="D63" t="s">
         <v>180</v>
       </c>
@@ -10266,7 +10255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:55">
       <c r="D64" t="s">
         <v>182</v>
       </c>
@@ -10331,7 +10320,7 @@
         <v>1</v>
       </c>
       <c r="AW64">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AX64">
         <v>0</v>
@@ -10352,7 +10341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:55">
       <c r="D65" t="s">
         <v>184</v>
       </c>
@@ -10438,7 +10427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:55">
       <c r="D66" t="s">
         <v>186</v>
       </c>
@@ -10524,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:55">
       <c r="D67" t="s">
         <v>188</v>
       </c>
@@ -10610,7 +10599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:55">
       <c r="D68" t="s">
         <v>190</v>
       </c>
@@ -10696,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:55">
       <c r="D69" t="s">
         <v>192</v>
       </c>
@@ -10782,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:55">
       <c r="D70" t="s">
         <v>194</v>
       </c>
@@ -10868,7 +10857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:55">
       <c r="D71" t="s">
         <v>196</v>
       </c>
@@ -10951,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:55">
       <c r="D72" t="s">
         <v>198</v>
       </c>
@@ -11037,7 +11026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:55">
       <c r="D73" t="s">
         <v>200</v>
       </c>
@@ -11060,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="T73">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W73">
         <v>1.02</v>
@@ -11132,7 +11121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:55">
       <c r="D74" t="s">
         <v>202</v>
       </c>
@@ -11155,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="T74">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="W74">
         <v>1.05</v>
@@ -11227,7 +11216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:55">
       <c r="D75" t="s">
         <v>204</v>
       </c>
@@ -11253,7 +11242,7 @@
         <v>1.2</v>
       </c>
       <c r="W75">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Y75">
         <v>1</v>
@@ -11322,7 +11311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:55">
       <c r="D76" t="s">
         <v>206</v>
       </c>
@@ -11348,7 +11337,7 @@
         <v>1.25</v>
       </c>
       <c r="W76">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="Y76">
         <v>1</v>
@@ -11417,7 +11406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:55">
       <c r="D77" t="s">
         <v>208</v>
       </c>
@@ -11503,7 +11492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:55">
       <c r="D78" t="s">
         <v>211</v>
       </c>
@@ -11589,7 +11578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:55">
       <c r="D79" t="s">
         <v>213</v>
       </c>
@@ -11675,7 +11664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:55">
       <c r="D80" t="s">
         <v>215</v>
       </c>
@@ -11761,7 +11750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:55">
       <c r="D81" t="s">
         <v>217</v>
       </c>
@@ -11847,7 +11836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:55">
       <c r="D82" t="s">
         <v>219</v>
       </c>
@@ -11933,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:55">
       <c r="D83" t="s">
         <v>221</v>
       </c>
@@ -12019,7 +12008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:55">
       <c r="D84" t="s">
         <v>223</v>
       </c>
@@ -12102,7 +12091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:55">
       <c r="D85" t="s">
         <v>225</v>
       </c>
@@ -12185,7 +12174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:55">
       <c r="D86" t="s">
         <v>227</v>
       </c>
@@ -12268,7 +12257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:55">
       <c r="D87" t="s">
         <v>229</v>
       </c>
@@ -12285,10 +12274,10 @@
         <v>5000</v>
       </c>
       <c r="U87">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="W87">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="Y87">
         <v>1</v>
@@ -12351,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:55">
       <c r="D88" t="s">
         <v>231</v>
       </c>
@@ -12434,7 +12423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:55">
       <c r="D89" t="s">
         <v>233</v>
       </c>
@@ -12517,7 +12506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:55">
       <c r="D90" t="s">
         <v>235</v>
       </c>
@@ -12600,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:55">
       <c r="D91" t="s">
         <v>237</v>
       </c>
@@ -12683,7 +12672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:55">
       <c r="D92" t="s">
         <v>239</v>
       </c>
@@ -12766,7 +12755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:55">
       <c r="D93" t="s">
         <v>241</v>
       </c>
@@ -12849,7 +12838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:55">
       <c r="D94" t="s">
         <v>243</v>
       </c>
@@ -12932,7 +12921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:55">
       <c r="D95" t="s">
         <v>245</v>
       </c>
@@ -13015,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:55">
       <c r="D96" t="s">
         <v>247</v>
       </c>
@@ -13098,7 +13087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:55">
       <c r="D97" t="s">
         <v>249</v>
       </c>
@@ -13181,7 +13170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:55">
       <c r="D98" t="s">
         <v>251</v>
       </c>
@@ -13198,10 +13187,10 @@
         <v>500000</v>
       </c>
       <c r="U98">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="W98">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y98">
         <v>1</v>
@@ -13264,7 +13253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:55">
       <c r="D99" t="s">
         <v>253</v>
       </c>
@@ -13281,10 +13270,10 @@
         <v>1000000</v>
       </c>
       <c r="U99">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="W99">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y99">
         <v>1</v>
@@ -13347,7 +13336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:55">
       <c r="D100" t="s">
         <v>255</v>
       </c>
@@ -13430,7 +13419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:55">
       <c r="D101" t="s">
         <v>257</v>
       </c>
@@ -13513,7 +13502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:55">
       <c r="D102" t="s">
         <v>259</v>
       </c>
@@ -13596,7 +13585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:55">
       <c r="D103" t="s">
         <v>261</v>
       </c>
@@ -13679,7 +13668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:55">
       <c r="D104" t="s">
         <v>263</v>
       </c>
@@ -13762,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:55">
       <c r="D105" t="s">
         <v>265</v>
       </c>
@@ -13845,7 +13834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:55">
       <c r="D106" t="s">
         <v>267</v>
       </c>
@@ -13928,7 +13917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:55">
       <c r="D107" t="s">
         <v>269</v>
       </c>
@@ -14011,7 +14000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:55">
       <c r="D108" t="s">
         <v>271</v>
       </c>
@@ -14094,7 +14083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:55">
       <c r="D109" t="s">
         <v>273</v>
       </c>
@@ -14180,7 +14169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:55">
       <c r="D110" t="s">
         <v>275</v>
       </c>
@@ -14272,7 +14261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:55">
       <c r="D111" t="s">
         <v>277</v>
       </c>
@@ -14295,7 +14284,7 @@
         <v>0</v>
       </c>
       <c r="U111">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W111">
         <v>1.05</v>
@@ -14364,7 +14353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:55">
       <c r="D112" t="s">
         <v>279</v>
       </c>
@@ -14387,10 +14376,10 @@
         <v>0</v>
       </c>
       <c r="U112">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="W112">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Y112">
         <v>1</v>
@@ -14456,7 +14445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:55">
       <c r="D113" t="s">
         <v>281</v>
       </c>
@@ -14482,7 +14471,7 @@
         <v>1.2</v>
       </c>
       <c r="W113">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="Y113">
         <v>1</v>
@@ -14548,7 +14537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:55">
       <c r="D114" t="s">
         <v>283</v>
       </c>
@@ -14652,7 +14641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:55">
       <c r="D115" t="s">
         <v>287</v>
       </c>
@@ -14756,7 +14745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:55">
       <c r="D116" t="s">
         <v>289</v>
       </c>
@@ -14860,7 +14849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:55">
       <c r="D117" t="s">
         <v>291</v>
       </c>
@@ -14964,7 +14953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:55">
       <c r="D118" t="s">
         <v>293</v>
       </c>
@@ -15068,7 +15057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:55">
       <c r="D119" t="s">
         <v>295</v>
       </c>
@@ -15172,7 +15161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:55">
       <c r="D120" t="s">
         <v>297</v>
       </c>
@@ -15273,7 +15262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:55">
       <c r="D121" t="s">
         <v>299</v>
       </c>
@@ -15293,25 +15282,25 @@
         <v>1500</v>
       </c>
       <c r="Q121">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="R121">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="S121">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="T121">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="U121">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="V121">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="W121">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y121">
         <v>1</v>
@@ -15374,7 +15363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:55">
       <c r="D122" t="s">
         <v>301</v>
       </c>
@@ -15475,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:55">
       <c r="D123" t="s">
         <v>303</v>
       </c>
@@ -15576,7 +15565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:55">
       <c r="D124" t="s">
         <v>305</v>
       </c>
@@ -15677,7 +15666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:55">
       <c r="D125" t="s">
         <v>307</v>
       </c>
@@ -15778,7 +15767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:55">
       <c r="D126" t="s">
         <v>309</v>
       </c>
@@ -15879,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:55">
       <c r="D127" t="s">
         <v>311</v>
       </c>
@@ -15980,7 +15969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:55">
       <c r="D128" t="s">
         <v>313</v>
       </c>
@@ -16081,7 +16070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:55">
       <c r="D129" t="s">
         <v>313</v>
       </c>
@@ -16176,7 +16165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:55">
       <c r="D130" t="s">
         <v>314</v>
       </c>
@@ -16277,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:55">
       <c r="D131" t="s">
         <v>316</v>
       </c>
@@ -16378,7 +16367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:55">
       <c r="D132" t="s">
         <v>318</v>
       </c>
@@ -16479,7 +16468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:55">
       <c r="D133" t="s">
         <v>320</v>
       </c>
@@ -16580,7 +16569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:55">
       <c r="D134" t="s">
         <v>322</v>
       </c>
@@ -16681,7 +16670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:55">
       <c r="D135" t="s">
         <v>324</v>
       </c>
@@ -16782,7 +16771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:55">
       <c r="D136" t="s">
         <v>326</v>
       </c>
@@ -16802,25 +16791,25 @@
         <v>500000</v>
       </c>
       <c r="Q136">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="R136">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="S136">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="T136">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="U136">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="V136">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="W136">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="Y136">
         <v>1</v>
@@ -16883,7 +16872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:55">
       <c r="D137" t="s">
         <v>328</v>
       </c>
@@ -16903,25 +16892,25 @@
         <v>1000000</v>
       </c>
       <c r="Q137">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="R137">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="S137">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="T137">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="U137">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="V137">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="W137">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y137">
         <v>1</v>
@@ -16984,7 +16973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:55">
       <c r="D138" t="s">
         <v>330</v>
       </c>
@@ -17085,7 +17074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:55">
       <c r="D139" t="s">
         <v>332</v>
       </c>
@@ -17186,7 +17175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:55">
       <c r="D140" t="s">
         <v>334</v>
       </c>
@@ -17287,7 +17276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:55">
       <c r="D141" t="s">
         <v>336</v>
       </c>
@@ -17388,7 +17377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:55">
       <c r="D142" t="s">
         <v>338</v>
       </c>
@@ -17489,7 +17478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:55">
       <c r="D143" t="s">
         <v>340</v>
       </c>
@@ -17590,7 +17579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:55">
       <c r="D144" t="s">
         <v>342</v>
       </c>
@@ -17691,7 +17680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:55">
       <c r="D145" t="s">
         <v>344</v>
       </c>
@@ -17792,7 +17781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:55">
       <c r="D146" t="s">
         <v>345</v>
       </c>
@@ -17893,7 +17882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:55">
       <c r="D147" t="s">
         <v>347</v>
       </c>
@@ -17994,7 +17983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:55">
       <c r="D148" t="s">
         <v>349</v>
       </c>
@@ -18104,7 +18093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:55">
       <c r="D149" t="s">
         <v>351</v>
       </c>
@@ -18214,7 +18203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:55">
       <c r="D150" t="s">
         <v>353</v>
       </c>
@@ -18324,7 +18313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:55">
       <c r="D151" t="s">
         <v>355</v>
       </c>
@@ -18434,7 +18423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:55">
       <c r="D152" t="s">
         <v>357</v>
       </c>
@@ -18454,25 +18443,25 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="R152">
         <v>0</v>
       </c>
       <c r="S152">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="T152">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="U152">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="V152">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W152">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Y152">
         <v>1</v>
@@ -18538,7 +18527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:55">
       <c r="D153" t="s">
         <v>360</v>
       </c>
@@ -18624,7 +18613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:55">
       <c r="D154" t="s">
         <v>362</v>
       </c>
@@ -18710,7 +18699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:55">
       <c r="D155" t="s">
         <v>364</v>
       </c>
@@ -18796,7 +18785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:55">
       <c r="D156" t="s">
         <v>366</v>
       </c>
@@ -18882,7 +18871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:55">
       <c r="D157" t="s">
         <v>368</v>
       </c>
@@ -18968,7 +18957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:55">
       <c r="D158" t="s">
         <v>370</v>
       </c>
@@ -19057,7 +19046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:55">
       <c r="D159" t="s">
         <v>373</v>
       </c>
@@ -19140,7 +19129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:55">
       <c r="D160" t="s">
         <v>375</v>
       </c>
@@ -19160,7 +19149,7 @@
         <v>0.2</v>
       </c>
       <c r="R160">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y160">
         <v>1</v>
@@ -19223,7 +19212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:55">
       <c r="D161" t="s">
         <v>377</v>
       </c>
@@ -19306,7 +19295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:55">
       <c r="D162" t="s">
         <v>379</v>
       </c>
@@ -19389,7 +19378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:55">
       <c r="D163" t="s">
         <v>381</v>
       </c>
@@ -19472,7 +19461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:55">
       <c r="D164" t="s">
         <v>383</v>
       </c>
@@ -19489,7 +19478,7 @@
         <v>10000</v>
       </c>
       <c r="P164">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="R164">
         <v>0.23</v>
@@ -19555,7 +19544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:55">
       <c r="D165" t="s">
         <v>385</v>
       </c>
@@ -19638,7 +19627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:55">
       <c r="D166" t="s">
         <v>387</v>
       </c>
@@ -19721,7 +19710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:55">
       <c r="D167" t="s">
         <v>389</v>
       </c>
@@ -19804,7 +19793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:55">
       <c r="D168" t="s">
         <v>391</v>
       </c>
@@ -19887,7 +19876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:55">
       <c r="D169" t="s">
         <v>393</v>
       </c>
@@ -19970,7 +19959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:55">
       <c r="D170" t="s">
         <v>395</v>
       </c>
@@ -20053,7 +20042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:55">
       <c r="D171" t="s">
         <v>397</v>
       </c>
@@ -20136,7 +20125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:55">
       <c r="D172" t="s">
         <v>399</v>
       </c>
@@ -20219,7 +20208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:55">
       <c r="D173" t="s">
         <v>401</v>
       </c>
@@ -20236,7 +20225,7 @@
         <v>500000</v>
       </c>
       <c r="P173">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="R173">
         <v>0.49</v>
@@ -20302,7 +20291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:55">
       <c r="D174" t="s">
         <v>403</v>
       </c>
@@ -20319,7 +20308,7 @@
         <v>1000000</v>
       </c>
       <c r="P174">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="R174">
         <v>0.5</v>
@@ -20385,7 +20374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:55">
       <c r="D175" t="s">
         <v>405</v>
       </c>
@@ -20405,7 +20394,7 @@
         <v>0.6</v>
       </c>
       <c r="R175">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="Y175">
         <v>1</v>
@@ -20468,7 +20457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:55">
       <c r="D176" t="s">
         <v>407</v>
       </c>
@@ -20488,7 +20477,7 @@
         <v>0.63</v>
       </c>
       <c r="R176">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y176">
         <v>1</v>
@@ -20551,7 +20540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:55">
       <c r="D177" t="s">
         <v>409</v>
       </c>
@@ -20634,7 +20623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:55">
       <c r="D178" t="s">
         <v>411</v>
       </c>
@@ -20717,7 +20706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:55">
       <c r="D179" t="s">
         <v>413</v>
       </c>
@@ -20800,7 +20789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:55">
       <c r="D180" t="s">
         <v>415</v>
       </c>
@@ -20883,7 +20872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:55">
       <c r="D181" t="s">
         <v>417</v>
       </c>
@@ -20966,7 +20955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:55">
       <c r="D182" t="s">
         <v>419</v>
       </c>
@@ -21049,7 +21038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:55">
       <c r="D183" t="s">
         <v>421</v>
       </c>
@@ -21132,7 +21121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:55">
       <c r="D184" t="s">
         <v>423</v>
       </c>
@@ -21215,7 +21204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:55">
       <c r="D185" t="s">
         <v>425</v>
       </c>
@@ -21307,7 +21296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:55">
       <c r="D186" t="s">
         <v>427</v>
       </c>
@@ -21399,7 +21388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:55">
       <c r="D187" t="s">
         <v>429</v>
       </c>
@@ -21422,7 +21411,7 @@
         <v>0</v>
       </c>
       <c r="P187">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="R187">
         <v>0.9</v>
@@ -21491,7 +21480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:55">
       <c r="D188" t="s">
         <v>431</v>
       </c>
@@ -21514,7 +21503,7 @@
         <v>0</v>
       </c>
       <c r="P188">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="R188">
         <v>1</v>
@@ -21583,7 +21572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:55">
       <c r="D189" t="s">
         <v>433</v>
       </c>
@@ -21663,7 +21652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:55">
       <c r="D190" t="s">
         <v>436</v>
       </c>
@@ -21725,16 +21714,16 @@
         <v>0</v>
       </c>
       <c r="AX190">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="AY190">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="AZ190">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="BA190">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="BB190">
         <v>0</v>
@@ -21743,7 +21732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:55">
       <c r="D191" t="s">
         <v>438</v>
       </c>
@@ -21760,10 +21749,10 @@
         <v>75</v>
       </c>
       <c r="N191">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="O191">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="P191">
         <v>0.02</v>
@@ -21814,16 +21803,16 @@
         <v>0</v>
       </c>
       <c r="AX191">
-        <v>2.9999999999999997E-4</v>
+        <v>0.0003</v>
       </c>
       <c r="AY191">
-        <v>2.9999999999999997E-4</v>
+        <v>0.0003</v>
       </c>
       <c r="AZ191">
-        <v>2.9999999999999997E-4</v>
+        <v>0.0003</v>
       </c>
       <c r="BA191">
-        <v>2.9999999999999997E-4</v>
+        <v>0.0003</v>
       </c>
       <c r="BB191">
         <v>0</v>
@@ -21832,7 +21821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:55">
       <c r="D192" t="s">
         <v>440</v>
       </c>
@@ -21849,10 +21838,10 @@
         <v>150</v>
       </c>
       <c r="N192">
-        <v>8.0000000000000004E-4</v>
+        <v>0.0008</v>
       </c>
       <c r="O192">
-        <v>8.0000000000000004E-4</v>
+        <v>0.0008</v>
       </c>
       <c r="P192">
         <v>0.05</v>
@@ -21903,16 +21892,16 @@
         <v>0</v>
       </c>
       <c r="AX192">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AY192">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AZ192">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="BA192">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="BB192">
         <v>0</v>
@@ -21921,7 +21910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:55">
       <c r="D193" t="s">
         <v>442</v>
       </c>
@@ -21938,10 +21927,10 @@
         <v>250</v>
       </c>
       <c r="N193">
-        <v>1.6000000000000001E-3</v>
+        <v>0.0016</v>
       </c>
       <c r="O193">
-        <v>1.6000000000000001E-3</v>
+        <v>0.0016</v>
       </c>
       <c r="P193">
         <v>0.08</v>
@@ -21992,16 +21981,16 @@
         <v>0</v>
       </c>
       <c r="AX193">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AY193">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AZ193">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="BA193">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="BB193">
         <v>0</v>
@@ -22010,7 +21999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:55">
       <c r="D194" t="s">
         <v>444</v>
       </c>
@@ -22027,10 +22016,10 @@
         <v>500</v>
       </c>
       <c r="N194">
-        <v>1.8E-3</v>
+        <v>0.0018</v>
       </c>
       <c r="O194">
-        <v>1.8E-3</v>
+        <v>0.0018</v>
       </c>
       <c r="P194">
         <v>0.1</v>
@@ -22081,16 +22070,16 @@
         <v>0</v>
       </c>
       <c r="AX194">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AY194">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AZ194">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="BA194">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="BB194">
         <v>0</v>
@@ -22099,7 +22088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:55">
       <c r="D195" t="s">
         <v>446</v>
       </c>
@@ -22116,10 +22105,10 @@
         <v>750</v>
       </c>
       <c r="N195">
-        <v>1.9E-3</v>
+        <v>0.0019</v>
       </c>
       <c r="O195">
-        <v>1.9E-3</v>
+        <v>0.0019</v>
       </c>
       <c r="P195">
         <v>0.12</v>
@@ -22170,16 +22159,16 @@
         <v>0</v>
       </c>
       <c r="AX195">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AY195">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AZ195">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="BA195">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="BB195">
         <v>0</v>
@@ -22188,7 +22177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:55">
       <c r="D196" t="s">
         <v>448</v>
       </c>
@@ -22205,13 +22194,13 @@
         <v>1000</v>
       </c>
       <c r="N196">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="O196">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="P196">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y196">
         <v>1</v>
@@ -22256,16 +22245,16 @@
         <v>0</v>
       </c>
       <c r="AX196">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AY196">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AZ196">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="BA196">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="BB196">
         <v>0</v>
@@ -22274,7 +22263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:55">
       <c r="D197" t="s">
         <v>450</v>
       </c>
@@ -22291,10 +22280,10 @@
         <v>1500</v>
       </c>
       <c r="N197">
-        <v>2.2000000000000001E-3</v>
+        <v>0.0022</v>
       </c>
       <c r="O197">
-        <v>2.2000000000000001E-3</v>
+        <v>0.0022</v>
       </c>
       <c r="P197">
         <v>0.16</v>
@@ -22342,16 +22331,16 @@
         <v>0</v>
       </c>
       <c r="AX197">
-        <v>6.0000000000000001E-3</v>
+        <v>0.006</v>
       </c>
       <c r="AY197">
-        <v>6.0000000000000001E-3</v>
+        <v>0.006</v>
       </c>
       <c r="AZ197">
-        <v>6.0000000000000001E-3</v>
+        <v>0.006</v>
       </c>
       <c r="BA197">
-        <v>6.0000000000000001E-3</v>
+        <v>0.006</v>
       </c>
       <c r="BB197">
         <v>0</v>
@@ -22360,7 +22349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:55">
       <c r="D198" t="s">
         <v>452</v>
       </c>
@@ -22377,10 +22366,10 @@
         <v>3000</v>
       </c>
       <c r="N198">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="O198">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="P198">
         <v>0.18</v>
@@ -22428,16 +22417,16 @@
         <v>0</v>
       </c>
       <c r="AX198">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="AY198">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="AZ198">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="BA198">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="BB198">
         <v>0</v>
@@ -22446,7 +22435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:55">
       <c r="D199" t="s">
         <v>454</v>
       </c>
@@ -22463,10 +22452,10 @@
         <v>5000</v>
       </c>
       <c r="N199">
-        <v>2.7000000000000001E-3</v>
+        <v>0.0027</v>
       </c>
       <c r="O199">
-        <v>2.7000000000000001E-3</v>
+        <v>0.0027</v>
       </c>
       <c r="P199">
         <v>0.2</v>
@@ -22514,16 +22503,16 @@
         <v>0</v>
       </c>
       <c r="AX199">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AY199">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AZ199">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="BA199">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="BB199">
         <v>0</v>
@@ -22532,7 +22521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:55">
       <c r="D200" t="s">
         <v>456</v>
       </c>
@@ -22549,10 +22538,10 @@
         <v>7000</v>
       </c>
       <c r="N200">
-        <v>2.7000000000000001E-3</v>
+        <v>0.0027</v>
       </c>
       <c r="O200">
-        <v>2.7000000000000001E-3</v>
+        <v>0.0027</v>
       </c>
       <c r="P200">
         <v>0.22</v>
@@ -22600,16 +22589,16 @@
         <v>0</v>
       </c>
       <c r="AX200">
-        <v>8.9999999999999993E-3</v>
+        <v>0.009</v>
       </c>
       <c r="AY200">
-        <v>8.9999999999999993E-3</v>
+        <v>0.009</v>
       </c>
       <c r="AZ200">
-        <v>8.9999999999999993E-3</v>
+        <v>0.009</v>
       </c>
       <c r="BA200">
-        <v>8.9999999999999993E-3</v>
+        <v>0.009</v>
       </c>
       <c r="BB200">
         <v>0</v>
@@ -22618,7 +22607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:55">
       <c r="D201" t="s">
         <v>458</v>
       </c>
@@ -22635,10 +22624,10 @@
         <v>10000</v>
       </c>
       <c r="N201">
-        <v>2.8999999999999998E-3</v>
+        <v>0.0029</v>
       </c>
       <c r="O201">
-        <v>2.8999999999999998E-3</v>
+        <v>0.0029</v>
       </c>
       <c r="P201">
         <v>0.25</v>
@@ -22704,7 +22693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:55">
       <c r="D202" t="s">
         <v>460</v>
       </c>
@@ -22721,10 +22710,10 @@
         <v>15000</v>
       </c>
       <c r="N202">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="O202">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="P202">
         <v>0.27</v>
@@ -22790,7 +22779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:55">
       <c r="D203" t="s">
         <v>462</v>
       </c>
@@ -22807,13 +22796,13 @@
         <v>30000</v>
       </c>
       <c r="N203">
-        <v>3.5000000000000001E-3</v>
+        <v>0.0035</v>
       </c>
       <c r="O203">
-        <v>3.5000000000000001E-3</v>
+        <v>0.0035</v>
       </c>
       <c r="P203">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="Y203">
         <v>1</v>
@@ -22876,7 +22865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:55">
       <c r="D204" t="s">
         <v>464</v>
       </c>
@@ -22893,10 +22882,10 @@
         <v>60000</v>
       </c>
       <c r="N204">
-        <v>3.7000000000000002E-3</v>
+        <v>0.0037</v>
       </c>
       <c r="O204">
-        <v>3.7000000000000002E-3</v>
+        <v>0.0037</v>
       </c>
       <c r="P204">
         <v>0.3</v>
@@ -22962,7 +22951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:55">
       <c r="D205" t="s">
         <v>466</v>
       </c>
@@ -22979,10 +22968,10 @@
         <v>120000</v>
       </c>
       <c r="N205">
-        <v>3.8E-3</v>
+        <v>0.0038</v>
       </c>
       <c r="O205">
-        <v>3.8E-3</v>
+        <v>0.0038</v>
       </c>
       <c r="P205">
         <v>0.35</v>
@@ -23048,7 +23037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:55">
       <c r="D206" t="s">
         <v>468</v>
       </c>
@@ -23065,10 +23054,10 @@
         <v>180000</v>
       </c>
       <c r="N206">
-        <v>3.8E-3</v>
+        <v>0.0038</v>
       </c>
       <c r="O206">
-        <v>3.8E-3</v>
+        <v>0.0038</v>
       </c>
       <c r="P206">
         <v>0.38</v>
@@ -23134,7 +23123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:55">
       <c r="D207" t="s">
         <v>470</v>
       </c>
@@ -23151,10 +23140,10 @@
         <v>240000</v>
       </c>
       <c r="N207">
-        <v>4.1999999999999997E-3</v>
+        <v>0.0042</v>
       </c>
       <c r="O207">
-        <v>4.1999999999999997E-3</v>
+        <v>0.0042</v>
       </c>
       <c r="P207">
         <v>0.4</v>
@@ -23202,16 +23191,16 @@
         <v>0</v>
       </c>
       <c r="AX207">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AY207">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AZ207">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="BA207">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="BB207">
         <v>0</v>
@@ -23220,7 +23209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:55">
       <c r="D208" t="s">
         <v>472</v>
       </c>
@@ -23237,10 +23226,10 @@
         <v>260000</v>
       </c>
       <c r="N208">
-        <v>4.4999999999999997E-3</v>
+        <v>0.0045</v>
       </c>
       <c r="O208">
-        <v>4.4999999999999997E-3</v>
+        <v>0.0045</v>
       </c>
       <c r="P208">
         <v>0.43</v>
@@ -23306,7 +23295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:55">
       <c r="D209" t="s">
         <v>474</v>
       </c>
@@ -23323,10 +23312,10 @@
         <v>350000</v>
       </c>
       <c r="N209">
-        <v>4.7999999999999996E-3</v>
+        <v>0.0048</v>
       </c>
       <c r="O209">
-        <v>4.7999999999999996E-3</v>
+        <v>0.0048</v>
       </c>
       <c r="P209">
         <v>0.45</v>
@@ -23392,7 +23381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:55">
       <c r="D210" t="s">
         <v>476</v>
       </c>
@@ -23409,10 +23398,10 @@
         <v>500000</v>
       </c>
       <c r="N210">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O210">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="P210">
         <v>0.48</v>
@@ -23478,7 +23467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:55">
       <c r="D211" t="s">
         <v>478</v>
       </c>
@@ -23495,10 +23484,10 @@
         <v>1000000</v>
       </c>
       <c r="N211">
-        <v>5.3E-3</v>
+        <v>0.0053</v>
       </c>
       <c r="O211">
-        <v>5.3E-3</v>
+        <v>0.0053</v>
       </c>
       <c r="P211">
         <v>0.5</v>
@@ -23564,7 +23553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:55">
       <c r="D212" t="s">
         <v>480</v>
       </c>
@@ -23581,10 +23570,10 @@
         <v>10000000</v>
       </c>
       <c r="N212">
-        <v>5.7999999999999996E-3</v>
+        <v>0.0058</v>
       </c>
       <c r="O212">
-        <v>5.7999999999999996E-3</v>
+        <v>0.0058</v>
       </c>
       <c r="P212">
         <v>0.53</v>
@@ -23650,7 +23639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:55">
       <c r="D213" t="s">
         <v>482</v>
       </c>
@@ -23667,13 +23656,13 @@
         <v>25000000</v>
       </c>
       <c r="N213">
-        <v>5.7999999999999996E-3</v>
+        <v>0.0058</v>
       </c>
       <c r="O213">
-        <v>5.7999999999999996E-3</v>
+        <v>0.0058</v>
       </c>
       <c r="P213">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="Y213">
         <v>1</v>
@@ -23736,7 +23725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:55">
       <c r="D214" t="s">
         <v>484</v>
       </c>
@@ -23753,13 +23742,13 @@
         <v>40000000</v>
       </c>
       <c r="N214">
-        <v>6.1999999999999998E-3</v>
+        <v>0.0062</v>
       </c>
       <c r="O214">
-        <v>6.1999999999999998E-3</v>
+        <v>0.0062</v>
       </c>
       <c r="P214">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y214">
         <v>1</v>
@@ -23804,16 +23793,16 @@
         <v>0</v>
       </c>
       <c r="AX214">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AY214">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AZ214">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="BA214">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="BB214">
         <v>0</v>
@@ -23822,7 +23811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:55">
       <c r="D215" t="s">
         <v>486</v>
       </c>
@@ -23839,10 +23828,10 @@
         <v>65000000</v>
       </c>
       <c r="N215">
-        <v>6.4999999999999997E-3</v>
+        <v>0.0065</v>
       </c>
       <c r="O215">
-        <v>6.4999999999999997E-3</v>
+        <v>0.0065</v>
       </c>
       <c r="P215">
         <v>0.62</v>
@@ -23908,7 +23897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:55">
       <c r="D216" t="s">
         <v>488</v>
       </c>
@@ -23925,10 +23914,10 @@
         <v>100000000</v>
       </c>
       <c r="N216">
-        <v>6.7999999999999996E-3</v>
+        <v>0.0068</v>
       </c>
       <c r="O216">
-        <v>6.7999999999999996E-3</v>
+        <v>0.0068</v>
       </c>
       <c r="P216">
         <v>0.65</v>
@@ -23994,7 +23983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:55">
       <c r="D217" t="s">
         <v>490</v>
       </c>
@@ -24011,10 +24000,10 @@
         <v>160000000</v>
       </c>
       <c r="N217">
-        <v>7.3000000000000001E-3</v>
+        <v>0.0073</v>
       </c>
       <c r="O217">
-        <v>7.3000000000000001E-3</v>
+        <v>0.0073</v>
       </c>
       <c r="P217">
         <v>0.7</v>
@@ -24089,7 +24078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:55">
       <c r="D218" t="s">
         <v>492</v>
       </c>
@@ -24106,10 +24095,10 @@
         <v>250000000</v>
       </c>
       <c r="N218">
-        <v>7.4999999999999997E-3</v>
+        <v>0.0075</v>
       </c>
       <c r="O218">
-        <v>7.4999999999999997E-3</v>
+        <v>0.0075</v>
       </c>
       <c r="P218">
         <v>0.73</v>
@@ -24190,7 +24179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:55">
       <c r="D219" t="s">
         <v>494</v>
       </c>
@@ -24207,10 +24196,10 @@
         <v>500000000</v>
       </c>
       <c r="N219">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="O219">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="P219">
         <v>0.75</v>
@@ -24282,7 +24271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:55">
       <c r="D220" t="s">
         <v>496</v>
       </c>
@@ -24299,10 +24288,10 @@
         <v>1000000000</v>
       </c>
       <c r="N220">
-        <v>8.3000000000000001E-3</v>
+        <v>0.0083</v>
       </c>
       <c r="O220">
-        <v>8.3000000000000001E-3</v>
+        <v>0.0083</v>
       </c>
       <c r="P220">
         <v>0.78</v>
@@ -24368,7 +24357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:55">
       <c r="D221" t="s">
         <v>498</v>
       </c>
@@ -24385,10 +24374,10 @@
         <v>2000000000</v>
       </c>
       <c r="N221">
-        <v>8.6E-3</v>
+        <v>0.0086</v>
       </c>
       <c r="O221">
-        <v>8.6E-3</v>
+        <v>0.0086</v>
       </c>
       <c r="P221">
         <v>0.82</v>
@@ -24454,7 +24443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:55">
       <c r="D222" t="s">
         <v>500</v>
       </c>
@@ -24477,10 +24466,10 @@
         <v>0</v>
       </c>
       <c r="N222">
-        <v>8.9999999999999993E-3</v>
+        <v>0.009</v>
       </c>
       <c r="O222">
-        <v>8.9999999999999993E-3</v>
+        <v>0.009</v>
       </c>
       <c r="P222">
         <v>0.85</v>
@@ -24549,7 +24538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:55">
       <c r="D223" t="s">
         <v>502</v>
       </c>
@@ -24644,7 +24633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:55">
       <c r="D224" t="s">
         <v>504</v>
       </c>
@@ -24667,10 +24656,10 @@
         <v>0</v>
       </c>
       <c r="N224">
-        <v>1.2E-2</v>
+        <v>0.012</v>
       </c>
       <c r="O224">
-        <v>1.2E-2</v>
+        <v>0.012</v>
       </c>
       <c r="P224">
         <v>0.93</v>
@@ -24739,7 +24728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:55">
       <c r="D225" t="s">
         <v>506</v>
       </c>
@@ -24762,10 +24751,10 @@
         <v>0</v>
       </c>
       <c r="N225">
-        <v>1.4E-2</v>
+        <v>0.014</v>
       </c>
       <c r="O225">
-        <v>1.4E-2</v>
+        <v>0.014</v>
       </c>
       <c r="P225">
         <v>0.95</v>
@@ -24834,7 +24823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:55">
       <c r="D226" t="s">
         <v>508</v>
       </c>
@@ -24905,7 +24894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:55">
       <c r="D227" t="s">
         <v>512</v>
       </c>
@@ -24973,7 +24962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:55">
       <c r="D228" t="s">
         <v>515</v>
       </c>
@@ -25041,7 +25030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:55">
       <c r="D229" t="s">
         <v>518</v>
       </c>
@@ -25109,7 +25098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:55">
       <c r="D230" t="s">
         <v>520</v>
       </c>
@@ -25177,7 +25166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:55">
       <c r="D231" t="s">
         <v>522</v>
       </c>
@@ -25254,7 +25243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:55">
       <c r="D232" t="s">
         <v>525</v>
       </c>
@@ -25331,7 +25320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:55">
       <c r="D233" t="s">
         <v>528</v>
       </c>
@@ -25408,7 +25397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:55">
       <c r="D234" t="s">
         <v>531</v>
       </c>
@@ -25485,7 +25474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:55">
       <c r="D235" t="s">
         <v>534</v>
       </c>
@@ -25562,7 +25551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:55">
       <c r="D236" t="s">
         <v>537</v>
       </c>
@@ -25636,7 +25625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:55">
       <c r="D237" t="s">
         <v>540</v>
       </c>
@@ -25704,7 +25693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:55">
       <c r="D238" t="s">
         <v>542</v>
       </c>
@@ -25769,7 +25758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:55">
       <c r="D239" t="s">
         <v>545</v>
       </c>
@@ -25812,15 +25801,6 @@
       <c r="AO239">
         <v>0</v>
       </c>
-      <c r="AR239">
-        <v>0</v>
-      </c>
-      <c r="AT239">
-        <v>0</v>
-      </c>
-      <c r="AU239">
-        <v>0</v>
-      </c>
       <c r="AW239">
         <v>0</v>
       </c>
@@ -25837,13 +25817,13 @@
         <v>0</v>
       </c>
       <c r="BB239">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BC239">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="240" spans="4:55" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:55">
       <c r="D240" t="s">
         <v>548</v>
       </c>
@@ -25866,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="X240" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AF240">
         <v>0</v>
@@ -25911,21 +25891,21 @@
         <v>0</v>
       </c>
       <c r="BB240">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="BC240">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="241" spans="4:55" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:55">
       <c r="D241" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E241" t="s">
         <v>509</v>
       </c>
       <c r="F241" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L241">
         <v>0</v>
@@ -25939,9 +25919,6 @@
       <c r="W241">
         <v>0</v>
       </c>
-      <c r="X241" t="s">
-        <v>547</v>
-      </c>
       <c r="AF241">
         <v>0</v>
       </c>
@@ -25985,21 +25962,21 @@
         <v>0</v>
       </c>
       <c r="BB241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC241">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="242" spans="4:55" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:55">
       <c r="D242" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E242" t="s">
         <v>509</v>
       </c>
       <c r="F242" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L242">
         <v>0</v>
@@ -26013,6 +25990,9 @@
       <c r="W242">
         <v>0</v>
       </c>
+      <c r="X242" t="s">
+        <v>555</v>
+      </c>
       <c r="AF242">
         <v>0</v>
       </c>
@@ -26056,37 +26036,37 @@
         <v>0</v>
       </c>
       <c r="BB242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="4:55" x14ac:dyDescent="0.2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="243" spans="1:55">
       <c r="D243" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E243" t="s">
         <v>509</v>
       </c>
       <c r="F243" t="s">
+        <v>557</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="V243">
+        <v>0</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243" t="s">
         <v>555</v>
       </c>
-      <c r="L243">
-        <v>0</v>
-      </c>
-      <c r="M243">
-        <v>0</v>
-      </c>
-      <c r="V243">
-        <v>0</v>
-      </c>
-      <c r="W243">
-        <v>0</v>
-      </c>
-      <c r="X243" t="s">
-        <v>556</v>
-      </c>
       <c r="AF243">
         <v>0</v>
       </c>
@@ -26130,21 +26110,21 @@
         <v>0</v>
       </c>
       <c r="BB243">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BC243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="4:55" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:55">
       <c r="D244" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E244" t="s">
         <v>509</v>
       </c>
       <c r="F244" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L244">
         <v>0</v>
@@ -26159,7 +26139,7 @@
         <v>0</v>
       </c>
       <c r="X244" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AF244">
         <v>0</v>
@@ -26204,13 +26184,13 @@
         <v>0</v>
       </c>
       <c r="BB244">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BC244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="4:55" x14ac:dyDescent="0.2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:55">
       <c r="D245" t="s">
         <v>560</v>
       </c>
@@ -26233,7 +26213,7 @@
         <v>0</v>
       </c>
       <c r="X245" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="AF245">
         <v>0</v>
@@ -26284,7 +26264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:55">
       <c r="D246" t="s">
         <v>562</v>
       </c>
@@ -26364,7 +26344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:55">
       <c r="D247" t="s">
         <v>565</v>
       </c>
@@ -26444,7 +26424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:55">
       <c r="D248" t="s">
         <v>568</v>
       </c>
@@ -26512,7 +26492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:55">
       <c r="D249" t="s">
         <v>571</v>
       </c>
@@ -26583,7 +26563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:55">
       <c r="D250" t="s">
         <v>573</v>
       </c>
@@ -26654,7 +26634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:55">
       <c r="D251" t="s">
         <v>575</v>
       </c>
@@ -26719,7 +26699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:55">
       <c r="D252" t="s">
         <v>578</v>
       </c>
@@ -26790,7 +26770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:55">
       <c r="D253" t="s">
         <v>580</v>
       </c>
@@ -26861,7 +26841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:55">
       <c r="D254" t="s">
         <v>582</v>
       </c>
@@ -26932,7 +26912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:55">
       <c r="D255" t="s">
         <v>584</v>
       </c>
@@ -27003,7 +26983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:55">
       <c r="D256" t="s">
         <v>586</v>
       </c>
@@ -27086,7 +27066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:55">
       <c r="D257" t="s">
         <v>588</v>
       </c>
@@ -27190,7 +27170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:55">
       <c r="D258" t="s">
         <v>590</v>
       </c>
@@ -27294,7 +27274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:55">
       <c r="D259" t="s">
         <v>592</v>
       </c>
@@ -27398,7 +27378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:55">
       <c r="D260" t="s">
         <v>594</v>
       </c>
@@ -27502,7 +27482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:55">
       <c r="D261" t="s">
         <v>596</v>
       </c>
@@ -27606,7 +27586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:55">
       <c r="D262" t="s">
         <v>598</v>
       </c>
@@ -27710,7 +27690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:55">
       <c r="D263" t="s">
         <v>600</v>
       </c>
@@ -27811,7 +27791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:55">
       <c r="D264" t="s">
         <v>602</v>
       </c>
@@ -27831,25 +27811,25 @@
         <v>1500</v>
       </c>
       <c r="Q264">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="R264">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="S264">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="T264">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="U264">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="V264">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="W264">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y264">
         <v>1</v>
@@ -27912,7 +27892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:55">
       <c r="D265" t="s">
         <v>604</v>
       </c>
@@ -28013,7 +27993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:55">
       <c r="D266" t="s">
         <v>606</v>
       </c>
@@ -28114,7 +28094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:55">
       <c r="D267" t="s">
         <v>608</v>
       </c>
@@ -28215,7 +28195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:55">
       <c r="D268" t="s">
         <v>610</v>
       </c>
@@ -28316,7 +28296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:55">
       <c r="D269" t="s">
         <v>612</v>
       </c>
@@ -28417,7 +28397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:55">
       <c r="D270" t="s">
         <v>614</v>
       </c>
@@ -28518,7 +28498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:55">
       <c r="D271" t="s">
         <v>616</v>
       </c>
@@ -28619,7 +28599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:55">
       <c r="D272" t="s">
         <v>618</v>
       </c>
@@ -28720,7 +28700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:55">
       <c r="D273" t="s">
         <v>620</v>
       </c>
@@ -28821,7 +28801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:55">
       <c r="D274" t="s">
         <v>622</v>
       </c>
@@ -28922,7 +28902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:55">
       <c r="D275" t="s">
         <v>624</v>
       </c>
@@ -29023,7 +29003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:55">
       <c r="D276" t="s">
         <v>626</v>
       </c>
@@ -29124,7 +29104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:55">
       <c r="D277" t="s">
         <v>628</v>
       </c>
@@ -29225,7 +29205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:55">
       <c r="D278" t="s">
         <v>630</v>
       </c>
@@ -29326,7 +29306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:55">
       <c r="D279" t="s">
         <v>632</v>
       </c>
@@ -29427,7 +29407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:55">
       <c r="D280" t="s">
         <v>634</v>
       </c>
@@ -29447,25 +29427,25 @@
         <v>25000000</v>
       </c>
       <c r="Q280">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="R280">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="S280">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="T280">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="U280">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="V280">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="W280">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="Y280">
         <v>1</v>
@@ -29528,7 +29508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:55">
       <c r="D281" t="s">
         <v>636</v>
       </c>
@@ -29548,25 +29528,25 @@
         <v>40000000</v>
       </c>
       <c r="Q281">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="R281">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="S281">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="T281">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="U281">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="V281">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="W281">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y281">
         <v>1</v>
@@ -29629,7 +29609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:55">
       <c r="D282" t="s">
         <v>638</v>
       </c>
@@ -29730,7 +29710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:55">
       <c r="D283" t="s">
         <v>640</v>
       </c>
@@ -29831,7 +29811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:55">
       <c r="D284" t="s">
         <v>642</v>
       </c>
@@ -29932,7 +29912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:55">
       <c r="D285" t="s">
         <v>644</v>
       </c>
@@ -30033,7 +30013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:55">
       <c r="D286" t="s">
         <v>646</v>
       </c>
@@ -30134,7 +30114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:55">
       <c r="D287" t="s">
         <v>648</v>
       </c>
@@ -30235,7 +30215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:55">
       <c r="D288" t="s">
         <v>650</v>
       </c>
@@ -30339,7 +30319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:55">
       <c r="D289" t="s">
         <v>652</v>
       </c>
@@ -30449,7 +30429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:55">
       <c r="D290" t="s">
         <v>654</v>
       </c>
@@ -30559,7 +30539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:55">
       <c r="D291" t="s">
         <v>656</v>
       </c>
@@ -30669,7 +30649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:55">
       <c r="D292" t="s">
         <v>658</v>
       </c>
@@ -30779,7 +30759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:55">
       <c r="D293" t="s">
         <v>660</v>
       </c>
@@ -30883,7 +30863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:55">
       <c r="D294" t="s">
         <v>663</v>
       </c>
@@ -30987,7 +30967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:55">
       <c r="D295" t="s">
         <v>665</v>
       </c>
@@ -31091,7 +31071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:55">
       <c r="D296" t="s">
         <v>667</v>
       </c>
@@ -31195,7 +31175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:55">
       <c r="D297" t="s">
         <v>669</v>
       </c>
@@ -31299,7 +31279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:55">
       <c r="D298" t="s">
         <v>671</v>
       </c>
@@ -31403,7 +31383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:55">
       <c r="D299" t="s">
         <v>673</v>
       </c>
@@ -31507,7 +31487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:55">
       <c r="D300" t="s">
         <v>675</v>
       </c>
@@ -31527,25 +31507,25 @@
         <v>1000</v>
       </c>
       <c r="Q300">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="R300">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="S300">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="T300">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="U300">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="V300">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="W300">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y300">
         <v>1</v>
@@ -31608,7 +31588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:55">
       <c r="D301" t="s">
         <v>677</v>
       </c>
@@ -31709,7 +31689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:55">
       <c r="D302" t="s">
         <v>679</v>
       </c>
@@ -31810,7 +31790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:55">
       <c r="D303" t="s">
         <v>681</v>
       </c>
@@ -31911,7 +31891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:55">
       <c r="D304" t="s">
         <v>683</v>
       </c>
@@ -32012,7 +31992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:55">
       <c r="D305" t="s">
         <v>685</v>
       </c>
@@ -32113,7 +32093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:55">
       <c r="D306" t="s">
         <v>687</v>
       </c>
@@ -32214,7 +32194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:55">
       <c r="D307" t="s">
         <v>689</v>
       </c>
@@ -32315,7 +32295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:55">
       <c r="D308" t="s">
         <v>691</v>
       </c>
@@ -32416,7 +32396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:55">
       <c r="D309" t="s">
         <v>693</v>
       </c>
@@ -32517,7 +32497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:55">
       <c r="D310" t="s">
         <v>695</v>
       </c>
@@ -32618,7 +32598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:55">
       <c r="D311" t="s">
         <v>697</v>
       </c>
@@ -32719,7 +32699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:55">
       <c r="D312" t="s">
         <v>699</v>
       </c>
@@ -32820,7 +32800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:55">
       <c r="D313" t="s">
         <v>701</v>
       </c>
@@ -32921,7 +32901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:55">
       <c r="D314" t="s">
         <v>703</v>
       </c>
@@ -33022,7 +33002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:55">
       <c r="D315" t="s">
         <v>705</v>
       </c>
@@ -33123,7 +33103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:55">
       <c r="D316" t="s">
         <v>707</v>
       </c>
@@ -33143,25 +33123,25 @@
         <v>10000000</v>
       </c>
       <c r="Q316">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="R316">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="S316">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="T316">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="U316">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="V316">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="W316">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="Y316">
         <v>1</v>
@@ -33224,7 +33204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:55">
       <c r="D317" t="s">
         <v>709</v>
       </c>
@@ -33244,25 +33224,25 @@
         <v>25000000</v>
       </c>
       <c r="Q317">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="R317">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="S317">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="T317">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="U317">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="V317">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="W317">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y317">
         <v>1</v>
@@ -33325,7 +33305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:55">
       <c r="D318" t="s">
         <v>711</v>
       </c>
@@ -33426,7 +33406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:55">
       <c r="D319" t="s">
         <v>713</v>
       </c>
@@ -33527,7 +33507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:55">
       <c r="D320" t="s">
         <v>715</v>
       </c>
@@ -33628,7 +33608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:55">
       <c r="D321" t="s">
         <v>717</v>
       </c>
@@ -33729,7 +33709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:55">
       <c r="D322" t="s">
         <v>719</v>
       </c>
@@ -33830,7 +33810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:55">
       <c r="D323" t="s">
         <v>721</v>
       </c>
@@ -33931,7 +33911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:55">
       <c r="D324" t="s">
         <v>723</v>
       </c>
@@ -34032,7 +34012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:55">
       <c r="D325" t="s">
         <v>725</v>
       </c>
@@ -34133,7 +34113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:55">
       <c r="D326" t="s">
         <v>727</v>
       </c>
@@ -34243,7 +34223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:55">
       <c r="D327" t="s">
         <v>729</v>
       </c>
@@ -34353,7 +34333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:55">
       <c r="D328" t="s">
         <v>731</v>
       </c>
@@ -34463,7 +34443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:55">
       <c r="D329" t="s">
         <v>733</v>
       </c>
@@ -34573,7 +34553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:55">
       <c r="D330" t="s">
         <v>735</v>
       </c>
@@ -34677,7 +34657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:55">
       <c r="D331" t="s">
         <v>738</v>
       </c>
@@ -34781,7 +34761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:55">
       <c r="D332" t="s">
         <v>740</v>
       </c>
@@ -34885,7 +34865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:55">
       <c r="D333" t="s">
         <v>742</v>
       </c>
@@ -34989,7 +34969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:55">
       <c r="D334" t="s">
         <v>744</v>
       </c>
@@ -35093,7 +35073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:55">
       <c r="D335" t="s">
         <v>746</v>
       </c>
@@ -35197,7 +35177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:55">
       <c r="D336" t="s">
         <v>748</v>
       </c>
@@ -35304,7 +35284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:55">
       <c r="D337" t="s">
         <v>750</v>
       </c>
@@ -35324,25 +35304,25 @@
         <v>1000</v>
       </c>
       <c r="Q337">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="R337">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="S337">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="T337">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="U337">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="V337">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="W337">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y337">
         <v>1</v>
@@ -35405,7 +35385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:55">
       <c r="D338" t="s">
         <v>752</v>
       </c>
@@ -35506,7 +35486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:55">
       <c r="D339" t="s">
         <v>754</v>
       </c>
@@ -35607,7 +35587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:55">
       <c r="D340" t="s">
         <v>756</v>
       </c>
@@ -35708,7 +35688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:55">
       <c r="D341" t="s">
         <v>758</v>
       </c>
@@ -35809,7 +35789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:55">
       <c r="D342" t="s">
         <v>760</v>
       </c>
@@ -35910,7 +35890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:55">
       <c r="D343" t="s">
         <v>762</v>
       </c>
@@ -36011,7 +35991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:55">
       <c r="D344" t="s">
         <v>764</v>
       </c>
@@ -36112,7 +36092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:55">
       <c r="D345" t="s">
         <v>766</v>
       </c>
@@ -36213,7 +36193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:55">
       <c r="D346" t="s">
         <v>768</v>
       </c>
@@ -36314,7 +36294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:55">
       <c r="D347" t="s">
         <v>770</v>
       </c>
@@ -36415,7 +36395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:55">
       <c r="D348" t="s">
         <v>772</v>
       </c>
@@ -36516,7 +36496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:55">
       <c r="D349" t="s">
         <v>774</v>
       </c>
@@ -36617,7 +36597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:55">
       <c r="D350" t="s">
         <v>776</v>
       </c>
@@ -36718,7 +36698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:55">
       <c r="D351" t="s">
         <v>778</v>
       </c>
@@ -36819,7 +36799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:55">
       <c r="D352" t="s">
         <v>780</v>
       </c>
@@ -36920,7 +36900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:55">
       <c r="D353" t="s">
         <v>782</v>
       </c>
@@ -36940,25 +36920,25 @@
         <v>25000000</v>
       </c>
       <c r="Q353">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="R353">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="S353">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="T353">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="U353">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="V353">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="W353">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="Y353">
         <v>1</v>
@@ -37021,7 +37001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:55">
       <c r="D354" t="s">
         <v>784</v>
       </c>
@@ -37122,7 +37102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:55">
       <c r="D355" t="s">
         <v>785</v>
       </c>
@@ -37223,7 +37203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:55">
       <c r="D356" t="s">
         <v>787</v>
       </c>
@@ -37324,7 +37304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:55">
       <c r="D357" t="s">
         <v>789</v>
       </c>
@@ -37425,7 +37405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:55">
       <c r="D358" t="s">
         <v>791</v>
       </c>
@@ -37526,7 +37506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:55">
       <c r="D359" t="s">
         <v>793</v>
       </c>
@@ -37627,7 +37607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:55">
       <c r="D360" t="s">
         <v>795</v>
       </c>
@@ -37728,7 +37708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:55">
       <c r="D361" t="s">
         <v>797</v>
       </c>
@@ -37829,7 +37809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:55">
       <c r="D362" t="s">
         <v>799</v>
       </c>
@@ -37930,7 +37910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:55">
       <c r="D363" t="s">
         <v>801</v>
       </c>
@@ -38040,7 +38020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:55">
       <c r="D364" t="s">
         <v>803</v>
       </c>
@@ -38150,7 +38130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:55">
       <c r="D365" t="s">
         <v>805</v>
       </c>
@@ -38260,7 +38240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:55">
       <c r="D366" t="s">
         <v>807</v>
       </c>
@@ -38370,7 +38350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:55">
       <c r="D367" t="s">
         <v>809</v>
       </c>
@@ -38474,7 +38454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:55">
       <c r="D368" t="s">
         <v>812</v>
       </c>
@@ -38578,7 +38558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:55">
       <c r="D369" t="s">
         <v>814</v>
       </c>
@@ -38682,7 +38662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:55">
       <c r="D370" t="s">
         <v>816</v>
       </c>
@@ -38786,7 +38766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:55">
       <c r="D371" t="s">
         <v>818</v>
       </c>
@@ -38890,7 +38870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:55">
       <c r="D372" t="s">
         <v>820</v>
       </c>
@@ -38994,7 +38974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:55">
       <c r="D373" t="s">
         <v>822</v>
       </c>
@@ -39098,7 +39078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:55">
       <c r="D374" t="s">
         <v>824</v>
       </c>
@@ -39118,25 +39098,25 @@
         <v>1000</v>
       </c>
       <c r="Q374">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="R374">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="S374">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="T374">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="U374">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="V374">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="W374">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y374">
         <v>1</v>
@@ -39199,7 +39179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:55">
       <c r="D375" t="s">
         <v>826</v>
       </c>
@@ -39300,7 +39280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:55">
       <c r="D376" t="s">
         <v>828</v>
       </c>
@@ -39401,7 +39381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:55">
       <c r="D377" t="s">
         <v>830</v>
       </c>
@@ -39502,7 +39482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:55">
       <c r="D378" t="s">
         <v>832</v>
       </c>
@@ -39603,7 +39583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:55">
       <c r="D379" t="s">
         <v>834</v>
       </c>
@@ -39704,7 +39684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:55">
       <c r="D380" t="s">
         <v>836</v>
       </c>
@@ -39805,7 +39785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:55">
       <c r="D381" t="s">
         <v>838</v>
       </c>
@@ -39906,7 +39886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:55">
       <c r="D382" t="s">
         <v>840</v>
       </c>
@@ -40007,7 +39987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:55">
       <c r="D383" t="s">
         <v>842</v>
       </c>
@@ -40108,7 +40088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:55">
       <c r="D384" t="s">
         <v>844</v>
       </c>
@@ -40209,7 +40189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:55">
       <c r="D385" t="s">
         <v>846</v>
       </c>
@@ -40310,7 +40290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:55">
       <c r="D386" t="s">
         <v>848</v>
       </c>
@@ -40411,7 +40391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:55">
       <c r="D387" t="s">
         <v>850</v>
       </c>
@@ -40512,7 +40492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:55">
       <c r="D388" t="s">
         <v>852</v>
       </c>
@@ -40613,7 +40593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:55">
       <c r="D389" t="s">
         <v>854</v>
       </c>
@@ -40714,7 +40694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:55">
       <c r="D390" t="s">
         <v>856</v>
       </c>
@@ -40734,25 +40714,25 @@
         <v>10000000</v>
       </c>
       <c r="Q390">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="R390">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="S390">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="T390">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="U390">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="V390">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="W390">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="Y390">
         <v>1</v>
@@ -40815,7 +40795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:55">
       <c r="D391" t="s">
         <v>858</v>
       </c>
@@ -40835,25 +40815,25 @@
         <v>25000000</v>
       </c>
       <c r="Q391">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="R391">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="S391">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="T391">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="U391">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="V391">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="W391">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y391">
         <v>1</v>
@@ -40916,7 +40896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:55">
       <c r="D392" t="s">
         <v>860</v>
       </c>
@@ -41017,7 +40997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:55">
       <c r="D393" t="s">
         <v>862</v>
       </c>
@@ -41118,7 +41098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:55">
       <c r="D394" t="s">
         <v>864</v>
       </c>
@@ -41219,7 +41199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:55">
       <c r="D395" t="s">
         <v>866</v>
       </c>
@@ -41320,7 +41300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:55">
       <c r="D396" t="s">
         <v>868</v>
       </c>
@@ -41421,7 +41401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:55">
       <c r="D397" t="s">
         <v>870</v>
       </c>
@@ -41522,7 +41502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:55">
       <c r="D398" t="s">
         <v>872</v>
       </c>
@@ -41623,7 +41603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:55">
       <c r="D399" t="s">
         <v>874</v>
       </c>
@@ -41724,7 +41704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:55">
       <c r="D400" t="s">
         <v>876</v>
       </c>
@@ -41834,7 +41814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:55">
       <c r="D401" t="s">
         <v>878</v>
       </c>
@@ -41944,7 +41924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:55">
       <c r="D402" t="s">
         <v>880</v>
       </c>
@@ -42054,7 +42034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:55">
       <c r="D403" t="s">
         <v>882</v>
       </c>
@@ -42164,7 +42144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:55">
       <c r="D404" t="s">
         <v>884</v>
       </c>
@@ -42274,7 +42254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:55">
       <c r="D405" t="s">
         <v>887</v>
       </c>
@@ -42321,7 +42301,7 @@
         <v>56</v>
       </c>
       <c r="AF405">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AG405">
         <v>0</v>
@@ -42330,7 +42310,7 @@
         <v>0</v>
       </c>
       <c r="AI405">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="AJ405">
         <v>0</v>
@@ -42369,7 +42349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:55">
       <c r="D406" t="s">
         <v>889</v>
       </c>
@@ -42416,7 +42396,7 @@
         <v>56</v>
       </c>
       <c r="AF406">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AG406">
         <v>0</v>
@@ -42425,7 +42405,7 @@
         <v>0</v>
       </c>
       <c r="AI406">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="AJ406">
         <v>0</v>
@@ -42464,7 +42444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:55">
       <c r="D407" t="s">
         <v>891</v>
       </c>
@@ -42511,7 +42491,7 @@
         <v>56</v>
       </c>
       <c r="AF407">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="AG407">
         <v>0</v>
@@ -42520,7 +42500,7 @@
         <v>0</v>
       </c>
       <c r="AI407">
-        <v>8.0000000000000004E-4</v>
+        <v>0.0008</v>
       </c>
       <c r="AJ407">
         <v>0</v>
@@ -42559,7 +42539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:55">
       <c r="D408" t="s">
         <v>893</v>
       </c>
@@ -42606,7 +42586,7 @@
         <v>56</v>
       </c>
       <c r="AF408">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="AG408">
         <v>0</v>
@@ -42615,7 +42595,7 @@
         <v>0</v>
       </c>
       <c r="AI408">
-        <v>8.9999999999999998E-4</v>
+        <v>0.0009</v>
       </c>
       <c r="AJ408">
         <v>0</v>
@@ -42654,7 +42634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:55">
       <c r="D409" t="s">
         <v>895</v>
       </c>
@@ -42701,7 +42681,7 @@
         <v>56</v>
       </c>
       <c r="AF409">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="AG409">
         <v>0</v>
@@ -42710,7 +42690,7 @@
         <v>0</v>
       </c>
       <c r="AI409">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AJ409">
         <v>0</v>
@@ -42749,7 +42729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:55">
       <c r="D410" t="s">
         <v>897</v>
       </c>
@@ -42799,7 +42779,7 @@
         <v>0</v>
       </c>
       <c r="AI410">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AJ410">
         <v>0</v>
@@ -42838,7 +42818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:55">
       <c r="D411" t="s">
         <v>899</v>
       </c>
@@ -42876,7 +42856,7 @@
         <v>56</v>
       </c>
       <c r="AF411">
-        <v>2.1999999999999999E-2</v>
+        <v>0.022</v>
       </c>
       <c r="AG411">
         <v>0</v>
@@ -42885,7 +42865,7 @@
         <v>0</v>
       </c>
       <c r="AI411">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AJ411">
         <v>0</v>
@@ -42924,7 +42904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:55">
       <c r="D412" t="s">
         <v>901</v>
       </c>
@@ -42962,7 +42942,7 @@
         <v>56</v>
       </c>
       <c r="AF412">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AG412">
         <v>0</v>
@@ -42971,7 +42951,7 @@
         <v>0</v>
       </c>
       <c r="AI412">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AJ412">
         <v>0</v>
@@ -43010,7 +42990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:55">
       <c r="D413" t="s">
         <v>903</v>
       </c>
@@ -43048,7 +43028,7 @@
         <v>56</v>
       </c>
       <c r="AF413">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="AG413">
         <v>0</v>
@@ -43057,7 +43037,7 @@
         <v>0</v>
       </c>
       <c r="AI413">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AJ413">
         <v>0</v>
@@ -43096,7 +43076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:55">
       <c r="D414" t="s">
         <v>905</v>
       </c>
@@ -43134,7 +43114,7 @@
         <v>56</v>
       </c>
       <c r="AF414">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="AG414">
         <v>0</v>
@@ -43143,7 +43123,7 @@
         <v>0</v>
       </c>
       <c r="AI414">
-        <v>6.0000000000000001E-3</v>
+        <v>0.006</v>
       </c>
       <c r="AJ414">
         <v>0</v>
@@ -43182,7 +43162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:55">
       <c r="D415" t="s">
         <v>907</v>
       </c>
@@ -43202,10 +43182,10 @@
         <v>7000</v>
       </c>
       <c r="S415">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="V415">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="Y415">
         <v>1</v>
@@ -43220,7 +43200,7 @@
         <v>56</v>
       </c>
       <c r="AF415">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="AG415">
         <v>0</v>
@@ -43229,7 +43209,7 @@
         <v>0</v>
       </c>
       <c r="AI415">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="AJ415">
         <v>0</v>
@@ -43268,7 +43248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:55">
       <c r="D416" t="s">
         <v>909</v>
       </c>
@@ -43306,7 +43286,7 @@
         <v>56</v>
       </c>
       <c r="AF416">
-        <v>4.2000000000000003E-2</v>
+        <v>0.042</v>
       </c>
       <c r="AG416">
         <v>0</v>
@@ -43315,7 +43295,7 @@
         <v>0</v>
       </c>
       <c r="AI416">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AJ416">
         <v>0</v>
@@ -43354,7 +43334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:55">
       <c r="D417" t="s">
         <v>911</v>
       </c>
@@ -43392,7 +43372,7 @@
         <v>56</v>
       </c>
       <c r="AF417">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="AG417">
         <v>0</v>
@@ -43401,7 +43381,7 @@
         <v>0</v>
       </c>
       <c r="AI417">
-        <v>8.9999999999999993E-3</v>
+        <v>0.009</v>
       </c>
       <c r="AJ417">
         <v>0</v>
@@ -43440,7 +43420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:55">
       <c r="D418" t="s">
         <v>913</v>
       </c>
@@ -43478,7 +43458,7 @@
         <v>56</v>
       </c>
       <c r="AF418">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="AG418">
         <v>0</v>
@@ -43526,7 +43506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:55">
       <c r="D419" t="s">
         <v>915</v>
       </c>
@@ -43564,7 +43544,7 @@
         <v>56</v>
       </c>
       <c r="AF419">
-        <v>5.8000000000000003E-2</v>
+        <v>0.058</v>
       </c>
       <c r="AG419">
         <v>0</v>
@@ -43573,7 +43553,7 @@
         <v>0</v>
       </c>
       <c r="AI419">
-        <v>1.2999999999999999E-2</v>
+        <v>0.013</v>
       </c>
       <c r="AJ419">
         <v>0</v>
@@ -43612,7 +43592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:55">
       <c r="D420" t="s">
         <v>917</v>
       </c>
@@ -43659,7 +43639,7 @@
         <v>0</v>
       </c>
       <c r="AI420">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="AJ420">
         <v>0</v>
@@ -43698,7 +43678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:55">
       <c r="D421" t="s">
         <v>919</v>
       </c>
@@ -43736,7 +43716,7 @@
         <v>56</v>
       </c>
       <c r="AF421">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="AG421">
         <v>0</v>
@@ -43745,7 +43725,7 @@
         <v>0</v>
       </c>
       <c r="AI421">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="AJ421">
         <v>0</v>
@@ -43784,7 +43764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:55">
       <c r="D422" t="s">
         <v>921</v>
       </c>
@@ -43822,7 +43802,7 @@
         <v>56</v>
       </c>
       <c r="AF422">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AG422">
         <v>0</v>
@@ -43831,7 +43811,7 @@
         <v>0</v>
       </c>
       <c r="AI422">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="AJ422">
         <v>0</v>
@@ -43870,7 +43850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:55">
       <c r="D423" t="s">
         <v>923</v>
       </c>
@@ -43908,7 +43888,7 @@
         <v>56</v>
       </c>
       <c r="AF423">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="AG423">
         <v>0</v>
@@ -43956,7 +43936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:55">
       <c r="D424" t="s">
         <v>925</v>
       </c>
@@ -43994,7 +43974,7 @@
         <v>56</v>
       </c>
       <c r="AF424">
-        <v>7.8E-2</v>
+        <v>0.078</v>
       </c>
       <c r="AG424">
         <v>0</v>
@@ -44003,7 +43983,7 @@
         <v>0</v>
       </c>
       <c r="AI424">
-        <v>2.1999999999999999E-2</v>
+        <v>0.022</v>
       </c>
       <c r="AJ424">
         <v>0</v>
@@ -44042,7 +44022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:55">
       <c r="D425" t="s">
         <v>927</v>
       </c>
@@ -44080,7 +44060,7 @@
         <v>56</v>
       </c>
       <c r="AF425">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="AG425">
         <v>0</v>
@@ -44089,7 +44069,7 @@
         <v>0</v>
       </c>
       <c r="AI425">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AJ425">
         <v>0</v>
@@ -44128,7 +44108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:55">
       <c r="D426" t="s">
         <v>929</v>
       </c>
@@ -44148,10 +44128,10 @@
         <v>1000000</v>
       </c>
       <c r="S426">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="V426">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y426">
         <v>1</v>
@@ -44166,7 +44146,7 @@
         <v>56</v>
       </c>
       <c r="AF426">
-        <v>8.7999999999999995E-2</v>
+        <v>0.088</v>
       </c>
       <c r="AG426">
         <v>0</v>
@@ -44175,7 +44155,7 @@
         <v>0</v>
       </c>
       <c r="AI426">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="AJ426">
         <v>0</v>
@@ -44214,7 +44194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:55">
       <c r="D427" t="s">
         <v>931</v>
       </c>
@@ -44234,10 +44214,10 @@
         <v>10000000</v>
       </c>
       <c r="S427">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="V427">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y427">
         <v>1</v>
@@ -44252,7 +44232,7 @@
         <v>56</v>
       </c>
       <c r="AF427">
-        <v>9.6000000000000002E-2</v>
+        <v>0.096</v>
       </c>
       <c r="AG427">
         <v>0</v>
@@ -44261,7 +44241,7 @@
         <v>0</v>
       </c>
       <c r="AI427">
-        <v>2.9000000000000001E-2</v>
+        <v>0.029</v>
       </c>
       <c r="AJ427">
         <v>0</v>
@@ -44300,7 +44280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:55">
       <c r="D428" t="s">
         <v>932</v>
       </c>
@@ -44386,7 +44366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:55">
       <c r="D429" t="s">
         <v>934</v>
       </c>
@@ -44433,7 +44413,7 @@
         <v>0</v>
       </c>
       <c r="AI429">
-        <v>3.1E-2</v>
+        <v>0.031</v>
       </c>
       <c r="AJ429">
         <v>0</v>
@@ -44472,7 +44452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:55">
       <c r="D430" t="s">
         <v>936</v>
       </c>
@@ -44519,7 +44499,7 @@
         <v>0</v>
       </c>
       <c r="AI430">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="AJ430">
         <v>0</v>
@@ -44558,7 +44538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:55">
       <c r="D431" t="s">
         <v>938</v>
       </c>
@@ -44605,7 +44585,7 @@
         <v>0</v>
       </c>
       <c r="AI431">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="AJ431">
         <v>0</v>
@@ -44644,7 +44624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:55">
       <c r="D432" t="s">
         <v>940</v>
       </c>
@@ -44691,7 +44671,7 @@
         <v>0</v>
       </c>
       <c r="AI432">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="AJ432">
         <v>0</v>
@@ -44730,7 +44710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:55">
       <c r="D433" t="s">
         <v>942</v>
       </c>
@@ -44816,7 +44796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:55">
       <c r="D434" t="s">
         <v>944</v>
       </c>
@@ -44863,7 +44843,7 @@
         <v>0</v>
       </c>
       <c r="AI434">
-        <v>4.1000000000000002E-2</v>
+        <v>0.041</v>
       </c>
       <c r="AJ434">
         <v>0</v>
@@ -44902,7 +44882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:55">
       <c r="D435" t="s">
         <v>946</v>
       </c>
@@ -44949,7 +44929,7 @@
         <v>0</v>
       </c>
       <c r="AI435">
-        <v>4.2000000000000003E-2</v>
+        <v>0.042</v>
       </c>
       <c r="AJ435">
         <v>0</v>
@@ -44988,7 +44968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:55">
       <c r="D436" t="s">
         <v>948</v>
       </c>
@@ -45035,7 +45015,7 @@
         <v>0</v>
       </c>
       <c r="AI436">
-        <v>4.3999999999999997E-2</v>
+        <v>0.044</v>
       </c>
       <c r="AJ436">
         <v>0</v>
@@ -45074,7 +45054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:55">
       <c r="D437" t="s">
         <v>950</v>
       </c>
@@ -45127,7 +45107,7 @@
         <v>0</v>
       </c>
       <c r="AI437">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="AJ437">
         <v>0</v>
@@ -45169,7 +45149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:55">
       <c r="D438" t="s">
         <v>952</v>
       </c>
@@ -45213,7 +45193,7 @@
         <v>56</v>
       </c>
       <c r="AF438">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="AG438">
         <v>0</v>
@@ -45264,7 +45244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:55">
       <c r="D439" t="s">
         <v>954</v>
       </c>
@@ -45290,10 +45270,10 @@
         <v>0</v>
       </c>
       <c r="S439">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="V439">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Y439">
         <v>1</v>
@@ -45308,7 +45288,7 @@
         <v>56</v>
       </c>
       <c r="AF439">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="AG439">
         <v>0</v>
@@ -45317,7 +45297,7 @@
         <v>0</v>
       </c>
       <c r="AI439">
-        <v>5.1999999999999998E-2</v>
+        <v>0.052</v>
       </c>
       <c r="AJ439">
         <v>0</v>
@@ -45359,7 +45339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:55">
       <c r="D440" t="s">
         <v>956</v>
       </c>
@@ -45385,10 +45365,10 @@
         <v>0</v>
       </c>
       <c r="S440">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="V440">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="Y440">
         <v>1</v>
@@ -45412,7 +45392,7 @@
         <v>0</v>
       </c>
       <c r="AI440">
-        <v>5.3999999999999999E-2</v>
+        <v>0.054</v>
       </c>
       <c r="AJ440">
         <v>0</v>
@@ -45454,7 +45434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:55">
       <c r="D441" t="s">
         <v>958</v>
       </c>
@@ -45558,7 +45538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:55">
       <c r="D442" t="s">
         <v>961</v>
       </c>
@@ -45662,7 +45642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:55">
       <c r="D443" t="s">
         <v>963</v>
       </c>
@@ -45766,7 +45746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:55">
       <c r="D444" t="s">
         <v>965</v>
       </c>
@@ -45870,7 +45850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:55">
       <c r="D445" t="s">
         <v>967</v>
       </c>
@@ -45974,7 +45954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:55">
       <c r="D446" t="s">
         <v>969</v>
       </c>
@@ -46078,7 +46058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:55">
       <c r="D447" t="s">
         <v>971</v>
       </c>
@@ -46182,7 +46162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:55">
       <c r="D448" t="s">
         <v>973</v>
       </c>
@@ -46202,25 +46182,25 @@
         <v>1000</v>
       </c>
       <c r="Q448">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="R448">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="S448">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="T448">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="U448">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="V448">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="W448">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y448">
         <v>1</v>
@@ -46283,7 +46263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:55">
       <c r="D449" t="s">
         <v>975</v>
       </c>
@@ -46384,7 +46364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:55">
       <c r="D450" t="s">
         <v>977</v>
       </c>
@@ -46485,7 +46465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:55">
       <c r="D451" t="s">
         <v>979</v>
       </c>
@@ -46586,7 +46566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:55">
       <c r="D452" t="s">
         <v>981</v>
       </c>
@@ -46687,7 +46667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:55">
       <c r="D453" t="s">
         <v>983</v>
       </c>
@@ -46788,7 +46768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:55">
       <c r="D454" t="s">
         <v>985</v>
       </c>
@@ -46889,7 +46869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:55">
       <c r="D455" t="s">
         <v>987</v>
       </c>
@@ -46990,7 +46970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:55">
       <c r="D456" t="s">
         <v>989</v>
       </c>
@@ -47091,7 +47071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:55">
       <c r="D457" t="s">
         <v>991</v>
       </c>
@@ -47192,7 +47172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:55">
       <c r="D458" t="s">
         <v>993</v>
       </c>
@@ -47293,7 +47273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:55">
       <c r="D459" t="s">
         <v>995</v>
       </c>
@@ -47394,7 +47374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:55">
       <c r="D460" t="s">
         <v>997</v>
       </c>
@@ -47495,7 +47475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:55">
       <c r="D461" t="s">
         <v>999</v>
       </c>
@@ -47596,7 +47576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:55">
       <c r="D462" t="s">
         <v>1001</v>
       </c>
@@ -47697,7 +47677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:55">
       <c r="D463" t="s">
         <v>1003</v>
       </c>
@@ -47798,7 +47778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:55">
       <c r="D464" t="s">
         <v>1005</v>
       </c>
@@ -47818,25 +47798,25 @@
         <v>10000000</v>
       </c>
       <c r="Q464">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="R464">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="S464">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="T464">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="U464">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="V464">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="W464">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="Y464">
         <v>1</v>
@@ -47899,7 +47879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:55">
       <c r="D465" t="s">
         <v>1007</v>
       </c>
@@ -47919,25 +47899,25 @@
         <v>25000000</v>
       </c>
       <c r="Q465">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="R465">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="S465">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="T465">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="U465">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="V465">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="W465">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y465">
         <v>1</v>
@@ -48000,7 +47980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:55">
       <c r="D466" t="s">
         <v>1009</v>
       </c>
@@ -48101,7 +48081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:55">
       <c r="D467" t="s">
         <v>1011</v>
       </c>
@@ -48202,7 +48182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:55">
       <c r="D468" t="s">
         <v>1013</v>
       </c>
@@ -48303,7 +48283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:55">
       <c r="D469" t="s">
         <v>1015</v>
       </c>
@@ -48404,7 +48384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:55">
       <c r="D470" t="s">
         <v>1017</v>
       </c>
@@ -48505,7 +48485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:55">
       <c r="D471" t="s">
         <v>1019</v>
       </c>
@@ -48606,7 +48586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:55">
       <c r="D472" t="s">
         <v>1021</v>
       </c>
@@ -48707,7 +48687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:55">
       <c r="D473" t="s">
         <v>1023</v>
       </c>
@@ -48808,7 +48788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:55">
       <c r="D474" t="s">
         <v>1025</v>
       </c>
@@ -48918,7 +48898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:55">
       <c r="D475" t="s">
         <v>1027</v>
       </c>
@@ -49028,7 +49008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:55">
       <c r="D476" t="s">
         <v>1029</v>
       </c>
@@ -49138,7 +49118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:55">
       <c r="D477" t="s">
         <v>1031</v>
       </c>
@@ -49248,7 +49228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:55">
       <c r="D478" t="s">
         <v>1033</v>
       </c>
@@ -49349,7 +49329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:55">
       <c r="D479" t="s">
         <v>1036</v>
       </c>
@@ -49390,7 +49370,7 @@
         <v>1038</v>
       </c>
       <c r="AF479">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AG479">
         <v>0</v>
@@ -49441,7 +49421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:55">
       <c r="D480" t="s">
         <v>1039</v>
       </c>
@@ -49482,10 +49462,10 @@
         <v>1041</v>
       </c>
       <c r="AF480">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AG480">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AH480">
         <v>0</v>
@@ -49533,7 +49513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:55">
       <c r="D481" t="s">
         <v>1042</v>
       </c>
@@ -49574,13 +49554,13 @@
         <v>1044</v>
       </c>
       <c r="AF481">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AG481">
         <v>0</v>
       </c>
       <c r="AH481">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AI481">
         <v>0</v>
@@ -49625,7 +49605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:55">
       <c r="D482" t="s">
         <v>1045</v>
       </c>
@@ -49666,7 +49646,7 @@
         <v>1047</v>
       </c>
       <c r="AF482">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AG482">
         <v>0</v>
@@ -49675,7 +49655,7 @@
         <v>0</v>
       </c>
       <c r="AI482">
-        <v>4.0000000000000002E-4</v>
+        <v>0.0004</v>
       </c>
       <c r="AJ482">
         <v>0</v>
@@ -49717,7 +49697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:55">
       <c r="D483" t="s">
         <v>1048</v>
       </c>
@@ -49761,10 +49741,10 @@
         <v>1050</v>
       </c>
       <c r="AF483">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AG483">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AH483">
         <v>0</v>
@@ -49812,7 +49792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:55">
       <c r="D484" t="s">
         <v>1051</v>
       </c>
@@ -49853,7 +49833,7 @@
         <v>1053</v>
       </c>
       <c r="AF484">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AG484">
         <v>0</v>
@@ -49862,7 +49842,7 @@
         <v>0</v>
       </c>
       <c r="AI484">
-        <v>4.0000000000000002E-4</v>
+        <v>0.0004</v>
       </c>
       <c r="AJ484">
         <v>0</v>
@@ -49904,7 +49884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:55">
       <c r="D485" t="s">
         <v>1054</v>
       </c>
@@ -49990,7 +49970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:55">
       <c r="D486" t="s">
         <v>1056</v>
       </c>
@@ -50076,7 +50056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:55">
       <c r="D487" t="s">
         <v>1058</v>
       </c>
@@ -50156,7 +50136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:55">
       <c r="D488" t="s">
         <v>1060</v>
       </c>
@@ -50236,7 +50216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:55">
       <c r="D489" t="s">
         <v>1062</v>
       </c>
@@ -50316,7 +50296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:55">
       <c r="D490" t="s">
         <v>1064</v>
       </c>
@@ -50396,7 +50376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:55">
       <c r="D491" t="s">
         <v>1066</v>
       </c>
@@ -50476,7 +50456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:55">
       <c r="D492" t="s">
         <v>1068</v>
       </c>
@@ -50562,7 +50542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:55">
       <c r="D493" t="s">
         <v>1071</v>
       </c>
@@ -50648,7 +50628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:55">
       <c r="D494" t="s">
         <v>1074</v>
       </c>
@@ -50734,7 +50714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:55">
       <c r="D495" t="s">
         <v>1077</v>
       </c>
@@ -50772,7 +50752,7 @@
         <v>1053</v>
       </c>
       <c r="AF495">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AG495">
         <v>0</v>
@@ -50781,7 +50761,7 @@
         <v>0</v>
       </c>
       <c r="AI495">
-        <v>8.0000000000000004E-4</v>
+        <v>0.0008</v>
       </c>
       <c r="AJ495">
         <v>0</v>
@@ -50823,7 +50803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:55">
       <c r="D496" t="s">
         <v>1079</v>
       </c>
@@ -50864,10 +50844,10 @@
         <v>1050</v>
       </c>
       <c r="AF496">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AG496">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AH496">
         <v>0</v>
@@ -50915,7 +50895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:55">
       <c r="D497" t="s">
         <v>1081</v>
       </c>
@@ -50953,7 +50933,7 @@
         <v>1047</v>
       </c>
       <c r="AF497">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AG497">
         <v>0</v>
@@ -50962,7 +50942,7 @@
         <v>0</v>
       </c>
       <c r="AI497">
-        <v>8.0000000000000004E-4</v>
+        <v>0.0008</v>
       </c>
       <c r="AJ497">
         <v>0</v>
@@ -51004,7 +50984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:55">
       <c r="D498" t="s">
         <v>1083</v>
       </c>
@@ -51042,13 +51022,13 @@
         <v>1044</v>
       </c>
       <c r="AF498">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AG498">
         <v>0</v>
       </c>
       <c r="AH498">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AI498">
         <v>0</v>
@@ -51093,7 +51073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:55">
       <c r="D499" t="s">
         <v>1085</v>
       </c>
@@ -51131,10 +51111,10 @@
         <v>1041</v>
       </c>
       <c r="AF499">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AG499">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AH499">
         <v>0</v>
@@ -51182,7 +51162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:55">
       <c r="D500" t="s">
         <v>1087</v>
       </c>
@@ -51220,7 +51200,7 @@
         <v>1038</v>
       </c>
       <c r="AF500">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AG500">
         <v>0</v>
@@ -51271,7 +51251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:55">
       <c r="D501" t="s">
         <v>1089</v>
       </c>
@@ -51357,7 +51337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:55">
       <c r="D502" t="s">
         <v>1091</v>
       </c>
@@ -51443,7 +51423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:55">
       <c r="D503" t="s">
         <v>1093</v>
       </c>
@@ -51529,7 +51509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:55">
       <c r="D504" t="s">
         <v>1095</v>
       </c>
@@ -51615,7 +51595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:55">
       <c r="D505" t="s">
         <v>1097</v>
       </c>
@@ -51701,7 +51681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:55">
       <c r="D506" t="s">
         <v>1099</v>
       </c>
@@ -51787,7 +51767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:55">
       <c r="D507" t="s">
         <v>1101</v>
       </c>
@@ -51885,7 +51865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:55">
       <c r="D508" t="s">
         <v>1103</v>
       </c>
@@ -51932,7 +51912,7 @@
         <v>0</v>
       </c>
       <c r="AI508">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AJ508">
         <v>0</v>
@@ -51974,7 +51954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:55">
       <c r="D509" t="s">
         <v>1105</v>
       </c>
@@ -52066,7 +52046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:55">
       <c r="D510" t="s">
         <v>1107</v>
       </c>
@@ -52113,7 +52093,7 @@
         <v>0</v>
       </c>
       <c r="AI510">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AJ510">
         <v>0</v>
@@ -52155,7 +52135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:55">
       <c r="D511" t="s">
         <v>1109</v>
       </c>
@@ -52244,7 +52224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:55">
       <c r="D512" t="s">
         <v>1111</v>
       </c>
@@ -52333,7 +52313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:55">
       <c r="D513" t="s">
         <v>1113</v>
       </c>
@@ -52422,7 +52402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:55">
       <c r="D514" t="s">
         <v>1115</v>
       </c>
@@ -52508,7 +52488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:55">
       <c r="D515" t="s">
         <v>1117</v>
       </c>
@@ -52594,7 +52574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:55">
       <c r="D516" t="s">
         <v>1119</v>
       </c>
@@ -52674,7 +52654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:55">
       <c r="D517" t="s">
         <v>1121</v>
       </c>
@@ -52754,7 +52734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:55">
       <c r="D518" t="s">
         <v>1123</v>
       </c>
@@ -52834,7 +52814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:55">
       <c r="D519" t="s">
         <v>1125</v>
       </c>
@@ -52914,7 +52894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:55">
       <c r="D520" t="s">
         <v>1127</v>
       </c>
@@ -52994,7 +52974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:55">
       <c r="D521" t="s">
         <v>1129</v>
       </c>
@@ -53080,7 +53060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:55">
       <c r="D522" t="s">
         <v>1131</v>
       </c>
@@ -53166,7 +53146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:55">
       <c r="D523" t="s">
         <v>1133</v>
       </c>
@@ -53252,7 +53232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:55">
       <c r="D524" t="s">
         <v>1135</v>
       </c>
@@ -53299,7 +53279,7 @@
         <v>0</v>
       </c>
       <c r="AI524">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AJ524">
         <v>0</v>
@@ -53341,7 +53321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:55">
       <c r="D525" t="s">
         <v>1137</v>
       </c>
@@ -53433,7 +53413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:55">
       <c r="D526" t="s">
         <v>1139</v>
       </c>
@@ -53480,7 +53460,7 @@
         <v>0</v>
       </c>
       <c r="AI526">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AJ526">
         <v>0</v>
@@ -53522,7 +53502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:55">
       <c r="D527" t="s">
         <v>1141</v>
       </c>
@@ -53611,7 +53591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:55">
       <c r="D528" t="s">
         <v>1143</v>
       </c>
@@ -53700,7 +53680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:55">
       <c r="D529" t="s">
         <v>1145</v>
       </c>
@@ -53789,7 +53769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:55">
       <c r="D530" t="s">
         <v>1147</v>
       </c>
@@ -53875,7 +53855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:55">
       <c r="D531" t="s">
         <v>1149</v>
       </c>
@@ -53952,7 +53932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:55">
       <c r="D532" t="s">
         <v>1151</v>
       </c>
@@ -54038,7 +54018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:55">
       <c r="D533" t="s">
         <v>1153</v>
       </c>
@@ -54124,7 +54104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:55">
       <c r="D534" t="s">
         <v>1155</v>
       </c>
@@ -54210,7 +54190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:55">
       <c r="D535" t="s">
         <v>1157</v>
       </c>
@@ -54296,7 +54276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:55">
       <c r="D536" t="s">
         <v>1159</v>
       </c>
@@ -54343,7 +54323,7 @@
         <v>0</v>
       </c>
       <c r="AI536">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AJ536">
         <v>0</v>
@@ -54385,7 +54365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:55">
       <c r="D537" t="s">
         <v>1161</v>
       </c>
@@ -54477,7 +54457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:55">
       <c r="D538" t="s">
         <v>1163</v>
       </c>
@@ -54524,7 +54504,7 @@
         <v>0</v>
       </c>
       <c r="AI538">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AJ538">
         <v>0</v>
@@ -54566,7 +54546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:55">
       <c r="D539" t="s">
         <v>1165</v>
       </c>
@@ -54655,7 +54635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:55">
       <c r="D540" t="s">
         <v>1167</v>
       </c>
@@ -54744,7 +54724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:55">
       <c r="D541" t="s">
         <v>1169</v>
       </c>
@@ -54830,7 +54810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:55">
       <c r="D542" t="s">
         <v>1171</v>
       </c>
@@ -54916,7 +54896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:55">
       <c r="D543" t="s">
         <v>1173</v>
       </c>
@@ -55005,7 +54985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:55">
       <c r="D544" t="s">
         <v>1175</v>
       </c>
@@ -55103,7 +55083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:55">
       <c r="D545" t="s">
         <v>1177</v>
       </c>
@@ -55183,7 +55163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:55">
       <c r="D546" t="s">
         <v>1179</v>
       </c>
@@ -55263,7 +55243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:55">
       <c r="D547" t="s">
         <v>1181</v>
       </c>
@@ -55343,7 +55323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:55">
       <c r="D548" t="s">
         <v>1183</v>
       </c>
@@ -55423,7 +55403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:55">
       <c r="D549" t="s">
         <v>1185</v>
       </c>
@@ -55503,7 +55483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:55">
       <c r="D550" t="s">
         <v>1187</v>
       </c>
@@ -55550,7 +55530,7 @@
         <v>0</v>
       </c>
       <c r="AI550">
-        <v>1.2E-2</v>
+        <v>0.012</v>
       </c>
       <c r="AJ550">
         <v>0</v>
@@ -55592,7 +55572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:55">
       <c r="D551" t="s">
         <v>1189</v>
       </c>
@@ -55684,7 +55664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:55">
       <c r="D552" t="s">
         <v>1191</v>
       </c>
@@ -55731,7 +55711,7 @@
         <v>0</v>
       </c>
       <c r="AI552">
-        <v>1.2E-2</v>
+        <v>0.012</v>
       </c>
       <c r="AJ552">
         <v>0</v>
@@ -55773,7 +55753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:55">
       <c r="D553" t="s">
         <v>1193</v>
       </c>
@@ -55862,7 +55842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:55">
       <c r="D554" t="s">
         <v>1195</v>
       </c>
@@ -55951,7 +55931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:55">
       <c r="D555" t="s">
         <v>1197</v>
       </c>
@@ -56040,7 +56020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:55">
       <c r="D556" t="s">
         <v>1199</v>
       </c>
@@ -56126,7 +56106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:55">
       <c r="D557" t="s">
         <v>1201</v>
       </c>
@@ -56212,7 +56192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:55">
       <c r="D558" t="s">
         <v>1203</v>
       </c>
@@ -56298,7 +56278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:55">
       <c r="D559" t="s">
         <v>1205</v>
       </c>
@@ -56384,7 +56364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:55">
       <c r="D560" t="s">
         <v>1207</v>
       </c>
@@ -56470,7 +56450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:55">
       <c r="D561" t="s">
         <v>1209</v>
       </c>
@@ -56556,7 +56536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:55">
       <c r="D562" t="s">
         <v>1211</v>
       </c>
@@ -56642,7 +56622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:55">
       <c r="D563" t="s">
         <v>1213</v>
       </c>
@@ -56728,7 +56708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:55">
       <c r="D564" t="s">
         <v>1215</v>
       </c>
@@ -56814,7 +56794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:55">
       <c r="D565" t="s">
         <v>1217</v>
       </c>
@@ -56912,7 +56892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:55">
       <c r="D566" t="s">
         <v>1219</v>
       </c>
@@ -56929,7 +56909,7 @@
         <v>260000</v>
       </c>
       <c r="Q566">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y566">
         <v>1</v>
@@ -56992,7 +56972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:55">
       <c r="D567" t="s">
         <v>1221</v>
       </c>
@@ -57009,7 +56989,7 @@
         <v>260000</v>
       </c>
       <c r="S567">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y567">
         <v>1</v>
@@ -57072,7 +57052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:55">
       <c r="D568" t="s">
         <v>1223</v>
       </c>
@@ -57089,7 +57069,7 @@
         <v>260000</v>
       </c>
       <c r="R568">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y568">
         <v>1</v>
@@ -57152,7 +57132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:55">
       <c r="D569" t="s">
         <v>1225</v>
       </c>
@@ -57169,7 +57149,7 @@
         <v>260000</v>
       </c>
       <c r="U569">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y569">
         <v>1</v>
@@ -57232,7 +57212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:55">
       <c r="D570" t="s">
         <v>1227</v>
       </c>
@@ -57249,7 +57229,7 @@
         <v>260000</v>
       </c>
       <c r="T570">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y570">
         <v>1</v>
@@ -57312,7 +57292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:55">
       <c r="D571" t="s">
         <v>1229</v>
       </c>
@@ -57335,7 +57315,7 @@
         <v>0</v>
       </c>
       <c r="W571">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y571">
         <v>1</v>
@@ -57398,7 +57378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:55">
       <c r="D572" t="s">
         <v>1231</v>
       </c>
@@ -57421,7 +57401,7 @@
         <v>0</v>
       </c>
       <c r="V572">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y572">
         <v>1</v>
@@ -57484,7 +57464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:55">
       <c r="D573" t="s">
         <v>1232</v>
       </c>
@@ -57570,7 +57550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:55">
       <c r="D574" t="s">
         <v>1234</v>
       </c>
@@ -57656,7 +57636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:55">
       <c r="D575" t="s">
         <v>1236</v>
       </c>
@@ -57742,7 +57722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:55">
       <c r="D576" t="s">
         <v>1238</v>
       </c>
@@ -57828,7 +57808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:55">
       <c r="D577" t="s">
         <v>1240</v>
       </c>
@@ -57914,7 +57894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:55">
       <c r="D578" t="s">
         <v>1242</v>
       </c>
@@ -58000,7 +57980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:55">
       <c r="D579" t="s">
         <v>1244</v>
       </c>
@@ -58086,7 +58066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:55">
       <c r="D580" t="s">
         <v>1246</v>
       </c>
@@ -58172,7 +58152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:55">
       <c r="D581" t="s">
         <v>1248</v>
       </c>
@@ -58258,7 +58238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:55">
       <c r="D582" t="s">
         <v>1250</v>
       </c>
@@ -58305,7 +58285,7 @@
         <v>0</v>
       </c>
       <c r="AI582">
-        <v>2.1000000000000001E-2</v>
+        <v>0.021</v>
       </c>
       <c r="AJ582">
         <v>0</v>
@@ -58347,7 +58327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:55">
       <c r="D583" t="s">
         <v>1252</v>
       </c>
@@ -58439,7 +58419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:55">
       <c r="D584" t="s">
         <v>1254</v>
       </c>
@@ -58486,7 +58466,7 @@
         <v>0</v>
       </c>
       <c r="AI584">
-        <v>2.1000000000000001E-2</v>
+        <v>0.021</v>
       </c>
       <c r="AJ584">
         <v>0</v>
@@ -58528,7 +58508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:55">
       <c r="D585" t="s">
         <v>1256</v>
       </c>
@@ -58617,7 +58597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:55">
       <c r="D586" t="s">
         <v>1258</v>
       </c>
@@ -58706,7 +58686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:55">
       <c r="D587" t="s">
         <v>1260</v>
       </c>
@@ -58795,7 +58775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:55">
       <c r="D588" t="s">
         <v>1262</v>
       </c>
@@ -58893,7 +58873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:55">
       <c r="D589" t="s">
         <v>1264</v>
       </c>
@@ -58973,7 +58953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:55">
       <c r="D590" t="s">
         <v>1266</v>
       </c>
@@ -59053,7 +59033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:55">
       <c r="D591" t="s">
         <v>1268</v>
       </c>
@@ -59133,7 +59113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:55">
       <c r="D592" t="s">
         <v>1270</v>
       </c>
@@ -59213,7 +59193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:55">
       <c r="D593" t="s">
         <v>1272</v>
       </c>
@@ -59293,7 +59273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:55">
       <c r="D594" t="s">
         <v>1274</v>
       </c>
@@ -59379,7 +59359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:55">
       <c r="D595" t="s">
         <v>1276</v>
       </c>
@@ -59465,7 +59445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:55">
       <c r="D596" t="s">
         <v>1278</v>
       </c>
@@ -59551,7 +59531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:55">
       <c r="D597" t="s">
         <v>1280</v>
       </c>
@@ -59637,7 +59617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:55">
       <c r="D598" t="s">
         <v>1282</v>
       </c>
@@ -59723,7 +59703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:55">
       <c r="D599" t="s">
         <v>1284</v>
       </c>
@@ -59770,7 +59750,7 @@
         <v>0</v>
       </c>
       <c r="AI599">
-        <v>2.5999999999999999E-2</v>
+        <v>0.026</v>
       </c>
       <c r="AJ599">
         <v>0</v>
@@ -59812,7 +59792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:55">
       <c r="D600" t="s">
         <v>1286</v>
       </c>
@@ -59904,7 +59884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:55">
       <c r="D601" t="s">
         <v>1288</v>
       </c>
@@ -59951,7 +59931,7 @@
         <v>0</v>
       </c>
       <c r="AI601">
-        <v>2.5999999999999999E-2</v>
+        <v>0.026</v>
       </c>
       <c r="AJ601">
         <v>0</v>
@@ -59993,7 +59973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:55">
       <c r="D602" t="s">
         <v>1290</v>
       </c>
@@ -60082,7 +60062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:55">
       <c r="D603" t="s">
         <v>1292</v>
       </c>
@@ -60171,7 +60151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:55">
       <c r="D604" t="s">
         <v>1294</v>
       </c>
@@ -60260,7 +60240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:55">
       <c r="D605" t="s">
         <v>1296</v>
       </c>
@@ -60346,7 +60326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:55">
       <c r="D606" t="s">
         <v>1298</v>
       </c>
@@ -60432,7 +60412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:55">
       <c r="D607" t="s">
         <v>1300</v>
       </c>
@@ -60518,7 +60498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:55">
       <c r="D608" t="s">
         <v>1302</v>
       </c>
@@ -60604,7 +60584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:55">
       <c r="D609" t="s">
         <v>1304</v>
       </c>
@@ -60690,7 +60670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:55">
       <c r="D610" t="s">
         <v>1306</v>
       </c>
@@ -60776,7 +60756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:55">
       <c r="C611">
         <v>1</v>
       </c>
@@ -60871,7 +60851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:55">
       <c r="C612">
         <v>1</v>
       </c>
@@ -60969,7 +60949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:55">
       <c r="C613">
         <v>1</v>
       </c>
@@ -61067,7 +61047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:55">
       <c r="C614">
         <v>1</v>
       </c>
@@ -61114,7 +61094,7 @@
         <v>0</v>
       </c>
       <c r="AI614">
-        <v>8.9999999999999993E-3</v>
+        <v>0.009</v>
       </c>
       <c r="AJ614">
         <v>0</v>
@@ -61165,7 +61145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:55">
       <c r="C615">
         <v>1</v>
       </c>
@@ -61263,7 +61243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:55">
       <c r="C616">
         <v>1</v>
       </c>
@@ -61361,7 +61341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:55">
       <c r="C617">
         <v>1</v>
       </c>
@@ -61459,7 +61439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:55">
       <c r="C618">
         <v>1</v>
       </c>
@@ -61557,7 +61537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:55">
       <c r="C619">
         <v>1</v>
       </c>
@@ -61652,7 +61632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:55">
       <c r="C620">
         <v>1</v>
       </c>
@@ -61750,7 +61730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:55">
       <c r="C621">
         <v>1</v>
       </c>
@@ -61848,7 +61828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:55">
       <c r="C622">
         <v>1</v>
       </c>
@@ -61946,7 +61926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:55">
       <c r="C623">
         <v>1</v>
       </c>
@@ -62044,7 +62024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:55">
       <c r="C624">
         <v>1</v>
       </c>
@@ -62148,7 +62128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:55">
       <c r="C625">
         <v>1</v>
       </c>
@@ -62252,7 +62232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:55">
       <c r="C626">
         <v>1</v>
       </c>
@@ -62359,7 +62339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:55">
       <c r="C627">
         <v>1</v>
       </c>
@@ -62466,7 +62446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:55">
       <c r="C628">
         <v>1</v>
       </c>
@@ -62513,7 +62493,7 @@
         <v>0</v>
       </c>
       <c r="AI628">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AJ628">
         <v>0</v>
@@ -62564,7 +62544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:55">
       <c r="C629">
         <v>1</v>
       </c>
@@ -62662,7 +62642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:55">
       <c r="C630">
         <v>1</v>
       </c>
@@ -62760,7 +62740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:55">
       <c r="C631">
         <v>1</v>
       </c>
@@ -62855,7 +62835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:55">
       <c r="C632">
         <v>1</v>
       </c>
@@ -62902,7 +62882,7 @@
         <v>0</v>
       </c>
       <c r="AI632">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AJ632">
         <v>0</v>
@@ -62953,7 +62933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:55">
       <c r="C633">
         <v>1</v>
       </c>
@@ -63051,7 +63031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:55">
       <c r="C634">
         <v>1</v>
       </c>
@@ -63149,7 +63129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:55">
       <c r="C635">
         <v>1</v>
       </c>
@@ -63217,7 +63197,7 @@
         <v>1</v>
       </c>
       <c r="AR635">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AT635">
         <v>0</v>
@@ -63247,7 +63227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:55">
       <c r="C636">
         <v>1</v>
       </c>
@@ -63345,7 +63325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:55">
       <c r="C637">
         <v>1</v>
       </c>
@@ -63443,7 +63423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:55">
       <c r="C638">
         <v>1</v>
       </c>
@@ -63542,8 +63522,17 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -95194,6 +95194,9 @@
       </c>
     </row>
     <row r="941" spans="1:55">
+      <c r="C941">
+        <v>1</v>
+      </c>
       <c r="D941" t="s">
         <v>1948</v>
       </c>
@@ -95245,6 +95248,9 @@
       <c r="AJ941">
         <v>0</v>
       </c>
+      <c r="AL941">
+        <v>1</v>
+      </c>
       <c r="AM941">
         <v>1</v>
       </c>
@@ -95253,9 +95259,6 @@
       </c>
       <c r="AP941">
         <v>30</v>
-      </c>
-      <c r="AR941">
-        <v>0</v>
       </c>
       <c r="AS941">
         <v>0</v>

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -61540,7 +61540,7 @@
         <v>75</v>
       </c>
       <c r="AB579">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="AC579" t="s">
         <v>56</v>

--- a/resources/data-imports/items.xlsx
+++ b/resources/data-imports/items.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42318D50-2352-8A4D-B60E-DA37BF55AE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C9C3AA-925D-B841-B162-7A09B753720F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4423" uniqueCount="2018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4279" uniqueCount="1950">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -5881,210 +5881,6 @@
   </si>
   <si>
     <t>The power that radiates off this effects this plane in a way I have never seen before. Careful child!</t>
-  </si>
-  <si>
-    <t>Potion of Strength</t>
-  </si>
-  <si>
-    <t>alchemy</t>
-  </si>
-  <si>
-    <t>Adds strength to your character for a limited amount of time</t>
-  </si>
-  <si>
-    <t>Potion of Dexterity</t>
-  </si>
-  <si>
-    <t>Adds dexterity to your character for a limited amount of time</t>
-  </si>
-  <si>
-    <t>Potion of Intelligence</t>
-  </si>
-  <si>
-    <t>Adds intelligence to your character for a limited amount of time</t>
-  </si>
-  <si>
-    <t>Potion of Durability</t>
-  </si>
-  <si>
-    <t>Adds durability to your character for a limited amount of time</t>
-  </si>
-  <si>
-    <t>Potion of Charisma</t>
-  </si>
-  <si>
-    <t>Adds charisma to your character for a limited amount of time</t>
-  </si>
-  <si>
-    <t>Potion of Focus</t>
-  </si>
-  <si>
-    <t>Adds focus to your character for a limited amount of time</t>
-  </si>
-  <si>
-    <t>Potion of Agility</t>
-  </si>
-  <si>
-    <t>Adds agility to your character for a limited amount of time</t>
-  </si>
-  <si>
-    <t>Vial of Impotence</t>
-  </si>
-  <si>
-    <t>Feel the strength coursing through your viens</t>
-  </si>
-  <si>
-    <t>Vial of Shielding</t>
-  </si>
-  <si>
-    <t>Drinking this will cause your base AC by 75% of all training skills.</t>
-  </si>
-  <si>
-    <t>Elixir of Ancient Wisdom</t>
-  </si>
-  <si>
-    <t>Raises your skill attack modifier, intelligence, charisma and focus by 75%.</t>
-  </si>
-  <si>
-    <t>Brew of Lunacy</t>
-  </si>
-  <si>
-    <t>Raises your Skill Attack Modifier by 75%, Strength, Dexterity and Dur by 75%</t>
-  </si>
-  <si>
-    <t>Potion of Moonlight</t>
-  </si>
-  <si>
-    <t>Increases your skill base attack modifier by 75%, your dexterity and agility by 75% as well.</t>
-  </si>
-  <si>
-    <t>Bland Potion</t>
-  </si>
-  <si>
-    <t>This potion tastes bland and gives little effect. But a few of them together ....</t>
-  </si>
-  <si>
-    <t>Training Dust</t>
-  </si>
-  <si>
-    <t>Looking for a boost to those training skills? Now is the time! All your training based skills will get a small boost.</t>
-  </si>
-  <si>
-    <t>Crafters Insight</t>
-  </si>
-  <si>
-    <t>This item will give all your crafting skills a boost!</t>
-  </si>
-  <si>
-    <t>Enchanters Brew</t>
-  </si>
-  <si>
-    <t>Need help with enchanting? Drink a few of these and increase your enchanting chances for a limited time.</t>
-  </si>
-  <si>
-    <t>Disenchanting Powder</t>
-  </si>
-  <si>
-    <t>This power is legit made from the dust from the shards and the gold dust. it will help you disenchant items.</t>
-  </si>
-  <si>
-    <t>Alchemists Drink</t>
-  </si>
-  <si>
-    <t>A drink created by alchemists to help them with their alchemy, I would say this is ingenious.</t>
-  </si>
-  <si>
-    <t>Battle Mages Sand</t>
-  </si>
-  <si>
-    <t>Decrease attack time out by a smidge for a limited time.</t>
-  </si>
-  <si>
-    <t>Time Mages Bomb</t>
-  </si>
-  <si>
-    <t>Blow up a kingdom why don't you. Who doesn't like dropping bombs on kingdoms?</t>
-  </si>
-  <si>
-    <t>Liquid Courage</t>
-  </si>
-  <si>
-    <t>Sometimes you need a boost in battle. Let this be the boost you can rely on!</t>
-  </si>
-  <si>
-    <t>Alchemists Dust</t>
-  </si>
-  <si>
-    <t>A simple dust with a bit of gold dust and the alchemist is full of ideas.</t>
-  </si>
-  <si>
-    <t>Shadow Arch Magi Ink</t>
-  </si>
-  <si>
-    <t>Training Drink</t>
-  </si>
-  <si>
-    <t>Looking for a boost to those training skills? Now is the time! All your training based skills will get a decent boost.</t>
-  </si>
-  <si>
-    <t>Crafters Brew</t>
-  </si>
-  <si>
-    <t>Enchantress Potion</t>
-  </si>
-  <si>
-    <t>Disenchanting Sand</t>
-  </si>
-  <si>
-    <t>Demonic Bomb</t>
-  </si>
-  <si>
-    <t>Demonic Blood</t>
-  </si>
-  <si>
-    <t>Alchemists Eye</t>
-  </si>
-  <si>
-    <t>Astral Mages Ink</t>
-  </si>
-  <si>
-    <t>Enhancement Dust</t>
-  </si>
-  <si>
-    <t>Crafters Crystal Ball</t>
-  </si>
-  <si>
-    <t>Postion of Inspiration</t>
-  </si>
-  <si>
-    <t>Disenchantment Candle</t>
-  </si>
-  <si>
-    <t>Deaths Cloud</t>
-  </si>
-  <si>
-    <t>Quick Feet</t>
-  </si>
-  <si>
-    <t>Move across the land quickly child. The creatures are chasing you.</t>
-  </si>
-  <si>
-    <t>Shattered Shards</t>
-  </si>
-  <si>
-    <t>With this, all your training skills will increase by a % for a specific amount of time.</t>
-  </si>
-  <si>
-    <t>Golden Illusions</t>
-  </si>
-  <si>
-    <t>Create illusions out of gold dust child. These can make you seem stronger and more attuned then you might be.</t>
-  </si>
-  <si>
-    <t>Broken Mirror</t>
-  </si>
-  <si>
-    <t>Look into this broken mirror child. Do you see it? Do you feel it? The strength you need to survive.</t>
   </si>
 </sst>
 </file>
@@ -6424,9 +6220,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD968"/>
+  <dimension ref="A1:BD928"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A907" workbookViewId="0">
+      <selection activeCell="E920" sqref="E920"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -57998,25 +57796,25 @@
         <v>10</v>
       </c>
       <c r="Q546">
-        <v>1.48</v>
+        <v>0.01</v>
       </c>
       <c r="R546">
-        <v>1.48</v>
+        <v>0.01</v>
       </c>
       <c r="S546">
-        <v>1.48</v>
+        <v>0.01</v>
       </c>
       <c r="T546">
-        <v>1.48</v>
+        <v>0.01</v>
       </c>
       <c r="U546">
-        <v>1.48</v>
+        <v>0.01</v>
       </c>
       <c r="V546">
-        <v>1.48</v>
+        <v>0.01</v>
       </c>
       <c r="W546">
-        <v>1.48</v>
+        <v>0.01</v>
       </c>
       <c r="Y546">
         <v>1</v>
@@ -66706,6 +66504,9 @@
       <c r="F636" t="s">
         <v>1357</v>
       </c>
+      <c r="G636" t="s">
+        <v>1283</v>
+      </c>
       <c r="H636">
         <v>1200</v>
       </c>
@@ -66792,6 +66593,9 @@
       <c r="F637" t="s">
         <v>1359</v>
       </c>
+      <c r="G637" t="s">
+        <v>1283</v>
+      </c>
       <c r="H637">
         <v>1300</v>
       </c>
@@ -66887,6 +66691,9 @@
       <c r="F638" t="s">
         <v>1361</v>
       </c>
+      <c r="G638" t="s">
+        <v>1283</v>
+      </c>
       <c r="H638">
         <v>1400</v>
       </c>
@@ -66982,6 +66789,9 @@
       <c r="F639" t="s">
         <v>1363</v>
       </c>
+      <c r="G639" t="s">
+        <v>1283</v>
+      </c>
       <c r="H639">
         <v>1500</v>
       </c>
@@ -67077,6 +66887,9 @@
       <c r="F640" t="s">
         <v>1365</v>
       </c>
+      <c r="G640" t="s">
+        <v>1283</v>
+      </c>
       <c r="H640">
         <v>1600</v>
       </c>
@@ -67172,6 +66985,9 @@
       <c r="F641" t="s">
         <v>1367</v>
       </c>
+      <c r="G641" t="s">
+        <v>1283</v>
+      </c>
       <c r="H641">
         <v>1700</v>
       </c>
@@ -67267,6 +67083,9 @@
       <c r="F642" t="s">
         <v>1369</v>
       </c>
+      <c r="G642" t="s">
+        <v>1283</v>
+      </c>
       <c r="H642">
         <v>1800</v>
       </c>
@@ -67362,6 +67181,9 @@
       <c r="F643" t="s">
         <v>1371</v>
       </c>
+      <c r="G643" t="s">
+        <v>1283</v>
+      </c>
       <c r="H643">
         <v>1900</v>
       </c>
@@ -67448,6 +67270,9 @@
       <c r="F644" t="s">
         <v>1373</v>
       </c>
+      <c r="G644" t="s">
+        <v>1283</v>
+      </c>
       <c r="H644">
         <v>2000</v>
       </c>
@@ -67543,6 +67368,9 @@
       <c r="F645" t="s">
         <v>1375</v>
       </c>
+      <c r="G645" t="s">
+        <v>1283</v>
+      </c>
       <c r="H645">
         <v>2100</v>
       </c>
@@ -67638,6 +67466,9 @@
       <c r="F646" t="s">
         <v>1377</v>
       </c>
+      <c r="G646" t="s">
+        <v>1283</v>
+      </c>
       <c r="H646">
         <v>2200</v>
       </c>
@@ -67733,6 +67564,9 @@
       <c r="F647" t="s">
         <v>1379</v>
       </c>
+      <c r="G647" t="s">
+        <v>1283</v>
+      </c>
       <c r="H647">
         <v>2300</v>
       </c>
@@ -67819,6 +67653,9 @@
       <c r="F648" t="s">
         <v>1381</v>
       </c>
+      <c r="G648" t="s">
+        <v>1283</v>
+      </c>
       <c r="H648">
         <v>2400</v>
       </c>
@@ -67914,6 +67751,9 @@
       <c r="F649" t="s">
         <v>1383</v>
       </c>
+      <c r="G649" t="s">
+        <v>1283</v>
+      </c>
       <c r="H649">
         <v>2500</v>
       </c>
@@ -68021,6 +67861,9 @@
       <c r="F650" t="s">
         <v>1385</v>
       </c>
+      <c r="G650" t="s">
+        <v>1283</v>
+      </c>
       <c r="H650">
         <v>2600</v>
       </c>
@@ -68116,6 +67959,9 @@
       <c r="F651" t="s">
         <v>160</v>
       </c>
+      <c r="G651" t="s">
+        <v>1283</v>
+      </c>
       <c r="H651">
         <v>2700</v>
       </c>
@@ -93872,4010 +93718,6 @@
       </c>
       <c r="BC928">
         <v>0.1</v>
-      </c>
-    </row>
-    <row r="929" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C929">
-        <v>1</v>
-      </c>
-      <c r="D929" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E929" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F929" t="s">
-        <v>1952</v>
-      </c>
-      <c r="K929">
-        <v>0</v>
-      </c>
-      <c r="L929">
-        <v>45000</v>
-      </c>
-      <c r="M929">
-        <v>320</v>
-      </c>
-      <c r="Q929">
-        <v>0.35</v>
-      </c>
-      <c r="V929">
-        <v>0</v>
-      </c>
-      <c r="W929">
-        <v>0</v>
-      </c>
-      <c r="Y929">
-        <v>1</v>
-      </c>
-      <c r="AA929">
-        <v>60</v>
-      </c>
-      <c r="AB929">
-        <v>90</v>
-      </c>
-      <c r="AC929" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF929">
-        <v>0</v>
-      </c>
-      <c r="AG929">
-        <v>0</v>
-      </c>
-      <c r="AH929">
-        <v>0</v>
-      </c>
-      <c r="AI929">
-        <v>0</v>
-      </c>
-      <c r="AJ929">
-        <v>0</v>
-      </c>
-      <c r="AL929">
-        <v>1</v>
-      </c>
-      <c r="AM929">
-        <v>1</v>
-      </c>
-      <c r="AO929">
-        <v>0</v>
-      </c>
-      <c r="AP929">
-        <v>15</v>
-      </c>
-      <c r="AR929">
-        <v>0</v>
-      </c>
-      <c r="AT929">
-        <v>0</v>
-      </c>
-      <c r="AU929">
-        <v>0</v>
-      </c>
-      <c r="AW929">
-        <v>0</v>
-      </c>
-      <c r="AX929">
-        <v>0</v>
-      </c>
-      <c r="AY929">
-        <v>0</v>
-      </c>
-      <c r="AZ929">
-        <v>0</v>
-      </c>
-      <c r="BA929">
-        <v>0</v>
-      </c>
-      <c r="BB929">
-        <v>0</v>
-      </c>
-      <c r="BC929">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="930" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C930">
-        <v>1</v>
-      </c>
-      <c r="D930" t="s">
-        <v>1953</v>
-      </c>
-      <c r="E930" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F930" t="s">
-        <v>1954</v>
-      </c>
-      <c r="K930">
-        <v>0</v>
-      </c>
-      <c r="L930">
-        <v>45000</v>
-      </c>
-      <c r="M930">
-        <v>320</v>
-      </c>
-      <c r="S930">
-        <v>0.35</v>
-      </c>
-      <c r="V930">
-        <v>0</v>
-      </c>
-      <c r="W930">
-        <v>0</v>
-      </c>
-      <c r="Y930">
-        <v>1</v>
-      </c>
-      <c r="AA930">
-        <v>60</v>
-      </c>
-      <c r="AB930">
-        <v>90</v>
-      </c>
-      <c r="AC930" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF930">
-        <v>0</v>
-      </c>
-      <c r="AG930">
-        <v>0</v>
-      </c>
-      <c r="AH930">
-        <v>0</v>
-      </c>
-      <c r="AI930">
-        <v>0</v>
-      </c>
-      <c r="AJ930">
-        <v>0</v>
-      </c>
-      <c r="AL930">
-        <v>1</v>
-      </c>
-      <c r="AM930">
-        <v>1</v>
-      </c>
-      <c r="AO930">
-        <v>0</v>
-      </c>
-      <c r="AP930">
-        <v>15</v>
-      </c>
-      <c r="AQ930">
-        <v>1</v>
-      </c>
-      <c r="AR930">
-        <v>0</v>
-      </c>
-      <c r="AT930">
-        <v>0</v>
-      </c>
-      <c r="AU930">
-        <v>0</v>
-      </c>
-      <c r="AW930">
-        <v>0</v>
-      </c>
-      <c r="AX930">
-        <v>0</v>
-      </c>
-      <c r="AY930">
-        <v>0</v>
-      </c>
-      <c r="AZ930">
-        <v>0</v>
-      </c>
-      <c r="BA930">
-        <v>0</v>
-      </c>
-      <c r="BB930">
-        <v>0</v>
-      </c>
-      <c r="BC930">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="931" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C931">
-        <v>1</v>
-      </c>
-      <c r="D931" t="s">
-        <v>1955</v>
-      </c>
-      <c r="E931" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F931" t="s">
-        <v>1956</v>
-      </c>
-      <c r="K931">
-        <v>0</v>
-      </c>
-      <c r="L931">
-        <v>45000</v>
-      </c>
-      <c r="M931">
-        <v>320</v>
-      </c>
-      <c r="U931">
-        <v>0.35</v>
-      </c>
-      <c r="V931">
-        <v>0</v>
-      </c>
-      <c r="W931">
-        <v>0</v>
-      </c>
-      <c r="Y931">
-        <v>1</v>
-      </c>
-      <c r="AA931">
-        <v>60</v>
-      </c>
-      <c r="AB931">
-        <v>90</v>
-      </c>
-      <c r="AC931" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF931">
-        <v>0</v>
-      </c>
-      <c r="AG931">
-        <v>0</v>
-      </c>
-      <c r="AH931">
-        <v>0</v>
-      </c>
-      <c r="AI931">
-        <v>0</v>
-      </c>
-      <c r="AJ931">
-        <v>0</v>
-      </c>
-      <c r="AL931">
-        <v>1</v>
-      </c>
-      <c r="AM931">
-        <v>1</v>
-      </c>
-      <c r="AO931">
-        <v>0</v>
-      </c>
-      <c r="AP931">
-        <v>15</v>
-      </c>
-      <c r="AQ931">
-        <v>1</v>
-      </c>
-      <c r="AR931">
-        <v>0</v>
-      </c>
-      <c r="AT931">
-        <v>0</v>
-      </c>
-      <c r="AU931">
-        <v>0</v>
-      </c>
-      <c r="AW931">
-        <v>0</v>
-      </c>
-      <c r="AX931">
-        <v>0</v>
-      </c>
-      <c r="AY931">
-        <v>0</v>
-      </c>
-      <c r="AZ931">
-        <v>0</v>
-      </c>
-      <c r="BA931">
-        <v>0</v>
-      </c>
-      <c r="BB931">
-        <v>0</v>
-      </c>
-      <c r="BC931">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="932" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C932">
-        <v>1</v>
-      </c>
-      <c r="D932" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E932" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F932" t="s">
-        <v>1958</v>
-      </c>
-      <c r="K932">
-        <v>0</v>
-      </c>
-      <c r="L932">
-        <v>45000</v>
-      </c>
-      <c r="M932">
-        <v>320</v>
-      </c>
-      <c r="R932">
-        <v>0.35</v>
-      </c>
-      <c r="V932">
-        <v>0</v>
-      </c>
-      <c r="W932">
-        <v>0</v>
-      </c>
-      <c r="Y932">
-        <v>1</v>
-      </c>
-      <c r="AA932">
-        <v>60</v>
-      </c>
-      <c r="AB932">
-        <v>90</v>
-      </c>
-      <c r="AC932" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF932">
-        <v>0</v>
-      </c>
-      <c r="AG932">
-        <v>0</v>
-      </c>
-      <c r="AH932">
-        <v>0</v>
-      </c>
-      <c r="AI932">
-        <v>0</v>
-      </c>
-      <c r="AJ932">
-        <v>0</v>
-      </c>
-      <c r="AL932">
-        <v>1</v>
-      </c>
-      <c r="AM932">
-        <v>1</v>
-      </c>
-      <c r="AO932">
-        <v>0</v>
-      </c>
-      <c r="AP932">
-        <v>15</v>
-      </c>
-      <c r="AQ932">
-        <v>1</v>
-      </c>
-      <c r="AR932">
-        <v>0</v>
-      </c>
-      <c r="AT932">
-        <v>0</v>
-      </c>
-      <c r="AU932">
-        <v>0</v>
-      </c>
-      <c r="AW932">
-        <v>0</v>
-      </c>
-      <c r="AX932">
-        <v>0</v>
-      </c>
-      <c r="AY932">
-        <v>0</v>
-      </c>
-      <c r="AZ932">
-        <v>0</v>
-      </c>
-      <c r="BA932">
-        <v>0</v>
-      </c>
-      <c r="BB932">
-        <v>0</v>
-      </c>
-      <c r="BC932">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="933" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C933">
-        <v>1</v>
-      </c>
-      <c r="D933" t="s">
-        <v>1959</v>
-      </c>
-      <c r="E933" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F933" t="s">
-        <v>1960</v>
-      </c>
-      <c r="K933">
-        <v>0</v>
-      </c>
-      <c r="L933">
-        <v>45000</v>
-      </c>
-      <c r="M933">
-        <v>320</v>
-      </c>
-      <c r="T933">
-        <v>0.35</v>
-      </c>
-      <c r="V933">
-        <v>0</v>
-      </c>
-      <c r="W933">
-        <v>0</v>
-      </c>
-      <c r="Y933">
-        <v>1</v>
-      </c>
-      <c r="AA933">
-        <v>60</v>
-      </c>
-      <c r="AB933">
-        <v>90</v>
-      </c>
-      <c r="AC933" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF933">
-        <v>0</v>
-      </c>
-      <c r="AG933">
-        <v>0</v>
-      </c>
-      <c r="AH933">
-        <v>0</v>
-      </c>
-      <c r="AI933">
-        <v>0</v>
-      </c>
-      <c r="AJ933">
-        <v>0</v>
-      </c>
-      <c r="AL933">
-        <v>1</v>
-      </c>
-      <c r="AM933">
-        <v>1</v>
-      </c>
-      <c r="AO933">
-        <v>0</v>
-      </c>
-      <c r="AP933">
-        <v>15</v>
-      </c>
-      <c r="AQ933">
-        <v>1</v>
-      </c>
-      <c r="AR933">
-        <v>0</v>
-      </c>
-      <c r="AW933">
-        <v>0</v>
-      </c>
-      <c r="AX933">
-        <v>0</v>
-      </c>
-      <c r="AY933">
-        <v>0</v>
-      </c>
-      <c r="AZ933">
-        <v>0</v>
-      </c>
-      <c r="BA933">
-        <v>0</v>
-      </c>
-      <c r="BB933">
-        <v>0</v>
-      </c>
-      <c r="BC933">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="934" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C934">
-        <v>1</v>
-      </c>
-      <c r="D934" t="s">
-        <v>1961</v>
-      </c>
-      <c r="E934" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F934" t="s">
-        <v>1962</v>
-      </c>
-      <c r="K934">
-        <v>0</v>
-      </c>
-      <c r="L934">
-        <v>45000</v>
-      </c>
-      <c r="M934">
-        <v>320</v>
-      </c>
-      <c r="V934">
-        <v>0</v>
-      </c>
-      <c r="W934">
-        <v>0.35</v>
-      </c>
-      <c r="Y934">
-        <v>1</v>
-      </c>
-      <c r="AA934">
-        <v>60</v>
-      </c>
-      <c r="AB934">
-        <v>90</v>
-      </c>
-      <c r="AC934" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF934">
-        <v>0</v>
-      </c>
-      <c r="AG934">
-        <v>0</v>
-      </c>
-      <c r="AH934">
-        <v>0</v>
-      </c>
-      <c r="AI934">
-        <v>0</v>
-      </c>
-      <c r="AJ934">
-        <v>0</v>
-      </c>
-      <c r="AL934">
-        <v>1</v>
-      </c>
-      <c r="AM934">
-        <v>1</v>
-      </c>
-      <c r="AO934">
-        <v>0</v>
-      </c>
-      <c r="AP934">
-        <v>15</v>
-      </c>
-      <c r="AQ934">
-        <v>1</v>
-      </c>
-      <c r="AR934">
-        <v>0</v>
-      </c>
-      <c r="AT934">
-        <v>0</v>
-      </c>
-      <c r="AU934">
-        <v>0</v>
-      </c>
-      <c r="AW934">
-        <v>0</v>
-      </c>
-      <c r="AX934">
-        <v>0</v>
-      </c>
-      <c r="AY934">
-        <v>0</v>
-      </c>
-      <c r="AZ934">
-        <v>0</v>
-      </c>
-      <c r="BA934">
-        <v>0</v>
-      </c>
-      <c r="BB934">
-        <v>0</v>
-      </c>
-      <c r="BC934">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="935" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C935">
-        <v>1</v>
-      </c>
-      <c r="D935" t="s">
-        <v>1963</v>
-      </c>
-      <c r="E935" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F935" t="s">
-        <v>1964</v>
-      </c>
-      <c r="K935">
-        <v>0</v>
-      </c>
-      <c r="L935">
-        <v>45000</v>
-      </c>
-      <c r="M935">
-        <v>320</v>
-      </c>
-      <c r="V935">
-        <v>0.35</v>
-      </c>
-      <c r="W935">
-        <v>0</v>
-      </c>
-      <c r="Y935">
-        <v>1</v>
-      </c>
-      <c r="AA935">
-        <v>60</v>
-      </c>
-      <c r="AB935">
-        <v>90</v>
-      </c>
-      <c r="AC935" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF935">
-        <v>0</v>
-      </c>
-      <c r="AG935">
-        <v>0</v>
-      </c>
-      <c r="AH935">
-        <v>0</v>
-      </c>
-      <c r="AI935">
-        <v>0</v>
-      </c>
-      <c r="AJ935">
-        <v>0</v>
-      </c>
-      <c r="AL935">
-        <v>1</v>
-      </c>
-      <c r="AM935">
-        <v>1</v>
-      </c>
-      <c r="AO935">
-        <v>0</v>
-      </c>
-      <c r="AP935">
-        <v>15</v>
-      </c>
-      <c r="AQ935">
-        <v>1</v>
-      </c>
-      <c r="AR935">
-        <v>0</v>
-      </c>
-      <c r="AT935">
-        <v>0</v>
-      </c>
-      <c r="AU935">
-        <v>0</v>
-      </c>
-      <c r="AW935">
-        <v>0</v>
-      </c>
-      <c r="AX935">
-        <v>0</v>
-      </c>
-      <c r="AY935">
-        <v>0</v>
-      </c>
-      <c r="AZ935">
-        <v>0</v>
-      </c>
-      <c r="BA935">
-        <v>0</v>
-      </c>
-      <c r="BB935">
-        <v>0</v>
-      </c>
-      <c r="BC935">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="936" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C936">
-        <v>1</v>
-      </c>
-      <c r="D936" t="s">
-        <v>1965</v>
-      </c>
-      <c r="E936" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F936" t="s">
-        <v>1966</v>
-      </c>
-      <c r="K936">
-        <v>0</v>
-      </c>
-      <c r="L936">
-        <v>50000</v>
-      </c>
-      <c r="M936">
-        <v>380</v>
-      </c>
-      <c r="V936">
-        <v>0</v>
-      </c>
-      <c r="W936">
-        <v>0</v>
-      </c>
-      <c r="Y936">
-        <v>1</v>
-      </c>
-      <c r="AA936">
-        <v>70</v>
-      </c>
-      <c r="AB936">
-        <v>90</v>
-      </c>
-      <c r="AC936" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF936">
-        <v>0.35</v>
-      </c>
-      <c r="AG936">
-        <v>0.35</v>
-      </c>
-      <c r="AH936">
-        <v>0.35</v>
-      </c>
-      <c r="AI936">
-        <v>0</v>
-      </c>
-      <c r="AJ936">
-        <v>0</v>
-      </c>
-      <c r="AL936">
-        <v>1</v>
-      </c>
-      <c r="AM936">
-        <v>1</v>
-      </c>
-      <c r="AO936">
-        <v>0</v>
-      </c>
-      <c r="AP936">
-        <v>30</v>
-      </c>
-      <c r="AQ936">
-        <v>1</v>
-      </c>
-      <c r="AR936">
-        <v>0.6</v>
-      </c>
-      <c r="AS936">
-        <v>0</v>
-      </c>
-      <c r="AT936">
-        <v>0.2</v>
-      </c>
-      <c r="AU936">
-        <v>0.2</v>
-      </c>
-      <c r="AW936">
-        <v>0</v>
-      </c>
-      <c r="AX936">
-        <v>0</v>
-      </c>
-      <c r="AY936">
-        <v>0</v>
-      </c>
-      <c r="AZ936">
-        <v>0</v>
-      </c>
-      <c r="BA936">
-        <v>0</v>
-      </c>
-      <c r="BB936">
-        <v>0</v>
-      </c>
-      <c r="BC936">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="937" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C937">
-        <v>1</v>
-      </c>
-      <c r="D937" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E937" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F937" t="s">
-        <v>1968</v>
-      </c>
-      <c r="K937">
-        <v>0</v>
-      </c>
-      <c r="L937">
-        <v>52000</v>
-      </c>
-      <c r="M937">
-        <v>395</v>
-      </c>
-      <c r="V937">
-        <v>0</v>
-      </c>
-      <c r="W937">
-        <v>0</v>
-      </c>
-      <c r="Y937">
-        <v>1</v>
-      </c>
-      <c r="AA937">
-        <v>80</v>
-      </c>
-      <c r="AB937">
-        <v>90</v>
-      </c>
-      <c r="AC937" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF937">
-        <v>0</v>
-      </c>
-      <c r="AG937">
-        <v>0</v>
-      </c>
-      <c r="AH937">
-        <v>0.75</v>
-      </c>
-      <c r="AI937">
-        <v>0</v>
-      </c>
-      <c r="AJ937">
-        <v>0</v>
-      </c>
-      <c r="AL937">
-        <v>1</v>
-      </c>
-      <c r="AM937">
-        <v>1</v>
-      </c>
-      <c r="AO937">
-        <v>0</v>
-      </c>
-      <c r="AP937">
-        <v>30</v>
-      </c>
-      <c r="AS937">
-        <v>0</v>
-      </c>
-      <c r="AT937">
-        <v>0</v>
-      </c>
-      <c r="AU937">
-        <v>0</v>
-      </c>
-      <c r="AW937">
-        <v>0</v>
-      </c>
-      <c r="AX937">
-        <v>0</v>
-      </c>
-      <c r="AY937">
-        <v>0</v>
-      </c>
-      <c r="AZ937">
-        <v>0</v>
-      </c>
-      <c r="BA937">
-        <v>0</v>
-      </c>
-      <c r="BB937">
-        <v>0</v>
-      </c>
-      <c r="BC937">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="938" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C938">
-        <v>1</v>
-      </c>
-      <c r="D938" t="s">
-        <v>1969</v>
-      </c>
-      <c r="E938" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F938" t="s">
-        <v>1970</v>
-      </c>
-      <c r="K938">
-        <v>0</v>
-      </c>
-      <c r="L938">
-        <v>55000</v>
-      </c>
-      <c r="M938">
-        <v>400</v>
-      </c>
-      <c r="T938">
-        <v>0.75</v>
-      </c>
-      <c r="U938">
-        <v>0.75</v>
-      </c>
-      <c r="V938">
-        <v>0</v>
-      </c>
-      <c r="W938">
-        <v>0.75</v>
-      </c>
-      <c r="Y938">
-        <v>1</v>
-      </c>
-      <c r="AA938">
-        <v>90</v>
-      </c>
-      <c r="AB938">
-        <v>100</v>
-      </c>
-      <c r="AC938" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF938">
-        <v>0.75</v>
-      </c>
-      <c r="AG938">
-        <v>0</v>
-      </c>
-      <c r="AH938">
-        <v>0</v>
-      </c>
-      <c r="AI938">
-        <v>0</v>
-      </c>
-      <c r="AJ938">
-        <v>0</v>
-      </c>
-      <c r="AL938">
-        <v>1</v>
-      </c>
-      <c r="AM938">
-        <v>1</v>
-      </c>
-      <c r="AO938">
-        <v>0</v>
-      </c>
-      <c r="AP938">
-        <v>30</v>
-      </c>
-      <c r="AQ938">
-        <v>1</v>
-      </c>
-      <c r="AR938">
-        <v>0</v>
-      </c>
-      <c r="AS938">
-        <v>0</v>
-      </c>
-      <c r="AT938">
-        <v>0</v>
-      </c>
-      <c r="AU938">
-        <v>0</v>
-      </c>
-      <c r="AW938">
-        <v>0</v>
-      </c>
-      <c r="AX938">
-        <v>0</v>
-      </c>
-      <c r="AY938">
-        <v>0</v>
-      </c>
-      <c r="AZ938">
-        <v>0</v>
-      </c>
-      <c r="BA938">
-        <v>0</v>
-      </c>
-      <c r="BB938">
-        <v>0</v>
-      </c>
-      <c r="BC938">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="939" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C939">
-        <v>1</v>
-      </c>
-      <c r="D939" t="s">
-        <v>1971</v>
-      </c>
-      <c r="E939" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F939" t="s">
-        <v>1972</v>
-      </c>
-      <c r="K939">
-        <v>0</v>
-      </c>
-      <c r="L939">
-        <v>55000</v>
-      </c>
-      <c r="M939">
-        <v>400</v>
-      </c>
-      <c r="Q939">
-        <v>0.75</v>
-      </c>
-      <c r="R939">
-        <v>0.75</v>
-      </c>
-      <c r="S939">
-        <v>0.75</v>
-      </c>
-      <c r="V939">
-        <v>0</v>
-      </c>
-      <c r="W939">
-        <v>0</v>
-      </c>
-      <c r="Y939">
-        <v>1</v>
-      </c>
-      <c r="AA939">
-        <v>100</v>
-      </c>
-      <c r="AB939">
-        <v>110</v>
-      </c>
-      <c r="AC939" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF939">
-        <v>0.75</v>
-      </c>
-      <c r="AG939">
-        <v>0</v>
-      </c>
-      <c r="AH939">
-        <v>0</v>
-      </c>
-      <c r="AI939">
-        <v>0</v>
-      </c>
-      <c r="AJ939">
-        <v>0</v>
-      </c>
-      <c r="AL939">
-        <v>1</v>
-      </c>
-      <c r="AM939">
-        <v>1</v>
-      </c>
-      <c r="AO939">
-        <v>0</v>
-      </c>
-      <c r="AP939">
-        <v>30</v>
-      </c>
-      <c r="AR939">
-        <v>0</v>
-      </c>
-      <c r="AS939">
-        <v>0</v>
-      </c>
-      <c r="AT939">
-        <v>0</v>
-      </c>
-      <c r="AU939">
-        <v>0</v>
-      </c>
-      <c r="AW939">
-        <v>0</v>
-      </c>
-      <c r="AX939">
-        <v>0</v>
-      </c>
-      <c r="AY939">
-        <v>0</v>
-      </c>
-      <c r="AZ939">
-        <v>0</v>
-      </c>
-      <c r="BA939">
-        <v>0</v>
-      </c>
-      <c r="BB939">
-        <v>0</v>
-      </c>
-      <c r="BC939">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="940" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C940">
-        <v>1</v>
-      </c>
-      <c r="D940" t="s">
-        <v>1973</v>
-      </c>
-      <c r="E940" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F940" t="s">
-        <v>1974</v>
-      </c>
-      <c r="K940">
-        <v>0</v>
-      </c>
-      <c r="L940">
-        <v>55000</v>
-      </c>
-      <c r="M940">
-        <v>400</v>
-      </c>
-      <c r="S940">
-        <v>0.75</v>
-      </c>
-      <c r="V940">
-        <v>0.75</v>
-      </c>
-      <c r="W940">
-        <v>0</v>
-      </c>
-      <c r="Y940">
-        <v>1</v>
-      </c>
-      <c r="AA940">
-        <v>120</v>
-      </c>
-      <c r="AB940">
-        <v>130</v>
-      </c>
-      <c r="AC940" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF940">
-        <v>0.75</v>
-      </c>
-      <c r="AG940">
-        <v>0</v>
-      </c>
-      <c r="AH940">
-        <v>0</v>
-      </c>
-      <c r="AI940">
-        <v>0</v>
-      </c>
-      <c r="AJ940">
-        <v>0</v>
-      </c>
-      <c r="AL940">
-        <v>1</v>
-      </c>
-      <c r="AM940">
-        <v>1</v>
-      </c>
-      <c r="AO940">
-        <v>0</v>
-      </c>
-      <c r="AP940">
-        <v>30</v>
-      </c>
-      <c r="AR940">
-        <v>0</v>
-      </c>
-      <c r="AS940">
-        <v>0</v>
-      </c>
-      <c r="AT940">
-        <v>0</v>
-      </c>
-      <c r="AU940">
-        <v>0</v>
-      </c>
-      <c r="AW940">
-        <v>0</v>
-      </c>
-      <c r="AX940">
-        <v>0</v>
-      </c>
-      <c r="AY940">
-        <v>0</v>
-      </c>
-      <c r="AZ940">
-        <v>0</v>
-      </c>
-      <c r="BA940">
-        <v>0</v>
-      </c>
-      <c r="BB940">
-        <v>0</v>
-      </c>
-      <c r="BC940">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="941" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C941">
-        <v>1</v>
-      </c>
-      <c r="D941" t="s">
-        <v>1975</v>
-      </c>
-      <c r="E941" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F941" t="s">
-        <v>1976</v>
-      </c>
-      <c r="K941">
-        <v>0</v>
-      </c>
-      <c r="L941">
-        <v>200</v>
-      </c>
-      <c r="M941">
-        <v>8</v>
-      </c>
-      <c r="Y941">
-        <v>1</v>
-      </c>
-      <c r="Z941">
-        <v>1</v>
-      </c>
-      <c r="AA941">
-        <v>1</v>
-      </c>
-      <c r="AB941">
-        <v>10</v>
-      </c>
-      <c r="AC941" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF941">
-        <v>0</v>
-      </c>
-      <c r="AG941">
-        <v>0</v>
-      </c>
-      <c r="AH941">
-        <v>0</v>
-      </c>
-      <c r="AI941">
-        <v>0</v>
-      </c>
-      <c r="AJ941">
-        <v>0</v>
-      </c>
-      <c r="AL941">
-        <v>1</v>
-      </c>
-      <c r="AM941">
-        <v>1</v>
-      </c>
-      <c r="AO941">
-        <v>0</v>
-      </c>
-      <c r="AP941">
-        <v>10</v>
-      </c>
-      <c r="AQ941">
-        <v>1</v>
-      </c>
-      <c r="AR941">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AT941">
-        <v>0</v>
-      </c>
-      <c r="AU941">
-        <v>0</v>
-      </c>
-      <c r="AW941">
-        <v>0</v>
-      </c>
-      <c r="AX941">
-        <v>0</v>
-      </c>
-      <c r="AY941">
-        <v>0</v>
-      </c>
-      <c r="AZ941">
-        <v>0</v>
-      </c>
-      <c r="BA941">
-        <v>0</v>
-      </c>
-      <c r="BB941">
-        <v>0</v>
-      </c>
-      <c r="BC941">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="942" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C942">
-        <v>1</v>
-      </c>
-      <c r="D942" t="s">
-        <v>1977</v>
-      </c>
-      <c r="E942" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F942" t="s">
-        <v>1978</v>
-      </c>
-      <c r="K942">
-        <v>0</v>
-      </c>
-      <c r="L942">
-        <v>500</v>
-      </c>
-      <c r="M942">
-        <v>12</v>
-      </c>
-      <c r="Y942">
-        <v>1</v>
-      </c>
-      <c r="Z942">
-        <v>1</v>
-      </c>
-      <c r="AA942">
-        <v>3</v>
-      </c>
-      <c r="AB942">
-        <v>10</v>
-      </c>
-      <c r="AC942" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF942">
-        <v>0</v>
-      </c>
-      <c r="AG942">
-        <v>0</v>
-      </c>
-      <c r="AH942">
-        <v>0</v>
-      </c>
-      <c r="AI942">
-        <v>0</v>
-      </c>
-      <c r="AJ942">
-        <v>0</v>
-      </c>
-      <c r="AL942">
-        <v>1</v>
-      </c>
-      <c r="AM942">
-        <v>1</v>
-      </c>
-      <c r="AO942">
-        <v>0</v>
-      </c>
-      <c r="AP942">
-        <v>10</v>
-      </c>
-      <c r="AR942">
-        <v>0</v>
-      </c>
-      <c r="AS942">
-        <v>0</v>
-      </c>
-      <c r="AT942">
-        <v>0.05</v>
-      </c>
-      <c r="AU942">
-        <v>0.05</v>
-      </c>
-      <c r="AW942">
-        <v>0</v>
-      </c>
-      <c r="AX942">
-        <v>0</v>
-      </c>
-      <c r="AY942">
-        <v>0</v>
-      </c>
-      <c r="AZ942">
-        <v>0</v>
-      </c>
-      <c r="BA942">
-        <v>0</v>
-      </c>
-      <c r="BB942">
-        <v>0</v>
-      </c>
-      <c r="BC942">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="943" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C943">
-        <v>1</v>
-      </c>
-      <c r="D943" t="s">
-        <v>1979</v>
-      </c>
-      <c r="E943" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F943" t="s">
-        <v>1980</v>
-      </c>
-      <c r="K943">
-        <v>0</v>
-      </c>
-      <c r="L943">
-        <v>500</v>
-      </c>
-      <c r="M943">
-        <v>12</v>
-      </c>
-      <c r="Y943">
-        <v>1</v>
-      </c>
-      <c r="Z943">
-        <v>1</v>
-      </c>
-      <c r="AA943">
-        <v>3</v>
-      </c>
-      <c r="AB943">
-        <v>10</v>
-      </c>
-      <c r="AC943" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF943">
-        <v>0</v>
-      </c>
-      <c r="AG943">
-        <v>0</v>
-      </c>
-      <c r="AH943">
-        <v>0</v>
-      </c>
-      <c r="AI943">
-        <v>0</v>
-      </c>
-      <c r="AJ943">
-        <v>0</v>
-      </c>
-      <c r="AL943">
-        <v>1</v>
-      </c>
-      <c r="AM943">
-        <v>1</v>
-      </c>
-      <c r="AO943">
-        <v>0</v>
-      </c>
-      <c r="AP943">
-        <v>10</v>
-      </c>
-      <c r="AR943">
-        <v>0</v>
-      </c>
-      <c r="AS943">
-        <v>1</v>
-      </c>
-      <c r="AT943">
-        <v>0.05</v>
-      </c>
-      <c r="AU943">
-        <v>0.05</v>
-      </c>
-      <c r="AW943">
-        <v>0</v>
-      </c>
-      <c r="AX943">
-        <v>0</v>
-      </c>
-      <c r="AY943">
-        <v>0</v>
-      </c>
-      <c r="AZ943">
-        <v>0</v>
-      </c>
-      <c r="BA943">
-        <v>0</v>
-      </c>
-      <c r="BB943">
-        <v>0</v>
-      </c>
-      <c r="BC943">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="944" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C944">
-        <v>1</v>
-      </c>
-      <c r="D944" t="s">
-        <v>1981</v>
-      </c>
-      <c r="E944" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F944" t="s">
-        <v>1982</v>
-      </c>
-      <c r="K944">
-        <v>0</v>
-      </c>
-      <c r="L944">
-        <v>500</v>
-      </c>
-      <c r="M944">
-        <v>12</v>
-      </c>
-      <c r="Y944">
-        <v>1</v>
-      </c>
-      <c r="Z944">
-        <v>1</v>
-      </c>
-      <c r="AA944">
-        <v>3</v>
-      </c>
-      <c r="AB944">
-        <v>10</v>
-      </c>
-      <c r="AC944" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF944">
-        <v>0</v>
-      </c>
-      <c r="AG944">
-        <v>0</v>
-      </c>
-      <c r="AH944">
-        <v>0</v>
-      </c>
-      <c r="AI944">
-        <v>0</v>
-      </c>
-      <c r="AJ944">
-        <v>0</v>
-      </c>
-      <c r="AL944">
-        <v>1</v>
-      </c>
-      <c r="AM944">
-        <v>1</v>
-      </c>
-      <c r="AO944">
-        <v>0</v>
-      </c>
-      <c r="AP944">
-        <v>10</v>
-      </c>
-      <c r="AR944">
-        <v>0</v>
-      </c>
-      <c r="AS944">
-        <v>2</v>
-      </c>
-      <c r="AT944">
-        <v>0.05</v>
-      </c>
-      <c r="AU944">
-        <v>0.05</v>
-      </c>
-      <c r="AW944">
-        <v>0</v>
-      </c>
-      <c r="AX944">
-        <v>0</v>
-      </c>
-      <c r="AY944">
-        <v>0</v>
-      </c>
-      <c r="AZ944">
-        <v>0</v>
-      </c>
-      <c r="BA944">
-        <v>0</v>
-      </c>
-      <c r="BB944">
-        <v>0</v>
-      </c>
-      <c r="BC944">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="945" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C945">
-        <v>1</v>
-      </c>
-      <c r="D945" t="s">
-        <v>1983</v>
-      </c>
-      <c r="E945" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F945" t="s">
-        <v>1984</v>
-      </c>
-      <c r="K945">
-        <v>0</v>
-      </c>
-      <c r="L945">
-        <v>500</v>
-      </c>
-      <c r="M945">
-        <v>12</v>
-      </c>
-      <c r="Y945">
-        <v>1</v>
-      </c>
-      <c r="Z945">
-        <v>1</v>
-      </c>
-      <c r="AA945">
-        <v>3</v>
-      </c>
-      <c r="AB945">
-        <v>10</v>
-      </c>
-      <c r="AC945" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF945">
-        <v>0</v>
-      </c>
-      <c r="AG945">
-        <v>0</v>
-      </c>
-      <c r="AH945">
-        <v>0</v>
-      </c>
-      <c r="AI945">
-        <v>0</v>
-      </c>
-      <c r="AJ945">
-        <v>0</v>
-      </c>
-      <c r="AL945">
-        <v>1</v>
-      </c>
-      <c r="AM945">
-        <v>1</v>
-      </c>
-      <c r="AO945">
-        <v>0</v>
-      </c>
-      <c r="AP945">
-        <v>10</v>
-      </c>
-      <c r="AR945">
-        <v>0</v>
-      </c>
-      <c r="AS945">
-        <v>3</v>
-      </c>
-      <c r="AT945">
-        <v>0.05</v>
-      </c>
-      <c r="AU945">
-        <v>0.05</v>
-      </c>
-      <c r="AW945">
-        <v>0</v>
-      </c>
-      <c r="AX945">
-        <v>0</v>
-      </c>
-      <c r="AY945">
-        <v>0</v>
-      </c>
-      <c r="AZ945">
-        <v>0</v>
-      </c>
-      <c r="BA945">
-        <v>0</v>
-      </c>
-      <c r="BB945">
-        <v>0</v>
-      </c>
-      <c r="BC945">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="946" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C946">
-        <v>1</v>
-      </c>
-      <c r="D946" t="s">
-        <v>1985</v>
-      </c>
-      <c r="E946" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F946" t="s">
-        <v>1986</v>
-      </c>
-      <c r="K946">
-        <v>0</v>
-      </c>
-      <c r="L946">
-        <v>500</v>
-      </c>
-      <c r="M946">
-        <v>12</v>
-      </c>
-      <c r="Y946">
-        <v>1</v>
-      </c>
-      <c r="Z946">
-        <v>1</v>
-      </c>
-      <c r="AA946">
-        <v>3</v>
-      </c>
-      <c r="AB946">
-        <v>10</v>
-      </c>
-      <c r="AC946" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF946">
-        <v>0</v>
-      </c>
-      <c r="AG946">
-        <v>0</v>
-      </c>
-      <c r="AH946">
-        <v>0</v>
-      </c>
-      <c r="AI946">
-        <v>0</v>
-      </c>
-      <c r="AJ946">
-        <v>0</v>
-      </c>
-      <c r="AL946">
-        <v>1</v>
-      </c>
-      <c r="AM946">
-        <v>1</v>
-      </c>
-      <c r="AO946">
-        <v>0</v>
-      </c>
-      <c r="AP946">
-        <v>10</v>
-      </c>
-      <c r="AR946">
-        <v>0</v>
-      </c>
-      <c r="AS946">
-        <v>4</v>
-      </c>
-      <c r="AT946">
-        <v>0.05</v>
-      </c>
-      <c r="AU946">
-        <v>0.05</v>
-      </c>
-      <c r="AW946">
-        <v>0</v>
-      </c>
-      <c r="AX946">
-        <v>0</v>
-      </c>
-      <c r="AY946">
-        <v>0</v>
-      </c>
-      <c r="AZ946">
-        <v>0</v>
-      </c>
-      <c r="BA946">
-        <v>0</v>
-      </c>
-      <c r="BB946">
-        <v>0</v>
-      </c>
-      <c r="BC946">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="947" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C947">
-        <v>1</v>
-      </c>
-      <c r="D947" t="s">
-        <v>1987</v>
-      </c>
-      <c r="E947" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F947" t="s">
-        <v>1988</v>
-      </c>
-      <c r="K947">
-        <v>0</v>
-      </c>
-      <c r="L947">
-        <v>500</v>
-      </c>
-      <c r="M947">
-        <v>12</v>
-      </c>
-      <c r="Y947">
-        <v>1</v>
-      </c>
-      <c r="Z947">
-        <v>1</v>
-      </c>
-      <c r="AA947">
-        <v>3</v>
-      </c>
-      <c r="AB947">
-        <v>10</v>
-      </c>
-      <c r="AC947" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF947">
-        <v>0</v>
-      </c>
-      <c r="AG947">
-        <v>0</v>
-      </c>
-      <c r="AH947">
-        <v>0</v>
-      </c>
-      <c r="AI947">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AJ947">
-        <v>0</v>
-      </c>
-      <c r="AL947">
-        <v>1</v>
-      </c>
-      <c r="AM947">
-        <v>1</v>
-      </c>
-      <c r="AO947">
-        <v>0</v>
-      </c>
-      <c r="AP947">
-        <v>10</v>
-      </c>
-      <c r="AR947">
-        <v>0</v>
-      </c>
-      <c r="AS947">
-        <v>5</v>
-      </c>
-      <c r="AT947">
-        <v>0</v>
-      </c>
-      <c r="AU947">
-        <v>0.05</v>
-      </c>
-      <c r="AW947">
-        <v>0</v>
-      </c>
-      <c r="AX947">
-        <v>0</v>
-      </c>
-      <c r="AY947">
-        <v>0</v>
-      </c>
-      <c r="AZ947">
-        <v>0</v>
-      </c>
-      <c r="BA947">
-        <v>0</v>
-      </c>
-      <c r="BB947">
-        <v>0</v>
-      </c>
-      <c r="BC947">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="948" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C948">
-        <v>1</v>
-      </c>
-      <c r="D948" t="s">
-        <v>1989</v>
-      </c>
-      <c r="E948" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F948" t="s">
-        <v>1990</v>
-      </c>
-      <c r="K948">
-        <v>0</v>
-      </c>
-      <c r="L948">
-        <v>700</v>
-      </c>
-      <c r="M948">
-        <v>16</v>
-      </c>
-      <c r="Y948">
-        <v>1</v>
-      </c>
-      <c r="Z948">
-        <v>1</v>
-      </c>
-      <c r="AA948">
-        <v>5</v>
-      </c>
-      <c r="AB948">
-        <v>10</v>
-      </c>
-      <c r="AC948" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF948">
-        <v>0</v>
-      </c>
-      <c r="AG948">
-        <v>0</v>
-      </c>
-      <c r="AH948">
-        <v>0</v>
-      </c>
-      <c r="AI948">
-        <v>0</v>
-      </c>
-      <c r="AJ948">
-        <v>0</v>
-      </c>
-      <c r="AL948">
-        <v>1</v>
-      </c>
-      <c r="AM948">
-        <v>1</v>
-      </c>
-      <c r="AN948">
-        <v>1</v>
-      </c>
-      <c r="AO948">
-        <v>0.05</v>
-      </c>
-      <c r="AR948">
-        <v>0</v>
-      </c>
-      <c r="AT948">
-        <v>0</v>
-      </c>
-      <c r="AU948">
-        <v>0</v>
-      </c>
-      <c r="AW948">
-        <v>0</v>
-      </c>
-      <c r="AX948">
-        <v>0</v>
-      </c>
-      <c r="AY948">
-        <v>0</v>
-      </c>
-      <c r="AZ948">
-        <v>0</v>
-      </c>
-      <c r="BA948">
-        <v>0</v>
-      </c>
-      <c r="BB948">
-        <v>0</v>
-      </c>
-      <c r="BC948">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="949" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C949">
-        <v>1</v>
-      </c>
-      <c r="D949" t="s">
-        <v>1991</v>
-      </c>
-      <c r="E949" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F949" t="s">
-        <v>1992</v>
-      </c>
-      <c r="K949">
-        <v>0</v>
-      </c>
-      <c r="L949">
-        <v>1000</v>
-      </c>
-      <c r="M949">
-        <v>20</v>
-      </c>
-      <c r="Y949">
-        <v>1</v>
-      </c>
-      <c r="Z949">
-        <v>1</v>
-      </c>
-      <c r="AA949">
-        <v>8</v>
-      </c>
-      <c r="AB949">
-        <v>10</v>
-      </c>
-      <c r="AC949" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF949">
-        <v>0</v>
-      </c>
-      <c r="AG949">
-        <v>0</v>
-      </c>
-      <c r="AH949">
-        <v>0</v>
-      </c>
-      <c r="AI949">
-        <v>0</v>
-      </c>
-      <c r="AJ949">
-        <v>0</v>
-      </c>
-      <c r="AL949">
-        <v>1</v>
-      </c>
-      <c r="AM949">
-        <v>1</v>
-      </c>
-      <c r="AO949">
-        <v>0</v>
-      </c>
-      <c r="AP949">
-        <v>15</v>
-      </c>
-      <c r="AQ949">
-        <v>1</v>
-      </c>
-      <c r="AR949">
-        <v>0.01</v>
-      </c>
-      <c r="AT949">
-        <v>0</v>
-      </c>
-      <c r="AU949">
-        <v>0</v>
-      </c>
-      <c r="AW949">
-        <v>0</v>
-      </c>
-      <c r="AX949">
-        <v>0</v>
-      </c>
-      <c r="AY949">
-        <v>0</v>
-      </c>
-      <c r="AZ949">
-        <v>0</v>
-      </c>
-      <c r="BA949">
-        <v>0</v>
-      </c>
-      <c r="BB949">
-        <v>0</v>
-      </c>
-      <c r="BC949">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="950" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C950">
-        <v>1</v>
-      </c>
-      <c r="D950" t="s">
-        <v>1993</v>
-      </c>
-      <c r="E950" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F950" t="s">
-        <v>1994</v>
-      </c>
-      <c r="K950">
-        <v>0</v>
-      </c>
-      <c r="L950">
-        <v>2500</v>
-      </c>
-      <c r="M950">
-        <v>24</v>
-      </c>
-      <c r="Y950">
-        <v>1</v>
-      </c>
-      <c r="Z950">
-        <v>1</v>
-      </c>
-      <c r="AA950">
-        <v>10</v>
-      </c>
-      <c r="AB950">
-        <v>70</v>
-      </c>
-      <c r="AC950" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF950">
-        <v>0</v>
-      </c>
-      <c r="AG950">
-        <v>0</v>
-      </c>
-      <c r="AH950">
-        <v>0</v>
-      </c>
-      <c r="AI950">
-        <v>0</v>
-      </c>
-      <c r="AJ950">
-        <v>0</v>
-      </c>
-      <c r="AL950">
-        <v>1</v>
-      </c>
-      <c r="AM950">
-        <v>1</v>
-      </c>
-      <c r="AO950">
-        <v>0</v>
-      </c>
-      <c r="AP950">
-        <v>15</v>
-      </c>
-      <c r="AR950">
-        <v>0</v>
-      </c>
-      <c r="AS950">
-        <v>4</v>
-      </c>
-      <c r="AT950">
-        <v>0.08</v>
-      </c>
-      <c r="AU950">
-        <v>0.08</v>
-      </c>
-      <c r="AW950">
-        <v>0</v>
-      </c>
-      <c r="AX950">
-        <v>0</v>
-      </c>
-      <c r="AY950">
-        <v>0</v>
-      </c>
-      <c r="AZ950">
-        <v>0</v>
-      </c>
-      <c r="BA950">
-        <v>0</v>
-      </c>
-      <c r="BB950">
-        <v>0</v>
-      </c>
-      <c r="BC950">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="951" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C951">
-        <v>1</v>
-      </c>
-      <c r="D951" t="s">
-        <v>1995</v>
-      </c>
-      <c r="E951" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F951" t="s">
-        <v>1988</v>
-      </c>
-      <c r="K951">
-        <v>0</v>
-      </c>
-      <c r="L951">
-        <v>2500</v>
-      </c>
-      <c r="M951">
-        <v>24</v>
-      </c>
-      <c r="Y951">
-        <v>1</v>
-      </c>
-      <c r="Z951">
-        <v>1</v>
-      </c>
-      <c r="AA951">
-        <v>10</v>
-      </c>
-      <c r="AB951">
-        <v>70</v>
-      </c>
-      <c r="AC951" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF951">
-        <v>0</v>
-      </c>
-      <c r="AG951">
-        <v>0</v>
-      </c>
-      <c r="AH951">
-        <v>0</v>
-      </c>
-      <c r="AI951">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AJ951">
-        <v>0</v>
-      </c>
-      <c r="AL951">
-        <v>1</v>
-      </c>
-      <c r="AM951">
-        <v>1</v>
-      </c>
-      <c r="AO951">
-        <v>0</v>
-      </c>
-      <c r="AP951">
-        <v>15</v>
-      </c>
-      <c r="AR951">
-        <v>0</v>
-      </c>
-      <c r="AS951">
-        <v>5</v>
-      </c>
-      <c r="AT951">
-        <v>0</v>
-      </c>
-      <c r="AU951">
-        <v>0.08</v>
-      </c>
-      <c r="AW951">
-        <v>0</v>
-      </c>
-      <c r="AX951">
-        <v>0</v>
-      </c>
-      <c r="AY951">
-        <v>0</v>
-      </c>
-      <c r="AZ951">
-        <v>0</v>
-      </c>
-      <c r="BA951">
-        <v>0</v>
-      </c>
-      <c r="BB951">
-        <v>0</v>
-      </c>
-      <c r="BC951">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="952" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C952">
-        <v>1</v>
-      </c>
-      <c r="D952" t="s">
-        <v>1996</v>
-      </c>
-      <c r="E952" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F952" t="s">
-        <v>1997</v>
-      </c>
-      <c r="K952">
-        <v>0</v>
-      </c>
-      <c r="L952">
-        <v>2500</v>
-      </c>
-      <c r="M952">
-        <v>24</v>
-      </c>
-      <c r="Y952">
-        <v>1</v>
-      </c>
-      <c r="Z952">
-        <v>1</v>
-      </c>
-      <c r="AA952">
-        <v>10</v>
-      </c>
-      <c r="AB952">
-        <v>70</v>
-      </c>
-      <c r="AC952" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF952">
-        <v>0</v>
-      </c>
-      <c r="AG952">
-        <v>0</v>
-      </c>
-      <c r="AH952">
-        <v>0</v>
-      </c>
-      <c r="AI952">
-        <v>0</v>
-      </c>
-      <c r="AJ952">
-        <v>0</v>
-      </c>
-      <c r="AL952">
-        <v>1</v>
-      </c>
-      <c r="AM952">
-        <v>1</v>
-      </c>
-      <c r="AO952">
-        <v>0</v>
-      </c>
-      <c r="AP952">
-        <v>15</v>
-      </c>
-      <c r="AR952">
-        <v>0</v>
-      </c>
-      <c r="AS952">
-        <v>0</v>
-      </c>
-      <c r="AT952">
-        <v>0.08</v>
-      </c>
-      <c r="AU952">
-        <v>0.08</v>
-      </c>
-      <c r="AW952">
-        <v>0</v>
-      </c>
-      <c r="AX952">
-        <v>0</v>
-      </c>
-      <c r="AY952">
-        <v>0</v>
-      </c>
-      <c r="AZ952">
-        <v>0</v>
-      </c>
-      <c r="BA952">
-        <v>0</v>
-      </c>
-      <c r="BB952">
-        <v>0</v>
-      </c>
-      <c r="BC952">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="953" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C953">
-        <v>1</v>
-      </c>
-      <c r="D953" t="s">
-        <v>1998</v>
-      </c>
-      <c r="E953" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F953" t="s">
-        <v>1980</v>
-      </c>
-      <c r="K953">
-        <v>0</v>
-      </c>
-      <c r="L953">
-        <v>2500</v>
-      </c>
-      <c r="M953">
-        <v>24</v>
-      </c>
-      <c r="Y953">
-        <v>1</v>
-      </c>
-      <c r="Z953">
-        <v>1</v>
-      </c>
-      <c r="AA953">
-        <v>15</v>
-      </c>
-      <c r="AB953">
-        <v>70</v>
-      </c>
-      <c r="AC953" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF953">
-        <v>0</v>
-      </c>
-      <c r="AG953">
-        <v>0</v>
-      </c>
-      <c r="AH953">
-        <v>0</v>
-      </c>
-      <c r="AI953">
-        <v>0</v>
-      </c>
-      <c r="AJ953">
-        <v>0</v>
-      </c>
-      <c r="AL953">
-        <v>1</v>
-      </c>
-      <c r="AM953">
-        <v>1</v>
-      </c>
-      <c r="AO953">
-        <v>0</v>
-      </c>
-      <c r="AP953">
-        <v>15</v>
-      </c>
-      <c r="AR953">
-        <v>0</v>
-      </c>
-      <c r="AS953">
-        <v>1</v>
-      </c>
-      <c r="AT953">
-        <v>0.08</v>
-      </c>
-      <c r="AU953">
-        <v>0.08</v>
-      </c>
-      <c r="AW953">
-        <v>0</v>
-      </c>
-      <c r="AX953">
-        <v>0</v>
-      </c>
-      <c r="AY953">
-        <v>0</v>
-      </c>
-      <c r="AZ953">
-        <v>0</v>
-      </c>
-      <c r="BA953">
-        <v>0</v>
-      </c>
-      <c r="BB953">
-        <v>0</v>
-      </c>
-      <c r="BC953">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="954" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C954">
-        <v>1</v>
-      </c>
-      <c r="D954" t="s">
-        <v>1999</v>
-      </c>
-      <c r="E954" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F954" t="s">
-        <v>1982</v>
-      </c>
-      <c r="K954">
-        <v>0</v>
-      </c>
-      <c r="L954">
-        <v>2500</v>
-      </c>
-      <c r="M954">
-        <v>24</v>
-      </c>
-      <c r="Y954">
-        <v>1</v>
-      </c>
-      <c r="Z954">
-        <v>1</v>
-      </c>
-      <c r="AA954">
-        <v>15</v>
-      </c>
-      <c r="AB954">
-        <v>70</v>
-      </c>
-      <c r="AC954" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF954">
-        <v>0</v>
-      </c>
-      <c r="AG954">
-        <v>0</v>
-      </c>
-      <c r="AH954">
-        <v>0</v>
-      </c>
-      <c r="AI954">
-        <v>0</v>
-      </c>
-      <c r="AJ954">
-        <v>0</v>
-      </c>
-      <c r="AL954">
-        <v>1</v>
-      </c>
-      <c r="AM954">
-        <v>1</v>
-      </c>
-      <c r="AO954">
-        <v>0</v>
-      </c>
-      <c r="AP954">
-        <v>15</v>
-      </c>
-      <c r="AR954">
-        <v>0</v>
-      </c>
-      <c r="AS954">
-        <v>2</v>
-      </c>
-      <c r="AT954">
-        <v>0.08</v>
-      </c>
-      <c r="AU954">
-        <v>0.08</v>
-      </c>
-      <c r="AW954">
-        <v>0</v>
-      </c>
-      <c r="AX954">
-        <v>0</v>
-      </c>
-      <c r="AY954">
-        <v>0</v>
-      </c>
-      <c r="AZ954">
-        <v>0</v>
-      </c>
-      <c r="BA954">
-        <v>0</v>
-      </c>
-      <c r="BB954">
-        <v>0</v>
-      </c>
-      <c r="BC954">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="955" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C955">
-        <v>1</v>
-      </c>
-      <c r="D955" t="s">
-        <v>2000</v>
-      </c>
-      <c r="E955" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F955" t="s">
-        <v>1984</v>
-      </c>
-      <c r="K955">
-        <v>0</v>
-      </c>
-      <c r="L955">
-        <v>2500</v>
-      </c>
-      <c r="M955">
-        <v>24</v>
-      </c>
-      <c r="Y955">
-        <v>1</v>
-      </c>
-      <c r="Z955">
-        <v>1</v>
-      </c>
-      <c r="AA955">
-        <v>15</v>
-      </c>
-      <c r="AB955">
-        <v>70</v>
-      </c>
-      <c r="AC955" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF955">
-        <v>0</v>
-      </c>
-      <c r="AG955">
-        <v>0</v>
-      </c>
-      <c r="AH955">
-        <v>0</v>
-      </c>
-      <c r="AI955">
-        <v>0</v>
-      </c>
-      <c r="AJ955">
-        <v>0</v>
-      </c>
-      <c r="AL955">
-        <v>1</v>
-      </c>
-      <c r="AM955">
-        <v>1</v>
-      </c>
-      <c r="AO955">
-        <v>0</v>
-      </c>
-      <c r="AP955">
-        <v>15</v>
-      </c>
-      <c r="AR955">
-        <v>0</v>
-      </c>
-      <c r="AS955">
-        <v>3</v>
-      </c>
-      <c r="AT955">
-        <v>0.08</v>
-      </c>
-      <c r="AU955">
-        <v>0.08</v>
-      </c>
-      <c r="AW955">
-        <v>0</v>
-      </c>
-      <c r="AX955">
-        <v>0</v>
-      </c>
-      <c r="AY955">
-        <v>0</v>
-      </c>
-      <c r="AZ955">
-        <v>0</v>
-      </c>
-      <c r="BA955">
-        <v>0</v>
-      </c>
-      <c r="BB955">
-        <v>0</v>
-      </c>
-      <c r="BC955">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="956" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C956">
-        <v>1</v>
-      </c>
-      <c r="D956" t="s">
-        <v>2001</v>
-      </c>
-      <c r="E956" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F956" t="s">
-        <v>1990</v>
-      </c>
-      <c r="K956">
-        <v>0</v>
-      </c>
-      <c r="L956">
-        <v>3000</v>
-      </c>
-      <c r="M956">
-        <v>32</v>
-      </c>
-      <c r="Y956">
-        <v>1</v>
-      </c>
-      <c r="Z956">
-        <v>1</v>
-      </c>
-      <c r="AA956">
-        <v>20</v>
-      </c>
-      <c r="AB956">
-        <v>70</v>
-      </c>
-      <c r="AC956" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF956">
-        <v>0</v>
-      </c>
-      <c r="AG956">
-        <v>0</v>
-      </c>
-      <c r="AH956">
-        <v>0</v>
-      </c>
-      <c r="AI956">
-        <v>0</v>
-      </c>
-      <c r="AJ956">
-        <v>0</v>
-      </c>
-      <c r="AL956">
-        <v>1</v>
-      </c>
-      <c r="AM956">
-        <v>1</v>
-      </c>
-      <c r="AN956">
-        <v>1</v>
-      </c>
-      <c r="AO956">
-        <v>0.08</v>
-      </c>
-      <c r="AR956">
-        <v>0</v>
-      </c>
-      <c r="AT956">
-        <v>0</v>
-      </c>
-      <c r="AU956">
-        <v>0</v>
-      </c>
-      <c r="AW956">
-        <v>0</v>
-      </c>
-      <c r="AX956">
-        <v>0</v>
-      </c>
-      <c r="AY956">
-        <v>0</v>
-      </c>
-      <c r="AZ956">
-        <v>0</v>
-      </c>
-      <c r="BA956">
-        <v>0</v>
-      </c>
-      <c r="BB956">
-        <v>0</v>
-      </c>
-      <c r="BC956">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="957" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C957">
-        <v>1</v>
-      </c>
-      <c r="D957" t="s">
-        <v>2002</v>
-      </c>
-      <c r="E957" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F957" t="s">
-        <v>1992</v>
-      </c>
-      <c r="K957">
-        <v>0</v>
-      </c>
-      <c r="L957">
-        <v>5000</v>
-      </c>
-      <c r="M957">
-        <v>40</v>
-      </c>
-      <c r="Y957">
-        <v>1</v>
-      </c>
-      <c r="Z957">
-        <v>1</v>
-      </c>
-      <c r="AA957">
-        <v>25</v>
-      </c>
-      <c r="AB957">
-        <v>70</v>
-      </c>
-      <c r="AC957" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF957">
-        <v>0</v>
-      </c>
-      <c r="AG957">
-        <v>0</v>
-      </c>
-      <c r="AH957">
-        <v>0</v>
-      </c>
-      <c r="AI957">
-        <v>0</v>
-      </c>
-      <c r="AJ957">
-        <v>0</v>
-      </c>
-      <c r="AL957">
-        <v>1</v>
-      </c>
-      <c r="AM957">
-        <v>1</v>
-      </c>
-      <c r="AO957">
-        <v>0</v>
-      </c>
-      <c r="AP957">
-        <v>20</v>
-      </c>
-      <c r="AQ957">
-        <v>1</v>
-      </c>
-      <c r="AR957">
-        <v>0.05</v>
-      </c>
-      <c r="AT957">
-        <v>0</v>
-      </c>
-      <c r="AU957">
-        <v>0</v>
-      </c>
-      <c r="AW957">
-        <v>0</v>
-      </c>
-      <c r="AX957">
-        <v>0</v>
-      </c>
-      <c r="AY957">
-        <v>0</v>
-      </c>
-      <c r="AZ957">
-        <v>0</v>
-      </c>
-      <c r="BA957">
-        <v>0</v>
-      </c>
-      <c r="BB957">
-        <v>0</v>
-      </c>
-      <c r="BC957">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="958" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C958">
-        <v>1</v>
-      </c>
-      <c r="D958" t="s">
-        <v>2003</v>
-      </c>
-      <c r="E958" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F958" t="s">
-        <v>1994</v>
-      </c>
-      <c r="K958">
-        <v>0</v>
-      </c>
-      <c r="L958">
-        <v>8000</v>
-      </c>
-      <c r="M958">
-        <v>60</v>
-      </c>
-      <c r="Y958">
-        <v>1</v>
-      </c>
-      <c r="Z958">
-        <v>1</v>
-      </c>
-      <c r="AA958">
-        <v>30</v>
-      </c>
-      <c r="AB958">
-        <v>80</v>
-      </c>
-      <c r="AC958" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF958">
-        <v>0</v>
-      </c>
-      <c r="AG958">
-        <v>0</v>
-      </c>
-      <c r="AH958">
-        <v>0</v>
-      </c>
-      <c r="AI958">
-        <v>0</v>
-      </c>
-      <c r="AJ958">
-        <v>0</v>
-      </c>
-      <c r="AL958">
-        <v>1</v>
-      </c>
-      <c r="AM958">
-        <v>1</v>
-      </c>
-      <c r="AO958">
-        <v>0</v>
-      </c>
-      <c r="AP958">
-        <v>20</v>
-      </c>
-      <c r="AR958">
-        <v>0</v>
-      </c>
-      <c r="AS958">
-        <v>4</v>
-      </c>
-      <c r="AT958">
-        <v>0.1</v>
-      </c>
-      <c r="AU958">
-        <v>0.01</v>
-      </c>
-      <c r="AW958">
-        <v>0</v>
-      </c>
-      <c r="AX958">
-        <v>0</v>
-      </c>
-      <c r="AY958">
-        <v>0</v>
-      </c>
-      <c r="AZ958">
-        <v>0</v>
-      </c>
-      <c r="BA958">
-        <v>0</v>
-      </c>
-      <c r="BB958">
-        <v>0</v>
-      </c>
-      <c r="BC958">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="959" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C959">
-        <v>1</v>
-      </c>
-      <c r="D959" t="s">
-        <v>2004</v>
-      </c>
-      <c r="E959" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F959" t="s">
-        <v>1988</v>
-      </c>
-      <c r="K959">
-        <v>0</v>
-      </c>
-      <c r="L959">
-        <v>8000</v>
-      </c>
-      <c r="M959">
-        <v>60</v>
-      </c>
-      <c r="Y959">
-        <v>1</v>
-      </c>
-      <c r="Z959">
-        <v>1</v>
-      </c>
-      <c r="AA959">
-        <v>30</v>
-      </c>
-      <c r="AB959">
-        <v>80</v>
-      </c>
-      <c r="AC959" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF959">
-        <v>0</v>
-      </c>
-      <c r="AG959">
-        <v>0</v>
-      </c>
-      <c r="AH959">
-        <v>0</v>
-      </c>
-      <c r="AI959">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="AJ959">
-        <v>0</v>
-      </c>
-      <c r="AL959">
-        <v>1</v>
-      </c>
-      <c r="AM959">
-        <v>1</v>
-      </c>
-      <c r="AO959">
-        <v>0</v>
-      </c>
-      <c r="AP959">
-        <v>20</v>
-      </c>
-      <c r="AR959">
-        <v>0</v>
-      </c>
-      <c r="AS959">
-        <v>5</v>
-      </c>
-      <c r="AT959">
-        <v>0</v>
-      </c>
-      <c r="AU959">
-        <v>0.01</v>
-      </c>
-      <c r="AW959">
-        <v>0</v>
-      </c>
-      <c r="AX959">
-        <v>0</v>
-      </c>
-      <c r="AY959">
-        <v>0</v>
-      </c>
-      <c r="AZ959">
-        <v>0</v>
-      </c>
-      <c r="BA959">
-        <v>0</v>
-      </c>
-      <c r="BB959">
-        <v>0</v>
-      </c>
-      <c r="BC959">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="960" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C960">
-        <v>1</v>
-      </c>
-      <c r="D960" t="s">
-        <v>2005</v>
-      </c>
-      <c r="E960" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F960" t="s">
-        <v>1997</v>
-      </c>
-      <c r="K960">
-        <v>0</v>
-      </c>
-      <c r="L960">
-        <v>8000</v>
-      </c>
-      <c r="M960">
-        <v>60</v>
-      </c>
-      <c r="Y960">
-        <v>1</v>
-      </c>
-      <c r="Z960">
-        <v>1</v>
-      </c>
-      <c r="AA960">
-        <v>30</v>
-      </c>
-      <c r="AB960">
-        <v>80</v>
-      </c>
-      <c r="AC960" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF960">
-        <v>0</v>
-      </c>
-      <c r="AG960">
-        <v>0</v>
-      </c>
-      <c r="AH960">
-        <v>0</v>
-      </c>
-      <c r="AI960">
-        <v>0</v>
-      </c>
-      <c r="AJ960">
-        <v>0</v>
-      </c>
-      <c r="AL960">
-        <v>1</v>
-      </c>
-      <c r="AM960">
-        <v>1</v>
-      </c>
-      <c r="AO960">
-        <v>0</v>
-      </c>
-      <c r="AP960">
-        <v>20</v>
-      </c>
-      <c r="AR960">
-        <v>0</v>
-      </c>
-      <c r="AS960">
-        <v>0</v>
-      </c>
-      <c r="AT960">
-        <v>0.01</v>
-      </c>
-      <c r="AU960">
-        <v>0.01</v>
-      </c>
-      <c r="AW960">
-        <v>0</v>
-      </c>
-      <c r="AX960">
-        <v>0</v>
-      </c>
-      <c r="AY960">
-        <v>0</v>
-      </c>
-      <c r="AZ960">
-        <v>0</v>
-      </c>
-      <c r="BA960">
-        <v>0</v>
-      </c>
-      <c r="BB960">
-        <v>0</v>
-      </c>
-      <c r="BC960">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="961" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C961">
-        <v>1</v>
-      </c>
-      <c r="D961" t="s">
-        <v>2006</v>
-      </c>
-      <c r="E961" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F961" t="s">
-        <v>1980</v>
-      </c>
-      <c r="K961">
-        <v>0</v>
-      </c>
-      <c r="L961">
-        <v>8000</v>
-      </c>
-      <c r="M961">
-        <v>60</v>
-      </c>
-      <c r="Y961">
-        <v>1</v>
-      </c>
-      <c r="Z961">
-        <v>1</v>
-      </c>
-      <c r="AA961">
-        <v>30</v>
-      </c>
-      <c r="AB961">
-        <v>80</v>
-      </c>
-      <c r="AC961" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF961">
-        <v>0</v>
-      </c>
-      <c r="AG961">
-        <v>0</v>
-      </c>
-      <c r="AH961">
-        <v>0</v>
-      </c>
-      <c r="AI961">
-        <v>0</v>
-      </c>
-      <c r="AJ961">
-        <v>0</v>
-      </c>
-      <c r="AL961">
-        <v>1</v>
-      </c>
-      <c r="AM961">
-        <v>1</v>
-      </c>
-      <c r="AO961">
-        <v>0</v>
-      </c>
-      <c r="AP961">
-        <v>20</v>
-      </c>
-      <c r="AR961">
-        <v>0</v>
-      </c>
-      <c r="AS961">
-        <v>1</v>
-      </c>
-      <c r="AT961">
-        <v>0.01</v>
-      </c>
-      <c r="AU961">
-        <v>0.01</v>
-      </c>
-      <c r="AW961">
-        <v>0</v>
-      </c>
-      <c r="AX961">
-        <v>0</v>
-      </c>
-      <c r="AY961">
-        <v>0</v>
-      </c>
-      <c r="AZ961">
-        <v>0</v>
-      </c>
-      <c r="BA961">
-        <v>0</v>
-      </c>
-      <c r="BB961">
-        <v>0</v>
-      </c>
-      <c r="BC961">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="962" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C962">
-        <v>1</v>
-      </c>
-      <c r="D962" t="s">
-        <v>2007</v>
-      </c>
-      <c r="E962" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F962" t="s">
-        <v>1982</v>
-      </c>
-      <c r="K962">
-        <v>0</v>
-      </c>
-      <c r="L962">
-        <v>8000</v>
-      </c>
-      <c r="M962">
-        <v>60</v>
-      </c>
-      <c r="Y962">
-        <v>1</v>
-      </c>
-      <c r="Z962">
-        <v>1</v>
-      </c>
-      <c r="AA962">
-        <v>30</v>
-      </c>
-      <c r="AB962">
-        <v>80</v>
-      </c>
-      <c r="AC962" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF962">
-        <v>0</v>
-      </c>
-      <c r="AG962">
-        <v>0</v>
-      </c>
-      <c r="AH962">
-        <v>0</v>
-      </c>
-      <c r="AI962">
-        <v>0</v>
-      </c>
-      <c r="AJ962">
-        <v>0</v>
-      </c>
-      <c r="AL962">
-        <v>1</v>
-      </c>
-      <c r="AM962">
-        <v>1</v>
-      </c>
-      <c r="AO962">
-        <v>0</v>
-      </c>
-      <c r="AP962">
-        <v>20</v>
-      </c>
-      <c r="AR962">
-        <v>0</v>
-      </c>
-      <c r="AS962">
-        <v>2</v>
-      </c>
-      <c r="AT962">
-        <v>0.01</v>
-      </c>
-      <c r="AU962">
-        <v>0.01</v>
-      </c>
-      <c r="AW962">
-        <v>0</v>
-      </c>
-      <c r="AX962">
-        <v>0</v>
-      </c>
-      <c r="AY962">
-        <v>0</v>
-      </c>
-      <c r="AZ962">
-        <v>0</v>
-      </c>
-      <c r="BA962">
-        <v>0</v>
-      </c>
-      <c r="BB962">
-        <v>0</v>
-      </c>
-      <c r="BC962">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="963" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C963">
-        <v>1</v>
-      </c>
-      <c r="D963" t="s">
-        <v>2008</v>
-      </c>
-      <c r="E963" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F963" t="s">
-        <v>1984</v>
-      </c>
-      <c r="K963">
-        <v>0</v>
-      </c>
-      <c r="L963">
-        <v>8000</v>
-      </c>
-      <c r="M963">
-        <v>60</v>
-      </c>
-      <c r="Y963">
-        <v>1</v>
-      </c>
-      <c r="Z963">
-        <v>1</v>
-      </c>
-      <c r="AA963">
-        <v>30</v>
-      </c>
-      <c r="AB963">
-        <v>80</v>
-      </c>
-      <c r="AC963" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF963">
-        <v>0</v>
-      </c>
-      <c r="AG963">
-        <v>0</v>
-      </c>
-      <c r="AH963">
-        <v>0</v>
-      </c>
-      <c r="AI963">
-        <v>0</v>
-      </c>
-      <c r="AJ963">
-        <v>0</v>
-      </c>
-      <c r="AL963">
-        <v>1</v>
-      </c>
-      <c r="AM963">
-        <v>1</v>
-      </c>
-      <c r="AO963">
-        <v>0</v>
-      </c>
-      <c r="AP963">
-        <v>20</v>
-      </c>
-      <c r="AR963">
-        <v>0</v>
-      </c>
-      <c r="AS963">
-        <v>3</v>
-      </c>
-      <c r="AT963">
-        <v>0.01</v>
-      </c>
-      <c r="AU963">
-        <v>0.01</v>
-      </c>
-      <c r="AW963">
-        <v>0</v>
-      </c>
-      <c r="AX963">
-        <v>0</v>
-      </c>
-      <c r="AY963">
-        <v>0</v>
-      </c>
-      <c r="AZ963">
-        <v>0</v>
-      </c>
-      <c r="BA963">
-        <v>0</v>
-      </c>
-      <c r="BB963">
-        <v>0</v>
-      </c>
-      <c r="BC963">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="964" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C964">
-        <v>1</v>
-      </c>
-      <c r="D964" t="s">
-        <v>2009</v>
-      </c>
-      <c r="E964" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F964" t="s">
-        <v>1990</v>
-      </c>
-      <c r="K964">
-        <v>0</v>
-      </c>
-      <c r="L964">
-        <v>16000</v>
-      </c>
-      <c r="M964">
-        <v>100</v>
-      </c>
-      <c r="Y964">
-        <v>1</v>
-      </c>
-      <c r="Z964">
-        <v>1</v>
-      </c>
-      <c r="AA964">
-        <v>50</v>
-      </c>
-      <c r="AB964">
-        <v>80</v>
-      </c>
-      <c r="AC964" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF964">
-        <v>0</v>
-      </c>
-      <c r="AG964">
-        <v>0</v>
-      </c>
-      <c r="AH964">
-        <v>0</v>
-      </c>
-      <c r="AI964">
-        <v>0</v>
-      </c>
-      <c r="AJ964">
-        <v>0</v>
-      </c>
-      <c r="AL964">
-        <v>1</v>
-      </c>
-      <c r="AM964">
-        <v>1</v>
-      </c>
-      <c r="AN964">
-        <v>1</v>
-      </c>
-      <c r="AO964">
-        <v>0.1</v>
-      </c>
-      <c r="AR964">
-        <v>0</v>
-      </c>
-      <c r="AT964">
-        <v>0</v>
-      </c>
-      <c r="AU964">
-        <v>0</v>
-      </c>
-      <c r="AW964">
-        <v>0</v>
-      </c>
-      <c r="AX964">
-        <v>0</v>
-      </c>
-      <c r="AY964">
-        <v>0</v>
-      </c>
-      <c r="AZ964">
-        <v>0</v>
-      </c>
-      <c r="BA964">
-        <v>0</v>
-      </c>
-      <c r="BB964">
-        <v>0</v>
-      </c>
-      <c r="BC964">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="965" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C965">
-        <v>1</v>
-      </c>
-      <c r="D965" t="s">
-        <v>2010</v>
-      </c>
-      <c r="E965" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F965" t="s">
-        <v>2011</v>
-      </c>
-      <c r="K965">
-        <v>0</v>
-      </c>
-      <c r="L965">
-        <v>16000</v>
-      </c>
-      <c r="M965">
-        <v>120</v>
-      </c>
-      <c r="V965">
-        <v>0</v>
-      </c>
-      <c r="W965">
-        <v>0</v>
-      </c>
-      <c r="Y965">
-        <v>1</v>
-      </c>
-      <c r="Z965">
-        <v>1</v>
-      </c>
-      <c r="AA965">
-        <v>35</v>
-      </c>
-      <c r="AB965">
-        <v>80</v>
-      </c>
-      <c r="AC965" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF965">
-        <v>0</v>
-      </c>
-      <c r="AG965">
-        <v>0</v>
-      </c>
-      <c r="AH965">
-        <v>0</v>
-      </c>
-      <c r="AI965">
-        <v>0</v>
-      </c>
-      <c r="AJ965">
-        <v>0.03</v>
-      </c>
-      <c r="AL965">
-        <v>1</v>
-      </c>
-      <c r="AM965">
-        <v>1</v>
-      </c>
-      <c r="AO965">
-        <v>0</v>
-      </c>
-      <c r="AP965">
-        <v>22</v>
-      </c>
-      <c r="AR965">
-        <v>0</v>
-      </c>
-      <c r="AS965">
-        <v>6</v>
-      </c>
-      <c r="AT965">
-        <v>0</v>
-      </c>
-      <c r="AU965">
-        <v>0.1</v>
-      </c>
-      <c r="AW965">
-        <v>0</v>
-      </c>
-      <c r="AX965">
-        <v>0</v>
-      </c>
-      <c r="AY965">
-        <v>0</v>
-      </c>
-      <c r="AZ965">
-        <v>0</v>
-      </c>
-      <c r="BA965">
-        <v>0</v>
-      </c>
-      <c r="BB965">
-        <v>0</v>
-      </c>
-      <c r="BC965">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="966" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C966">
-        <v>1</v>
-      </c>
-      <c r="D966" t="s">
-        <v>2012</v>
-      </c>
-      <c r="E966" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F966" t="s">
-        <v>2013</v>
-      </c>
-      <c r="K966">
-        <v>0</v>
-      </c>
-      <c r="L966">
-        <v>18000</v>
-      </c>
-      <c r="M966">
-        <v>150</v>
-      </c>
-      <c r="V966">
-        <v>0</v>
-      </c>
-      <c r="W966">
-        <v>0</v>
-      </c>
-      <c r="Y966">
-        <v>1</v>
-      </c>
-      <c r="Z966">
-        <v>1</v>
-      </c>
-      <c r="AA966">
-        <v>40</v>
-      </c>
-      <c r="AB966">
-        <v>85</v>
-      </c>
-      <c r="AC966" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF966">
-        <v>0.25</v>
-      </c>
-      <c r="AG966">
-        <v>0.25</v>
-      </c>
-      <c r="AH966">
-        <v>0.25</v>
-      </c>
-      <c r="AI966">
-        <v>0.05</v>
-      </c>
-      <c r="AJ966">
-        <v>0.05</v>
-      </c>
-      <c r="AL966">
-        <v>1</v>
-      </c>
-      <c r="AM966">
-        <v>1</v>
-      </c>
-      <c r="AO966">
-        <v>0</v>
-      </c>
-      <c r="AP966">
-        <v>25</v>
-      </c>
-      <c r="AR966">
-        <v>0</v>
-      </c>
-      <c r="AS966">
-        <v>0</v>
-      </c>
-      <c r="AT966">
-        <v>0.25</v>
-      </c>
-      <c r="AU966">
-        <v>0.5</v>
-      </c>
-      <c r="AW966">
-        <v>0</v>
-      </c>
-      <c r="AX966">
-        <v>0</v>
-      </c>
-      <c r="AY966">
-        <v>0</v>
-      </c>
-      <c r="AZ966">
-        <v>0</v>
-      </c>
-      <c r="BA966">
-        <v>0</v>
-      </c>
-      <c r="BB966">
-        <v>0</v>
-      </c>
-      <c r="BC966">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="967" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C967">
-        <v>1</v>
-      </c>
-      <c r="D967" t="s">
-        <v>2014</v>
-      </c>
-      <c r="E967" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F967" t="s">
-        <v>2015</v>
-      </c>
-      <c r="K967">
-        <v>0</v>
-      </c>
-      <c r="L967">
-        <v>20000</v>
-      </c>
-      <c r="M967">
-        <v>200</v>
-      </c>
-      <c r="V967">
-        <v>0</v>
-      </c>
-      <c r="W967">
-        <v>0</v>
-      </c>
-      <c r="Y967">
-        <v>1</v>
-      </c>
-      <c r="Z967">
-        <v>1</v>
-      </c>
-      <c r="AA967">
-        <v>45</v>
-      </c>
-      <c r="AB967">
-        <v>90</v>
-      </c>
-      <c r="AC967" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF967">
-        <v>0</v>
-      </c>
-      <c r="AG967">
-        <v>0</v>
-      </c>
-      <c r="AH967">
-        <v>0</v>
-      </c>
-      <c r="AI967">
-        <v>0</v>
-      </c>
-      <c r="AJ967">
-        <v>0</v>
-      </c>
-      <c r="AL967">
-        <v>1</v>
-      </c>
-      <c r="AM967">
-        <v>1</v>
-      </c>
-      <c r="AO967">
-        <v>0</v>
-      </c>
-      <c r="AP967">
-        <v>28</v>
-      </c>
-      <c r="AQ967">
-        <v>1</v>
-      </c>
-      <c r="AR967">
-        <v>0.1</v>
-      </c>
-      <c r="AS967">
-        <v>3</v>
-      </c>
-      <c r="AT967">
-        <v>0.15</v>
-      </c>
-      <c r="AU967">
-        <v>0.25</v>
-      </c>
-      <c r="AW967">
-        <v>0</v>
-      </c>
-      <c r="AX967">
-        <v>0</v>
-      </c>
-      <c r="AY967">
-        <v>0</v>
-      </c>
-      <c r="AZ967">
-        <v>0</v>
-      </c>
-      <c r="BA967">
-        <v>0</v>
-      </c>
-      <c r="BB967">
-        <v>0</v>
-      </c>
-      <c r="BC967">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="968" spans="3:55" x14ac:dyDescent="0.2">
-      <c r="C968">
-        <v>1</v>
-      </c>
-      <c r="D968" t="s">
-        <v>2016</v>
-      </c>
-      <c r="E968" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F968" t="s">
-        <v>2017</v>
-      </c>
-      <c r="K968">
-        <v>0</v>
-      </c>
-      <c r="L968">
-        <v>21000</v>
-      </c>
-      <c r="M968">
-        <v>300</v>
-      </c>
-      <c r="V968">
-        <v>0</v>
-      </c>
-      <c r="W968">
-        <v>0</v>
-      </c>
-      <c r="Y968">
-        <v>1</v>
-      </c>
-      <c r="Z968">
-        <v>1</v>
-      </c>
-      <c r="AA968">
-        <v>50</v>
-      </c>
-      <c r="AB968">
-        <v>90</v>
-      </c>
-      <c r="AC968" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AF968">
-        <v>0.5</v>
-      </c>
-      <c r="AG968">
-        <v>0.5</v>
-      </c>
-      <c r="AH968">
-        <v>0.5</v>
-      </c>
-      <c r="AI968">
-        <v>0.5</v>
-      </c>
-      <c r="AJ968">
-        <v>0.5</v>
-      </c>
-      <c r="AL968">
-        <v>1</v>
-      </c>
-      <c r="AM968">
-        <v>1</v>
-      </c>
-      <c r="AO968">
-        <v>0</v>
-      </c>
-      <c r="AP968">
-        <v>30</v>
-      </c>
-      <c r="AQ968">
-        <v>1</v>
-      </c>
-      <c r="AR968">
-        <v>0.15</v>
-      </c>
-      <c r="AS968">
-        <v>0</v>
-      </c>
-      <c r="AT968">
-        <v>0.5</v>
-      </c>
-      <c r="AU968">
-        <v>0</v>
-      </c>
-      <c r="AW968">
-        <v>0</v>
-      </c>
-      <c r="AX968">
-        <v>0</v>
-      </c>
-      <c r="AY968">
-        <v>0</v>
-      </c>
-      <c r="AZ968">
-        <v>0</v>
-      </c>
-      <c r="BA968">
-        <v>0</v>
-      </c>
-      <c r="BB968">
-        <v>0</v>
-      </c>
-      <c r="BC968">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
